--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Central Mapocho de Santiago - Alcachofa.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Central Mapocho de Santiago - Alcachofa.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R195"/>
+  <dimension ref="A1:R198"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7389,7 +7389,7 @@
         </is>
       </c>
       <c r="D98" s="2" t="n">
-        <v>44400</v>
+        <v>44413</v>
       </c>
       <c r="E98" t="n">
         <v>13</v>
@@ -7413,16 +7413,16 @@
         </is>
       </c>
       <c r="J98" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K98" t="n">
-        <v>19000</v>
+        <v>15000</v>
       </c>
       <c r="L98" t="n">
-        <v>20000</v>
+        <v>16000</v>
       </c>
       <c r="M98" t="n">
-        <v>19471</v>
+        <v>15500</v>
       </c>
       <c r="N98" t="inlineStr">
         <is>
@@ -7431,11 +7431,11 @@
       </c>
       <c r="O98" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P98" t="n">
-        <v>19471</v>
+        <v>15500</v>
       </c>
       <c r="Q98" t="n">
         <v>1</v>
@@ -7461,7 +7461,7 @@
         </is>
       </c>
       <c r="D99" s="2" t="n">
-        <v>44400</v>
+        <v>44413</v>
       </c>
       <c r="E99" t="n">
         <v>13</v>
@@ -7485,16 +7485,16 @@
         </is>
       </c>
       <c r="J99" t="n">
-        <v>43</v>
+        <v>61</v>
       </c>
       <c r="K99" t="n">
-        <v>17000</v>
+        <v>13000</v>
       </c>
       <c r="L99" t="n">
-        <v>18000</v>
+        <v>14000</v>
       </c>
       <c r="M99" t="n">
-        <v>17512</v>
+        <v>13492</v>
       </c>
       <c r="N99" t="inlineStr">
         <is>
@@ -7503,11 +7503,11 @@
       </c>
       <c r="O99" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P99" t="n">
-        <v>584</v>
+        <v>450</v>
       </c>
       <c r="Q99" t="n">
         <v>30</v>
@@ -7533,7 +7533,7 @@
         </is>
       </c>
       <c r="D100" s="2" t="n">
-        <v>44400</v>
+        <v>44413</v>
       </c>
       <c r="E100" t="n">
         <v>13</v>
@@ -7557,16 +7557,16 @@
         </is>
       </c>
       <c r="J100" t="n">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="K100" t="n">
-        <v>15000</v>
+        <v>11000</v>
       </c>
       <c r="L100" t="n">
-        <v>16000</v>
+        <v>12000</v>
       </c>
       <c r="M100" t="n">
-        <v>15500</v>
+        <v>11500</v>
       </c>
       <c r="N100" t="inlineStr">
         <is>
@@ -7575,11 +7575,11 @@
       </c>
       <c r="O100" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P100" t="n">
-        <v>388</v>
+        <v>288</v>
       </c>
       <c r="Q100" t="n">
         <v>40</v>
@@ -7605,7 +7605,7 @@
         </is>
       </c>
       <c r="D101" s="2" t="n">
-        <v>44295</v>
+        <v>44400</v>
       </c>
       <c r="E101" t="n">
         <v>13</v>
@@ -7625,24 +7625,24 @@
       </c>
       <c r="I101" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J101" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K101" t="n">
-        <v>18000</v>
+        <v>19000</v>
       </c>
       <c r="L101" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="M101" t="n">
-        <v>18000</v>
+        <v>19471</v>
       </c>
       <c r="N101" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 25 unidades</t>
         </is>
       </c>
       <c r="O101" t="inlineStr">
@@ -7651,10 +7651,10 @@
         </is>
       </c>
       <c r="P101" t="n">
-        <v>600</v>
+        <v>19471</v>
       </c>
       <c r="Q101" t="n">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="R101" t="inlineStr">
         <is>
@@ -7677,7 +7677,7 @@
         </is>
       </c>
       <c r="D102" s="2" t="n">
-        <v>44390</v>
+        <v>44400</v>
       </c>
       <c r="E102" t="n">
         <v>13</v>
@@ -7697,24 +7697,24 @@
       </c>
       <c r="I102" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J102" t="n">
-        <v>16</v>
+        <v>43</v>
       </c>
       <c r="K102" t="n">
-        <v>19000</v>
+        <v>17000</v>
       </c>
       <c r="L102" t="n">
-        <v>20000</v>
+        <v>18000</v>
       </c>
       <c r="M102" t="n">
-        <v>19500</v>
+        <v>17512</v>
       </c>
       <c r="N102" t="inlineStr">
         <is>
-          <t>$/caja 25 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O102" t="inlineStr">
@@ -7723,10 +7723,10 @@
         </is>
       </c>
       <c r="P102" t="n">
-        <v>19500</v>
+        <v>584</v>
       </c>
       <c r="Q102" t="n">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="R102" t="inlineStr">
         <is>
@@ -7749,7 +7749,7 @@
         </is>
       </c>
       <c r="D103" s="2" t="n">
-        <v>44390</v>
+        <v>44400</v>
       </c>
       <c r="E103" t="n">
         <v>13</v>
@@ -7769,24 +7769,24 @@
       </c>
       <c r="I103" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J103" t="n">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="K103" t="n">
+        <v>15000</v>
+      </c>
+      <c r="L103" t="n">
         <v>16000</v>
       </c>
-      <c r="L103" t="n">
-        <v>18000</v>
-      </c>
       <c r="M103" t="n">
-        <v>17023</v>
+        <v>15500</v>
       </c>
       <c r="N103" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O103" t="inlineStr">
@@ -7795,10 +7795,10 @@
         </is>
       </c>
       <c r="P103" t="n">
-        <v>567</v>
+        <v>388</v>
       </c>
       <c r="Q103" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="R103" t="inlineStr">
         <is>
@@ -7821,7 +7821,7 @@
         </is>
       </c>
       <c r="D104" s="2" t="n">
-        <v>44390</v>
+        <v>44295</v>
       </c>
       <c r="E104" t="n">
         <v>13</v>
@@ -7841,24 +7841,24 @@
       </c>
       <c r="I104" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J104" t="n">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="K104" t="n">
-        <v>14000</v>
+        <v>18000</v>
       </c>
       <c r="L104" t="n">
-        <v>14000</v>
+        <v>18000</v>
       </c>
       <c r="M104" t="n">
-        <v>14000</v>
+        <v>18000</v>
       </c>
       <c r="N104" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O104" t="inlineStr">
@@ -7867,10 +7867,10 @@
         </is>
       </c>
       <c r="P104" t="n">
-        <v>350</v>
+        <v>600</v>
       </c>
       <c r="Q104" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="R104" t="inlineStr">
         <is>
@@ -7893,7 +7893,7 @@
         </is>
       </c>
       <c r="D105" s="2" t="n">
-        <v>44383</v>
+        <v>44390</v>
       </c>
       <c r="E105" t="n">
         <v>13</v>
@@ -7917,16 +7917,16 @@
         </is>
       </c>
       <c r="J105" t="n">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="K105" t="n">
-        <v>20000</v>
+        <v>19000</v>
       </c>
       <c r="L105" t="n">
         <v>20000</v>
       </c>
       <c r="M105" t="n">
-        <v>20000</v>
+        <v>19500</v>
       </c>
       <c r="N105" t="inlineStr">
         <is>
@@ -7939,7 +7939,7 @@
         </is>
       </c>
       <c r="P105" t="n">
-        <v>20000</v>
+        <v>19500</v>
       </c>
       <c r="Q105" t="n">
         <v>1</v>
@@ -7965,7 +7965,7 @@
         </is>
       </c>
       <c r="D106" s="2" t="n">
-        <v>44383</v>
+        <v>44390</v>
       </c>
       <c r="E106" t="n">
         <v>13</v>
@@ -7989,16 +7989,16 @@
         </is>
       </c>
       <c r="J106" t="n">
-        <v>70</v>
+        <v>43</v>
       </c>
       <c r="K106" t="n">
-        <v>17000</v>
+        <v>16000</v>
       </c>
       <c r="L106" t="n">
         <v>18000</v>
       </c>
       <c r="M106" t="n">
-        <v>17500</v>
+        <v>17023</v>
       </c>
       <c r="N106" t="inlineStr">
         <is>
@@ -8011,7 +8011,7 @@
         </is>
       </c>
       <c r="P106" t="n">
-        <v>583</v>
+        <v>567</v>
       </c>
       <c r="Q106" t="n">
         <v>30</v>
@@ -8037,7 +8037,7 @@
         </is>
       </c>
       <c r="D107" s="2" t="n">
-        <v>44383</v>
+        <v>44390</v>
       </c>
       <c r="E107" t="n">
         <v>13</v>
@@ -8061,16 +8061,16 @@
         </is>
       </c>
       <c r="J107" t="n">
-        <v>52</v>
+        <v>25</v>
       </c>
       <c r="K107" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="L107" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="M107" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="N107" t="inlineStr">
         <is>
@@ -8083,7 +8083,7 @@
         </is>
       </c>
       <c r="P107" t="n">
-        <v>375</v>
+        <v>350</v>
       </c>
       <c r="Q107" t="n">
         <v>40</v>
@@ -8124,7 +8124,7 @@
       </c>
       <c r="H108" t="inlineStr">
         <is>
-          <t>Madrigal</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I108" t="inlineStr">
@@ -8133,20 +8133,20 @@
         </is>
       </c>
       <c r="J108" t="n">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="K108" t="n">
-        <v>21000</v>
+        <v>20000</v>
       </c>
       <c r="L108" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="M108" t="n">
-        <v>21500</v>
+        <v>20000</v>
       </c>
       <c r="N108" t="inlineStr">
         <is>
-          <t>$/caja 35 unidades</t>
+          <t>$/caja 25 unidades</t>
         </is>
       </c>
       <c r="O108" t="inlineStr">
@@ -8155,10 +8155,10 @@
         </is>
       </c>
       <c r="P108" t="n">
-        <v>614</v>
+        <v>20000</v>
       </c>
       <c r="Q108" t="n">
-        <v>35</v>
+        <v>1</v>
       </c>
       <c r="R108" t="inlineStr">
         <is>
@@ -8196,7 +8196,7 @@
       </c>
       <c r="H109" t="inlineStr">
         <is>
-          <t>Madrigal</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I109" t="inlineStr">
@@ -8205,20 +8205,20 @@
         </is>
       </c>
       <c r="J109" t="n">
-        <v>52</v>
+        <v>70</v>
       </c>
       <c r="K109" t="n">
+        <v>17000</v>
+      </c>
+      <c r="L109" t="n">
         <v>18000</v>
       </c>
-      <c r="L109" t="n">
-        <v>19000</v>
-      </c>
       <c r="M109" t="n">
-        <v>18500</v>
+        <v>17500</v>
       </c>
       <c r="N109" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O109" t="inlineStr">
@@ -8227,10 +8227,10 @@
         </is>
       </c>
       <c r="P109" t="n">
-        <v>462</v>
+        <v>583</v>
       </c>
       <c r="Q109" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="R109" t="inlineStr">
         <is>
@@ -8268,7 +8268,7 @@
       </c>
       <c r="H110" t="inlineStr">
         <is>
-          <t>Madrigal</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I110" t="inlineStr">
@@ -8277,20 +8277,20 @@
         </is>
       </c>
       <c r="J110" t="n">
-        <v>34</v>
+        <v>52</v>
       </c>
       <c r="K110" t="n">
         <v>15000</v>
       </c>
       <c r="L110" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="M110" t="n">
-        <v>15500</v>
+        <v>15000</v>
       </c>
       <c r="N110" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O110" t="inlineStr">
@@ -8299,10 +8299,10 @@
         </is>
       </c>
       <c r="P110" t="n">
-        <v>310</v>
+        <v>375</v>
       </c>
       <c r="Q110" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="R110" t="inlineStr">
         <is>
@@ -8325,7 +8325,7 @@
         </is>
       </c>
       <c r="D111" s="2" t="n">
-        <v>44412</v>
+        <v>44383</v>
       </c>
       <c r="E111" t="n">
         <v>13</v>
@@ -8340,7 +8340,7 @@
       </c>
       <c r="H111" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Madrigal</t>
         </is>
       </c>
       <c r="I111" t="inlineStr">
@@ -8352,29 +8352,29 @@
         <v>16</v>
       </c>
       <c r="K111" t="n">
-        <v>16000</v>
+        <v>21000</v>
       </c>
       <c r="L111" t="n">
-        <v>16000</v>
+        <v>22000</v>
       </c>
       <c r="M111" t="n">
-        <v>16000</v>
+        <v>21500</v>
       </c>
       <c r="N111" t="inlineStr">
         <is>
-          <t>$/caja 25 unidades</t>
+          <t>$/caja 35 unidades</t>
         </is>
       </c>
       <c r="O111" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P111" t="n">
-        <v>16000</v>
+        <v>614</v>
       </c>
       <c r="Q111" t="n">
-        <v>1</v>
+        <v>35</v>
       </c>
       <c r="R111" t="inlineStr">
         <is>
@@ -8397,7 +8397,7 @@
         </is>
       </c>
       <c r="D112" s="2" t="n">
-        <v>44412</v>
+        <v>44383</v>
       </c>
       <c r="E112" t="n">
         <v>13</v>
@@ -8412,7 +8412,7 @@
       </c>
       <c r="H112" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Madrigal</t>
         </is>
       </c>
       <c r="I112" t="inlineStr">
@@ -8424,29 +8424,29 @@
         <v>52</v>
       </c>
       <c r="K112" t="n">
-        <v>14000</v>
+        <v>18000</v>
       </c>
       <c r="L112" t="n">
-        <v>15000</v>
+        <v>19000</v>
       </c>
       <c r="M112" t="n">
-        <v>14500</v>
+        <v>18500</v>
       </c>
       <c r="N112" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O112" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P112" t="n">
-        <v>483</v>
+        <v>462</v>
       </c>
       <c r="Q112" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="R112" t="inlineStr">
         <is>
@@ -8469,7 +8469,7 @@
         </is>
       </c>
       <c r="D113" s="2" t="n">
-        <v>44412</v>
+        <v>44383</v>
       </c>
       <c r="E113" t="n">
         <v>13</v>
@@ -8484,7 +8484,7 @@
       </c>
       <c r="H113" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Madrigal</t>
         </is>
       </c>
       <c r="I113" t="inlineStr">
@@ -8496,29 +8496,29 @@
         <v>34</v>
       </c>
       <c r="K113" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="L113" t="n">
-        <v>13000</v>
+        <v>16000</v>
       </c>
       <c r="M113" t="n">
-        <v>13000</v>
+        <v>15500</v>
       </c>
       <c r="N113" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O113" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P113" t="n">
-        <v>325</v>
+        <v>310</v>
       </c>
       <c r="Q113" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="R113" t="inlineStr">
         <is>
@@ -8541,7 +8541,7 @@
         </is>
       </c>
       <c r="D114" s="2" t="n">
-        <v>44336</v>
+        <v>44412</v>
       </c>
       <c r="E114" t="n">
         <v>13</v>
@@ -8556,29 +8556,29 @@
       </c>
       <c r="H114" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I114" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J114" t="n">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="K114" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="L114" t="n">
         <v>16000</v>
       </c>
       <c r="M114" t="n">
-        <v>15480</v>
+        <v>16000</v>
       </c>
       <c r="N114" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 25 unidades</t>
         </is>
       </c>
       <c r="O114" t="inlineStr">
@@ -8587,10 +8587,10 @@
         </is>
       </c>
       <c r="P114" t="n">
-        <v>310</v>
+        <v>16000</v>
       </c>
       <c r="Q114" t="n">
-        <v>50</v>
+        <v>1</v>
       </c>
       <c r="R114" t="inlineStr">
         <is>
@@ -8613,7 +8613,7 @@
         </is>
       </c>
       <c r="D115" s="2" t="n">
-        <v>44336</v>
+        <v>44412</v>
       </c>
       <c r="E115" t="n">
         <v>13</v>
@@ -8628,29 +8628,29 @@
       </c>
       <c r="H115" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I115" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J115" t="n">
-        <v>16</v>
+        <v>52</v>
       </c>
       <c r="K115" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="L115" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="M115" t="n">
-        <v>13500</v>
+        <v>14500</v>
       </c>
       <c r="N115" t="inlineStr">
         <is>
-          <t>$/caja 70 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O115" t="inlineStr">
@@ -8659,10 +8659,10 @@
         </is>
       </c>
       <c r="P115" t="n">
-        <v>193</v>
+        <v>483</v>
       </c>
       <c r="Q115" t="n">
-        <v>70</v>
+        <v>30</v>
       </c>
       <c r="R115" t="inlineStr">
         <is>
@@ -8685,7 +8685,7 @@
         </is>
       </c>
       <c r="D116" s="2" t="n">
-        <v>44336</v>
+        <v>44412</v>
       </c>
       <c r="E116" t="n">
         <v>13</v>
@@ -8705,24 +8705,24 @@
       </c>
       <c r="I116" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J116" t="n">
         <v>34</v>
       </c>
       <c r="K116" t="n">
-        <v>17000</v>
+        <v>13000</v>
       </c>
       <c r="L116" t="n">
-        <v>18000</v>
+        <v>13000</v>
       </c>
       <c r="M116" t="n">
-        <v>17500</v>
+        <v>13000</v>
       </c>
       <c r="N116" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O116" t="inlineStr">
@@ -8731,10 +8731,10 @@
         </is>
       </c>
       <c r="P116" t="n">
-        <v>583</v>
+        <v>325</v>
       </c>
       <c r="Q116" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="R116" t="inlineStr">
         <is>
@@ -8772,29 +8772,29 @@
       </c>
       <c r="H117" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I117" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J117" t="n">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="K117" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="L117" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="M117" t="n">
-        <v>14500</v>
+        <v>15480</v>
       </c>
       <c r="N117" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O117" t="inlineStr">
@@ -8803,10 +8803,10 @@
         </is>
       </c>
       <c r="P117" t="n">
-        <v>362</v>
+        <v>310</v>
       </c>
       <c r="Q117" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="R117" t="inlineStr">
         <is>
@@ -8829,7 +8829,7 @@
         </is>
       </c>
       <c r="D118" s="2" t="n">
-        <v>44300</v>
+        <v>44336</v>
       </c>
       <c r="E118" t="n">
         <v>13</v>
@@ -8844,41 +8844,41 @@
       </c>
       <c r="H118" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I118" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J118" t="n">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="K118" t="n">
-        <v>17000</v>
+        <v>13000</v>
       </c>
       <c r="L118" t="n">
-        <v>17000</v>
+        <v>14000</v>
       </c>
       <c r="M118" t="n">
-        <v>17000</v>
+        <v>13500</v>
       </c>
       <c r="N118" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 70 unidades</t>
         </is>
       </c>
       <c r="O118" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P118" t="n">
-        <v>567</v>
+        <v>193</v>
       </c>
       <c r="Q118" t="n">
-        <v>30</v>
+        <v>70</v>
       </c>
       <c r="R118" t="inlineStr">
         <is>
@@ -8901,7 +8901,7 @@
         </is>
       </c>
       <c r="D119" s="2" t="n">
-        <v>44371</v>
+        <v>44336</v>
       </c>
       <c r="E119" t="n">
         <v>13</v>
@@ -8921,36 +8921,36 @@
       </c>
       <c r="I119" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J119" t="n">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="K119" t="n">
-        <v>20000</v>
+        <v>17000</v>
       </c>
       <c r="L119" t="n">
-        <v>21000</v>
+        <v>18000</v>
       </c>
       <c r="M119" t="n">
-        <v>20500</v>
+        <v>17500</v>
       </c>
       <c r="N119" t="inlineStr">
         <is>
-          <t>$/caja 25 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O119" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P119" t="n">
-        <v>20500</v>
+        <v>583</v>
       </c>
       <c r="Q119" t="n">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="R119" t="inlineStr">
         <is>
@@ -8973,7 +8973,7 @@
         </is>
       </c>
       <c r="D120" s="2" t="n">
-        <v>44371</v>
+        <v>44336</v>
       </c>
       <c r="E120" t="n">
         <v>13</v>
@@ -8993,36 +8993,36 @@
       </c>
       <c r="I120" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J120" t="n">
-        <v>36</v>
+        <v>16</v>
       </c>
       <c r="K120" t="n">
-        <v>17000</v>
+        <v>14000</v>
       </c>
       <c r="L120" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="M120" t="n">
-        <v>17500</v>
+        <v>14500</v>
       </c>
       <c r="N120" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O120" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P120" t="n">
-        <v>583</v>
+        <v>362</v>
       </c>
       <c r="Q120" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="R120" t="inlineStr">
         <is>
@@ -9045,7 +9045,7 @@
         </is>
       </c>
       <c r="D121" s="2" t="n">
-        <v>44371</v>
+        <v>44300</v>
       </c>
       <c r="E121" t="n">
         <v>13</v>
@@ -9065,24 +9065,24 @@
       </c>
       <c r="I121" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J121" t="n">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="K121" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="L121" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="M121" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="N121" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O121" t="inlineStr">
@@ -9091,10 +9091,10 @@
         </is>
       </c>
       <c r="P121" t="n">
-        <v>400</v>
+        <v>567</v>
       </c>
       <c r="Q121" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="R121" t="inlineStr">
         <is>
@@ -9117,7 +9117,7 @@
         </is>
       </c>
       <c r="D122" s="2" t="n">
-        <v>44320</v>
+        <v>44371</v>
       </c>
       <c r="E122" t="n">
         <v>13</v>
@@ -9141,16 +9141,16 @@
         </is>
       </c>
       <c r="J122" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="K122" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="L122" t="n">
-        <v>18000</v>
+        <v>21000</v>
       </c>
       <c r="M122" t="n">
-        <v>18000</v>
+        <v>20500</v>
       </c>
       <c r="N122" t="inlineStr">
         <is>
@@ -9163,7 +9163,7 @@
         </is>
       </c>
       <c r="P122" t="n">
-        <v>18000</v>
+        <v>20500</v>
       </c>
       <c r="Q122" t="n">
         <v>1</v>
@@ -9189,7 +9189,7 @@
         </is>
       </c>
       <c r="D123" s="2" t="n">
-        <v>44320</v>
+        <v>44371</v>
       </c>
       <c r="E123" t="n">
         <v>13</v>
@@ -9213,16 +9213,16 @@
         </is>
       </c>
       <c r="J123" t="n">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="K123" t="n">
-        <v>15000</v>
+        <v>17000</v>
       </c>
       <c r="L123" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="M123" t="n">
-        <v>15520</v>
+        <v>17500</v>
       </c>
       <c r="N123" t="inlineStr">
         <is>
@@ -9235,7 +9235,7 @@
         </is>
       </c>
       <c r="P123" t="n">
-        <v>517</v>
+        <v>583</v>
       </c>
       <c r="Q123" t="n">
         <v>30</v>
@@ -9261,7 +9261,7 @@
         </is>
       </c>
       <c r="D124" s="2" t="n">
-        <v>44364</v>
+        <v>44371</v>
       </c>
       <c r="E124" t="n">
         <v>13</v>
@@ -9276,29 +9276,29 @@
       </c>
       <c r="H124" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I124" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J124" t="n">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="K124" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="L124" t="n">
         <v>16000</v>
       </c>
       <c r="M124" t="n">
-        <v>15500</v>
+        <v>16000</v>
       </c>
       <c r="N124" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O124" t="inlineStr">
@@ -9307,10 +9307,10 @@
         </is>
       </c>
       <c r="P124" t="n">
-        <v>310</v>
+        <v>400</v>
       </c>
       <c r="Q124" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="R124" t="inlineStr">
         <is>
@@ -9333,7 +9333,7 @@
         </is>
       </c>
       <c r="D125" s="2" t="n">
-        <v>44364</v>
+        <v>44320</v>
       </c>
       <c r="E125" t="n">
         <v>13</v>
@@ -9348,29 +9348,29 @@
       </c>
       <c r="H125" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I125" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J125" t="n">
         <v>16</v>
       </c>
       <c r="K125" t="n">
-        <v>14000</v>
+        <v>18000</v>
       </c>
       <c r="L125" t="n">
-        <v>14000</v>
+        <v>18000</v>
       </c>
       <c r="M125" t="n">
-        <v>14000</v>
+        <v>18000</v>
       </c>
       <c r="N125" t="inlineStr">
         <is>
-          <t>$/caja 70 unidades</t>
+          <t>$/caja 25 unidades</t>
         </is>
       </c>
       <c r="O125" t="inlineStr">
@@ -9379,10 +9379,10 @@
         </is>
       </c>
       <c r="P125" t="n">
-        <v>200</v>
+        <v>18000</v>
       </c>
       <c r="Q125" t="n">
-        <v>70</v>
+        <v>1</v>
       </c>
       <c r="R125" t="inlineStr">
         <is>
@@ -9405,7 +9405,7 @@
         </is>
       </c>
       <c r="D126" s="2" t="n">
-        <v>44364</v>
+        <v>44320</v>
       </c>
       <c r="E126" t="n">
         <v>13</v>
@@ -9425,24 +9425,24 @@
       </c>
       <c r="I126" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J126" t="n">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="K126" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="L126" t="n">
-        <v>19000</v>
+        <v>16000</v>
       </c>
       <c r="M126" t="n">
-        <v>18500</v>
+        <v>15520</v>
       </c>
       <c r="N126" t="inlineStr">
         <is>
-          <t>$/caja 25 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O126" t="inlineStr">
@@ -9451,10 +9451,10 @@
         </is>
       </c>
       <c r="P126" t="n">
-        <v>18500</v>
+        <v>517</v>
       </c>
       <c r="Q126" t="n">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="R126" t="inlineStr">
         <is>
@@ -9492,7 +9492,7 @@
       </c>
       <c r="H127" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I127" t="inlineStr">
@@ -9504,17 +9504,17 @@
         <v>34</v>
       </c>
       <c r="K127" t="n">
+        <v>15000</v>
+      </c>
+      <c r="L127" t="n">
         <v>16000</v>
       </c>
-      <c r="L127" t="n">
-        <v>17000</v>
-      </c>
       <c r="M127" t="n">
-        <v>16500</v>
+        <v>15500</v>
       </c>
       <c r="N127" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O127" t="inlineStr">
@@ -9523,10 +9523,10 @@
         </is>
       </c>
       <c r="P127" t="n">
-        <v>550</v>
+        <v>310</v>
       </c>
       <c r="Q127" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R127" t="inlineStr">
         <is>
@@ -9564,7 +9564,7 @@
       </c>
       <c r="H128" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I128" t="inlineStr">
@@ -9573,7 +9573,7 @@
         </is>
       </c>
       <c r="J128" t="n">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="K128" t="n">
         <v>14000</v>
@@ -9586,7 +9586,7 @@
       </c>
       <c r="N128" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 70 unidades</t>
         </is>
       </c>
       <c r="O128" t="inlineStr">
@@ -9595,10 +9595,10 @@
         </is>
       </c>
       <c r="P128" t="n">
-        <v>350</v>
+        <v>200</v>
       </c>
       <c r="Q128" t="n">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="R128" t="inlineStr">
         <is>
@@ -9621,7 +9621,7 @@
         </is>
       </c>
       <c r="D129" s="2" t="n">
-        <v>44405</v>
+        <v>44364</v>
       </c>
       <c r="E129" t="n">
         <v>13</v>
@@ -9648,13 +9648,13 @@
         <v>16</v>
       </c>
       <c r="K129" t="n">
-        <v>19000</v>
+        <v>18000</v>
       </c>
       <c r="L129" t="n">
         <v>19000</v>
       </c>
       <c r="M129" t="n">
-        <v>19000</v>
+        <v>18500</v>
       </c>
       <c r="N129" t="inlineStr">
         <is>
@@ -9663,11 +9663,11 @@
       </c>
       <c r="O129" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P129" t="n">
-        <v>19000</v>
+        <v>18500</v>
       </c>
       <c r="Q129" t="n">
         <v>1</v>
@@ -9693,7 +9693,7 @@
         </is>
       </c>
       <c r="D130" s="2" t="n">
-        <v>44405</v>
+        <v>44364</v>
       </c>
       <c r="E130" t="n">
         <v>13</v>
@@ -9717,7 +9717,7 @@
         </is>
       </c>
       <c r="J130" t="n">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="K130" t="n">
         <v>16000</v>
@@ -9726,7 +9726,7 @@
         <v>17000</v>
       </c>
       <c r="M130" t="n">
-        <v>16512</v>
+        <v>16500</v>
       </c>
       <c r="N130" t="inlineStr">
         <is>
@@ -9735,7 +9735,7 @@
       </c>
       <c r="O130" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P130" t="n">
@@ -9765,7 +9765,7 @@
         </is>
       </c>
       <c r="D131" s="2" t="n">
-        <v>44405</v>
+        <v>44364</v>
       </c>
       <c r="E131" t="n">
         <v>13</v>
@@ -9795,10 +9795,10 @@
         <v>14000</v>
       </c>
       <c r="L131" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="M131" t="n">
-        <v>14520</v>
+        <v>14000</v>
       </c>
       <c r="N131" t="inlineStr">
         <is>
@@ -9807,11 +9807,11 @@
       </c>
       <c r="O131" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P131" t="n">
-        <v>363</v>
+        <v>350</v>
       </c>
       <c r="Q131" t="n">
         <v>40</v>
@@ -9837,7 +9837,7 @@
         </is>
       </c>
       <c r="D132" s="2" t="n">
-        <v>44327</v>
+        <v>44405</v>
       </c>
       <c r="E132" t="n">
         <v>13</v>
@@ -9852,29 +9852,29 @@
       </c>
       <c r="H132" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I132" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J132" t="n">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="K132" t="n">
-        <v>16000</v>
+        <v>19000</v>
       </c>
       <c r="L132" t="n">
-        <v>16000</v>
+        <v>19000</v>
       </c>
       <c r="M132" t="n">
-        <v>16000</v>
+        <v>19000</v>
       </c>
       <c r="N132" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 25 unidades</t>
         </is>
       </c>
       <c r="O132" t="inlineStr">
@@ -9883,10 +9883,10 @@
         </is>
       </c>
       <c r="P132" t="n">
-        <v>320</v>
+        <v>19000</v>
       </c>
       <c r="Q132" t="n">
-        <v>50</v>
+        <v>1</v>
       </c>
       <c r="R132" t="inlineStr">
         <is>
@@ -9909,7 +9909,7 @@
         </is>
       </c>
       <c r="D133" s="2" t="n">
-        <v>44327</v>
+        <v>44405</v>
       </c>
       <c r="E133" t="n">
         <v>13</v>
@@ -9936,13 +9936,13 @@
         <v>43</v>
       </c>
       <c r="K133" t="n">
-        <v>18000</v>
+        <v>16000</v>
       </c>
       <c r="L133" t="n">
-        <v>18000</v>
+        <v>17000</v>
       </c>
       <c r="M133" t="n">
-        <v>18000</v>
+        <v>16512</v>
       </c>
       <c r="N133" t="inlineStr">
         <is>
@@ -9955,7 +9955,7 @@
         </is>
       </c>
       <c r="P133" t="n">
-        <v>600</v>
+        <v>550</v>
       </c>
       <c r="Q133" t="n">
         <v>30</v>
@@ -9981,7 +9981,7 @@
         </is>
       </c>
       <c r="D134" s="2" t="n">
-        <v>44313</v>
+        <v>44405</v>
       </c>
       <c r="E134" t="n">
         <v>13</v>
@@ -10001,24 +10001,24 @@
       </c>
       <c r="I134" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J134" t="n">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="K134" t="n">
-        <v>20000</v>
+        <v>14000</v>
       </c>
       <c r="L134" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="M134" t="n">
-        <v>20000</v>
+        <v>14520</v>
       </c>
       <c r="N134" t="inlineStr">
         <is>
-          <t>$/caja 25 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O134" t="inlineStr">
@@ -10027,10 +10027,10 @@
         </is>
       </c>
       <c r="P134" t="n">
-        <v>20000</v>
+        <v>363</v>
       </c>
       <c r="Q134" t="n">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="R134" t="inlineStr">
         <is>
@@ -10053,7 +10053,7 @@
         </is>
       </c>
       <c r="D135" s="2" t="n">
-        <v>44313</v>
+        <v>44327</v>
       </c>
       <c r="E135" t="n">
         <v>13</v>
@@ -10068,7 +10068,7 @@
       </c>
       <c r="H135" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I135" t="inlineStr">
@@ -10080,17 +10080,17 @@
         <v>25</v>
       </c>
       <c r="K135" t="n">
-        <v>17000</v>
+        <v>16000</v>
       </c>
       <c r="L135" t="n">
-        <v>17000</v>
+        <v>16000</v>
       </c>
       <c r="M135" t="n">
-        <v>17000</v>
+        <v>16000</v>
       </c>
       <c r="N135" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O135" t="inlineStr">
@@ -10099,10 +10099,10 @@
         </is>
       </c>
       <c r="P135" t="n">
-        <v>567</v>
+        <v>320</v>
       </c>
       <c r="Q135" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R135" t="inlineStr">
         <is>
@@ -10125,7 +10125,7 @@
         </is>
       </c>
       <c r="D136" s="2" t="n">
-        <v>44330</v>
+        <v>44327</v>
       </c>
       <c r="E136" t="n">
         <v>13</v>
@@ -10140,7 +10140,7 @@
       </c>
       <c r="H136" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I136" t="inlineStr">
@@ -10149,32 +10149,32 @@
         </is>
       </c>
       <c r="J136" t="n">
-        <v>25</v>
+        <v>43</v>
       </c>
       <c r="K136" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="L136" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="M136" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="N136" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O136" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P136" t="n">
-        <v>320</v>
+        <v>600</v>
       </c>
       <c r="Q136" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R136" t="inlineStr">
         <is>
@@ -10197,7 +10197,7 @@
         </is>
       </c>
       <c r="D137" s="2" t="n">
-        <v>44330</v>
+        <v>44313</v>
       </c>
       <c r="E137" t="n">
         <v>13</v>
@@ -10212,41 +10212,41 @@
       </c>
       <c r="H137" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I137" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J137" t="n">
-        <v>52</v>
+        <v>16</v>
       </c>
       <c r="K137" t="n">
-        <v>14000</v>
+        <v>20000</v>
       </c>
       <c r="L137" t="n">
-        <v>14000</v>
+        <v>20000</v>
       </c>
       <c r="M137" t="n">
-        <v>14000</v>
+        <v>20000</v>
       </c>
       <c r="N137" t="inlineStr">
         <is>
-          <t>$/caja 60 unidades</t>
+          <t>$/caja 25 unidades</t>
         </is>
       </c>
       <c r="O137" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P137" t="n">
-        <v>233</v>
+        <v>20000</v>
       </c>
       <c r="Q137" t="n">
-        <v>60</v>
+        <v>1</v>
       </c>
       <c r="R137" t="inlineStr">
         <is>
@@ -10269,7 +10269,7 @@
         </is>
       </c>
       <c r="D138" s="2" t="n">
-        <v>44330</v>
+        <v>44313</v>
       </c>
       <c r="E138" t="n">
         <v>13</v>
@@ -10293,16 +10293,16 @@
         </is>
       </c>
       <c r="J138" t="n">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="K138" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="L138" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="M138" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="N138" t="inlineStr">
         <is>
@@ -10311,11 +10311,11 @@
       </c>
       <c r="O138" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P138" t="n">
-        <v>533</v>
+        <v>567</v>
       </c>
       <c r="Q138" t="n">
         <v>30</v>
@@ -10356,7 +10356,7 @@
       </c>
       <c r="H139" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I139" t="inlineStr">
@@ -10365,20 +10365,20 @@
         </is>
       </c>
       <c r="J139" t="n">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="K139" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="L139" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="M139" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="N139" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O139" t="inlineStr">
@@ -10387,10 +10387,10 @@
         </is>
       </c>
       <c r="P139" t="n">
-        <v>350</v>
+        <v>320</v>
       </c>
       <c r="Q139" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="R139" t="inlineStr">
         <is>
@@ -10413,7 +10413,7 @@
         </is>
       </c>
       <c r="D140" s="2" t="n">
-        <v>44391</v>
+        <v>44330</v>
       </c>
       <c r="E140" t="n">
         <v>13</v>
@@ -10428,41 +10428,41 @@
       </c>
       <c r="H140" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I140" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J140" t="n">
-        <v>16</v>
+        <v>52</v>
       </c>
       <c r="K140" t="n">
-        <v>17000</v>
+        <v>14000</v>
       </c>
       <c r="L140" t="n">
-        <v>18000</v>
+        <v>14000</v>
       </c>
       <c r="M140" t="n">
-        <v>17500</v>
+        <v>14000</v>
       </c>
       <c r="N140" t="inlineStr">
         <is>
-          <t>$/caja 25 unidades</t>
+          <t>$/caja 60 unidades</t>
         </is>
       </c>
       <c r="O140" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P140" t="n">
-        <v>17500</v>
+        <v>233</v>
       </c>
       <c r="Q140" t="n">
-        <v>1</v>
+        <v>60</v>
       </c>
       <c r="R140" t="inlineStr">
         <is>
@@ -10485,7 +10485,7 @@
         </is>
       </c>
       <c r="D141" s="2" t="n">
-        <v>44391</v>
+        <v>44330</v>
       </c>
       <c r="E141" t="n">
         <v>13</v>
@@ -10509,16 +10509,16 @@
         </is>
       </c>
       <c r="J141" t="n">
-        <v>43</v>
+        <v>16</v>
       </c>
       <c r="K141" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="L141" t="n">
         <v>16000</v>
       </c>
       <c r="M141" t="n">
-        <v>15488</v>
+        <v>16000</v>
       </c>
       <c r="N141" t="inlineStr">
         <is>
@@ -10527,11 +10527,11 @@
       </c>
       <c r="O141" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P141" t="n">
-        <v>516</v>
+        <v>533</v>
       </c>
       <c r="Q141" t="n">
         <v>30</v>
@@ -10557,7 +10557,7 @@
         </is>
       </c>
       <c r="D142" s="2" t="n">
-        <v>44391</v>
+        <v>44330</v>
       </c>
       <c r="E142" t="n">
         <v>13</v>
@@ -10577,20 +10577,20 @@
       </c>
       <c r="I142" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J142" t="n">
         <v>34</v>
       </c>
       <c r="K142" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="L142" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="M142" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="N142" t="inlineStr">
         <is>
@@ -10599,11 +10599,11 @@
       </c>
       <c r="O142" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P142" t="n">
-        <v>325</v>
+        <v>350</v>
       </c>
       <c r="Q142" t="n">
         <v>40</v>
@@ -10629,7 +10629,7 @@
         </is>
       </c>
       <c r="D143" s="2" t="n">
-        <v>44351</v>
+        <v>44391</v>
       </c>
       <c r="E143" t="n">
         <v>13</v>
@@ -10644,41 +10644,41 @@
       </c>
       <c r="H143" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I143" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J143" t="n">
-        <v>43</v>
+        <v>16</v>
       </c>
       <c r="K143" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="L143" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="M143" t="n">
-        <v>16512</v>
+        <v>17500</v>
       </c>
       <c r="N143" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 25 unidades</t>
         </is>
       </c>
       <c r="O143" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P143" t="n">
-        <v>330</v>
+        <v>17500</v>
       </c>
       <c r="Q143" t="n">
-        <v>50</v>
+        <v>1</v>
       </c>
       <c r="R143" t="inlineStr">
         <is>
@@ -10701,7 +10701,7 @@
         </is>
       </c>
       <c r="D144" s="2" t="n">
-        <v>44351</v>
+        <v>44391</v>
       </c>
       <c r="E144" t="n">
         <v>13</v>
@@ -10716,41 +10716,41 @@
       </c>
       <c r="H144" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I144" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J144" t="n">
-        <v>21</v>
+        <v>43</v>
       </c>
       <c r="K144" t="n">
         <v>15000</v>
       </c>
       <c r="L144" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="M144" t="n">
-        <v>15000</v>
+        <v>15488</v>
       </c>
       <c r="N144" t="inlineStr">
         <is>
-          <t>$/caja 70 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O144" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P144" t="n">
-        <v>214</v>
+        <v>516</v>
       </c>
       <c r="Q144" t="n">
-        <v>70</v>
+        <v>30</v>
       </c>
       <c r="R144" t="inlineStr">
         <is>
@@ -10773,7 +10773,7 @@
         </is>
       </c>
       <c r="D145" s="2" t="n">
-        <v>44351</v>
+        <v>44391</v>
       </c>
       <c r="E145" t="n">
         <v>13</v>
@@ -10793,24 +10793,24 @@
       </c>
       <c r="I145" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J145" t="n">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="K145" t="n">
-        <v>20000</v>
+        <v>13000</v>
       </c>
       <c r="L145" t="n">
-        <v>20000</v>
+        <v>13000</v>
       </c>
       <c r="M145" t="n">
-        <v>20000</v>
+        <v>13000</v>
       </c>
       <c r="N145" t="inlineStr">
         <is>
-          <t>$/caja 25 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O145" t="inlineStr">
@@ -10819,10 +10819,10 @@
         </is>
       </c>
       <c r="P145" t="n">
-        <v>20000</v>
+        <v>325</v>
       </c>
       <c r="Q145" t="n">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="R145" t="inlineStr">
         <is>
@@ -10860,7 +10860,7 @@
       </c>
       <c r="H146" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I146" t="inlineStr">
@@ -10869,32 +10869,32 @@
         </is>
       </c>
       <c r="J146" t="n">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="K146" t="n">
+        <v>16000</v>
+      </c>
+      <c r="L146" t="n">
         <v>17000</v>
       </c>
-      <c r="L146" t="n">
-        <v>18000</v>
-      </c>
       <c r="M146" t="n">
-        <v>17500</v>
+        <v>16512</v>
       </c>
       <c r="N146" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O146" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P146" t="n">
-        <v>583</v>
+        <v>330</v>
       </c>
       <c r="Q146" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R146" t="inlineStr">
         <is>
@@ -10932,7 +10932,7 @@
       </c>
       <c r="H147" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I147" t="inlineStr">
@@ -10941,7 +10941,7 @@
         </is>
       </c>
       <c r="J147" t="n">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="K147" t="n">
         <v>15000</v>
@@ -10954,19 +10954,19 @@
       </c>
       <c r="N147" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 70 unidades</t>
         </is>
       </c>
       <c r="O147" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P147" t="n">
-        <v>375</v>
+        <v>214</v>
       </c>
       <c r="Q147" t="n">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="R147" t="inlineStr">
         <is>
@@ -10989,7 +10989,7 @@
         </is>
       </c>
       <c r="D148" s="2" t="n">
-        <v>44350</v>
+        <v>44351</v>
       </c>
       <c r="E148" t="n">
         <v>13</v>
@@ -11004,29 +11004,29 @@
       </c>
       <c r="H148" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I148" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J148" t="n">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="K148" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="L148" t="n">
-        <v>16000</v>
+        <v>20000</v>
       </c>
       <c r="M148" t="n">
-        <v>15500</v>
+        <v>20000</v>
       </c>
       <c r="N148" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 25 unidades</t>
         </is>
       </c>
       <c r="O148" t="inlineStr">
@@ -11035,10 +11035,10 @@
         </is>
       </c>
       <c r="P148" t="n">
-        <v>310</v>
+        <v>20000</v>
       </c>
       <c r="Q148" t="n">
-        <v>50</v>
+        <v>1</v>
       </c>
       <c r="R148" t="inlineStr">
         <is>
@@ -11061,7 +11061,7 @@
         </is>
       </c>
       <c r="D149" s="2" t="n">
-        <v>44350</v>
+        <v>44351</v>
       </c>
       <c r="E149" t="n">
         <v>13</v>
@@ -11076,29 +11076,29 @@
       </c>
       <c r="H149" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I149" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J149" t="n">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="K149" t="n">
-        <v>13000</v>
+        <v>17000</v>
       </c>
       <c r="L149" t="n">
-        <v>13000</v>
+        <v>18000</v>
       </c>
       <c r="M149" t="n">
-        <v>13000</v>
+        <v>17500</v>
       </c>
       <c r="N149" t="inlineStr">
         <is>
-          <t>$/caja 70 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O149" t="inlineStr">
@@ -11107,10 +11107,10 @@
         </is>
       </c>
       <c r="P149" t="n">
-        <v>186</v>
+        <v>583</v>
       </c>
       <c r="Q149" t="n">
-        <v>70</v>
+        <v>30</v>
       </c>
       <c r="R149" t="inlineStr">
         <is>
@@ -11133,7 +11133,7 @@
         </is>
       </c>
       <c r="D150" s="2" t="n">
-        <v>44350</v>
+        <v>44351</v>
       </c>
       <c r="E150" t="n">
         <v>13</v>
@@ -11153,36 +11153,36 @@
       </c>
       <c r="I150" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J150" t="n">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="K150" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="L150" t="n">
-        <v>19000</v>
+        <v>15000</v>
       </c>
       <c r="M150" t="n">
-        <v>18500</v>
+        <v>15000</v>
       </c>
       <c r="N150" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O150" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P150" t="n">
-        <v>617</v>
+        <v>375</v>
       </c>
       <c r="Q150" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="R150" t="inlineStr">
         <is>
@@ -11220,41 +11220,41 @@
       </c>
       <c r="H151" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I151" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J151" t="n">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="K151" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="L151" t="n">
         <v>16000</v>
       </c>
       <c r="M151" t="n">
-        <v>16000</v>
+        <v>15500</v>
       </c>
       <c r="N151" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O151" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P151" t="n">
-        <v>400</v>
+        <v>310</v>
       </c>
       <c r="Q151" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="R151" t="inlineStr">
         <is>
@@ -11277,7 +11277,7 @@
         </is>
       </c>
       <c r="D152" s="2" t="n">
-        <v>44315</v>
+        <v>44350</v>
       </c>
       <c r="E152" t="n">
         <v>13</v>
@@ -11292,41 +11292,41 @@
       </c>
       <c r="H152" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I152" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J152" t="n">
         <v>16</v>
       </c>
       <c r="K152" t="n">
-        <v>19000</v>
+        <v>13000</v>
       </c>
       <c r="L152" t="n">
-        <v>19000</v>
+        <v>13000</v>
       </c>
       <c r="M152" t="n">
-        <v>19000</v>
+        <v>13000</v>
       </c>
       <c r="N152" t="inlineStr">
         <is>
-          <t>$/caja 25 unidades</t>
+          <t>$/caja 70 unidades</t>
         </is>
       </c>
       <c r="O152" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P152" t="n">
-        <v>19000</v>
+        <v>186</v>
       </c>
       <c r="Q152" t="n">
-        <v>1</v>
+        <v>70</v>
       </c>
       <c r="R152" t="inlineStr">
         <is>
@@ -11349,7 +11349,7 @@
         </is>
       </c>
       <c r="D153" s="2" t="n">
-        <v>44315</v>
+        <v>44350</v>
       </c>
       <c r="E153" t="n">
         <v>13</v>
@@ -11373,16 +11373,16 @@
         </is>
       </c>
       <c r="J153" t="n">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="K153" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="L153" t="n">
-        <v>17000</v>
+        <v>19000</v>
       </c>
       <c r="M153" t="n">
-        <v>17000</v>
+        <v>18500</v>
       </c>
       <c r="N153" t="inlineStr">
         <is>
@@ -11395,7 +11395,7 @@
         </is>
       </c>
       <c r="P153" t="n">
-        <v>567</v>
+        <v>617</v>
       </c>
       <c r="Q153" t="n">
         <v>30</v>
@@ -11421,7 +11421,7 @@
         </is>
       </c>
       <c r="D154" s="2" t="n">
-        <v>44358</v>
+        <v>44350</v>
       </c>
       <c r="E154" t="n">
         <v>13</v>
@@ -11436,41 +11436,41 @@
       </c>
       <c r="H154" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I154" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J154" t="n">
-        <v>52</v>
+        <v>15</v>
       </c>
       <c r="K154" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="L154" t="n">
         <v>16000</v>
       </c>
       <c r="M154" t="n">
-        <v>15500</v>
+        <v>16000</v>
       </c>
       <c r="N154" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O154" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P154" t="n">
-        <v>310</v>
+        <v>400</v>
       </c>
       <c r="Q154" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="R154" t="inlineStr">
         <is>
@@ -11493,7 +11493,7 @@
         </is>
       </c>
       <c r="D155" s="2" t="n">
-        <v>44358</v>
+        <v>44315</v>
       </c>
       <c r="E155" t="n">
         <v>13</v>
@@ -11508,41 +11508,41 @@
       </c>
       <c r="H155" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I155" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J155" t="n">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="K155" t="n">
-        <v>14000</v>
+        <v>19000</v>
       </c>
       <c r="L155" t="n">
-        <v>14000</v>
+        <v>19000</v>
       </c>
       <c r="M155" t="n">
-        <v>14000</v>
+        <v>19000</v>
       </c>
       <c r="N155" t="inlineStr">
         <is>
-          <t>$/caja 70 unidades</t>
+          <t>$/caja 25 unidades</t>
         </is>
       </c>
       <c r="O155" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P155" t="n">
-        <v>200</v>
+        <v>19000</v>
       </c>
       <c r="Q155" t="n">
-        <v>70</v>
+        <v>1</v>
       </c>
       <c r="R155" t="inlineStr">
         <is>
@@ -11565,7 +11565,7 @@
         </is>
       </c>
       <c r="D156" s="2" t="n">
-        <v>44358</v>
+        <v>44315</v>
       </c>
       <c r="E156" t="n">
         <v>13</v>
@@ -11585,24 +11585,24 @@
       </c>
       <c r="I156" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J156" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="K156" t="n">
-        <v>18000</v>
+        <v>17000</v>
       </c>
       <c r="L156" t="n">
-        <v>19000</v>
+        <v>17000</v>
       </c>
       <c r="M156" t="n">
-        <v>18500</v>
+        <v>17000</v>
       </c>
       <c r="N156" t="inlineStr">
         <is>
-          <t>$/caja 25 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O156" t="inlineStr">
@@ -11611,10 +11611,10 @@
         </is>
       </c>
       <c r="P156" t="n">
-        <v>18500</v>
+        <v>567</v>
       </c>
       <c r="Q156" t="n">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="R156" t="inlineStr">
         <is>
@@ -11652,7 +11652,7 @@
       </c>
       <c r="H157" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I157" t="inlineStr">
@@ -11661,7 +11661,7 @@
         </is>
       </c>
       <c r="J157" t="n">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="K157" t="n">
         <v>15000</v>
@@ -11670,23 +11670,23 @@
         <v>16000</v>
       </c>
       <c r="M157" t="n">
-        <v>15488</v>
+        <v>15500</v>
       </c>
       <c r="N157" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O157" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P157" t="n">
-        <v>516</v>
+        <v>310</v>
       </c>
       <c r="Q157" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R157" t="inlineStr">
         <is>
@@ -11724,7 +11724,7 @@
       </c>
       <c r="H158" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I158" t="inlineStr">
@@ -11733,7 +11733,7 @@
         </is>
       </c>
       <c r="J158" t="n">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="K158" t="n">
         <v>14000</v>
@@ -11746,19 +11746,19 @@
       </c>
       <c r="N158" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 70 unidades</t>
         </is>
       </c>
       <c r="O158" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P158" t="n">
-        <v>350</v>
+        <v>200</v>
       </c>
       <c r="Q158" t="n">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="R158" t="inlineStr">
         <is>
@@ -11781,7 +11781,7 @@
         </is>
       </c>
       <c r="D159" s="2" t="n">
-        <v>44399</v>
+        <v>44358</v>
       </c>
       <c r="E159" t="n">
         <v>13</v>
@@ -11805,7 +11805,7 @@
         </is>
       </c>
       <c r="J159" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="K159" t="n">
         <v>18000</v>
@@ -11823,7 +11823,7 @@
       </c>
       <c r="O159" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P159" t="n">
@@ -11853,7 +11853,7 @@
         </is>
       </c>
       <c r="D160" s="2" t="n">
-        <v>44399</v>
+        <v>44358</v>
       </c>
       <c r="E160" t="n">
         <v>13</v>
@@ -11877,16 +11877,16 @@
         </is>
       </c>
       <c r="J160" t="n">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="K160" t="n">
+        <v>15000</v>
+      </c>
+      <c r="L160" t="n">
         <v>16000</v>
       </c>
-      <c r="L160" t="n">
-        <v>17000</v>
-      </c>
       <c r="M160" t="n">
-        <v>16500</v>
+        <v>15488</v>
       </c>
       <c r="N160" t="inlineStr">
         <is>
@@ -11895,11 +11895,11 @@
       </c>
       <c r="O160" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P160" t="n">
-        <v>550</v>
+        <v>516</v>
       </c>
       <c r="Q160" t="n">
         <v>30</v>
@@ -11925,7 +11925,7 @@
         </is>
       </c>
       <c r="D161" s="2" t="n">
-        <v>44399</v>
+        <v>44358</v>
       </c>
       <c r="E161" t="n">
         <v>13</v>
@@ -11955,10 +11955,10 @@
         <v>14000</v>
       </c>
       <c r="L161" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="M161" t="n">
-        <v>14480</v>
+        <v>14000</v>
       </c>
       <c r="N161" t="inlineStr">
         <is>
@@ -11967,11 +11967,11 @@
       </c>
       <c r="O161" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P161" t="n">
-        <v>362</v>
+        <v>350</v>
       </c>
       <c r="Q161" t="n">
         <v>40</v>
@@ -11997,7 +11997,7 @@
         </is>
       </c>
       <c r="D162" s="2" t="n">
-        <v>44292</v>
+        <v>44399</v>
       </c>
       <c r="E162" t="n">
         <v>13</v>
@@ -12017,36 +12017,36 @@
       </c>
       <c r="I162" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J162" t="n">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="K162" t="n">
         <v>18000</v>
       </c>
       <c r="L162" t="n">
-        <v>18000</v>
+        <v>19000</v>
       </c>
       <c r="M162" t="n">
-        <v>18000</v>
+        <v>18500</v>
       </c>
       <c r="N162" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 25 unidades</t>
         </is>
       </c>
       <c r="O162" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P162" t="n">
-        <v>600</v>
+        <v>18500</v>
       </c>
       <c r="Q162" t="n">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="R162" t="inlineStr">
         <is>
@@ -12069,7 +12069,7 @@
         </is>
       </c>
       <c r="D163" s="2" t="n">
-        <v>44294</v>
+        <v>44399</v>
       </c>
       <c r="E163" t="n">
         <v>13</v>
@@ -12093,16 +12093,16 @@
         </is>
       </c>
       <c r="J163" t="n">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="K163" t="n">
+        <v>16000</v>
+      </c>
+      <c r="L163" t="n">
         <v>17000</v>
       </c>
-      <c r="L163" t="n">
-        <v>18000</v>
-      </c>
       <c r="M163" t="n">
-        <v>17481</v>
+        <v>16500</v>
       </c>
       <c r="N163" t="inlineStr">
         <is>
@@ -12111,11 +12111,11 @@
       </c>
       <c r="O163" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P163" t="n">
-        <v>583</v>
+        <v>550</v>
       </c>
       <c r="Q163" t="n">
         <v>30</v>
@@ -12141,7 +12141,7 @@
         </is>
       </c>
       <c r="D164" s="2" t="n">
-        <v>44369</v>
+        <v>44399</v>
       </c>
       <c r="E164" t="n">
         <v>13</v>
@@ -12161,24 +12161,24 @@
       </c>
       <c r="I164" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J164" t="n">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="K164" t="n">
-        <v>21000</v>
+        <v>14000</v>
       </c>
       <c r="L164" t="n">
-        <v>22000</v>
+        <v>15000</v>
       </c>
       <c r="M164" t="n">
-        <v>21500</v>
+        <v>14480</v>
       </c>
       <c r="N164" t="inlineStr">
         <is>
-          <t>$/caja 25 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O164" t="inlineStr">
@@ -12187,10 +12187,10 @@
         </is>
       </c>
       <c r="P164" t="n">
-        <v>21500</v>
+        <v>362</v>
       </c>
       <c r="Q164" t="n">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="R164" t="inlineStr">
         <is>
@@ -12213,7 +12213,7 @@
         </is>
       </c>
       <c r="D165" s="2" t="n">
-        <v>44369</v>
+        <v>44292</v>
       </c>
       <c r="E165" t="n">
         <v>13</v>
@@ -12237,16 +12237,16 @@
         </is>
       </c>
       <c r="J165" t="n">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="K165" t="n">
-        <v>19000</v>
+        <v>18000</v>
       </c>
       <c r="L165" t="n">
-        <v>20000</v>
+        <v>18000</v>
       </c>
       <c r="M165" t="n">
-        <v>19500</v>
+        <v>18000</v>
       </c>
       <c r="N165" t="inlineStr">
         <is>
@@ -12255,11 +12255,11 @@
       </c>
       <c r="O165" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P165" t="n">
-        <v>650</v>
+        <v>600</v>
       </c>
       <c r="Q165" t="n">
         <v>30</v>
@@ -12285,7 +12285,7 @@
         </is>
       </c>
       <c r="D166" s="2" t="n">
-        <v>44369</v>
+        <v>44294</v>
       </c>
       <c r="E166" t="n">
         <v>13</v>
@@ -12305,36 +12305,36 @@
       </c>
       <c r="I166" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J166" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="K166" t="n">
         <v>17000</v>
       </c>
       <c r="L166" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="M166" t="n">
-        <v>17000</v>
+        <v>17481</v>
       </c>
       <c r="N166" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O166" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P166" t="n">
-        <v>425</v>
+        <v>583</v>
       </c>
       <c r="Q166" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="R166" t="inlineStr">
         <is>
@@ -12372,41 +12372,41 @@
       </c>
       <c r="H167" t="inlineStr">
         <is>
-          <t>Madrigal</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I167" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J167" t="n">
-        <v>43</v>
+        <v>16</v>
       </c>
       <c r="K167" t="n">
-        <v>16000</v>
+        <v>21000</v>
       </c>
       <c r="L167" t="n">
-        <v>17000</v>
+        <v>22000</v>
       </c>
       <c r="M167" t="n">
-        <v>16488</v>
+        <v>21500</v>
       </c>
       <c r="N167" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 25 unidades</t>
         </is>
       </c>
       <c r="O167" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P167" t="n">
-        <v>412</v>
+        <v>21500</v>
       </c>
       <c r="Q167" t="n">
-        <v>40</v>
+        <v>1</v>
       </c>
       <c r="R167" t="inlineStr">
         <is>
@@ -12444,41 +12444,41 @@
       </c>
       <c r="H168" t="inlineStr">
         <is>
-          <t>Madrigal</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I168" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J168" t="n">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="K168" t="n">
-        <v>14000</v>
+        <v>19000</v>
       </c>
       <c r="L168" t="n">
-        <v>14000</v>
+        <v>20000</v>
       </c>
       <c r="M168" t="n">
-        <v>14000</v>
+        <v>19500</v>
       </c>
       <c r="N168" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O168" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P168" t="n">
-        <v>280</v>
+        <v>650</v>
       </c>
       <c r="Q168" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R168" t="inlineStr">
         <is>
@@ -12501,7 +12501,7 @@
         </is>
       </c>
       <c r="D169" s="2" t="n">
-        <v>44307</v>
+        <v>44369</v>
       </c>
       <c r="E169" t="n">
         <v>13</v>
@@ -12521,36 +12521,36 @@
       </c>
       <c r="I169" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J169" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="K169" t="n">
-        <v>18000</v>
+        <v>17000</v>
       </c>
       <c r="L169" t="n">
-        <v>18000</v>
+        <v>17000</v>
       </c>
       <c r="M169" t="n">
-        <v>18000</v>
+        <v>17000</v>
       </c>
       <c r="N169" t="inlineStr">
         <is>
-          <t>$/caja 25 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O169" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P169" t="n">
-        <v>18000</v>
+        <v>425</v>
       </c>
       <c r="Q169" t="n">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="R169" t="inlineStr">
         <is>
@@ -12573,7 +12573,7 @@
         </is>
       </c>
       <c r="D170" s="2" t="n">
-        <v>44307</v>
+        <v>44369</v>
       </c>
       <c r="E170" t="n">
         <v>13</v>
@@ -12588,7 +12588,7 @@
       </c>
       <c r="H170" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Madrigal</t>
         </is>
       </c>
       <c r="I170" t="inlineStr">
@@ -12597,20 +12597,20 @@
         </is>
       </c>
       <c r="J170" t="n">
-        <v>16</v>
+        <v>43</v>
       </c>
       <c r="K170" t="n">
         <v>16000</v>
       </c>
       <c r="L170" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="M170" t="n">
-        <v>16000</v>
+        <v>16488</v>
       </c>
       <c r="N170" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O170" t="inlineStr">
@@ -12619,10 +12619,10 @@
         </is>
       </c>
       <c r="P170" t="n">
-        <v>533</v>
+        <v>412</v>
       </c>
       <c r="Q170" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="R170" t="inlineStr">
         <is>
@@ -12645,7 +12645,7 @@
         </is>
       </c>
       <c r="D171" s="2" t="n">
-        <v>44333</v>
+        <v>44369</v>
       </c>
       <c r="E171" t="n">
         <v>13</v>
@@ -12660,25 +12660,25 @@
       </c>
       <c r="H171" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Madrigal</t>
         </is>
       </c>
       <c r="I171" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J171" t="n">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="K171" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="L171" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="M171" t="n">
-        <v>15500</v>
+        <v>14000</v>
       </c>
       <c r="N171" t="inlineStr">
         <is>
@@ -12687,11 +12687,11 @@
       </c>
       <c r="O171" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P171" t="n">
-        <v>310</v>
+        <v>280</v>
       </c>
       <c r="Q171" t="n">
         <v>50</v>
@@ -12717,7 +12717,7 @@
         </is>
       </c>
       <c r="D172" s="2" t="n">
-        <v>44309</v>
+        <v>44307</v>
       </c>
       <c r="E172" t="n">
         <v>13</v>
@@ -12741,16 +12741,16 @@
         </is>
       </c>
       <c r="J172" t="n">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="K172" t="n">
-        <v>19000</v>
+        <v>18000</v>
       </c>
       <c r="L172" t="n">
-        <v>19000</v>
+        <v>18000</v>
       </c>
       <c r="M172" t="n">
-        <v>19000</v>
+        <v>18000</v>
       </c>
       <c r="N172" t="inlineStr">
         <is>
@@ -12759,11 +12759,11 @@
       </c>
       <c r="O172" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P172" t="n">
-        <v>19000</v>
+        <v>18000</v>
       </c>
       <c r="Q172" t="n">
         <v>1</v>
@@ -12789,7 +12789,7 @@
         </is>
       </c>
       <c r="D173" s="2" t="n">
-        <v>44309</v>
+        <v>44307</v>
       </c>
       <c r="E173" t="n">
         <v>13</v>
@@ -12813,16 +12813,16 @@
         </is>
       </c>
       <c r="J173" t="n">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="K173" t="n">
-        <v>17000</v>
+        <v>16000</v>
       </c>
       <c r="L173" t="n">
-        <v>17000</v>
+        <v>16000</v>
       </c>
       <c r="M173" t="n">
-        <v>17000</v>
+        <v>16000</v>
       </c>
       <c r="N173" t="inlineStr">
         <is>
@@ -12831,11 +12831,11 @@
       </c>
       <c r="O173" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P173" t="n">
-        <v>567</v>
+        <v>533</v>
       </c>
       <c r="Q173" t="n">
         <v>30</v>
@@ -12861,7 +12861,7 @@
         </is>
       </c>
       <c r="D174" s="2" t="n">
-        <v>44344</v>
+        <v>44333</v>
       </c>
       <c r="E174" t="n">
         <v>13</v>
@@ -12885,7 +12885,7 @@
         </is>
       </c>
       <c r="J174" t="n">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="K174" t="n">
         <v>15000</v>
@@ -12894,7 +12894,7 @@
         <v>16000</v>
       </c>
       <c r="M174" t="n">
-        <v>15524</v>
+        <v>15500</v>
       </c>
       <c r="N174" t="inlineStr">
         <is>
@@ -12903,7 +12903,7 @@
       </c>
       <c r="O174" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P174" t="n">
@@ -12933,7 +12933,7 @@
         </is>
       </c>
       <c r="D175" s="2" t="n">
-        <v>44344</v>
+        <v>44309</v>
       </c>
       <c r="E175" t="n">
         <v>13</v>
@@ -12953,36 +12953,36 @@
       </c>
       <c r="I175" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J175" t="n">
         <v>16</v>
       </c>
       <c r="K175" t="n">
-        <v>17000</v>
+        <v>19000</v>
       </c>
       <c r="L175" t="n">
-        <v>18000</v>
+        <v>19000</v>
       </c>
       <c r="M175" t="n">
-        <v>17500</v>
+        <v>19000</v>
       </c>
       <c r="N175" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 25 unidades</t>
         </is>
       </c>
       <c r="O175" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P175" t="n">
-        <v>583</v>
+        <v>19000</v>
       </c>
       <c r="Q175" t="n">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="R175" t="inlineStr">
         <is>
@@ -13005,7 +13005,7 @@
         </is>
       </c>
       <c r="D176" s="2" t="n">
-        <v>44344</v>
+        <v>44309</v>
       </c>
       <c r="E176" t="n">
         <v>13</v>
@@ -13025,36 +13025,36 @@
       </c>
       <c r="I176" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J176" t="n">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="K176" t="n">
-        <v>14000</v>
+        <v>17000</v>
       </c>
       <c r="L176" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="M176" t="n">
-        <v>15000</v>
+        <v>17000</v>
       </c>
       <c r="N176" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O176" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P176" t="n">
-        <v>375</v>
+        <v>567</v>
       </c>
       <c r="Q176" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="R176" t="inlineStr">
         <is>
@@ -13077,7 +13077,7 @@
         </is>
       </c>
       <c r="D177" s="2" t="n">
-        <v>44316</v>
+        <v>44344</v>
       </c>
       <c r="E177" t="n">
         <v>13</v>
@@ -13101,16 +13101,16 @@
         </is>
       </c>
       <c r="J177" t="n">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="K177" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="L177" t="n">
-        <v>18000</v>
+        <v>16000</v>
       </c>
       <c r="M177" t="n">
-        <v>18000</v>
+        <v>15524</v>
       </c>
       <c r="N177" t="inlineStr">
         <is>
@@ -13123,7 +13123,7 @@
         </is>
       </c>
       <c r="P177" t="n">
-        <v>360</v>
+        <v>310</v>
       </c>
       <c r="Q177" t="n">
         <v>50</v>
@@ -13149,7 +13149,7 @@
         </is>
       </c>
       <c r="D178" s="2" t="n">
-        <v>44316</v>
+        <v>44344</v>
       </c>
       <c r="E178" t="n">
         <v>13</v>
@@ -13169,24 +13169,24 @@
       </c>
       <c r="I178" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J178" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="K178" t="n">
-        <v>18000</v>
+        <v>17000</v>
       </c>
       <c r="L178" t="n">
         <v>18000</v>
       </c>
       <c r="M178" t="n">
-        <v>18000</v>
+        <v>17500</v>
       </c>
       <c r="N178" t="inlineStr">
         <is>
-          <t>$/caja 25 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O178" t="inlineStr">
@@ -13195,10 +13195,10 @@
         </is>
       </c>
       <c r="P178" t="n">
-        <v>18000</v>
+        <v>583</v>
       </c>
       <c r="Q178" t="n">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="R178" t="inlineStr">
         <is>
@@ -13221,7 +13221,7 @@
         </is>
       </c>
       <c r="D179" s="2" t="n">
-        <v>44316</v>
+        <v>44344</v>
       </c>
       <c r="E179" t="n">
         <v>13</v>
@@ -13241,24 +13241,24 @@
       </c>
       <c r="I179" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J179" t="n">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="K179" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="L179" t="n">
         <v>16000</v>
       </c>
       <c r="M179" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="N179" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O179" t="inlineStr">
@@ -13267,10 +13267,10 @@
         </is>
       </c>
       <c r="P179" t="n">
-        <v>533</v>
+        <v>375</v>
       </c>
       <c r="Q179" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="R179" t="inlineStr">
         <is>
@@ -13293,7 +13293,7 @@
         </is>
       </c>
       <c r="D180" s="2" t="n">
-        <v>44301</v>
+        <v>44316</v>
       </c>
       <c r="E180" t="n">
         <v>13</v>
@@ -13308,7 +13308,7 @@
       </c>
       <c r="H180" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I180" t="inlineStr">
@@ -13317,20 +13317,20 @@
         </is>
       </c>
       <c r="J180" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="K180" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="L180" t="n">
         <v>18000</v>
       </c>
       <c r="M180" t="n">
-        <v>17500</v>
+        <v>18000</v>
       </c>
       <c r="N180" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O180" t="inlineStr">
@@ -13339,10 +13339,10 @@
         </is>
       </c>
       <c r="P180" t="n">
-        <v>583</v>
+        <v>360</v>
       </c>
       <c r="Q180" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R180" t="inlineStr">
         <is>
@@ -13365,7 +13365,7 @@
         </is>
       </c>
       <c r="D181" s="2" t="n">
-        <v>44382</v>
+        <v>44316</v>
       </c>
       <c r="E181" t="n">
         <v>13</v>
@@ -13385,36 +13385,36 @@
       </c>
       <c r="I181" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J181" t="n">
-        <v>52</v>
+        <v>18</v>
       </c>
       <c r="K181" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="L181" t="n">
         <v>18000</v>
       </c>
       <c r="M181" t="n">
-        <v>17500</v>
+        <v>18000</v>
       </c>
       <c r="N181" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 25 unidades</t>
         </is>
       </c>
       <c r="O181" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P181" t="n">
-        <v>583</v>
+        <v>18000</v>
       </c>
       <c r="Q181" t="n">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="R181" t="inlineStr">
         <is>
@@ -13437,7 +13437,7 @@
         </is>
       </c>
       <c r="D182" s="2" t="n">
-        <v>44398</v>
+        <v>44316</v>
       </c>
       <c r="E182" t="n">
         <v>13</v>
@@ -13457,36 +13457,36 @@
       </c>
       <c r="I182" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J182" t="n">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="K182" t="n">
-        <v>18000</v>
+        <v>16000</v>
       </c>
       <c r="L182" t="n">
-        <v>18000</v>
+        <v>16000</v>
       </c>
       <c r="M182" t="n">
-        <v>18000</v>
+        <v>16000</v>
       </c>
       <c r="N182" t="inlineStr">
         <is>
-          <t>$/caja 25 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O182" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P182" t="n">
-        <v>18000</v>
+        <v>533</v>
       </c>
       <c r="Q182" t="n">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="R182" t="inlineStr">
         <is>
@@ -13509,7 +13509,7 @@
         </is>
       </c>
       <c r="D183" s="2" t="n">
-        <v>44398</v>
+        <v>44301</v>
       </c>
       <c r="E183" t="n">
         <v>13</v>
@@ -13533,16 +13533,16 @@
         </is>
       </c>
       <c r="J183" t="n">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="K183" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="L183" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="M183" t="n">
-        <v>16500</v>
+        <v>17500</v>
       </c>
       <c r="N183" t="inlineStr">
         <is>
@@ -13551,11 +13551,11 @@
       </c>
       <c r="O183" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P183" t="n">
-        <v>550</v>
+        <v>583</v>
       </c>
       <c r="Q183" t="n">
         <v>30</v>
@@ -13581,7 +13581,7 @@
         </is>
       </c>
       <c r="D184" s="2" t="n">
-        <v>44398</v>
+        <v>44382</v>
       </c>
       <c r="E184" t="n">
         <v>13</v>
@@ -13601,24 +13601,24 @@
       </c>
       <c r="I184" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J184" t="n">
-        <v>16</v>
+        <v>52</v>
       </c>
       <c r="K184" t="n">
-        <v>14000</v>
+        <v>17000</v>
       </c>
       <c r="L184" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="M184" t="n">
-        <v>14500</v>
+        <v>17500</v>
       </c>
       <c r="N184" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O184" t="inlineStr">
@@ -13627,10 +13627,10 @@
         </is>
       </c>
       <c r="P184" t="n">
-        <v>362</v>
+        <v>583</v>
       </c>
       <c r="Q184" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="R184" t="inlineStr">
         <is>
@@ -13653,7 +13653,7 @@
         </is>
       </c>
       <c r="D185" s="2" t="n">
-        <v>44355</v>
+        <v>44398</v>
       </c>
       <c r="E185" t="n">
         <v>13</v>
@@ -13668,41 +13668,41 @@
       </c>
       <c r="H185" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I185" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J185" t="n">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="K185" t="n">
-        <v>14000</v>
+        <v>18000</v>
       </c>
       <c r="L185" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="M185" t="n">
-        <v>14500</v>
+        <v>18000</v>
       </c>
       <c r="N185" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 25 unidades</t>
         </is>
       </c>
       <c r="O185" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P185" t="n">
-        <v>290</v>
+        <v>18000</v>
       </c>
       <c r="Q185" t="n">
-        <v>50</v>
+        <v>1</v>
       </c>
       <c r="R185" t="inlineStr">
         <is>
@@ -13725,7 +13725,7 @@
         </is>
       </c>
       <c r="D186" s="2" t="n">
-        <v>44355</v>
+        <v>44398</v>
       </c>
       <c r="E186" t="n">
         <v>13</v>
@@ -13740,41 +13740,41 @@
       </c>
       <c r="H186" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I186" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J186" t="n">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="K186" t="n">
-        <v>13000</v>
+        <v>16000</v>
       </c>
       <c r="L186" t="n">
-        <v>14000</v>
+        <v>17000</v>
       </c>
       <c r="M186" t="n">
-        <v>13471</v>
+        <v>16500</v>
       </c>
       <c r="N186" t="inlineStr">
         <is>
-          <t>$/caja 70 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O186" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P186" t="n">
-        <v>192</v>
+        <v>550</v>
       </c>
       <c r="Q186" t="n">
-        <v>70</v>
+        <v>30</v>
       </c>
       <c r="R186" t="inlineStr">
         <is>
@@ -13797,7 +13797,7 @@
         </is>
       </c>
       <c r="D187" s="2" t="n">
-        <v>44355</v>
+        <v>44398</v>
       </c>
       <c r="E187" t="n">
         <v>13</v>
@@ -13817,24 +13817,24 @@
       </c>
       <c r="I187" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J187" t="n">
         <v>16</v>
       </c>
       <c r="K187" t="n">
-        <v>21000</v>
+        <v>14000</v>
       </c>
       <c r="L187" t="n">
-        <v>22000</v>
+        <v>15000</v>
       </c>
       <c r="M187" t="n">
-        <v>21500</v>
+        <v>14500</v>
       </c>
       <c r="N187" t="inlineStr">
         <is>
-          <t>$/caja 25 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O187" t="inlineStr">
@@ -13843,10 +13843,10 @@
         </is>
       </c>
       <c r="P187" t="n">
-        <v>21500</v>
+        <v>362</v>
       </c>
       <c r="Q187" t="n">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="R187" t="inlineStr">
         <is>
@@ -13884,7 +13884,7 @@
       </c>
       <c r="H188" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I188" t="inlineStr">
@@ -13893,32 +13893,32 @@
         </is>
       </c>
       <c r="J188" t="n">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="K188" t="n">
-        <v>18000</v>
+        <v>14000</v>
       </c>
       <c r="L188" t="n">
-        <v>19000</v>
+        <v>15000</v>
       </c>
       <c r="M188" t="n">
-        <v>18571</v>
+        <v>14500</v>
       </c>
       <c r="N188" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O188" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P188" t="n">
-        <v>619</v>
+        <v>290</v>
       </c>
       <c r="Q188" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R188" t="inlineStr">
         <is>
@@ -13956,7 +13956,7 @@
       </c>
       <c r="H189" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I189" t="inlineStr">
@@ -13965,32 +13965,32 @@
         </is>
       </c>
       <c r="J189" t="n">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="K189" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="L189" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="M189" t="n">
-        <v>15500</v>
+        <v>13471</v>
       </c>
       <c r="N189" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 70 unidades</t>
         </is>
       </c>
       <c r="O189" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P189" t="n">
-        <v>388</v>
+        <v>192</v>
       </c>
       <c r="Q189" t="n">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="R189" t="inlineStr">
         <is>
@@ -14013,7 +14013,7 @@
         </is>
       </c>
       <c r="D190" s="2" t="n">
-        <v>44376</v>
+        <v>44355</v>
       </c>
       <c r="E190" t="n">
         <v>13</v>
@@ -14085,7 +14085,7 @@
         </is>
       </c>
       <c r="D191" s="2" t="n">
-        <v>44376</v>
+        <v>44355</v>
       </c>
       <c r="E191" t="n">
         <v>13</v>
@@ -14109,16 +14109,16 @@
         </is>
       </c>
       <c r="J191" t="n">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="K191" t="n">
+        <v>18000</v>
+      </c>
+      <c r="L191" t="n">
         <v>19000</v>
       </c>
-      <c r="L191" t="n">
-        <v>20000</v>
-      </c>
       <c r="M191" t="n">
-        <v>19500</v>
+        <v>18571</v>
       </c>
       <c r="N191" t="inlineStr">
         <is>
@@ -14131,7 +14131,7 @@
         </is>
       </c>
       <c r="P191" t="n">
-        <v>650</v>
+        <v>619</v>
       </c>
       <c r="Q191" t="n">
         <v>30</v>
@@ -14157,7 +14157,7 @@
         </is>
       </c>
       <c r="D192" s="2" t="n">
-        <v>44376</v>
+        <v>44355</v>
       </c>
       <c r="E192" t="n">
         <v>13</v>
@@ -14181,16 +14181,16 @@
         </is>
       </c>
       <c r="J192" t="n">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="K192" t="n">
+        <v>15000</v>
+      </c>
+      <c r="L192" t="n">
         <v>16000</v>
       </c>
-      <c r="L192" t="n">
-        <v>17000</v>
-      </c>
       <c r="M192" t="n">
-        <v>16480</v>
+        <v>15500</v>
       </c>
       <c r="N192" t="inlineStr">
         <is>
@@ -14203,7 +14203,7 @@
         </is>
       </c>
       <c r="P192" t="n">
-        <v>412</v>
+        <v>388</v>
       </c>
       <c r="Q192" t="n">
         <v>40</v>
@@ -14229,7 +14229,7 @@
         </is>
       </c>
       <c r="D193" s="2" t="n">
-        <v>44334</v>
+        <v>44376</v>
       </c>
       <c r="E193" t="n">
         <v>13</v>
@@ -14244,29 +14244,29 @@
       </c>
       <c r="H193" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I193" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J193" t="n">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="K193" t="n">
-        <v>15000</v>
+        <v>21000</v>
       </c>
       <c r="L193" t="n">
-        <v>16000</v>
+        <v>22000</v>
       </c>
       <c r="M193" t="n">
-        <v>15500</v>
+        <v>21500</v>
       </c>
       <c r="N193" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 25 unidades</t>
         </is>
       </c>
       <c r="O193" t="inlineStr">
@@ -14275,10 +14275,10 @@
         </is>
       </c>
       <c r="P193" t="n">
-        <v>310</v>
+        <v>21500</v>
       </c>
       <c r="Q193" t="n">
-        <v>50</v>
+        <v>1</v>
       </c>
       <c r="R193" t="inlineStr">
         <is>
@@ -14301,7 +14301,7 @@
         </is>
       </c>
       <c r="D194" s="2" t="n">
-        <v>44334</v>
+        <v>44376</v>
       </c>
       <c r="E194" t="n">
         <v>13</v>
@@ -14325,16 +14325,16 @@
         </is>
       </c>
       <c r="J194" t="n">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="K194" t="n">
-        <v>17000</v>
+        <v>19000</v>
       </c>
       <c r="L194" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="M194" t="n">
-        <v>17480</v>
+        <v>19500</v>
       </c>
       <c r="N194" t="inlineStr">
         <is>
@@ -14347,7 +14347,7 @@
         </is>
       </c>
       <c r="P194" t="n">
-        <v>583</v>
+        <v>650</v>
       </c>
       <c r="Q194" t="n">
         <v>30</v>
@@ -14373,58 +14373,274 @@
         </is>
       </c>
       <c r="D195" s="2" t="n">
+        <v>44376</v>
+      </c>
+      <c r="E195" t="n">
+        <v>13</v>
+      </c>
+      <c r="F195" t="n">
+        <v>100112013</v>
+      </c>
+      <c r="G195" t="inlineStr">
+        <is>
+          <t>Alcachofa</t>
+        </is>
+      </c>
+      <c r="H195" t="inlineStr">
+        <is>
+          <t>Española</t>
+        </is>
+      </c>
+      <c r="I195" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="J195" t="n">
+        <v>25</v>
+      </c>
+      <c r="K195" t="n">
+        <v>16000</v>
+      </c>
+      <c r="L195" t="n">
+        <v>17000</v>
+      </c>
+      <c r="M195" t="n">
+        <v>16480</v>
+      </c>
+      <c r="N195" t="inlineStr">
+        <is>
+          <t>$/caja 40 unidades</t>
+        </is>
+      </c>
+      <c r="O195" t="inlineStr">
+        <is>
+          <t>Provincia del Elquí</t>
+        </is>
+      </c>
+      <c r="P195" t="n">
+        <v>412</v>
+      </c>
+      <c r="Q195" t="n">
+        <v>40</v>
+      </c>
+      <c r="R195" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="n">
+        <v>9</v>
+      </c>
+      <c r="B196" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C196" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D196" s="2" t="n">
+        <v>44334</v>
+      </c>
+      <c r="E196" t="n">
+        <v>13</v>
+      </c>
+      <c r="F196" t="n">
+        <v>100112013</v>
+      </c>
+      <c r="G196" t="inlineStr">
+        <is>
+          <t>Alcachofa</t>
+        </is>
+      </c>
+      <c r="H196" t="inlineStr">
+        <is>
+          <t>Argentina(o)</t>
+        </is>
+      </c>
+      <c r="I196" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J196" t="n">
+        <v>34</v>
+      </c>
+      <c r="K196" t="n">
+        <v>15000</v>
+      </c>
+      <c r="L196" t="n">
+        <v>16000</v>
+      </c>
+      <c r="M196" t="n">
+        <v>15500</v>
+      </c>
+      <c r="N196" t="inlineStr">
+        <is>
+          <t>$/caja 50 unidades</t>
+        </is>
+      </c>
+      <c r="O196" t="inlineStr">
+        <is>
+          <t>Provincia del Elquí</t>
+        </is>
+      </c>
+      <c r="P196" t="n">
+        <v>310</v>
+      </c>
+      <c r="Q196" t="n">
+        <v>50</v>
+      </c>
+      <c r="R196" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="n">
+        <v>9</v>
+      </c>
+      <c r="B197" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C197" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D197" s="2" t="n">
+        <v>44334</v>
+      </c>
+      <c r="E197" t="n">
+        <v>13</v>
+      </c>
+      <c r="F197" t="n">
+        <v>100112013</v>
+      </c>
+      <c r="G197" t="inlineStr">
+        <is>
+          <t>Alcachofa</t>
+        </is>
+      </c>
+      <c r="H197" t="inlineStr">
+        <is>
+          <t>Española</t>
+        </is>
+      </c>
+      <c r="I197" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J197" t="n">
+        <v>25</v>
+      </c>
+      <c r="K197" t="n">
+        <v>17000</v>
+      </c>
+      <c r="L197" t="n">
+        <v>18000</v>
+      </c>
+      <c r="M197" t="n">
+        <v>17480</v>
+      </c>
+      <c r="N197" t="inlineStr">
+        <is>
+          <t>$/caja 30 unidades</t>
+        </is>
+      </c>
+      <c r="O197" t="inlineStr">
+        <is>
+          <t>Provincia del Elquí</t>
+        </is>
+      </c>
+      <c r="P197" t="n">
+        <v>583</v>
+      </c>
+      <c r="Q197" t="n">
+        <v>30</v>
+      </c>
+      <c r="R197" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="n">
+        <v>9</v>
+      </c>
+      <c r="B198" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C198" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D198" s="2" t="n">
         <v>44168</v>
       </c>
-      <c r="E195" t="n">
-        <v>13</v>
-      </c>
-      <c r="F195" t="n">
-        <v>100112013</v>
-      </c>
-      <c r="G195" t="inlineStr">
-        <is>
-          <t>Alcachofa</t>
-        </is>
-      </c>
-      <c r="H195" t="inlineStr">
+      <c r="E198" t="n">
+        <v>13</v>
+      </c>
+      <c r="F198" t="n">
+        <v>100112013</v>
+      </c>
+      <c r="G198" t="inlineStr">
+        <is>
+          <t>Alcachofa</t>
+        </is>
+      </c>
+      <c r="H198" t="inlineStr">
         <is>
           <t>Española</t>
         </is>
       </c>
-      <c r="I195" t="inlineStr">
+      <c r="I198" t="inlineStr">
         <is>
           <t>Primera</t>
         </is>
       </c>
-      <c r="J195" t="n">
+      <c r="J198" t="n">
         <v>230</v>
       </c>
-      <c r="K195" t="n">
+      <c r="K198" t="n">
         <v>11000</v>
       </c>
-      <c r="L195" t="n">
+      <c r="L198" t="n">
         <v>11000</v>
       </c>
-      <c r="M195" t="n">
+      <c r="M198" t="n">
         <v>11000</v>
       </c>
-      <c r="N195" t="inlineStr">
+      <c r="N198" t="inlineStr">
         <is>
           <t>$/caja 30 unidades</t>
         </is>
       </c>
-      <c r="O195" t="inlineStr">
+      <c r="O198" t="inlineStr">
         <is>
           <t>Región Metropolitana</t>
         </is>
       </c>
-      <c r="P195" t="n">
+      <c r="P198" t="n">
         <v>367</v>
       </c>
-      <c r="Q195" t="n">
+      <c r="Q198" t="n">
         <v>30</v>
       </c>
-      <c r="R195" t="inlineStr">
+      <c r="R198" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Central Mapocho de Santiago - Alcachofa.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Central Mapocho de Santiago - Alcachofa.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R198"/>
+  <dimension ref="A1:R201"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4365,7 +4365,7 @@
         </is>
       </c>
       <c r="D56" s="2" t="n">
-        <v>44308</v>
+        <v>44414</v>
       </c>
       <c r="E56" t="n">
         <v>13</v>
@@ -4389,16 +4389,16 @@
         </is>
       </c>
       <c r="J56" t="n">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="K56" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="L56" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="M56" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="N56" t="inlineStr">
         <is>
@@ -4411,7 +4411,7 @@
         </is>
       </c>
       <c r="P56" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="Q56" t="n">
         <v>1</v>
@@ -4437,7 +4437,7 @@
         </is>
       </c>
       <c r="D57" s="2" t="n">
-        <v>44308</v>
+        <v>44414</v>
       </c>
       <c r="E57" t="n">
         <v>13</v>
@@ -4461,16 +4461,16 @@
         </is>
       </c>
       <c r="J57" t="n">
-        <v>30</v>
+        <v>61</v>
       </c>
       <c r="K57" t="n">
-        <v>18000</v>
+        <v>13000</v>
       </c>
       <c r="L57" t="n">
-        <v>18000</v>
+        <v>14000</v>
       </c>
       <c r="M57" t="n">
-        <v>18000</v>
+        <v>13492</v>
       </c>
       <c r="N57" t="inlineStr">
         <is>
@@ -4483,7 +4483,7 @@
         </is>
       </c>
       <c r="P57" t="n">
-        <v>600</v>
+        <v>450</v>
       </c>
       <c r="Q57" t="n">
         <v>30</v>
@@ -4509,7 +4509,7 @@
         </is>
       </c>
       <c r="D58" s="2" t="n">
-        <v>44403</v>
+        <v>44414</v>
       </c>
       <c r="E58" t="n">
         <v>13</v>
@@ -4529,36 +4529,36 @@
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J58" t="n">
         <v>43</v>
       </c>
       <c r="K58" t="n">
-        <v>16000</v>
+        <v>12000</v>
       </c>
       <c r="L58" t="n">
-        <v>17000</v>
+        <v>12000</v>
       </c>
       <c r="M58" t="n">
-        <v>16488</v>
+        <v>12000</v>
       </c>
       <c r="N58" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O58" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P58" t="n">
-        <v>550</v>
+        <v>300</v>
       </c>
       <c r="Q58" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="R58" t="inlineStr">
         <is>
@@ -4581,7 +4581,7 @@
         </is>
       </c>
       <c r="D59" s="2" t="n">
-        <v>44403</v>
+        <v>44308</v>
       </c>
       <c r="E59" t="n">
         <v>13</v>
@@ -4601,36 +4601,36 @@
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J59" t="n">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="K59" t="n">
-        <v>14000</v>
+        <v>20000</v>
       </c>
       <c r="L59" t="n">
-        <v>14000</v>
+        <v>20000</v>
       </c>
       <c r="M59" t="n">
-        <v>14000</v>
+        <v>20000</v>
       </c>
       <c r="N59" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 25 unidades</t>
         </is>
       </c>
       <c r="O59" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P59" t="n">
-        <v>350</v>
+        <v>20000</v>
       </c>
       <c r="Q59" t="n">
-        <v>40</v>
+        <v>1</v>
       </c>
       <c r="R59" t="inlineStr">
         <is>
@@ -4653,7 +4653,7 @@
         </is>
       </c>
       <c r="D60" s="2" t="n">
-        <v>44379</v>
+        <v>44308</v>
       </c>
       <c r="E60" t="n">
         <v>13</v>
@@ -4673,36 +4673,36 @@
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J60" t="n">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="K60" t="n">
-        <v>20000</v>
+        <v>18000</v>
       </c>
       <c r="L60" t="n">
-        <v>21000</v>
+        <v>18000</v>
       </c>
       <c r="M60" t="n">
-        <v>20500</v>
+        <v>18000</v>
       </c>
       <c r="N60" t="inlineStr">
         <is>
-          <t>$/caja 25 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O60" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P60" t="n">
-        <v>20500</v>
+        <v>600</v>
       </c>
       <c r="Q60" t="n">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="R60" t="inlineStr">
         <is>
@@ -4725,7 +4725,7 @@
         </is>
       </c>
       <c r="D61" s="2" t="n">
-        <v>44379</v>
+        <v>44403</v>
       </c>
       <c r="E61" t="n">
         <v>13</v>
@@ -4749,16 +4749,16 @@
         </is>
       </c>
       <c r="J61" t="n">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="K61" t="n">
-        <v>18000</v>
+        <v>16000</v>
       </c>
       <c r="L61" t="n">
-        <v>19000</v>
+        <v>17000</v>
       </c>
       <c r="M61" t="n">
-        <v>18500</v>
+        <v>16488</v>
       </c>
       <c r="N61" t="inlineStr">
         <is>
@@ -4771,7 +4771,7 @@
         </is>
       </c>
       <c r="P61" t="n">
-        <v>617</v>
+        <v>550</v>
       </c>
       <c r="Q61" t="n">
         <v>30</v>
@@ -4797,7 +4797,7 @@
         </is>
       </c>
       <c r="D62" s="2" t="n">
-        <v>44379</v>
+        <v>44403</v>
       </c>
       <c r="E62" t="n">
         <v>13</v>
@@ -4821,16 +4821,16 @@
         </is>
       </c>
       <c r="J62" t="n">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="K62" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="L62" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="M62" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="N62" t="inlineStr">
         <is>
@@ -4843,7 +4843,7 @@
         </is>
       </c>
       <c r="P62" t="n">
-        <v>400</v>
+        <v>350</v>
       </c>
       <c r="Q62" t="n">
         <v>40</v>
@@ -4884,7 +4884,7 @@
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>Madrigal</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
@@ -4896,17 +4896,17 @@
         <v>16</v>
       </c>
       <c r="K63" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="L63" t="n">
-        <v>23000</v>
+        <v>21000</v>
       </c>
       <c r="M63" t="n">
-        <v>22500</v>
+        <v>20500</v>
       </c>
       <c r="N63" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 25 unidades</t>
         </is>
       </c>
       <c r="O63" t="inlineStr">
@@ -4915,10 +4915,10 @@
         </is>
       </c>
       <c r="P63" t="n">
-        <v>750</v>
+        <v>20500</v>
       </c>
       <c r="Q63" t="n">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="R63" t="inlineStr">
         <is>
@@ -4956,7 +4956,7 @@
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>Madrigal</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
@@ -4965,20 +4965,20 @@
         </is>
       </c>
       <c r="J64" t="n">
-        <v>34</v>
+        <v>52</v>
       </c>
       <c r="K64" t="n">
-        <v>20000</v>
+        <v>18000</v>
       </c>
       <c r="L64" t="n">
-        <v>21000</v>
+        <v>19000</v>
       </c>
       <c r="M64" t="n">
-        <v>20500</v>
+        <v>18500</v>
       </c>
       <c r="N64" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O64" t="inlineStr">
@@ -4987,10 +4987,10 @@
         </is>
       </c>
       <c r="P64" t="n">
-        <v>512</v>
+        <v>617</v>
       </c>
       <c r="Q64" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="R64" t="inlineStr">
         <is>
@@ -5028,7 +5028,7 @@
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>Madrigal</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I65" t="inlineStr">
@@ -5037,20 +5037,20 @@
         </is>
       </c>
       <c r="J65" t="n">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="K65" t="n">
-        <v>19000</v>
+        <v>16000</v>
       </c>
       <c r="L65" t="n">
-        <v>19000</v>
+        <v>16000</v>
       </c>
       <c r="M65" t="n">
-        <v>19000</v>
+        <v>16000</v>
       </c>
       <c r="N65" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O65" t="inlineStr">
@@ -5059,10 +5059,10 @@
         </is>
       </c>
       <c r="P65" t="n">
-        <v>380</v>
+        <v>400</v>
       </c>
       <c r="Q65" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="R65" t="inlineStr">
         <is>
@@ -5085,7 +5085,7 @@
         </is>
       </c>
       <c r="D66" s="2" t="n">
-        <v>44306</v>
+        <v>44379</v>
       </c>
       <c r="E66" t="n">
         <v>13</v>
@@ -5100,7 +5100,7 @@
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Madrigal</t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
@@ -5112,29 +5112,29 @@
         <v>16</v>
       </c>
       <c r="K66" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="L66" t="n">
-        <v>20000</v>
+        <v>23000</v>
       </c>
       <c r="M66" t="n">
-        <v>20000</v>
+        <v>22500</v>
       </c>
       <c r="N66" t="inlineStr">
         <is>
-          <t>$/caja 25 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O66" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P66" t="n">
-        <v>20000</v>
+        <v>750</v>
       </c>
       <c r="Q66" t="n">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="R66" t="inlineStr">
         <is>
@@ -5157,7 +5157,7 @@
         </is>
       </c>
       <c r="D67" s="2" t="n">
-        <v>44306</v>
+        <v>44379</v>
       </c>
       <c r="E67" t="n">
         <v>13</v>
@@ -5172,7 +5172,7 @@
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Madrigal</t>
         </is>
       </c>
       <c r="I67" t="inlineStr">
@@ -5181,32 +5181,32 @@
         </is>
       </c>
       <c r="J67" t="n">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="K67" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="L67" t="n">
-        <v>18000</v>
+        <v>21000</v>
       </c>
       <c r="M67" t="n">
-        <v>18000</v>
+        <v>20500</v>
       </c>
       <c r="N67" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O67" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P67" t="n">
-        <v>600</v>
+        <v>512</v>
       </c>
       <c r="Q67" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="R67" t="inlineStr">
         <is>
@@ -5229,7 +5229,7 @@
         </is>
       </c>
       <c r="D68" s="2" t="n">
-        <v>44356</v>
+        <v>44379</v>
       </c>
       <c r="E68" t="n">
         <v>13</v>
@@ -5244,25 +5244,25 @@
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Madrigal</t>
         </is>
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J68" t="n">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="K68" t="n">
-        <v>15000</v>
+        <v>19000</v>
       </c>
       <c r="L68" t="n">
-        <v>16000</v>
+        <v>19000</v>
       </c>
       <c r="M68" t="n">
-        <v>15476</v>
+        <v>19000</v>
       </c>
       <c r="N68" t="inlineStr">
         <is>
@@ -5275,7 +5275,7 @@
         </is>
       </c>
       <c r="P68" t="n">
-        <v>310</v>
+        <v>380</v>
       </c>
       <c r="Q68" t="n">
         <v>50</v>
@@ -5301,7 +5301,7 @@
         </is>
       </c>
       <c r="D69" s="2" t="n">
-        <v>44356</v>
+        <v>44306</v>
       </c>
       <c r="E69" t="n">
         <v>13</v>
@@ -5316,41 +5316,41 @@
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J69" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="K69" t="n">
-        <v>13000</v>
+        <v>20000</v>
       </c>
       <c r="L69" t="n">
-        <v>13000</v>
+        <v>20000</v>
       </c>
       <c r="M69" t="n">
-        <v>13000</v>
+        <v>20000</v>
       </c>
       <c r="N69" t="inlineStr">
         <is>
-          <t>$/caja 70 unidades</t>
+          <t>$/caja 25 unidades</t>
         </is>
       </c>
       <c r="O69" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P69" t="n">
-        <v>186</v>
+        <v>20000</v>
       </c>
       <c r="Q69" t="n">
-        <v>70</v>
+        <v>1</v>
       </c>
       <c r="R69" t="inlineStr">
         <is>
@@ -5373,7 +5373,7 @@
         </is>
       </c>
       <c r="D70" s="2" t="n">
-        <v>44356</v>
+        <v>44306</v>
       </c>
       <c r="E70" t="n">
         <v>13</v>
@@ -5400,13 +5400,13 @@
         <v>25</v>
       </c>
       <c r="K70" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="L70" t="n">
         <v>18000</v>
       </c>
       <c r="M70" t="n">
-        <v>17520</v>
+        <v>18000</v>
       </c>
       <c r="N70" t="inlineStr">
         <is>
@@ -5419,7 +5419,7 @@
         </is>
       </c>
       <c r="P70" t="n">
-        <v>584</v>
+        <v>600</v>
       </c>
       <c r="Q70" t="n">
         <v>30</v>
@@ -5460,41 +5460,41 @@
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J71" t="n">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="K71" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="L71" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="M71" t="n">
-        <v>14500</v>
+        <v>15476</v>
       </c>
       <c r="N71" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O71" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P71" t="n">
-        <v>483</v>
+        <v>310</v>
       </c>
       <c r="Q71" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R71" t="inlineStr">
         <is>
@@ -5517,7 +5517,7 @@
         </is>
       </c>
       <c r="D72" s="2" t="n">
-        <v>44396</v>
+        <v>44356</v>
       </c>
       <c r="E72" t="n">
         <v>13</v>
@@ -5532,29 +5532,29 @@
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J72" t="n">
-        <v>34</v>
+        <v>12</v>
       </c>
       <c r="K72" t="n">
-        <v>16000</v>
+        <v>13000</v>
       </c>
       <c r="L72" t="n">
-        <v>17000</v>
+        <v>13000</v>
       </c>
       <c r="M72" t="n">
-        <v>16500</v>
+        <v>13000</v>
       </c>
       <c r="N72" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 70 unidades</t>
         </is>
       </c>
       <c r="O72" t="inlineStr">
@@ -5563,10 +5563,10 @@
         </is>
       </c>
       <c r="P72" t="n">
-        <v>550</v>
+        <v>186</v>
       </c>
       <c r="Q72" t="n">
-        <v>30</v>
+        <v>70</v>
       </c>
       <c r="R72" t="inlineStr">
         <is>
@@ -5589,7 +5589,7 @@
         </is>
       </c>
       <c r="D73" s="2" t="n">
-        <v>44396</v>
+        <v>44356</v>
       </c>
       <c r="E73" t="n">
         <v>13</v>
@@ -5609,36 +5609,36 @@
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J73" t="n">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="K73" t="n">
-        <v>15000</v>
+        <v>17000</v>
       </c>
       <c r="L73" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="M73" t="n">
-        <v>15000</v>
+        <v>17520</v>
       </c>
       <c r="N73" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O73" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P73" t="n">
-        <v>375</v>
+        <v>584</v>
       </c>
       <c r="Q73" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="R73" t="inlineStr">
         <is>
@@ -5661,7 +5661,7 @@
         </is>
       </c>
       <c r="D74" s="2" t="n">
-        <v>44299</v>
+        <v>44356</v>
       </c>
       <c r="E74" t="n">
         <v>13</v>
@@ -5681,20 +5681,20 @@
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J74" t="n">
-        <v>50</v>
+        <v>16</v>
       </c>
       <c r="K74" t="n">
-        <v>18000</v>
+        <v>14000</v>
       </c>
       <c r="L74" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="M74" t="n">
-        <v>18000</v>
+        <v>14500</v>
       </c>
       <c r="N74" t="inlineStr">
         <is>
@@ -5707,7 +5707,7 @@
         </is>
       </c>
       <c r="P74" t="n">
-        <v>600</v>
+        <v>483</v>
       </c>
       <c r="Q74" t="n">
         <v>30</v>
@@ -5733,7 +5733,7 @@
         </is>
       </c>
       <c r="D75" s="2" t="n">
-        <v>44162</v>
+        <v>44396</v>
       </c>
       <c r="E75" t="n">
         <v>13</v>
@@ -5757,16 +5757,16 @@
         </is>
       </c>
       <c r="J75" t="n">
-        <v>300</v>
+        <v>34</v>
       </c>
       <c r="K75" t="n">
-        <v>9000</v>
+        <v>16000</v>
       </c>
       <c r="L75" t="n">
-        <v>9000</v>
+        <v>17000</v>
       </c>
       <c r="M75" t="n">
-        <v>9000</v>
+        <v>16500</v>
       </c>
       <c r="N75" t="inlineStr">
         <is>
@@ -5775,11 +5775,11 @@
       </c>
       <c r="O75" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P75" t="n">
-        <v>300</v>
+        <v>550</v>
       </c>
       <c r="Q75" t="n">
         <v>30</v>
@@ -5805,7 +5805,7 @@
         </is>
       </c>
       <c r="D76" s="2" t="n">
-        <v>44342</v>
+        <v>44396</v>
       </c>
       <c r="E76" t="n">
         <v>13</v>
@@ -5820,29 +5820,29 @@
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J76" t="n">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="K76" t="n">
         <v>15000</v>
       </c>
       <c r="L76" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="M76" t="n">
-        <v>15476</v>
+        <v>15000</v>
       </c>
       <c r="N76" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O76" t="inlineStr">
@@ -5851,10 +5851,10 @@
         </is>
       </c>
       <c r="P76" t="n">
-        <v>310</v>
+        <v>375</v>
       </c>
       <c r="Q76" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="R76" t="inlineStr">
         <is>
@@ -5877,7 +5877,7 @@
         </is>
       </c>
       <c r="D77" s="2" t="n">
-        <v>44342</v>
+        <v>44299</v>
       </c>
       <c r="E77" t="n">
         <v>13</v>
@@ -5901,16 +5901,16 @@
         </is>
       </c>
       <c r="J77" t="n">
-        <v>24</v>
+        <v>50</v>
       </c>
       <c r="K77" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="L77" t="n">
         <v>18000</v>
       </c>
       <c r="M77" t="n">
-        <v>17500</v>
+        <v>18000</v>
       </c>
       <c r="N77" t="inlineStr">
         <is>
@@ -5923,7 +5923,7 @@
         </is>
       </c>
       <c r="P77" t="n">
-        <v>583</v>
+        <v>600</v>
       </c>
       <c r="Q77" t="n">
         <v>30</v>
@@ -5949,7 +5949,7 @@
         </is>
       </c>
       <c r="D78" s="2" t="n">
-        <v>44342</v>
+        <v>44162</v>
       </c>
       <c r="E78" t="n">
         <v>13</v>
@@ -5969,36 +5969,36 @@
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J78" t="n">
-        <v>15</v>
+        <v>300</v>
       </c>
       <c r="K78" t="n">
-        <v>15000</v>
+        <v>9000</v>
       </c>
       <c r="L78" t="n">
-        <v>15000</v>
+        <v>9000</v>
       </c>
       <c r="M78" t="n">
-        <v>15000</v>
+        <v>9000</v>
       </c>
       <c r="N78" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O78" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P78" t="n">
-        <v>375</v>
+        <v>300</v>
       </c>
       <c r="Q78" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="R78" t="inlineStr">
         <is>
@@ -6021,7 +6021,7 @@
         </is>
       </c>
       <c r="D79" s="2" t="n">
-        <v>44362</v>
+        <v>44342</v>
       </c>
       <c r="E79" t="n">
         <v>13</v>
@@ -6045,7 +6045,7 @@
         </is>
       </c>
       <c r="J79" t="n">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="K79" t="n">
         <v>15000</v>
@@ -6054,23 +6054,23 @@
         <v>16000</v>
       </c>
       <c r="M79" t="n">
-        <v>15500</v>
+        <v>15476</v>
       </c>
       <c r="N79" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O79" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P79" t="n">
-        <v>388</v>
+        <v>310</v>
       </c>
       <c r="Q79" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="R79" t="inlineStr">
         <is>
@@ -6093,7 +6093,7 @@
         </is>
       </c>
       <c r="D80" s="2" t="n">
-        <v>44362</v>
+        <v>44342</v>
       </c>
       <c r="E80" t="n">
         <v>13</v>
@@ -6108,29 +6108,29 @@
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J80" t="n">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="K80" t="n">
-        <v>14000</v>
+        <v>17000</v>
       </c>
       <c r="L80" t="n">
-        <v>14000</v>
+        <v>18000</v>
       </c>
       <c r="M80" t="n">
-        <v>14000</v>
+        <v>17500</v>
       </c>
       <c r="N80" t="inlineStr">
         <is>
-          <t>$/caja 70 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O80" t="inlineStr">
@@ -6139,10 +6139,10 @@
         </is>
       </c>
       <c r="P80" t="n">
-        <v>200</v>
+        <v>583</v>
       </c>
       <c r="Q80" t="n">
-        <v>70</v>
+        <v>30</v>
       </c>
       <c r="R80" t="inlineStr">
         <is>
@@ -6165,7 +6165,7 @@
         </is>
       </c>
       <c r="D81" s="2" t="n">
-        <v>44362</v>
+        <v>44342</v>
       </c>
       <c r="E81" t="n">
         <v>13</v>
@@ -6185,36 +6185,36 @@
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J81" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K81" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="L81" t="n">
-        <v>21000</v>
+        <v>15000</v>
       </c>
       <c r="M81" t="n">
-        <v>20500</v>
+        <v>15000</v>
       </c>
       <c r="N81" t="inlineStr">
         <is>
-          <t>$/caja 25 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O81" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P81" t="n">
-        <v>20500</v>
+        <v>375</v>
       </c>
       <c r="Q81" t="n">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="R81" t="inlineStr">
         <is>
@@ -6252,7 +6252,7 @@
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I82" t="inlineStr">
@@ -6264,29 +6264,29 @@
         <v>34</v>
       </c>
       <c r="K82" t="n">
-        <v>17000</v>
+        <v>15000</v>
       </c>
       <c r="L82" t="n">
-        <v>18000</v>
+        <v>16000</v>
       </c>
       <c r="M82" t="n">
-        <v>17500</v>
+        <v>15500</v>
       </c>
       <c r="N82" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O82" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P82" t="n">
-        <v>583</v>
+        <v>388</v>
       </c>
       <c r="Q82" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="R82" t="inlineStr">
         <is>
@@ -6309,7 +6309,7 @@
         </is>
       </c>
       <c r="D83" s="2" t="n">
-        <v>44384</v>
+        <v>44362</v>
       </c>
       <c r="E83" t="n">
         <v>13</v>
@@ -6324,41 +6324,41 @@
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J83" t="n">
-        <v>52</v>
+        <v>16</v>
       </c>
       <c r="K83" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="L83" t="n">
-        <v>17000</v>
+        <v>14000</v>
       </c>
       <c r="M83" t="n">
-        <v>16500</v>
+        <v>14000</v>
       </c>
       <c r="N83" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 70 unidades</t>
         </is>
       </c>
       <c r="O83" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P83" t="n">
-        <v>550</v>
+        <v>200</v>
       </c>
       <c r="Q83" t="n">
-        <v>30</v>
+        <v>70</v>
       </c>
       <c r="R83" t="inlineStr">
         <is>
@@ -6381,7 +6381,7 @@
         </is>
       </c>
       <c r="D84" s="2" t="n">
-        <v>44384</v>
+        <v>44362</v>
       </c>
       <c r="E84" t="n">
         <v>13</v>
@@ -6401,24 +6401,24 @@
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J84" t="n">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="K84" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="L84" t="n">
-        <v>15000</v>
+        <v>21000</v>
       </c>
       <c r="M84" t="n">
-        <v>15000</v>
+        <v>20500</v>
       </c>
       <c r="N84" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 25 unidades</t>
         </is>
       </c>
       <c r="O84" t="inlineStr">
@@ -6427,10 +6427,10 @@
         </is>
       </c>
       <c r="P84" t="n">
-        <v>375</v>
+        <v>20500</v>
       </c>
       <c r="Q84" t="n">
-        <v>40</v>
+        <v>1</v>
       </c>
       <c r="R84" t="inlineStr">
         <is>
@@ -6453,7 +6453,7 @@
         </is>
       </c>
       <c r="D85" s="2" t="n">
-        <v>44323</v>
+        <v>44362</v>
       </c>
       <c r="E85" t="n">
         <v>13</v>
@@ -6468,7 +6468,7 @@
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I85" t="inlineStr">
@@ -6477,32 +6477,32 @@
         </is>
       </c>
       <c r="J85" t="n">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="K85" t="n">
-        <v>18000</v>
+        <v>17000</v>
       </c>
       <c r="L85" t="n">
         <v>18000</v>
       </c>
       <c r="M85" t="n">
-        <v>18000</v>
+        <v>17500</v>
       </c>
       <c r="N85" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O85" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P85" t="n">
-        <v>360</v>
+        <v>583</v>
       </c>
       <c r="Q85" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R85" t="inlineStr">
         <is>
@@ -6525,7 +6525,7 @@
         </is>
       </c>
       <c r="D86" s="2" t="n">
-        <v>44323</v>
+        <v>44384</v>
       </c>
       <c r="E86" t="n">
         <v>13</v>
@@ -6545,36 +6545,36 @@
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J86" t="n">
-        <v>16</v>
+        <v>52</v>
       </c>
       <c r="K86" t="n">
-        <v>18000</v>
+        <v>16000</v>
       </c>
       <c r="L86" t="n">
-        <v>18000</v>
+        <v>17000</v>
       </c>
       <c r="M86" t="n">
-        <v>18000</v>
+        <v>16500</v>
       </c>
       <c r="N86" t="inlineStr">
         <is>
-          <t>$/caja 25 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O86" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P86" t="n">
-        <v>18000</v>
+        <v>550</v>
       </c>
       <c r="Q86" t="n">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="R86" t="inlineStr">
         <is>
@@ -6597,7 +6597,7 @@
         </is>
       </c>
       <c r="D87" s="2" t="n">
-        <v>44323</v>
+        <v>44384</v>
       </c>
       <c r="E87" t="n">
         <v>13</v>
@@ -6617,36 +6617,36 @@
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J87" t="n">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="K87" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="L87" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="M87" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="N87" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O87" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P87" t="n">
-        <v>533</v>
+        <v>375</v>
       </c>
       <c r="Q87" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="R87" t="inlineStr">
         <is>
@@ -6669,7 +6669,7 @@
         </is>
       </c>
       <c r="D88" s="2" t="n">
-        <v>44363</v>
+        <v>44323</v>
       </c>
       <c r="E88" t="n">
         <v>13</v>
@@ -6693,16 +6693,16 @@
         </is>
       </c>
       <c r="J88" t="n">
-        <v>52</v>
+        <v>16</v>
       </c>
       <c r="K88" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="L88" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="M88" t="n">
-        <v>16500</v>
+        <v>18000</v>
       </c>
       <c r="N88" t="inlineStr">
         <is>
@@ -6711,11 +6711,11 @@
       </c>
       <c r="O88" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P88" t="n">
-        <v>330</v>
+        <v>360</v>
       </c>
       <c r="Q88" t="n">
         <v>50</v>
@@ -6741,7 +6741,7 @@
         </is>
       </c>
       <c r="D89" s="2" t="n">
-        <v>44363</v>
+        <v>44323</v>
       </c>
       <c r="E89" t="n">
         <v>13</v>
@@ -6761,24 +6761,24 @@
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J89" t="n">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="K89" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="L89" t="n">
         <v>18000</v>
       </c>
       <c r="M89" t="n">
-        <v>17500</v>
+        <v>18000</v>
       </c>
       <c r="N89" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 25 unidades</t>
         </is>
       </c>
       <c r="O89" t="inlineStr">
@@ -6787,10 +6787,10 @@
         </is>
       </c>
       <c r="P89" t="n">
-        <v>583</v>
+        <v>18000</v>
       </c>
       <c r="Q89" t="n">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="R89" t="inlineStr">
         <is>
@@ -6813,7 +6813,7 @@
         </is>
       </c>
       <c r="D90" s="2" t="n">
-        <v>44349</v>
+        <v>44323</v>
       </c>
       <c r="E90" t="n">
         <v>13</v>
@@ -6837,16 +6837,16 @@
         </is>
       </c>
       <c r="J90" t="n">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="K90" t="n">
-        <v>17000</v>
+        <v>16000</v>
       </c>
       <c r="L90" t="n">
-        <v>18000</v>
+        <v>16000</v>
       </c>
       <c r="M90" t="n">
-        <v>17524</v>
+        <v>16000</v>
       </c>
       <c r="N90" t="inlineStr">
         <is>
@@ -6859,7 +6859,7 @@
         </is>
       </c>
       <c r="P90" t="n">
-        <v>584</v>
+        <v>533</v>
       </c>
       <c r="Q90" t="n">
         <v>30</v>
@@ -6885,7 +6885,7 @@
         </is>
       </c>
       <c r="D91" s="2" t="n">
-        <v>44349</v>
+        <v>44363</v>
       </c>
       <c r="E91" t="n">
         <v>13</v>
@@ -6900,41 +6900,41 @@
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J91" t="n">
-        <v>13</v>
+        <v>52</v>
       </c>
       <c r="K91" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="L91" t="n">
-        <v>15000</v>
+        <v>17000</v>
       </c>
       <c r="M91" t="n">
-        <v>15000</v>
+        <v>16500</v>
       </c>
       <c r="N91" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O91" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P91" t="n">
-        <v>375</v>
+        <v>330</v>
       </c>
       <c r="Q91" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="R91" t="inlineStr">
         <is>
@@ -6957,7 +6957,7 @@
         </is>
       </c>
       <c r="D92" s="2" t="n">
-        <v>44385</v>
+        <v>44363</v>
       </c>
       <c r="E92" t="n">
         <v>13</v>
@@ -6977,24 +6977,24 @@
       </c>
       <c r="I92" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J92" t="n">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="K92" t="n">
-        <v>19000</v>
+        <v>17000</v>
       </c>
       <c r="L92" t="n">
-        <v>19000</v>
+        <v>18000</v>
       </c>
       <c r="M92" t="n">
-        <v>19000</v>
+        <v>17500</v>
       </c>
       <c r="N92" t="inlineStr">
         <is>
-          <t>$/caja 25 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O92" t="inlineStr">
@@ -7003,10 +7003,10 @@
         </is>
       </c>
       <c r="P92" t="n">
-        <v>19000</v>
+        <v>583</v>
       </c>
       <c r="Q92" t="n">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="R92" t="inlineStr">
         <is>
@@ -7029,7 +7029,7 @@
         </is>
       </c>
       <c r="D93" s="2" t="n">
-        <v>44385</v>
+        <v>44349</v>
       </c>
       <c r="E93" t="n">
         <v>13</v>
@@ -7053,7 +7053,7 @@
         </is>
       </c>
       <c r="J93" t="n">
-        <v>52</v>
+        <v>21</v>
       </c>
       <c r="K93" t="n">
         <v>17000</v>
@@ -7062,7 +7062,7 @@
         <v>18000</v>
       </c>
       <c r="M93" t="n">
-        <v>17500</v>
+        <v>17524</v>
       </c>
       <c r="N93" t="inlineStr">
         <is>
@@ -7075,7 +7075,7 @@
         </is>
       </c>
       <c r="P93" t="n">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="Q93" t="n">
         <v>30</v>
@@ -7101,7 +7101,7 @@
         </is>
       </c>
       <c r="D94" s="2" t="n">
-        <v>44385</v>
+        <v>44349</v>
       </c>
       <c r="E94" t="n">
         <v>13</v>
@@ -7125,16 +7125,16 @@
         </is>
       </c>
       <c r="J94" t="n">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="K94" t="n">
         <v>15000</v>
       </c>
       <c r="L94" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="M94" t="n">
-        <v>15480</v>
+        <v>15000</v>
       </c>
       <c r="N94" t="inlineStr">
         <is>
@@ -7147,7 +7147,7 @@
         </is>
       </c>
       <c r="P94" t="n">
-        <v>387</v>
+        <v>375</v>
       </c>
       <c r="Q94" t="n">
         <v>40</v>
@@ -7188,7 +7188,7 @@
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>Madrigal</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I95" t="inlineStr">
@@ -7200,17 +7200,17 @@
         <v>16</v>
       </c>
       <c r="K95" t="n">
-        <v>21000</v>
+        <v>19000</v>
       </c>
       <c r="L95" t="n">
-        <v>21000</v>
+        <v>19000</v>
       </c>
       <c r="M95" t="n">
-        <v>21000</v>
+        <v>19000</v>
       </c>
       <c r="N95" t="inlineStr">
         <is>
-          <t>$/caja 35 unidades</t>
+          <t>$/caja 25 unidades</t>
         </is>
       </c>
       <c r="O95" t="inlineStr">
@@ -7219,10 +7219,10 @@
         </is>
       </c>
       <c r="P95" t="n">
-        <v>600</v>
+        <v>19000</v>
       </c>
       <c r="Q95" t="n">
-        <v>35</v>
+        <v>1</v>
       </c>
       <c r="R95" t="inlineStr">
         <is>
@@ -7260,7 +7260,7 @@
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>Madrigal</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I96" t="inlineStr">
@@ -7269,20 +7269,20 @@
         </is>
       </c>
       <c r="J96" t="n">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="K96" t="n">
+        <v>17000</v>
+      </c>
+      <c r="L96" t="n">
         <v>18000</v>
       </c>
-      <c r="L96" t="n">
-        <v>19000</v>
-      </c>
       <c r="M96" t="n">
-        <v>18512</v>
+        <v>17500</v>
       </c>
       <c r="N96" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O96" t="inlineStr">
@@ -7291,10 +7291,10 @@
         </is>
       </c>
       <c r="P96" t="n">
-        <v>463</v>
+        <v>583</v>
       </c>
       <c r="Q96" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="R96" t="inlineStr">
         <is>
@@ -7332,7 +7332,7 @@
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>Madrigal</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I97" t="inlineStr">
@@ -7344,17 +7344,17 @@
         <v>25</v>
       </c>
       <c r="K97" t="n">
+        <v>15000</v>
+      </c>
+      <c r="L97" t="n">
         <v>16000</v>
       </c>
-      <c r="L97" t="n">
-        <v>17000</v>
-      </c>
       <c r="M97" t="n">
-        <v>16480</v>
+        <v>15480</v>
       </c>
       <c r="N97" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O97" t="inlineStr">
@@ -7363,10 +7363,10 @@
         </is>
       </c>
       <c r="P97" t="n">
-        <v>330</v>
+        <v>387</v>
       </c>
       <c r="Q97" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="R97" t="inlineStr">
         <is>
@@ -7389,7 +7389,7 @@
         </is>
       </c>
       <c r="D98" s="2" t="n">
-        <v>44413</v>
+        <v>44385</v>
       </c>
       <c r="E98" t="n">
         <v>13</v>
@@ -7404,7 +7404,7 @@
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Madrigal</t>
         </is>
       </c>
       <c r="I98" t="inlineStr">
@@ -7416,29 +7416,29 @@
         <v>16</v>
       </c>
       <c r="K98" t="n">
-        <v>15000</v>
+        <v>21000</v>
       </c>
       <c r="L98" t="n">
-        <v>16000</v>
+        <v>21000</v>
       </c>
       <c r="M98" t="n">
-        <v>15500</v>
+        <v>21000</v>
       </c>
       <c r="N98" t="inlineStr">
         <is>
-          <t>$/caja 25 unidades</t>
+          <t>$/caja 35 unidades</t>
         </is>
       </c>
       <c r="O98" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P98" t="n">
-        <v>15500</v>
+        <v>600</v>
       </c>
       <c r="Q98" t="n">
-        <v>1</v>
+        <v>35</v>
       </c>
       <c r="R98" t="inlineStr">
         <is>
@@ -7461,7 +7461,7 @@
         </is>
       </c>
       <c r="D99" s="2" t="n">
-        <v>44413</v>
+        <v>44385</v>
       </c>
       <c r="E99" t="n">
         <v>13</v>
@@ -7476,7 +7476,7 @@
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Madrigal</t>
         </is>
       </c>
       <c r="I99" t="inlineStr">
@@ -7485,32 +7485,32 @@
         </is>
       </c>
       <c r="J99" t="n">
-        <v>61</v>
+        <v>43</v>
       </c>
       <c r="K99" t="n">
-        <v>13000</v>
+        <v>18000</v>
       </c>
       <c r="L99" t="n">
-        <v>14000</v>
+        <v>19000</v>
       </c>
       <c r="M99" t="n">
-        <v>13492</v>
+        <v>18512</v>
       </c>
       <c r="N99" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O99" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P99" t="n">
-        <v>450</v>
+        <v>463</v>
       </c>
       <c r="Q99" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="R99" t="inlineStr">
         <is>
@@ -7533,7 +7533,7 @@
         </is>
       </c>
       <c r="D100" s="2" t="n">
-        <v>44413</v>
+        <v>44385</v>
       </c>
       <c r="E100" t="n">
         <v>13</v>
@@ -7548,7 +7548,7 @@
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Madrigal</t>
         </is>
       </c>
       <c r="I100" t="inlineStr">
@@ -7557,32 +7557,32 @@
         </is>
       </c>
       <c r="J100" t="n">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="K100" t="n">
-        <v>11000</v>
+        <v>16000</v>
       </c>
       <c r="L100" t="n">
-        <v>12000</v>
+        <v>17000</v>
       </c>
       <c r="M100" t="n">
-        <v>11500</v>
+        <v>16480</v>
       </c>
       <c r="N100" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O100" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P100" t="n">
-        <v>288</v>
+        <v>330</v>
       </c>
       <c r="Q100" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="R100" t="inlineStr">
         <is>
@@ -7605,7 +7605,7 @@
         </is>
       </c>
       <c r="D101" s="2" t="n">
-        <v>44400</v>
+        <v>44413</v>
       </c>
       <c r="E101" t="n">
         <v>13</v>
@@ -7629,16 +7629,16 @@
         </is>
       </c>
       <c r="J101" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K101" t="n">
-        <v>19000</v>
+        <v>15000</v>
       </c>
       <c r="L101" t="n">
-        <v>20000</v>
+        <v>16000</v>
       </c>
       <c r="M101" t="n">
-        <v>19471</v>
+        <v>15500</v>
       </c>
       <c r="N101" t="inlineStr">
         <is>
@@ -7647,11 +7647,11 @@
       </c>
       <c r="O101" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P101" t="n">
-        <v>19471</v>
+        <v>15500</v>
       </c>
       <c r="Q101" t="n">
         <v>1</v>
@@ -7677,7 +7677,7 @@
         </is>
       </c>
       <c r="D102" s="2" t="n">
-        <v>44400</v>
+        <v>44413</v>
       </c>
       <c r="E102" t="n">
         <v>13</v>
@@ -7701,16 +7701,16 @@
         </is>
       </c>
       <c r="J102" t="n">
-        <v>43</v>
+        <v>61</v>
       </c>
       <c r="K102" t="n">
-        <v>17000</v>
+        <v>13000</v>
       </c>
       <c r="L102" t="n">
-        <v>18000</v>
+        <v>14000</v>
       </c>
       <c r="M102" t="n">
-        <v>17512</v>
+        <v>13492</v>
       </c>
       <c r="N102" t="inlineStr">
         <is>
@@ -7719,11 +7719,11 @@
       </c>
       <c r="O102" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P102" t="n">
-        <v>584</v>
+        <v>450</v>
       </c>
       <c r="Q102" t="n">
         <v>30</v>
@@ -7749,7 +7749,7 @@
         </is>
       </c>
       <c r="D103" s="2" t="n">
-        <v>44400</v>
+        <v>44413</v>
       </c>
       <c r="E103" t="n">
         <v>13</v>
@@ -7773,16 +7773,16 @@
         </is>
       </c>
       <c r="J103" t="n">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="K103" t="n">
-        <v>15000</v>
+        <v>11000</v>
       </c>
       <c r="L103" t="n">
-        <v>16000</v>
+        <v>12000</v>
       </c>
       <c r="M103" t="n">
-        <v>15500</v>
+        <v>11500</v>
       </c>
       <c r="N103" t="inlineStr">
         <is>
@@ -7791,11 +7791,11 @@
       </c>
       <c r="O103" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P103" t="n">
-        <v>388</v>
+        <v>288</v>
       </c>
       <c r="Q103" t="n">
         <v>40</v>
@@ -7821,7 +7821,7 @@
         </is>
       </c>
       <c r="D104" s="2" t="n">
-        <v>44295</v>
+        <v>44400</v>
       </c>
       <c r="E104" t="n">
         <v>13</v>
@@ -7841,24 +7841,24 @@
       </c>
       <c r="I104" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J104" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K104" t="n">
-        <v>18000</v>
+        <v>19000</v>
       </c>
       <c r="L104" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="M104" t="n">
-        <v>18000</v>
+        <v>19471</v>
       </c>
       <c r="N104" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 25 unidades</t>
         </is>
       </c>
       <c r="O104" t="inlineStr">
@@ -7867,10 +7867,10 @@
         </is>
       </c>
       <c r="P104" t="n">
-        <v>600</v>
+        <v>19471</v>
       </c>
       <c r="Q104" t="n">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="R104" t="inlineStr">
         <is>
@@ -7893,7 +7893,7 @@
         </is>
       </c>
       <c r="D105" s="2" t="n">
-        <v>44390</v>
+        <v>44400</v>
       </c>
       <c r="E105" t="n">
         <v>13</v>
@@ -7913,24 +7913,24 @@
       </c>
       <c r="I105" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J105" t="n">
-        <v>16</v>
+        <v>43</v>
       </c>
       <c r="K105" t="n">
-        <v>19000</v>
+        <v>17000</v>
       </c>
       <c r="L105" t="n">
-        <v>20000</v>
+        <v>18000</v>
       </c>
       <c r="M105" t="n">
-        <v>19500</v>
+        <v>17512</v>
       </c>
       <c r="N105" t="inlineStr">
         <is>
-          <t>$/caja 25 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O105" t="inlineStr">
@@ -7939,10 +7939,10 @@
         </is>
       </c>
       <c r="P105" t="n">
-        <v>19500</v>
+        <v>584</v>
       </c>
       <c r="Q105" t="n">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="R105" t="inlineStr">
         <is>
@@ -7965,7 +7965,7 @@
         </is>
       </c>
       <c r="D106" s="2" t="n">
-        <v>44390</v>
+        <v>44400</v>
       </c>
       <c r="E106" t="n">
         <v>13</v>
@@ -7985,24 +7985,24 @@
       </c>
       <c r="I106" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J106" t="n">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="K106" t="n">
+        <v>15000</v>
+      </c>
+      <c r="L106" t="n">
         <v>16000</v>
       </c>
-      <c r="L106" t="n">
-        <v>18000</v>
-      </c>
       <c r="M106" t="n">
-        <v>17023</v>
+        <v>15500</v>
       </c>
       <c r="N106" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O106" t="inlineStr">
@@ -8011,10 +8011,10 @@
         </is>
       </c>
       <c r="P106" t="n">
-        <v>567</v>
+        <v>388</v>
       </c>
       <c r="Q106" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="R106" t="inlineStr">
         <is>
@@ -8037,7 +8037,7 @@
         </is>
       </c>
       <c r="D107" s="2" t="n">
-        <v>44390</v>
+        <v>44295</v>
       </c>
       <c r="E107" t="n">
         <v>13</v>
@@ -8057,24 +8057,24 @@
       </c>
       <c r="I107" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J107" t="n">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="K107" t="n">
-        <v>14000</v>
+        <v>18000</v>
       </c>
       <c r="L107" t="n">
-        <v>14000</v>
+        <v>18000</v>
       </c>
       <c r="M107" t="n">
-        <v>14000</v>
+        <v>18000</v>
       </c>
       <c r="N107" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O107" t="inlineStr">
@@ -8083,10 +8083,10 @@
         </is>
       </c>
       <c r="P107" t="n">
-        <v>350</v>
+        <v>600</v>
       </c>
       <c r="Q107" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="R107" t="inlineStr">
         <is>
@@ -8109,7 +8109,7 @@
         </is>
       </c>
       <c r="D108" s="2" t="n">
-        <v>44383</v>
+        <v>44390</v>
       </c>
       <c r="E108" t="n">
         <v>13</v>
@@ -8133,16 +8133,16 @@
         </is>
       </c>
       <c r="J108" t="n">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="K108" t="n">
-        <v>20000</v>
+        <v>19000</v>
       </c>
       <c r="L108" t="n">
         <v>20000</v>
       </c>
       <c r="M108" t="n">
-        <v>20000</v>
+        <v>19500</v>
       </c>
       <c r="N108" t="inlineStr">
         <is>
@@ -8155,7 +8155,7 @@
         </is>
       </c>
       <c r="P108" t="n">
-        <v>20000</v>
+        <v>19500</v>
       </c>
       <c r="Q108" t="n">
         <v>1</v>
@@ -8181,7 +8181,7 @@
         </is>
       </c>
       <c r="D109" s="2" t="n">
-        <v>44383</v>
+        <v>44390</v>
       </c>
       <c r="E109" t="n">
         <v>13</v>
@@ -8205,16 +8205,16 @@
         </is>
       </c>
       <c r="J109" t="n">
-        <v>70</v>
+        <v>43</v>
       </c>
       <c r="K109" t="n">
-        <v>17000</v>
+        <v>16000</v>
       </c>
       <c r="L109" t="n">
         <v>18000</v>
       </c>
       <c r="M109" t="n">
-        <v>17500</v>
+        <v>17023</v>
       </c>
       <c r="N109" t="inlineStr">
         <is>
@@ -8227,7 +8227,7 @@
         </is>
       </c>
       <c r="P109" t="n">
-        <v>583</v>
+        <v>567</v>
       </c>
       <c r="Q109" t="n">
         <v>30</v>
@@ -8253,7 +8253,7 @@
         </is>
       </c>
       <c r="D110" s="2" t="n">
-        <v>44383</v>
+        <v>44390</v>
       </c>
       <c r="E110" t="n">
         <v>13</v>
@@ -8277,16 +8277,16 @@
         </is>
       </c>
       <c r="J110" t="n">
-        <v>52</v>
+        <v>25</v>
       </c>
       <c r="K110" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="L110" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="M110" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="N110" t="inlineStr">
         <is>
@@ -8299,7 +8299,7 @@
         </is>
       </c>
       <c r="P110" t="n">
-        <v>375</v>
+        <v>350</v>
       </c>
       <c r="Q110" t="n">
         <v>40</v>
@@ -8340,7 +8340,7 @@
       </c>
       <c r="H111" t="inlineStr">
         <is>
-          <t>Madrigal</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I111" t="inlineStr">
@@ -8349,20 +8349,20 @@
         </is>
       </c>
       <c r="J111" t="n">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="K111" t="n">
-        <v>21000</v>
+        <v>20000</v>
       </c>
       <c r="L111" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="M111" t="n">
-        <v>21500</v>
+        <v>20000</v>
       </c>
       <c r="N111" t="inlineStr">
         <is>
-          <t>$/caja 35 unidades</t>
+          <t>$/caja 25 unidades</t>
         </is>
       </c>
       <c r="O111" t="inlineStr">
@@ -8371,10 +8371,10 @@
         </is>
       </c>
       <c r="P111" t="n">
-        <v>614</v>
+        <v>20000</v>
       </c>
       <c r="Q111" t="n">
-        <v>35</v>
+        <v>1</v>
       </c>
       <c r="R111" t="inlineStr">
         <is>
@@ -8412,7 +8412,7 @@
       </c>
       <c r="H112" t="inlineStr">
         <is>
-          <t>Madrigal</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I112" t="inlineStr">
@@ -8421,20 +8421,20 @@
         </is>
       </c>
       <c r="J112" t="n">
-        <v>52</v>
+        <v>70</v>
       </c>
       <c r="K112" t="n">
+        <v>17000</v>
+      </c>
+      <c r="L112" t="n">
         <v>18000</v>
       </c>
-      <c r="L112" t="n">
-        <v>19000</v>
-      </c>
       <c r="M112" t="n">
-        <v>18500</v>
+        <v>17500</v>
       </c>
       <c r="N112" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O112" t="inlineStr">
@@ -8443,10 +8443,10 @@
         </is>
       </c>
       <c r="P112" t="n">
-        <v>462</v>
+        <v>583</v>
       </c>
       <c r="Q112" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="R112" t="inlineStr">
         <is>
@@ -8484,7 +8484,7 @@
       </c>
       <c r="H113" t="inlineStr">
         <is>
-          <t>Madrigal</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I113" t="inlineStr">
@@ -8493,20 +8493,20 @@
         </is>
       </c>
       <c r="J113" t="n">
-        <v>34</v>
+        <v>52</v>
       </c>
       <c r="K113" t="n">
         <v>15000</v>
       </c>
       <c r="L113" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="M113" t="n">
-        <v>15500</v>
+        <v>15000</v>
       </c>
       <c r="N113" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O113" t="inlineStr">
@@ -8515,10 +8515,10 @@
         </is>
       </c>
       <c r="P113" t="n">
-        <v>310</v>
+        <v>375</v>
       </c>
       <c r="Q113" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="R113" t="inlineStr">
         <is>
@@ -8541,7 +8541,7 @@
         </is>
       </c>
       <c r="D114" s="2" t="n">
-        <v>44412</v>
+        <v>44383</v>
       </c>
       <c r="E114" t="n">
         <v>13</v>
@@ -8556,7 +8556,7 @@
       </c>
       <c r="H114" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Madrigal</t>
         </is>
       </c>
       <c r="I114" t="inlineStr">
@@ -8568,29 +8568,29 @@
         <v>16</v>
       </c>
       <c r="K114" t="n">
-        <v>16000</v>
+        <v>21000</v>
       </c>
       <c r="L114" t="n">
-        <v>16000</v>
+        <v>22000</v>
       </c>
       <c r="M114" t="n">
-        <v>16000</v>
+        <v>21500</v>
       </c>
       <c r="N114" t="inlineStr">
         <is>
-          <t>$/caja 25 unidades</t>
+          <t>$/caja 35 unidades</t>
         </is>
       </c>
       <c r="O114" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P114" t="n">
-        <v>16000</v>
+        <v>614</v>
       </c>
       <c r="Q114" t="n">
-        <v>1</v>
+        <v>35</v>
       </c>
       <c r="R114" t="inlineStr">
         <is>
@@ -8613,7 +8613,7 @@
         </is>
       </c>
       <c r="D115" s="2" t="n">
-        <v>44412</v>
+        <v>44383</v>
       </c>
       <c r="E115" t="n">
         <v>13</v>
@@ -8628,7 +8628,7 @@
       </c>
       <c r="H115" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Madrigal</t>
         </is>
       </c>
       <c r="I115" t="inlineStr">
@@ -8640,29 +8640,29 @@
         <v>52</v>
       </c>
       <c r="K115" t="n">
-        <v>14000</v>
+        <v>18000</v>
       </c>
       <c r="L115" t="n">
-        <v>15000</v>
+        <v>19000</v>
       </c>
       <c r="M115" t="n">
-        <v>14500</v>
+        <v>18500</v>
       </c>
       <c r="N115" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O115" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P115" t="n">
-        <v>483</v>
+        <v>462</v>
       </c>
       <c r="Q115" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="R115" t="inlineStr">
         <is>
@@ -8685,7 +8685,7 @@
         </is>
       </c>
       <c r="D116" s="2" t="n">
-        <v>44412</v>
+        <v>44383</v>
       </c>
       <c r="E116" t="n">
         <v>13</v>
@@ -8700,7 +8700,7 @@
       </c>
       <c r="H116" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Madrigal</t>
         </is>
       </c>
       <c r="I116" t="inlineStr">
@@ -8712,29 +8712,29 @@
         <v>34</v>
       </c>
       <c r="K116" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="L116" t="n">
-        <v>13000</v>
+        <v>16000</v>
       </c>
       <c r="M116" t="n">
-        <v>13000</v>
+        <v>15500</v>
       </c>
       <c r="N116" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O116" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P116" t="n">
-        <v>325</v>
+        <v>310</v>
       </c>
       <c r="Q116" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="R116" t="inlineStr">
         <is>
@@ -8757,7 +8757,7 @@
         </is>
       </c>
       <c r="D117" s="2" t="n">
-        <v>44336</v>
+        <v>44412</v>
       </c>
       <c r="E117" t="n">
         <v>13</v>
@@ -8772,29 +8772,29 @@
       </c>
       <c r="H117" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I117" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J117" t="n">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="K117" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="L117" t="n">
         <v>16000</v>
       </c>
       <c r="M117" t="n">
-        <v>15480</v>
+        <v>16000</v>
       </c>
       <c r="N117" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 25 unidades</t>
         </is>
       </c>
       <c r="O117" t="inlineStr">
@@ -8803,10 +8803,10 @@
         </is>
       </c>
       <c r="P117" t="n">
-        <v>310</v>
+        <v>16000</v>
       </c>
       <c r="Q117" t="n">
-        <v>50</v>
+        <v>1</v>
       </c>
       <c r="R117" t="inlineStr">
         <is>
@@ -8829,7 +8829,7 @@
         </is>
       </c>
       <c r="D118" s="2" t="n">
-        <v>44336</v>
+        <v>44412</v>
       </c>
       <c r="E118" t="n">
         <v>13</v>
@@ -8844,29 +8844,29 @@
       </c>
       <c r="H118" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I118" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J118" t="n">
-        <v>16</v>
+        <v>52</v>
       </c>
       <c r="K118" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="L118" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="M118" t="n">
-        <v>13500</v>
+        <v>14500</v>
       </c>
       <c r="N118" t="inlineStr">
         <is>
-          <t>$/caja 70 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O118" t="inlineStr">
@@ -8875,10 +8875,10 @@
         </is>
       </c>
       <c r="P118" t="n">
-        <v>193</v>
+        <v>483</v>
       </c>
       <c r="Q118" t="n">
-        <v>70</v>
+        <v>30</v>
       </c>
       <c r="R118" t="inlineStr">
         <is>
@@ -8901,7 +8901,7 @@
         </is>
       </c>
       <c r="D119" s="2" t="n">
-        <v>44336</v>
+        <v>44412</v>
       </c>
       <c r="E119" t="n">
         <v>13</v>
@@ -8921,24 +8921,24 @@
       </c>
       <c r="I119" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J119" t="n">
         <v>34</v>
       </c>
       <c r="K119" t="n">
-        <v>17000</v>
+        <v>13000</v>
       </c>
       <c r="L119" t="n">
-        <v>18000</v>
+        <v>13000</v>
       </c>
       <c r="M119" t="n">
-        <v>17500</v>
+        <v>13000</v>
       </c>
       <c r="N119" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O119" t="inlineStr">
@@ -8947,10 +8947,10 @@
         </is>
       </c>
       <c r="P119" t="n">
-        <v>583</v>
+        <v>325</v>
       </c>
       <c r="Q119" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="R119" t="inlineStr">
         <is>
@@ -8988,29 +8988,29 @@
       </c>
       <c r="H120" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I120" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J120" t="n">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="K120" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="L120" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="M120" t="n">
-        <v>14500</v>
+        <v>15480</v>
       </c>
       <c r="N120" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O120" t="inlineStr">
@@ -9019,10 +9019,10 @@
         </is>
       </c>
       <c r="P120" t="n">
-        <v>362</v>
+        <v>310</v>
       </c>
       <c r="Q120" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="R120" t="inlineStr">
         <is>
@@ -9045,7 +9045,7 @@
         </is>
       </c>
       <c r="D121" s="2" t="n">
-        <v>44300</v>
+        <v>44336</v>
       </c>
       <c r="E121" t="n">
         <v>13</v>
@@ -9060,41 +9060,41 @@
       </c>
       <c r="H121" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I121" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J121" t="n">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="K121" t="n">
-        <v>17000</v>
+        <v>13000</v>
       </c>
       <c r="L121" t="n">
-        <v>17000</v>
+        <v>14000</v>
       </c>
       <c r="M121" t="n">
-        <v>17000</v>
+        <v>13500</v>
       </c>
       <c r="N121" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 70 unidades</t>
         </is>
       </c>
       <c r="O121" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P121" t="n">
-        <v>567</v>
+        <v>193</v>
       </c>
       <c r="Q121" t="n">
-        <v>30</v>
+        <v>70</v>
       </c>
       <c r="R121" t="inlineStr">
         <is>
@@ -9117,7 +9117,7 @@
         </is>
       </c>
       <c r="D122" s="2" t="n">
-        <v>44371</v>
+        <v>44336</v>
       </c>
       <c r="E122" t="n">
         <v>13</v>
@@ -9137,36 +9137,36 @@
       </c>
       <c r="I122" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J122" t="n">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="K122" t="n">
-        <v>20000</v>
+        <v>17000</v>
       </c>
       <c r="L122" t="n">
-        <v>21000</v>
+        <v>18000</v>
       </c>
       <c r="M122" t="n">
-        <v>20500</v>
+        <v>17500</v>
       </c>
       <c r="N122" t="inlineStr">
         <is>
-          <t>$/caja 25 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O122" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P122" t="n">
-        <v>20500</v>
+        <v>583</v>
       </c>
       <c r="Q122" t="n">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="R122" t="inlineStr">
         <is>
@@ -9189,7 +9189,7 @@
         </is>
       </c>
       <c r="D123" s="2" t="n">
-        <v>44371</v>
+        <v>44336</v>
       </c>
       <c r="E123" t="n">
         <v>13</v>
@@ -9209,36 +9209,36 @@
       </c>
       <c r="I123" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J123" t="n">
-        <v>36</v>
+        <v>16</v>
       </c>
       <c r="K123" t="n">
-        <v>17000</v>
+        <v>14000</v>
       </c>
       <c r="L123" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="M123" t="n">
-        <v>17500</v>
+        <v>14500</v>
       </c>
       <c r="N123" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O123" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P123" t="n">
-        <v>583</v>
+        <v>362</v>
       </c>
       <c r="Q123" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="R123" t="inlineStr">
         <is>
@@ -9261,7 +9261,7 @@
         </is>
       </c>
       <c r="D124" s="2" t="n">
-        <v>44371</v>
+        <v>44300</v>
       </c>
       <c r="E124" t="n">
         <v>13</v>
@@ -9281,24 +9281,24 @@
       </c>
       <c r="I124" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J124" t="n">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="K124" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="L124" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="M124" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="N124" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O124" t="inlineStr">
@@ -9307,10 +9307,10 @@
         </is>
       </c>
       <c r="P124" t="n">
-        <v>400</v>
+        <v>567</v>
       </c>
       <c r="Q124" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="R124" t="inlineStr">
         <is>
@@ -9333,7 +9333,7 @@
         </is>
       </c>
       <c r="D125" s="2" t="n">
-        <v>44320</v>
+        <v>44371</v>
       </c>
       <c r="E125" t="n">
         <v>13</v>
@@ -9357,16 +9357,16 @@
         </is>
       </c>
       <c r="J125" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="K125" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="L125" t="n">
-        <v>18000</v>
+        <v>21000</v>
       </c>
       <c r="M125" t="n">
-        <v>18000</v>
+        <v>20500</v>
       </c>
       <c r="N125" t="inlineStr">
         <is>
@@ -9379,7 +9379,7 @@
         </is>
       </c>
       <c r="P125" t="n">
-        <v>18000</v>
+        <v>20500</v>
       </c>
       <c r="Q125" t="n">
         <v>1</v>
@@ -9405,7 +9405,7 @@
         </is>
       </c>
       <c r="D126" s="2" t="n">
-        <v>44320</v>
+        <v>44371</v>
       </c>
       <c r="E126" t="n">
         <v>13</v>
@@ -9429,16 +9429,16 @@
         </is>
       </c>
       <c r="J126" t="n">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="K126" t="n">
-        <v>15000</v>
+        <v>17000</v>
       </c>
       <c r="L126" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="M126" t="n">
-        <v>15520</v>
+        <v>17500</v>
       </c>
       <c r="N126" t="inlineStr">
         <is>
@@ -9451,7 +9451,7 @@
         </is>
       </c>
       <c r="P126" t="n">
-        <v>517</v>
+        <v>583</v>
       </c>
       <c r="Q126" t="n">
         <v>30</v>
@@ -9477,7 +9477,7 @@
         </is>
       </c>
       <c r="D127" s="2" t="n">
-        <v>44364</v>
+        <v>44371</v>
       </c>
       <c r="E127" t="n">
         <v>13</v>
@@ -9492,29 +9492,29 @@
       </c>
       <c r="H127" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I127" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J127" t="n">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="K127" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="L127" t="n">
         <v>16000</v>
       </c>
       <c r="M127" t="n">
-        <v>15500</v>
+        <v>16000</v>
       </c>
       <c r="N127" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O127" t="inlineStr">
@@ -9523,10 +9523,10 @@
         </is>
       </c>
       <c r="P127" t="n">
-        <v>310</v>
+        <v>400</v>
       </c>
       <c r="Q127" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="R127" t="inlineStr">
         <is>
@@ -9549,7 +9549,7 @@
         </is>
       </c>
       <c r="D128" s="2" t="n">
-        <v>44364</v>
+        <v>44320</v>
       </c>
       <c r="E128" t="n">
         <v>13</v>
@@ -9564,29 +9564,29 @@
       </c>
       <c r="H128" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I128" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J128" t="n">
         <v>16</v>
       </c>
       <c r="K128" t="n">
-        <v>14000</v>
+        <v>18000</v>
       </c>
       <c r="L128" t="n">
-        <v>14000</v>
+        <v>18000</v>
       </c>
       <c r="M128" t="n">
-        <v>14000</v>
+        <v>18000</v>
       </c>
       <c r="N128" t="inlineStr">
         <is>
-          <t>$/caja 70 unidades</t>
+          <t>$/caja 25 unidades</t>
         </is>
       </c>
       <c r="O128" t="inlineStr">
@@ -9595,10 +9595,10 @@
         </is>
       </c>
       <c r="P128" t="n">
-        <v>200</v>
+        <v>18000</v>
       </c>
       <c r="Q128" t="n">
-        <v>70</v>
+        <v>1</v>
       </c>
       <c r="R128" t="inlineStr">
         <is>
@@ -9621,7 +9621,7 @@
         </is>
       </c>
       <c r="D129" s="2" t="n">
-        <v>44364</v>
+        <v>44320</v>
       </c>
       <c r="E129" t="n">
         <v>13</v>
@@ -9641,24 +9641,24 @@
       </c>
       <c r="I129" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J129" t="n">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="K129" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="L129" t="n">
-        <v>19000</v>
+        <v>16000</v>
       </c>
       <c r="M129" t="n">
-        <v>18500</v>
+        <v>15520</v>
       </c>
       <c r="N129" t="inlineStr">
         <is>
-          <t>$/caja 25 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O129" t="inlineStr">
@@ -9667,10 +9667,10 @@
         </is>
       </c>
       <c r="P129" t="n">
-        <v>18500</v>
+        <v>517</v>
       </c>
       <c r="Q129" t="n">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="R129" t="inlineStr">
         <is>
@@ -9708,7 +9708,7 @@
       </c>
       <c r="H130" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I130" t="inlineStr">
@@ -9720,17 +9720,17 @@
         <v>34</v>
       </c>
       <c r="K130" t="n">
+        <v>15000</v>
+      </c>
+      <c r="L130" t="n">
         <v>16000</v>
       </c>
-      <c r="L130" t="n">
-        <v>17000</v>
-      </c>
       <c r="M130" t="n">
-        <v>16500</v>
+        <v>15500</v>
       </c>
       <c r="N130" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O130" t="inlineStr">
@@ -9739,10 +9739,10 @@
         </is>
       </c>
       <c r="P130" t="n">
-        <v>550</v>
+        <v>310</v>
       </c>
       <c r="Q130" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R130" t="inlineStr">
         <is>
@@ -9780,7 +9780,7 @@
       </c>
       <c r="H131" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I131" t="inlineStr">
@@ -9789,7 +9789,7 @@
         </is>
       </c>
       <c r="J131" t="n">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="K131" t="n">
         <v>14000</v>
@@ -9802,7 +9802,7 @@
       </c>
       <c r="N131" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 70 unidades</t>
         </is>
       </c>
       <c r="O131" t="inlineStr">
@@ -9811,10 +9811,10 @@
         </is>
       </c>
       <c r="P131" t="n">
-        <v>350</v>
+        <v>200</v>
       </c>
       <c r="Q131" t="n">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="R131" t="inlineStr">
         <is>
@@ -9837,7 +9837,7 @@
         </is>
       </c>
       <c r="D132" s="2" t="n">
-        <v>44405</v>
+        <v>44364</v>
       </c>
       <c r="E132" t="n">
         <v>13</v>
@@ -9864,13 +9864,13 @@
         <v>16</v>
       </c>
       <c r="K132" t="n">
-        <v>19000</v>
+        <v>18000</v>
       </c>
       <c r="L132" t="n">
         <v>19000</v>
       </c>
       <c r="M132" t="n">
-        <v>19000</v>
+        <v>18500</v>
       </c>
       <c r="N132" t="inlineStr">
         <is>
@@ -9879,11 +9879,11 @@
       </c>
       <c r="O132" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P132" t="n">
-        <v>19000</v>
+        <v>18500</v>
       </c>
       <c r="Q132" t="n">
         <v>1</v>
@@ -9909,7 +9909,7 @@
         </is>
       </c>
       <c r="D133" s="2" t="n">
-        <v>44405</v>
+        <v>44364</v>
       </c>
       <c r="E133" t="n">
         <v>13</v>
@@ -9933,7 +9933,7 @@
         </is>
       </c>
       <c r="J133" t="n">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="K133" t="n">
         <v>16000</v>
@@ -9942,7 +9942,7 @@
         <v>17000</v>
       </c>
       <c r="M133" t="n">
-        <v>16512</v>
+        <v>16500</v>
       </c>
       <c r="N133" t="inlineStr">
         <is>
@@ -9951,7 +9951,7 @@
       </c>
       <c r="O133" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P133" t="n">
@@ -9981,7 +9981,7 @@
         </is>
       </c>
       <c r="D134" s="2" t="n">
-        <v>44405</v>
+        <v>44364</v>
       </c>
       <c r="E134" t="n">
         <v>13</v>
@@ -10011,10 +10011,10 @@
         <v>14000</v>
       </c>
       <c r="L134" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="M134" t="n">
-        <v>14520</v>
+        <v>14000</v>
       </c>
       <c r="N134" t="inlineStr">
         <is>
@@ -10023,11 +10023,11 @@
       </c>
       <c r="O134" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P134" t="n">
-        <v>363</v>
+        <v>350</v>
       </c>
       <c r="Q134" t="n">
         <v>40</v>
@@ -10053,7 +10053,7 @@
         </is>
       </c>
       <c r="D135" s="2" t="n">
-        <v>44327</v>
+        <v>44405</v>
       </c>
       <c r="E135" t="n">
         <v>13</v>
@@ -10068,29 +10068,29 @@
       </c>
       <c r="H135" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I135" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J135" t="n">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="K135" t="n">
-        <v>16000</v>
+        <v>19000</v>
       </c>
       <c r="L135" t="n">
-        <v>16000</v>
+        <v>19000</v>
       </c>
       <c r="M135" t="n">
-        <v>16000</v>
+        <v>19000</v>
       </c>
       <c r="N135" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 25 unidades</t>
         </is>
       </c>
       <c r="O135" t="inlineStr">
@@ -10099,10 +10099,10 @@
         </is>
       </c>
       <c r="P135" t="n">
-        <v>320</v>
+        <v>19000</v>
       </c>
       <c r="Q135" t="n">
-        <v>50</v>
+        <v>1</v>
       </c>
       <c r="R135" t="inlineStr">
         <is>
@@ -10125,7 +10125,7 @@
         </is>
       </c>
       <c r="D136" s="2" t="n">
-        <v>44327</v>
+        <v>44405</v>
       </c>
       <c r="E136" t="n">
         <v>13</v>
@@ -10152,13 +10152,13 @@
         <v>43</v>
       </c>
       <c r="K136" t="n">
-        <v>18000</v>
+        <v>16000</v>
       </c>
       <c r="L136" t="n">
-        <v>18000</v>
+        <v>17000</v>
       </c>
       <c r="M136" t="n">
-        <v>18000</v>
+        <v>16512</v>
       </c>
       <c r="N136" t="inlineStr">
         <is>
@@ -10171,7 +10171,7 @@
         </is>
       </c>
       <c r="P136" t="n">
-        <v>600</v>
+        <v>550</v>
       </c>
       <c r="Q136" t="n">
         <v>30</v>
@@ -10197,7 +10197,7 @@
         </is>
       </c>
       <c r="D137" s="2" t="n">
-        <v>44313</v>
+        <v>44405</v>
       </c>
       <c r="E137" t="n">
         <v>13</v>
@@ -10217,24 +10217,24 @@
       </c>
       <c r="I137" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J137" t="n">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="K137" t="n">
-        <v>20000</v>
+        <v>14000</v>
       </c>
       <c r="L137" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="M137" t="n">
-        <v>20000</v>
+        <v>14520</v>
       </c>
       <c r="N137" t="inlineStr">
         <is>
-          <t>$/caja 25 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O137" t="inlineStr">
@@ -10243,10 +10243,10 @@
         </is>
       </c>
       <c r="P137" t="n">
-        <v>20000</v>
+        <v>363</v>
       </c>
       <c r="Q137" t="n">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="R137" t="inlineStr">
         <is>
@@ -10269,7 +10269,7 @@
         </is>
       </c>
       <c r="D138" s="2" t="n">
-        <v>44313</v>
+        <v>44327</v>
       </c>
       <c r="E138" t="n">
         <v>13</v>
@@ -10284,7 +10284,7 @@
       </c>
       <c r="H138" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I138" t="inlineStr">
@@ -10296,17 +10296,17 @@
         <v>25</v>
       </c>
       <c r="K138" t="n">
-        <v>17000</v>
+        <v>16000</v>
       </c>
       <c r="L138" t="n">
-        <v>17000</v>
+        <v>16000</v>
       </c>
       <c r="M138" t="n">
-        <v>17000</v>
+        <v>16000</v>
       </c>
       <c r="N138" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O138" t="inlineStr">
@@ -10315,10 +10315,10 @@
         </is>
       </c>
       <c r="P138" t="n">
-        <v>567</v>
+        <v>320</v>
       </c>
       <c r="Q138" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R138" t="inlineStr">
         <is>
@@ -10341,7 +10341,7 @@
         </is>
       </c>
       <c r="D139" s="2" t="n">
-        <v>44330</v>
+        <v>44327</v>
       </c>
       <c r="E139" t="n">
         <v>13</v>
@@ -10356,7 +10356,7 @@
       </c>
       <c r="H139" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I139" t="inlineStr">
@@ -10365,32 +10365,32 @@
         </is>
       </c>
       <c r="J139" t="n">
-        <v>25</v>
+        <v>43</v>
       </c>
       <c r="K139" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="L139" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="M139" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="N139" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O139" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P139" t="n">
-        <v>320</v>
+        <v>600</v>
       </c>
       <c r="Q139" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R139" t="inlineStr">
         <is>
@@ -10413,7 +10413,7 @@
         </is>
       </c>
       <c r="D140" s="2" t="n">
-        <v>44330</v>
+        <v>44313</v>
       </c>
       <c r="E140" t="n">
         <v>13</v>
@@ -10428,41 +10428,41 @@
       </c>
       <c r="H140" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I140" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J140" t="n">
-        <v>52</v>
+        <v>16</v>
       </c>
       <c r="K140" t="n">
-        <v>14000</v>
+        <v>20000</v>
       </c>
       <c r="L140" t="n">
-        <v>14000</v>
+        <v>20000</v>
       </c>
       <c r="M140" t="n">
-        <v>14000</v>
+        <v>20000</v>
       </c>
       <c r="N140" t="inlineStr">
         <is>
-          <t>$/caja 60 unidades</t>
+          <t>$/caja 25 unidades</t>
         </is>
       </c>
       <c r="O140" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P140" t="n">
-        <v>233</v>
+        <v>20000</v>
       </c>
       <c r="Q140" t="n">
-        <v>60</v>
+        <v>1</v>
       </c>
       <c r="R140" t="inlineStr">
         <is>
@@ -10485,7 +10485,7 @@
         </is>
       </c>
       <c r="D141" s="2" t="n">
-        <v>44330</v>
+        <v>44313</v>
       </c>
       <c r="E141" t="n">
         <v>13</v>
@@ -10509,16 +10509,16 @@
         </is>
       </c>
       <c r="J141" t="n">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="K141" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="L141" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="M141" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="N141" t="inlineStr">
         <is>
@@ -10527,11 +10527,11 @@
       </c>
       <c r="O141" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P141" t="n">
-        <v>533</v>
+        <v>567</v>
       </c>
       <c r="Q141" t="n">
         <v>30</v>
@@ -10572,7 +10572,7 @@
       </c>
       <c r="H142" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I142" t="inlineStr">
@@ -10581,20 +10581,20 @@
         </is>
       </c>
       <c r="J142" t="n">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="K142" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="L142" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="M142" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="N142" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O142" t="inlineStr">
@@ -10603,10 +10603,10 @@
         </is>
       </c>
       <c r="P142" t="n">
-        <v>350</v>
+        <v>320</v>
       </c>
       <c r="Q142" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="R142" t="inlineStr">
         <is>
@@ -10629,7 +10629,7 @@
         </is>
       </c>
       <c r="D143" s="2" t="n">
-        <v>44391</v>
+        <v>44330</v>
       </c>
       <c r="E143" t="n">
         <v>13</v>
@@ -10644,41 +10644,41 @@
       </c>
       <c r="H143" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I143" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J143" t="n">
-        <v>16</v>
+        <v>52</v>
       </c>
       <c r="K143" t="n">
-        <v>17000</v>
+        <v>14000</v>
       </c>
       <c r="L143" t="n">
-        <v>18000</v>
+        <v>14000</v>
       </c>
       <c r="M143" t="n">
-        <v>17500</v>
+        <v>14000</v>
       </c>
       <c r="N143" t="inlineStr">
         <is>
-          <t>$/caja 25 unidades</t>
+          <t>$/caja 60 unidades</t>
         </is>
       </c>
       <c r="O143" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P143" t="n">
-        <v>17500</v>
+        <v>233</v>
       </c>
       <c r="Q143" t="n">
-        <v>1</v>
+        <v>60</v>
       </c>
       <c r="R143" t="inlineStr">
         <is>
@@ -10701,7 +10701,7 @@
         </is>
       </c>
       <c r="D144" s="2" t="n">
-        <v>44391</v>
+        <v>44330</v>
       </c>
       <c r="E144" t="n">
         <v>13</v>
@@ -10725,16 +10725,16 @@
         </is>
       </c>
       <c r="J144" t="n">
-        <v>43</v>
+        <v>16</v>
       </c>
       <c r="K144" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="L144" t="n">
         <v>16000</v>
       </c>
       <c r="M144" t="n">
-        <v>15488</v>
+        <v>16000</v>
       </c>
       <c r="N144" t="inlineStr">
         <is>
@@ -10743,11 +10743,11 @@
       </c>
       <c r="O144" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P144" t="n">
-        <v>516</v>
+        <v>533</v>
       </c>
       <c r="Q144" t="n">
         <v>30</v>
@@ -10773,7 +10773,7 @@
         </is>
       </c>
       <c r="D145" s="2" t="n">
-        <v>44391</v>
+        <v>44330</v>
       </c>
       <c r="E145" t="n">
         <v>13</v>
@@ -10793,20 +10793,20 @@
       </c>
       <c r="I145" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J145" t="n">
         <v>34</v>
       </c>
       <c r="K145" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="L145" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="M145" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="N145" t="inlineStr">
         <is>
@@ -10815,11 +10815,11 @@
       </c>
       <c r="O145" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P145" t="n">
-        <v>325</v>
+        <v>350</v>
       </c>
       <c r="Q145" t="n">
         <v>40</v>
@@ -10845,7 +10845,7 @@
         </is>
       </c>
       <c r="D146" s="2" t="n">
-        <v>44351</v>
+        <v>44391</v>
       </c>
       <c r="E146" t="n">
         <v>13</v>
@@ -10860,41 +10860,41 @@
       </c>
       <c r="H146" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I146" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J146" t="n">
-        <v>43</v>
+        <v>16</v>
       </c>
       <c r="K146" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="L146" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="M146" t="n">
-        <v>16512</v>
+        <v>17500</v>
       </c>
       <c r="N146" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 25 unidades</t>
         </is>
       </c>
       <c r="O146" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P146" t="n">
-        <v>330</v>
+        <v>17500</v>
       </c>
       <c r="Q146" t="n">
-        <v>50</v>
+        <v>1</v>
       </c>
       <c r="R146" t="inlineStr">
         <is>
@@ -10917,7 +10917,7 @@
         </is>
       </c>
       <c r="D147" s="2" t="n">
-        <v>44351</v>
+        <v>44391</v>
       </c>
       <c r="E147" t="n">
         <v>13</v>
@@ -10932,41 +10932,41 @@
       </c>
       <c r="H147" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I147" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J147" t="n">
-        <v>21</v>
+        <v>43</v>
       </c>
       <c r="K147" t="n">
         <v>15000</v>
       </c>
       <c r="L147" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="M147" t="n">
-        <v>15000</v>
+        <v>15488</v>
       </c>
       <c r="N147" t="inlineStr">
         <is>
-          <t>$/caja 70 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O147" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P147" t="n">
-        <v>214</v>
+        <v>516</v>
       </c>
       <c r="Q147" t="n">
-        <v>70</v>
+        <v>30</v>
       </c>
       <c r="R147" t="inlineStr">
         <is>
@@ -10989,7 +10989,7 @@
         </is>
       </c>
       <c r="D148" s="2" t="n">
-        <v>44351</v>
+        <v>44391</v>
       </c>
       <c r="E148" t="n">
         <v>13</v>
@@ -11009,24 +11009,24 @@
       </c>
       <c r="I148" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J148" t="n">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="K148" t="n">
-        <v>20000</v>
+        <v>13000</v>
       </c>
       <c r="L148" t="n">
-        <v>20000</v>
+        <v>13000</v>
       </c>
       <c r="M148" t="n">
-        <v>20000</v>
+        <v>13000</v>
       </c>
       <c r="N148" t="inlineStr">
         <is>
-          <t>$/caja 25 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O148" t="inlineStr">
@@ -11035,10 +11035,10 @@
         </is>
       </c>
       <c r="P148" t="n">
-        <v>20000</v>
+        <v>325</v>
       </c>
       <c r="Q148" t="n">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="R148" t="inlineStr">
         <is>
@@ -11076,7 +11076,7 @@
       </c>
       <c r="H149" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I149" t="inlineStr">
@@ -11085,32 +11085,32 @@
         </is>
       </c>
       <c r="J149" t="n">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="K149" t="n">
+        <v>16000</v>
+      </c>
+      <c r="L149" t="n">
         <v>17000</v>
       </c>
-      <c r="L149" t="n">
-        <v>18000</v>
-      </c>
       <c r="M149" t="n">
-        <v>17500</v>
+        <v>16512</v>
       </c>
       <c r="N149" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O149" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P149" t="n">
-        <v>583</v>
+        <v>330</v>
       </c>
       <c r="Q149" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R149" t="inlineStr">
         <is>
@@ -11148,7 +11148,7 @@
       </c>
       <c r="H150" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I150" t="inlineStr">
@@ -11157,7 +11157,7 @@
         </is>
       </c>
       <c r="J150" t="n">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="K150" t="n">
         <v>15000</v>
@@ -11170,19 +11170,19 @@
       </c>
       <c r="N150" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 70 unidades</t>
         </is>
       </c>
       <c r="O150" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P150" t="n">
-        <v>375</v>
+        <v>214</v>
       </c>
       <c r="Q150" t="n">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="R150" t="inlineStr">
         <is>
@@ -11205,7 +11205,7 @@
         </is>
       </c>
       <c r="D151" s="2" t="n">
-        <v>44350</v>
+        <v>44351</v>
       </c>
       <c r="E151" t="n">
         <v>13</v>
@@ -11220,29 +11220,29 @@
       </c>
       <c r="H151" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I151" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J151" t="n">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="K151" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="L151" t="n">
-        <v>16000</v>
+        <v>20000</v>
       </c>
       <c r="M151" t="n">
-        <v>15500</v>
+        <v>20000</v>
       </c>
       <c r="N151" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 25 unidades</t>
         </is>
       </c>
       <c r="O151" t="inlineStr">
@@ -11251,10 +11251,10 @@
         </is>
       </c>
       <c r="P151" t="n">
-        <v>310</v>
+        <v>20000</v>
       </c>
       <c r="Q151" t="n">
-        <v>50</v>
+        <v>1</v>
       </c>
       <c r="R151" t="inlineStr">
         <is>
@@ -11277,7 +11277,7 @@
         </is>
       </c>
       <c r="D152" s="2" t="n">
-        <v>44350</v>
+        <v>44351</v>
       </c>
       <c r="E152" t="n">
         <v>13</v>
@@ -11292,29 +11292,29 @@
       </c>
       <c r="H152" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I152" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J152" t="n">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="K152" t="n">
-        <v>13000</v>
+        <v>17000</v>
       </c>
       <c r="L152" t="n">
-        <v>13000</v>
+        <v>18000</v>
       </c>
       <c r="M152" t="n">
-        <v>13000</v>
+        <v>17500</v>
       </c>
       <c r="N152" t="inlineStr">
         <is>
-          <t>$/caja 70 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O152" t="inlineStr">
@@ -11323,10 +11323,10 @@
         </is>
       </c>
       <c r="P152" t="n">
-        <v>186</v>
+        <v>583</v>
       </c>
       <c r="Q152" t="n">
-        <v>70</v>
+        <v>30</v>
       </c>
       <c r="R152" t="inlineStr">
         <is>
@@ -11349,7 +11349,7 @@
         </is>
       </c>
       <c r="D153" s="2" t="n">
-        <v>44350</v>
+        <v>44351</v>
       </c>
       <c r="E153" t="n">
         <v>13</v>
@@ -11369,36 +11369,36 @@
       </c>
       <c r="I153" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J153" t="n">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="K153" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="L153" t="n">
-        <v>19000</v>
+        <v>15000</v>
       </c>
       <c r="M153" t="n">
-        <v>18500</v>
+        <v>15000</v>
       </c>
       <c r="N153" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O153" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P153" t="n">
-        <v>617</v>
+        <v>375</v>
       </c>
       <c r="Q153" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="R153" t="inlineStr">
         <is>
@@ -11436,41 +11436,41 @@
       </c>
       <c r="H154" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I154" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J154" t="n">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="K154" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="L154" t="n">
         <v>16000</v>
       </c>
       <c r="M154" t="n">
-        <v>16000</v>
+        <v>15500</v>
       </c>
       <c r="N154" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O154" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P154" t="n">
-        <v>400</v>
+        <v>310</v>
       </c>
       <c r="Q154" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="R154" t="inlineStr">
         <is>
@@ -11493,7 +11493,7 @@
         </is>
       </c>
       <c r="D155" s="2" t="n">
-        <v>44315</v>
+        <v>44350</v>
       </c>
       <c r="E155" t="n">
         <v>13</v>
@@ -11508,41 +11508,41 @@
       </c>
       <c r="H155" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I155" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J155" t="n">
         <v>16</v>
       </c>
       <c r="K155" t="n">
-        <v>19000</v>
+        <v>13000</v>
       </c>
       <c r="L155" t="n">
-        <v>19000</v>
+        <v>13000</v>
       </c>
       <c r="M155" t="n">
-        <v>19000</v>
+        <v>13000</v>
       </c>
       <c r="N155" t="inlineStr">
         <is>
-          <t>$/caja 25 unidades</t>
+          <t>$/caja 70 unidades</t>
         </is>
       </c>
       <c r="O155" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P155" t="n">
-        <v>19000</v>
+        <v>186</v>
       </c>
       <c r="Q155" t="n">
-        <v>1</v>
+        <v>70</v>
       </c>
       <c r="R155" t="inlineStr">
         <is>
@@ -11565,7 +11565,7 @@
         </is>
       </c>
       <c r="D156" s="2" t="n">
-        <v>44315</v>
+        <v>44350</v>
       </c>
       <c r="E156" t="n">
         <v>13</v>
@@ -11589,16 +11589,16 @@
         </is>
       </c>
       <c r="J156" t="n">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="K156" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="L156" t="n">
-        <v>17000</v>
+        <v>19000</v>
       </c>
       <c r="M156" t="n">
-        <v>17000</v>
+        <v>18500</v>
       </c>
       <c r="N156" t="inlineStr">
         <is>
@@ -11611,7 +11611,7 @@
         </is>
       </c>
       <c r="P156" t="n">
-        <v>567</v>
+        <v>617</v>
       </c>
       <c r="Q156" t="n">
         <v>30</v>
@@ -11637,7 +11637,7 @@
         </is>
       </c>
       <c r="D157" s="2" t="n">
-        <v>44358</v>
+        <v>44350</v>
       </c>
       <c r="E157" t="n">
         <v>13</v>
@@ -11652,41 +11652,41 @@
       </c>
       <c r="H157" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I157" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J157" t="n">
-        <v>52</v>
+        <v>15</v>
       </c>
       <c r="K157" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="L157" t="n">
         <v>16000</v>
       </c>
       <c r="M157" t="n">
-        <v>15500</v>
+        <v>16000</v>
       </c>
       <c r="N157" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O157" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P157" t="n">
-        <v>310</v>
+        <v>400</v>
       </c>
       <c r="Q157" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="R157" t="inlineStr">
         <is>
@@ -11709,7 +11709,7 @@
         </is>
       </c>
       <c r="D158" s="2" t="n">
-        <v>44358</v>
+        <v>44315</v>
       </c>
       <c r="E158" t="n">
         <v>13</v>
@@ -11724,41 +11724,41 @@
       </c>
       <c r="H158" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I158" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J158" t="n">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="K158" t="n">
-        <v>14000</v>
+        <v>19000</v>
       </c>
       <c r="L158" t="n">
-        <v>14000</v>
+        <v>19000</v>
       </c>
       <c r="M158" t="n">
-        <v>14000</v>
+        <v>19000</v>
       </c>
       <c r="N158" t="inlineStr">
         <is>
-          <t>$/caja 70 unidades</t>
+          <t>$/caja 25 unidades</t>
         </is>
       </c>
       <c r="O158" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P158" t="n">
-        <v>200</v>
+        <v>19000</v>
       </c>
       <c r="Q158" t="n">
-        <v>70</v>
+        <v>1</v>
       </c>
       <c r="R158" t="inlineStr">
         <is>
@@ -11781,7 +11781,7 @@
         </is>
       </c>
       <c r="D159" s="2" t="n">
-        <v>44358</v>
+        <v>44315</v>
       </c>
       <c r="E159" t="n">
         <v>13</v>
@@ -11801,24 +11801,24 @@
       </c>
       <c r="I159" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J159" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="K159" t="n">
-        <v>18000</v>
+        <v>17000</v>
       </c>
       <c r="L159" t="n">
-        <v>19000</v>
+        <v>17000</v>
       </c>
       <c r="M159" t="n">
-        <v>18500</v>
+        <v>17000</v>
       </c>
       <c r="N159" t="inlineStr">
         <is>
-          <t>$/caja 25 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O159" t="inlineStr">
@@ -11827,10 +11827,10 @@
         </is>
       </c>
       <c r="P159" t="n">
-        <v>18500</v>
+        <v>567</v>
       </c>
       <c r="Q159" t="n">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="R159" t="inlineStr">
         <is>
@@ -11868,7 +11868,7 @@
       </c>
       <c r="H160" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I160" t="inlineStr">
@@ -11877,7 +11877,7 @@
         </is>
       </c>
       <c r="J160" t="n">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="K160" t="n">
         <v>15000</v>
@@ -11886,23 +11886,23 @@
         <v>16000</v>
       </c>
       <c r="M160" t="n">
-        <v>15488</v>
+        <v>15500</v>
       </c>
       <c r="N160" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O160" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P160" t="n">
-        <v>516</v>
+        <v>310</v>
       </c>
       <c r="Q160" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R160" t="inlineStr">
         <is>
@@ -11940,7 +11940,7 @@
       </c>
       <c r="H161" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I161" t="inlineStr">
@@ -11949,7 +11949,7 @@
         </is>
       </c>
       <c r="J161" t="n">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="K161" t="n">
         <v>14000</v>
@@ -11962,19 +11962,19 @@
       </c>
       <c r="N161" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 70 unidades</t>
         </is>
       </c>
       <c r="O161" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P161" t="n">
-        <v>350</v>
+        <v>200</v>
       </c>
       <c r="Q161" t="n">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="R161" t="inlineStr">
         <is>
@@ -11997,7 +11997,7 @@
         </is>
       </c>
       <c r="D162" s="2" t="n">
-        <v>44399</v>
+        <v>44358</v>
       </c>
       <c r="E162" t="n">
         <v>13</v>
@@ -12021,7 +12021,7 @@
         </is>
       </c>
       <c r="J162" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="K162" t="n">
         <v>18000</v>
@@ -12039,7 +12039,7 @@
       </c>
       <c r="O162" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P162" t="n">
@@ -12069,7 +12069,7 @@
         </is>
       </c>
       <c r="D163" s="2" t="n">
-        <v>44399</v>
+        <v>44358</v>
       </c>
       <c r="E163" t="n">
         <v>13</v>
@@ -12093,16 +12093,16 @@
         </is>
       </c>
       <c r="J163" t="n">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="K163" t="n">
+        <v>15000</v>
+      </c>
+      <c r="L163" t="n">
         <v>16000</v>
       </c>
-      <c r="L163" t="n">
-        <v>17000</v>
-      </c>
       <c r="M163" t="n">
-        <v>16500</v>
+        <v>15488</v>
       </c>
       <c r="N163" t="inlineStr">
         <is>
@@ -12111,11 +12111,11 @@
       </c>
       <c r="O163" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P163" t="n">
-        <v>550</v>
+        <v>516</v>
       </c>
       <c r="Q163" t="n">
         <v>30</v>
@@ -12141,7 +12141,7 @@
         </is>
       </c>
       <c r="D164" s="2" t="n">
-        <v>44399</v>
+        <v>44358</v>
       </c>
       <c r="E164" t="n">
         <v>13</v>
@@ -12171,10 +12171,10 @@
         <v>14000</v>
       </c>
       <c r="L164" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="M164" t="n">
-        <v>14480</v>
+        <v>14000</v>
       </c>
       <c r="N164" t="inlineStr">
         <is>
@@ -12183,11 +12183,11 @@
       </c>
       <c r="O164" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P164" t="n">
-        <v>362</v>
+        <v>350</v>
       </c>
       <c r="Q164" t="n">
         <v>40</v>
@@ -12213,7 +12213,7 @@
         </is>
       </c>
       <c r="D165" s="2" t="n">
-        <v>44292</v>
+        <v>44399</v>
       </c>
       <c r="E165" t="n">
         <v>13</v>
@@ -12233,36 +12233,36 @@
       </c>
       <c r="I165" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J165" t="n">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="K165" t="n">
         <v>18000</v>
       </c>
       <c r="L165" t="n">
-        <v>18000</v>
+        <v>19000</v>
       </c>
       <c r="M165" t="n">
-        <v>18000</v>
+        <v>18500</v>
       </c>
       <c r="N165" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 25 unidades</t>
         </is>
       </c>
       <c r="O165" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P165" t="n">
-        <v>600</v>
+        <v>18500</v>
       </c>
       <c r="Q165" t="n">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="R165" t="inlineStr">
         <is>
@@ -12285,7 +12285,7 @@
         </is>
       </c>
       <c r="D166" s="2" t="n">
-        <v>44294</v>
+        <v>44399</v>
       </c>
       <c r="E166" t="n">
         <v>13</v>
@@ -12309,16 +12309,16 @@
         </is>
       </c>
       <c r="J166" t="n">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="K166" t="n">
+        <v>16000</v>
+      </c>
+      <c r="L166" t="n">
         <v>17000</v>
       </c>
-      <c r="L166" t="n">
-        <v>18000</v>
-      </c>
       <c r="M166" t="n">
-        <v>17481</v>
+        <v>16500</v>
       </c>
       <c r="N166" t="inlineStr">
         <is>
@@ -12327,11 +12327,11 @@
       </c>
       <c r="O166" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P166" t="n">
-        <v>583</v>
+        <v>550</v>
       </c>
       <c r="Q166" t="n">
         <v>30</v>
@@ -12357,7 +12357,7 @@
         </is>
       </c>
       <c r="D167" s="2" t="n">
-        <v>44369</v>
+        <v>44399</v>
       </c>
       <c r="E167" t="n">
         <v>13</v>
@@ -12377,24 +12377,24 @@
       </c>
       <c r="I167" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J167" t="n">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="K167" t="n">
-        <v>21000</v>
+        <v>14000</v>
       </c>
       <c r="L167" t="n">
-        <v>22000</v>
+        <v>15000</v>
       </c>
       <c r="M167" t="n">
-        <v>21500</v>
+        <v>14480</v>
       </c>
       <c r="N167" t="inlineStr">
         <is>
-          <t>$/caja 25 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O167" t="inlineStr">
@@ -12403,10 +12403,10 @@
         </is>
       </c>
       <c r="P167" t="n">
-        <v>21500</v>
+        <v>362</v>
       </c>
       <c r="Q167" t="n">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="R167" t="inlineStr">
         <is>
@@ -12429,7 +12429,7 @@
         </is>
       </c>
       <c r="D168" s="2" t="n">
-        <v>44369</v>
+        <v>44292</v>
       </c>
       <c r="E168" t="n">
         <v>13</v>
@@ -12453,16 +12453,16 @@
         </is>
       </c>
       <c r="J168" t="n">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="K168" t="n">
-        <v>19000</v>
+        <v>18000</v>
       </c>
       <c r="L168" t="n">
-        <v>20000</v>
+        <v>18000</v>
       </c>
       <c r="M168" t="n">
-        <v>19500</v>
+        <v>18000</v>
       </c>
       <c r="N168" t="inlineStr">
         <is>
@@ -12471,11 +12471,11 @@
       </c>
       <c r="O168" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P168" t="n">
-        <v>650</v>
+        <v>600</v>
       </c>
       <c r="Q168" t="n">
         <v>30</v>
@@ -12501,7 +12501,7 @@
         </is>
       </c>
       <c r="D169" s="2" t="n">
-        <v>44369</v>
+        <v>44294</v>
       </c>
       <c r="E169" t="n">
         <v>13</v>
@@ -12521,36 +12521,36 @@
       </c>
       <c r="I169" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J169" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="K169" t="n">
         <v>17000</v>
       </c>
       <c r="L169" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="M169" t="n">
-        <v>17000</v>
+        <v>17481</v>
       </c>
       <c r="N169" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O169" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P169" t="n">
-        <v>425</v>
+        <v>583</v>
       </c>
       <c r="Q169" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="R169" t="inlineStr">
         <is>
@@ -12588,41 +12588,41 @@
       </c>
       <c r="H170" t="inlineStr">
         <is>
-          <t>Madrigal</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I170" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J170" t="n">
-        <v>43</v>
+        <v>16</v>
       </c>
       <c r="K170" t="n">
-        <v>16000</v>
+        <v>21000</v>
       </c>
       <c r="L170" t="n">
-        <v>17000</v>
+        <v>22000</v>
       </c>
       <c r="M170" t="n">
-        <v>16488</v>
+        <v>21500</v>
       </c>
       <c r="N170" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 25 unidades</t>
         </is>
       </c>
       <c r="O170" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P170" t="n">
-        <v>412</v>
+        <v>21500</v>
       </c>
       <c r="Q170" t="n">
-        <v>40</v>
+        <v>1</v>
       </c>
       <c r="R170" t="inlineStr">
         <is>
@@ -12660,41 +12660,41 @@
       </c>
       <c r="H171" t="inlineStr">
         <is>
-          <t>Madrigal</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I171" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J171" t="n">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="K171" t="n">
-        <v>14000</v>
+        <v>19000</v>
       </c>
       <c r="L171" t="n">
-        <v>14000</v>
+        <v>20000</v>
       </c>
       <c r="M171" t="n">
-        <v>14000</v>
+        <v>19500</v>
       </c>
       <c r="N171" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O171" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P171" t="n">
-        <v>280</v>
+        <v>650</v>
       </c>
       <c r="Q171" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R171" t="inlineStr">
         <is>
@@ -12717,7 +12717,7 @@
         </is>
       </c>
       <c r="D172" s="2" t="n">
-        <v>44307</v>
+        <v>44369</v>
       </c>
       <c r="E172" t="n">
         <v>13</v>
@@ -12737,36 +12737,36 @@
       </c>
       <c r="I172" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J172" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="K172" t="n">
-        <v>18000</v>
+        <v>17000</v>
       </c>
       <c r="L172" t="n">
-        <v>18000</v>
+        <v>17000</v>
       </c>
       <c r="M172" t="n">
-        <v>18000</v>
+        <v>17000</v>
       </c>
       <c r="N172" t="inlineStr">
         <is>
-          <t>$/caja 25 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O172" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P172" t="n">
-        <v>18000</v>
+        <v>425</v>
       </c>
       <c r="Q172" t="n">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="R172" t="inlineStr">
         <is>
@@ -12789,7 +12789,7 @@
         </is>
       </c>
       <c r="D173" s="2" t="n">
-        <v>44307</v>
+        <v>44369</v>
       </c>
       <c r="E173" t="n">
         <v>13</v>
@@ -12804,7 +12804,7 @@
       </c>
       <c r="H173" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Madrigal</t>
         </is>
       </c>
       <c r="I173" t="inlineStr">
@@ -12813,20 +12813,20 @@
         </is>
       </c>
       <c r="J173" t="n">
-        <v>16</v>
+        <v>43</v>
       </c>
       <c r="K173" t="n">
         <v>16000</v>
       </c>
       <c r="L173" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="M173" t="n">
-        <v>16000</v>
+        <v>16488</v>
       </c>
       <c r="N173" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O173" t="inlineStr">
@@ -12835,10 +12835,10 @@
         </is>
       </c>
       <c r="P173" t="n">
-        <v>533</v>
+        <v>412</v>
       </c>
       <c r="Q173" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="R173" t="inlineStr">
         <is>
@@ -12861,7 +12861,7 @@
         </is>
       </c>
       <c r="D174" s="2" t="n">
-        <v>44333</v>
+        <v>44369</v>
       </c>
       <c r="E174" t="n">
         <v>13</v>
@@ -12876,25 +12876,25 @@
       </c>
       <c r="H174" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Madrigal</t>
         </is>
       </c>
       <c r="I174" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J174" t="n">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="K174" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="L174" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="M174" t="n">
-        <v>15500</v>
+        <v>14000</v>
       </c>
       <c r="N174" t="inlineStr">
         <is>
@@ -12903,11 +12903,11 @@
       </c>
       <c r="O174" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P174" t="n">
-        <v>310</v>
+        <v>280</v>
       </c>
       <c r="Q174" t="n">
         <v>50</v>
@@ -12933,7 +12933,7 @@
         </is>
       </c>
       <c r="D175" s="2" t="n">
-        <v>44309</v>
+        <v>44307</v>
       </c>
       <c r="E175" t="n">
         <v>13</v>
@@ -12957,16 +12957,16 @@
         </is>
       </c>
       <c r="J175" t="n">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="K175" t="n">
-        <v>19000</v>
+        <v>18000</v>
       </c>
       <c r="L175" t="n">
-        <v>19000</v>
+        <v>18000</v>
       </c>
       <c r="M175" t="n">
-        <v>19000</v>
+        <v>18000</v>
       </c>
       <c r="N175" t="inlineStr">
         <is>
@@ -12975,11 +12975,11 @@
       </c>
       <c r="O175" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P175" t="n">
-        <v>19000</v>
+        <v>18000</v>
       </c>
       <c r="Q175" t="n">
         <v>1</v>
@@ -13005,7 +13005,7 @@
         </is>
       </c>
       <c r="D176" s="2" t="n">
-        <v>44309</v>
+        <v>44307</v>
       </c>
       <c r="E176" t="n">
         <v>13</v>
@@ -13029,16 +13029,16 @@
         </is>
       </c>
       <c r="J176" t="n">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="K176" t="n">
-        <v>17000</v>
+        <v>16000</v>
       </c>
       <c r="L176" t="n">
-        <v>17000</v>
+        <v>16000</v>
       </c>
       <c r="M176" t="n">
-        <v>17000</v>
+        <v>16000</v>
       </c>
       <c r="N176" t="inlineStr">
         <is>
@@ -13047,11 +13047,11 @@
       </c>
       <c r="O176" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P176" t="n">
-        <v>567</v>
+        <v>533</v>
       </c>
       <c r="Q176" t="n">
         <v>30</v>
@@ -13077,7 +13077,7 @@
         </is>
       </c>
       <c r="D177" s="2" t="n">
-        <v>44344</v>
+        <v>44333</v>
       </c>
       <c r="E177" t="n">
         <v>13</v>
@@ -13101,7 +13101,7 @@
         </is>
       </c>
       <c r="J177" t="n">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="K177" t="n">
         <v>15000</v>
@@ -13110,7 +13110,7 @@
         <v>16000</v>
       </c>
       <c r="M177" t="n">
-        <v>15524</v>
+        <v>15500</v>
       </c>
       <c r="N177" t="inlineStr">
         <is>
@@ -13119,7 +13119,7 @@
       </c>
       <c r="O177" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P177" t="n">
@@ -13149,7 +13149,7 @@
         </is>
       </c>
       <c r="D178" s="2" t="n">
-        <v>44344</v>
+        <v>44309</v>
       </c>
       <c r="E178" t="n">
         <v>13</v>
@@ -13169,36 +13169,36 @@
       </c>
       <c r="I178" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J178" t="n">
         <v>16</v>
       </c>
       <c r="K178" t="n">
-        <v>17000</v>
+        <v>19000</v>
       </c>
       <c r="L178" t="n">
-        <v>18000</v>
+        <v>19000</v>
       </c>
       <c r="M178" t="n">
-        <v>17500</v>
+        <v>19000</v>
       </c>
       <c r="N178" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 25 unidades</t>
         </is>
       </c>
       <c r="O178" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P178" t="n">
-        <v>583</v>
+        <v>19000</v>
       </c>
       <c r="Q178" t="n">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="R178" t="inlineStr">
         <is>
@@ -13221,7 +13221,7 @@
         </is>
       </c>
       <c r="D179" s="2" t="n">
-        <v>44344</v>
+        <v>44309</v>
       </c>
       <c r="E179" t="n">
         <v>13</v>
@@ -13241,36 +13241,36 @@
       </c>
       <c r="I179" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J179" t="n">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="K179" t="n">
-        <v>14000</v>
+        <v>17000</v>
       </c>
       <c r="L179" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="M179" t="n">
-        <v>15000</v>
+        <v>17000</v>
       </c>
       <c r="N179" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O179" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P179" t="n">
-        <v>375</v>
+        <v>567</v>
       </c>
       <c r="Q179" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="R179" t="inlineStr">
         <is>
@@ -13293,7 +13293,7 @@
         </is>
       </c>
       <c r="D180" s="2" t="n">
-        <v>44316</v>
+        <v>44344</v>
       </c>
       <c r="E180" t="n">
         <v>13</v>
@@ -13317,16 +13317,16 @@
         </is>
       </c>
       <c r="J180" t="n">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="K180" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="L180" t="n">
-        <v>18000</v>
+        <v>16000</v>
       </c>
       <c r="M180" t="n">
-        <v>18000</v>
+        <v>15524</v>
       </c>
       <c r="N180" t="inlineStr">
         <is>
@@ -13339,7 +13339,7 @@
         </is>
       </c>
       <c r="P180" t="n">
-        <v>360</v>
+        <v>310</v>
       </c>
       <c r="Q180" t="n">
         <v>50</v>
@@ -13365,7 +13365,7 @@
         </is>
       </c>
       <c r="D181" s="2" t="n">
-        <v>44316</v>
+        <v>44344</v>
       </c>
       <c r="E181" t="n">
         <v>13</v>
@@ -13385,24 +13385,24 @@
       </c>
       <c r="I181" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J181" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="K181" t="n">
-        <v>18000</v>
+        <v>17000</v>
       </c>
       <c r="L181" t="n">
         <v>18000</v>
       </c>
       <c r="M181" t="n">
-        <v>18000</v>
+        <v>17500</v>
       </c>
       <c r="N181" t="inlineStr">
         <is>
-          <t>$/caja 25 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O181" t="inlineStr">
@@ -13411,10 +13411,10 @@
         </is>
       </c>
       <c r="P181" t="n">
-        <v>18000</v>
+        <v>583</v>
       </c>
       <c r="Q181" t="n">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="R181" t="inlineStr">
         <is>
@@ -13437,7 +13437,7 @@
         </is>
       </c>
       <c r="D182" s="2" t="n">
-        <v>44316</v>
+        <v>44344</v>
       </c>
       <c r="E182" t="n">
         <v>13</v>
@@ -13457,24 +13457,24 @@
       </c>
       <c r="I182" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J182" t="n">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="K182" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="L182" t="n">
         <v>16000</v>
       </c>
       <c r="M182" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="N182" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O182" t="inlineStr">
@@ -13483,10 +13483,10 @@
         </is>
       </c>
       <c r="P182" t="n">
-        <v>533</v>
+        <v>375</v>
       </c>
       <c r="Q182" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="R182" t="inlineStr">
         <is>
@@ -13509,7 +13509,7 @@
         </is>
       </c>
       <c r="D183" s="2" t="n">
-        <v>44301</v>
+        <v>44316</v>
       </c>
       <c r="E183" t="n">
         <v>13</v>
@@ -13524,7 +13524,7 @@
       </c>
       <c r="H183" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I183" t="inlineStr">
@@ -13533,20 +13533,20 @@
         </is>
       </c>
       <c r="J183" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="K183" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="L183" t="n">
         <v>18000</v>
       </c>
       <c r="M183" t="n">
-        <v>17500</v>
+        <v>18000</v>
       </c>
       <c r="N183" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O183" t="inlineStr">
@@ -13555,10 +13555,10 @@
         </is>
       </c>
       <c r="P183" t="n">
-        <v>583</v>
+        <v>360</v>
       </c>
       <c r="Q183" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R183" t="inlineStr">
         <is>
@@ -13581,7 +13581,7 @@
         </is>
       </c>
       <c r="D184" s="2" t="n">
-        <v>44382</v>
+        <v>44316</v>
       </c>
       <c r="E184" t="n">
         <v>13</v>
@@ -13601,36 +13601,36 @@
       </c>
       <c r="I184" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J184" t="n">
-        <v>52</v>
+        <v>18</v>
       </c>
       <c r="K184" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="L184" t="n">
         <v>18000</v>
       </c>
       <c r="M184" t="n">
-        <v>17500</v>
+        <v>18000</v>
       </c>
       <c r="N184" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 25 unidades</t>
         </is>
       </c>
       <c r="O184" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P184" t="n">
-        <v>583</v>
+        <v>18000</v>
       </c>
       <c r="Q184" t="n">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="R184" t="inlineStr">
         <is>
@@ -13653,7 +13653,7 @@
         </is>
       </c>
       <c r="D185" s="2" t="n">
-        <v>44398</v>
+        <v>44316</v>
       </c>
       <c r="E185" t="n">
         <v>13</v>
@@ -13673,36 +13673,36 @@
       </c>
       <c r="I185" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J185" t="n">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="K185" t="n">
-        <v>18000</v>
+        <v>16000</v>
       </c>
       <c r="L185" t="n">
-        <v>18000</v>
+        <v>16000</v>
       </c>
       <c r="M185" t="n">
-        <v>18000</v>
+        <v>16000</v>
       </c>
       <c r="N185" t="inlineStr">
         <is>
-          <t>$/caja 25 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O185" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P185" t="n">
-        <v>18000</v>
+        <v>533</v>
       </c>
       <c r="Q185" t="n">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="R185" t="inlineStr">
         <is>
@@ -13725,7 +13725,7 @@
         </is>
       </c>
       <c r="D186" s="2" t="n">
-        <v>44398</v>
+        <v>44301</v>
       </c>
       <c r="E186" t="n">
         <v>13</v>
@@ -13749,16 +13749,16 @@
         </is>
       </c>
       <c r="J186" t="n">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="K186" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="L186" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="M186" t="n">
-        <v>16500</v>
+        <v>17500</v>
       </c>
       <c r="N186" t="inlineStr">
         <is>
@@ -13767,11 +13767,11 @@
       </c>
       <c r="O186" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P186" t="n">
-        <v>550</v>
+        <v>583</v>
       </c>
       <c r="Q186" t="n">
         <v>30</v>
@@ -13797,7 +13797,7 @@
         </is>
       </c>
       <c r="D187" s="2" t="n">
-        <v>44398</v>
+        <v>44382</v>
       </c>
       <c r="E187" t="n">
         <v>13</v>
@@ -13817,24 +13817,24 @@
       </c>
       <c r="I187" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J187" t="n">
-        <v>16</v>
+        <v>52</v>
       </c>
       <c r="K187" t="n">
-        <v>14000</v>
+        <v>17000</v>
       </c>
       <c r="L187" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="M187" t="n">
-        <v>14500</v>
+        <v>17500</v>
       </c>
       <c r="N187" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O187" t="inlineStr">
@@ -13843,10 +13843,10 @@
         </is>
       </c>
       <c r="P187" t="n">
-        <v>362</v>
+        <v>583</v>
       </c>
       <c r="Q187" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="R187" t="inlineStr">
         <is>
@@ -13869,7 +13869,7 @@
         </is>
       </c>
       <c r="D188" s="2" t="n">
-        <v>44355</v>
+        <v>44398</v>
       </c>
       <c r="E188" t="n">
         <v>13</v>
@@ -13884,41 +13884,41 @@
       </c>
       <c r="H188" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I188" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J188" t="n">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="K188" t="n">
-        <v>14000</v>
+        <v>18000</v>
       </c>
       <c r="L188" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="M188" t="n">
-        <v>14500</v>
+        <v>18000</v>
       </c>
       <c r="N188" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 25 unidades</t>
         </is>
       </c>
       <c r="O188" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P188" t="n">
-        <v>290</v>
+        <v>18000</v>
       </c>
       <c r="Q188" t="n">
-        <v>50</v>
+        <v>1</v>
       </c>
       <c r="R188" t="inlineStr">
         <is>
@@ -13941,7 +13941,7 @@
         </is>
       </c>
       <c r="D189" s="2" t="n">
-        <v>44355</v>
+        <v>44398</v>
       </c>
       <c r="E189" t="n">
         <v>13</v>
@@ -13956,41 +13956,41 @@
       </c>
       <c r="H189" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I189" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J189" t="n">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="K189" t="n">
-        <v>13000</v>
+        <v>16000</v>
       </c>
       <c r="L189" t="n">
-        <v>14000</v>
+        <v>17000</v>
       </c>
       <c r="M189" t="n">
-        <v>13471</v>
+        <v>16500</v>
       </c>
       <c r="N189" t="inlineStr">
         <is>
-          <t>$/caja 70 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O189" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P189" t="n">
-        <v>192</v>
+        <v>550</v>
       </c>
       <c r="Q189" t="n">
-        <v>70</v>
+        <v>30</v>
       </c>
       <c r="R189" t="inlineStr">
         <is>
@@ -14013,7 +14013,7 @@
         </is>
       </c>
       <c r="D190" s="2" t="n">
-        <v>44355</v>
+        <v>44398</v>
       </c>
       <c r="E190" t="n">
         <v>13</v>
@@ -14033,24 +14033,24 @@
       </c>
       <c r="I190" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J190" t="n">
         <v>16</v>
       </c>
       <c r="K190" t="n">
-        <v>21000</v>
+        <v>14000</v>
       </c>
       <c r="L190" t="n">
-        <v>22000</v>
+        <v>15000</v>
       </c>
       <c r="M190" t="n">
-        <v>21500</v>
+        <v>14500</v>
       </c>
       <c r="N190" t="inlineStr">
         <is>
-          <t>$/caja 25 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O190" t="inlineStr">
@@ -14059,10 +14059,10 @@
         </is>
       </c>
       <c r="P190" t="n">
-        <v>21500</v>
+        <v>362</v>
       </c>
       <c r="Q190" t="n">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="R190" t="inlineStr">
         <is>
@@ -14100,7 +14100,7 @@
       </c>
       <c r="H191" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I191" t="inlineStr">
@@ -14109,32 +14109,32 @@
         </is>
       </c>
       <c r="J191" t="n">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="K191" t="n">
-        <v>18000</v>
+        <v>14000</v>
       </c>
       <c r="L191" t="n">
-        <v>19000</v>
+        <v>15000</v>
       </c>
       <c r="M191" t="n">
-        <v>18571</v>
+        <v>14500</v>
       </c>
       <c r="N191" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O191" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P191" t="n">
-        <v>619</v>
+        <v>290</v>
       </c>
       <c r="Q191" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R191" t="inlineStr">
         <is>
@@ -14172,7 +14172,7 @@
       </c>
       <c r="H192" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I192" t="inlineStr">
@@ -14181,32 +14181,32 @@
         </is>
       </c>
       <c r="J192" t="n">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="K192" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="L192" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="M192" t="n">
-        <v>15500</v>
+        <v>13471</v>
       </c>
       <c r="N192" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 70 unidades</t>
         </is>
       </c>
       <c r="O192" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P192" t="n">
-        <v>388</v>
+        <v>192</v>
       </c>
       <c r="Q192" t="n">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="R192" t="inlineStr">
         <is>
@@ -14229,7 +14229,7 @@
         </is>
       </c>
       <c r="D193" s="2" t="n">
-        <v>44376</v>
+        <v>44355</v>
       </c>
       <c r="E193" t="n">
         <v>13</v>
@@ -14301,7 +14301,7 @@
         </is>
       </c>
       <c r="D194" s="2" t="n">
-        <v>44376</v>
+        <v>44355</v>
       </c>
       <c r="E194" t="n">
         <v>13</v>
@@ -14325,16 +14325,16 @@
         </is>
       </c>
       <c r="J194" t="n">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="K194" t="n">
+        <v>18000</v>
+      </c>
+      <c r="L194" t="n">
         <v>19000</v>
       </c>
-      <c r="L194" t="n">
-        <v>20000</v>
-      </c>
       <c r="M194" t="n">
-        <v>19500</v>
+        <v>18571</v>
       </c>
       <c r="N194" t="inlineStr">
         <is>
@@ -14347,7 +14347,7 @@
         </is>
       </c>
       <c r="P194" t="n">
-        <v>650</v>
+        <v>619</v>
       </c>
       <c r="Q194" t="n">
         <v>30</v>
@@ -14373,7 +14373,7 @@
         </is>
       </c>
       <c r="D195" s="2" t="n">
-        <v>44376</v>
+        <v>44355</v>
       </c>
       <c r="E195" t="n">
         <v>13</v>
@@ -14397,16 +14397,16 @@
         </is>
       </c>
       <c r="J195" t="n">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="K195" t="n">
+        <v>15000</v>
+      </c>
+      <c r="L195" t="n">
         <v>16000</v>
       </c>
-      <c r="L195" t="n">
-        <v>17000</v>
-      </c>
       <c r="M195" t="n">
-        <v>16480</v>
+        <v>15500</v>
       </c>
       <c r="N195" t="inlineStr">
         <is>
@@ -14419,7 +14419,7 @@
         </is>
       </c>
       <c r="P195" t="n">
-        <v>412</v>
+        <v>388</v>
       </c>
       <c r="Q195" t="n">
         <v>40</v>
@@ -14445,7 +14445,7 @@
         </is>
       </c>
       <c r="D196" s="2" t="n">
-        <v>44334</v>
+        <v>44376</v>
       </c>
       <c r="E196" t="n">
         <v>13</v>
@@ -14460,29 +14460,29 @@
       </c>
       <c r="H196" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I196" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J196" t="n">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="K196" t="n">
-        <v>15000</v>
+        <v>21000</v>
       </c>
       <c r="L196" t="n">
-        <v>16000</v>
+        <v>22000</v>
       </c>
       <c r="M196" t="n">
-        <v>15500</v>
+        <v>21500</v>
       </c>
       <c r="N196" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 25 unidades</t>
         </is>
       </c>
       <c r="O196" t="inlineStr">
@@ -14491,10 +14491,10 @@
         </is>
       </c>
       <c r="P196" t="n">
-        <v>310</v>
+        <v>21500</v>
       </c>
       <c r="Q196" t="n">
-        <v>50</v>
+        <v>1</v>
       </c>
       <c r="R196" t="inlineStr">
         <is>
@@ -14517,7 +14517,7 @@
         </is>
       </c>
       <c r="D197" s="2" t="n">
-        <v>44334</v>
+        <v>44376</v>
       </c>
       <c r="E197" t="n">
         <v>13</v>
@@ -14541,16 +14541,16 @@
         </is>
       </c>
       <c r="J197" t="n">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="K197" t="n">
-        <v>17000</v>
+        <v>19000</v>
       </c>
       <c r="L197" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="M197" t="n">
-        <v>17480</v>
+        <v>19500</v>
       </c>
       <c r="N197" t="inlineStr">
         <is>
@@ -14563,7 +14563,7 @@
         </is>
       </c>
       <c r="P197" t="n">
-        <v>583</v>
+        <v>650</v>
       </c>
       <c r="Q197" t="n">
         <v>30</v>
@@ -14589,58 +14589,274 @@
         </is>
       </c>
       <c r="D198" s="2" t="n">
+        <v>44376</v>
+      </c>
+      <c r="E198" t="n">
+        <v>13</v>
+      </c>
+      <c r="F198" t="n">
+        <v>100112013</v>
+      </c>
+      <c r="G198" t="inlineStr">
+        <is>
+          <t>Alcachofa</t>
+        </is>
+      </c>
+      <c r="H198" t="inlineStr">
+        <is>
+          <t>Española</t>
+        </is>
+      </c>
+      <c r="I198" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="J198" t="n">
+        <v>25</v>
+      </c>
+      <c r="K198" t="n">
+        <v>16000</v>
+      </c>
+      <c r="L198" t="n">
+        <v>17000</v>
+      </c>
+      <c r="M198" t="n">
+        <v>16480</v>
+      </c>
+      <c r="N198" t="inlineStr">
+        <is>
+          <t>$/caja 40 unidades</t>
+        </is>
+      </c>
+      <c r="O198" t="inlineStr">
+        <is>
+          <t>Provincia del Elquí</t>
+        </is>
+      </c>
+      <c r="P198" t="n">
+        <v>412</v>
+      </c>
+      <c r="Q198" t="n">
+        <v>40</v>
+      </c>
+      <c r="R198" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="n">
+        <v>9</v>
+      </c>
+      <c r="B199" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C199" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D199" s="2" t="n">
+        <v>44334</v>
+      </c>
+      <c r="E199" t="n">
+        <v>13</v>
+      </c>
+      <c r="F199" t="n">
+        <v>100112013</v>
+      </c>
+      <c r="G199" t="inlineStr">
+        <is>
+          <t>Alcachofa</t>
+        </is>
+      </c>
+      <c r="H199" t="inlineStr">
+        <is>
+          <t>Argentina(o)</t>
+        </is>
+      </c>
+      <c r="I199" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J199" t="n">
+        <v>34</v>
+      </c>
+      <c r="K199" t="n">
+        <v>15000</v>
+      </c>
+      <c r="L199" t="n">
+        <v>16000</v>
+      </c>
+      <c r="M199" t="n">
+        <v>15500</v>
+      </c>
+      <c r="N199" t="inlineStr">
+        <is>
+          <t>$/caja 50 unidades</t>
+        </is>
+      </c>
+      <c r="O199" t="inlineStr">
+        <is>
+          <t>Provincia del Elquí</t>
+        </is>
+      </c>
+      <c r="P199" t="n">
+        <v>310</v>
+      </c>
+      <c r="Q199" t="n">
+        <v>50</v>
+      </c>
+      <c r="R199" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="n">
+        <v>9</v>
+      </c>
+      <c r="B200" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C200" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D200" s="2" t="n">
+        <v>44334</v>
+      </c>
+      <c r="E200" t="n">
+        <v>13</v>
+      </c>
+      <c r="F200" t="n">
+        <v>100112013</v>
+      </c>
+      <c r="G200" t="inlineStr">
+        <is>
+          <t>Alcachofa</t>
+        </is>
+      </c>
+      <c r="H200" t="inlineStr">
+        <is>
+          <t>Española</t>
+        </is>
+      </c>
+      <c r="I200" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J200" t="n">
+        <v>25</v>
+      </c>
+      <c r="K200" t="n">
+        <v>17000</v>
+      </c>
+      <c r="L200" t="n">
+        <v>18000</v>
+      </c>
+      <c r="M200" t="n">
+        <v>17480</v>
+      </c>
+      <c r="N200" t="inlineStr">
+        <is>
+          <t>$/caja 30 unidades</t>
+        </is>
+      </c>
+      <c r="O200" t="inlineStr">
+        <is>
+          <t>Provincia del Elquí</t>
+        </is>
+      </c>
+      <c r="P200" t="n">
+        <v>583</v>
+      </c>
+      <c r="Q200" t="n">
+        <v>30</v>
+      </c>
+      <c r="R200" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="n">
+        <v>9</v>
+      </c>
+      <c r="B201" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C201" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D201" s="2" t="n">
         <v>44168</v>
       </c>
-      <c r="E198" t="n">
-        <v>13</v>
-      </c>
-      <c r="F198" t="n">
-        <v>100112013</v>
-      </c>
-      <c r="G198" t="inlineStr">
-        <is>
-          <t>Alcachofa</t>
-        </is>
-      </c>
-      <c r="H198" t="inlineStr">
+      <c r="E201" t="n">
+        <v>13</v>
+      </c>
+      <c r="F201" t="n">
+        <v>100112013</v>
+      </c>
+      <c r="G201" t="inlineStr">
+        <is>
+          <t>Alcachofa</t>
+        </is>
+      </c>
+      <c r="H201" t="inlineStr">
         <is>
           <t>Española</t>
         </is>
       </c>
-      <c r="I198" t="inlineStr">
+      <c r="I201" t="inlineStr">
         <is>
           <t>Primera</t>
         </is>
       </c>
-      <c r="J198" t="n">
+      <c r="J201" t="n">
         <v>230</v>
       </c>
-      <c r="K198" t="n">
+      <c r="K201" t="n">
         <v>11000</v>
       </c>
-      <c r="L198" t="n">
+      <c r="L201" t="n">
         <v>11000</v>
       </c>
-      <c r="M198" t="n">
+      <c r="M201" t="n">
         <v>11000</v>
       </c>
-      <c r="N198" t="inlineStr">
+      <c r="N201" t="inlineStr">
         <is>
           <t>$/caja 30 unidades</t>
         </is>
       </c>
-      <c r="O198" t="inlineStr">
+      <c r="O201" t="inlineStr">
         <is>
           <t>Región Metropolitana</t>
         </is>
       </c>
-      <c r="P198" t="n">
+      <c r="P201" t="n">
         <v>367</v>
       </c>
-      <c r="Q198" t="n">
+      <c r="Q201" t="n">
         <v>30</v>
       </c>
-      <c r="R198" t="inlineStr">
+      <c r="R201" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Central Mapocho de Santiago - Alcachofa.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Central Mapocho de Santiago - Alcachofa.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R231"/>
+  <dimension ref="A1:R254"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6381,7 +6381,7 @@
         </is>
       </c>
       <c r="D84" s="2" t="n">
-        <v>44299</v>
+        <v>44434</v>
       </c>
       <c r="E84" t="n">
         <v>13</v>
@@ -6401,36 +6401,36 @@
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J84" t="n">
-        <v>50</v>
+        <v>18</v>
       </c>
       <c r="K84" t="n">
-        <v>18000</v>
+        <v>16000</v>
       </c>
       <c r="L84" t="n">
-        <v>18000</v>
+        <v>17000</v>
       </c>
       <c r="M84" t="n">
-        <v>18000</v>
+        <v>16500</v>
       </c>
       <c r="N84" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 25 unidades</t>
         </is>
       </c>
       <c r="O84" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P84" t="n">
-        <v>600</v>
+        <v>16500</v>
       </c>
       <c r="Q84" t="n">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="R84" t="inlineStr">
         <is>
@@ -6453,7 +6453,7 @@
         </is>
       </c>
       <c r="D85" s="2" t="n">
-        <v>44162</v>
+        <v>44434</v>
       </c>
       <c r="E85" t="n">
         <v>13</v>
@@ -6477,16 +6477,16 @@
         </is>
       </c>
       <c r="J85" t="n">
-        <v>300</v>
+        <v>52</v>
       </c>
       <c r="K85" t="n">
-        <v>9000</v>
+        <v>14000</v>
       </c>
       <c r="L85" t="n">
-        <v>9000</v>
+        <v>15000</v>
       </c>
       <c r="M85" t="n">
-        <v>9000</v>
+        <v>14500</v>
       </c>
       <c r="N85" t="inlineStr">
         <is>
@@ -6495,11 +6495,11 @@
       </c>
       <c r="O85" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P85" t="n">
-        <v>300</v>
+        <v>483</v>
       </c>
       <c r="Q85" t="n">
         <v>30</v>
@@ -6525,7 +6525,7 @@
         </is>
       </c>
       <c r="D86" s="2" t="n">
-        <v>44342</v>
+        <v>44434</v>
       </c>
       <c r="E86" t="n">
         <v>13</v>
@@ -6540,29 +6540,29 @@
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J86" t="n">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="K86" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="L86" t="n">
-        <v>16000</v>
+        <v>13000</v>
       </c>
       <c r="M86" t="n">
-        <v>15476</v>
+        <v>12500</v>
       </c>
       <c r="N86" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O86" t="inlineStr">
@@ -6571,10 +6571,10 @@
         </is>
       </c>
       <c r="P86" t="n">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="Q86" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="R86" t="inlineStr">
         <is>
@@ -6597,7 +6597,7 @@
         </is>
       </c>
       <c r="D87" s="2" t="n">
-        <v>44342</v>
+        <v>44299</v>
       </c>
       <c r="E87" t="n">
         <v>13</v>
@@ -6621,16 +6621,16 @@
         </is>
       </c>
       <c r="J87" t="n">
-        <v>24</v>
+        <v>50</v>
       </c>
       <c r="K87" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="L87" t="n">
         <v>18000</v>
       </c>
       <c r="M87" t="n">
-        <v>17500</v>
+        <v>18000</v>
       </c>
       <c r="N87" t="inlineStr">
         <is>
@@ -6643,7 +6643,7 @@
         </is>
       </c>
       <c r="P87" t="n">
-        <v>583</v>
+        <v>600</v>
       </c>
       <c r="Q87" t="n">
         <v>30</v>
@@ -6669,7 +6669,7 @@
         </is>
       </c>
       <c r="D88" s="2" t="n">
-        <v>44342</v>
+        <v>44428</v>
       </c>
       <c r="E88" t="n">
         <v>13</v>
@@ -6689,24 +6689,24 @@
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J88" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="K88" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="L88" t="n">
-        <v>15000</v>
+        <v>17000</v>
       </c>
       <c r="M88" t="n">
-        <v>15000</v>
+        <v>16480</v>
       </c>
       <c r="N88" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 25 unidades</t>
         </is>
       </c>
       <c r="O88" t="inlineStr">
@@ -6715,10 +6715,10 @@
         </is>
       </c>
       <c r="P88" t="n">
-        <v>375</v>
+        <v>16480</v>
       </c>
       <c r="Q88" t="n">
-        <v>40</v>
+        <v>1</v>
       </c>
       <c r="R88" t="inlineStr">
         <is>
@@ -6741,7 +6741,7 @@
         </is>
       </c>
       <c r="D89" s="2" t="n">
-        <v>44362</v>
+        <v>44428</v>
       </c>
       <c r="E89" t="n">
         <v>13</v>
@@ -6756,7 +6756,7 @@
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I89" t="inlineStr">
@@ -6765,20 +6765,20 @@
         </is>
       </c>
       <c r="J89" t="n">
-        <v>34</v>
+        <v>52</v>
       </c>
       <c r="K89" t="n">
+        <v>14000</v>
+      </c>
+      <c r="L89" t="n">
         <v>15000</v>
       </c>
-      <c r="L89" t="n">
-        <v>16000</v>
-      </c>
       <c r="M89" t="n">
-        <v>15500</v>
+        <v>14500</v>
       </c>
       <c r="N89" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O89" t="inlineStr">
@@ -6787,10 +6787,10 @@
         </is>
       </c>
       <c r="P89" t="n">
-        <v>388</v>
+        <v>483</v>
       </c>
       <c r="Q89" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="R89" t="inlineStr">
         <is>
@@ -6813,7 +6813,7 @@
         </is>
       </c>
       <c r="D90" s="2" t="n">
-        <v>44362</v>
+        <v>44428</v>
       </c>
       <c r="E90" t="n">
         <v>13</v>
@@ -6828,7 +6828,7 @@
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I90" t="inlineStr">
@@ -6837,20 +6837,20 @@
         </is>
       </c>
       <c r="J90" t="n">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="K90" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="L90" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="M90" t="n">
-        <v>14000</v>
+        <v>12500</v>
       </c>
       <c r="N90" t="inlineStr">
         <is>
-          <t>$/caja 70 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O90" t="inlineStr">
@@ -6859,10 +6859,10 @@
         </is>
       </c>
       <c r="P90" t="n">
-        <v>200</v>
+        <v>312</v>
       </c>
       <c r="Q90" t="n">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="R90" t="inlineStr">
         <is>
@@ -6885,7 +6885,7 @@
         </is>
       </c>
       <c r="D91" s="2" t="n">
-        <v>44362</v>
+        <v>44428</v>
       </c>
       <c r="E91" t="n">
         <v>13</v>
@@ -6900,41 +6900,41 @@
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Madrigal</t>
         </is>
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J91" t="n">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="K91" t="n">
-        <v>20000</v>
+        <v>16000</v>
       </c>
       <c r="L91" t="n">
-        <v>21000</v>
+        <v>17000</v>
       </c>
       <c r="M91" t="n">
-        <v>20500</v>
+        <v>16500</v>
       </c>
       <c r="N91" t="inlineStr">
         <is>
-          <t>$/caja 25 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O91" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P91" t="n">
-        <v>20500</v>
+        <v>412</v>
       </c>
       <c r="Q91" t="n">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="R91" t="inlineStr">
         <is>
@@ -6957,7 +6957,7 @@
         </is>
       </c>
       <c r="D92" s="2" t="n">
-        <v>44362</v>
+        <v>44428</v>
       </c>
       <c r="E92" t="n">
         <v>13</v>
@@ -6972,41 +6972,41 @@
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Madrigal</t>
         </is>
       </c>
       <c r="I92" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J92" t="n">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="K92" t="n">
-        <v>17000</v>
+        <v>14000</v>
       </c>
       <c r="L92" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="M92" t="n">
-        <v>17500</v>
+        <v>14500</v>
       </c>
       <c r="N92" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O92" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P92" t="n">
-        <v>583</v>
+        <v>290</v>
       </c>
       <c r="Q92" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R92" t="inlineStr">
         <is>
@@ -7029,7 +7029,7 @@
         </is>
       </c>
       <c r="D93" s="2" t="n">
-        <v>44384</v>
+        <v>44162</v>
       </c>
       <c r="E93" t="n">
         <v>13</v>
@@ -7053,16 +7053,16 @@
         </is>
       </c>
       <c r="J93" t="n">
-        <v>52</v>
+        <v>300</v>
       </c>
       <c r="K93" t="n">
-        <v>16000</v>
+        <v>9000</v>
       </c>
       <c r="L93" t="n">
-        <v>17000</v>
+        <v>9000</v>
       </c>
       <c r="M93" t="n">
-        <v>16500</v>
+        <v>9000</v>
       </c>
       <c r="N93" t="inlineStr">
         <is>
@@ -7071,11 +7071,11 @@
       </c>
       <c r="O93" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P93" t="n">
-        <v>550</v>
+        <v>300</v>
       </c>
       <c r="Q93" t="n">
         <v>30</v>
@@ -7101,7 +7101,7 @@
         </is>
       </c>
       <c r="D94" s="2" t="n">
-        <v>44384</v>
+        <v>44342</v>
       </c>
       <c r="E94" t="n">
         <v>13</v>
@@ -7116,29 +7116,29 @@
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I94" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J94" t="n">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="K94" t="n">
         <v>15000</v>
       </c>
       <c r="L94" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="M94" t="n">
-        <v>15000</v>
+        <v>15476</v>
       </c>
       <c r="N94" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O94" t="inlineStr">
@@ -7147,10 +7147,10 @@
         </is>
       </c>
       <c r="P94" t="n">
-        <v>375</v>
+        <v>310</v>
       </c>
       <c r="Q94" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="R94" t="inlineStr">
         <is>
@@ -7173,7 +7173,7 @@
         </is>
       </c>
       <c r="D95" s="2" t="n">
-        <v>44323</v>
+        <v>44342</v>
       </c>
       <c r="E95" t="n">
         <v>13</v>
@@ -7188,7 +7188,7 @@
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I95" t="inlineStr">
@@ -7197,20 +7197,20 @@
         </is>
       </c>
       <c r="J95" t="n">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="K95" t="n">
-        <v>18000</v>
+        <v>17000</v>
       </c>
       <c r="L95" t="n">
         <v>18000</v>
       </c>
       <c r="M95" t="n">
-        <v>18000</v>
+        <v>17500</v>
       </c>
       <c r="N95" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O95" t="inlineStr">
@@ -7219,10 +7219,10 @@
         </is>
       </c>
       <c r="P95" t="n">
-        <v>360</v>
+        <v>583</v>
       </c>
       <c r="Q95" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R95" t="inlineStr">
         <is>
@@ -7245,7 +7245,7 @@
         </is>
       </c>
       <c r="D96" s="2" t="n">
-        <v>44323</v>
+        <v>44342</v>
       </c>
       <c r="E96" t="n">
         <v>13</v>
@@ -7265,24 +7265,24 @@
       </c>
       <c r="I96" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J96" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K96" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="L96" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="M96" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="N96" t="inlineStr">
         <is>
-          <t>$/caja 25 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O96" t="inlineStr">
@@ -7291,10 +7291,10 @@
         </is>
       </c>
       <c r="P96" t="n">
-        <v>18000</v>
+        <v>375</v>
       </c>
       <c r="Q96" t="n">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="R96" t="inlineStr">
         <is>
@@ -7317,7 +7317,7 @@
         </is>
       </c>
       <c r="D97" s="2" t="n">
-        <v>44323</v>
+        <v>44362</v>
       </c>
       <c r="E97" t="n">
         <v>13</v>
@@ -7332,7 +7332,7 @@
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I97" t="inlineStr">
@@ -7341,20 +7341,20 @@
         </is>
       </c>
       <c r="J97" t="n">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="K97" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="L97" t="n">
         <v>16000</v>
       </c>
       <c r="M97" t="n">
-        <v>16000</v>
+        <v>15500</v>
       </c>
       <c r="N97" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O97" t="inlineStr">
@@ -7363,10 +7363,10 @@
         </is>
       </c>
       <c r="P97" t="n">
-        <v>533</v>
+        <v>388</v>
       </c>
       <c r="Q97" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="R97" t="inlineStr">
         <is>
@@ -7389,7 +7389,7 @@
         </is>
       </c>
       <c r="D98" s="2" t="n">
-        <v>44363</v>
+        <v>44362</v>
       </c>
       <c r="E98" t="n">
         <v>13</v>
@@ -7409,36 +7409,36 @@
       </c>
       <c r="I98" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J98" t="n">
-        <v>52</v>
+        <v>16</v>
       </c>
       <c r="K98" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="L98" t="n">
-        <v>17000</v>
+        <v>14000</v>
       </c>
       <c r="M98" t="n">
-        <v>16500</v>
+        <v>14000</v>
       </c>
       <c r="N98" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 70 unidades</t>
         </is>
       </c>
       <c r="O98" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P98" t="n">
-        <v>330</v>
+        <v>200</v>
       </c>
       <c r="Q98" t="n">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="R98" t="inlineStr">
         <is>
@@ -7461,7 +7461,7 @@
         </is>
       </c>
       <c r="D99" s="2" t="n">
-        <v>44363</v>
+        <v>44362</v>
       </c>
       <c r="E99" t="n">
         <v>13</v>
@@ -7481,36 +7481,36 @@
       </c>
       <c r="I99" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J99" t="n">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="K99" t="n">
-        <v>17000</v>
+        <v>20000</v>
       </c>
       <c r="L99" t="n">
-        <v>18000</v>
+        <v>21000</v>
       </c>
       <c r="M99" t="n">
-        <v>17500</v>
+        <v>20500</v>
       </c>
       <c r="N99" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 25 unidades</t>
         </is>
       </c>
       <c r="O99" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P99" t="n">
-        <v>583</v>
+        <v>20500</v>
       </c>
       <c r="Q99" t="n">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="R99" t="inlineStr">
         <is>
@@ -7533,7 +7533,7 @@
         </is>
       </c>
       <c r="D100" s="2" t="n">
-        <v>44349</v>
+        <v>44362</v>
       </c>
       <c r="E100" t="n">
         <v>13</v>
@@ -7557,7 +7557,7 @@
         </is>
       </c>
       <c r="J100" t="n">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="K100" t="n">
         <v>17000</v>
@@ -7566,7 +7566,7 @@
         <v>18000</v>
       </c>
       <c r="M100" t="n">
-        <v>17524</v>
+        <v>17500</v>
       </c>
       <c r="N100" t="inlineStr">
         <is>
@@ -7575,11 +7575,11 @@
       </c>
       <c r="O100" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P100" t="n">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="Q100" t="n">
         <v>30</v>
@@ -7605,7 +7605,7 @@
         </is>
       </c>
       <c r="D101" s="2" t="n">
-        <v>44349</v>
+        <v>44384</v>
       </c>
       <c r="E101" t="n">
         <v>13</v>
@@ -7625,36 +7625,36 @@
       </c>
       <c r="I101" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J101" t="n">
-        <v>13</v>
+        <v>52</v>
       </c>
       <c r="K101" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="L101" t="n">
-        <v>15000</v>
+        <v>17000</v>
       </c>
       <c r="M101" t="n">
-        <v>15000</v>
+        <v>16500</v>
       </c>
       <c r="N101" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O101" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P101" t="n">
-        <v>375</v>
+        <v>550</v>
       </c>
       <c r="Q101" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="R101" t="inlineStr">
         <is>
@@ -7677,7 +7677,7 @@
         </is>
       </c>
       <c r="D102" s="2" t="n">
-        <v>44385</v>
+        <v>44384</v>
       </c>
       <c r="E102" t="n">
         <v>13</v>
@@ -7697,36 +7697,36 @@
       </c>
       <c r="I102" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J102" t="n">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="K102" t="n">
-        <v>19000</v>
+        <v>15000</v>
       </c>
       <c r="L102" t="n">
-        <v>19000</v>
+        <v>15000</v>
       </c>
       <c r="M102" t="n">
-        <v>19000</v>
+        <v>15000</v>
       </c>
       <c r="N102" t="inlineStr">
         <is>
-          <t>$/caja 25 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O102" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P102" t="n">
-        <v>19000</v>
+        <v>375</v>
       </c>
       <c r="Q102" t="n">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="R102" t="inlineStr">
         <is>
@@ -7749,7 +7749,7 @@
         </is>
       </c>
       <c r="D103" s="2" t="n">
-        <v>44385</v>
+        <v>44323</v>
       </c>
       <c r="E103" t="n">
         <v>13</v>
@@ -7764,7 +7764,7 @@
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I103" t="inlineStr">
@@ -7773,20 +7773,20 @@
         </is>
       </c>
       <c r="J103" t="n">
-        <v>52</v>
+        <v>16</v>
       </c>
       <c r="K103" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="L103" t="n">
         <v>18000</v>
       </c>
       <c r="M103" t="n">
-        <v>17500</v>
+        <v>18000</v>
       </c>
       <c r="N103" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O103" t="inlineStr">
@@ -7795,10 +7795,10 @@
         </is>
       </c>
       <c r="P103" t="n">
-        <v>583</v>
+        <v>360</v>
       </c>
       <c r="Q103" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R103" t="inlineStr">
         <is>
@@ -7821,7 +7821,7 @@
         </is>
       </c>
       <c r="D104" s="2" t="n">
-        <v>44385</v>
+        <v>44323</v>
       </c>
       <c r="E104" t="n">
         <v>13</v>
@@ -7841,24 +7841,24 @@
       </c>
       <c r="I104" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J104" t="n">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="K104" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="L104" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="M104" t="n">
-        <v>15480</v>
+        <v>18000</v>
       </c>
       <c r="N104" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 25 unidades</t>
         </is>
       </c>
       <c r="O104" t="inlineStr">
@@ -7867,10 +7867,10 @@
         </is>
       </c>
       <c r="P104" t="n">
-        <v>387</v>
+        <v>18000</v>
       </c>
       <c r="Q104" t="n">
-        <v>40</v>
+        <v>1</v>
       </c>
       <c r="R104" t="inlineStr">
         <is>
@@ -7893,7 +7893,7 @@
         </is>
       </c>
       <c r="D105" s="2" t="n">
-        <v>44385</v>
+        <v>44323</v>
       </c>
       <c r="E105" t="n">
         <v>13</v>
@@ -7908,29 +7908,29 @@
       </c>
       <c r="H105" t="inlineStr">
         <is>
-          <t>Madrigal</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I105" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J105" t="n">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="K105" t="n">
-        <v>21000</v>
+        <v>16000</v>
       </c>
       <c r="L105" t="n">
-        <v>21000</v>
+        <v>16000</v>
       </c>
       <c r="M105" t="n">
-        <v>21000</v>
+        <v>16000</v>
       </c>
       <c r="N105" t="inlineStr">
         <is>
-          <t>$/caja 35 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O105" t="inlineStr">
@@ -7939,10 +7939,10 @@
         </is>
       </c>
       <c r="P105" t="n">
-        <v>600</v>
+        <v>533</v>
       </c>
       <c r="Q105" t="n">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="R105" t="inlineStr">
         <is>
@@ -7965,7 +7965,7 @@
         </is>
       </c>
       <c r="D106" s="2" t="n">
-        <v>44385</v>
+        <v>44363</v>
       </c>
       <c r="E106" t="n">
         <v>13</v>
@@ -7980,7 +7980,7 @@
       </c>
       <c r="H106" t="inlineStr">
         <is>
-          <t>Madrigal</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I106" t="inlineStr">
@@ -7989,32 +7989,32 @@
         </is>
       </c>
       <c r="J106" t="n">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="K106" t="n">
-        <v>18000</v>
+        <v>16000</v>
       </c>
       <c r="L106" t="n">
-        <v>19000</v>
+        <v>17000</v>
       </c>
       <c r="M106" t="n">
-        <v>18512</v>
+        <v>16500</v>
       </c>
       <c r="N106" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O106" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P106" t="n">
-        <v>463</v>
+        <v>330</v>
       </c>
       <c r="Q106" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="R106" t="inlineStr">
         <is>
@@ -8037,7 +8037,7 @@
         </is>
       </c>
       <c r="D107" s="2" t="n">
-        <v>44385</v>
+        <v>44363</v>
       </c>
       <c r="E107" t="n">
         <v>13</v>
@@ -8052,29 +8052,29 @@
       </c>
       <c r="H107" t="inlineStr">
         <is>
-          <t>Madrigal</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I107" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J107" t="n">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="K107" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="L107" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="M107" t="n">
-        <v>16480</v>
+        <v>17500</v>
       </c>
       <c r="N107" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O107" t="inlineStr">
@@ -8083,10 +8083,10 @@
         </is>
       </c>
       <c r="P107" t="n">
-        <v>330</v>
+        <v>583</v>
       </c>
       <c r="Q107" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R107" t="inlineStr">
         <is>
@@ -8109,7 +8109,7 @@
         </is>
       </c>
       <c r="D108" s="2" t="n">
-        <v>44427</v>
+        <v>44349</v>
       </c>
       <c r="E108" t="n">
         <v>13</v>
@@ -8129,24 +8129,24 @@
       </c>
       <c r="I108" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J108" t="n">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="K108" t="n">
         <v>17000</v>
       </c>
       <c r="L108" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="M108" t="n">
-        <v>17000</v>
+        <v>17524</v>
       </c>
       <c r="N108" t="inlineStr">
         <is>
-          <t>$/caja 25 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O108" t="inlineStr">
@@ -8155,10 +8155,10 @@
         </is>
       </c>
       <c r="P108" t="n">
-        <v>17000</v>
+        <v>584</v>
       </c>
       <c r="Q108" t="n">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="R108" t="inlineStr">
         <is>
@@ -8181,7 +8181,7 @@
         </is>
       </c>
       <c r="D109" s="2" t="n">
-        <v>44427</v>
+        <v>44349</v>
       </c>
       <c r="E109" t="n">
         <v>13</v>
@@ -8201,24 +8201,24 @@
       </c>
       <c r="I109" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J109" t="n">
-        <v>43</v>
+        <v>13</v>
       </c>
       <c r="K109" t="n">
         <v>15000</v>
       </c>
       <c r="L109" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="M109" t="n">
-        <v>15488</v>
+        <v>15000</v>
       </c>
       <c r="N109" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O109" t="inlineStr">
@@ -8227,10 +8227,10 @@
         </is>
       </c>
       <c r="P109" t="n">
-        <v>516</v>
+        <v>375</v>
       </c>
       <c r="Q109" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="R109" t="inlineStr">
         <is>
@@ -8253,7 +8253,7 @@
         </is>
       </c>
       <c r="D110" s="2" t="n">
-        <v>44427</v>
+        <v>44385</v>
       </c>
       <c r="E110" t="n">
         <v>13</v>
@@ -8273,24 +8273,24 @@
       </c>
       <c r="I110" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J110" t="n">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="K110" t="n">
-        <v>13000</v>
+        <v>19000</v>
       </c>
       <c r="L110" t="n">
-        <v>14000</v>
+        <v>19000</v>
       </c>
       <c r="M110" t="n">
-        <v>13480</v>
+        <v>19000</v>
       </c>
       <c r="N110" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 25 unidades</t>
         </is>
       </c>
       <c r="O110" t="inlineStr">
@@ -8299,10 +8299,10 @@
         </is>
       </c>
       <c r="P110" t="n">
-        <v>337</v>
+        <v>19000</v>
       </c>
       <c r="Q110" t="n">
-        <v>40</v>
+        <v>1</v>
       </c>
       <c r="R110" t="inlineStr">
         <is>
@@ -8325,7 +8325,7 @@
         </is>
       </c>
       <c r="D111" s="2" t="n">
-        <v>44427</v>
+        <v>44385</v>
       </c>
       <c r="E111" t="n">
         <v>13</v>
@@ -8340,7 +8340,7 @@
       </c>
       <c r="H111" t="inlineStr">
         <is>
-          <t>Madrigal</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I111" t="inlineStr">
@@ -8349,20 +8349,20 @@
         </is>
       </c>
       <c r="J111" t="n">
-        <v>25</v>
+        <v>52</v>
       </c>
       <c r="K111" t="n">
-        <v>15000</v>
+        <v>17000</v>
       </c>
       <c r="L111" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="M111" t="n">
-        <v>15480</v>
+        <v>17500</v>
       </c>
       <c r="N111" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O111" t="inlineStr">
@@ -8371,10 +8371,10 @@
         </is>
       </c>
       <c r="P111" t="n">
-        <v>387</v>
+        <v>583</v>
       </c>
       <c r="Q111" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="R111" t="inlineStr">
         <is>
@@ -8397,7 +8397,7 @@
         </is>
       </c>
       <c r="D112" s="2" t="n">
-        <v>44427</v>
+        <v>44385</v>
       </c>
       <c r="E112" t="n">
         <v>13</v>
@@ -8412,7 +8412,7 @@
       </c>
       <c r="H112" t="inlineStr">
         <is>
-          <t>Madrigal</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I112" t="inlineStr">
@@ -8421,20 +8421,20 @@
         </is>
       </c>
       <c r="J112" t="n">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="K112" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="L112" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="M112" t="n">
-        <v>13500</v>
+        <v>15480</v>
       </c>
       <c r="N112" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O112" t="inlineStr">
@@ -8443,10 +8443,10 @@
         </is>
       </c>
       <c r="P112" t="n">
-        <v>270</v>
+        <v>387</v>
       </c>
       <c r="Q112" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="R112" t="inlineStr">
         <is>
@@ -8469,7 +8469,7 @@
         </is>
       </c>
       <c r="D113" s="2" t="n">
-        <v>44413</v>
+        <v>44385</v>
       </c>
       <c r="E113" t="n">
         <v>13</v>
@@ -8484,7 +8484,7 @@
       </c>
       <c r="H113" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Madrigal</t>
         </is>
       </c>
       <c r="I113" t="inlineStr">
@@ -8496,29 +8496,29 @@
         <v>16</v>
       </c>
       <c r="K113" t="n">
-        <v>15000</v>
+        <v>21000</v>
       </c>
       <c r="L113" t="n">
-        <v>16000</v>
+        <v>21000</v>
       </c>
       <c r="M113" t="n">
-        <v>15500</v>
+        <v>21000</v>
       </c>
       <c r="N113" t="inlineStr">
         <is>
-          <t>$/caja 25 unidades</t>
+          <t>$/caja 35 unidades</t>
         </is>
       </c>
       <c r="O113" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P113" t="n">
-        <v>15500</v>
+        <v>600</v>
       </c>
       <c r="Q113" t="n">
-        <v>1</v>
+        <v>35</v>
       </c>
       <c r="R113" t="inlineStr">
         <is>
@@ -8541,7 +8541,7 @@
         </is>
       </c>
       <c r="D114" s="2" t="n">
-        <v>44413</v>
+        <v>44385</v>
       </c>
       <c r="E114" t="n">
         <v>13</v>
@@ -8556,7 +8556,7 @@
       </c>
       <c r="H114" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Madrigal</t>
         </is>
       </c>
       <c r="I114" t="inlineStr">
@@ -8565,32 +8565,32 @@
         </is>
       </c>
       <c r="J114" t="n">
-        <v>61</v>
+        <v>43</v>
       </c>
       <c r="K114" t="n">
-        <v>13000</v>
+        <v>18000</v>
       </c>
       <c r="L114" t="n">
-        <v>14000</v>
+        <v>19000</v>
       </c>
       <c r="M114" t="n">
-        <v>13492</v>
+        <v>18512</v>
       </c>
       <c r="N114" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O114" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P114" t="n">
-        <v>450</v>
+        <v>463</v>
       </c>
       <c r="Q114" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="R114" t="inlineStr">
         <is>
@@ -8613,7 +8613,7 @@
         </is>
       </c>
       <c r="D115" s="2" t="n">
-        <v>44413</v>
+        <v>44385</v>
       </c>
       <c r="E115" t="n">
         <v>13</v>
@@ -8628,7 +8628,7 @@
       </c>
       <c r="H115" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Madrigal</t>
         </is>
       </c>
       <c r="I115" t="inlineStr">
@@ -8637,32 +8637,32 @@
         </is>
       </c>
       <c r="J115" t="n">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="K115" t="n">
-        <v>11000</v>
+        <v>16000</v>
       </c>
       <c r="L115" t="n">
-        <v>12000</v>
+        <v>17000</v>
       </c>
       <c r="M115" t="n">
-        <v>11500</v>
+        <v>16480</v>
       </c>
       <c r="N115" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O115" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P115" t="n">
-        <v>288</v>
+        <v>330</v>
       </c>
       <c r="Q115" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="R115" t="inlineStr">
         <is>
@@ -8685,7 +8685,7 @@
         </is>
       </c>
       <c r="D116" s="2" t="n">
-        <v>44421</v>
+        <v>44427</v>
       </c>
       <c r="E116" t="n">
         <v>13</v>
@@ -8709,7 +8709,7 @@
         </is>
       </c>
       <c r="J116" t="n">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="K116" t="n">
         <v>17000</v>
@@ -8757,7 +8757,7 @@
         </is>
       </c>
       <c r="D117" s="2" t="n">
-        <v>44421</v>
+        <v>44427</v>
       </c>
       <c r="E117" t="n">
         <v>13</v>
@@ -8781,7 +8781,7 @@
         </is>
       </c>
       <c r="J117" t="n">
-        <v>70</v>
+        <v>43</v>
       </c>
       <c r="K117" t="n">
         <v>15000</v>
@@ -8790,7 +8790,7 @@
         <v>16000</v>
       </c>
       <c r="M117" t="n">
-        <v>15500</v>
+        <v>15488</v>
       </c>
       <c r="N117" t="inlineStr">
         <is>
@@ -8803,7 +8803,7 @@
         </is>
       </c>
       <c r="P117" t="n">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="Q117" t="n">
         <v>30</v>
@@ -8829,7 +8829,7 @@
         </is>
       </c>
       <c r="D118" s="2" t="n">
-        <v>44421</v>
+        <v>44427</v>
       </c>
       <c r="E118" t="n">
         <v>13</v>
@@ -8853,7 +8853,7 @@
         </is>
       </c>
       <c r="J118" t="n">
-        <v>43</v>
+        <v>25</v>
       </c>
       <c r="K118" t="n">
         <v>13000</v>
@@ -8862,7 +8862,7 @@
         <v>14000</v>
       </c>
       <c r="M118" t="n">
-        <v>13488</v>
+        <v>13480</v>
       </c>
       <c r="N118" t="inlineStr">
         <is>
@@ -8901,7 +8901,7 @@
         </is>
       </c>
       <c r="D119" s="2" t="n">
-        <v>44400</v>
+        <v>44427</v>
       </c>
       <c r="E119" t="n">
         <v>13</v>
@@ -8916,29 +8916,29 @@
       </c>
       <c r="H119" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Madrigal</t>
         </is>
       </c>
       <c r="I119" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J119" t="n">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="K119" t="n">
-        <v>19000</v>
+        <v>15000</v>
       </c>
       <c r="L119" t="n">
-        <v>20000</v>
+        <v>16000</v>
       </c>
       <c r="M119" t="n">
-        <v>19471</v>
+        <v>15480</v>
       </c>
       <c r="N119" t="inlineStr">
         <is>
-          <t>$/caja 25 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O119" t="inlineStr">
@@ -8947,10 +8947,10 @@
         </is>
       </c>
       <c r="P119" t="n">
-        <v>19471</v>
+        <v>387</v>
       </c>
       <c r="Q119" t="n">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="R119" t="inlineStr">
         <is>
@@ -8973,7 +8973,7 @@
         </is>
       </c>
       <c r="D120" s="2" t="n">
-        <v>44400</v>
+        <v>44427</v>
       </c>
       <c r="E120" t="n">
         <v>13</v>
@@ -8988,29 +8988,29 @@
       </c>
       <c r="H120" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Madrigal</t>
         </is>
       </c>
       <c r="I120" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J120" t="n">
-        <v>43</v>
+        <v>16</v>
       </c>
       <c r="K120" t="n">
-        <v>17000</v>
+        <v>13000</v>
       </c>
       <c r="L120" t="n">
-        <v>18000</v>
+        <v>14000</v>
       </c>
       <c r="M120" t="n">
-        <v>17512</v>
+        <v>13500</v>
       </c>
       <c r="N120" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O120" t="inlineStr">
@@ -9019,10 +9019,10 @@
         </is>
       </c>
       <c r="P120" t="n">
-        <v>584</v>
+        <v>270</v>
       </c>
       <c r="Q120" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R120" t="inlineStr">
         <is>
@@ -9045,7 +9045,7 @@
         </is>
       </c>
       <c r="D121" s="2" t="n">
-        <v>44400</v>
+        <v>44413</v>
       </c>
       <c r="E121" t="n">
         <v>13</v>
@@ -9065,11 +9065,11 @@
       </c>
       <c r="I121" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J121" t="n">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="K121" t="n">
         <v>15000</v>
@@ -9082,19 +9082,19 @@
       </c>
       <c r="N121" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 25 unidades</t>
         </is>
       </c>
       <c r="O121" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P121" t="n">
-        <v>388</v>
+        <v>15500</v>
       </c>
       <c r="Q121" t="n">
-        <v>40</v>
+        <v>1</v>
       </c>
       <c r="R121" t="inlineStr">
         <is>
@@ -9117,7 +9117,7 @@
         </is>
       </c>
       <c r="D122" s="2" t="n">
-        <v>44426</v>
+        <v>44413</v>
       </c>
       <c r="E122" t="n">
         <v>13</v>
@@ -9137,36 +9137,36 @@
       </c>
       <c r="I122" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J122" t="n">
-        <v>16</v>
+        <v>61</v>
       </c>
       <c r="K122" t="n">
-        <v>16000</v>
+        <v>13000</v>
       </c>
       <c r="L122" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="M122" t="n">
-        <v>16000</v>
+        <v>13492</v>
       </c>
       <c r="N122" t="inlineStr">
         <is>
-          <t>$/caja 25 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O122" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P122" t="n">
-        <v>16000</v>
+        <v>450</v>
       </c>
       <c r="Q122" t="n">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="R122" t="inlineStr">
         <is>
@@ -9189,7 +9189,7 @@
         </is>
       </c>
       <c r="D123" s="2" t="n">
-        <v>44426</v>
+        <v>44413</v>
       </c>
       <c r="E123" t="n">
         <v>13</v>
@@ -9209,36 +9209,36 @@
       </c>
       <c r="I123" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J123" t="n">
-        <v>52</v>
+        <v>34</v>
       </c>
       <c r="K123" t="n">
-        <v>14000</v>
+        <v>11000</v>
       </c>
       <c r="L123" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="M123" t="n">
-        <v>14500</v>
+        <v>11500</v>
       </c>
       <c r="N123" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O123" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P123" t="n">
-        <v>483</v>
+        <v>288</v>
       </c>
       <c r="Q123" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="R123" t="inlineStr">
         <is>
@@ -9261,7 +9261,7 @@
         </is>
       </c>
       <c r="D124" s="2" t="n">
-        <v>44426</v>
+        <v>44421</v>
       </c>
       <c r="E124" t="n">
         <v>13</v>
@@ -9281,24 +9281,24 @@
       </c>
       <c r="I124" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J124" t="n">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="K124" t="n">
-        <v>13000</v>
+        <v>17000</v>
       </c>
       <c r="L124" t="n">
-        <v>13000</v>
+        <v>17000</v>
       </c>
       <c r="M124" t="n">
-        <v>13000</v>
+        <v>17000</v>
       </c>
       <c r="N124" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 25 unidades</t>
         </is>
       </c>
       <c r="O124" t="inlineStr">
@@ -9307,10 +9307,10 @@
         </is>
       </c>
       <c r="P124" t="n">
-        <v>325</v>
+        <v>17000</v>
       </c>
       <c r="Q124" t="n">
-        <v>40</v>
+        <v>1</v>
       </c>
       <c r="R124" t="inlineStr">
         <is>
@@ -9333,7 +9333,7 @@
         </is>
       </c>
       <c r="D125" s="2" t="n">
-        <v>44295</v>
+        <v>44421</v>
       </c>
       <c r="E125" t="n">
         <v>13</v>
@@ -9357,16 +9357,16 @@
         </is>
       </c>
       <c r="J125" t="n">
-        <v>18</v>
+        <v>70</v>
       </c>
       <c r="K125" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="L125" t="n">
-        <v>18000</v>
+        <v>16000</v>
       </c>
       <c r="M125" t="n">
-        <v>18000</v>
+        <v>15500</v>
       </c>
       <c r="N125" t="inlineStr">
         <is>
@@ -9379,7 +9379,7 @@
         </is>
       </c>
       <c r="P125" t="n">
-        <v>600</v>
+        <v>517</v>
       </c>
       <c r="Q125" t="n">
         <v>30</v>
@@ -9405,7 +9405,7 @@
         </is>
       </c>
       <c r="D126" s="2" t="n">
-        <v>44390</v>
+        <v>44421</v>
       </c>
       <c r="E126" t="n">
         <v>13</v>
@@ -9425,24 +9425,24 @@
       </c>
       <c r="I126" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J126" t="n">
-        <v>16</v>
+        <v>43</v>
       </c>
       <c r="K126" t="n">
-        <v>19000</v>
+        <v>13000</v>
       </c>
       <c r="L126" t="n">
-        <v>20000</v>
+        <v>14000</v>
       </c>
       <c r="M126" t="n">
-        <v>19500</v>
+        <v>13488</v>
       </c>
       <c r="N126" t="inlineStr">
         <is>
-          <t>$/caja 25 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O126" t="inlineStr">
@@ -9451,10 +9451,10 @@
         </is>
       </c>
       <c r="P126" t="n">
-        <v>19500</v>
+        <v>337</v>
       </c>
       <c r="Q126" t="n">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="R126" t="inlineStr">
         <is>
@@ -9477,7 +9477,7 @@
         </is>
       </c>
       <c r="D127" s="2" t="n">
-        <v>44390</v>
+        <v>44400</v>
       </c>
       <c r="E127" t="n">
         <v>13</v>
@@ -9497,24 +9497,24 @@
       </c>
       <c r="I127" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J127" t="n">
-        <v>43</v>
+        <v>17</v>
       </c>
       <c r="K127" t="n">
-        <v>16000</v>
+        <v>19000</v>
       </c>
       <c r="L127" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="M127" t="n">
-        <v>17023</v>
+        <v>19471</v>
       </c>
       <c r="N127" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 25 unidades</t>
         </is>
       </c>
       <c r="O127" t="inlineStr">
@@ -9523,10 +9523,10 @@
         </is>
       </c>
       <c r="P127" t="n">
-        <v>567</v>
+        <v>19471</v>
       </c>
       <c r="Q127" t="n">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="R127" t="inlineStr">
         <is>
@@ -9549,7 +9549,7 @@
         </is>
       </c>
       <c r="D128" s="2" t="n">
-        <v>44390</v>
+        <v>44400</v>
       </c>
       <c r="E128" t="n">
         <v>13</v>
@@ -9569,24 +9569,24 @@
       </c>
       <c r="I128" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J128" t="n">
-        <v>25</v>
+        <v>43</v>
       </c>
       <c r="K128" t="n">
-        <v>14000</v>
+        <v>17000</v>
       </c>
       <c r="L128" t="n">
-        <v>14000</v>
+        <v>18000</v>
       </c>
       <c r="M128" t="n">
-        <v>14000</v>
+        <v>17512</v>
       </c>
       <c r="N128" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O128" t="inlineStr">
@@ -9595,10 +9595,10 @@
         </is>
       </c>
       <c r="P128" t="n">
-        <v>350</v>
+        <v>584</v>
       </c>
       <c r="Q128" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="R128" t="inlineStr">
         <is>
@@ -9621,7 +9621,7 @@
         </is>
       </c>
       <c r="D129" s="2" t="n">
-        <v>44383</v>
+        <v>44400</v>
       </c>
       <c r="E129" t="n">
         <v>13</v>
@@ -9641,24 +9641,24 @@
       </c>
       <c r="I129" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J129" t="n">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="K129" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="L129" t="n">
-        <v>20000</v>
+        <v>16000</v>
       </c>
       <c r="M129" t="n">
-        <v>20000</v>
+        <v>15500</v>
       </c>
       <c r="N129" t="inlineStr">
         <is>
-          <t>$/caja 25 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O129" t="inlineStr">
@@ -9667,10 +9667,10 @@
         </is>
       </c>
       <c r="P129" t="n">
-        <v>20000</v>
+        <v>388</v>
       </c>
       <c r="Q129" t="n">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="R129" t="inlineStr">
         <is>
@@ -9693,7 +9693,7 @@
         </is>
       </c>
       <c r="D130" s="2" t="n">
-        <v>44383</v>
+        <v>44426</v>
       </c>
       <c r="E130" t="n">
         <v>13</v>
@@ -9713,24 +9713,24 @@
       </c>
       <c r="I130" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J130" t="n">
-        <v>70</v>
+        <v>16</v>
       </c>
       <c r="K130" t="n">
-        <v>17000</v>
+        <v>16000</v>
       </c>
       <c r="L130" t="n">
-        <v>18000</v>
+        <v>16000</v>
       </c>
       <c r="M130" t="n">
-        <v>17500</v>
+        <v>16000</v>
       </c>
       <c r="N130" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 25 unidades</t>
         </is>
       </c>
       <c r="O130" t="inlineStr">
@@ -9739,10 +9739,10 @@
         </is>
       </c>
       <c r="P130" t="n">
-        <v>583</v>
+        <v>16000</v>
       </c>
       <c r="Q130" t="n">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="R130" t="inlineStr">
         <is>
@@ -9765,7 +9765,7 @@
         </is>
       </c>
       <c r="D131" s="2" t="n">
-        <v>44383</v>
+        <v>44426</v>
       </c>
       <c r="E131" t="n">
         <v>13</v>
@@ -9785,24 +9785,24 @@
       </c>
       <c r="I131" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J131" t="n">
         <v>52</v>
       </c>
       <c r="K131" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="L131" t="n">
         <v>15000</v>
       </c>
       <c r="M131" t="n">
-        <v>15000</v>
+        <v>14500</v>
       </c>
       <c r="N131" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O131" t="inlineStr">
@@ -9811,10 +9811,10 @@
         </is>
       </c>
       <c r="P131" t="n">
-        <v>375</v>
+        <v>483</v>
       </c>
       <c r="Q131" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="R131" t="inlineStr">
         <is>
@@ -9837,7 +9837,7 @@
         </is>
       </c>
       <c r="D132" s="2" t="n">
-        <v>44383</v>
+        <v>44426</v>
       </c>
       <c r="E132" t="n">
         <v>13</v>
@@ -9852,29 +9852,29 @@
       </c>
       <c r="H132" t="inlineStr">
         <is>
-          <t>Madrigal</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I132" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J132" t="n">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="K132" t="n">
-        <v>21000</v>
+        <v>13000</v>
       </c>
       <c r="L132" t="n">
-        <v>22000</v>
+        <v>13000</v>
       </c>
       <c r="M132" t="n">
-        <v>21500</v>
+        <v>13000</v>
       </c>
       <c r="N132" t="inlineStr">
         <is>
-          <t>$/caja 35 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O132" t="inlineStr">
@@ -9883,10 +9883,10 @@
         </is>
       </c>
       <c r="P132" t="n">
-        <v>614</v>
+        <v>325</v>
       </c>
       <c r="Q132" t="n">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="R132" t="inlineStr">
         <is>
@@ -9909,7 +9909,7 @@
         </is>
       </c>
       <c r="D133" s="2" t="n">
-        <v>44383</v>
+        <v>44295</v>
       </c>
       <c r="E133" t="n">
         <v>13</v>
@@ -9924,7 +9924,7 @@
       </c>
       <c r="H133" t="inlineStr">
         <is>
-          <t>Madrigal</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I133" t="inlineStr">
@@ -9933,20 +9933,20 @@
         </is>
       </c>
       <c r="J133" t="n">
-        <v>52</v>
+        <v>18</v>
       </c>
       <c r="K133" t="n">
         <v>18000</v>
       </c>
       <c r="L133" t="n">
-        <v>19000</v>
+        <v>18000</v>
       </c>
       <c r="M133" t="n">
-        <v>18500</v>
+        <v>18000</v>
       </c>
       <c r="N133" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O133" t="inlineStr">
@@ -9955,10 +9955,10 @@
         </is>
       </c>
       <c r="P133" t="n">
-        <v>462</v>
+        <v>600</v>
       </c>
       <c r="Q133" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="R133" t="inlineStr">
         <is>
@@ -9981,7 +9981,7 @@
         </is>
       </c>
       <c r="D134" s="2" t="n">
-        <v>44383</v>
+        <v>44390</v>
       </c>
       <c r="E134" t="n">
         <v>13</v>
@@ -9996,29 +9996,29 @@
       </c>
       <c r="H134" t="inlineStr">
         <is>
-          <t>Madrigal</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I134" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J134" t="n">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="K134" t="n">
-        <v>15000</v>
+        <v>19000</v>
       </c>
       <c r="L134" t="n">
-        <v>16000</v>
+        <v>20000</v>
       </c>
       <c r="M134" t="n">
-        <v>15500</v>
+        <v>19500</v>
       </c>
       <c r="N134" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 25 unidades</t>
         </is>
       </c>
       <c r="O134" t="inlineStr">
@@ -10027,10 +10027,10 @@
         </is>
       </c>
       <c r="P134" t="n">
-        <v>310</v>
+        <v>19500</v>
       </c>
       <c r="Q134" t="n">
-        <v>50</v>
+        <v>1</v>
       </c>
       <c r="R134" t="inlineStr">
         <is>
@@ -10053,7 +10053,7 @@
         </is>
       </c>
       <c r="D135" s="2" t="n">
-        <v>44412</v>
+        <v>44390</v>
       </c>
       <c r="E135" t="n">
         <v>13</v>
@@ -10073,36 +10073,36 @@
       </c>
       <c r="I135" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J135" t="n">
-        <v>16</v>
+        <v>43</v>
       </c>
       <c r="K135" t="n">
         <v>16000</v>
       </c>
       <c r="L135" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="M135" t="n">
-        <v>16000</v>
+        <v>17023</v>
       </c>
       <c r="N135" t="inlineStr">
         <is>
-          <t>$/caja 25 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O135" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P135" t="n">
-        <v>16000</v>
+        <v>567</v>
       </c>
       <c r="Q135" t="n">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="R135" t="inlineStr">
         <is>
@@ -10125,7 +10125,7 @@
         </is>
       </c>
       <c r="D136" s="2" t="n">
-        <v>44412</v>
+        <v>44390</v>
       </c>
       <c r="E136" t="n">
         <v>13</v>
@@ -10145,36 +10145,36 @@
       </c>
       <c r="I136" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J136" t="n">
-        <v>52</v>
+        <v>25</v>
       </c>
       <c r="K136" t="n">
         <v>14000</v>
       </c>
       <c r="L136" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="M136" t="n">
-        <v>14500</v>
+        <v>14000</v>
       </c>
       <c r="N136" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O136" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P136" t="n">
-        <v>483</v>
+        <v>350</v>
       </c>
       <c r="Q136" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="R136" t="inlineStr">
         <is>
@@ -10197,7 +10197,7 @@
         </is>
       </c>
       <c r="D137" s="2" t="n">
-        <v>44412</v>
+        <v>44383</v>
       </c>
       <c r="E137" t="n">
         <v>13</v>
@@ -10217,36 +10217,36 @@
       </c>
       <c r="I137" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J137" t="n">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="K137" t="n">
-        <v>13000</v>
+        <v>20000</v>
       </c>
       <c r="L137" t="n">
-        <v>13000</v>
+        <v>20000</v>
       </c>
       <c r="M137" t="n">
-        <v>13000</v>
+        <v>20000</v>
       </c>
       <c r="N137" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 25 unidades</t>
         </is>
       </c>
       <c r="O137" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P137" t="n">
-        <v>325</v>
+        <v>20000</v>
       </c>
       <c r="Q137" t="n">
-        <v>40</v>
+        <v>1</v>
       </c>
       <c r="R137" t="inlineStr">
         <is>
@@ -10269,7 +10269,7 @@
         </is>
       </c>
       <c r="D138" s="2" t="n">
-        <v>44336</v>
+        <v>44383</v>
       </c>
       <c r="E138" t="n">
         <v>13</v>
@@ -10284,7 +10284,7 @@
       </c>
       <c r="H138" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I138" t="inlineStr">
@@ -10293,32 +10293,32 @@
         </is>
       </c>
       <c r="J138" t="n">
-        <v>25</v>
+        <v>70</v>
       </c>
       <c r="K138" t="n">
-        <v>15000</v>
+        <v>17000</v>
       </c>
       <c r="L138" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="M138" t="n">
-        <v>15480</v>
+        <v>17500</v>
       </c>
       <c r="N138" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O138" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P138" t="n">
-        <v>310</v>
+        <v>583</v>
       </c>
       <c r="Q138" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R138" t="inlineStr">
         <is>
@@ -10341,7 +10341,7 @@
         </is>
       </c>
       <c r="D139" s="2" t="n">
-        <v>44336</v>
+        <v>44383</v>
       </c>
       <c r="E139" t="n">
         <v>13</v>
@@ -10356,7 +10356,7 @@
       </c>
       <c r="H139" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I139" t="inlineStr">
@@ -10365,32 +10365,32 @@
         </is>
       </c>
       <c r="J139" t="n">
-        <v>16</v>
+        <v>52</v>
       </c>
       <c r="K139" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="L139" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="M139" t="n">
-        <v>13500</v>
+        <v>15000</v>
       </c>
       <c r="N139" t="inlineStr">
         <is>
-          <t>$/caja 70 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O139" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P139" t="n">
-        <v>193</v>
+        <v>375</v>
       </c>
       <c r="Q139" t="n">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="R139" t="inlineStr">
         <is>
@@ -10413,7 +10413,7 @@
         </is>
       </c>
       <c r="D140" s="2" t="n">
-        <v>44336</v>
+        <v>44383</v>
       </c>
       <c r="E140" t="n">
         <v>13</v>
@@ -10428,41 +10428,41 @@
       </c>
       <c r="H140" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Madrigal</t>
         </is>
       </c>
       <c r="I140" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J140" t="n">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="K140" t="n">
-        <v>17000</v>
+        <v>21000</v>
       </c>
       <c r="L140" t="n">
-        <v>18000</v>
+        <v>22000</v>
       </c>
       <c r="M140" t="n">
-        <v>17500</v>
+        <v>21500</v>
       </c>
       <c r="N140" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 35 unidades</t>
         </is>
       </c>
       <c r="O140" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P140" t="n">
-        <v>583</v>
+        <v>614</v>
       </c>
       <c r="Q140" t="n">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="R140" t="inlineStr">
         <is>
@@ -10485,7 +10485,7 @@
         </is>
       </c>
       <c r="D141" s="2" t="n">
-        <v>44336</v>
+        <v>44383</v>
       </c>
       <c r="E141" t="n">
         <v>13</v>
@@ -10500,25 +10500,25 @@
       </c>
       <c r="H141" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Madrigal</t>
         </is>
       </c>
       <c r="I141" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J141" t="n">
-        <v>16</v>
+        <v>52</v>
       </c>
       <c r="K141" t="n">
-        <v>14000</v>
+        <v>18000</v>
       </c>
       <c r="L141" t="n">
-        <v>15000</v>
+        <v>19000</v>
       </c>
       <c r="M141" t="n">
-        <v>14500</v>
+        <v>18500</v>
       </c>
       <c r="N141" t="inlineStr">
         <is>
@@ -10527,11 +10527,11 @@
       </c>
       <c r="O141" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P141" t="n">
-        <v>362</v>
+        <v>462</v>
       </c>
       <c r="Q141" t="n">
         <v>40</v>
@@ -10557,7 +10557,7 @@
         </is>
       </c>
       <c r="D142" s="2" t="n">
-        <v>44300</v>
+        <v>44383</v>
       </c>
       <c r="E142" t="n">
         <v>13</v>
@@ -10572,29 +10572,29 @@
       </c>
       <c r="H142" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Madrigal</t>
         </is>
       </c>
       <c r="I142" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J142" t="n">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="K142" t="n">
-        <v>17000</v>
+        <v>15000</v>
       </c>
       <c r="L142" t="n">
-        <v>17000</v>
+        <v>16000</v>
       </c>
       <c r="M142" t="n">
-        <v>17000</v>
+        <v>15500</v>
       </c>
       <c r="N142" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O142" t="inlineStr">
@@ -10603,10 +10603,10 @@
         </is>
       </c>
       <c r="P142" t="n">
-        <v>567</v>
+        <v>310</v>
       </c>
       <c r="Q142" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R142" t="inlineStr">
         <is>
@@ -10629,7 +10629,7 @@
         </is>
       </c>
       <c r="D143" s="2" t="n">
-        <v>44371</v>
+        <v>44412</v>
       </c>
       <c r="E143" t="n">
         <v>13</v>
@@ -10653,16 +10653,16 @@
         </is>
       </c>
       <c r="J143" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="K143" t="n">
-        <v>20000</v>
+        <v>16000</v>
       </c>
       <c r="L143" t="n">
-        <v>21000</v>
+        <v>16000</v>
       </c>
       <c r="M143" t="n">
-        <v>20500</v>
+        <v>16000</v>
       </c>
       <c r="N143" t="inlineStr">
         <is>
@@ -10671,11 +10671,11 @@
       </c>
       <c r="O143" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P143" t="n">
-        <v>20500</v>
+        <v>16000</v>
       </c>
       <c r="Q143" t="n">
         <v>1</v>
@@ -10701,7 +10701,7 @@
         </is>
       </c>
       <c r="D144" s="2" t="n">
-        <v>44371</v>
+        <v>44412</v>
       </c>
       <c r="E144" t="n">
         <v>13</v>
@@ -10725,16 +10725,16 @@
         </is>
       </c>
       <c r="J144" t="n">
-        <v>36</v>
+        <v>52</v>
       </c>
       <c r="K144" t="n">
-        <v>17000</v>
+        <v>14000</v>
       </c>
       <c r="L144" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="M144" t="n">
-        <v>17500</v>
+        <v>14500</v>
       </c>
       <c r="N144" t="inlineStr">
         <is>
@@ -10743,11 +10743,11 @@
       </c>
       <c r="O144" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P144" t="n">
-        <v>583</v>
+        <v>483</v>
       </c>
       <c r="Q144" t="n">
         <v>30</v>
@@ -10773,7 +10773,7 @@
         </is>
       </c>
       <c r="D145" s="2" t="n">
-        <v>44371</v>
+        <v>44412</v>
       </c>
       <c r="E145" t="n">
         <v>13</v>
@@ -10797,16 +10797,16 @@
         </is>
       </c>
       <c r="J145" t="n">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="K145" t="n">
-        <v>16000</v>
+        <v>13000</v>
       </c>
       <c r="L145" t="n">
-        <v>16000</v>
+        <v>13000</v>
       </c>
       <c r="M145" t="n">
-        <v>16000</v>
+        <v>13000</v>
       </c>
       <c r="N145" t="inlineStr">
         <is>
@@ -10815,11 +10815,11 @@
       </c>
       <c r="O145" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P145" t="n">
-        <v>400</v>
+        <v>325</v>
       </c>
       <c r="Q145" t="n">
         <v>40</v>
@@ -10845,7 +10845,7 @@
         </is>
       </c>
       <c r="D146" s="2" t="n">
-        <v>44320</v>
+        <v>44336</v>
       </c>
       <c r="E146" t="n">
         <v>13</v>
@@ -10860,41 +10860,41 @@
       </c>
       <c r="H146" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I146" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J146" t="n">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="K146" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="L146" t="n">
-        <v>18000</v>
+        <v>16000</v>
       </c>
       <c r="M146" t="n">
-        <v>18000</v>
+        <v>15480</v>
       </c>
       <c r="N146" t="inlineStr">
         <is>
-          <t>$/caja 25 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O146" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P146" t="n">
-        <v>18000</v>
+        <v>310</v>
       </c>
       <c r="Q146" t="n">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="R146" t="inlineStr">
         <is>
@@ -10917,7 +10917,7 @@
         </is>
       </c>
       <c r="D147" s="2" t="n">
-        <v>44320</v>
+        <v>44336</v>
       </c>
       <c r="E147" t="n">
         <v>13</v>
@@ -10932,41 +10932,41 @@
       </c>
       <c r="H147" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I147" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J147" t="n">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="K147" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="L147" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="M147" t="n">
-        <v>15520</v>
+        <v>13500</v>
       </c>
       <c r="N147" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 70 unidades</t>
         </is>
       </c>
       <c r="O147" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P147" t="n">
-        <v>517</v>
+        <v>193</v>
       </c>
       <c r="Q147" t="n">
-        <v>30</v>
+        <v>70</v>
       </c>
       <c r="R147" t="inlineStr">
         <is>
@@ -10989,7 +10989,7 @@
         </is>
       </c>
       <c r="D148" s="2" t="n">
-        <v>44364</v>
+        <v>44336</v>
       </c>
       <c r="E148" t="n">
         <v>13</v>
@@ -11004,7 +11004,7 @@
       </c>
       <c r="H148" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I148" t="inlineStr">
@@ -11016,29 +11016,29 @@
         <v>34</v>
       </c>
       <c r="K148" t="n">
-        <v>15000</v>
+        <v>17000</v>
       </c>
       <c r="L148" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="M148" t="n">
-        <v>15500</v>
+        <v>17500</v>
       </c>
       <c r="N148" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O148" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P148" t="n">
-        <v>310</v>
+        <v>583</v>
       </c>
       <c r="Q148" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R148" t="inlineStr">
         <is>
@@ -11061,7 +11061,7 @@
         </is>
       </c>
       <c r="D149" s="2" t="n">
-        <v>44364</v>
+        <v>44336</v>
       </c>
       <c r="E149" t="n">
         <v>13</v>
@@ -11076,7 +11076,7 @@
       </c>
       <c r="H149" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I149" t="inlineStr">
@@ -11091,26 +11091,26 @@
         <v>14000</v>
       </c>
       <c r="L149" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="M149" t="n">
-        <v>14000</v>
+        <v>14500</v>
       </c>
       <c r="N149" t="inlineStr">
         <is>
-          <t>$/caja 70 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O149" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P149" t="n">
-        <v>200</v>
+        <v>362</v>
       </c>
       <c r="Q149" t="n">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="R149" t="inlineStr">
         <is>
@@ -11133,7 +11133,7 @@
         </is>
       </c>
       <c r="D150" s="2" t="n">
-        <v>44364</v>
+        <v>44300</v>
       </c>
       <c r="E150" t="n">
         <v>13</v>
@@ -11153,24 +11153,24 @@
       </c>
       <c r="I150" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J150" t="n">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="K150" t="n">
-        <v>18000</v>
+        <v>17000</v>
       </c>
       <c r="L150" t="n">
-        <v>19000</v>
+        <v>17000</v>
       </c>
       <c r="M150" t="n">
-        <v>18500</v>
+        <v>17000</v>
       </c>
       <c r="N150" t="inlineStr">
         <is>
-          <t>$/caja 25 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O150" t="inlineStr">
@@ -11179,10 +11179,10 @@
         </is>
       </c>
       <c r="P150" t="n">
-        <v>18500</v>
+        <v>567</v>
       </c>
       <c r="Q150" t="n">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="R150" t="inlineStr">
         <is>
@@ -11205,7 +11205,7 @@
         </is>
       </c>
       <c r="D151" s="2" t="n">
-        <v>44364</v>
+        <v>44371</v>
       </c>
       <c r="E151" t="n">
         <v>13</v>
@@ -11225,24 +11225,24 @@
       </c>
       <c r="I151" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J151" t="n">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="K151" t="n">
-        <v>16000</v>
+        <v>20000</v>
       </c>
       <c r="L151" t="n">
-        <v>17000</v>
+        <v>21000</v>
       </c>
       <c r="M151" t="n">
-        <v>16500</v>
+        <v>20500</v>
       </c>
       <c r="N151" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 25 unidades</t>
         </is>
       </c>
       <c r="O151" t="inlineStr">
@@ -11251,10 +11251,10 @@
         </is>
       </c>
       <c r="P151" t="n">
-        <v>550</v>
+        <v>20500</v>
       </c>
       <c r="Q151" t="n">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="R151" t="inlineStr">
         <is>
@@ -11277,7 +11277,7 @@
         </is>
       </c>
       <c r="D152" s="2" t="n">
-        <v>44364</v>
+        <v>44371</v>
       </c>
       <c r="E152" t="n">
         <v>13</v>
@@ -11297,24 +11297,24 @@
       </c>
       <c r="I152" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J152" t="n">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="K152" t="n">
-        <v>14000</v>
+        <v>17000</v>
       </c>
       <c r="L152" t="n">
-        <v>14000</v>
+        <v>18000</v>
       </c>
       <c r="M152" t="n">
-        <v>14000</v>
+        <v>17500</v>
       </c>
       <c r="N152" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O152" t="inlineStr">
@@ -11323,10 +11323,10 @@
         </is>
       </c>
       <c r="P152" t="n">
-        <v>350</v>
+        <v>583</v>
       </c>
       <c r="Q152" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="R152" t="inlineStr">
         <is>
@@ -11349,7 +11349,7 @@
         </is>
       </c>
       <c r="D153" s="2" t="n">
-        <v>44405</v>
+        <v>44371</v>
       </c>
       <c r="E153" t="n">
         <v>13</v>
@@ -11369,36 +11369,36 @@
       </c>
       <c r="I153" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J153" t="n">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="K153" t="n">
-        <v>19000</v>
+        <v>16000</v>
       </c>
       <c r="L153" t="n">
-        <v>19000</v>
+        <v>16000</v>
       </c>
       <c r="M153" t="n">
-        <v>19000</v>
+        <v>16000</v>
       </c>
       <c r="N153" t="inlineStr">
         <is>
-          <t>$/caja 25 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O153" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P153" t="n">
-        <v>19000</v>
+        <v>400</v>
       </c>
       <c r="Q153" t="n">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="R153" t="inlineStr">
         <is>
@@ -11421,7 +11421,7 @@
         </is>
       </c>
       <c r="D154" s="2" t="n">
-        <v>44405</v>
+        <v>44320</v>
       </c>
       <c r="E154" t="n">
         <v>13</v>
@@ -11441,36 +11441,36 @@
       </c>
       <c r="I154" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J154" t="n">
-        <v>43</v>
+        <v>16</v>
       </c>
       <c r="K154" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="L154" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="M154" t="n">
-        <v>16512</v>
+        <v>18000</v>
       </c>
       <c r="N154" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 25 unidades</t>
         </is>
       </c>
       <c r="O154" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P154" t="n">
-        <v>550</v>
+        <v>18000</v>
       </c>
       <c r="Q154" t="n">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="R154" t="inlineStr">
         <is>
@@ -11493,7 +11493,7 @@
         </is>
       </c>
       <c r="D155" s="2" t="n">
-        <v>44405</v>
+        <v>44320</v>
       </c>
       <c r="E155" t="n">
         <v>13</v>
@@ -11513,36 +11513,36 @@
       </c>
       <c r="I155" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J155" t="n">
         <v>25</v>
       </c>
       <c r="K155" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="L155" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="M155" t="n">
-        <v>14520</v>
+        <v>15520</v>
       </c>
       <c r="N155" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O155" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P155" t="n">
-        <v>363</v>
+        <v>517</v>
       </c>
       <c r="Q155" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="R155" t="inlineStr">
         <is>
@@ -11565,7 +11565,7 @@
         </is>
       </c>
       <c r="D156" s="2" t="n">
-        <v>44327</v>
+        <v>44364</v>
       </c>
       <c r="E156" t="n">
         <v>13</v>
@@ -11589,16 +11589,16 @@
         </is>
       </c>
       <c r="J156" t="n">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="K156" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="L156" t="n">
         <v>16000</v>
       </c>
       <c r="M156" t="n">
-        <v>16000</v>
+        <v>15500</v>
       </c>
       <c r="N156" t="inlineStr">
         <is>
@@ -11607,11 +11607,11 @@
       </c>
       <c r="O156" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P156" t="n">
-        <v>320</v>
+        <v>310</v>
       </c>
       <c r="Q156" t="n">
         <v>50</v>
@@ -11637,7 +11637,7 @@
         </is>
       </c>
       <c r="D157" s="2" t="n">
-        <v>44327</v>
+        <v>44364</v>
       </c>
       <c r="E157" t="n">
         <v>13</v>
@@ -11652,41 +11652,41 @@
       </c>
       <c r="H157" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I157" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J157" t="n">
-        <v>43</v>
+        <v>16</v>
       </c>
       <c r="K157" t="n">
-        <v>18000</v>
+        <v>14000</v>
       </c>
       <c r="L157" t="n">
-        <v>18000</v>
+        <v>14000</v>
       </c>
       <c r="M157" t="n">
-        <v>18000</v>
+        <v>14000</v>
       </c>
       <c r="N157" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 70 unidades</t>
         </is>
       </c>
       <c r="O157" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P157" t="n">
-        <v>600</v>
+        <v>200</v>
       </c>
       <c r="Q157" t="n">
-        <v>30</v>
+        <v>70</v>
       </c>
       <c r="R157" t="inlineStr">
         <is>
@@ -11709,7 +11709,7 @@
         </is>
       </c>
       <c r="D158" s="2" t="n">
-        <v>44313</v>
+        <v>44364</v>
       </c>
       <c r="E158" t="n">
         <v>13</v>
@@ -11736,13 +11736,13 @@
         <v>16</v>
       </c>
       <c r="K158" t="n">
-        <v>20000</v>
+        <v>18000</v>
       </c>
       <c r="L158" t="n">
-        <v>20000</v>
+        <v>19000</v>
       </c>
       <c r="M158" t="n">
-        <v>20000</v>
+        <v>18500</v>
       </c>
       <c r="N158" t="inlineStr">
         <is>
@@ -11751,11 +11751,11 @@
       </c>
       <c r="O158" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P158" t="n">
-        <v>20000</v>
+        <v>18500</v>
       </c>
       <c r="Q158" t="n">
         <v>1</v>
@@ -11781,7 +11781,7 @@
         </is>
       </c>
       <c r="D159" s="2" t="n">
-        <v>44313</v>
+        <v>44364</v>
       </c>
       <c r="E159" t="n">
         <v>13</v>
@@ -11805,16 +11805,16 @@
         </is>
       </c>
       <c r="J159" t="n">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="K159" t="n">
-        <v>17000</v>
+        <v>16000</v>
       </c>
       <c r="L159" t="n">
         <v>17000</v>
       </c>
       <c r="M159" t="n">
-        <v>17000</v>
+        <v>16500</v>
       </c>
       <c r="N159" t="inlineStr">
         <is>
@@ -11823,11 +11823,11 @@
       </c>
       <c r="O159" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P159" t="n">
-        <v>567</v>
+        <v>550</v>
       </c>
       <c r="Q159" t="n">
         <v>30</v>
@@ -11853,7 +11853,7 @@
         </is>
       </c>
       <c r="D160" s="2" t="n">
-        <v>44330</v>
+        <v>44364</v>
       </c>
       <c r="E160" t="n">
         <v>13</v>
@@ -11868,29 +11868,29 @@
       </c>
       <c r="H160" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I160" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J160" t="n">
         <v>25</v>
       </c>
       <c r="K160" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="L160" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="M160" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="N160" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O160" t="inlineStr">
@@ -11899,10 +11899,10 @@
         </is>
       </c>
       <c r="P160" t="n">
-        <v>320</v>
+        <v>350</v>
       </c>
       <c r="Q160" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="R160" t="inlineStr">
         <is>
@@ -11925,7 +11925,7 @@
         </is>
       </c>
       <c r="D161" s="2" t="n">
-        <v>44330</v>
+        <v>44435</v>
       </c>
       <c r="E161" t="n">
         <v>13</v>
@@ -11940,41 +11940,41 @@
       </c>
       <c r="H161" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I161" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J161" t="n">
-        <v>52</v>
+        <v>70</v>
       </c>
       <c r="K161" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="L161" t="n">
-        <v>14000</v>
+        <v>17000</v>
       </c>
       <c r="M161" t="n">
-        <v>14000</v>
+        <v>16386</v>
       </c>
       <c r="N161" t="inlineStr">
         <is>
-          <t>$/caja 60 unidades</t>
+          <t>$/caja 25 unidades</t>
         </is>
       </c>
       <c r="O161" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P161" t="n">
-        <v>233</v>
+        <v>16386</v>
       </c>
       <c r="Q161" t="n">
-        <v>60</v>
+        <v>1</v>
       </c>
       <c r="R161" t="inlineStr">
         <is>
@@ -11997,7 +11997,7 @@
         </is>
       </c>
       <c r="D162" s="2" t="n">
-        <v>44330</v>
+        <v>44435</v>
       </c>
       <c r="E162" t="n">
         <v>13</v>
@@ -12021,16 +12021,16 @@
         </is>
       </c>
       <c r="J162" t="n">
-        <v>16</v>
+        <v>224</v>
       </c>
       <c r="K162" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="L162" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="M162" t="n">
-        <v>16000</v>
+        <v>14500</v>
       </c>
       <c r="N162" t="inlineStr">
         <is>
@@ -12039,11 +12039,11 @@
       </c>
       <c r="O162" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P162" t="n">
-        <v>533</v>
+        <v>483</v>
       </c>
       <c r="Q162" t="n">
         <v>30</v>
@@ -12069,7 +12069,7 @@
         </is>
       </c>
       <c r="D163" s="2" t="n">
-        <v>44330</v>
+        <v>44435</v>
       </c>
       <c r="E163" t="n">
         <v>13</v>
@@ -12089,20 +12089,20 @@
       </c>
       <c r="I163" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J163" t="n">
-        <v>34</v>
+        <v>143</v>
       </c>
       <c r="K163" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="L163" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="M163" t="n">
-        <v>14000</v>
+        <v>12497</v>
       </c>
       <c r="N163" t="inlineStr">
         <is>
@@ -12111,11 +12111,11 @@
       </c>
       <c r="O163" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P163" t="n">
-        <v>350</v>
+        <v>312</v>
       </c>
       <c r="Q163" t="n">
         <v>40</v>
@@ -12141,7 +12141,7 @@
         </is>
       </c>
       <c r="D164" s="2" t="n">
-        <v>44391</v>
+        <v>44435</v>
       </c>
       <c r="E164" t="n">
         <v>13</v>
@@ -12156,29 +12156,29 @@
       </c>
       <c r="H164" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Madrigal</t>
         </is>
       </c>
       <c r="I164" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J164" t="n">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="K164" t="n">
-        <v>17000</v>
+        <v>14000</v>
       </c>
       <c r="L164" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="M164" t="n">
-        <v>17500</v>
+        <v>14500</v>
       </c>
       <c r="N164" t="inlineStr">
         <is>
-          <t>$/caja 25 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O164" t="inlineStr">
@@ -12187,10 +12187,10 @@
         </is>
       </c>
       <c r="P164" t="n">
-        <v>17500</v>
+        <v>362</v>
       </c>
       <c r="Q164" t="n">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="R164" t="inlineStr">
         <is>
@@ -12213,7 +12213,7 @@
         </is>
       </c>
       <c r="D165" s="2" t="n">
-        <v>44391</v>
+        <v>44435</v>
       </c>
       <c r="E165" t="n">
         <v>13</v>
@@ -12228,29 +12228,29 @@
       </c>
       <c r="H165" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Madrigal</t>
         </is>
       </c>
       <c r="I165" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J165" t="n">
-        <v>43</v>
+        <v>16</v>
       </c>
       <c r="K165" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="L165" t="n">
-        <v>16000</v>
+        <v>13000</v>
       </c>
       <c r="M165" t="n">
-        <v>15488</v>
+        <v>12500</v>
       </c>
       <c r="N165" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O165" t="inlineStr">
@@ -12259,10 +12259,10 @@
         </is>
       </c>
       <c r="P165" t="n">
-        <v>516</v>
+        <v>250</v>
       </c>
       <c r="Q165" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R165" t="inlineStr">
         <is>
@@ -12285,7 +12285,7 @@
         </is>
       </c>
       <c r="D166" s="2" t="n">
-        <v>44391</v>
+        <v>44431</v>
       </c>
       <c r="E166" t="n">
         <v>13</v>
@@ -12305,24 +12305,24 @@
       </c>
       <c r="I166" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J166" t="n">
         <v>34</v>
       </c>
       <c r="K166" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="L166" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="M166" t="n">
-        <v>13000</v>
+        <v>14500</v>
       </c>
       <c r="N166" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O166" t="inlineStr">
@@ -12331,10 +12331,10 @@
         </is>
       </c>
       <c r="P166" t="n">
-        <v>325</v>
+        <v>483</v>
       </c>
       <c r="Q166" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="R166" t="inlineStr">
         <is>
@@ -12357,7 +12357,7 @@
         </is>
       </c>
       <c r="D167" s="2" t="n">
-        <v>44351</v>
+        <v>44431</v>
       </c>
       <c r="E167" t="n">
         <v>13</v>
@@ -12372,41 +12372,41 @@
       </c>
       <c r="H167" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I167" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J167" t="n">
-        <v>43</v>
+        <v>16</v>
       </c>
       <c r="K167" t="n">
-        <v>16000</v>
+        <v>12000</v>
       </c>
       <c r="L167" t="n">
-        <v>17000</v>
+        <v>13000</v>
       </c>
       <c r="M167" t="n">
-        <v>16512</v>
+        <v>12500</v>
       </c>
       <c r="N167" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O167" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P167" t="n">
-        <v>330</v>
+        <v>312</v>
       </c>
       <c r="Q167" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="R167" t="inlineStr">
         <is>
@@ -12429,7 +12429,7 @@
         </is>
       </c>
       <c r="D168" s="2" t="n">
-        <v>44351</v>
+        <v>44405</v>
       </c>
       <c r="E168" t="n">
         <v>13</v>
@@ -12444,41 +12444,41 @@
       </c>
       <c r="H168" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I168" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J168" t="n">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="K168" t="n">
-        <v>15000</v>
+        <v>19000</v>
       </c>
       <c r="L168" t="n">
-        <v>15000</v>
+        <v>19000</v>
       </c>
       <c r="M168" t="n">
-        <v>15000</v>
+        <v>19000</v>
       </c>
       <c r="N168" t="inlineStr">
         <is>
-          <t>$/caja 70 unidades</t>
+          <t>$/caja 25 unidades</t>
         </is>
       </c>
       <c r="O168" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P168" t="n">
-        <v>214</v>
+        <v>19000</v>
       </c>
       <c r="Q168" t="n">
-        <v>70</v>
+        <v>1</v>
       </c>
       <c r="R168" t="inlineStr">
         <is>
@@ -12501,7 +12501,7 @@
         </is>
       </c>
       <c r="D169" s="2" t="n">
-        <v>44351</v>
+        <v>44405</v>
       </c>
       <c r="E169" t="n">
         <v>13</v>
@@ -12521,24 +12521,24 @@
       </c>
       <c r="I169" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J169" t="n">
-        <v>16</v>
+        <v>43</v>
       </c>
       <c r="K169" t="n">
-        <v>20000</v>
+        <v>16000</v>
       </c>
       <c r="L169" t="n">
-        <v>20000</v>
+        <v>17000</v>
       </c>
       <c r="M169" t="n">
-        <v>20000</v>
+        <v>16512</v>
       </c>
       <c r="N169" t="inlineStr">
         <is>
-          <t>$/caja 25 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O169" t="inlineStr">
@@ -12547,10 +12547,10 @@
         </is>
       </c>
       <c r="P169" t="n">
-        <v>20000</v>
+        <v>550</v>
       </c>
       <c r="Q169" t="n">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="R169" t="inlineStr">
         <is>
@@ -12573,7 +12573,7 @@
         </is>
       </c>
       <c r="D170" s="2" t="n">
-        <v>44351</v>
+        <v>44405</v>
       </c>
       <c r="E170" t="n">
         <v>13</v>
@@ -12593,24 +12593,24 @@
       </c>
       <c r="I170" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J170" t="n">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="K170" t="n">
-        <v>17000</v>
+        <v>14000</v>
       </c>
       <c r="L170" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="M170" t="n">
-        <v>17500</v>
+        <v>14520</v>
       </c>
       <c r="N170" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O170" t="inlineStr">
@@ -12619,10 +12619,10 @@
         </is>
       </c>
       <c r="P170" t="n">
-        <v>583</v>
+        <v>363</v>
       </c>
       <c r="Q170" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="R170" t="inlineStr">
         <is>
@@ -12645,7 +12645,7 @@
         </is>
       </c>
       <c r="D171" s="2" t="n">
-        <v>44351</v>
+        <v>44327</v>
       </c>
       <c r="E171" t="n">
         <v>13</v>
@@ -12660,29 +12660,29 @@
       </c>
       <c r="H171" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I171" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J171" t="n">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="K171" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="L171" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="M171" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="N171" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O171" t="inlineStr">
@@ -12691,10 +12691,10 @@
         </is>
       </c>
       <c r="P171" t="n">
-        <v>375</v>
+        <v>320</v>
       </c>
       <c r="Q171" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="R171" t="inlineStr">
         <is>
@@ -12717,7 +12717,7 @@
         </is>
       </c>
       <c r="D172" s="2" t="n">
-        <v>44350</v>
+        <v>44327</v>
       </c>
       <c r="E172" t="n">
         <v>13</v>
@@ -12732,7 +12732,7 @@
       </c>
       <c r="H172" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I172" t="inlineStr">
@@ -12741,32 +12741,32 @@
         </is>
       </c>
       <c r="J172" t="n">
+        <v>43</v>
+      </c>
+      <c r="K172" t="n">
+        <v>18000</v>
+      </c>
+      <c r="L172" t="n">
+        <v>18000</v>
+      </c>
+      <c r="M172" t="n">
+        <v>18000</v>
+      </c>
+      <c r="N172" t="inlineStr">
+        <is>
+          <t>$/caja 30 unidades</t>
+        </is>
+      </c>
+      <c r="O172" t="inlineStr">
+        <is>
+          <t>Provincia del Elquí</t>
+        </is>
+      </c>
+      <c r="P172" t="n">
+        <v>600</v>
+      </c>
+      <c r="Q172" t="n">
         <v>30</v>
-      </c>
-      <c r="K172" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L172" t="n">
-        <v>16000</v>
-      </c>
-      <c r="M172" t="n">
-        <v>15500</v>
-      </c>
-      <c r="N172" t="inlineStr">
-        <is>
-          <t>$/caja 50 unidades</t>
-        </is>
-      </c>
-      <c r="O172" t="inlineStr">
-        <is>
-          <t>Provincia del Elquí</t>
-        </is>
-      </c>
-      <c r="P172" t="n">
-        <v>310</v>
-      </c>
-      <c r="Q172" t="n">
-        <v>50</v>
       </c>
       <c r="R172" t="inlineStr">
         <is>
@@ -12789,7 +12789,7 @@
         </is>
       </c>
       <c r="D173" s="2" t="n">
-        <v>44350</v>
+        <v>44313</v>
       </c>
       <c r="E173" t="n">
         <v>13</v>
@@ -12804,29 +12804,29 @@
       </c>
       <c r="H173" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I173" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J173" t="n">
         <v>16</v>
       </c>
       <c r="K173" t="n">
-        <v>13000</v>
+        <v>20000</v>
       </c>
       <c r="L173" t="n">
-        <v>13000</v>
+        <v>20000</v>
       </c>
       <c r="M173" t="n">
-        <v>13000</v>
+        <v>20000</v>
       </c>
       <c r="N173" t="inlineStr">
         <is>
-          <t>$/caja 70 unidades</t>
+          <t>$/caja 25 unidades</t>
         </is>
       </c>
       <c r="O173" t="inlineStr">
@@ -12835,10 +12835,10 @@
         </is>
       </c>
       <c r="P173" t="n">
-        <v>186</v>
+        <v>20000</v>
       </c>
       <c r="Q173" t="n">
-        <v>70</v>
+        <v>1</v>
       </c>
       <c r="R173" t="inlineStr">
         <is>
@@ -12861,7 +12861,7 @@
         </is>
       </c>
       <c r="D174" s="2" t="n">
-        <v>44350</v>
+        <v>44313</v>
       </c>
       <c r="E174" t="n">
         <v>13</v>
@@ -12885,16 +12885,16 @@
         </is>
       </c>
       <c r="J174" t="n">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="K174" t="n">
-        <v>18000</v>
+        <v>17000</v>
       </c>
       <c r="L174" t="n">
-        <v>19000</v>
+        <v>17000</v>
       </c>
       <c r="M174" t="n">
-        <v>18500</v>
+        <v>17000</v>
       </c>
       <c r="N174" t="inlineStr">
         <is>
@@ -12903,11 +12903,11 @@
       </c>
       <c r="O174" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P174" t="n">
-        <v>617</v>
+        <v>567</v>
       </c>
       <c r="Q174" t="n">
         <v>30</v>
@@ -12933,7 +12933,7 @@
         </is>
       </c>
       <c r="D175" s="2" t="n">
-        <v>44350</v>
+        <v>44330</v>
       </c>
       <c r="E175" t="n">
         <v>13</v>
@@ -12948,16 +12948,16 @@
       </c>
       <c r="H175" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I175" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J175" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="K175" t="n">
         <v>16000</v>
@@ -12970,7 +12970,7 @@
       </c>
       <c r="N175" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O175" t="inlineStr">
@@ -12979,10 +12979,10 @@
         </is>
       </c>
       <c r="P175" t="n">
-        <v>400</v>
+        <v>320</v>
       </c>
       <c r="Q175" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="R175" t="inlineStr">
         <is>
@@ -13005,7 +13005,7 @@
         </is>
       </c>
       <c r="D176" s="2" t="n">
-        <v>44315</v>
+        <v>44330</v>
       </c>
       <c r="E176" t="n">
         <v>13</v>
@@ -13020,29 +13020,29 @@
       </c>
       <c r="H176" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I176" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J176" t="n">
-        <v>16</v>
+        <v>52</v>
       </c>
       <c r="K176" t="n">
-        <v>19000</v>
+        <v>14000</v>
       </c>
       <c r="L176" t="n">
-        <v>19000</v>
+        <v>14000</v>
       </c>
       <c r="M176" t="n">
-        <v>19000</v>
+        <v>14000</v>
       </c>
       <c r="N176" t="inlineStr">
         <is>
-          <t>$/caja 25 unidades</t>
+          <t>$/caja 60 unidades</t>
         </is>
       </c>
       <c r="O176" t="inlineStr">
@@ -13051,10 +13051,10 @@
         </is>
       </c>
       <c r="P176" t="n">
-        <v>19000</v>
+        <v>233</v>
       </c>
       <c r="Q176" t="n">
-        <v>1</v>
+        <v>60</v>
       </c>
       <c r="R176" t="inlineStr">
         <is>
@@ -13077,7 +13077,7 @@
         </is>
       </c>
       <c r="D177" s="2" t="n">
-        <v>44315</v>
+        <v>44330</v>
       </c>
       <c r="E177" t="n">
         <v>13</v>
@@ -13101,16 +13101,16 @@
         </is>
       </c>
       <c r="J177" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="K177" t="n">
-        <v>17000</v>
+        <v>16000</v>
       </c>
       <c r="L177" t="n">
-        <v>17000</v>
+        <v>16000</v>
       </c>
       <c r="M177" t="n">
-        <v>17000</v>
+        <v>16000</v>
       </c>
       <c r="N177" t="inlineStr">
         <is>
@@ -13123,7 +13123,7 @@
         </is>
       </c>
       <c r="P177" t="n">
-        <v>567</v>
+        <v>533</v>
       </c>
       <c r="Q177" t="n">
         <v>30</v>
@@ -13149,7 +13149,7 @@
         </is>
       </c>
       <c r="D178" s="2" t="n">
-        <v>44358</v>
+        <v>44330</v>
       </c>
       <c r="E178" t="n">
         <v>13</v>
@@ -13164,7 +13164,7 @@
       </c>
       <c r="H178" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I178" t="inlineStr">
@@ -13173,32 +13173,32 @@
         </is>
       </c>
       <c r="J178" t="n">
-        <v>52</v>
+        <v>34</v>
       </c>
       <c r="K178" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="L178" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="M178" t="n">
-        <v>15500</v>
+        <v>14000</v>
       </c>
       <c r="N178" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O178" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P178" t="n">
-        <v>310</v>
+        <v>350</v>
       </c>
       <c r="Q178" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="R178" t="inlineStr">
         <is>
@@ -13221,7 +13221,7 @@
         </is>
       </c>
       <c r="D179" s="2" t="n">
-        <v>44358</v>
+        <v>44391</v>
       </c>
       <c r="E179" t="n">
         <v>13</v>
@@ -13236,29 +13236,29 @@
       </c>
       <c r="H179" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I179" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J179" t="n">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="K179" t="n">
-        <v>14000</v>
+        <v>17000</v>
       </c>
       <c r="L179" t="n">
-        <v>14000</v>
+        <v>18000</v>
       </c>
       <c r="M179" t="n">
-        <v>14000</v>
+        <v>17500</v>
       </c>
       <c r="N179" t="inlineStr">
         <is>
-          <t>$/caja 70 unidades</t>
+          <t>$/caja 25 unidades</t>
         </is>
       </c>
       <c r="O179" t="inlineStr">
@@ -13267,10 +13267,10 @@
         </is>
       </c>
       <c r="P179" t="n">
-        <v>200</v>
+        <v>17500</v>
       </c>
       <c r="Q179" t="n">
-        <v>70</v>
+        <v>1</v>
       </c>
       <c r="R179" t="inlineStr">
         <is>
@@ -13293,7 +13293,7 @@
         </is>
       </c>
       <c r="D180" s="2" t="n">
-        <v>44358</v>
+        <v>44391</v>
       </c>
       <c r="E180" t="n">
         <v>13</v>
@@ -13313,36 +13313,36 @@
       </c>
       <c r="I180" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J180" t="n">
-        <v>16</v>
+        <v>43</v>
       </c>
       <c r="K180" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="L180" t="n">
-        <v>19000</v>
+        <v>16000</v>
       </c>
       <c r="M180" t="n">
-        <v>18500</v>
+        <v>15488</v>
       </c>
       <c r="N180" t="inlineStr">
         <is>
-          <t>$/caja 25 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O180" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P180" t="n">
-        <v>18500</v>
+        <v>516</v>
       </c>
       <c r="Q180" t="n">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="R180" t="inlineStr">
         <is>
@@ -13365,7 +13365,7 @@
         </is>
       </c>
       <c r="D181" s="2" t="n">
-        <v>44358</v>
+        <v>44391</v>
       </c>
       <c r="E181" t="n">
         <v>13</v>
@@ -13385,36 +13385,36 @@
       </c>
       <c r="I181" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J181" t="n">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="K181" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="L181" t="n">
-        <v>16000</v>
+        <v>13000</v>
       </c>
       <c r="M181" t="n">
-        <v>15488</v>
+        <v>13000</v>
       </c>
       <c r="N181" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O181" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P181" t="n">
-        <v>516</v>
+        <v>325</v>
       </c>
       <c r="Q181" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="R181" t="inlineStr">
         <is>
@@ -13437,7 +13437,7 @@
         </is>
       </c>
       <c r="D182" s="2" t="n">
-        <v>44358</v>
+        <v>44351</v>
       </c>
       <c r="E182" t="n">
         <v>13</v>
@@ -13452,29 +13452,29 @@
       </c>
       <c r="H182" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I182" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J182" t="n">
-        <v>25</v>
+        <v>43</v>
       </c>
       <c r="K182" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="L182" t="n">
-        <v>14000</v>
+        <v>17000</v>
       </c>
       <c r="M182" t="n">
-        <v>14000</v>
+        <v>16512</v>
       </c>
       <c r="N182" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O182" t="inlineStr">
@@ -13483,10 +13483,10 @@
         </is>
       </c>
       <c r="P182" t="n">
-        <v>350</v>
+        <v>330</v>
       </c>
       <c r="Q182" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="R182" t="inlineStr">
         <is>
@@ -13509,7 +13509,7 @@
         </is>
       </c>
       <c r="D183" s="2" t="n">
-        <v>44399</v>
+        <v>44351</v>
       </c>
       <c r="E183" t="n">
         <v>13</v>
@@ -13524,41 +13524,41 @@
       </c>
       <c r="H183" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I183" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J183" t="n">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="K183" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="L183" t="n">
-        <v>19000</v>
+        <v>15000</v>
       </c>
       <c r="M183" t="n">
-        <v>18500</v>
+        <v>15000</v>
       </c>
       <c r="N183" t="inlineStr">
         <is>
-          <t>$/caja 25 unidades</t>
+          <t>$/caja 70 unidades</t>
         </is>
       </c>
       <c r="O183" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P183" t="n">
-        <v>18500</v>
+        <v>214</v>
       </c>
       <c r="Q183" t="n">
-        <v>1</v>
+        <v>70</v>
       </c>
       <c r="R183" t="inlineStr">
         <is>
@@ -13581,7 +13581,7 @@
         </is>
       </c>
       <c r="D184" s="2" t="n">
-        <v>44399</v>
+        <v>44351</v>
       </c>
       <c r="E184" t="n">
         <v>13</v>
@@ -13601,24 +13601,24 @@
       </c>
       <c r="I184" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J184" t="n">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="K184" t="n">
-        <v>16000</v>
+        <v>20000</v>
       </c>
       <c r="L184" t="n">
-        <v>17000</v>
+        <v>20000</v>
       </c>
       <c r="M184" t="n">
-        <v>16500</v>
+        <v>20000</v>
       </c>
       <c r="N184" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 25 unidades</t>
         </is>
       </c>
       <c r="O184" t="inlineStr">
@@ -13627,10 +13627,10 @@
         </is>
       </c>
       <c r="P184" t="n">
-        <v>550</v>
+        <v>20000</v>
       </c>
       <c r="Q184" t="n">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="R184" t="inlineStr">
         <is>
@@ -13653,7 +13653,7 @@
         </is>
       </c>
       <c r="D185" s="2" t="n">
-        <v>44399</v>
+        <v>44351</v>
       </c>
       <c r="E185" t="n">
         <v>13</v>
@@ -13673,24 +13673,24 @@
       </c>
       <c r="I185" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J185" t="n">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="K185" t="n">
-        <v>14000</v>
+        <v>17000</v>
       </c>
       <c r="L185" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="M185" t="n">
-        <v>14480</v>
+        <v>17500</v>
       </c>
       <c r="N185" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O185" t="inlineStr">
@@ -13699,10 +13699,10 @@
         </is>
       </c>
       <c r="P185" t="n">
-        <v>362</v>
+        <v>583</v>
       </c>
       <c r="Q185" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="R185" t="inlineStr">
         <is>
@@ -13725,7 +13725,7 @@
         </is>
       </c>
       <c r="D186" s="2" t="n">
-        <v>44292</v>
+        <v>44351</v>
       </c>
       <c r="E186" t="n">
         <v>13</v>
@@ -13745,36 +13745,36 @@
       </c>
       <c r="I186" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J186" t="n">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="K186" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="L186" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="M186" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="N186" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O186" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P186" t="n">
-        <v>600</v>
+        <v>375</v>
       </c>
       <c r="Q186" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="R186" t="inlineStr">
         <is>
@@ -13797,7 +13797,7 @@
         </is>
       </c>
       <c r="D187" s="2" t="n">
-        <v>44294</v>
+        <v>44350</v>
       </c>
       <c r="E187" t="n">
         <v>13</v>
@@ -13812,7 +13812,7 @@
       </c>
       <c r="H187" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I187" t="inlineStr">
@@ -13821,32 +13821,32 @@
         </is>
       </c>
       <c r="J187" t="n">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="K187" t="n">
-        <v>17000</v>
+        <v>15000</v>
       </c>
       <c r="L187" t="n">
-        <v>18000</v>
+        <v>16000</v>
       </c>
       <c r="M187" t="n">
-        <v>17481</v>
+        <v>15500</v>
       </c>
       <c r="N187" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O187" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P187" t="n">
-        <v>583</v>
+        <v>310</v>
       </c>
       <c r="Q187" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R187" t="inlineStr">
         <is>
@@ -13869,7 +13869,7 @@
         </is>
       </c>
       <c r="D188" s="2" t="n">
-        <v>44417</v>
+        <v>44350</v>
       </c>
       <c r="E188" t="n">
         <v>13</v>
@@ -13884,41 +13884,41 @@
       </c>
       <c r="H188" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I188" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J188" t="n">
         <v>16</v>
       </c>
       <c r="K188" t="n">
-        <v>16000</v>
+        <v>13000</v>
       </c>
       <c r="L188" t="n">
-        <v>16000</v>
+        <v>13000</v>
       </c>
       <c r="M188" t="n">
-        <v>16000</v>
+        <v>13000</v>
       </c>
       <c r="N188" t="inlineStr">
         <is>
-          <t>$/caja 25 unidades</t>
+          <t>$/caja 70 unidades</t>
         </is>
       </c>
       <c r="O188" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P188" t="n">
-        <v>16000</v>
+        <v>186</v>
       </c>
       <c r="Q188" t="n">
-        <v>1</v>
+        <v>70</v>
       </c>
       <c r="R188" t="inlineStr">
         <is>
@@ -13941,7 +13941,7 @@
         </is>
       </c>
       <c r="D189" s="2" t="n">
-        <v>44417</v>
+        <v>44350</v>
       </c>
       <c r="E189" t="n">
         <v>13</v>
@@ -13968,13 +13968,13 @@
         <v>34</v>
       </c>
       <c r="K189" t="n">
-        <v>14000</v>
+        <v>18000</v>
       </c>
       <c r="L189" t="n">
-        <v>15000</v>
+        <v>19000</v>
       </c>
       <c r="M189" t="n">
-        <v>14500</v>
+        <v>18500</v>
       </c>
       <c r="N189" t="inlineStr">
         <is>
@@ -13987,7 +13987,7 @@
         </is>
       </c>
       <c r="P189" t="n">
-        <v>483</v>
+        <v>617</v>
       </c>
       <c r="Q189" t="n">
         <v>30</v>
@@ -14013,7 +14013,7 @@
         </is>
       </c>
       <c r="D190" s="2" t="n">
-        <v>44417</v>
+        <v>44350</v>
       </c>
       <c r="E190" t="n">
         <v>13</v>
@@ -14037,16 +14037,16 @@
         </is>
       </c>
       <c r="J190" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="K190" t="n">
-        <v>12000</v>
+        <v>16000</v>
       </c>
       <c r="L190" t="n">
-        <v>12000</v>
+        <v>16000</v>
       </c>
       <c r="M190" t="n">
-        <v>12000</v>
+        <v>16000</v>
       </c>
       <c r="N190" t="inlineStr">
         <is>
@@ -14059,7 +14059,7 @@
         </is>
       </c>
       <c r="P190" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="Q190" t="n">
         <v>40</v>
@@ -14085,7 +14085,7 @@
         </is>
       </c>
       <c r="D191" s="2" t="n">
-        <v>44419</v>
+        <v>44315</v>
       </c>
       <c r="E191" t="n">
         <v>13</v>
@@ -14112,13 +14112,13 @@
         <v>16</v>
       </c>
       <c r="K191" t="n">
-        <v>16000</v>
+        <v>19000</v>
       </c>
       <c r="L191" t="n">
-        <v>16000</v>
+        <v>19000</v>
       </c>
       <c r="M191" t="n">
-        <v>16000</v>
+        <v>19000</v>
       </c>
       <c r="N191" t="inlineStr">
         <is>
@@ -14127,11 +14127,11 @@
       </c>
       <c r="O191" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P191" t="n">
-        <v>16000</v>
+        <v>19000</v>
       </c>
       <c r="Q191" t="n">
         <v>1</v>
@@ -14157,7 +14157,7 @@
         </is>
       </c>
       <c r="D192" s="2" t="n">
-        <v>44419</v>
+        <v>44315</v>
       </c>
       <c r="E192" t="n">
         <v>13</v>
@@ -14181,16 +14181,16 @@
         </is>
       </c>
       <c r="J192" t="n">
-        <v>61</v>
+        <v>20</v>
       </c>
       <c r="K192" t="n">
-        <v>14000</v>
+        <v>17000</v>
       </c>
       <c r="L192" t="n">
-        <v>15000</v>
+        <v>17000</v>
       </c>
       <c r="M192" t="n">
-        <v>14492</v>
+        <v>17000</v>
       </c>
       <c r="N192" t="inlineStr">
         <is>
@@ -14199,11 +14199,11 @@
       </c>
       <c r="O192" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P192" t="n">
-        <v>483</v>
+        <v>567</v>
       </c>
       <c r="Q192" t="n">
         <v>30</v>
@@ -14229,7 +14229,7 @@
         </is>
       </c>
       <c r="D193" s="2" t="n">
-        <v>44419</v>
+        <v>44358</v>
       </c>
       <c r="E193" t="n">
         <v>13</v>
@@ -14244,29 +14244,29 @@
       </c>
       <c r="H193" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I193" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J193" t="n">
-        <v>34</v>
+        <v>52</v>
       </c>
       <c r="K193" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="L193" t="n">
-        <v>13000</v>
+        <v>16000</v>
       </c>
       <c r="M193" t="n">
-        <v>13000</v>
+        <v>15500</v>
       </c>
       <c r="N193" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O193" t="inlineStr">
@@ -14275,10 +14275,10 @@
         </is>
       </c>
       <c r="P193" t="n">
-        <v>325</v>
+        <v>310</v>
       </c>
       <c r="Q193" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="R193" t="inlineStr">
         <is>
@@ -14301,7 +14301,7 @@
         </is>
       </c>
       <c r="D194" s="2" t="n">
-        <v>44420</v>
+        <v>44358</v>
       </c>
       <c r="E194" t="n">
         <v>13</v>
@@ -14316,41 +14316,41 @@
       </c>
       <c r="H194" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I194" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J194" t="n">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="K194" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="L194" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="M194" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="N194" t="inlineStr">
         <is>
-          <t>$/caja 25 unidades</t>
+          <t>$/caja 70 unidades</t>
         </is>
       </c>
       <c r="O194" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P194" t="n">
-        <v>16000</v>
+        <v>200</v>
       </c>
       <c r="Q194" t="n">
-        <v>1</v>
+        <v>70</v>
       </c>
       <c r="R194" t="inlineStr">
         <is>
@@ -14373,7 +14373,7 @@
         </is>
       </c>
       <c r="D195" s="2" t="n">
-        <v>44420</v>
+        <v>44358</v>
       </c>
       <c r="E195" t="n">
         <v>13</v>
@@ -14393,24 +14393,24 @@
       </c>
       <c r="I195" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J195" t="n">
-        <v>70</v>
+        <v>16</v>
       </c>
       <c r="K195" t="n">
-        <v>14000</v>
+        <v>18000</v>
       </c>
       <c r="L195" t="n">
-        <v>15000</v>
+        <v>19000</v>
       </c>
       <c r="M195" t="n">
-        <v>14500</v>
+        <v>18500</v>
       </c>
       <c r="N195" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 25 unidades</t>
         </is>
       </c>
       <c r="O195" t="inlineStr">
@@ -14419,10 +14419,10 @@
         </is>
       </c>
       <c r="P195" t="n">
-        <v>483</v>
+        <v>18500</v>
       </c>
       <c r="Q195" t="n">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="R195" t="inlineStr">
         <is>
@@ -14445,7 +14445,7 @@
         </is>
       </c>
       <c r="D196" s="2" t="n">
-        <v>44420</v>
+        <v>44358</v>
       </c>
       <c r="E196" t="n">
         <v>13</v>
@@ -14465,24 +14465,24 @@
       </c>
       <c r="I196" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J196" t="n">
         <v>43</v>
       </c>
       <c r="K196" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="L196" t="n">
-        <v>13000</v>
+        <v>16000</v>
       </c>
       <c r="M196" t="n">
-        <v>12512</v>
+        <v>15488</v>
       </c>
       <c r="N196" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O196" t="inlineStr">
@@ -14491,10 +14491,10 @@
         </is>
       </c>
       <c r="P196" t="n">
-        <v>313</v>
+        <v>516</v>
       </c>
       <c r="Q196" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="R196" t="inlineStr">
         <is>
@@ -14517,7 +14517,7 @@
         </is>
       </c>
       <c r="D197" s="2" t="n">
-        <v>44369</v>
+        <v>44358</v>
       </c>
       <c r="E197" t="n">
         <v>13</v>
@@ -14537,36 +14537,36 @@
       </c>
       <c r="I197" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J197" t="n">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="K197" t="n">
-        <v>21000</v>
+        <v>14000</v>
       </c>
       <c r="L197" t="n">
-        <v>22000</v>
+        <v>14000</v>
       </c>
       <c r="M197" t="n">
-        <v>21500</v>
+        <v>14000</v>
       </c>
       <c r="N197" t="inlineStr">
         <is>
-          <t>$/caja 25 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O197" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P197" t="n">
-        <v>21500</v>
+        <v>350</v>
       </c>
       <c r="Q197" t="n">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="R197" t="inlineStr">
         <is>
@@ -14589,7 +14589,7 @@
         </is>
       </c>
       <c r="D198" s="2" t="n">
-        <v>44369</v>
+        <v>44399</v>
       </c>
       <c r="E198" t="n">
         <v>13</v>
@@ -14609,24 +14609,24 @@
       </c>
       <c r="I198" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J198" t="n">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="K198" t="n">
+        <v>18000</v>
+      </c>
+      <c r="L198" t="n">
         <v>19000</v>
       </c>
-      <c r="L198" t="n">
-        <v>20000</v>
-      </c>
       <c r="M198" t="n">
-        <v>19500</v>
+        <v>18500</v>
       </c>
       <c r="N198" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 25 unidades</t>
         </is>
       </c>
       <c r="O198" t="inlineStr">
@@ -14635,10 +14635,10 @@
         </is>
       </c>
       <c r="P198" t="n">
-        <v>650</v>
+        <v>18500</v>
       </c>
       <c r="Q198" t="n">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="R198" t="inlineStr">
         <is>
@@ -14661,7 +14661,7 @@
         </is>
       </c>
       <c r="D199" s="2" t="n">
-        <v>44369</v>
+        <v>44399</v>
       </c>
       <c r="E199" t="n">
         <v>13</v>
@@ -14681,24 +14681,24 @@
       </c>
       <c r="I199" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J199" t="n">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="K199" t="n">
-        <v>17000</v>
+        <v>16000</v>
       </c>
       <c r="L199" t="n">
         <v>17000</v>
       </c>
       <c r="M199" t="n">
-        <v>17000</v>
+        <v>16500</v>
       </c>
       <c r="N199" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O199" t="inlineStr">
@@ -14707,10 +14707,10 @@
         </is>
       </c>
       <c r="P199" t="n">
-        <v>425</v>
+        <v>550</v>
       </c>
       <c r="Q199" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="R199" t="inlineStr">
         <is>
@@ -14733,7 +14733,7 @@
         </is>
       </c>
       <c r="D200" s="2" t="n">
-        <v>44369</v>
+        <v>44399</v>
       </c>
       <c r="E200" t="n">
         <v>13</v>
@@ -14748,25 +14748,25 @@
       </c>
       <c r="H200" t="inlineStr">
         <is>
-          <t>Madrigal</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I200" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J200" t="n">
-        <v>43</v>
+        <v>25</v>
       </c>
       <c r="K200" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="L200" t="n">
-        <v>17000</v>
+        <v>15000</v>
       </c>
       <c r="M200" t="n">
-        <v>16488</v>
+        <v>14480</v>
       </c>
       <c r="N200" t="inlineStr">
         <is>
@@ -14775,11 +14775,11 @@
       </c>
       <c r="O200" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P200" t="n">
-        <v>412</v>
+        <v>362</v>
       </c>
       <c r="Q200" t="n">
         <v>40</v>
@@ -14805,7 +14805,7 @@
         </is>
       </c>
       <c r="D201" s="2" t="n">
-        <v>44369</v>
+        <v>44292</v>
       </c>
       <c r="E201" t="n">
         <v>13</v>
@@ -14820,29 +14820,29 @@
       </c>
       <c r="H201" t="inlineStr">
         <is>
-          <t>Madrigal</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I201" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J201" t="n">
         <v>25</v>
       </c>
       <c r="K201" t="n">
-        <v>14000</v>
+        <v>18000</v>
       </c>
       <c r="L201" t="n">
-        <v>14000</v>
+        <v>18000</v>
       </c>
       <c r="M201" t="n">
-        <v>14000</v>
+        <v>18000</v>
       </c>
       <c r="N201" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O201" t="inlineStr">
@@ -14851,10 +14851,10 @@
         </is>
       </c>
       <c r="P201" t="n">
-        <v>280</v>
+        <v>600</v>
       </c>
       <c r="Q201" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R201" t="inlineStr">
         <is>
@@ -14877,7 +14877,7 @@
         </is>
       </c>
       <c r="D202" s="2" t="n">
-        <v>44307</v>
+        <v>44294</v>
       </c>
       <c r="E202" t="n">
         <v>13</v>
@@ -14897,24 +14897,24 @@
       </c>
       <c r="I202" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J202" t="n">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="K202" t="n">
-        <v>18000</v>
+        <v>17000</v>
       </c>
       <c r="L202" t="n">
         <v>18000</v>
       </c>
       <c r="M202" t="n">
-        <v>18000</v>
+        <v>17481</v>
       </c>
       <c r="N202" t="inlineStr">
         <is>
-          <t>$/caja 25 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O202" t="inlineStr">
@@ -14923,10 +14923,10 @@
         </is>
       </c>
       <c r="P202" t="n">
-        <v>18000</v>
+        <v>583</v>
       </c>
       <c r="Q202" t="n">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="R202" t="inlineStr">
         <is>
@@ -14949,7 +14949,7 @@
         </is>
       </c>
       <c r="D203" s="2" t="n">
-        <v>44307</v>
+        <v>44417</v>
       </c>
       <c r="E203" t="n">
         <v>13</v>
@@ -14969,7 +14969,7 @@
       </c>
       <c r="I203" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J203" t="n">
@@ -14986,7 +14986,7 @@
       </c>
       <c r="N203" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 25 unidades</t>
         </is>
       </c>
       <c r="O203" t="inlineStr">
@@ -14995,10 +14995,10 @@
         </is>
       </c>
       <c r="P203" t="n">
-        <v>533</v>
+        <v>16000</v>
       </c>
       <c r="Q203" t="n">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="R203" t="inlineStr">
         <is>
@@ -15021,7 +15021,7 @@
         </is>
       </c>
       <c r="D204" s="2" t="n">
-        <v>44333</v>
+        <v>44417</v>
       </c>
       <c r="E204" t="n">
         <v>13</v>
@@ -15036,7 +15036,7 @@
       </c>
       <c r="H204" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I204" t="inlineStr">
@@ -15048,29 +15048,29 @@
         <v>34</v>
       </c>
       <c r="K204" t="n">
+        <v>14000</v>
+      </c>
+      <c r="L204" t="n">
         <v>15000</v>
       </c>
-      <c r="L204" t="n">
-        <v>16000</v>
-      </c>
       <c r="M204" t="n">
-        <v>15500</v>
+        <v>14500</v>
       </c>
       <c r="N204" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O204" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P204" t="n">
-        <v>310</v>
+        <v>483</v>
       </c>
       <c r="Q204" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R204" t="inlineStr">
         <is>
@@ -15093,7 +15093,7 @@
         </is>
       </c>
       <c r="D205" s="2" t="n">
-        <v>44309</v>
+        <v>44417</v>
       </c>
       <c r="E205" t="n">
         <v>13</v>
@@ -15113,36 +15113,36 @@
       </c>
       <c r="I205" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J205" t="n">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="K205" t="n">
-        <v>19000</v>
+        <v>12000</v>
       </c>
       <c r="L205" t="n">
-        <v>19000</v>
+        <v>12000</v>
       </c>
       <c r="M205" t="n">
-        <v>19000</v>
+        <v>12000</v>
       </c>
       <c r="N205" t="inlineStr">
         <is>
-          <t>$/caja 25 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O205" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P205" t="n">
-        <v>19000</v>
+        <v>300</v>
       </c>
       <c r="Q205" t="n">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="R205" t="inlineStr">
         <is>
@@ -15165,7 +15165,7 @@
         </is>
       </c>
       <c r="D206" s="2" t="n">
-        <v>44309</v>
+        <v>44419</v>
       </c>
       <c r="E206" t="n">
         <v>13</v>
@@ -15185,24 +15185,24 @@
       </c>
       <c r="I206" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J206" t="n">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="K206" t="n">
-        <v>17000</v>
+        <v>16000</v>
       </c>
       <c r="L206" t="n">
-        <v>17000</v>
+        <v>16000</v>
       </c>
       <c r="M206" t="n">
-        <v>17000</v>
+        <v>16000</v>
       </c>
       <c r="N206" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 25 unidades</t>
         </is>
       </c>
       <c r="O206" t="inlineStr">
@@ -15211,10 +15211,10 @@
         </is>
       </c>
       <c r="P206" t="n">
-        <v>567</v>
+        <v>16000</v>
       </c>
       <c r="Q206" t="n">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="R206" t="inlineStr">
         <is>
@@ -15237,7 +15237,7 @@
         </is>
       </c>
       <c r="D207" s="2" t="n">
-        <v>44344</v>
+        <v>44419</v>
       </c>
       <c r="E207" t="n">
         <v>13</v>
@@ -15252,7 +15252,7 @@
       </c>
       <c r="H207" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I207" t="inlineStr">
@@ -15261,32 +15261,32 @@
         </is>
       </c>
       <c r="J207" t="n">
-        <v>21</v>
+        <v>61</v>
       </c>
       <c r="K207" t="n">
+        <v>14000</v>
+      </c>
+      <c r="L207" t="n">
         <v>15000</v>
       </c>
-      <c r="L207" t="n">
-        <v>16000</v>
-      </c>
       <c r="M207" t="n">
-        <v>15524</v>
+        <v>14492</v>
       </c>
       <c r="N207" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O207" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P207" t="n">
-        <v>310</v>
+        <v>483</v>
       </c>
       <c r="Q207" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R207" t="inlineStr">
         <is>
@@ -15309,7 +15309,7 @@
         </is>
       </c>
       <c r="D208" s="2" t="n">
-        <v>44344</v>
+        <v>44419</v>
       </c>
       <c r="E208" t="n">
         <v>13</v>
@@ -15329,36 +15329,36 @@
       </c>
       <c r="I208" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J208" t="n">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="K208" t="n">
-        <v>17000</v>
+        <v>13000</v>
       </c>
       <c r="L208" t="n">
-        <v>18000</v>
+        <v>13000</v>
       </c>
       <c r="M208" t="n">
-        <v>17500</v>
+        <v>13000</v>
       </c>
       <c r="N208" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O208" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P208" t="n">
-        <v>583</v>
+        <v>325</v>
       </c>
       <c r="Q208" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="R208" t="inlineStr">
         <is>
@@ -15381,7 +15381,7 @@
         </is>
       </c>
       <c r="D209" s="2" t="n">
-        <v>44344</v>
+        <v>44420</v>
       </c>
       <c r="E209" t="n">
         <v>13</v>
@@ -15401,24 +15401,24 @@
       </c>
       <c r="I209" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J209" t="n">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="K209" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="L209" t="n">
         <v>16000</v>
       </c>
       <c r="M209" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="N209" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 25 unidades</t>
         </is>
       </c>
       <c r="O209" t="inlineStr">
@@ -15427,10 +15427,10 @@
         </is>
       </c>
       <c r="P209" t="n">
-        <v>375</v>
+        <v>16000</v>
       </c>
       <c r="Q209" t="n">
-        <v>40</v>
+        <v>1</v>
       </c>
       <c r="R209" t="inlineStr">
         <is>
@@ -15453,7 +15453,7 @@
         </is>
       </c>
       <c r="D210" s="2" t="n">
-        <v>44316</v>
+        <v>44420</v>
       </c>
       <c r="E210" t="n">
         <v>13</v>
@@ -15468,7 +15468,7 @@
       </c>
       <c r="H210" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I210" t="inlineStr">
@@ -15477,20 +15477,20 @@
         </is>
       </c>
       <c r="J210" t="n">
-        <v>25</v>
+        <v>70</v>
       </c>
       <c r="K210" t="n">
-        <v>18000</v>
+        <v>14000</v>
       </c>
       <c r="L210" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="M210" t="n">
-        <v>18000</v>
+        <v>14500</v>
       </c>
       <c r="N210" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O210" t="inlineStr">
@@ -15499,10 +15499,10 @@
         </is>
       </c>
       <c r="P210" t="n">
-        <v>360</v>
+        <v>483</v>
       </c>
       <c r="Q210" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R210" t="inlineStr">
         <is>
@@ -15525,7 +15525,7 @@
         </is>
       </c>
       <c r="D211" s="2" t="n">
-        <v>44316</v>
+        <v>44420</v>
       </c>
       <c r="E211" t="n">
         <v>13</v>
@@ -15545,24 +15545,24 @@
       </c>
       <c r="I211" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J211" t="n">
-        <v>18</v>
+        <v>43</v>
       </c>
       <c r="K211" t="n">
-        <v>18000</v>
+        <v>12000</v>
       </c>
       <c r="L211" t="n">
-        <v>18000</v>
+        <v>13000</v>
       </c>
       <c r="M211" t="n">
-        <v>18000</v>
+        <v>12512</v>
       </c>
       <c r="N211" t="inlineStr">
         <is>
-          <t>$/caja 25 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O211" t="inlineStr">
@@ -15571,10 +15571,10 @@
         </is>
       </c>
       <c r="P211" t="n">
-        <v>18000</v>
+        <v>313</v>
       </c>
       <c r="Q211" t="n">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="R211" t="inlineStr">
         <is>
@@ -15597,7 +15597,7 @@
         </is>
       </c>
       <c r="D212" s="2" t="n">
-        <v>44316</v>
+        <v>44369</v>
       </c>
       <c r="E212" t="n">
         <v>13</v>
@@ -15617,36 +15617,36 @@
       </c>
       <c r="I212" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J212" t="n">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="K212" t="n">
-        <v>16000</v>
+        <v>21000</v>
       </c>
       <c r="L212" t="n">
-        <v>16000</v>
+        <v>22000</v>
       </c>
       <c r="M212" t="n">
-        <v>16000</v>
+        <v>21500</v>
       </c>
       <c r="N212" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 25 unidades</t>
         </is>
       </c>
       <c r="O212" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P212" t="n">
-        <v>533</v>
+        <v>21500</v>
       </c>
       <c r="Q212" t="n">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="R212" t="inlineStr">
         <is>
@@ -15669,7 +15669,7 @@
         </is>
       </c>
       <c r="D213" s="2" t="n">
-        <v>44301</v>
+        <v>44369</v>
       </c>
       <c r="E213" t="n">
         <v>13</v>
@@ -15693,16 +15693,16 @@
         </is>
       </c>
       <c r="J213" t="n">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="K213" t="n">
-        <v>17000</v>
+        <v>19000</v>
       </c>
       <c r="L213" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="M213" t="n">
-        <v>17500</v>
+        <v>19500</v>
       </c>
       <c r="N213" t="inlineStr">
         <is>
@@ -15711,11 +15711,11 @@
       </c>
       <c r="O213" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P213" t="n">
-        <v>583</v>
+        <v>650</v>
       </c>
       <c r="Q213" t="n">
         <v>30</v>
@@ -15741,7 +15741,7 @@
         </is>
       </c>
       <c r="D214" s="2" t="n">
-        <v>44382</v>
+        <v>44369</v>
       </c>
       <c r="E214" t="n">
         <v>13</v>
@@ -15761,24 +15761,24 @@
       </c>
       <c r="I214" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J214" t="n">
-        <v>52</v>
+        <v>25</v>
       </c>
       <c r="K214" t="n">
         <v>17000</v>
       </c>
       <c r="L214" t="n">
-        <v>18000</v>
+        <v>17000</v>
       </c>
       <c r="M214" t="n">
-        <v>17500</v>
+        <v>17000</v>
       </c>
       <c r="N214" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O214" t="inlineStr">
@@ -15787,10 +15787,10 @@
         </is>
       </c>
       <c r="P214" t="n">
-        <v>583</v>
+        <v>425</v>
       </c>
       <c r="Q214" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="R214" t="inlineStr">
         <is>
@@ -15813,7 +15813,7 @@
         </is>
       </c>
       <c r="D215" s="2" t="n">
-        <v>44398</v>
+        <v>44369</v>
       </c>
       <c r="E215" t="n">
         <v>13</v>
@@ -15828,41 +15828,41 @@
       </c>
       <c r="H215" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Madrigal</t>
         </is>
       </c>
       <c r="I215" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J215" t="n">
-        <v>16</v>
+        <v>43</v>
       </c>
       <c r="K215" t="n">
-        <v>18000</v>
+        <v>16000</v>
       </c>
       <c r="L215" t="n">
-        <v>18000</v>
+        <v>17000</v>
       </c>
       <c r="M215" t="n">
-        <v>18000</v>
+        <v>16488</v>
       </c>
       <c r="N215" t="inlineStr">
         <is>
-          <t>$/caja 25 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O215" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P215" t="n">
-        <v>18000</v>
+        <v>412</v>
       </c>
       <c r="Q215" t="n">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="R215" t="inlineStr">
         <is>
@@ -15885,7 +15885,7 @@
         </is>
       </c>
       <c r="D216" s="2" t="n">
-        <v>44398</v>
+        <v>44369</v>
       </c>
       <c r="E216" t="n">
         <v>13</v>
@@ -15900,41 +15900,41 @@
       </c>
       <c r="H216" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Madrigal</t>
         </is>
       </c>
       <c r="I216" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J216" t="n">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="K216" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="L216" t="n">
-        <v>17000</v>
+        <v>14000</v>
       </c>
       <c r="M216" t="n">
-        <v>16500</v>
+        <v>14000</v>
       </c>
       <c r="N216" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O216" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P216" t="n">
-        <v>550</v>
+        <v>280</v>
       </c>
       <c r="Q216" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R216" t="inlineStr">
         <is>
@@ -15957,7 +15957,7 @@
         </is>
       </c>
       <c r="D217" s="2" t="n">
-        <v>44398</v>
+        <v>44307</v>
       </c>
       <c r="E217" t="n">
         <v>13</v>
@@ -15977,36 +15977,36 @@
       </c>
       <c r="I217" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J217" t="n">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="K217" t="n">
-        <v>14000</v>
+        <v>18000</v>
       </c>
       <c r="L217" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="M217" t="n">
-        <v>14500</v>
+        <v>18000</v>
       </c>
       <c r="N217" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 25 unidades</t>
         </is>
       </c>
       <c r="O217" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P217" t="n">
-        <v>362</v>
+        <v>18000</v>
       </c>
       <c r="Q217" t="n">
-        <v>40</v>
+        <v>1</v>
       </c>
       <c r="R217" t="inlineStr">
         <is>
@@ -16029,7 +16029,7 @@
         </is>
       </c>
       <c r="D218" s="2" t="n">
-        <v>44355</v>
+        <v>44307</v>
       </c>
       <c r="E218" t="n">
         <v>13</v>
@@ -16044,7 +16044,7 @@
       </c>
       <c r="H218" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I218" t="inlineStr">
@@ -16053,20 +16053,20 @@
         </is>
       </c>
       <c r="J218" t="n">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="K218" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="L218" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="M218" t="n">
-        <v>14500</v>
+        <v>16000</v>
       </c>
       <c r="N218" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O218" t="inlineStr">
@@ -16075,10 +16075,10 @@
         </is>
       </c>
       <c r="P218" t="n">
-        <v>290</v>
+        <v>533</v>
       </c>
       <c r="Q218" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R218" t="inlineStr">
         <is>
@@ -16101,7 +16101,7 @@
         </is>
       </c>
       <c r="D219" s="2" t="n">
-        <v>44355</v>
+        <v>44333</v>
       </c>
       <c r="E219" t="n">
         <v>13</v>
@@ -16121,36 +16121,36 @@
       </c>
       <c r="I219" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J219" t="n">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="K219" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="L219" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="M219" t="n">
-        <v>13471</v>
+        <v>15500</v>
       </c>
       <c r="N219" t="inlineStr">
         <is>
-          <t>$/caja 70 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O219" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P219" t="n">
-        <v>192</v>
+        <v>310</v>
       </c>
       <c r="Q219" t="n">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="R219" t="inlineStr">
         <is>
@@ -16173,7 +16173,7 @@
         </is>
       </c>
       <c r="D220" s="2" t="n">
-        <v>44355</v>
+        <v>44433</v>
       </c>
       <c r="E220" t="n">
         <v>13</v>
@@ -16200,13 +16200,13 @@
         <v>16</v>
       </c>
       <c r="K220" t="n">
-        <v>21000</v>
+        <v>16000</v>
       </c>
       <c r="L220" t="n">
-        <v>22000</v>
+        <v>16000</v>
       </c>
       <c r="M220" t="n">
-        <v>21500</v>
+        <v>16000</v>
       </c>
       <c r="N220" t="inlineStr">
         <is>
@@ -16219,7 +16219,7 @@
         </is>
       </c>
       <c r="P220" t="n">
-        <v>21500</v>
+        <v>16000</v>
       </c>
       <c r="Q220" t="n">
         <v>1</v>
@@ -16245,7 +16245,7 @@
         </is>
       </c>
       <c r="D221" s="2" t="n">
-        <v>44355</v>
+        <v>44433</v>
       </c>
       <c r="E221" t="n">
         <v>13</v>
@@ -16269,16 +16269,16 @@
         </is>
       </c>
       <c r="J221" t="n">
-        <v>21</v>
+        <v>52</v>
       </c>
       <c r="K221" t="n">
-        <v>18000</v>
+        <v>14000</v>
       </c>
       <c r="L221" t="n">
-        <v>19000</v>
+        <v>15000</v>
       </c>
       <c r="M221" t="n">
-        <v>18571</v>
+        <v>14500</v>
       </c>
       <c r="N221" t="inlineStr">
         <is>
@@ -16291,7 +16291,7 @@
         </is>
       </c>
       <c r="P221" t="n">
-        <v>619</v>
+        <v>483</v>
       </c>
       <c r="Q221" t="n">
         <v>30</v>
@@ -16317,7 +16317,7 @@
         </is>
       </c>
       <c r="D222" s="2" t="n">
-        <v>44355</v>
+        <v>44433</v>
       </c>
       <c r="E222" t="n">
         <v>13</v>
@@ -16341,16 +16341,16 @@
         </is>
       </c>
       <c r="J222" t="n">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="K222" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="L222" t="n">
-        <v>16000</v>
+        <v>13000</v>
       </c>
       <c r="M222" t="n">
-        <v>15500</v>
+        <v>12500</v>
       </c>
       <c r="N222" t="inlineStr">
         <is>
@@ -16363,7 +16363,7 @@
         </is>
       </c>
       <c r="P222" t="n">
-        <v>388</v>
+        <v>312</v>
       </c>
       <c r="Q222" t="n">
         <v>40</v>
@@ -16389,7 +16389,7 @@
         </is>
       </c>
       <c r="D223" s="2" t="n">
-        <v>44376</v>
+        <v>44309</v>
       </c>
       <c r="E223" t="n">
         <v>13</v>
@@ -16416,13 +16416,13 @@
         <v>16</v>
       </c>
       <c r="K223" t="n">
-        <v>21000</v>
+        <v>19000</v>
       </c>
       <c r="L223" t="n">
-        <v>22000</v>
+        <v>19000</v>
       </c>
       <c r="M223" t="n">
-        <v>21500</v>
+        <v>19000</v>
       </c>
       <c r="N223" t="inlineStr">
         <is>
@@ -16435,7 +16435,7 @@
         </is>
       </c>
       <c r="P223" t="n">
-        <v>21500</v>
+        <v>19000</v>
       </c>
       <c r="Q223" t="n">
         <v>1</v>
@@ -16461,7 +16461,7 @@
         </is>
       </c>
       <c r="D224" s="2" t="n">
-        <v>44376</v>
+        <v>44309</v>
       </c>
       <c r="E224" t="n">
         <v>13</v>
@@ -16485,16 +16485,16 @@
         </is>
       </c>
       <c r="J224" t="n">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="K224" t="n">
-        <v>19000</v>
+        <v>17000</v>
       </c>
       <c r="L224" t="n">
-        <v>20000</v>
+        <v>17000</v>
       </c>
       <c r="M224" t="n">
-        <v>19500</v>
+        <v>17000</v>
       </c>
       <c r="N224" t="inlineStr">
         <is>
@@ -16507,7 +16507,7 @@
         </is>
       </c>
       <c r="P224" t="n">
-        <v>650</v>
+        <v>567</v>
       </c>
       <c r="Q224" t="n">
         <v>30</v>
@@ -16533,7 +16533,7 @@
         </is>
       </c>
       <c r="D225" s="2" t="n">
-        <v>44376</v>
+        <v>44344</v>
       </c>
       <c r="E225" t="n">
         <v>13</v>
@@ -16548,41 +16548,41 @@
       </c>
       <c r="H225" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I225" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J225" t="n">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="K225" t="n">
+        <v>15000</v>
+      </c>
+      <c r="L225" t="n">
         <v>16000</v>
       </c>
-      <c r="L225" t="n">
-        <v>17000</v>
-      </c>
       <c r="M225" t="n">
-        <v>16480</v>
+        <v>15524</v>
       </c>
       <c r="N225" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O225" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P225" t="n">
-        <v>412</v>
+        <v>310</v>
       </c>
       <c r="Q225" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="R225" t="inlineStr">
         <is>
@@ -16605,7 +16605,7 @@
         </is>
       </c>
       <c r="D226" s="2" t="n">
-        <v>44334</v>
+        <v>44344</v>
       </c>
       <c r="E226" t="n">
         <v>13</v>
@@ -16620,7 +16620,7 @@
       </c>
       <c r="H226" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I226" t="inlineStr">
@@ -16629,32 +16629,32 @@
         </is>
       </c>
       <c r="J226" t="n">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="K226" t="n">
-        <v>15000</v>
+        <v>17000</v>
       </c>
       <c r="L226" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="M226" t="n">
-        <v>15500</v>
+        <v>17500</v>
       </c>
       <c r="N226" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O226" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P226" t="n">
-        <v>310</v>
+        <v>583</v>
       </c>
       <c r="Q226" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R226" t="inlineStr">
         <is>
@@ -16677,7 +16677,7 @@
         </is>
       </c>
       <c r="D227" s="2" t="n">
-        <v>44334</v>
+        <v>44344</v>
       </c>
       <c r="E227" t="n">
         <v>13</v>
@@ -16697,36 +16697,36 @@
       </c>
       <c r="I227" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J227" t="n">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="K227" t="n">
-        <v>17000</v>
+        <v>14000</v>
       </c>
       <c r="L227" t="n">
-        <v>18000</v>
+        <v>16000</v>
       </c>
       <c r="M227" t="n">
-        <v>17480</v>
+        <v>15000</v>
       </c>
       <c r="N227" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O227" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P227" t="n">
-        <v>583</v>
+        <v>375</v>
       </c>
       <c r="Q227" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="R227" t="inlineStr">
         <is>
@@ -16749,7 +16749,7 @@
         </is>
       </c>
       <c r="D228" s="2" t="n">
-        <v>44168</v>
+        <v>44316</v>
       </c>
       <c r="E228" t="n">
         <v>13</v>
@@ -16764,7 +16764,7 @@
       </c>
       <c r="H228" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I228" t="inlineStr">
@@ -16773,32 +16773,32 @@
         </is>
       </c>
       <c r="J228" t="n">
-        <v>230</v>
+        <v>25</v>
       </c>
       <c r="K228" t="n">
-        <v>11000</v>
+        <v>18000</v>
       </c>
       <c r="L228" t="n">
-        <v>11000</v>
+        <v>18000</v>
       </c>
       <c r="M228" t="n">
-        <v>11000</v>
+        <v>18000</v>
       </c>
       <c r="N228" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O228" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P228" t="n">
-        <v>367</v>
+        <v>360</v>
       </c>
       <c r="Q228" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R228" t="inlineStr">
         <is>
@@ -16821,7 +16821,7 @@
         </is>
       </c>
       <c r="D229" s="2" t="n">
-        <v>44418</v>
+        <v>44316</v>
       </c>
       <c r="E229" t="n">
         <v>13</v>
@@ -16845,16 +16845,16 @@
         </is>
       </c>
       <c r="J229" t="n">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="K229" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="L229" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="M229" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="N229" t="inlineStr">
         <is>
@@ -16863,11 +16863,11 @@
       </c>
       <c r="O229" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P229" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="Q229" t="n">
         <v>1</v>
@@ -16893,7 +16893,7 @@
         </is>
       </c>
       <c r="D230" s="2" t="n">
-        <v>44418</v>
+        <v>44316</v>
       </c>
       <c r="E230" t="n">
         <v>13</v>
@@ -16917,16 +16917,16 @@
         </is>
       </c>
       <c r="J230" t="n">
-        <v>52</v>
+        <v>23</v>
       </c>
       <c r="K230" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="L230" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="M230" t="n">
-        <v>14500</v>
+        <v>16000</v>
       </c>
       <c r="N230" t="inlineStr">
         <is>
@@ -16935,11 +16935,11 @@
       </c>
       <c r="O230" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P230" t="n">
-        <v>483</v>
+        <v>533</v>
       </c>
       <c r="Q230" t="n">
         <v>30</v>
@@ -16965,58 +16965,1714 @@
         </is>
       </c>
       <c r="D231" s="2" t="n">
+        <v>44301</v>
+      </c>
+      <c r="E231" t="n">
+        <v>13</v>
+      </c>
+      <c r="F231" t="n">
+        <v>100112013</v>
+      </c>
+      <c r="G231" t="inlineStr">
+        <is>
+          <t>Alcachofa</t>
+        </is>
+      </c>
+      <c r="H231" t="inlineStr">
+        <is>
+          <t>Española</t>
+        </is>
+      </c>
+      <c r="I231" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J231" t="n">
+        <v>30</v>
+      </c>
+      <c r="K231" t="n">
+        <v>17000</v>
+      </c>
+      <c r="L231" t="n">
+        <v>18000</v>
+      </c>
+      <c r="M231" t="n">
+        <v>17500</v>
+      </c>
+      <c r="N231" t="inlineStr">
+        <is>
+          <t>$/caja 30 unidades</t>
+        </is>
+      </c>
+      <c r="O231" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P231" t="n">
+        <v>583</v>
+      </c>
+      <c r="Q231" t="n">
+        <v>30</v>
+      </c>
+      <c r="R231" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="n">
+        <v>9</v>
+      </c>
+      <c r="B232" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C232" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D232" s="2" t="n">
+        <v>44382</v>
+      </c>
+      <c r="E232" t="n">
+        <v>13</v>
+      </c>
+      <c r="F232" t="n">
+        <v>100112013</v>
+      </c>
+      <c r="G232" t="inlineStr">
+        <is>
+          <t>Alcachofa</t>
+        </is>
+      </c>
+      <c r="H232" t="inlineStr">
+        <is>
+          <t>Española</t>
+        </is>
+      </c>
+      <c r="I232" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J232" t="n">
+        <v>52</v>
+      </c>
+      <c r="K232" t="n">
+        <v>17000</v>
+      </c>
+      <c r="L232" t="n">
+        <v>18000</v>
+      </c>
+      <c r="M232" t="n">
+        <v>17500</v>
+      </c>
+      <c r="N232" t="inlineStr">
+        <is>
+          <t>$/caja 30 unidades</t>
+        </is>
+      </c>
+      <c r="O232" t="inlineStr">
+        <is>
+          <t>Provincia del Elquí</t>
+        </is>
+      </c>
+      <c r="P232" t="n">
+        <v>583</v>
+      </c>
+      <c r="Q232" t="n">
+        <v>30</v>
+      </c>
+      <c r="R232" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="n">
+        <v>9</v>
+      </c>
+      <c r="B233" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C233" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D233" s="2" t="n">
+        <v>44398</v>
+      </c>
+      <c r="E233" t="n">
+        <v>13</v>
+      </c>
+      <c r="F233" t="n">
+        <v>100112013</v>
+      </c>
+      <c r="G233" t="inlineStr">
+        <is>
+          <t>Alcachofa</t>
+        </is>
+      </c>
+      <c r="H233" t="inlineStr">
+        <is>
+          <t>Española</t>
+        </is>
+      </c>
+      <c r="I233" t="inlineStr">
+        <is>
+          <t>Extra</t>
+        </is>
+      </c>
+      <c r="J233" t="n">
+        <v>16</v>
+      </c>
+      <c r="K233" t="n">
+        <v>18000</v>
+      </c>
+      <c r="L233" t="n">
+        <v>18000</v>
+      </c>
+      <c r="M233" t="n">
+        <v>18000</v>
+      </c>
+      <c r="N233" t="inlineStr">
+        <is>
+          <t>$/caja 25 unidades</t>
+        </is>
+      </c>
+      <c r="O233" t="inlineStr">
+        <is>
+          <t>Provincia del Elquí</t>
+        </is>
+      </c>
+      <c r="P233" t="n">
+        <v>18000</v>
+      </c>
+      <c r="Q233" t="n">
+        <v>1</v>
+      </c>
+      <c r="R233" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="n">
+        <v>9</v>
+      </c>
+      <c r="B234" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C234" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D234" s="2" t="n">
+        <v>44398</v>
+      </c>
+      <c r="E234" t="n">
+        <v>13</v>
+      </c>
+      <c r="F234" t="n">
+        <v>100112013</v>
+      </c>
+      <c r="G234" t="inlineStr">
+        <is>
+          <t>Alcachofa</t>
+        </is>
+      </c>
+      <c r="H234" t="inlineStr">
+        <is>
+          <t>Española</t>
+        </is>
+      </c>
+      <c r="I234" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J234" t="n">
+        <v>34</v>
+      </c>
+      <c r="K234" t="n">
+        <v>16000</v>
+      </c>
+      <c r="L234" t="n">
+        <v>17000</v>
+      </c>
+      <c r="M234" t="n">
+        <v>16500</v>
+      </c>
+      <c r="N234" t="inlineStr">
+        <is>
+          <t>$/caja 30 unidades</t>
+        </is>
+      </c>
+      <c r="O234" t="inlineStr">
+        <is>
+          <t>Provincia del Elquí</t>
+        </is>
+      </c>
+      <c r="P234" t="n">
+        <v>550</v>
+      </c>
+      <c r="Q234" t="n">
+        <v>30</v>
+      </c>
+      <c r="R234" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="n">
+        <v>9</v>
+      </c>
+      <c r="B235" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C235" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D235" s="2" t="n">
+        <v>44398</v>
+      </c>
+      <c r="E235" t="n">
+        <v>13</v>
+      </c>
+      <c r="F235" t="n">
+        <v>100112013</v>
+      </c>
+      <c r="G235" t="inlineStr">
+        <is>
+          <t>Alcachofa</t>
+        </is>
+      </c>
+      <c r="H235" t="inlineStr">
+        <is>
+          <t>Española</t>
+        </is>
+      </c>
+      <c r="I235" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="J235" t="n">
+        <v>16</v>
+      </c>
+      <c r="K235" t="n">
+        <v>14000</v>
+      </c>
+      <c r="L235" t="n">
+        <v>15000</v>
+      </c>
+      <c r="M235" t="n">
+        <v>14500</v>
+      </c>
+      <c r="N235" t="inlineStr">
+        <is>
+          <t>$/caja 40 unidades</t>
+        </is>
+      </c>
+      <c r="O235" t="inlineStr">
+        <is>
+          <t>Provincia del Elquí</t>
+        </is>
+      </c>
+      <c r="P235" t="n">
+        <v>362</v>
+      </c>
+      <c r="Q235" t="n">
+        <v>40</v>
+      </c>
+      <c r="R235" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="n">
+        <v>9</v>
+      </c>
+      <c r="B236" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C236" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D236" s="2" t="n">
+        <v>44355</v>
+      </c>
+      <c r="E236" t="n">
+        <v>13</v>
+      </c>
+      <c r="F236" t="n">
+        <v>100112013</v>
+      </c>
+      <c r="G236" t="inlineStr">
+        <is>
+          <t>Alcachofa</t>
+        </is>
+      </c>
+      <c r="H236" t="inlineStr">
+        <is>
+          <t>Argentina(o)</t>
+        </is>
+      </c>
+      <c r="I236" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J236" t="n">
+        <v>34</v>
+      </c>
+      <c r="K236" t="n">
+        <v>14000</v>
+      </c>
+      <c r="L236" t="n">
+        <v>15000</v>
+      </c>
+      <c r="M236" t="n">
+        <v>14500</v>
+      </c>
+      <c r="N236" t="inlineStr">
+        <is>
+          <t>$/caja 50 unidades</t>
+        </is>
+      </c>
+      <c r="O236" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P236" t="n">
+        <v>290</v>
+      </c>
+      <c r="Q236" t="n">
+        <v>50</v>
+      </c>
+      <c r="R236" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="n">
+        <v>9</v>
+      </c>
+      <c r="B237" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C237" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D237" s="2" t="n">
+        <v>44355</v>
+      </c>
+      <c r="E237" t="n">
+        <v>13</v>
+      </c>
+      <c r="F237" t="n">
+        <v>100112013</v>
+      </c>
+      <c r="G237" t="inlineStr">
+        <is>
+          <t>Alcachofa</t>
+        </is>
+      </c>
+      <c r="H237" t="inlineStr">
+        <is>
+          <t>Argentina(o)</t>
+        </is>
+      </c>
+      <c r="I237" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="J237" t="n">
+        <v>17</v>
+      </c>
+      <c r="K237" t="n">
+        <v>13000</v>
+      </c>
+      <c r="L237" t="n">
+        <v>14000</v>
+      </c>
+      <c r="M237" t="n">
+        <v>13471</v>
+      </c>
+      <c r="N237" t="inlineStr">
+        <is>
+          <t>$/caja 70 unidades</t>
+        </is>
+      </c>
+      <c r="O237" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P237" t="n">
+        <v>192</v>
+      </c>
+      <c r="Q237" t="n">
+        <v>70</v>
+      </c>
+      <c r="R237" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="n">
+        <v>9</v>
+      </c>
+      <c r="B238" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C238" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D238" s="2" t="n">
+        <v>44355</v>
+      </c>
+      <c r="E238" t="n">
+        <v>13</v>
+      </c>
+      <c r="F238" t="n">
+        <v>100112013</v>
+      </c>
+      <c r="G238" t="inlineStr">
+        <is>
+          <t>Alcachofa</t>
+        </is>
+      </c>
+      <c r="H238" t="inlineStr">
+        <is>
+          <t>Española</t>
+        </is>
+      </c>
+      <c r="I238" t="inlineStr">
+        <is>
+          <t>Extra</t>
+        </is>
+      </c>
+      <c r="J238" t="n">
+        <v>16</v>
+      </c>
+      <c r="K238" t="n">
+        <v>21000</v>
+      </c>
+      <c r="L238" t="n">
+        <v>22000</v>
+      </c>
+      <c r="M238" t="n">
+        <v>21500</v>
+      </c>
+      <c r="N238" t="inlineStr">
+        <is>
+          <t>$/caja 25 unidades</t>
+        </is>
+      </c>
+      <c r="O238" t="inlineStr">
+        <is>
+          <t>Provincia del Elquí</t>
+        </is>
+      </c>
+      <c r="P238" t="n">
+        <v>21500</v>
+      </c>
+      <c r="Q238" t="n">
+        <v>1</v>
+      </c>
+      <c r="R238" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="n">
+        <v>9</v>
+      </c>
+      <c r="B239" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C239" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D239" s="2" t="n">
+        <v>44355</v>
+      </c>
+      <c r="E239" t="n">
+        <v>13</v>
+      </c>
+      <c r="F239" t="n">
+        <v>100112013</v>
+      </c>
+      <c r="G239" t="inlineStr">
+        <is>
+          <t>Alcachofa</t>
+        </is>
+      </c>
+      <c r="H239" t="inlineStr">
+        <is>
+          <t>Española</t>
+        </is>
+      </c>
+      <c r="I239" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J239" t="n">
+        <v>21</v>
+      </c>
+      <c r="K239" t="n">
+        <v>18000</v>
+      </c>
+      <c r="L239" t="n">
+        <v>19000</v>
+      </c>
+      <c r="M239" t="n">
+        <v>18571</v>
+      </c>
+      <c r="N239" t="inlineStr">
+        <is>
+          <t>$/caja 30 unidades</t>
+        </is>
+      </c>
+      <c r="O239" t="inlineStr">
+        <is>
+          <t>Provincia del Elquí</t>
+        </is>
+      </c>
+      <c r="P239" t="n">
+        <v>619</v>
+      </c>
+      <c r="Q239" t="n">
+        <v>30</v>
+      </c>
+      <c r="R239" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="n">
+        <v>9</v>
+      </c>
+      <c r="B240" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C240" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D240" s="2" t="n">
+        <v>44355</v>
+      </c>
+      <c r="E240" t="n">
+        <v>13</v>
+      </c>
+      <c r="F240" t="n">
+        <v>100112013</v>
+      </c>
+      <c r="G240" t="inlineStr">
+        <is>
+          <t>Alcachofa</t>
+        </is>
+      </c>
+      <c r="H240" t="inlineStr">
+        <is>
+          <t>Española</t>
+        </is>
+      </c>
+      <c r="I240" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="J240" t="n">
+        <v>12</v>
+      </c>
+      <c r="K240" t="n">
+        <v>15000</v>
+      </c>
+      <c r="L240" t="n">
+        <v>16000</v>
+      </c>
+      <c r="M240" t="n">
+        <v>15500</v>
+      </c>
+      <c r="N240" t="inlineStr">
+        <is>
+          <t>$/caja 40 unidades</t>
+        </is>
+      </c>
+      <c r="O240" t="inlineStr">
+        <is>
+          <t>Provincia del Elquí</t>
+        </is>
+      </c>
+      <c r="P240" t="n">
+        <v>388</v>
+      </c>
+      <c r="Q240" t="n">
+        <v>40</v>
+      </c>
+      <c r="R240" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="n">
+        <v>9</v>
+      </c>
+      <c r="B241" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C241" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D241" s="2" t="n">
+        <v>44376</v>
+      </c>
+      <c r="E241" t="n">
+        <v>13</v>
+      </c>
+      <c r="F241" t="n">
+        <v>100112013</v>
+      </c>
+      <c r="G241" t="inlineStr">
+        <is>
+          <t>Alcachofa</t>
+        </is>
+      </c>
+      <c r="H241" t="inlineStr">
+        <is>
+          <t>Española</t>
+        </is>
+      </c>
+      <c r="I241" t="inlineStr">
+        <is>
+          <t>Extra</t>
+        </is>
+      </c>
+      <c r="J241" t="n">
+        <v>16</v>
+      </c>
+      <c r="K241" t="n">
+        <v>21000</v>
+      </c>
+      <c r="L241" t="n">
+        <v>22000</v>
+      </c>
+      <c r="M241" t="n">
+        <v>21500</v>
+      </c>
+      <c r="N241" t="inlineStr">
+        <is>
+          <t>$/caja 25 unidades</t>
+        </is>
+      </c>
+      <c r="O241" t="inlineStr">
+        <is>
+          <t>Provincia del Elquí</t>
+        </is>
+      </c>
+      <c r="P241" t="n">
+        <v>21500</v>
+      </c>
+      <c r="Q241" t="n">
+        <v>1</v>
+      </c>
+      <c r="R241" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="n">
+        <v>9</v>
+      </c>
+      <c r="B242" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C242" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D242" s="2" t="n">
+        <v>44376</v>
+      </c>
+      <c r="E242" t="n">
+        <v>13</v>
+      </c>
+      <c r="F242" t="n">
+        <v>100112013</v>
+      </c>
+      <c r="G242" t="inlineStr">
+        <is>
+          <t>Alcachofa</t>
+        </is>
+      </c>
+      <c r="H242" t="inlineStr">
+        <is>
+          <t>Española</t>
+        </is>
+      </c>
+      <c r="I242" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J242" t="n">
+        <v>34</v>
+      </c>
+      <c r="K242" t="n">
+        <v>19000</v>
+      </c>
+      <c r="L242" t="n">
+        <v>20000</v>
+      </c>
+      <c r="M242" t="n">
+        <v>19500</v>
+      </c>
+      <c r="N242" t="inlineStr">
+        <is>
+          <t>$/caja 30 unidades</t>
+        </is>
+      </c>
+      <c r="O242" t="inlineStr">
+        <is>
+          <t>Provincia del Elquí</t>
+        </is>
+      </c>
+      <c r="P242" t="n">
+        <v>650</v>
+      </c>
+      <c r="Q242" t="n">
+        <v>30</v>
+      </c>
+      <c r="R242" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="n">
+        <v>9</v>
+      </c>
+      <c r="B243" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C243" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D243" s="2" t="n">
+        <v>44376</v>
+      </c>
+      <c r="E243" t="n">
+        <v>13</v>
+      </c>
+      <c r="F243" t="n">
+        <v>100112013</v>
+      </c>
+      <c r="G243" t="inlineStr">
+        <is>
+          <t>Alcachofa</t>
+        </is>
+      </c>
+      <c r="H243" t="inlineStr">
+        <is>
+          <t>Española</t>
+        </is>
+      </c>
+      <c r="I243" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="J243" t="n">
+        <v>25</v>
+      </c>
+      <c r="K243" t="n">
+        <v>16000</v>
+      </c>
+      <c r="L243" t="n">
+        <v>17000</v>
+      </c>
+      <c r="M243" t="n">
+        <v>16480</v>
+      </c>
+      <c r="N243" t="inlineStr">
+        <is>
+          <t>$/caja 40 unidades</t>
+        </is>
+      </c>
+      <c r="O243" t="inlineStr">
+        <is>
+          <t>Provincia del Elquí</t>
+        </is>
+      </c>
+      <c r="P243" t="n">
+        <v>412</v>
+      </c>
+      <c r="Q243" t="n">
+        <v>40</v>
+      </c>
+      <c r="R243" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="n">
+        <v>9</v>
+      </c>
+      <c r="B244" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C244" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D244" s="2" t="n">
+        <v>44334</v>
+      </c>
+      <c r="E244" t="n">
+        <v>13</v>
+      </c>
+      <c r="F244" t="n">
+        <v>100112013</v>
+      </c>
+      <c r="G244" t="inlineStr">
+        <is>
+          <t>Alcachofa</t>
+        </is>
+      </c>
+      <c r="H244" t="inlineStr">
+        <is>
+          <t>Argentina(o)</t>
+        </is>
+      </c>
+      <c r="I244" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J244" t="n">
+        <v>34</v>
+      </c>
+      <c r="K244" t="n">
+        <v>15000</v>
+      </c>
+      <c r="L244" t="n">
+        <v>16000</v>
+      </c>
+      <c r="M244" t="n">
+        <v>15500</v>
+      </c>
+      <c r="N244" t="inlineStr">
+        <is>
+          <t>$/caja 50 unidades</t>
+        </is>
+      </c>
+      <c r="O244" t="inlineStr">
+        <is>
+          <t>Provincia del Elquí</t>
+        </is>
+      </c>
+      <c r="P244" t="n">
+        <v>310</v>
+      </c>
+      <c r="Q244" t="n">
+        <v>50</v>
+      </c>
+      <c r="R244" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="n">
+        <v>9</v>
+      </c>
+      <c r="B245" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C245" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D245" s="2" t="n">
+        <v>44334</v>
+      </c>
+      <c r="E245" t="n">
+        <v>13</v>
+      </c>
+      <c r="F245" t="n">
+        <v>100112013</v>
+      </c>
+      <c r="G245" t="inlineStr">
+        <is>
+          <t>Alcachofa</t>
+        </is>
+      </c>
+      <c r="H245" t="inlineStr">
+        <is>
+          <t>Española</t>
+        </is>
+      </c>
+      <c r="I245" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J245" t="n">
+        <v>25</v>
+      </c>
+      <c r="K245" t="n">
+        <v>17000</v>
+      </c>
+      <c r="L245" t="n">
+        <v>18000</v>
+      </c>
+      <c r="M245" t="n">
+        <v>17480</v>
+      </c>
+      <c r="N245" t="inlineStr">
+        <is>
+          <t>$/caja 30 unidades</t>
+        </is>
+      </c>
+      <c r="O245" t="inlineStr">
+        <is>
+          <t>Provincia del Elquí</t>
+        </is>
+      </c>
+      <c r="P245" t="n">
+        <v>583</v>
+      </c>
+      <c r="Q245" t="n">
+        <v>30</v>
+      </c>
+      <c r="R245" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="n">
+        <v>9</v>
+      </c>
+      <c r="B246" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C246" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D246" s="2" t="n">
+        <v>44168</v>
+      </c>
+      <c r="E246" t="n">
+        <v>13</v>
+      </c>
+      <c r="F246" t="n">
+        <v>100112013</v>
+      </c>
+      <c r="G246" t="inlineStr">
+        <is>
+          <t>Alcachofa</t>
+        </is>
+      </c>
+      <c r="H246" t="inlineStr">
+        <is>
+          <t>Española</t>
+        </is>
+      </c>
+      <c r="I246" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J246" t="n">
+        <v>230</v>
+      </c>
+      <c r="K246" t="n">
+        <v>11000</v>
+      </c>
+      <c r="L246" t="n">
+        <v>11000</v>
+      </c>
+      <c r="M246" t="n">
+        <v>11000</v>
+      </c>
+      <c r="N246" t="inlineStr">
+        <is>
+          <t>$/caja 30 unidades</t>
+        </is>
+      </c>
+      <c r="O246" t="inlineStr">
+        <is>
+          <t>Región Metropolitana</t>
+        </is>
+      </c>
+      <c r="P246" t="n">
+        <v>367</v>
+      </c>
+      <c r="Q246" t="n">
+        <v>30</v>
+      </c>
+      <c r="R246" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="n">
+        <v>9</v>
+      </c>
+      <c r="B247" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C247" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D247" s="2" t="n">
         <v>44418</v>
       </c>
-      <c r="E231" t="n">
-        <v>13</v>
-      </c>
-      <c r="F231" t="n">
-        <v>100112013</v>
-      </c>
-      <c r="G231" t="inlineStr">
-        <is>
-          <t>Alcachofa</t>
-        </is>
-      </c>
-      <c r="H231" t="inlineStr">
-        <is>
-          <t>Española</t>
-        </is>
-      </c>
-      <c r="I231" t="inlineStr">
+      <c r="E247" t="n">
+        <v>13</v>
+      </c>
+      <c r="F247" t="n">
+        <v>100112013</v>
+      </c>
+      <c r="G247" t="inlineStr">
+        <is>
+          <t>Alcachofa</t>
+        </is>
+      </c>
+      <c r="H247" t="inlineStr">
+        <is>
+          <t>Española</t>
+        </is>
+      </c>
+      <c r="I247" t="inlineStr">
+        <is>
+          <t>Extra</t>
+        </is>
+      </c>
+      <c r="J247" t="n">
+        <v>25</v>
+      </c>
+      <c r="K247" t="n">
+        <v>16000</v>
+      </c>
+      <c r="L247" t="n">
+        <v>16000</v>
+      </c>
+      <c r="M247" t="n">
+        <v>16000</v>
+      </c>
+      <c r="N247" t="inlineStr">
+        <is>
+          <t>$/caja 25 unidades</t>
+        </is>
+      </c>
+      <c r="O247" t="inlineStr">
+        <is>
+          <t>Provincia del Elquí</t>
+        </is>
+      </c>
+      <c r="P247" t="n">
+        <v>16000</v>
+      </c>
+      <c r="Q247" t="n">
+        <v>1</v>
+      </c>
+      <c r="R247" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="n">
+        <v>9</v>
+      </c>
+      <c r="B248" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C248" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D248" s="2" t="n">
+        <v>44418</v>
+      </c>
+      <c r="E248" t="n">
+        <v>13</v>
+      </c>
+      <c r="F248" t="n">
+        <v>100112013</v>
+      </c>
+      <c r="G248" t="inlineStr">
+        <is>
+          <t>Alcachofa</t>
+        </is>
+      </c>
+      <c r="H248" t="inlineStr">
+        <is>
+          <t>Española</t>
+        </is>
+      </c>
+      <c r="I248" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J248" t="n">
+        <v>52</v>
+      </c>
+      <c r="K248" t="n">
+        <v>14000</v>
+      </c>
+      <c r="L248" t="n">
+        <v>15000</v>
+      </c>
+      <c r="M248" t="n">
+        <v>14500</v>
+      </c>
+      <c r="N248" t="inlineStr">
+        <is>
+          <t>$/caja 30 unidades</t>
+        </is>
+      </c>
+      <c r="O248" t="inlineStr">
+        <is>
+          <t>Provincia del Elquí</t>
+        </is>
+      </c>
+      <c r="P248" t="n">
+        <v>483</v>
+      </c>
+      <c r="Q248" t="n">
+        <v>30</v>
+      </c>
+      <c r="R248" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="n">
+        <v>9</v>
+      </c>
+      <c r="B249" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C249" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D249" s="2" t="n">
+        <v>44418</v>
+      </c>
+      <c r="E249" t="n">
+        <v>13</v>
+      </c>
+      <c r="F249" t="n">
+        <v>100112013</v>
+      </c>
+      <c r="G249" t="inlineStr">
+        <is>
+          <t>Alcachofa</t>
+        </is>
+      </c>
+      <c r="H249" t="inlineStr">
+        <is>
+          <t>Española</t>
+        </is>
+      </c>
+      <c r="I249" t="inlineStr">
         <is>
           <t>Segunda</t>
         </is>
       </c>
-      <c r="J231" t="n">
+      <c r="J249" t="n">
         <v>34</v>
       </c>
-      <c r="K231" t="n">
+      <c r="K249" t="n">
         <v>13000</v>
       </c>
-      <c r="L231" t="n">
+      <c r="L249" t="n">
         <v>13000</v>
       </c>
-      <c r="M231" t="n">
+      <c r="M249" t="n">
         <v>13000</v>
       </c>
-      <c r="N231" t="inlineStr">
+      <c r="N249" t="inlineStr">
         <is>
           <t>$/caja 40 unidades</t>
         </is>
       </c>
-      <c r="O231" t="inlineStr">
+      <c r="O249" t="inlineStr">
         <is>
           <t>Provincia del Elquí</t>
         </is>
       </c>
-      <c r="P231" t="n">
+      <c r="P249" t="n">
         <v>325</v>
       </c>
-      <c r="Q231" t="n">
+      <c r="Q249" t="n">
         <v>40</v>
       </c>
-      <c r="R231" t="inlineStr">
+      <c r="R249" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="n">
+        <v>9</v>
+      </c>
+      <c r="B250" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C250" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D250" s="2" t="n">
+        <v>44432</v>
+      </c>
+      <c r="E250" t="n">
+        <v>13</v>
+      </c>
+      <c r="F250" t="n">
+        <v>100112013</v>
+      </c>
+      <c r="G250" t="inlineStr">
+        <is>
+          <t>Alcachofa</t>
+        </is>
+      </c>
+      <c r="H250" t="inlineStr">
+        <is>
+          <t>Española</t>
+        </is>
+      </c>
+      <c r="I250" t="inlineStr">
+        <is>
+          <t>Extra</t>
+        </is>
+      </c>
+      <c r="J250" t="n">
+        <v>16</v>
+      </c>
+      <c r="K250" t="n">
+        <v>16000</v>
+      </c>
+      <c r="L250" t="n">
+        <v>17000</v>
+      </c>
+      <c r="M250" t="n">
+        <v>16500</v>
+      </c>
+      <c r="N250" t="inlineStr">
+        <is>
+          <t>$/caja 25 unidades</t>
+        </is>
+      </c>
+      <c r="O250" t="inlineStr">
+        <is>
+          <t>Provincia del Elquí</t>
+        </is>
+      </c>
+      <c r="P250" t="n">
+        <v>16500</v>
+      </c>
+      <c r="Q250" t="n">
+        <v>1</v>
+      </c>
+      <c r="R250" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="n">
+        <v>9</v>
+      </c>
+      <c r="B251" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C251" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D251" s="2" t="n">
+        <v>44432</v>
+      </c>
+      <c r="E251" t="n">
+        <v>13</v>
+      </c>
+      <c r="F251" t="n">
+        <v>100112013</v>
+      </c>
+      <c r="G251" t="inlineStr">
+        <is>
+          <t>Alcachofa</t>
+        </is>
+      </c>
+      <c r="H251" t="inlineStr">
+        <is>
+          <t>Española</t>
+        </is>
+      </c>
+      <c r="I251" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J251" t="n">
+        <v>52</v>
+      </c>
+      <c r="K251" t="n">
+        <v>14000</v>
+      </c>
+      <c r="L251" t="n">
+        <v>15000</v>
+      </c>
+      <c r="M251" t="n">
+        <v>14500</v>
+      </c>
+      <c r="N251" t="inlineStr">
+        <is>
+          <t>$/caja 30 unidades</t>
+        </is>
+      </c>
+      <c r="O251" t="inlineStr">
+        <is>
+          <t>Provincia del Elquí</t>
+        </is>
+      </c>
+      <c r="P251" t="n">
+        <v>483</v>
+      </c>
+      <c r="Q251" t="n">
+        <v>30</v>
+      </c>
+      <c r="R251" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="n">
+        <v>9</v>
+      </c>
+      <c r="B252" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C252" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D252" s="2" t="n">
+        <v>44432</v>
+      </c>
+      <c r="E252" t="n">
+        <v>13</v>
+      </c>
+      <c r="F252" t="n">
+        <v>100112013</v>
+      </c>
+      <c r="G252" t="inlineStr">
+        <is>
+          <t>Alcachofa</t>
+        </is>
+      </c>
+      <c r="H252" t="inlineStr">
+        <is>
+          <t>Española</t>
+        </is>
+      </c>
+      <c r="I252" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="J252" t="n">
+        <v>34</v>
+      </c>
+      <c r="K252" t="n">
+        <v>12000</v>
+      </c>
+      <c r="L252" t="n">
+        <v>13000</v>
+      </c>
+      <c r="M252" t="n">
+        <v>12500</v>
+      </c>
+      <c r="N252" t="inlineStr">
+        <is>
+          <t>$/caja 40 unidades</t>
+        </is>
+      </c>
+      <c r="O252" t="inlineStr">
+        <is>
+          <t>Provincia del Elquí</t>
+        </is>
+      </c>
+      <c r="P252" t="n">
+        <v>312</v>
+      </c>
+      <c r="Q252" t="n">
+        <v>40</v>
+      </c>
+      <c r="R252" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="n">
+        <v>9</v>
+      </c>
+      <c r="B253" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C253" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D253" s="2" t="n">
+        <v>44432</v>
+      </c>
+      <c r="E253" t="n">
+        <v>13</v>
+      </c>
+      <c r="F253" t="n">
+        <v>100112013</v>
+      </c>
+      <c r="G253" t="inlineStr">
+        <is>
+          <t>Alcachofa</t>
+        </is>
+      </c>
+      <c r="H253" t="inlineStr">
+        <is>
+          <t>Madrigal</t>
+        </is>
+      </c>
+      <c r="I253" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J253" t="n">
+        <v>34</v>
+      </c>
+      <c r="K253" t="n">
+        <v>14000</v>
+      </c>
+      <c r="L253" t="n">
+        <v>15000</v>
+      </c>
+      <c r="M253" t="n">
+        <v>14500</v>
+      </c>
+      <c r="N253" t="inlineStr">
+        <is>
+          <t>$/caja 40 unidades</t>
+        </is>
+      </c>
+      <c r="O253" t="inlineStr">
+        <is>
+          <t>Provincia del Elquí</t>
+        </is>
+      </c>
+      <c r="P253" t="n">
+        <v>362</v>
+      </c>
+      <c r="Q253" t="n">
+        <v>40</v>
+      </c>
+      <c r="R253" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="n">
+        <v>9</v>
+      </c>
+      <c r="B254" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C254" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D254" s="2" t="n">
+        <v>44432</v>
+      </c>
+      <c r="E254" t="n">
+        <v>13</v>
+      </c>
+      <c r="F254" t="n">
+        <v>100112013</v>
+      </c>
+      <c r="G254" t="inlineStr">
+        <is>
+          <t>Alcachofa</t>
+        </is>
+      </c>
+      <c r="H254" t="inlineStr">
+        <is>
+          <t>Madrigal</t>
+        </is>
+      </c>
+      <c r="I254" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="J254" t="n">
+        <v>16</v>
+      </c>
+      <c r="K254" t="n">
+        <v>12000</v>
+      </c>
+      <c r="L254" t="n">
+        <v>13000</v>
+      </c>
+      <c r="M254" t="n">
+        <v>12500</v>
+      </c>
+      <c r="N254" t="inlineStr">
+        <is>
+          <t>$/caja 50 unidades</t>
+        </is>
+      </c>
+      <c r="O254" t="inlineStr">
+        <is>
+          <t>Provincia del Elquí</t>
+        </is>
+      </c>
+      <c r="P254" t="n">
+        <v>250</v>
+      </c>
+      <c r="Q254" t="n">
+        <v>50</v>
+      </c>
+      <c r="R254" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Central Mapocho de Santiago - Alcachofa.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Central Mapocho de Santiago - Alcachofa.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R254"/>
+  <dimension ref="A1:R257"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -12645,7 +12645,7 @@
         </is>
       </c>
       <c r="D171" s="2" t="n">
-        <v>44327</v>
+        <v>44438</v>
       </c>
       <c r="E171" t="n">
         <v>13</v>
@@ -12660,41 +12660,41 @@
       </c>
       <c r="H171" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I171" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J171" t="n">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="K171" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="L171" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="M171" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="N171" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 25 unidades</t>
         </is>
       </c>
       <c r="O171" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P171" t="n">
-        <v>320</v>
+        <v>15000</v>
       </c>
       <c r="Q171" t="n">
-        <v>50</v>
+        <v>1</v>
       </c>
       <c r="R171" t="inlineStr">
         <is>
@@ -12717,7 +12717,7 @@
         </is>
       </c>
       <c r="D172" s="2" t="n">
-        <v>44327</v>
+        <v>44438</v>
       </c>
       <c r="E172" t="n">
         <v>13</v>
@@ -12741,16 +12741,16 @@
         </is>
       </c>
       <c r="J172" t="n">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="K172" t="n">
-        <v>18000</v>
+        <v>13000</v>
       </c>
       <c r="L172" t="n">
-        <v>18000</v>
+        <v>14000</v>
       </c>
       <c r="M172" t="n">
-        <v>18000</v>
+        <v>13500</v>
       </c>
       <c r="N172" t="inlineStr">
         <is>
@@ -12759,11 +12759,11 @@
       </c>
       <c r="O172" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P172" t="n">
-        <v>600</v>
+        <v>450</v>
       </c>
       <c r="Q172" t="n">
         <v>30</v>
@@ -12789,7 +12789,7 @@
         </is>
       </c>
       <c r="D173" s="2" t="n">
-        <v>44313</v>
+        <v>44438</v>
       </c>
       <c r="E173" t="n">
         <v>13</v>
@@ -12809,36 +12809,36 @@
       </c>
       <c r="I173" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J173" t="n">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="K173" t="n">
-        <v>20000</v>
+        <v>11000</v>
       </c>
       <c r="L173" t="n">
-        <v>20000</v>
+        <v>12000</v>
       </c>
       <c r="M173" t="n">
-        <v>20000</v>
+        <v>11480</v>
       </c>
       <c r="N173" t="inlineStr">
         <is>
-          <t>$/caja 25 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O173" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P173" t="n">
-        <v>20000</v>
+        <v>287</v>
       </c>
       <c r="Q173" t="n">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="R173" t="inlineStr">
         <is>
@@ -12861,7 +12861,7 @@
         </is>
       </c>
       <c r="D174" s="2" t="n">
-        <v>44313</v>
+        <v>44327</v>
       </c>
       <c r="E174" t="n">
         <v>13</v>
@@ -12876,7 +12876,7 @@
       </c>
       <c r="H174" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I174" t="inlineStr">
@@ -12888,17 +12888,17 @@
         <v>25</v>
       </c>
       <c r="K174" t="n">
-        <v>17000</v>
+        <v>16000</v>
       </c>
       <c r="L174" t="n">
-        <v>17000</v>
+        <v>16000</v>
       </c>
       <c r="M174" t="n">
-        <v>17000</v>
+        <v>16000</v>
       </c>
       <c r="N174" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O174" t="inlineStr">
@@ -12907,10 +12907,10 @@
         </is>
       </c>
       <c r="P174" t="n">
-        <v>567</v>
+        <v>320</v>
       </c>
       <c r="Q174" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R174" t="inlineStr">
         <is>
@@ -12933,7 +12933,7 @@
         </is>
       </c>
       <c r="D175" s="2" t="n">
-        <v>44330</v>
+        <v>44327</v>
       </c>
       <c r="E175" t="n">
         <v>13</v>
@@ -12948,7 +12948,7 @@
       </c>
       <c r="H175" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I175" t="inlineStr">
@@ -12957,32 +12957,32 @@
         </is>
       </c>
       <c r="J175" t="n">
-        <v>25</v>
+        <v>43</v>
       </c>
       <c r="K175" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="L175" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="M175" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="N175" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O175" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P175" t="n">
-        <v>320</v>
+        <v>600</v>
       </c>
       <c r="Q175" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R175" t="inlineStr">
         <is>
@@ -13005,7 +13005,7 @@
         </is>
       </c>
       <c r="D176" s="2" t="n">
-        <v>44330</v>
+        <v>44313</v>
       </c>
       <c r="E176" t="n">
         <v>13</v>
@@ -13020,41 +13020,41 @@
       </c>
       <c r="H176" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I176" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J176" t="n">
-        <v>52</v>
+        <v>16</v>
       </c>
       <c r="K176" t="n">
-        <v>14000</v>
+        <v>20000</v>
       </c>
       <c r="L176" t="n">
-        <v>14000</v>
+        <v>20000</v>
       </c>
       <c r="M176" t="n">
-        <v>14000</v>
+        <v>20000</v>
       </c>
       <c r="N176" t="inlineStr">
         <is>
-          <t>$/caja 60 unidades</t>
+          <t>$/caja 25 unidades</t>
         </is>
       </c>
       <c r="O176" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P176" t="n">
-        <v>233</v>
+        <v>20000</v>
       </c>
       <c r="Q176" t="n">
-        <v>60</v>
+        <v>1</v>
       </c>
       <c r="R176" t="inlineStr">
         <is>
@@ -13077,7 +13077,7 @@
         </is>
       </c>
       <c r="D177" s="2" t="n">
-        <v>44330</v>
+        <v>44313</v>
       </c>
       <c r="E177" t="n">
         <v>13</v>
@@ -13101,16 +13101,16 @@
         </is>
       </c>
       <c r="J177" t="n">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="K177" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="L177" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="M177" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="N177" t="inlineStr">
         <is>
@@ -13119,11 +13119,11 @@
       </c>
       <c r="O177" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P177" t="n">
-        <v>533</v>
+        <v>567</v>
       </c>
       <c r="Q177" t="n">
         <v>30</v>
@@ -13164,7 +13164,7 @@
       </c>
       <c r="H178" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I178" t="inlineStr">
@@ -13173,20 +13173,20 @@
         </is>
       </c>
       <c r="J178" t="n">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="K178" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="L178" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="M178" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="N178" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O178" t="inlineStr">
@@ -13195,10 +13195,10 @@
         </is>
       </c>
       <c r="P178" t="n">
-        <v>350</v>
+        <v>320</v>
       </c>
       <c r="Q178" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="R178" t="inlineStr">
         <is>
@@ -13221,7 +13221,7 @@
         </is>
       </c>
       <c r="D179" s="2" t="n">
-        <v>44391</v>
+        <v>44330</v>
       </c>
       <c r="E179" t="n">
         <v>13</v>
@@ -13236,41 +13236,41 @@
       </c>
       <c r="H179" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I179" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J179" t="n">
-        <v>16</v>
+        <v>52</v>
       </c>
       <c r="K179" t="n">
-        <v>17000</v>
+        <v>14000</v>
       </c>
       <c r="L179" t="n">
-        <v>18000</v>
+        <v>14000</v>
       </c>
       <c r="M179" t="n">
-        <v>17500</v>
+        <v>14000</v>
       </c>
       <c r="N179" t="inlineStr">
         <is>
-          <t>$/caja 25 unidades</t>
+          <t>$/caja 60 unidades</t>
         </is>
       </c>
       <c r="O179" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P179" t="n">
-        <v>17500</v>
+        <v>233</v>
       </c>
       <c r="Q179" t="n">
-        <v>1</v>
+        <v>60</v>
       </c>
       <c r="R179" t="inlineStr">
         <is>
@@ -13293,7 +13293,7 @@
         </is>
       </c>
       <c r="D180" s="2" t="n">
-        <v>44391</v>
+        <v>44330</v>
       </c>
       <c r="E180" t="n">
         <v>13</v>
@@ -13317,16 +13317,16 @@
         </is>
       </c>
       <c r="J180" t="n">
-        <v>43</v>
+        <v>16</v>
       </c>
       <c r="K180" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="L180" t="n">
         <v>16000</v>
       </c>
       <c r="M180" t="n">
-        <v>15488</v>
+        <v>16000</v>
       </c>
       <c r="N180" t="inlineStr">
         <is>
@@ -13335,11 +13335,11 @@
       </c>
       <c r="O180" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P180" t="n">
-        <v>516</v>
+        <v>533</v>
       </c>
       <c r="Q180" t="n">
         <v>30</v>
@@ -13365,7 +13365,7 @@
         </is>
       </c>
       <c r="D181" s="2" t="n">
-        <v>44391</v>
+        <v>44330</v>
       </c>
       <c r="E181" t="n">
         <v>13</v>
@@ -13385,20 +13385,20 @@
       </c>
       <c r="I181" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J181" t="n">
         <v>34</v>
       </c>
       <c r="K181" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="L181" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="M181" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="N181" t="inlineStr">
         <is>
@@ -13407,11 +13407,11 @@
       </c>
       <c r="O181" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P181" t="n">
-        <v>325</v>
+        <v>350</v>
       </c>
       <c r="Q181" t="n">
         <v>40</v>
@@ -13437,7 +13437,7 @@
         </is>
       </c>
       <c r="D182" s="2" t="n">
-        <v>44351</v>
+        <v>44391</v>
       </c>
       <c r="E182" t="n">
         <v>13</v>
@@ -13452,41 +13452,41 @@
       </c>
       <c r="H182" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I182" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J182" t="n">
-        <v>43</v>
+        <v>16</v>
       </c>
       <c r="K182" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="L182" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="M182" t="n">
-        <v>16512</v>
+        <v>17500</v>
       </c>
       <c r="N182" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 25 unidades</t>
         </is>
       </c>
       <c r="O182" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P182" t="n">
-        <v>330</v>
+        <v>17500</v>
       </c>
       <c r="Q182" t="n">
-        <v>50</v>
+        <v>1</v>
       </c>
       <c r="R182" t="inlineStr">
         <is>
@@ -13509,7 +13509,7 @@
         </is>
       </c>
       <c r="D183" s="2" t="n">
-        <v>44351</v>
+        <v>44391</v>
       </c>
       <c r="E183" t="n">
         <v>13</v>
@@ -13524,41 +13524,41 @@
       </c>
       <c r="H183" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I183" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J183" t="n">
-        <v>21</v>
+        <v>43</v>
       </c>
       <c r="K183" t="n">
         <v>15000</v>
       </c>
       <c r="L183" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="M183" t="n">
-        <v>15000</v>
+        <v>15488</v>
       </c>
       <c r="N183" t="inlineStr">
         <is>
-          <t>$/caja 70 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O183" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P183" t="n">
-        <v>214</v>
+        <v>516</v>
       </c>
       <c r="Q183" t="n">
-        <v>70</v>
+        <v>30</v>
       </c>
       <c r="R183" t="inlineStr">
         <is>
@@ -13581,7 +13581,7 @@
         </is>
       </c>
       <c r="D184" s="2" t="n">
-        <v>44351</v>
+        <v>44391</v>
       </c>
       <c r="E184" t="n">
         <v>13</v>
@@ -13601,24 +13601,24 @@
       </c>
       <c r="I184" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J184" t="n">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="K184" t="n">
-        <v>20000</v>
+        <v>13000</v>
       </c>
       <c r="L184" t="n">
-        <v>20000</v>
+        <v>13000</v>
       </c>
       <c r="M184" t="n">
-        <v>20000</v>
+        <v>13000</v>
       </c>
       <c r="N184" t="inlineStr">
         <is>
-          <t>$/caja 25 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O184" t="inlineStr">
@@ -13627,10 +13627,10 @@
         </is>
       </c>
       <c r="P184" t="n">
-        <v>20000</v>
+        <v>325</v>
       </c>
       <c r="Q184" t="n">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="R184" t="inlineStr">
         <is>
@@ -13668,7 +13668,7 @@
       </c>
       <c r="H185" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I185" t="inlineStr">
@@ -13677,32 +13677,32 @@
         </is>
       </c>
       <c r="J185" t="n">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="K185" t="n">
+        <v>16000</v>
+      </c>
+      <c r="L185" t="n">
         <v>17000</v>
       </c>
-      <c r="L185" t="n">
-        <v>18000</v>
-      </c>
       <c r="M185" t="n">
-        <v>17500</v>
+        <v>16512</v>
       </c>
       <c r="N185" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O185" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P185" t="n">
-        <v>583</v>
+        <v>330</v>
       </c>
       <c r="Q185" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R185" t="inlineStr">
         <is>
@@ -13740,7 +13740,7 @@
       </c>
       <c r="H186" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I186" t="inlineStr">
@@ -13749,7 +13749,7 @@
         </is>
       </c>
       <c r="J186" t="n">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="K186" t="n">
         <v>15000</v>
@@ -13762,19 +13762,19 @@
       </c>
       <c r="N186" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 70 unidades</t>
         </is>
       </c>
       <c r="O186" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P186" t="n">
-        <v>375</v>
+        <v>214</v>
       </c>
       <c r="Q186" t="n">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="R186" t="inlineStr">
         <is>
@@ -13797,7 +13797,7 @@
         </is>
       </c>
       <c r="D187" s="2" t="n">
-        <v>44350</v>
+        <v>44351</v>
       </c>
       <c r="E187" t="n">
         <v>13</v>
@@ -13812,29 +13812,29 @@
       </c>
       <c r="H187" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I187" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J187" t="n">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="K187" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="L187" t="n">
-        <v>16000</v>
+        <v>20000</v>
       </c>
       <c r="M187" t="n">
-        <v>15500</v>
+        <v>20000</v>
       </c>
       <c r="N187" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 25 unidades</t>
         </is>
       </c>
       <c r="O187" t="inlineStr">
@@ -13843,10 +13843,10 @@
         </is>
       </c>
       <c r="P187" t="n">
-        <v>310</v>
+        <v>20000</v>
       </c>
       <c r="Q187" t="n">
-        <v>50</v>
+        <v>1</v>
       </c>
       <c r="R187" t="inlineStr">
         <is>
@@ -13869,7 +13869,7 @@
         </is>
       </c>
       <c r="D188" s="2" t="n">
-        <v>44350</v>
+        <v>44351</v>
       </c>
       <c r="E188" t="n">
         <v>13</v>
@@ -13884,29 +13884,29 @@
       </c>
       <c r="H188" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I188" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J188" t="n">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="K188" t="n">
-        <v>13000</v>
+        <v>17000</v>
       </c>
       <c r="L188" t="n">
-        <v>13000</v>
+        <v>18000</v>
       </c>
       <c r="M188" t="n">
-        <v>13000</v>
+        <v>17500</v>
       </c>
       <c r="N188" t="inlineStr">
         <is>
-          <t>$/caja 70 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O188" t="inlineStr">
@@ -13915,10 +13915,10 @@
         </is>
       </c>
       <c r="P188" t="n">
-        <v>186</v>
+        <v>583</v>
       </c>
       <c r="Q188" t="n">
-        <v>70</v>
+        <v>30</v>
       </c>
       <c r="R188" t="inlineStr">
         <is>
@@ -13941,7 +13941,7 @@
         </is>
       </c>
       <c r="D189" s="2" t="n">
-        <v>44350</v>
+        <v>44351</v>
       </c>
       <c r="E189" t="n">
         <v>13</v>
@@ -13961,36 +13961,36 @@
       </c>
       <c r="I189" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J189" t="n">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="K189" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="L189" t="n">
-        <v>19000</v>
+        <v>15000</v>
       </c>
       <c r="M189" t="n">
-        <v>18500</v>
+        <v>15000</v>
       </c>
       <c r="N189" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O189" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P189" t="n">
-        <v>617</v>
+        <v>375</v>
       </c>
       <c r="Q189" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="R189" t="inlineStr">
         <is>
@@ -14028,41 +14028,41 @@
       </c>
       <c r="H190" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I190" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J190" t="n">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="K190" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="L190" t="n">
         <v>16000</v>
       </c>
       <c r="M190" t="n">
-        <v>16000</v>
+        <v>15500</v>
       </c>
       <c r="N190" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O190" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P190" t="n">
-        <v>400</v>
+        <v>310</v>
       </c>
       <c r="Q190" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="R190" t="inlineStr">
         <is>
@@ -14085,7 +14085,7 @@
         </is>
       </c>
       <c r="D191" s="2" t="n">
-        <v>44315</v>
+        <v>44350</v>
       </c>
       <c r="E191" t="n">
         <v>13</v>
@@ -14100,41 +14100,41 @@
       </c>
       <c r="H191" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I191" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J191" t="n">
         <v>16</v>
       </c>
       <c r="K191" t="n">
-        <v>19000</v>
+        <v>13000</v>
       </c>
       <c r="L191" t="n">
-        <v>19000</v>
+        <v>13000</v>
       </c>
       <c r="M191" t="n">
-        <v>19000</v>
+        <v>13000</v>
       </c>
       <c r="N191" t="inlineStr">
         <is>
-          <t>$/caja 25 unidades</t>
+          <t>$/caja 70 unidades</t>
         </is>
       </c>
       <c r="O191" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P191" t="n">
-        <v>19000</v>
+        <v>186</v>
       </c>
       <c r="Q191" t="n">
-        <v>1</v>
+        <v>70</v>
       </c>
       <c r="R191" t="inlineStr">
         <is>
@@ -14157,7 +14157,7 @@
         </is>
       </c>
       <c r="D192" s="2" t="n">
-        <v>44315</v>
+        <v>44350</v>
       </c>
       <c r="E192" t="n">
         <v>13</v>
@@ -14181,16 +14181,16 @@
         </is>
       </c>
       <c r="J192" t="n">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="K192" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="L192" t="n">
-        <v>17000</v>
+        <v>19000</v>
       </c>
       <c r="M192" t="n">
-        <v>17000</v>
+        <v>18500</v>
       </c>
       <c r="N192" t="inlineStr">
         <is>
@@ -14203,7 +14203,7 @@
         </is>
       </c>
       <c r="P192" t="n">
-        <v>567</v>
+        <v>617</v>
       </c>
       <c r="Q192" t="n">
         <v>30</v>
@@ -14229,7 +14229,7 @@
         </is>
       </c>
       <c r="D193" s="2" t="n">
-        <v>44358</v>
+        <v>44350</v>
       </c>
       <c r="E193" t="n">
         <v>13</v>
@@ -14244,41 +14244,41 @@
       </c>
       <c r="H193" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I193" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J193" t="n">
-        <v>52</v>
+        <v>15</v>
       </c>
       <c r="K193" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="L193" t="n">
         <v>16000</v>
       </c>
       <c r="M193" t="n">
-        <v>15500</v>
+        <v>16000</v>
       </c>
       <c r="N193" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O193" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P193" t="n">
-        <v>310</v>
+        <v>400</v>
       </c>
       <c r="Q193" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="R193" t="inlineStr">
         <is>
@@ -14301,7 +14301,7 @@
         </is>
       </c>
       <c r="D194" s="2" t="n">
-        <v>44358</v>
+        <v>44315</v>
       </c>
       <c r="E194" t="n">
         <v>13</v>
@@ -14316,41 +14316,41 @@
       </c>
       <c r="H194" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I194" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J194" t="n">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="K194" t="n">
-        <v>14000</v>
+        <v>19000</v>
       </c>
       <c r="L194" t="n">
-        <v>14000</v>
+        <v>19000</v>
       </c>
       <c r="M194" t="n">
-        <v>14000</v>
+        <v>19000</v>
       </c>
       <c r="N194" t="inlineStr">
         <is>
-          <t>$/caja 70 unidades</t>
+          <t>$/caja 25 unidades</t>
         </is>
       </c>
       <c r="O194" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P194" t="n">
-        <v>200</v>
+        <v>19000</v>
       </c>
       <c r="Q194" t="n">
-        <v>70</v>
+        <v>1</v>
       </c>
       <c r="R194" t="inlineStr">
         <is>
@@ -14373,7 +14373,7 @@
         </is>
       </c>
       <c r="D195" s="2" t="n">
-        <v>44358</v>
+        <v>44315</v>
       </c>
       <c r="E195" t="n">
         <v>13</v>
@@ -14393,24 +14393,24 @@
       </c>
       <c r="I195" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J195" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="K195" t="n">
-        <v>18000</v>
+        <v>17000</v>
       </c>
       <c r="L195" t="n">
-        <v>19000</v>
+        <v>17000</v>
       </c>
       <c r="M195" t="n">
-        <v>18500</v>
+        <v>17000</v>
       </c>
       <c r="N195" t="inlineStr">
         <is>
-          <t>$/caja 25 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O195" t="inlineStr">
@@ -14419,10 +14419,10 @@
         </is>
       </c>
       <c r="P195" t="n">
-        <v>18500</v>
+        <v>567</v>
       </c>
       <c r="Q195" t="n">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="R195" t="inlineStr">
         <is>
@@ -14460,7 +14460,7 @@
       </c>
       <c r="H196" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I196" t="inlineStr">
@@ -14469,7 +14469,7 @@
         </is>
       </c>
       <c r="J196" t="n">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="K196" t="n">
         <v>15000</v>
@@ -14478,23 +14478,23 @@
         <v>16000</v>
       </c>
       <c r="M196" t="n">
-        <v>15488</v>
+        <v>15500</v>
       </c>
       <c r="N196" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O196" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P196" t="n">
-        <v>516</v>
+        <v>310</v>
       </c>
       <c r="Q196" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R196" t="inlineStr">
         <is>
@@ -14532,7 +14532,7 @@
       </c>
       <c r="H197" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I197" t="inlineStr">
@@ -14541,7 +14541,7 @@
         </is>
       </c>
       <c r="J197" t="n">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="K197" t="n">
         <v>14000</v>
@@ -14554,19 +14554,19 @@
       </c>
       <c r="N197" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 70 unidades</t>
         </is>
       </c>
       <c r="O197" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P197" t="n">
-        <v>350</v>
+        <v>200</v>
       </c>
       <c r="Q197" t="n">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="R197" t="inlineStr">
         <is>
@@ -14589,7 +14589,7 @@
         </is>
       </c>
       <c r="D198" s="2" t="n">
-        <v>44399</v>
+        <v>44358</v>
       </c>
       <c r="E198" t="n">
         <v>13</v>
@@ -14613,7 +14613,7 @@
         </is>
       </c>
       <c r="J198" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="K198" t="n">
         <v>18000</v>
@@ -14631,7 +14631,7 @@
       </c>
       <c r="O198" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P198" t="n">
@@ -14661,7 +14661,7 @@
         </is>
       </c>
       <c r="D199" s="2" t="n">
-        <v>44399</v>
+        <v>44358</v>
       </c>
       <c r="E199" t="n">
         <v>13</v>
@@ -14685,16 +14685,16 @@
         </is>
       </c>
       <c r="J199" t="n">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="K199" t="n">
+        <v>15000</v>
+      </c>
+      <c r="L199" t="n">
         <v>16000</v>
       </c>
-      <c r="L199" t="n">
-        <v>17000</v>
-      </c>
       <c r="M199" t="n">
-        <v>16500</v>
+        <v>15488</v>
       </c>
       <c r="N199" t="inlineStr">
         <is>
@@ -14703,11 +14703,11 @@
       </c>
       <c r="O199" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P199" t="n">
-        <v>550</v>
+        <v>516</v>
       </c>
       <c r="Q199" t="n">
         <v>30</v>
@@ -14733,7 +14733,7 @@
         </is>
       </c>
       <c r="D200" s="2" t="n">
-        <v>44399</v>
+        <v>44358</v>
       </c>
       <c r="E200" t="n">
         <v>13</v>
@@ -14763,10 +14763,10 @@
         <v>14000</v>
       </c>
       <c r="L200" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="M200" t="n">
-        <v>14480</v>
+        <v>14000</v>
       </c>
       <c r="N200" t="inlineStr">
         <is>
@@ -14775,11 +14775,11 @@
       </c>
       <c r="O200" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P200" t="n">
-        <v>362</v>
+        <v>350</v>
       </c>
       <c r="Q200" t="n">
         <v>40</v>
@@ -14805,7 +14805,7 @@
         </is>
       </c>
       <c r="D201" s="2" t="n">
-        <v>44292</v>
+        <v>44399</v>
       </c>
       <c r="E201" t="n">
         <v>13</v>
@@ -14825,36 +14825,36 @@
       </c>
       <c r="I201" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J201" t="n">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="K201" t="n">
         <v>18000</v>
       </c>
       <c r="L201" t="n">
-        <v>18000</v>
+        <v>19000</v>
       </c>
       <c r="M201" t="n">
-        <v>18000</v>
+        <v>18500</v>
       </c>
       <c r="N201" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 25 unidades</t>
         </is>
       </c>
       <c r="O201" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P201" t="n">
-        <v>600</v>
+        <v>18500</v>
       </c>
       <c r="Q201" t="n">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="R201" t="inlineStr">
         <is>
@@ -14877,7 +14877,7 @@
         </is>
       </c>
       <c r="D202" s="2" t="n">
-        <v>44294</v>
+        <v>44399</v>
       </c>
       <c r="E202" t="n">
         <v>13</v>
@@ -14901,16 +14901,16 @@
         </is>
       </c>
       <c r="J202" t="n">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="K202" t="n">
+        <v>16000</v>
+      </c>
+      <c r="L202" t="n">
         <v>17000</v>
       </c>
-      <c r="L202" t="n">
-        <v>18000</v>
-      </c>
       <c r="M202" t="n">
-        <v>17481</v>
+        <v>16500</v>
       </c>
       <c r="N202" t="inlineStr">
         <is>
@@ -14919,11 +14919,11 @@
       </c>
       <c r="O202" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P202" t="n">
-        <v>583</v>
+        <v>550</v>
       </c>
       <c r="Q202" t="n">
         <v>30</v>
@@ -14949,7 +14949,7 @@
         </is>
       </c>
       <c r="D203" s="2" t="n">
-        <v>44417</v>
+        <v>44399</v>
       </c>
       <c r="E203" t="n">
         <v>13</v>
@@ -14969,36 +14969,36 @@
       </c>
       <c r="I203" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J203" t="n">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="K203" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="L203" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="M203" t="n">
-        <v>16000</v>
+        <v>14480</v>
       </c>
       <c r="N203" t="inlineStr">
         <is>
-          <t>$/caja 25 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O203" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P203" t="n">
-        <v>16000</v>
+        <v>362</v>
       </c>
       <c r="Q203" t="n">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="R203" t="inlineStr">
         <is>
@@ -15021,7 +15021,7 @@
         </is>
       </c>
       <c r="D204" s="2" t="n">
-        <v>44417</v>
+        <v>44292</v>
       </c>
       <c r="E204" t="n">
         <v>13</v>
@@ -15045,16 +15045,16 @@
         </is>
       </c>
       <c r="J204" t="n">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="K204" t="n">
-        <v>14000</v>
+        <v>18000</v>
       </c>
       <c r="L204" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="M204" t="n">
-        <v>14500</v>
+        <v>18000</v>
       </c>
       <c r="N204" t="inlineStr">
         <is>
@@ -15067,7 +15067,7 @@
         </is>
       </c>
       <c r="P204" t="n">
-        <v>483</v>
+        <v>600</v>
       </c>
       <c r="Q204" t="n">
         <v>30</v>
@@ -15093,7 +15093,7 @@
         </is>
       </c>
       <c r="D205" s="2" t="n">
-        <v>44417</v>
+        <v>44294</v>
       </c>
       <c r="E205" t="n">
         <v>13</v>
@@ -15113,24 +15113,24 @@
       </c>
       <c r="I205" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J205" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="K205" t="n">
-        <v>12000</v>
+        <v>17000</v>
       </c>
       <c r="L205" t="n">
-        <v>12000</v>
+        <v>18000</v>
       </c>
       <c r="M205" t="n">
-        <v>12000</v>
+        <v>17481</v>
       </c>
       <c r="N205" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O205" t="inlineStr">
@@ -15139,10 +15139,10 @@
         </is>
       </c>
       <c r="P205" t="n">
-        <v>300</v>
+        <v>583</v>
       </c>
       <c r="Q205" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="R205" t="inlineStr">
         <is>
@@ -15165,7 +15165,7 @@
         </is>
       </c>
       <c r="D206" s="2" t="n">
-        <v>44419</v>
+        <v>44417</v>
       </c>
       <c r="E206" t="n">
         <v>13</v>
@@ -15207,7 +15207,7 @@
       </c>
       <c r="O206" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P206" t="n">
@@ -15237,7 +15237,7 @@
         </is>
       </c>
       <c r="D207" s="2" t="n">
-        <v>44419</v>
+        <v>44417</v>
       </c>
       <c r="E207" t="n">
         <v>13</v>
@@ -15261,7 +15261,7 @@
         </is>
       </c>
       <c r="J207" t="n">
-        <v>61</v>
+        <v>34</v>
       </c>
       <c r="K207" t="n">
         <v>14000</v>
@@ -15270,7 +15270,7 @@
         <v>15000</v>
       </c>
       <c r="M207" t="n">
-        <v>14492</v>
+        <v>14500</v>
       </c>
       <c r="N207" t="inlineStr">
         <is>
@@ -15279,7 +15279,7 @@
       </c>
       <c r="O207" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P207" t="n">
@@ -15309,7 +15309,7 @@
         </is>
       </c>
       <c r="D208" s="2" t="n">
-        <v>44419</v>
+        <v>44417</v>
       </c>
       <c r="E208" t="n">
         <v>13</v>
@@ -15333,16 +15333,16 @@
         </is>
       </c>
       <c r="J208" t="n">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="K208" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="L208" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="M208" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="N208" t="inlineStr">
         <is>
@@ -15351,11 +15351,11 @@
       </c>
       <c r="O208" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P208" t="n">
-        <v>325</v>
+        <v>300</v>
       </c>
       <c r="Q208" t="n">
         <v>40</v>
@@ -15381,7 +15381,7 @@
         </is>
       </c>
       <c r="D209" s="2" t="n">
-        <v>44420</v>
+        <v>44419</v>
       </c>
       <c r="E209" t="n">
         <v>13</v>
@@ -15405,7 +15405,7 @@
         </is>
       </c>
       <c r="J209" t="n">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="K209" t="n">
         <v>16000</v>
@@ -15423,7 +15423,7 @@
       </c>
       <c r="O209" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P209" t="n">
@@ -15453,7 +15453,7 @@
         </is>
       </c>
       <c r="D210" s="2" t="n">
-        <v>44420</v>
+        <v>44419</v>
       </c>
       <c r="E210" t="n">
         <v>13</v>
@@ -15477,7 +15477,7 @@
         </is>
       </c>
       <c r="J210" t="n">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="K210" t="n">
         <v>14000</v>
@@ -15486,7 +15486,7 @@
         <v>15000</v>
       </c>
       <c r="M210" t="n">
-        <v>14500</v>
+        <v>14492</v>
       </c>
       <c r="N210" t="inlineStr">
         <is>
@@ -15495,7 +15495,7 @@
       </c>
       <c r="O210" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P210" t="n">
@@ -15525,7 +15525,7 @@
         </is>
       </c>
       <c r="D211" s="2" t="n">
-        <v>44420</v>
+        <v>44419</v>
       </c>
       <c r="E211" t="n">
         <v>13</v>
@@ -15549,16 +15549,16 @@
         </is>
       </c>
       <c r="J211" t="n">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="K211" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="L211" t="n">
         <v>13000</v>
       </c>
       <c r="M211" t="n">
-        <v>12512</v>
+        <v>13000</v>
       </c>
       <c r="N211" t="inlineStr">
         <is>
@@ -15567,11 +15567,11 @@
       </c>
       <c r="O211" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P211" t="n">
-        <v>313</v>
+        <v>325</v>
       </c>
       <c r="Q211" t="n">
         <v>40</v>
@@ -15597,7 +15597,7 @@
         </is>
       </c>
       <c r="D212" s="2" t="n">
-        <v>44369</v>
+        <v>44420</v>
       </c>
       <c r="E212" t="n">
         <v>13</v>
@@ -15621,16 +15621,16 @@
         </is>
       </c>
       <c r="J212" t="n">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="K212" t="n">
-        <v>21000</v>
+        <v>16000</v>
       </c>
       <c r="L212" t="n">
-        <v>22000</v>
+        <v>16000</v>
       </c>
       <c r="M212" t="n">
-        <v>21500</v>
+        <v>16000</v>
       </c>
       <c r="N212" t="inlineStr">
         <is>
@@ -15639,11 +15639,11 @@
       </c>
       <c r="O212" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P212" t="n">
-        <v>21500</v>
+        <v>16000</v>
       </c>
       <c r="Q212" t="n">
         <v>1</v>
@@ -15669,7 +15669,7 @@
         </is>
       </c>
       <c r="D213" s="2" t="n">
-        <v>44369</v>
+        <v>44420</v>
       </c>
       <c r="E213" t="n">
         <v>13</v>
@@ -15693,16 +15693,16 @@
         </is>
       </c>
       <c r="J213" t="n">
-        <v>34</v>
+        <v>70</v>
       </c>
       <c r="K213" t="n">
-        <v>19000</v>
+        <v>14000</v>
       </c>
       <c r="L213" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="M213" t="n">
-        <v>19500</v>
+        <v>14500</v>
       </c>
       <c r="N213" t="inlineStr">
         <is>
@@ -15711,11 +15711,11 @@
       </c>
       <c r="O213" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P213" t="n">
-        <v>650</v>
+        <v>483</v>
       </c>
       <c r="Q213" t="n">
         <v>30</v>
@@ -15741,7 +15741,7 @@
         </is>
       </c>
       <c r="D214" s="2" t="n">
-        <v>44369</v>
+        <v>44420</v>
       </c>
       <c r="E214" t="n">
         <v>13</v>
@@ -15765,16 +15765,16 @@
         </is>
       </c>
       <c r="J214" t="n">
-        <v>25</v>
+        <v>43</v>
       </c>
       <c r="K214" t="n">
-        <v>17000</v>
+        <v>12000</v>
       </c>
       <c r="L214" t="n">
-        <v>17000</v>
+        <v>13000</v>
       </c>
       <c r="M214" t="n">
-        <v>17000</v>
+        <v>12512</v>
       </c>
       <c r="N214" t="inlineStr">
         <is>
@@ -15783,11 +15783,11 @@
       </c>
       <c r="O214" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P214" t="n">
-        <v>425</v>
+        <v>313</v>
       </c>
       <c r="Q214" t="n">
         <v>40</v>
@@ -15828,41 +15828,41 @@
       </c>
       <c r="H215" t="inlineStr">
         <is>
-          <t>Madrigal</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I215" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J215" t="n">
-        <v>43</v>
+        <v>16</v>
       </c>
       <c r="K215" t="n">
-        <v>16000</v>
+        <v>21000</v>
       </c>
       <c r="L215" t="n">
-        <v>17000</v>
+        <v>22000</v>
       </c>
       <c r="M215" t="n">
-        <v>16488</v>
+        <v>21500</v>
       </c>
       <c r="N215" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 25 unidades</t>
         </is>
       </c>
       <c r="O215" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P215" t="n">
-        <v>412</v>
+        <v>21500</v>
       </c>
       <c r="Q215" t="n">
-        <v>40</v>
+        <v>1</v>
       </c>
       <c r="R215" t="inlineStr">
         <is>
@@ -15900,41 +15900,41 @@
       </c>
       <c r="H216" t="inlineStr">
         <is>
-          <t>Madrigal</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I216" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J216" t="n">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="K216" t="n">
-        <v>14000</v>
+        <v>19000</v>
       </c>
       <c r="L216" t="n">
-        <v>14000</v>
+        <v>20000</v>
       </c>
       <c r="M216" t="n">
-        <v>14000</v>
+        <v>19500</v>
       </c>
       <c r="N216" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O216" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P216" t="n">
-        <v>280</v>
+        <v>650</v>
       </c>
       <c r="Q216" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R216" t="inlineStr">
         <is>
@@ -15957,7 +15957,7 @@
         </is>
       </c>
       <c r="D217" s="2" t="n">
-        <v>44307</v>
+        <v>44369</v>
       </c>
       <c r="E217" t="n">
         <v>13</v>
@@ -15977,36 +15977,36 @@
       </c>
       <c r="I217" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J217" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="K217" t="n">
-        <v>18000</v>
+        <v>17000</v>
       </c>
       <c r="L217" t="n">
-        <v>18000</v>
+        <v>17000</v>
       </c>
       <c r="M217" t="n">
-        <v>18000</v>
+        <v>17000</v>
       </c>
       <c r="N217" t="inlineStr">
         <is>
-          <t>$/caja 25 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O217" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P217" t="n">
-        <v>18000</v>
+        <v>425</v>
       </c>
       <c r="Q217" t="n">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="R217" t="inlineStr">
         <is>
@@ -16029,7 +16029,7 @@
         </is>
       </c>
       <c r="D218" s="2" t="n">
-        <v>44307</v>
+        <v>44369</v>
       </c>
       <c r="E218" t="n">
         <v>13</v>
@@ -16044,7 +16044,7 @@
       </c>
       <c r="H218" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Madrigal</t>
         </is>
       </c>
       <c r="I218" t="inlineStr">
@@ -16053,20 +16053,20 @@
         </is>
       </c>
       <c r="J218" t="n">
-        <v>16</v>
+        <v>43</v>
       </c>
       <c r="K218" t="n">
         <v>16000</v>
       </c>
       <c r="L218" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="M218" t="n">
-        <v>16000</v>
+        <v>16488</v>
       </c>
       <c r="N218" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O218" t="inlineStr">
@@ -16075,10 +16075,10 @@
         </is>
       </c>
       <c r="P218" t="n">
-        <v>533</v>
+        <v>412</v>
       </c>
       <c r="Q218" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="R218" t="inlineStr">
         <is>
@@ -16101,7 +16101,7 @@
         </is>
       </c>
       <c r="D219" s="2" t="n">
-        <v>44333</v>
+        <v>44369</v>
       </c>
       <c r="E219" t="n">
         <v>13</v>
@@ -16116,25 +16116,25 @@
       </c>
       <c r="H219" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Madrigal</t>
         </is>
       </c>
       <c r="I219" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J219" t="n">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="K219" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="L219" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="M219" t="n">
-        <v>15500</v>
+        <v>14000</v>
       </c>
       <c r="N219" t="inlineStr">
         <is>
@@ -16143,11 +16143,11 @@
       </c>
       <c r="O219" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P219" t="n">
-        <v>310</v>
+        <v>280</v>
       </c>
       <c r="Q219" t="n">
         <v>50</v>
@@ -16173,7 +16173,7 @@
         </is>
       </c>
       <c r="D220" s="2" t="n">
-        <v>44433</v>
+        <v>44307</v>
       </c>
       <c r="E220" t="n">
         <v>13</v>
@@ -16197,16 +16197,16 @@
         </is>
       </c>
       <c r="J220" t="n">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="K220" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="L220" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="M220" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="N220" t="inlineStr">
         <is>
@@ -16215,11 +16215,11 @@
       </c>
       <c r="O220" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P220" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="Q220" t="n">
         <v>1</v>
@@ -16245,7 +16245,7 @@
         </is>
       </c>
       <c r="D221" s="2" t="n">
-        <v>44433</v>
+        <v>44307</v>
       </c>
       <c r="E221" t="n">
         <v>13</v>
@@ -16269,16 +16269,16 @@
         </is>
       </c>
       <c r="J221" t="n">
-        <v>52</v>
+        <v>16</v>
       </c>
       <c r="K221" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="L221" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="M221" t="n">
-        <v>14500</v>
+        <v>16000</v>
       </c>
       <c r="N221" t="inlineStr">
         <is>
@@ -16287,11 +16287,11 @@
       </c>
       <c r="O221" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P221" t="n">
-        <v>483</v>
+        <v>533</v>
       </c>
       <c r="Q221" t="n">
         <v>30</v>
@@ -16317,7 +16317,7 @@
         </is>
       </c>
       <c r="D222" s="2" t="n">
-        <v>44433</v>
+        <v>44333</v>
       </c>
       <c r="E222" t="n">
         <v>13</v>
@@ -16332,29 +16332,29 @@
       </c>
       <c r="H222" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I222" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J222" t="n">
         <v>34</v>
       </c>
       <c r="K222" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="L222" t="n">
-        <v>13000</v>
+        <v>16000</v>
       </c>
       <c r="M222" t="n">
-        <v>12500</v>
+        <v>15500</v>
       </c>
       <c r="N222" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O222" t="inlineStr">
@@ -16363,10 +16363,10 @@
         </is>
       </c>
       <c r="P222" t="n">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="Q222" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="R222" t="inlineStr">
         <is>
@@ -16389,7 +16389,7 @@
         </is>
       </c>
       <c r="D223" s="2" t="n">
-        <v>44309</v>
+        <v>44433</v>
       </c>
       <c r="E223" t="n">
         <v>13</v>
@@ -16416,13 +16416,13 @@
         <v>16</v>
       </c>
       <c r="K223" t="n">
-        <v>19000</v>
+        <v>16000</v>
       </c>
       <c r="L223" t="n">
-        <v>19000</v>
+        <v>16000</v>
       </c>
       <c r="M223" t="n">
-        <v>19000</v>
+        <v>16000</v>
       </c>
       <c r="N223" t="inlineStr">
         <is>
@@ -16435,7 +16435,7 @@
         </is>
       </c>
       <c r="P223" t="n">
-        <v>19000</v>
+        <v>16000</v>
       </c>
       <c r="Q223" t="n">
         <v>1</v>
@@ -16461,7 +16461,7 @@
         </is>
       </c>
       <c r="D224" s="2" t="n">
-        <v>44309</v>
+        <v>44433</v>
       </c>
       <c r="E224" t="n">
         <v>13</v>
@@ -16485,16 +16485,16 @@
         </is>
       </c>
       <c r="J224" t="n">
-        <v>25</v>
+        <v>52</v>
       </c>
       <c r="K224" t="n">
-        <v>17000</v>
+        <v>14000</v>
       </c>
       <c r="L224" t="n">
-        <v>17000</v>
+        <v>15000</v>
       </c>
       <c r="M224" t="n">
-        <v>17000</v>
+        <v>14500</v>
       </c>
       <c r="N224" t="inlineStr">
         <is>
@@ -16507,7 +16507,7 @@
         </is>
       </c>
       <c r="P224" t="n">
-        <v>567</v>
+        <v>483</v>
       </c>
       <c r="Q224" t="n">
         <v>30</v>
@@ -16533,7 +16533,7 @@
         </is>
       </c>
       <c r="D225" s="2" t="n">
-        <v>44344</v>
+        <v>44433</v>
       </c>
       <c r="E225" t="n">
         <v>13</v>
@@ -16548,41 +16548,41 @@
       </c>
       <c r="H225" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I225" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J225" t="n">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="K225" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="L225" t="n">
-        <v>16000</v>
+        <v>13000</v>
       </c>
       <c r="M225" t="n">
-        <v>15524</v>
+        <v>12500</v>
       </c>
       <c r="N225" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O225" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P225" t="n">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="Q225" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="R225" t="inlineStr">
         <is>
@@ -16605,7 +16605,7 @@
         </is>
       </c>
       <c r="D226" s="2" t="n">
-        <v>44344</v>
+        <v>44309</v>
       </c>
       <c r="E226" t="n">
         <v>13</v>
@@ -16625,36 +16625,36 @@
       </c>
       <c r="I226" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J226" t="n">
         <v>16</v>
       </c>
       <c r="K226" t="n">
-        <v>17000</v>
+        <v>19000</v>
       </c>
       <c r="L226" t="n">
-        <v>18000</v>
+        <v>19000</v>
       </c>
       <c r="M226" t="n">
-        <v>17500</v>
+        <v>19000</v>
       </c>
       <c r="N226" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 25 unidades</t>
         </is>
       </c>
       <c r="O226" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P226" t="n">
-        <v>583</v>
+        <v>19000</v>
       </c>
       <c r="Q226" t="n">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="R226" t="inlineStr">
         <is>
@@ -16677,7 +16677,7 @@
         </is>
       </c>
       <c r="D227" s="2" t="n">
-        <v>44344</v>
+        <v>44309</v>
       </c>
       <c r="E227" t="n">
         <v>13</v>
@@ -16697,36 +16697,36 @@
       </c>
       <c r="I227" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J227" t="n">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="K227" t="n">
-        <v>14000</v>
+        <v>17000</v>
       </c>
       <c r="L227" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="M227" t="n">
-        <v>15000</v>
+        <v>17000</v>
       </c>
       <c r="N227" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O227" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P227" t="n">
-        <v>375</v>
+        <v>567</v>
       </c>
       <c r="Q227" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="R227" t="inlineStr">
         <is>
@@ -16749,7 +16749,7 @@
         </is>
       </c>
       <c r="D228" s="2" t="n">
-        <v>44316</v>
+        <v>44344</v>
       </c>
       <c r="E228" t="n">
         <v>13</v>
@@ -16773,16 +16773,16 @@
         </is>
       </c>
       <c r="J228" t="n">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="K228" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="L228" t="n">
-        <v>18000</v>
+        <v>16000</v>
       </c>
       <c r="M228" t="n">
-        <v>18000</v>
+        <v>15524</v>
       </c>
       <c r="N228" t="inlineStr">
         <is>
@@ -16795,7 +16795,7 @@
         </is>
       </c>
       <c r="P228" t="n">
-        <v>360</v>
+        <v>310</v>
       </c>
       <c r="Q228" t="n">
         <v>50</v>
@@ -16821,7 +16821,7 @@
         </is>
       </c>
       <c r="D229" s="2" t="n">
-        <v>44316</v>
+        <v>44344</v>
       </c>
       <c r="E229" t="n">
         <v>13</v>
@@ -16841,24 +16841,24 @@
       </c>
       <c r="I229" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J229" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="K229" t="n">
-        <v>18000</v>
+        <v>17000</v>
       </c>
       <c r="L229" t="n">
         <v>18000</v>
       </c>
       <c r="M229" t="n">
-        <v>18000</v>
+        <v>17500</v>
       </c>
       <c r="N229" t="inlineStr">
         <is>
-          <t>$/caja 25 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O229" t="inlineStr">
@@ -16867,10 +16867,10 @@
         </is>
       </c>
       <c r="P229" t="n">
-        <v>18000</v>
+        <v>583</v>
       </c>
       <c r="Q229" t="n">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="R229" t="inlineStr">
         <is>
@@ -16893,7 +16893,7 @@
         </is>
       </c>
       <c r="D230" s="2" t="n">
-        <v>44316</v>
+        <v>44344</v>
       </c>
       <c r="E230" t="n">
         <v>13</v>
@@ -16913,24 +16913,24 @@
       </c>
       <c r="I230" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J230" t="n">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="K230" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="L230" t="n">
         <v>16000</v>
       </c>
       <c r="M230" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="N230" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O230" t="inlineStr">
@@ -16939,10 +16939,10 @@
         </is>
       </c>
       <c r="P230" t="n">
-        <v>533</v>
+        <v>375</v>
       </c>
       <c r="Q230" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="R230" t="inlineStr">
         <is>
@@ -16965,7 +16965,7 @@
         </is>
       </c>
       <c r="D231" s="2" t="n">
-        <v>44301</v>
+        <v>44316</v>
       </c>
       <c r="E231" t="n">
         <v>13</v>
@@ -16980,7 +16980,7 @@
       </c>
       <c r="H231" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I231" t="inlineStr">
@@ -16989,20 +16989,20 @@
         </is>
       </c>
       <c r="J231" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="K231" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="L231" t="n">
         <v>18000</v>
       </c>
       <c r="M231" t="n">
-        <v>17500</v>
+        <v>18000</v>
       </c>
       <c r="N231" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O231" t="inlineStr">
@@ -17011,10 +17011,10 @@
         </is>
       </c>
       <c r="P231" t="n">
-        <v>583</v>
+        <v>360</v>
       </c>
       <c r="Q231" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R231" t="inlineStr">
         <is>
@@ -17037,7 +17037,7 @@
         </is>
       </c>
       <c r="D232" s="2" t="n">
-        <v>44382</v>
+        <v>44316</v>
       </c>
       <c r="E232" t="n">
         <v>13</v>
@@ -17057,36 +17057,36 @@
       </c>
       <c r="I232" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J232" t="n">
-        <v>52</v>
+        <v>18</v>
       </c>
       <c r="K232" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="L232" t="n">
         <v>18000</v>
       </c>
       <c r="M232" t="n">
-        <v>17500</v>
+        <v>18000</v>
       </c>
       <c r="N232" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 25 unidades</t>
         </is>
       </c>
       <c r="O232" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P232" t="n">
-        <v>583</v>
+        <v>18000</v>
       </c>
       <c r="Q232" t="n">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="R232" t="inlineStr">
         <is>
@@ -17109,7 +17109,7 @@
         </is>
       </c>
       <c r="D233" s="2" t="n">
-        <v>44398</v>
+        <v>44316</v>
       </c>
       <c r="E233" t="n">
         <v>13</v>
@@ -17129,36 +17129,36 @@
       </c>
       <c r="I233" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J233" t="n">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="K233" t="n">
-        <v>18000</v>
+        <v>16000</v>
       </c>
       <c r="L233" t="n">
-        <v>18000</v>
+        <v>16000</v>
       </c>
       <c r="M233" t="n">
-        <v>18000</v>
+        <v>16000</v>
       </c>
       <c r="N233" t="inlineStr">
         <is>
-          <t>$/caja 25 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O233" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P233" t="n">
-        <v>18000</v>
+        <v>533</v>
       </c>
       <c r="Q233" t="n">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="R233" t="inlineStr">
         <is>
@@ -17181,7 +17181,7 @@
         </is>
       </c>
       <c r="D234" s="2" t="n">
-        <v>44398</v>
+        <v>44301</v>
       </c>
       <c r="E234" t="n">
         <v>13</v>
@@ -17205,16 +17205,16 @@
         </is>
       </c>
       <c r="J234" t="n">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="K234" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="L234" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="M234" t="n">
-        <v>16500</v>
+        <v>17500</v>
       </c>
       <c r="N234" t="inlineStr">
         <is>
@@ -17223,11 +17223,11 @@
       </c>
       <c r="O234" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P234" t="n">
-        <v>550</v>
+        <v>583</v>
       </c>
       <c r="Q234" t="n">
         <v>30</v>
@@ -17253,7 +17253,7 @@
         </is>
       </c>
       <c r="D235" s="2" t="n">
-        <v>44398</v>
+        <v>44382</v>
       </c>
       <c r="E235" t="n">
         <v>13</v>
@@ -17273,24 +17273,24 @@
       </c>
       <c r="I235" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J235" t="n">
-        <v>16</v>
+        <v>52</v>
       </c>
       <c r="K235" t="n">
-        <v>14000</v>
+        <v>17000</v>
       </c>
       <c r="L235" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="M235" t="n">
-        <v>14500</v>
+        <v>17500</v>
       </c>
       <c r="N235" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O235" t="inlineStr">
@@ -17299,10 +17299,10 @@
         </is>
       </c>
       <c r="P235" t="n">
-        <v>362</v>
+        <v>583</v>
       </c>
       <c r="Q235" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="R235" t="inlineStr">
         <is>
@@ -17325,7 +17325,7 @@
         </is>
       </c>
       <c r="D236" s="2" t="n">
-        <v>44355</v>
+        <v>44398</v>
       </c>
       <c r="E236" t="n">
         <v>13</v>
@@ -17340,41 +17340,41 @@
       </c>
       <c r="H236" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I236" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J236" t="n">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="K236" t="n">
-        <v>14000</v>
+        <v>18000</v>
       </c>
       <c r="L236" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="M236" t="n">
-        <v>14500</v>
+        <v>18000</v>
       </c>
       <c r="N236" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 25 unidades</t>
         </is>
       </c>
       <c r="O236" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P236" t="n">
-        <v>290</v>
+        <v>18000</v>
       </c>
       <c r="Q236" t="n">
-        <v>50</v>
+        <v>1</v>
       </c>
       <c r="R236" t="inlineStr">
         <is>
@@ -17397,7 +17397,7 @@
         </is>
       </c>
       <c r="D237" s="2" t="n">
-        <v>44355</v>
+        <v>44398</v>
       </c>
       <c r="E237" t="n">
         <v>13</v>
@@ -17412,41 +17412,41 @@
       </c>
       <c r="H237" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I237" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J237" t="n">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="K237" t="n">
-        <v>13000</v>
+        <v>16000</v>
       </c>
       <c r="L237" t="n">
-        <v>14000</v>
+        <v>17000</v>
       </c>
       <c r="M237" t="n">
-        <v>13471</v>
+        <v>16500</v>
       </c>
       <c r="N237" t="inlineStr">
         <is>
-          <t>$/caja 70 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O237" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P237" t="n">
-        <v>192</v>
+        <v>550</v>
       </c>
       <c r="Q237" t="n">
-        <v>70</v>
+        <v>30</v>
       </c>
       <c r="R237" t="inlineStr">
         <is>
@@ -17469,7 +17469,7 @@
         </is>
       </c>
       <c r="D238" s="2" t="n">
-        <v>44355</v>
+        <v>44398</v>
       </c>
       <c r="E238" t="n">
         <v>13</v>
@@ -17489,24 +17489,24 @@
       </c>
       <c r="I238" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J238" t="n">
         <v>16</v>
       </c>
       <c r="K238" t="n">
-        <v>21000</v>
+        <v>14000</v>
       </c>
       <c r="L238" t="n">
-        <v>22000</v>
+        <v>15000</v>
       </c>
       <c r="M238" t="n">
-        <v>21500</v>
+        <v>14500</v>
       </c>
       <c r="N238" t="inlineStr">
         <is>
-          <t>$/caja 25 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O238" t="inlineStr">
@@ -17515,10 +17515,10 @@
         </is>
       </c>
       <c r="P238" t="n">
-        <v>21500</v>
+        <v>362</v>
       </c>
       <c r="Q238" t="n">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="R238" t="inlineStr">
         <is>
@@ -17556,7 +17556,7 @@
       </c>
       <c r="H239" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I239" t="inlineStr">
@@ -17565,32 +17565,32 @@
         </is>
       </c>
       <c r="J239" t="n">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="K239" t="n">
-        <v>18000</v>
+        <v>14000</v>
       </c>
       <c r="L239" t="n">
-        <v>19000</v>
+        <v>15000</v>
       </c>
       <c r="M239" t="n">
-        <v>18571</v>
+        <v>14500</v>
       </c>
       <c r="N239" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O239" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P239" t="n">
-        <v>619</v>
+        <v>290</v>
       </c>
       <c r="Q239" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R239" t="inlineStr">
         <is>
@@ -17628,7 +17628,7 @@
       </c>
       <c r="H240" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I240" t="inlineStr">
@@ -17637,32 +17637,32 @@
         </is>
       </c>
       <c r="J240" t="n">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="K240" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="L240" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="M240" t="n">
-        <v>15500</v>
+        <v>13471</v>
       </c>
       <c r="N240" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 70 unidades</t>
         </is>
       </c>
       <c r="O240" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P240" t="n">
-        <v>388</v>
+        <v>192</v>
       </c>
       <c r="Q240" t="n">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="R240" t="inlineStr">
         <is>
@@ -17685,7 +17685,7 @@
         </is>
       </c>
       <c r="D241" s="2" t="n">
-        <v>44376</v>
+        <v>44355</v>
       </c>
       <c r="E241" t="n">
         <v>13</v>
@@ -17757,7 +17757,7 @@
         </is>
       </c>
       <c r="D242" s="2" t="n">
-        <v>44376</v>
+        <v>44355</v>
       </c>
       <c r="E242" t="n">
         <v>13</v>
@@ -17781,16 +17781,16 @@
         </is>
       </c>
       <c r="J242" t="n">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="K242" t="n">
+        <v>18000</v>
+      </c>
+      <c r="L242" t="n">
         <v>19000</v>
       </c>
-      <c r="L242" t="n">
-        <v>20000</v>
-      </c>
       <c r="M242" t="n">
-        <v>19500</v>
+        <v>18571</v>
       </c>
       <c r="N242" t="inlineStr">
         <is>
@@ -17803,7 +17803,7 @@
         </is>
       </c>
       <c r="P242" t="n">
-        <v>650</v>
+        <v>619</v>
       </c>
       <c r="Q242" t="n">
         <v>30</v>
@@ -17829,7 +17829,7 @@
         </is>
       </c>
       <c r="D243" s="2" t="n">
-        <v>44376</v>
+        <v>44355</v>
       </c>
       <c r="E243" t="n">
         <v>13</v>
@@ -17853,16 +17853,16 @@
         </is>
       </c>
       <c r="J243" t="n">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="K243" t="n">
+        <v>15000</v>
+      </c>
+      <c r="L243" t="n">
         <v>16000</v>
       </c>
-      <c r="L243" t="n">
-        <v>17000</v>
-      </c>
       <c r="M243" t="n">
-        <v>16480</v>
+        <v>15500</v>
       </c>
       <c r="N243" t="inlineStr">
         <is>
@@ -17875,7 +17875,7 @@
         </is>
       </c>
       <c r="P243" t="n">
-        <v>412</v>
+        <v>388</v>
       </c>
       <c r="Q243" t="n">
         <v>40</v>
@@ -17901,7 +17901,7 @@
         </is>
       </c>
       <c r="D244" s="2" t="n">
-        <v>44334</v>
+        <v>44376</v>
       </c>
       <c r="E244" t="n">
         <v>13</v>
@@ -17916,29 +17916,29 @@
       </c>
       <c r="H244" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I244" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J244" t="n">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="K244" t="n">
-        <v>15000</v>
+        <v>21000</v>
       </c>
       <c r="L244" t="n">
-        <v>16000</v>
+        <v>22000</v>
       </c>
       <c r="M244" t="n">
-        <v>15500</v>
+        <v>21500</v>
       </c>
       <c r="N244" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 25 unidades</t>
         </is>
       </c>
       <c r="O244" t="inlineStr">
@@ -17947,10 +17947,10 @@
         </is>
       </c>
       <c r="P244" t="n">
-        <v>310</v>
+        <v>21500</v>
       </c>
       <c r="Q244" t="n">
-        <v>50</v>
+        <v>1</v>
       </c>
       <c r="R244" t="inlineStr">
         <is>
@@ -17973,7 +17973,7 @@
         </is>
       </c>
       <c r="D245" s="2" t="n">
-        <v>44334</v>
+        <v>44376</v>
       </c>
       <c r="E245" t="n">
         <v>13</v>
@@ -17997,16 +17997,16 @@
         </is>
       </c>
       <c r="J245" t="n">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="K245" t="n">
-        <v>17000</v>
+        <v>19000</v>
       </c>
       <c r="L245" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="M245" t="n">
-        <v>17480</v>
+        <v>19500</v>
       </c>
       <c r="N245" t="inlineStr">
         <is>
@@ -18019,7 +18019,7 @@
         </is>
       </c>
       <c r="P245" t="n">
-        <v>583</v>
+        <v>650</v>
       </c>
       <c r="Q245" t="n">
         <v>30</v>
@@ -18045,7 +18045,7 @@
         </is>
       </c>
       <c r="D246" s="2" t="n">
-        <v>44168</v>
+        <v>44376</v>
       </c>
       <c r="E246" t="n">
         <v>13</v>
@@ -18065,36 +18065,36 @@
       </c>
       <c r="I246" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J246" t="n">
-        <v>230</v>
+        <v>25</v>
       </c>
       <c r="K246" t="n">
-        <v>11000</v>
+        <v>16000</v>
       </c>
       <c r="L246" t="n">
-        <v>11000</v>
+        <v>17000</v>
       </c>
       <c r="M246" t="n">
-        <v>11000</v>
+        <v>16480</v>
       </c>
       <c r="N246" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O246" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P246" t="n">
-        <v>367</v>
+        <v>412</v>
       </c>
       <c r="Q246" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="R246" t="inlineStr">
         <is>
@@ -18117,7 +18117,7 @@
         </is>
       </c>
       <c r="D247" s="2" t="n">
-        <v>44418</v>
+        <v>44334</v>
       </c>
       <c r="E247" t="n">
         <v>13</v>
@@ -18132,29 +18132,29 @@
       </c>
       <c r="H247" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I247" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J247" t="n">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="K247" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="L247" t="n">
         <v>16000</v>
       </c>
       <c r="M247" t="n">
-        <v>16000</v>
+        <v>15500</v>
       </c>
       <c r="N247" t="inlineStr">
         <is>
-          <t>$/caja 25 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O247" t="inlineStr">
@@ -18163,10 +18163,10 @@
         </is>
       </c>
       <c r="P247" t="n">
-        <v>16000</v>
+        <v>310</v>
       </c>
       <c r="Q247" t="n">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="R247" t="inlineStr">
         <is>
@@ -18189,7 +18189,7 @@
         </is>
       </c>
       <c r="D248" s="2" t="n">
-        <v>44418</v>
+        <v>44334</v>
       </c>
       <c r="E248" t="n">
         <v>13</v>
@@ -18213,16 +18213,16 @@
         </is>
       </c>
       <c r="J248" t="n">
-        <v>52</v>
+        <v>25</v>
       </c>
       <c r="K248" t="n">
-        <v>14000</v>
+        <v>17000</v>
       </c>
       <c r="L248" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="M248" t="n">
-        <v>14500</v>
+        <v>17480</v>
       </c>
       <c r="N248" t="inlineStr">
         <is>
@@ -18235,7 +18235,7 @@
         </is>
       </c>
       <c r="P248" t="n">
-        <v>483</v>
+        <v>583</v>
       </c>
       <c r="Q248" t="n">
         <v>30</v>
@@ -18261,7 +18261,7 @@
         </is>
       </c>
       <c r="D249" s="2" t="n">
-        <v>44418</v>
+        <v>44168</v>
       </c>
       <c r="E249" t="n">
         <v>13</v>
@@ -18281,36 +18281,36 @@
       </c>
       <c r="I249" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J249" t="n">
-        <v>34</v>
+        <v>230</v>
       </c>
       <c r="K249" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="L249" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="M249" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="N249" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O249" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P249" t="n">
-        <v>325</v>
+        <v>367</v>
       </c>
       <c r="Q249" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="R249" t="inlineStr">
         <is>
@@ -18333,7 +18333,7 @@
         </is>
       </c>
       <c r="D250" s="2" t="n">
-        <v>44432</v>
+        <v>44418</v>
       </c>
       <c r="E250" t="n">
         <v>13</v>
@@ -18357,16 +18357,16 @@
         </is>
       </c>
       <c r="J250" t="n">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="K250" t="n">
         <v>16000</v>
       </c>
       <c r="L250" t="n">
-        <v>17000</v>
+        <v>16000</v>
       </c>
       <c r="M250" t="n">
-        <v>16500</v>
+        <v>16000</v>
       </c>
       <c r="N250" t="inlineStr">
         <is>
@@ -18379,7 +18379,7 @@
         </is>
       </c>
       <c r="P250" t="n">
-        <v>16500</v>
+        <v>16000</v>
       </c>
       <c r="Q250" t="n">
         <v>1</v>
@@ -18405,7 +18405,7 @@
         </is>
       </c>
       <c r="D251" s="2" t="n">
-        <v>44432</v>
+        <v>44418</v>
       </c>
       <c r="E251" t="n">
         <v>13</v>
@@ -18477,7 +18477,7 @@
         </is>
       </c>
       <c r="D252" s="2" t="n">
-        <v>44432</v>
+        <v>44418</v>
       </c>
       <c r="E252" t="n">
         <v>13</v>
@@ -18504,13 +18504,13 @@
         <v>34</v>
       </c>
       <c r="K252" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="L252" t="n">
         <v>13000</v>
       </c>
       <c r="M252" t="n">
-        <v>12500</v>
+        <v>13000</v>
       </c>
       <c r="N252" t="inlineStr">
         <is>
@@ -18523,7 +18523,7 @@
         </is>
       </c>
       <c r="P252" t="n">
-        <v>312</v>
+        <v>325</v>
       </c>
       <c r="Q252" t="n">
         <v>40</v>
@@ -18564,29 +18564,29 @@
       </c>
       <c r="H253" t="inlineStr">
         <is>
-          <t>Madrigal</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I253" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J253" t="n">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="K253" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="L253" t="n">
-        <v>15000</v>
+        <v>17000</v>
       </c>
       <c r="M253" t="n">
-        <v>14500</v>
+        <v>16500</v>
       </c>
       <c r="N253" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 25 unidades</t>
         </is>
       </c>
       <c r="O253" t="inlineStr">
@@ -18595,10 +18595,10 @@
         </is>
       </c>
       <c r="P253" t="n">
-        <v>362</v>
+        <v>16500</v>
       </c>
       <c r="Q253" t="n">
-        <v>40</v>
+        <v>1</v>
       </c>
       <c r="R253" t="inlineStr">
         <is>
@@ -18636,43 +18636,259 @@
       </c>
       <c r="H254" t="inlineStr">
         <is>
+          <t>Española</t>
+        </is>
+      </c>
+      <c r="I254" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J254" t="n">
+        <v>52</v>
+      </c>
+      <c r="K254" t="n">
+        <v>14000</v>
+      </c>
+      <c r="L254" t="n">
+        <v>15000</v>
+      </c>
+      <c r="M254" t="n">
+        <v>14500</v>
+      </c>
+      <c r="N254" t="inlineStr">
+        <is>
+          <t>$/caja 30 unidades</t>
+        </is>
+      </c>
+      <c r="O254" t="inlineStr">
+        <is>
+          <t>Provincia del Elquí</t>
+        </is>
+      </c>
+      <c r="P254" t="n">
+        <v>483</v>
+      </c>
+      <c r="Q254" t="n">
+        <v>30</v>
+      </c>
+      <c r="R254" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="n">
+        <v>9</v>
+      </c>
+      <c r="B255" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C255" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D255" s="2" t="n">
+        <v>44432</v>
+      </c>
+      <c r="E255" t="n">
+        <v>13</v>
+      </c>
+      <c r="F255" t="n">
+        <v>100112013</v>
+      </c>
+      <c r="G255" t="inlineStr">
+        <is>
+          <t>Alcachofa</t>
+        </is>
+      </c>
+      <c r="H255" t="inlineStr">
+        <is>
+          <t>Española</t>
+        </is>
+      </c>
+      <c r="I255" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="J255" t="n">
+        <v>34</v>
+      </c>
+      <c r="K255" t="n">
+        <v>12000</v>
+      </c>
+      <c r="L255" t="n">
+        <v>13000</v>
+      </c>
+      <c r="M255" t="n">
+        <v>12500</v>
+      </c>
+      <c r="N255" t="inlineStr">
+        <is>
+          <t>$/caja 40 unidades</t>
+        </is>
+      </c>
+      <c r="O255" t="inlineStr">
+        <is>
+          <t>Provincia del Elquí</t>
+        </is>
+      </c>
+      <c r="P255" t="n">
+        <v>312</v>
+      </c>
+      <c r="Q255" t="n">
+        <v>40</v>
+      </c>
+      <c r="R255" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="n">
+        <v>9</v>
+      </c>
+      <c r="B256" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C256" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D256" s="2" t="n">
+        <v>44432</v>
+      </c>
+      <c r="E256" t="n">
+        <v>13</v>
+      </c>
+      <c r="F256" t="n">
+        <v>100112013</v>
+      </c>
+      <c r="G256" t="inlineStr">
+        <is>
+          <t>Alcachofa</t>
+        </is>
+      </c>
+      <c r="H256" t="inlineStr">
+        <is>
           <t>Madrigal</t>
         </is>
       </c>
-      <c r="I254" t="inlineStr">
+      <c r="I256" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J256" t="n">
+        <v>34</v>
+      </c>
+      <c r="K256" t="n">
+        <v>14000</v>
+      </c>
+      <c r="L256" t="n">
+        <v>15000</v>
+      </c>
+      <c r="M256" t="n">
+        <v>14500</v>
+      </c>
+      <c r="N256" t="inlineStr">
+        <is>
+          <t>$/caja 40 unidades</t>
+        </is>
+      </c>
+      <c r="O256" t="inlineStr">
+        <is>
+          <t>Provincia del Elquí</t>
+        </is>
+      </c>
+      <c r="P256" t="n">
+        <v>362</v>
+      </c>
+      <c r="Q256" t="n">
+        <v>40</v>
+      </c>
+      <c r="R256" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="n">
+        <v>9</v>
+      </c>
+      <c r="B257" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C257" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D257" s="2" t="n">
+        <v>44432</v>
+      </c>
+      <c r="E257" t="n">
+        <v>13</v>
+      </c>
+      <c r="F257" t="n">
+        <v>100112013</v>
+      </c>
+      <c r="G257" t="inlineStr">
+        <is>
+          <t>Alcachofa</t>
+        </is>
+      </c>
+      <c r="H257" t="inlineStr">
+        <is>
+          <t>Madrigal</t>
+        </is>
+      </c>
+      <c r="I257" t="inlineStr">
         <is>
           <t>Segunda</t>
         </is>
       </c>
-      <c r="J254" t="n">
+      <c r="J257" t="n">
         <v>16</v>
       </c>
-      <c r="K254" t="n">
+      <c r="K257" t="n">
         <v>12000</v>
       </c>
-      <c r="L254" t="n">
+      <c r="L257" t="n">
         <v>13000</v>
       </c>
-      <c r="M254" t="n">
+      <c r="M257" t="n">
         <v>12500</v>
       </c>
-      <c r="N254" t="inlineStr">
+      <c r="N257" t="inlineStr">
         <is>
           <t>$/caja 50 unidades</t>
         </is>
       </c>
-      <c r="O254" t="inlineStr">
+      <c r="O257" t="inlineStr">
         <is>
           <t>Provincia del Elquí</t>
         </is>
       </c>
-      <c r="P254" t="n">
+      <c r="P257" t="n">
         <v>250</v>
       </c>
-      <c r="Q254" t="n">
+      <c r="Q257" t="n">
         <v>50</v>
       </c>
-      <c r="R254" t="inlineStr">
+      <c r="R257" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Central Mapocho de Santiago - Alcachofa.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Central Mapocho de Santiago - Alcachofa.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R267"/>
+  <dimension ref="A1:R269"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9045,7 +9045,7 @@
         </is>
       </c>
       <c r="D121" s="2" t="n">
-        <v>44292</v>
+        <v>44447</v>
       </c>
       <c r="E121" t="n">
         <v>13</v>
@@ -9072,13 +9072,13 @@
         <v>25</v>
       </c>
       <c r="K121" t="n">
-        <v>18000</v>
+        <v>14000</v>
       </c>
       <c r="L121" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="M121" t="n">
-        <v>18000</v>
+        <v>14520</v>
       </c>
       <c r="N121" t="inlineStr">
         <is>
@@ -9091,7 +9091,7 @@
         </is>
       </c>
       <c r="P121" t="n">
-        <v>600</v>
+        <v>484</v>
       </c>
       <c r="Q121" t="n">
         <v>30</v>
@@ -9117,7 +9117,7 @@
         </is>
       </c>
       <c r="D122" s="2" t="n">
-        <v>44300</v>
+        <v>44447</v>
       </c>
       <c r="E122" t="n">
         <v>13</v>
@@ -9137,24 +9137,24 @@
       </c>
       <c r="I122" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J122" t="n">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="K122" t="n">
-        <v>17000</v>
+        <v>13000</v>
       </c>
       <c r="L122" t="n">
-        <v>17000</v>
+        <v>13000</v>
       </c>
       <c r="M122" t="n">
-        <v>17000</v>
+        <v>13000</v>
       </c>
       <c r="N122" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O122" t="inlineStr">
@@ -9163,10 +9163,10 @@
         </is>
       </c>
       <c r="P122" t="n">
-        <v>567</v>
+        <v>325</v>
       </c>
       <c r="Q122" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="R122" t="inlineStr">
         <is>
@@ -9189,7 +9189,7 @@
         </is>
       </c>
       <c r="D123" s="2" t="n">
-        <v>44392</v>
+        <v>44292</v>
       </c>
       <c r="E123" t="n">
         <v>13</v>
@@ -9209,36 +9209,36 @@
       </c>
       <c r="I123" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J123" t="n">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="K123" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="L123" t="n">
         <v>18000</v>
       </c>
       <c r="M123" t="n">
-        <v>17500</v>
+        <v>18000</v>
       </c>
       <c r="N123" t="inlineStr">
         <is>
-          <t>$/caja 25 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O123" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P123" t="n">
-        <v>17500</v>
+        <v>600</v>
       </c>
       <c r="Q123" t="n">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="R123" t="inlineStr">
         <is>
@@ -9261,7 +9261,7 @@
         </is>
       </c>
       <c r="D124" s="2" t="n">
-        <v>44392</v>
+        <v>44300</v>
       </c>
       <c r="E124" t="n">
         <v>13</v>
@@ -9285,16 +9285,16 @@
         </is>
       </c>
       <c r="J124" t="n">
-        <v>52</v>
+        <v>30</v>
       </c>
       <c r="K124" t="n">
-        <v>15000</v>
+        <v>17000</v>
       </c>
       <c r="L124" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="M124" t="n">
-        <v>15500</v>
+        <v>17000</v>
       </c>
       <c r="N124" t="inlineStr">
         <is>
@@ -9303,11 +9303,11 @@
       </c>
       <c r="O124" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P124" t="n">
-        <v>517</v>
+        <v>567</v>
       </c>
       <c r="Q124" t="n">
         <v>30</v>
@@ -9353,24 +9353,24 @@
       </c>
       <c r="I125" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J125" t="n">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="K125" t="n">
-        <v>13000</v>
+        <v>17000</v>
       </c>
       <c r="L125" t="n">
-        <v>14000</v>
+        <v>18000</v>
       </c>
       <c r="M125" t="n">
-        <v>13480</v>
+        <v>17500</v>
       </c>
       <c r="N125" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 25 unidades</t>
         </is>
       </c>
       <c r="O125" t="inlineStr">
@@ -9379,10 +9379,10 @@
         </is>
       </c>
       <c r="P125" t="n">
-        <v>337</v>
+        <v>17500</v>
       </c>
       <c r="Q125" t="n">
-        <v>40</v>
+        <v>1</v>
       </c>
       <c r="R125" t="inlineStr">
         <is>
@@ -9405,7 +9405,7 @@
         </is>
       </c>
       <c r="D126" s="2" t="n">
-        <v>44295</v>
+        <v>44392</v>
       </c>
       <c r="E126" t="n">
         <v>13</v>
@@ -9429,16 +9429,16 @@
         </is>
       </c>
       <c r="J126" t="n">
-        <v>18</v>
+        <v>52</v>
       </c>
       <c r="K126" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="L126" t="n">
-        <v>18000</v>
+        <v>16000</v>
       </c>
       <c r="M126" t="n">
-        <v>18000</v>
+        <v>15500</v>
       </c>
       <c r="N126" t="inlineStr">
         <is>
@@ -9447,11 +9447,11 @@
       </c>
       <c r="O126" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P126" t="n">
-        <v>600</v>
+        <v>517</v>
       </c>
       <c r="Q126" t="n">
         <v>30</v>
@@ -9477,7 +9477,7 @@
         </is>
       </c>
       <c r="D127" s="2" t="n">
-        <v>44362</v>
+        <v>44392</v>
       </c>
       <c r="E127" t="n">
         <v>13</v>
@@ -9492,25 +9492,25 @@
       </c>
       <c r="H127" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I127" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J127" t="n">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="K127" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="L127" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="M127" t="n">
-        <v>15500</v>
+        <v>13480</v>
       </c>
       <c r="N127" t="inlineStr">
         <is>
@@ -9519,11 +9519,11 @@
       </c>
       <c r="O127" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P127" t="n">
-        <v>388</v>
+        <v>337</v>
       </c>
       <c r="Q127" t="n">
         <v>40</v>
@@ -9549,7 +9549,7 @@
         </is>
       </c>
       <c r="D128" s="2" t="n">
-        <v>44362</v>
+        <v>44295</v>
       </c>
       <c r="E128" t="n">
         <v>13</v>
@@ -9564,29 +9564,29 @@
       </c>
       <c r="H128" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I128" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J128" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="K128" t="n">
-        <v>14000</v>
+        <v>18000</v>
       </c>
       <c r="L128" t="n">
-        <v>14000</v>
+        <v>18000</v>
       </c>
       <c r="M128" t="n">
-        <v>14000</v>
+        <v>18000</v>
       </c>
       <c r="N128" t="inlineStr">
         <is>
-          <t>$/caja 70 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O128" t="inlineStr">
@@ -9595,10 +9595,10 @@
         </is>
       </c>
       <c r="P128" t="n">
-        <v>200</v>
+        <v>600</v>
       </c>
       <c r="Q128" t="n">
-        <v>70</v>
+        <v>30</v>
       </c>
       <c r="R128" t="inlineStr">
         <is>
@@ -9636,41 +9636,41 @@
       </c>
       <c r="H129" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I129" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J129" t="n">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="K129" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="L129" t="n">
-        <v>21000</v>
+        <v>16000</v>
       </c>
       <c r="M129" t="n">
-        <v>20500</v>
+        <v>15500</v>
       </c>
       <c r="N129" t="inlineStr">
         <is>
-          <t>$/caja 25 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O129" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P129" t="n">
-        <v>20500</v>
+        <v>388</v>
       </c>
       <c r="Q129" t="n">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="R129" t="inlineStr">
         <is>
@@ -9708,41 +9708,41 @@
       </c>
       <c r="H130" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I130" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J130" t="n">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="K130" t="n">
-        <v>17000</v>
+        <v>14000</v>
       </c>
       <c r="L130" t="n">
-        <v>18000</v>
+        <v>14000</v>
       </c>
       <c r="M130" t="n">
-        <v>17500</v>
+        <v>14000</v>
       </c>
       <c r="N130" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 70 unidades</t>
         </is>
       </c>
       <c r="O130" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P130" t="n">
-        <v>583</v>
+        <v>200</v>
       </c>
       <c r="Q130" t="n">
-        <v>30</v>
+        <v>70</v>
       </c>
       <c r="R130" t="inlineStr">
         <is>
@@ -9765,7 +9765,7 @@
         </is>
       </c>
       <c r="D131" s="2" t="n">
-        <v>44309</v>
+        <v>44362</v>
       </c>
       <c r="E131" t="n">
         <v>13</v>
@@ -9792,13 +9792,13 @@
         <v>16</v>
       </c>
       <c r="K131" t="n">
-        <v>19000</v>
+        <v>20000</v>
       </c>
       <c r="L131" t="n">
-        <v>19000</v>
+        <v>21000</v>
       </c>
       <c r="M131" t="n">
-        <v>19000</v>
+        <v>20500</v>
       </c>
       <c r="N131" t="inlineStr">
         <is>
@@ -9811,7 +9811,7 @@
         </is>
       </c>
       <c r="P131" t="n">
-        <v>19000</v>
+        <v>20500</v>
       </c>
       <c r="Q131" t="n">
         <v>1</v>
@@ -9837,7 +9837,7 @@
         </is>
       </c>
       <c r="D132" s="2" t="n">
-        <v>44309</v>
+        <v>44362</v>
       </c>
       <c r="E132" t="n">
         <v>13</v>
@@ -9861,16 +9861,16 @@
         </is>
       </c>
       <c r="J132" t="n">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="K132" t="n">
         <v>17000</v>
       </c>
       <c r="L132" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="M132" t="n">
-        <v>17000</v>
+        <v>17500</v>
       </c>
       <c r="N132" t="inlineStr">
         <is>
@@ -9883,7 +9883,7 @@
         </is>
       </c>
       <c r="P132" t="n">
-        <v>567</v>
+        <v>583</v>
       </c>
       <c r="Q132" t="n">
         <v>30</v>
@@ -9909,7 +9909,7 @@
         </is>
       </c>
       <c r="D133" s="2" t="n">
-        <v>44384</v>
+        <v>44309</v>
       </c>
       <c r="E133" t="n">
         <v>13</v>
@@ -9929,24 +9929,24 @@
       </c>
       <c r="I133" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J133" t="n">
-        <v>52</v>
+        <v>16</v>
       </c>
       <c r="K133" t="n">
-        <v>16000</v>
+        <v>19000</v>
       </c>
       <c r="L133" t="n">
-        <v>17000</v>
+        <v>19000</v>
       </c>
       <c r="M133" t="n">
-        <v>16500</v>
+        <v>19000</v>
       </c>
       <c r="N133" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 25 unidades</t>
         </is>
       </c>
       <c r="O133" t="inlineStr">
@@ -9955,10 +9955,10 @@
         </is>
       </c>
       <c r="P133" t="n">
-        <v>550</v>
+        <v>19000</v>
       </c>
       <c r="Q133" t="n">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="R133" t="inlineStr">
         <is>
@@ -9981,7 +9981,7 @@
         </is>
       </c>
       <c r="D134" s="2" t="n">
-        <v>44384</v>
+        <v>44309</v>
       </c>
       <c r="E134" t="n">
         <v>13</v>
@@ -10001,24 +10001,24 @@
       </c>
       <c r="I134" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J134" t="n">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="K134" t="n">
-        <v>15000</v>
+        <v>17000</v>
       </c>
       <c r="L134" t="n">
-        <v>15000</v>
+        <v>17000</v>
       </c>
       <c r="M134" t="n">
-        <v>15000</v>
+        <v>17000</v>
       </c>
       <c r="N134" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O134" t="inlineStr">
@@ -10027,10 +10027,10 @@
         </is>
       </c>
       <c r="P134" t="n">
-        <v>375</v>
+        <v>567</v>
       </c>
       <c r="Q134" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="R134" t="inlineStr">
         <is>
@@ -10053,7 +10053,7 @@
         </is>
       </c>
       <c r="D135" s="2" t="n">
-        <v>44168</v>
+        <v>44384</v>
       </c>
       <c r="E135" t="n">
         <v>13</v>
@@ -10077,16 +10077,16 @@
         </is>
       </c>
       <c r="J135" t="n">
-        <v>230</v>
+        <v>52</v>
       </c>
       <c r="K135" t="n">
-        <v>11000</v>
+        <v>16000</v>
       </c>
       <c r="L135" t="n">
-        <v>11000</v>
+        <v>17000</v>
       </c>
       <c r="M135" t="n">
-        <v>11000</v>
+        <v>16500</v>
       </c>
       <c r="N135" t="inlineStr">
         <is>
@@ -10095,11 +10095,11 @@
       </c>
       <c r="O135" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P135" t="n">
-        <v>367</v>
+        <v>550</v>
       </c>
       <c r="Q135" t="n">
         <v>30</v>
@@ -10125,7 +10125,7 @@
         </is>
       </c>
       <c r="D136" s="2" t="n">
-        <v>44322</v>
+        <v>44384</v>
       </c>
       <c r="E136" t="n">
         <v>13</v>
@@ -10140,41 +10140,41 @@
       </c>
       <c r="H136" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I136" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J136" t="n">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="K136" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="L136" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="M136" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="N136" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O136" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P136" t="n">
-        <v>400</v>
+        <v>375</v>
       </c>
       <c r="Q136" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="R136" t="inlineStr">
         <is>
@@ -10197,7 +10197,7 @@
         </is>
       </c>
       <c r="D137" s="2" t="n">
-        <v>44322</v>
+        <v>44168</v>
       </c>
       <c r="E137" t="n">
         <v>13</v>
@@ -10217,36 +10217,36 @@
       </c>
       <c r="I137" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J137" t="n">
-        <v>16</v>
+        <v>230</v>
       </c>
       <c r="K137" t="n">
-        <v>18000</v>
+        <v>11000</v>
       </c>
       <c r="L137" t="n">
-        <v>18000</v>
+        <v>11000</v>
       </c>
       <c r="M137" t="n">
-        <v>18000</v>
+        <v>11000</v>
       </c>
       <c r="N137" t="inlineStr">
         <is>
-          <t>$/caja 25 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O137" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P137" t="n">
-        <v>18000</v>
+        <v>367</v>
       </c>
       <c r="Q137" t="n">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="R137" t="inlineStr">
         <is>
@@ -10284,7 +10284,7 @@
       </c>
       <c r="H138" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I138" t="inlineStr">
@@ -10293,32 +10293,32 @@
         </is>
       </c>
       <c r="J138" t="n">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="K138" t="n">
-        <v>16000</v>
+        <v>20000</v>
       </c>
       <c r="L138" t="n">
-        <v>16000</v>
+        <v>20000</v>
       </c>
       <c r="M138" t="n">
-        <v>16000</v>
+        <v>20000</v>
       </c>
       <c r="N138" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O138" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P138" t="n">
-        <v>533</v>
+        <v>400</v>
       </c>
       <c r="Q138" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R138" t="inlineStr">
         <is>
@@ -10341,7 +10341,7 @@
         </is>
       </c>
       <c r="D139" s="2" t="n">
-        <v>44365</v>
+        <v>44322</v>
       </c>
       <c r="E139" t="n">
         <v>13</v>
@@ -10356,29 +10356,29 @@
       </c>
       <c r="H139" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I139" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J139" t="n">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="K139" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="L139" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="M139" t="n">
-        <v>16500</v>
+        <v>18000</v>
       </c>
       <c r="N139" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 25 unidades</t>
         </is>
       </c>
       <c r="O139" t="inlineStr">
@@ -10387,10 +10387,10 @@
         </is>
       </c>
       <c r="P139" t="n">
-        <v>330</v>
+        <v>18000</v>
       </c>
       <c r="Q139" t="n">
-        <v>50</v>
+        <v>1</v>
       </c>
       <c r="R139" t="inlineStr">
         <is>
@@ -10413,7 +10413,7 @@
         </is>
       </c>
       <c r="D140" s="2" t="n">
-        <v>44365</v>
+        <v>44322</v>
       </c>
       <c r="E140" t="n">
         <v>13</v>
@@ -10428,29 +10428,29 @@
       </c>
       <c r="H140" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I140" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J140" t="n">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="K140" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="L140" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="M140" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="N140" t="inlineStr">
         <is>
-          <t>$/caja 70 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O140" t="inlineStr">
@@ -10459,10 +10459,10 @@
         </is>
       </c>
       <c r="P140" t="n">
-        <v>214</v>
+        <v>533</v>
       </c>
       <c r="Q140" t="n">
-        <v>70</v>
+        <v>30</v>
       </c>
       <c r="R140" t="inlineStr">
         <is>
@@ -10500,7 +10500,7 @@
       </c>
       <c r="H141" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I141" t="inlineStr">
@@ -10509,20 +10509,20 @@
         </is>
       </c>
       <c r="J141" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="K141" t="n">
+        <v>16000</v>
+      </c>
+      <c r="L141" t="n">
         <v>17000</v>
       </c>
-      <c r="L141" t="n">
-        <v>18000</v>
-      </c>
       <c r="M141" t="n">
-        <v>17500</v>
+        <v>16500</v>
       </c>
       <c r="N141" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O141" t="inlineStr">
@@ -10531,10 +10531,10 @@
         </is>
       </c>
       <c r="P141" t="n">
-        <v>583</v>
+        <v>330</v>
       </c>
       <c r="Q141" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R141" t="inlineStr">
         <is>
@@ -10572,7 +10572,7 @@
       </c>
       <c r="H142" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I142" t="inlineStr">
@@ -10581,20 +10581,20 @@
         </is>
       </c>
       <c r="J142" t="n">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="K142" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="L142" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="M142" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="N142" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 70 unidades</t>
         </is>
       </c>
       <c r="O142" t="inlineStr">
@@ -10603,10 +10603,10 @@
         </is>
       </c>
       <c r="P142" t="n">
-        <v>400</v>
+        <v>214</v>
       </c>
       <c r="Q142" t="n">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="R142" t="inlineStr">
         <is>
@@ -10629,7 +10629,7 @@
         </is>
       </c>
       <c r="D143" s="2" t="n">
-        <v>44358</v>
+        <v>44365</v>
       </c>
       <c r="E143" t="n">
         <v>13</v>
@@ -10644,7 +10644,7 @@
       </c>
       <c r="H143" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I143" t="inlineStr">
@@ -10653,20 +10653,20 @@
         </is>
       </c>
       <c r="J143" t="n">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="K143" t="n">
-        <v>15000</v>
+        <v>17000</v>
       </c>
       <c r="L143" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="M143" t="n">
-        <v>15500</v>
+        <v>17500</v>
       </c>
       <c r="N143" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O143" t="inlineStr">
@@ -10675,10 +10675,10 @@
         </is>
       </c>
       <c r="P143" t="n">
-        <v>310</v>
+        <v>583</v>
       </c>
       <c r="Q143" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R143" t="inlineStr">
         <is>
@@ -10701,7 +10701,7 @@
         </is>
       </c>
       <c r="D144" s="2" t="n">
-        <v>44358</v>
+        <v>44365</v>
       </c>
       <c r="E144" t="n">
         <v>13</v>
@@ -10716,7 +10716,7 @@
       </c>
       <c r="H144" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I144" t="inlineStr">
@@ -10725,20 +10725,20 @@
         </is>
       </c>
       <c r="J144" t="n">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="K144" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="L144" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="M144" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="N144" t="inlineStr">
         <is>
-          <t>$/caja 70 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O144" t="inlineStr">
@@ -10747,10 +10747,10 @@
         </is>
       </c>
       <c r="P144" t="n">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="Q144" t="n">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="R144" t="inlineStr">
         <is>
@@ -10788,41 +10788,41 @@
       </c>
       <c r="H145" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I145" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J145" t="n">
-        <v>16</v>
+        <v>52</v>
       </c>
       <c r="K145" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="L145" t="n">
-        <v>19000</v>
+        <v>16000</v>
       </c>
       <c r="M145" t="n">
-        <v>18500</v>
+        <v>15500</v>
       </c>
       <c r="N145" t="inlineStr">
         <is>
-          <t>$/caja 25 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O145" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P145" t="n">
-        <v>18500</v>
+        <v>310</v>
       </c>
       <c r="Q145" t="n">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="R145" t="inlineStr">
         <is>
@@ -10860,41 +10860,41 @@
       </c>
       <c r="H146" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I146" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J146" t="n">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="K146" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="L146" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="M146" t="n">
-        <v>15488</v>
+        <v>14000</v>
       </c>
       <c r="N146" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 70 unidades</t>
         </is>
       </c>
       <c r="O146" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P146" t="n">
-        <v>516</v>
+        <v>200</v>
       </c>
       <c r="Q146" t="n">
-        <v>30</v>
+        <v>70</v>
       </c>
       <c r="R146" t="inlineStr">
         <is>
@@ -10937,24 +10937,24 @@
       </c>
       <c r="I147" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J147" t="n">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="K147" t="n">
-        <v>14000</v>
+        <v>18000</v>
       </c>
       <c r="L147" t="n">
-        <v>14000</v>
+        <v>19000</v>
       </c>
       <c r="M147" t="n">
-        <v>14000</v>
+        <v>18500</v>
       </c>
       <c r="N147" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 25 unidades</t>
         </is>
       </c>
       <c r="O147" t="inlineStr">
@@ -10963,10 +10963,10 @@
         </is>
       </c>
       <c r="P147" t="n">
-        <v>350</v>
+        <v>18500</v>
       </c>
       <c r="Q147" t="n">
-        <v>40</v>
+        <v>1</v>
       </c>
       <c r="R147" t="inlineStr">
         <is>
@@ -10989,7 +10989,7 @@
         </is>
       </c>
       <c r="D148" s="2" t="n">
-        <v>44433</v>
+        <v>44358</v>
       </c>
       <c r="E148" t="n">
         <v>13</v>
@@ -11009,36 +11009,36 @@
       </c>
       <c r="I148" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J148" t="n">
-        <v>16</v>
+        <v>43</v>
       </c>
       <c r="K148" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="L148" t="n">
         <v>16000</v>
       </c>
       <c r="M148" t="n">
-        <v>16000</v>
+        <v>15488</v>
       </c>
       <c r="N148" t="inlineStr">
         <is>
-          <t>$/caja 25 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O148" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P148" t="n">
-        <v>16000</v>
+        <v>516</v>
       </c>
       <c r="Q148" t="n">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="R148" t="inlineStr">
         <is>
@@ -11061,7 +11061,7 @@
         </is>
       </c>
       <c r="D149" s="2" t="n">
-        <v>44433</v>
+        <v>44358</v>
       </c>
       <c r="E149" t="n">
         <v>13</v>
@@ -11081,36 +11081,36 @@
       </c>
       <c r="I149" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J149" t="n">
-        <v>52</v>
+        <v>25</v>
       </c>
       <c r="K149" t="n">
         <v>14000</v>
       </c>
       <c r="L149" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="M149" t="n">
-        <v>14500</v>
+        <v>14000</v>
       </c>
       <c r="N149" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O149" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P149" t="n">
-        <v>483</v>
+        <v>350</v>
       </c>
       <c r="Q149" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="R149" t="inlineStr">
         <is>
@@ -11153,24 +11153,24 @@
       </c>
       <c r="I150" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J150" t="n">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="K150" t="n">
-        <v>12000</v>
+        <v>16000</v>
       </c>
       <c r="L150" t="n">
-        <v>13000</v>
+        <v>16000</v>
       </c>
       <c r="M150" t="n">
-        <v>12500</v>
+        <v>16000</v>
       </c>
       <c r="N150" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 25 unidades</t>
         </is>
       </c>
       <c r="O150" t="inlineStr">
@@ -11179,10 +11179,10 @@
         </is>
       </c>
       <c r="P150" t="n">
-        <v>312</v>
+        <v>16000</v>
       </c>
       <c r="Q150" t="n">
-        <v>40</v>
+        <v>1</v>
       </c>
       <c r="R150" t="inlineStr">
         <is>
@@ -11205,7 +11205,7 @@
         </is>
       </c>
       <c r="D151" s="2" t="n">
-        <v>44397</v>
+        <v>44433</v>
       </c>
       <c r="E151" t="n">
         <v>13</v>
@@ -11225,36 +11225,36 @@
       </c>
       <c r="I151" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J151" t="n">
-        <v>16</v>
+        <v>52</v>
       </c>
       <c r="K151" t="n">
-        <v>19000</v>
+        <v>14000</v>
       </c>
       <c r="L151" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="M151" t="n">
-        <v>19500</v>
+        <v>14500</v>
       </c>
       <c r="N151" t="inlineStr">
         <is>
-          <t>$/caja 25 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O151" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P151" t="n">
-        <v>19500</v>
+        <v>483</v>
       </c>
       <c r="Q151" t="n">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="R151" t="inlineStr">
         <is>
@@ -11277,7 +11277,7 @@
         </is>
       </c>
       <c r="D152" s="2" t="n">
-        <v>44397</v>
+        <v>44433</v>
       </c>
       <c r="E152" t="n">
         <v>13</v>
@@ -11297,36 +11297,36 @@
       </c>
       <c r="I152" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J152" t="n">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="K152" t="n">
-        <v>16000</v>
+        <v>12000</v>
       </c>
       <c r="L152" t="n">
-        <v>17000</v>
+        <v>13000</v>
       </c>
       <c r="M152" t="n">
-        <v>16488</v>
+        <v>12500</v>
       </c>
       <c r="N152" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O152" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P152" t="n">
-        <v>550</v>
+        <v>312</v>
       </c>
       <c r="Q152" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="R152" t="inlineStr">
         <is>
@@ -11369,24 +11369,24 @@
       </c>
       <c r="I153" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J153" t="n">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="K153" t="n">
-        <v>15000</v>
+        <v>19000</v>
       </c>
       <c r="L153" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="M153" t="n">
-        <v>15000</v>
+        <v>19500</v>
       </c>
       <c r="N153" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 25 unidades</t>
         </is>
       </c>
       <c r="O153" t="inlineStr">
@@ -11395,10 +11395,10 @@
         </is>
       </c>
       <c r="P153" t="n">
-        <v>375</v>
+        <v>19500</v>
       </c>
       <c r="Q153" t="n">
-        <v>40</v>
+        <v>1</v>
       </c>
       <c r="R153" t="inlineStr">
         <is>
@@ -11421,7 +11421,7 @@
         </is>
       </c>
       <c r="D154" s="2" t="n">
-        <v>44335</v>
+        <v>44397</v>
       </c>
       <c r="E154" t="n">
         <v>13</v>
@@ -11436,7 +11436,7 @@
       </c>
       <c r="H154" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I154" t="inlineStr">
@@ -11445,20 +11445,20 @@
         </is>
       </c>
       <c r="J154" t="n">
-        <v>25</v>
+        <v>43</v>
       </c>
       <c r="K154" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="L154" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="M154" t="n">
-        <v>15480</v>
+        <v>16488</v>
       </c>
       <c r="N154" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O154" t="inlineStr">
@@ -11467,10 +11467,10 @@
         </is>
       </c>
       <c r="P154" t="n">
-        <v>310</v>
+        <v>550</v>
       </c>
       <c r="Q154" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R154" t="inlineStr">
         <is>
@@ -11493,7 +11493,7 @@
         </is>
       </c>
       <c r="D155" s="2" t="n">
-        <v>44335</v>
+        <v>44397</v>
       </c>
       <c r="E155" t="n">
         <v>13</v>
@@ -11513,24 +11513,24 @@
       </c>
       <c r="I155" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J155" t="n">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="K155" t="n">
-        <v>17000</v>
+        <v>15000</v>
       </c>
       <c r="L155" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="M155" t="n">
-        <v>17500</v>
+        <v>15000</v>
       </c>
       <c r="N155" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O155" t="inlineStr">
@@ -11539,10 +11539,10 @@
         </is>
       </c>
       <c r="P155" t="n">
-        <v>583</v>
+        <v>375</v>
       </c>
       <c r="Q155" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="R155" t="inlineStr">
         <is>
@@ -11580,7 +11580,7 @@
       </c>
       <c r="H156" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I156" t="inlineStr">
@@ -11589,20 +11589,20 @@
         </is>
       </c>
       <c r="J156" t="n">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="K156" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="L156" t="n">
         <v>16000</v>
       </c>
       <c r="M156" t="n">
-        <v>16000</v>
+        <v>15480</v>
       </c>
       <c r="N156" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O156" t="inlineStr">
@@ -11611,10 +11611,10 @@
         </is>
       </c>
       <c r="P156" t="n">
-        <v>400</v>
+        <v>310</v>
       </c>
       <c r="Q156" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="R156" t="inlineStr">
         <is>
@@ -11637,7 +11637,7 @@
         </is>
       </c>
       <c r="D157" s="2" t="n">
-        <v>44426</v>
+        <v>44335</v>
       </c>
       <c r="E157" t="n">
         <v>13</v>
@@ -11657,24 +11657,24 @@
       </c>
       <c r="I157" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J157" t="n">
         <v>16</v>
       </c>
       <c r="K157" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="L157" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="M157" t="n">
-        <v>16000</v>
+        <v>17500</v>
       </c>
       <c r="N157" t="inlineStr">
         <is>
-          <t>$/caja 25 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O157" t="inlineStr">
@@ -11683,10 +11683,10 @@
         </is>
       </c>
       <c r="P157" t="n">
-        <v>16000</v>
+        <v>583</v>
       </c>
       <c r="Q157" t="n">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="R157" t="inlineStr">
         <is>
@@ -11709,7 +11709,7 @@
         </is>
       </c>
       <c r="D158" s="2" t="n">
-        <v>44426</v>
+        <v>44335</v>
       </c>
       <c r="E158" t="n">
         <v>13</v>
@@ -11733,20 +11733,20 @@
         </is>
       </c>
       <c r="J158" t="n">
-        <v>52</v>
+        <v>34</v>
       </c>
       <c r="K158" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="L158" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="M158" t="n">
-        <v>14500</v>
+        <v>16000</v>
       </c>
       <c r="N158" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O158" t="inlineStr">
@@ -11755,10 +11755,10 @@
         </is>
       </c>
       <c r="P158" t="n">
-        <v>483</v>
+        <v>400</v>
       </c>
       <c r="Q158" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="R158" t="inlineStr">
         <is>
@@ -11801,24 +11801,24 @@
       </c>
       <c r="I159" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J159" t="n">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="K159" t="n">
-        <v>13000</v>
+        <v>16000</v>
       </c>
       <c r="L159" t="n">
-        <v>13000</v>
+        <v>16000</v>
       </c>
       <c r="M159" t="n">
-        <v>13000</v>
+        <v>16000</v>
       </c>
       <c r="N159" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 25 unidades</t>
         </is>
       </c>
       <c r="O159" t="inlineStr">
@@ -11827,10 +11827,10 @@
         </is>
       </c>
       <c r="P159" t="n">
-        <v>325</v>
+        <v>16000</v>
       </c>
       <c r="Q159" t="n">
-        <v>40</v>
+        <v>1</v>
       </c>
       <c r="R159" t="inlineStr">
         <is>
@@ -11853,7 +11853,7 @@
         </is>
       </c>
       <c r="D160" s="2" t="n">
-        <v>44421</v>
+        <v>44426</v>
       </c>
       <c r="E160" t="n">
         <v>13</v>
@@ -11873,24 +11873,24 @@
       </c>
       <c r="I160" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J160" t="n">
-        <v>25</v>
+        <v>52</v>
       </c>
       <c r="K160" t="n">
-        <v>17000</v>
+        <v>14000</v>
       </c>
       <c r="L160" t="n">
-        <v>17000</v>
+        <v>15000</v>
       </c>
       <c r="M160" t="n">
-        <v>17000</v>
+        <v>14500</v>
       </c>
       <c r="N160" t="inlineStr">
         <is>
-          <t>$/caja 25 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O160" t="inlineStr">
@@ -11899,10 +11899,10 @@
         </is>
       </c>
       <c r="P160" t="n">
-        <v>17000</v>
+        <v>483</v>
       </c>
       <c r="Q160" t="n">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="R160" t="inlineStr">
         <is>
@@ -11925,7 +11925,7 @@
         </is>
       </c>
       <c r="D161" s="2" t="n">
-        <v>44421</v>
+        <v>44426</v>
       </c>
       <c r="E161" t="n">
         <v>13</v>
@@ -11945,24 +11945,24 @@
       </c>
       <c r="I161" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J161" t="n">
-        <v>70</v>
+        <v>34</v>
       </c>
       <c r="K161" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="L161" t="n">
-        <v>16000</v>
+        <v>13000</v>
       </c>
       <c r="M161" t="n">
-        <v>15500</v>
+        <v>13000</v>
       </c>
       <c r="N161" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O161" t="inlineStr">
@@ -11971,10 +11971,10 @@
         </is>
       </c>
       <c r="P161" t="n">
-        <v>517</v>
+        <v>325</v>
       </c>
       <c r="Q161" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="R161" t="inlineStr">
         <is>
@@ -12017,24 +12017,24 @@
       </c>
       <c r="I162" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J162" t="n">
-        <v>43</v>
+        <v>25</v>
       </c>
       <c r="K162" t="n">
-        <v>13000</v>
+        <v>17000</v>
       </c>
       <c r="L162" t="n">
-        <v>14000</v>
+        <v>17000</v>
       </c>
       <c r="M162" t="n">
-        <v>13488</v>
+        <v>17000</v>
       </c>
       <c r="N162" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 25 unidades</t>
         </is>
       </c>
       <c r="O162" t="inlineStr">
@@ -12043,10 +12043,10 @@
         </is>
       </c>
       <c r="P162" t="n">
-        <v>337</v>
+        <v>17000</v>
       </c>
       <c r="Q162" t="n">
-        <v>40</v>
+        <v>1</v>
       </c>
       <c r="R162" t="inlineStr">
         <is>
@@ -12069,7 +12069,7 @@
         </is>
       </c>
       <c r="D163" s="2" t="n">
-        <v>44434</v>
+        <v>44421</v>
       </c>
       <c r="E163" t="n">
         <v>13</v>
@@ -12089,36 +12089,36 @@
       </c>
       <c r="I163" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J163" t="n">
-        <v>18</v>
+        <v>70</v>
       </c>
       <c r="K163" t="n">
+        <v>15000</v>
+      </c>
+      <c r="L163" t="n">
         <v>16000</v>
       </c>
-      <c r="L163" t="n">
-        <v>17000</v>
-      </c>
       <c r="M163" t="n">
-        <v>16500</v>
+        <v>15500</v>
       </c>
       <c r="N163" t="inlineStr">
         <is>
-          <t>$/caja 25 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O163" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P163" t="n">
-        <v>16500</v>
+        <v>517</v>
       </c>
       <c r="Q163" t="n">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="R163" t="inlineStr">
         <is>
@@ -12141,7 +12141,7 @@
         </is>
       </c>
       <c r="D164" s="2" t="n">
-        <v>44434</v>
+        <v>44421</v>
       </c>
       <c r="E164" t="n">
         <v>13</v>
@@ -12161,36 +12161,36 @@
       </c>
       <c r="I164" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J164" t="n">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="K164" t="n">
+        <v>13000</v>
+      </c>
+      <c r="L164" t="n">
         <v>14000</v>
       </c>
-      <c r="L164" t="n">
-        <v>15000</v>
-      </c>
       <c r="M164" t="n">
-        <v>14500</v>
+        <v>13488</v>
       </c>
       <c r="N164" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O164" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P164" t="n">
-        <v>483</v>
+        <v>337</v>
       </c>
       <c r="Q164" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="R164" t="inlineStr">
         <is>
@@ -12233,24 +12233,24 @@
       </c>
       <c r="I165" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J165" t="n">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="K165" t="n">
-        <v>12000</v>
+        <v>16000</v>
       </c>
       <c r="L165" t="n">
-        <v>13000</v>
+        <v>17000</v>
       </c>
       <c r="M165" t="n">
-        <v>12500</v>
+        <v>16500</v>
       </c>
       <c r="N165" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 25 unidades</t>
         </is>
       </c>
       <c r="O165" t="inlineStr">
@@ -12259,10 +12259,10 @@
         </is>
       </c>
       <c r="P165" t="n">
-        <v>312</v>
+        <v>16500</v>
       </c>
       <c r="Q165" t="n">
-        <v>40</v>
+        <v>1</v>
       </c>
       <c r="R165" t="inlineStr">
         <is>
@@ -12285,7 +12285,7 @@
         </is>
       </c>
       <c r="D166" s="2" t="n">
-        <v>44398</v>
+        <v>44434</v>
       </c>
       <c r="E166" t="n">
         <v>13</v>
@@ -12305,24 +12305,24 @@
       </c>
       <c r="I166" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J166" t="n">
-        <v>16</v>
+        <v>52</v>
       </c>
       <c r="K166" t="n">
-        <v>18000</v>
+        <v>14000</v>
       </c>
       <c r="L166" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="M166" t="n">
-        <v>18000</v>
+        <v>14500</v>
       </c>
       <c r="N166" t="inlineStr">
         <is>
-          <t>$/caja 25 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O166" t="inlineStr">
@@ -12331,10 +12331,10 @@
         </is>
       </c>
       <c r="P166" t="n">
-        <v>18000</v>
+        <v>483</v>
       </c>
       <c r="Q166" t="n">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="R166" t="inlineStr">
         <is>
@@ -12357,7 +12357,7 @@
         </is>
       </c>
       <c r="D167" s="2" t="n">
-        <v>44398</v>
+        <v>44434</v>
       </c>
       <c r="E167" t="n">
         <v>13</v>
@@ -12377,24 +12377,24 @@
       </c>
       <c r="I167" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J167" t="n">
         <v>34</v>
       </c>
       <c r="K167" t="n">
-        <v>16000</v>
+        <v>12000</v>
       </c>
       <c r="L167" t="n">
-        <v>17000</v>
+        <v>13000</v>
       </c>
       <c r="M167" t="n">
-        <v>16500</v>
+        <v>12500</v>
       </c>
       <c r="N167" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O167" t="inlineStr">
@@ -12403,10 +12403,10 @@
         </is>
       </c>
       <c r="P167" t="n">
-        <v>550</v>
+        <v>312</v>
       </c>
       <c r="Q167" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="R167" t="inlineStr">
         <is>
@@ -12449,24 +12449,24 @@
       </c>
       <c r="I168" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J168" t="n">
         <v>16</v>
       </c>
       <c r="K168" t="n">
-        <v>14000</v>
+        <v>18000</v>
       </c>
       <c r="L168" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="M168" t="n">
-        <v>14500</v>
+        <v>18000</v>
       </c>
       <c r="N168" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 25 unidades</t>
         </is>
       </c>
       <c r="O168" t="inlineStr">
@@ -12475,10 +12475,10 @@
         </is>
       </c>
       <c r="P168" t="n">
-        <v>362</v>
+        <v>18000</v>
       </c>
       <c r="Q168" t="n">
-        <v>40</v>
+        <v>1</v>
       </c>
       <c r="R168" t="inlineStr">
         <is>
@@ -12501,7 +12501,7 @@
         </is>
       </c>
       <c r="D169" s="2" t="n">
-        <v>44420</v>
+        <v>44398</v>
       </c>
       <c r="E169" t="n">
         <v>13</v>
@@ -12521,36 +12521,36 @@
       </c>
       <c r="I169" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J169" t="n">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="K169" t="n">
         <v>16000</v>
       </c>
       <c r="L169" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="M169" t="n">
-        <v>16000</v>
+        <v>16500</v>
       </c>
       <c r="N169" t="inlineStr">
         <is>
-          <t>$/caja 25 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O169" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P169" t="n">
-        <v>16000</v>
+        <v>550</v>
       </c>
       <c r="Q169" t="n">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="R169" t="inlineStr">
         <is>
@@ -12573,7 +12573,7 @@
         </is>
       </c>
       <c r="D170" s="2" t="n">
-        <v>44420</v>
+        <v>44398</v>
       </c>
       <c r="E170" t="n">
         <v>13</v>
@@ -12593,11 +12593,11 @@
       </c>
       <c r="I170" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J170" t="n">
-        <v>70</v>
+        <v>16</v>
       </c>
       <c r="K170" t="n">
         <v>14000</v>
@@ -12610,19 +12610,19 @@
       </c>
       <c r="N170" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O170" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P170" t="n">
-        <v>483</v>
+        <v>362</v>
       </c>
       <c r="Q170" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="R170" t="inlineStr">
         <is>
@@ -12665,24 +12665,24 @@
       </c>
       <c r="I171" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J171" t="n">
-        <v>43</v>
+        <v>25</v>
       </c>
       <c r="K171" t="n">
-        <v>12000</v>
+        <v>16000</v>
       </c>
       <c r="L171" t="n">
-        <v>13000</v>
+        <v>16000</v>
       </c>
       <c r="M171" t="n">
-        <v>12512</v>
+        <v>16000</v>
       </c>
       <c r="N171" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 25 unidades</t>
         </is>
       </c>
       <c r="O171" t="inlineStr">
@@ -12691,10 +12691,10 @@
         </is>
       </c>
       <c r="P171" t="n">
-        <v>313</v>
+        <v>16000</v>
       </c>
       <c r="Q171" t="n">
-        <v>40</v>
+        <v>1</v>
       </c>
       <c r="R171" t="inlineStr">
         <is>
@@ -12717,7 +12717,7 @@
         </is>
       </c>
       <c r="D172" s="2" t="n">
-        <v>44348</v>
+        <v>44420</v>
       </c>
       <c r="E172" t="n">
         <v>13</v>
@@ -12732,7 +12732,7 @@
       </c>
       <c r="H172" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I172" t="inlineStr">
@@ -12741,20 +12741,20 @@
         </is>
       </c>
       <c r="J172" t="n">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="K172" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="L172" t="n">
-        <v>17000</v>
+        <v>15000</v>
       </c>
       <c r="M172" t="n">
-        <v>16500</v>
+        <v>14500</v>
       </c>
       <c r="N172" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O172" t="inlineStr">
@@ -12763,10 +12763,10 @@
         </is>
       </c>
       <c r="P172" t="n">
-        <v>330</v>
+        <v>483</v>
       </c>
       <c r="Q172" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R172" t="inlineStr">
         <is>
@@ -12789,7 +12789,7 @@
         </is>
       </c>
       <c r="D173" s="2" t="n">
-        <v>44348</v>
+        <v>44420</v>
       </c>
       <c r="E173" t="n">
         <v>13</v>
@@ -12804,7 +12804,7 @@
       </c>
       <c r="H173" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I173" t="inlineStr">
@@ -12813,20 +12813,20 @@
         </is>
       </c>
       <c r="J173" t="n">
-        <v>20</v>
+        <v>43</v>
       </c>
       <c r="K173" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="L173" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="M173" t="n">
-        <v>14000</v>
+        <v>12512</v>
       </c>
       <c r="N173" t="inlineStr">
         <is>
-          <t>$/caja 70 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O173" t="inlineStr">
@@ -12835,10 +12835,10 @@
         </is>
       </c>
       <c r="P173" t="n">
-        <v>200</v>
+        <v>313</v>
       </c>
       <c r="Q173" t="n">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="R173" t="inlineStr">
         <is>
@@ -12876,7 +12876,7 @@
       </c>
       <c r="H174" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I174" t="inlineStr">
@@ -12885,32 +12885,32 @@
         </is>
       </c>
       <c r="J174" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="K174" t="n">
-        <v>19000</v>
+        <v>16000</v>
       </c>
       <c r="L174" t="n">
-        <v>20000</v>
+        <v>17000</v>
       </c>
       <c r="M174" t="n">
-        <v>19500</v>
+        <v>16500</v>
       </c>
       <c r="N174" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O174" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P174" t="n">
-        <v>650</v>
+        <v>330</v>
       </c>
       <c r="Q174" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R174" t="inlineStr">
         <is>
@@ -12948,7 +12948,7 @@
       </c>
       <c r="H175" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I175" t="inlineStr">
@@ -12957,32 +12957,32 @@
         </is>
       </c>
       <c r="J175" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="K175" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="L175" t="n">
-        <v>17000</v>
+        <v>14000</v>
       </c>
       <c r="M175" t="n">
-        <v>16500</v>
+        <v>14000</v>
       </c>
       <c r="N175" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 70 unidades</t>
         </is>
       </c>
       <c r="O175" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P175" t="n">
-        <v>412</v>
+        <v>200</v>
       </c>
       <c r="Q175" t="n">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="R175" t="inlineStr">
         <is>
@@ -13005,7 +13005,7 @@
         </is>
       </c>
       <c r="D176" s="2" t="n">
-        <v>44316</v>
+        <v>44348</v>
       </c>
       <c r="E176" t="n">
         <v>13</v>
@@ -13020,7 +13020,7 @@
       </c>
       <c r="H176" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I176" t="inlineStr">
@@ -13029,32 +13029,32 @@
         </is>
       </c>
       <c r="J176" t="n">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="K176" t="n">
-        <v>18000</v>
+        <v>19000</v>
       </c>
       <c r="L176" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="M176" t="n">
-        <v>18000</v>
+        <v>19500</v>
       </c>
       <c r="N176" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O176" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P176" t="n">
-        <v>360</v>
+        <v>650</v>
       </c>
       <c r="Q176" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R176" t="inlineStr">
         <is>
@@ -13077,7 +13077,7 @@
         </is>
       </c>
       <c r="D177" s="2" t="n">
-        <v>44316</v>
+        <v>44348</v>
       </c>
       <c r="E177" t="n">
         <v>13</v>
@@ -13097,36 +13097,36 @@
       </c>
       <c r="I177" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J177" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="K177" t="n">
-        <v>18000</v>
+        <v>16000</v>
       </c>
       <c r="L177" t="n">
-        <v>18000</v>
+        <v>17000</v>
       </c>
       <c r="M177" t="n">
-        <v>18000</v>
+        <v>16500</v>
       </c>
       <c r="N177" t="inlineStr">
         <is>
-          <t>$/caja 25 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O177" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P177" t="n">
-        <v>18000</v>
+        <v>412</v>
       </c>
       <c r="Q177" t="n">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="R177" t="inlineStr">
         <is>
@@ -13164,7 +13164,7 @@
       </c>
       <c r="H178" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I178" t="inlineStr">
@@ -13173,20 +13173,20 @@
         </is>
       </c>
       <c r="J178" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="K178" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="L178" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="M178" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="N178" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O178" t="inlineStr">
@@ -13195,10 +13195,10 @@
         </is>
       </c>
       <c r="P178" t="n">
-        <v>533</v>
+        <v>360</v>
       </c>
       <c r="Q178" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R178" t="inlineStr">
         <is>
@@ -13221,7 +13221,7 @@
         </is>
       </c>
       <c r="D179" s="2" t="n">
-        <v>44427</v>
+        <v>44316</v>
       </c>
       <c r="E179" t="n">
         <v>13</v>
@@ -13245,16 +13245,16 @@
         </is>
       </c>
       <c r="J179" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="K179" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="L179" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="M179" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="N179" t="inlineStr">
         <is>
@@ -13267,7 +13267,7 @@
         </is>
       </c>
       <c r="P179" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="Q179" t="n">
         <v>1</v>
@@ -13293,7 +13293,7 @@
         </is>
       </c>
       <c r="D180" s="2" t="n">
-        <v>44427</v>
+        <v>44316</v>
       </c>
       <c r="E180" t="n">
         <v>13</v>
@@ -13317,16 +13317,16 @@
         </is>
       </c>
       <c r="J180" t="n">
-        <v>43</v>
+        <v>23</v>
       </c>
       <c r="K180" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="L180" t="n">
         <v>16000</v>
       </c>
       <c r="M180" t="n">
-        <v>15488</v>
+        <v>16000</v>
       </c>
       <c r="N180" t="inlineStr">
         <is>
@@ -13339,7 +13339,7 @@
         </is>
       </c>
       <c r="P180" t="n">
-        <v>516</v>
+        <v>533</v>
       </c>
       <c r="Q180" t="n">
         <v>30</v>
@@ -13385,24 +13385,24 @@
       </c>
       <c r="I181" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J181" t="n">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="K181" t="n">
-        <v>13000</v>
+        <v>17000</v>
       </c>
       <c r="L181" t="n">
-        <v>14000</v>
+        <v>17000</v>
       </c>
       <c r="M181" t="n">
-        <v>13480</v>
+        <v>17000</v>
       </c>
       <c r="N181" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 25 unidades</t>
         </is>
       </c>
       <c r="O181" t="inlineStr">
@@ -13411,10 +13411,10 @@
         </is>
       </c>
       <c r="P181" t="n">
-        <v>337</v>
+        <v>17000</v>
       </c>
       <c r="Q181" t="n">
-        <v>40</v>
+        <v>1</v>
       </c>
       <c r="R181" t="inlineStr">
         <is>
@@ -13452,7 +13452,7 @@
       </c>
       <c r="H182" t="inlineStr">
         <is>
-          <t>Madrigal</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I182" t="inlineStr">
@@ -13461,7 +13461,7 @@
         </is>
       </c>
       <c r="J182" t="n">
-        <v>25</v>
+        <v>43</v>
       </c>
       <c r="K182" t="n">
         <v>15000</v>
@@ -13470,11 +13470,11 @@
         <v>16000</v>
       </c>
       <c r="M182" t="n">
-        <v>15480</v>
+        <v>15488</v>
       </c>
       <c r="N182" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O182" t="inlineStr">
@@ -13483,10 +13483,10 @@
         </is>
       </c>
       <c r="P182" t="n">
-        <v>387</v>
+        <v>516</v>
       </c>
       <c r="Q182" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="R182" t="inlineStr">
         <is>
@@ -13524,7 +13524,7 @@
       </c>
       <c r="H183" t="inlineStr">
         <is>
-          <t>Madrigal</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I183" t="inlineStr">
@@ -13533,7 +13533,7 @@
         </is>
       </c>
       <c r="J183" t="n">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="K183" t="n">
         <v>13000</v>
@@ -13542,11 +13542,11 @@
         <v>14000</v>
       </c>
       <c r="M183" t="n">
-        <v>13500</v>
+        <v>13480</v>
       </c>
       <c r="N183" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O183" t="inlineStr">
@@ -13555,10 +13555,10 @@
         </is>
       </c>
       <c r="P183" t="n">
-        <v>270</v>
+        <v>337</v>
       </c>
       <c r="Q183" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="R183" t="inlineStr">
         <is>
@@ -13581,7 +13581,7 @@
         </is>
       </c>
       <c r="D184" s="2" t="n">
-        <v>44341</v>
+        <v>44427</v>
       </c>
       <c r="E184" t="n">
         <v>13</v>
@@ -13596,7 +13596,7 @@
       </c>
       <c r="H184" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Madrigal</t>
         </is>
       </c>
       <c r="I184" t="inlineStr">
@@ -13605,20 +13605,20 @@
         </is>
       </c>
       <c r="J184" t="n">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="K184" t="n">
+        <v>15000</v>
+      </c>
+      <c r="L184" t="n">
         <v>16000</v>
       </c>
-      <c r="L184" t="n">
-        <v>17000</v>
-      </c>
       <c r="M184" t="n">
-        <v>16484</v>
+        <v>15480</v>
       </c>
       <c r="N184" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O184" t="inlineStr">
@@ -13627,10 +13627,10 @@
         </is>
       </c>
       <c r="P184" t="n">
-        <v>330</v>
+        <v>387</v>
       </c>
       <c r="Q184" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="R184" t="inlineStr">
         <is>
@@ -13653,7 +13653,7 @@
         </is>
       </c>
       <c r="D185" s="2" t="n">
-        <v>44341</v>
+        <v>44427</v>
       </c>
       <c r="E185" t="n">
         <v>13</v>
@@ -13668,41 +13668,41 @@
       </c>
       <c r="H185" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Madrigal</t>
         </is>
       </c>
       <c r="I185" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J185" t="n">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="K185" t="n">
-        <v>17000</v>
+        <v>13000</v>
       </c>
       <c r="L185" t="n">
-        <v>18000</v>
+        <v>14000</v>
       </c>
       <c r="M185" t="n">
-        <v>17476</v>
+        <v>13500</v>
       </c>
       <c r="N185" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O185" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P185" t="n">
-        <v>583</v>
+        <v>270</v>
       </c>
       <c r="Q185" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R185" t="inlineStr">
         <is>
@@ -13740,41 +13740,41 @@
       </c>
       <c r="H186" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I186" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J186" t="n">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="K186" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="L186" t="n">
-        <v>15000</v>
+        <v>17000</v>
       </c>
       <c r="M186" t="n">
-        <v>14500</v>
+        <v>16484</v>
       </c>
       <c r="N186" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O186" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P186" t="n">
-        <v>362</v>
+        <v>330</v>
       </c>
       <c r="Q186" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="R186" t="inlineStr">
         <is>
@@ -13797,7 +13797,7 @@
         </is>
       </c>
       <c r="D187" s="2" t="n">
-        <v>44414</v>
+        <v>44341</v>
       </c>
       <c r="E187" t="n">
         <v>13</v>
@@ -13817,36 +13817,36 @@
       </c>
       <c r="I187" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J187" t="n">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="K187" t="n">
-        <v>15000</v>
+        <v>17000</v>
       </c>
       <c r="L187" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="M187" t="n">
-        <v>15000</v>
+        <v>17476</v>
       </c>
       <c r="N187" t="inlineStr">
         <is>
-          <t>$/caja 25 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O187" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P187" t="n">
-        <v>15000</v>
+        <v>583</v>
       </c>
       <c r="Q187" t="n">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="R187" t="inlineStr">
         <is>
@@ -13869,7 +13869,7 @@
         </is>
       </c>
       <c r="D188" s="2" t="n">
-        <v>44414</v>
+        <v>44341</v>
       </c>
       <c r="E188" t="n">
         <v>13</v>
@@ -13889,36 +13889,36 @@
       </c>
       <c r="I188" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J188" t="n">
-        <v>61</v>
+        <v>16</v>
       </c>
       <c r="K188" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="L188" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="M188" t="n">
-        <v>13492</v>
+        <v>14500</v>
       </c>
       <c r="N188" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O188" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P188" t="n">
-        <v>450</v>
+        <v>362</v>
       </c>
       <c r="Q188" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="R188" t="inlineStr">
         <is>
@@ -13961,24 +13961,24 @@
       </c>
       <c r="I189" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J189" t="n">
-        <v>43</v>
+        <v>25</v>
       </c>
       <c r="K189" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="L189" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="M189" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="N189" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 25 unidades</t>
         </is>
       </c>
       <c r="O189" t="inlineStr">
@@ -13987,10 +13987,10 @@
         </is>
       </c>
       <c r="P189" t="n">
-        <v>300</v>
+        <v>15000</v>
       </c>
       <c r="Q189" t="n">
-        <v>40</v>
+        <v>1</v>
       </c>
       <c r="R189" t="inlineStr">
         <is>
@@ -14013,7 +14013,7 @@
         </is>
       </c>
       <c r="D190" s="2" t="n">
-        <v>44301</v>
+        <v>44414</v>
       </c>
       <c r="E190" t="n">
         <v>13</v>
@@ -14037,16 +14037,16 @@
         </is>
       </c>
       <c r="J190" t="n">
-        <v>30</v>
+        <v>61</v>
       </c>
       <c r="K190" t="n">
-        <v>17000</v>
+        <v>13000</v>
       </c>
       <c r="L190" t="n">
-        <v>18000</v>
+        <v>14000</v>
       </c>
       <c r="M190" t="n">
-        <v>17500</v>
+        <v>13492</v>
       </c>
       <c r="N190" t="inlineStr">
         <is>
@@ -14059,7 +14059,7 @@
         </is>
       </c>
       <c r="P190" t="n">
-        <v>583</v>
+        <v>450</v>
       </c>
       <c r="Q190" t="n">
         <v>30</v>
@@ -14085,7 +14085,7 @@
         </is>
       </c>
       <c r="D191" s="2" t="n">
-        <v>44417</v>
+        <v>44414</v>
       </c>
       <c r="E191" t="n">
         <v>13</v>
@@ -14105,24 +14105,24 @@
       </c>
       <c r="I191" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J191" t="n">
-        <v>16</v>
+        <v>43</v>
       </c>
       <c r="K191" t="n">
-        <v>16000</v>
+        <v>12000</v>
       </c>
       <c r="L191" t="n">
-        <v>16000</v>
+        <v>12000</v>
       </c>
       <c r="M191" t="n">
-        <v>16000</v>
+        <v>12000</v>
       </c>
       <c r="N191" t="inlineStr">
         <is>
-          <t>$/caja 25 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O191" t="inlineStr">
@@ -14131,10 +14131,10 @@
         </is>
       </c>
       <c r="P191" t="n">
-        <v>16000</v>
+        <v>300</v>
       </c>
       <c r="Q191" t="n">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="R191" t="inlineStr">
         <is>
@@ -14157,7 +14157,7 @@
         </is>
       </c>
       <c r="D192" s="2" t="n">
-        <v>44417</v>
+        <v>44301</v>
       </c>
       <c r="E192" t="n">
         <v>13</v>
@@ -14181,16 +14181,16 @@
         </is>
       </c>
       <c r="J192" t="n">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="K192" t="n">
-        <v>14000</v>
+        <v>17000</v>
       </c>
       <c r="L192" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="M192" t="n">
-        <v>14500</v>
+        <v>17500</v>
       </c>
       <c r="N192" t="inlineStr">
         <is>
@@ -14203,7 +14203,7 @@
         </is>
       </c>
       <c r="P192" t="n">
-        <v>483</v>
+        <v>583</v>
       </c>
       <c r="Q192" t="n">
         <v>30</v>
@@ -14249,24 +14249,24 @@
       </c>
       <c r="I193" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J193" t="n">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="K193" t="n">
-        <v>12000</v>
+        <v>16000</v>
       </c>
       <c r="L193" t="n">
-        <v>12000</v>
+        <v>16000</v>
       </c>
       <c r="M193" t="n">
-        <v>12000</v>
+        <v>16000</v>
       </c>
       <c r="N193" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 25 unidades</t>
         </is>
       </c>
       <c r="O193" t="inlineStr">
@@ -14275,10 +14275,10 @@
         </is>
       </c>
       <c r="P193" t="n">
-        <v>300</v>
+        <v>16000</v>
       </c>
       <c r="Q193" t="n">
-        <v>40</v>
+        <v>1</v>
       </c>
       <c r="R193" t="inlineStr">
         <is>
@@ -14301,7 +14301,7 @@
         </is>
       </c>
       <c r="D194" s="2" t="n">
-        <v>44441</v>
+        <v>44417</v>
       </c>
       <c r="E194" t="n">
         <v>13</v>
@@ -14321,24 +14321,24 @@
       </c>
       <c r="I194" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J194" t="n">
-        <v>9</v>
+        <v>34</v>
       </c>
       <c r="K194" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="L194" t="n">
-        <v>17000</v>
+        <v>15000</v>
       </c>
       <c r="M194" t="n">
-        <v>16444</v>
+        <v>14500</v>
       </c>
       <c r="N194" t="inlineStr">
         <is>
-          <t>$/caja 25 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O194" t="inlineStr">
@@ -14347,10 +14347,10 @@
         </is>
       </c>
       <c r="P194" t="n">
-        <v>16444</v>
+        <v>483</v>
       </c>
       <c r="Q194" t="n">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="R194" t="inlineStr">
         <is>
@@ -14373,7 +14373,7 @@
         </is>
       </c>
       <c r="D195" s="2" t="n">
-        <v>44441</v>
+        <v>44417</v>
       </c>
       <c r="E195" t="n">
         <v>13</v>
@@ -14393,24 +14393,24 @@
       </c>
       <c r="I195" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J195" t="n">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="K195" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="L195" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="M195" t="n">
-        <v>14500</v>
+        <v>12000</v>
       </c>
       <c r="N195" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O195" t="inlineStr">
@@ -14419,10 +14419,10 @@
         </is>
       </c>
       <c r="P195" t="n">
-        <v>483</v>
+        <v>300</v>
       </c>
       <c r="Q195" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="R195" t="inlineStr">
         <is>
@@ -14465,24 +14465,24 @@
       </c>
       <c r="I196" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J196" t="n">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="K196" t="n">
-        <v>12000</v>
+        <v>16000</v>
       </c>
       <c r="L196" t="n">
-        <v>13000</v>
+        <v>17000</v>
       </c>
       <c r="M196" t="n">
-        <v>12480</v>
+        <v>16444</v>
       </c>
       <c r="N196" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 25 unidades</t>
         </is>
       </c>
       <c r="O196" t="inlineStr">
@@ -14491,10 +14491,10 @@
         </is>
       </c>
       <c r="P196" t="n">
-        <v>312</v>
+        <v>16444</v>
       </c>
       <c r="Q196" t="n">
-        <v>40</v>
+        <v>1</v>
       </c>
       <c r="R196" t="inlineStr">
         <is>
@@ -14517,7 +14517,7 @@
         </is>
       </c>
       <c r="D197" s="2" t="n">
-        <v>44432</v>
+        <v>44441</v>
       </c>
       <c r="E197" t="n">
         <v>13</v>
@@ -14537,36 +14537,36 @@
       </c>
       <c r="I197" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J197" t="n">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="K197" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="L197" t="n">
-        <v>17000</v>
+        <v>15000</v>
       </c>
       <c r="M197" t="n">
-        <v>16500</v>
+        <v>14500</v>
       </c>
       <c r="N197" t="inlineStr">
         <is>
-          <t>$/caja 25 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O197" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P197" t="n">
-        <v>16500</v>
+        <v>483</v>
       </c>
       <c r="Q197" t="n">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="R197" t="inlineStr">
         <is>
@@ -14589,7 +14589,7 @@
         </is>
       </c>
       <c r="D198" s="2" t="n">
-        <v>44432</v>
+        <v>44441</v>
       </c>
       <c r="E198" t="n">
         <v>13</v>
@@ -14609,36 +14609,36 @@
       </c>
       <c r="I198" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J198" t="n">
-        <v>52</v>
+        <v>25</v>
       </c>
       <c r="K198" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="L198" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="M198" t="n">
-        <v>14500</v>
+        <v>12480</v>
       </c>
       <c r="N198" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O198" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P198" t="n">
-        <v>483</v>
+        <v>312</v>
       </c>
       <c r="Q198" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="R198" t="inlineStr">
         <is>
@@ -14681,24 +14681,24 @@
       </c>
       <c r="I199" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J199" t="n">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="K199" t="n">
-        <v>12000</v>
+        <v>16000</v>
       </c>
       <c r="L199" t="n">
-        <v>13000</v>
+        <v>17000</v>
       </c>
       <c r="M199" t="n">
-        <v>12500</v>
+        <v>16500</v>
       </c>
       <c r="N199" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 25 unidades</t>
         </is>
       </c>
       <c r="O199" t="inlineStr">
@@ -14707,10 +14707,10 @@
         </is>
       </c>
       <c r="P199" t="n">
-        <v>312</v>
+        <v>16500</v>
       </c>
       <c r="Q199" t="n">
-        <v>40</v>
+        <v>1</v>
       </c>
       <c r="R199" t="inlineStr">
         <is>
@@ -14748,7 +14748,7 @@
       </c>
       <c r="H200" t="inlineStr">
         <is>
-          <t>Madrigal</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I200" t="inlineStr">
@@ -14757,7 +14757,7 @@
         </is>
       </c>
       <c r="J200" t="n">
-        <v>34</v>
+        <v>52</v>
       </c>
       <c r="K200" t="n">
         <v>14000</v>
@@ -14770,7 +14770,7 @@
       </c>
       <c r="N200" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O200" t="inlineStr">
@@ -14779,10 +14779,10 @@
         </is>
       </c>
       <c r="P200" t="n">
-        <v>362</v>
+        <v>483</v>
       </c>
       <c r="Q200" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="R200" t="inlineStr">
         <is>
@@ -14820,7 +14820,7 @@
       </c>
       <c r="H201" t="inlineStr">
         <is>
-          <t>Madrigal</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I201" t="inlineStr">
@@ -14829,7 +14829,7 @@
         </is>
       </c>
       <c r="J201" t="n">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="K201" t="n">
         <v>12000</v>
@@ -14842,7 +14842,7 @@
       </c>
       <c r="N201" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O201" t="inlineStr">
@@ -14851,10 +14851,10 @@
         </is>
       </c>
       <c r="P201" t="n">
-        <v>250</v>
+        <v>312</v>
       </c>
       <c r="Q201" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="R201" t="inlineStr">
         <is>
@@ -14877,7 +14877,7 @@
         </is>
       </c>
       <c r="D202" s="2" t="n">
-        <v>44351</v>
+        <v>44432</v>
       </c>
       <c r="E202" t="n">
         <v>13</v>
@@ -14892,7 +14892,7 @@
       </c>
       <c r="H202" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Madrigal</t>
         </is>
       </c>
       <c r="I202" t="inlineStr">
@@ -14901,32 +14901,32 @@
         </is>
       </c>
       <c r="J202" t="n">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="K202" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="L202" t="n">
-        <v>17000</v>
+        <v>15000</v>
       </c>
       <c r="M202" t="n">
-        <v>16512</v>
+        <v>14500</v>
       </c>
       <c r="N202" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O202" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P202" t="n">
-        <v>330</v>
+        <v>362</v>
       </c>
       <c r="Q202" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="R202" t="inlineStr">
         <is>
@@ -14949,7 +14949,7 @@
         </is>
       </c>
       <c r="D203" s="2" t="n">
-        <v>44351</v>
+        <v>44432</v>
       </c>
       <c r="E203" t="n">
         <v>13</v>
@@ -14964,7 +14964,7 @@
       </c>
       <c r="H203" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Madrigal</t>
         </is>
       </c>
       <c r="I203" t="inlineStr">
@@ -14973,32 +14973,32 @@
         </is>
       </c>
       <c r="J203" t="n">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="K203" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="L203" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="M203" t="n">
-        <v>15000</v>
+        <v>12500</v>
       </c>
       <c r="N203" t="inlineStr">
         <is>
-          <t>$/caja 70 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O203" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P203" t="n">
-        <v>214</v>
+        <v>250</v>
       </c>
       <c r="Q203" t="n">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="R203" t="inlineStr">
         <is>
@@ -15036,41 +15036,41 @@
       </c>
       <c r="H204" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I204" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J204" t="n">
-        <v>16</v>
+        <v>43</v>
       </c>
       <c r="K204" t="n">
-        <v>20000</v>
+        <v>16000</v>
       </c>
       <c r="L204" t="n">
-        <v>20000</v>
+        <v>17000</v>
       </c>
       <c r="M204" t="n">
-        <v>20000</v>
+        <v>16512</v>
       </c>
       <c r="N204" t="inlineStr">
         <is>
-          <t>$/caja 25 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O204" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P204" t="n">
-        <v>20000</v>
+        <v>330</v>
       </c>
       <c r="Q204" t="n">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="R204" t="inlineStr">
         <is>
@@ -15108,41 +15108,41 @@
       </c>
       <c r="H205" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I205" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J205" t="n">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="K205" t="n">
-        <v>17000</v>
+        <v>15000</v>
       </c>
       <c r="L205" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="M205" t="n">
-        <v>17500</v>
+        <v>15000</v>
       </c>
       <c r="N205" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 70 unidades</t>
         </is>
       </c>
       <c r="O205" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P205" t="n">
-        <v>583</v>
+        <v>214</v>
       </c>
       <c r="Q205" t="n">
-        <v>30</v>
+        <v>70</v>
       </c>
       <c r="R205" t="inlineStr">
         <is>
@@ -15185,24 +15185,24 @@
       </c>
       <c r="I206" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J206" t="n">
         <v>16</v>
       </c>
       <c r="K206" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="L206" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="M206" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="N206" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 25 unidades</t>
         </is>
       </c>
       <c r="O206" t="inlineStr">
@@ -15211,10 +15211,10 @@
         </is>
       </c>
       <c r="P206" t="n">
-        <v>375</v>
+        <v>20000</v>
       </c>
       <c r="Q206" t="n">
-        <v>40</v>
+        <v>1</v>
       </c>
       <c r="R206" t="inlineStr">
         <is>
@@ -15237,7 +15237,7 @@
         </is>
       </c>
       <c r="D207" s="2" t="n">
-        <v>44369</v>
+        <v>44351</v>
       </c>
       <c r="E207" t="n">
         <v>13</v>
@@ -15257,24 +15257,24 @@
       </c>
       <c r="I207" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J207" t="n">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="K207" t="n">
-        <v>21000</v>
+        <v>17000</v>
       </c>
       <c r="L207" t="n">
-        <v>22000</v>
+        <v>18000</v>
       </c>
       <c r="M207" t="n">
-        <v>21500</v>
+        <v>17500</v>
       </c>
       <c r="N207" t="inlineStr">
         <is>
-          <t>$/caja 25 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O207" t="inlineStr">
@@ -15283,10 +15283,10 @@
         </is>
       </c>
       <c r="P207" t="n">
-        <v>21500</v>
+        <v>583</v>
       </c>
       <c r="Q207" t="n">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="R207" t="inlineStr">
         <is>
@@ -15309,7 +15309,7 @@
         </is>
       </c>
       <c r="D208" s="2" t="n">
-        <v>44369</v>
+        <v>44351</v>
       </c>
       <c r="E208" t="n">
         <v>13</v>
@@ -15329,24 +15329,24 @@
       </c>
       <c r="I208" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J208" t="n">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="K208" t="n">
-        <v>19000</v>
+        <v>15000</v>
       </c>
       <c r="L208" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="M208" t="n">
-        <v>19500</v>
+        <v>15000</v>
       </c>
       <c r="N208" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O208" t="inlineStr">
@@ -15355,10 +15355,10 @@
         </is>
       </c>
       <c r="P208" t="n">
-        <v>650</v>
+        <v>375</v>
       </c>
       <c r="Q208" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="R208" t="inlineStr">
         <is>
@@ -15401,24 +15401,24 @@
       </c>
       <c r="I209" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J209" t="n">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="K209" t="n">
-        <v>17000</v>
+        <v>21000</v>
       </c>
       <c r="L209" t="n">
-        <v>17000</v>
+        <v>22000</v>
       </c>
       <c r="M209" t="n">
-        <v>17000</v>
+        <v>21500</v>
       </c>
       <c r="N209" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 25 unidades</t>
         </is>
       </c>
       <c r="O209" t="inlineStr">
@@ -15427,10 +15427,10 @@
         </is>
       </c>
       <c r="P209" t="n">
-        <v>425</v>
+        <v>21500</v>
       </c>
       <c r="Q209" t="n">
-        <v>40</v>
+        <v>1</v>
       </c>
       <c r="R209" t="inlineStr">
         <is>
@@ -15468,7 +15468,7 @@
       </c>
       <c r="H210" t="inlineStr">
         <is>
-          <t>Madrigal</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I210" t="inlineStr">
@@ -15477,32 +15477,32 @@
         </is>
       </c>
       <c r="J210" t="n">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="K210" t="n">
-        <v>16000</v>
+        <v>19000</v>
       </c>
       <c r="L210" t="n">
-        <v>17000</v>
+        <v>20000</v>
       </c>
       <c r="M210" t="n">
-        <v>16488</v>
+        <v>19500</v>
       </c>
       <c r="N210" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O210" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P210" t="n">
-        <v>412</v>
+        <v>650</v>
       </c>
       <c r="Q210" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="R210" t="inlineStr">
         <is>
@@ -15540,7 +15540,7 @@
       </c>
       <c r="H211" t="inlineStr">
         <is>
-          <t>Madrigal</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I211" t="inlineStr">
@@ -15552,29 +15552,29 @@
         <v>25</v>
       </c>
       <c r="K211" t="n">
-        <v>14000</v>
+        <v>17000</v>
       </c>
       <c r="L211" t="n">
-        <v>14000</v>
+        <v>17000</v>
       </c>
       <c r="M211" t="n">
-        <v>14000</v>
+        <v>17000</v>
       </c>
       <c r="N211" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O211" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P211" t="n">
-        <v>280</v>
+        <v>425</v>
       </c>
       <c r="Q211" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="R211" t="inlineStr">
         <is>
@@ -15597,7 +15597,7 @@
         </is>
       </c>
       <c r="D212" s="2" t="n">
-        <v>44342</v>
+        <v>44369</v>
       </c>
       <c r="E212" t="n">
         <v>13</v>
@@ -15612,7 +15612,7 @@
       </c>
       <c r="H212" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Madrigal</t>
         </is>
       </c>
       <c r="I212" t="inlineStr">
@@ -15621,32 +15621,32 @@
         </is>
       </c>
       <c r="J212" t="n">
-        <v>21</v>
+        <v>43</v>
       </c>
       <c r="K212" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="L212" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="M212" t="n">
-        <v>15476</v>
+        <v>16488</v>
       </c>
       <c r="N212" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O212" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P212" t="n">
-        <v>310</v>
+        <v>412</v>
       </c>
       <c r="Q212" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="R212" t="inlineStr">
         <is>
@@ -15669,7 +15669,7 @@
         </is>
       </c>
       <c r="D213" s="2" t="n">
-        <v>44342</v>
+        <v>44369</v>
       </c>
       <c r="E213" t="n">
         <v>13</v>
@@ -15684,29 +15684,29 @@
       </c>
       <c r="H213" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Madrigal</t>
         </is>
       </c>
       <c r="I213" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J213" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K213" t="n">
-        <v>17000</v>
+        <v>14000</v>
       </c>
       <c r="L213" t="n">
-        <v>18000</v>
+        <v>14000</v>
       </c>
       <c r="M213" t="n">
-        <v>17500</v>
+        <v>14000</v>
       </c>
       <c r="N213" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O213" t="inlineStr">
@@ -15715,10 +15715,10 @@
         </is>
       </c>
       <c r="P213" t="n">
-        <v>583</v>
+        <v>280</v>
       </c>
       <c r="Q213" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R213" t="inlineStr">
         <is>
@@ -15756,41 +15756,41 @@
       </c>
       <c r="H214" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I214" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J214" t="n">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="K214" t="n">
         <v>15000</v>
       </c>
       <c r="L214" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="M214" t="n">
-        <v>15000</v>
+        <v>15476</v>
       </c>
       <c r="N214" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O214" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P214" t="n">
-        <v>375</v>
+        <v>310</v>
       </c>
       <c r="Q214" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="R214" t="inlineStr">
         <is>
@@ -15813,7 +15813,7 @@
         </is>
       </c>
       <c r="D215" s="2" t="n">
-        <v>44294</v>
+        <v>44342</v>
       </c>
       <c r="E215" t="n">
         <v>13</v>
@@ -15837,7 +15837,7 @@
         </is>
       </c>
       <c r="J215" t="n">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="K215" t="n">
         <v>17000</v>
@@ -15846,7 +15846,7 @@
         <v>18000</v>
       </c>
       <c r="M215" t="n">
-        <v>17481</v>
+        <v>17500</v>
       </c>
       <c r="N215" t="inlineStr">
         <is>
@@ -15885,7 +15885,7 @@
         </is>
       </c>
       <c r="D216" s="2" t="n">
-        <v>44379</v>
+        <v>44342</v>
       </c>
       <c r="E216" t="n">
         <v>13</v>
@@ -15905,36 +15905,36 @@
       </c>
       <c r="I216" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J216" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K216" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="L216" t="n">
-        <v>21000</v>
+        <v>15000</v>
       </c>
       <c r="M216" t="n">
-        <v>20500</v>
+        <v>15000</v>
       </c>
       <c r="N216" t="inlineStr">
         <is>
-          <t>$/caja 25 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O216" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P216" t="n">
-        <v>20500</v>
+        <v>375</v>
       </c>
       <c r="Q216" t="n">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="R216" t="inlineStr">
         <is>
@@ -15957,7 +15957,7 @@
         </is>
       </c>
       <c r="D217" s="2" t="n">
-        <v>44379</v>
+        <v>44294</v>
       </c>
       <c r="E217" t="n">
         <v>13</v>
@@ -15981,16 +15981,16 @@
         </is>
       </c>
       <c r="J217" t="n">
-        <v>52</v>
+        <v>27</v>
       </c>
       <c r="K217" t="n">
+        <v>17000</v>
+      </c>
+      <c r="L217" t="n">
         <v>18000</v>
       </c>
-      <c r="L217" t="n">
-        <v>19000</v>
-      </c>
       <c r="M217" t="n">
-        <v>18500</v>
+        <v>17481</v>
       </c>
       <c r="N217" t="inlineStr">
         <is>
@@ -15999,11 +15999,11 @@
       </c>
       <c r="O217" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P217" t="n">
-        <v>617</v>
+        <v>583</v>
       </c>
       <c r="Q217" t="n">
         <v>30</v>
@@ -16049,24 +16049,24 @@
       </c>
       <c r="I218" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J218" t="n">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="K218" t="n">
-        <v>16000</v>
+        <v>20000</v>
       </c>
       <c r="L218" t="n">
-        <v>16000</v>
+        <v>21000</v>
       </c>
       <c r="M218" t="n">
-        <v>16000</v>
+        <v>20500</v>
       </c>
       <c r="N218" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 25 unidades</t>
         </is>
       </c>
       <c r="O218" t="inlineStr">
@@ -16075,10 +16075,10 @@
         </is>
       </c>
       <c r="P218" t="n">
-        <v>400</v>
+        <v>20500</v>
       </c>
       <c r="Q218" t="n">
-        <v>40</v>
+        <v>1</v>
       </c>
       <c r="R218" t="inlineStr">
         <is>
@@ -16116,25 +16116,25 @@
       </c>
       <c r="H219" t="inlineStr">
         <is>
-          <t>Madrigal</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I219" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J219" t="n">
-        <v>16</v>
+        <v>52</v>
       </c>
       <c r="K219" t="n">
-        <v>22000</v>
+        <v>18000</v>
       </c>
       <c r="L219" t="n">
-        <v>23000</v>
+        <v>19000</v>
       </c>
       <c r="M219" t="n">
-        <v>22500</v>
+        <v>18500</v>
       </c>
       <c r="N219" t="inlineStr">
         <is>
@@ -16147,7 +16147,7 @@
         </is>
       </c>
       <c r="P219" t="n">
-        <v>750</v>
+        <v>617</v>
       </c>
       <c r="Q219" t="n">
         <v>30</v>
@@ -16188,25 +16188,25 @@
       </c>
       <c r="H220" t="inlineStr">
         <is>
-          <t>Madrigal</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I220" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J220" t="n">
         <v>34</v>
       </c>
       <c r="K220" t="n">
-        <v>20000</v>
+        <v>16000</v>
       </c>
       <c r="L220" t="n">
-        <v>21000</v>
+        <v>16000</v>
       </c>
       <c r="M220" t="n">
-        <v>20500</v>
+        <v>16000</v>
       </c>
       <c r="N220" t="inlineStr">
         <is>
@@ -16219,7 +16219,7 @@
         </is>
       </c>
       <c r="P220" t="n">
-        <v>512</v>
+        <v>400</v>
       </c>
       <c r="Q220" t="n">
         <v>40</v>
@@ -16265,24 +16265,24 @@
       </c>
       <c r="I221" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J221" t="n">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="K221" t="n">
-        <v>19000</v>
+        <v>22000</v>
       </c>
       <c r="L221" t="n">
-        <v>19000</v>
+        <v>23000</v>
       </c>
       <c r="M221" t="n">
-        <v>19000</v>
+        <v>22500</v>
       </c>
       <c r="N221" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O221" t="inlineStr">
@@ -16291,10 +16291,10 @@
         </is>
       </c>
       <c r="P221" t="n">
-        <v>380</v>
+        <v>750</v>
       </c>
       <c r="Q221" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R221" t="inlineStr">
         <is>
@@ -16317,7 +16317,7 @@
         </is>
       </c>
       <c r="D222" s="2" t="n">
-        <v>44302</v>
+        <v>44379</v>
       </c>
       <c r="E222" t="n">
         <v>13</v>
@@ -16332,7 +16332,7 @@
       </c>
       <c r="H222" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Madrigal</t>
         </is>
       </c>
       <c r="I222" t="inlineStr">
@@ -16341,32 +16341,32 @@
         </is>
       </c>
       <c r="J222" t="n">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="K222" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="L222" t="n">
-        <v>18000</v>
+        <v>21000</v>
       </c>
       <c r="M222" t="n">
-        <v>18000</v>
+        <v>20500</v>
       </c>
       <c r="N222" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O222" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P222" t="n">
-        <v>600</v>
+        <v>512</v>
       </c>
       <c r="Q222" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="R222" t="inlineStr">
         <is>
@@ -16389,7 +16389,7 @@
         </is>
       </c>
       <c r="D223" s="2" t="n">
-        <v>44315</v>
+        <v>44379</v>
       </c>
       <c r="E223" t="n">
         <v>13</v>
@@ -16404,16 +16404,16 @@
       </c>
       <c r="H223" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Madrigal</t>
         </is>
       </c>
       <c r="I223" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J223" t="n">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="K223" t="n">
         <v>19000</v>
@@ -16426,19 +16426,19 @@
       </c>
       <c r="N223" t="inlineStr">
         <is>
-          <t>$/caja 25 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O223" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P223" t="n">
-        <v>19000</v>
+        <v>380</v>
       </c>
       <c r="Q223" t="n">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="R223" t="inlineStr">
         <is>
@@ -16461,7 +16461,7 @@
         </is>
       </c>
       <c r="D224" s="2" t="n">
-        <v>44315</v>
+        <v>44302</v>
       </c>
       <c r="E224" t="n">
         <v>13</v>
@@ -16485,16 +16485,16 @@
         </is>
       </c>
       <c r="J224" t="n">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="K224" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="L224" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="M224" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="N224" t="inlineStr">
         <is>
@@ -16507,7 +16507,7 @@
         </is>
       </c>
       <c r="P224" t="n">
-        <v>567</v>
+        <v>600</v>
       </c>
       <c r="Q224" t="n">
         <v>30</v>
@@ -16533,7 +16533,7 @@
         </is>
       </c>
       <c r="D225" s="2" t="n">
-        <v>44391</v>
+        <v>44315</v>
       </c>
       <c r="E225" t="n">
         <v>13</v>
@@ -16560,13 +16560,13 @@
         <v>16</v>
       </c>
       <c r="K225" t="n">
-        <v>17000</v>
+        <v>19000</v>
       </c>
       <c r="L225" t="n">
-        <v>18000</v>
+        <v>19000</v>
       </c>
       <c r="M225" t="n">
-        <v>17500</v>
+        <v>19000</v>
       </c>
       <c r="N225" t="inlineStr">
         <is>
@@ -16575,11 +16575,11 @@
       </c>
       <c r="O225" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P225" t="n">
-        <v>17500</v>
+        <v>19000</v>
       </c>
       <c r="Q225" t="n">
         <v>1</v>
@@ -16605,7 +16605,7 @@
         </is>
       </c>
       <c r="D226" s="2" t="n">
-        <v>44391</v>
+        <v>44315</v>
       </c>
       <c r="E226" t="n">
         <v>13</v>
@@ -16629,16 +16629,16 @@
         </is>
       </c>
       <c r="J226" t="n">
-        <v>43</v>
+        <v>20</v>
       </c>
       <c r="K226" t="n">
-        <v>15000</v>
+        <v>17000</v>
       </c>
       <c r="L226" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="M226" t="n">
-        <v>15488</v>
+        <v>17000</v>
       </c>
       <c r="N226" t="inlineStr">
         <is>
@@ -16647,11 +16647,11 @@
       </c>
       <c r="O226" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P226" t="n">
-        <v>516</v>
+        <v>567</v>
       </c>
       <c r="Q226" t="n">
         <v>30</v>
@@ -16697,24 +16697,24 @@
       </c>
       <c r="I227" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J227" t="n">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="K227" t="n">
-        <v>13000</v>
+        <v>17000</v>
       </c>
       <c r="L227" t="n">
-        <v>13000</v>
+        <v>18000</v>
       </c>
       <c r="M227" t="n">
-        <v>13000</v>
+        <v>17500</v>
       </c>
       <c r="N227" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 25 unidades</t>
         </is>
       </c>
       <c r="O227" t="inlineStr">
@@ -16723,10 +16723,10 @@
         </is>
       </c>
       <c r="P227" t="n">
-        <v>325</v>
+        <v>17500</v>
       </c>
       <c r="Q227" t="n">
-        <v>40</v>
+        <v>1</v>
       </c>
       <c r="R227" t="inlineStr">
         <is>
@@ -16749,7 +16749,7 @@
         </is>
       </c>
       <c r="D228" s="2" t="n">
-        <v>44446</v>
+        <v>44391</v>
       </c>
       <c r="E228" t="n">
         <v>13</v>
@@ -16769,36 +16769,36 @@
       </c>
       <c r="I228" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J228" t="n">
-        <v>16</v>
+        <v>43</v>
       </c>
       <c r="K228" t="n">
         <v>15000</v>
       </c>
       <c r="L228" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="M228" t="n">
-        <v>15000</v>
+        <v>15488</v>
       </c>
       <c r="N228" t="inlineStr">
         <is>
-          <t>$/caja 25 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O228" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P228" t="n">
-        <v>15000</v>
+        <v>516</v>
       </c>
       <c r="Q228" t="n">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="R228" t="inlineStr">
         <is>
@@ -16821,7 +16821,7 @@
         </is>
       </c>
       <c r="D229" s="2" t="n">
-        <v>44446</v>
+        <v>44391</v>
       </c>
       <c r="E229" t="n">
         <v>13</v>
@@ -16841,36 +16841,36 @@
       </c>
       <c r="I229" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J229" t="n">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="K229" t="n">
         <v>13000</v>
       </c>
       <c r="L229" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="M229" t="n">
-        <v>13512</v>
+        <v>13000</v>
       </c>
       <c r="N229" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O229" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P229" t="n">
-        <v>450</v>
+        <v>325</v>
       </c>
       <c r="Q229" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="R229" t="inlineStr">
         <is>
@@ -16913,24 +16913,24 @@
       </c>
       <c r="I230" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J230" t="n">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="K230" t="n">
-        <v>11000</v>
+        <v>15000</v>
       </c>
       <c r="L230" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="M230" t="n">
-        <v>11480</v>
+        <v>15000</v>
       </c>
       <c r="N230" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 25 unidades</t>
         </is>
       </c>
       <c r="O230" t="inlineStr">
@@ -16939,10 +16939,10 @@
         </is>
       </c>
       <c r="P230" t="n">
-        <v>287</v>
+        <v>15000</v>
       </c>
       <c r="Q230" t="n">
-        <v>40</v>
+        <v>1</v>
       </c>
       <c r="R230" t="inlineStr">
         <is>
@@ -16980,7 +16980,7 @@
       </c>
       <c r="H231" t="inlineStr">
         <is>
-          <t>Madrigal</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I231" t="inlineStr">
@@ -16989,20 +16989,20 @@
         </is>
       </c>
       <c r="J231" t="n">
-        <v>25</v>
+        <v>43</v>
       </c>
       <c r="K231" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="L231" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="M231" t="n">
-        <v>12480</v>
+        <v>13512</v>
       </c>
       <c r="N231" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O231" t="inlineStr">
@@ -17011,10 +17011,10 @@
         </is>
       </c>
       <c r="P231" t="n">
-        <v>312</v>
+        <v>450</v>
       </c>
       <c r="Q231" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="R231" t="inlineStr">
         <is>
@@ -17037,7 +17037,7 @@
         </is>
       </c>
       <c r="D232" s="2" t="n">
-        <v>44411</v>
+        <v>44446</v>
       </c>
       <c r="E232" t="n">
         <v>13</v>
@@ -17057,24 +17057,24 @@
       </c>
       <c r="I232" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J232" t="n">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="K232" t="n">
-        <v>16000</v>
+        <v>11000</v>
       </c>
       <c r="L232" t="n">
-        <v>16000</v>
+        <v>12000</v>
       </c>
       <c r="M232" t="n">
-        <v>16000</v>
+        <v>11480</v>
       </c>
       <c r="N232" t="inlineStr">
         <is>
-          <t>$/caja 25 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O232" t="inlineStr">
@@ -17083,10 +17083,10 @@
         </is>
       </c>
       <c r="P232" t="n">
-        <v>16000</v>
+        <v>287</v>
       </c>
       <c r="Q232" t="n">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="R232" t="inlineStr">
         <is>
@@ -17109,7 +17109,7 @@
         </is>
       </c>
       <c r="D233" s="2" t="n">
-        <v>44411</v>
+        <v>44446</v>
       </c>
       <c r="E233" t="n">
         <v>13</v>
@@ -17124,7 +17124,7 @@
       </c>
       <c r="H233" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Madrigal</t>
         </is>
       </c>
       <c r="I233" t="inlineStr">
@@ -17133,20 +17133,20 @@
         </is>
       </c>
       <c r="J233" t="n">
-        <v>61</v>
+        <v>25</v>
       </c>
       <c r="K233" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="L233" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="M233" t="n">
-        <v>14492</v>
+        <v>12480</v>
       </c>
       <c r="N233" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O233" t="inlineStr">
@@ -17155,10 +17155,10 @@
         </is>
       </c>
       <c r="P233" t="n">
-        <v>483</v>
+        <v>312</v>
       </c>
       <c r="Q233" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="R233" t="inlineStr">
         <is>
@@ -17201,24 +17201,24 @@
       </c>
       <c r="I234" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J234" t="n">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="K234" t="n">
-        <v>12000</v>
+        <v>16000</v>
       </c>
       <c r="L234" t="n">
-        <v>12000</v>
+        <v>16000</v>
       </c>
       <c r="M234" t="n">
-        <v>12000</v>
+        <v>16000</v>
       </c>
       <c r="N234" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 25 unidades</t>
         </is>
       </c>
       <c r="O234" t="inlineStr">
@@ -17227,10 +17227,10 @@
         </is>
       </c>
       <c r="P234" t="n">
-        <v>300</v>
+        <v>16000</v>
       </c>
       <c r="Q234" t="n">
-        <v>40</v>
+        <v>1</v>
       </c>
       <c r="R234" t="inlineStr">
         <is>
@@ -17253,7 +17253,7 @@
         </is>
       </c>
       <c r="D235" s="2" t="n">
-        <v>44313</v>
+        <v>44411</v>
       </c>
       <c r="E235" t="n">
         <v>13</v>
@@ -17273,36 +17273,36 @@
       </c>
       <c r="I235" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J235" t="n">
-        <v>16</v>
+        <v>61</v>
       </c>
       <c r="K235" t="n">
-        <v>20000</v>
+        <v>14000</v>
       </c>
       <c r="L235" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="M235" t="n">
-        <v>20000</v>
+        <v>14492</v>
       </c>
       <c r="N235" t="inlineStr">
         <is>
-          <t>$/caja 25 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O235" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P235" t="n">
-        <v>20000</v>
+        <v>483</v>
       </c>
       <c r="Q235" t="n">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="R235" t="inlineStr">
         <is>
@@ -17325,7 +17325,7 @@
         </is>
       </c>
       <c r="D236" s="2" t="n">
-        <v>44313</v>
+        <v>44411</v>
       </c>
       <c r="E236" t="n">
         <v>13</v>
@@ -17345,36 +17345,36 @@
       </c>
       <c r="I236" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J236" t="n">
         <v>25</v>
       </c>
       <c r="K236" t="n">
-        <v>17000</v>
+        <v>12000</v>
       </c>
       <c r="L236" t="n">
-        <v>17000</v>
+        <v>12000</v>
       </c>
       <c r="M236" t="n">
-        <v>17000</v>
+        <v>12000</v>
       </c>
       <c r="N236" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O236" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P236" t="n">
-        <v>567</v>
+        <v>300</v>
       </c>
       <c r="Q236" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="R236" t="inlineStr">
         <is>
@@ -17397,7 +17397,7 @@
         </is>
       </c>
       <c r="D237" s="2" t="n">
-        <v>44329</v>
+        <v>44313</v>
       </c>
       <c r="E237" t="n">
         <v>13</v>
@@ -17412,29 +17412,29 @@
       </c>
       <c r="H237" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I237" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J237" t="n">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="K237" t="n">
-        <v>16000</v>
+        <v>20000</v>
       </c>
       <c r="L237" t="n">
-        <v>16000</v>
+        <v>20000</v>
       </c>
       <c r="M237" t="n">
-        <v>16000</v>
+        <v>20000</v>
       </c>
       <c r="N237" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 25 unidades</t>
         </is>
       </c>
       <c r="O237" t="inlineStr">
@@ -17443,10 +17443,10 @@
         </is>
       </c>
       <c r="P237" t="n">
-        <v>320</v>
+        <v>20000</v>
       </c>
       <c r="Q237" t="n">
-        <v>50</v>
+        <v>1</v>
       </c>
       <c r="R237" t="inlineStr">
         <is>
@@ -17469,7 +17469,7 @@
         </is>
       </c>
       <c r="D238" s="2" t="n">
-        <v>44329</v>
+        <v>44313</v>
       </c>
       <c r="E238" t="n">
         <v>13</v>
@@ -17489,24 +17489,24 @@
       </c>
       <c r="I238" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J238" t="n">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="K238" t="n">
-        <v>18000</v>
+        <v>17000</v>
       </c>
       <c r="L238" t="n">
-        <v>18000</v>
+        <v>17000</v>
       </c>
       <c r="M238" t="n">
-        <v>18000</v>
+        <v>17000</v>
       </c>
       <c r="N238" t="inlineStr">
         <is>
-          <t>$/caja 25 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O238" t="inlineStr">
@@ -17515,10 +17515,10 @@
         </is>
       </c>
       <c r="P238" t="n">
-        <v>18000</v>
+        <v>567</v>
       </c>
       <c r="Q238" t="n">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="R238" t="inlineStr">
         <is>
@@ -17556,7 +17556,7 @@
       </c>
       <c r="H239" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I239" t="inlineStr">
@@ -17578,7 +17578,7 @@
       </c>
       <c r="N239" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O239" t="inlineStr">
@@ -17587,10 +17587,10 @@
         </is>
       </c>
       <c r="P239" t="n">
-        <v>533</v>
+        <v>320</v>
       </c>
       <c r="Q239" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R239" t="inlineStr">
         <is>
@@ -17613,7 +17613,7 @@
         </is>
       </c>
       <c r="D240" s="2" t="n">
-        <v>44438</v>
+        <v>44329</v>
       </c>
       <c r="E240" t="n">
         <v>13</v>
@@ -17637,16 +17637,16 @@
         </is>
       </c>
       <c r="J240" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="K240" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="L240" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="M240" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="N240" t="inlineStr">
         <is>
@@ -17655,11 +17655,11 @@
       </c>
       <c r="O240" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P240" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="Q240" t="n">
         <v>1</v>
@@ -17685,7 +17685,7 @@
         </is>
       </c>
       <c r="D241" s="2" t="n">
-        <v>44438</v>
+        <v>44329</v>
       </c>
       <c r="E241" t="n">
         <v>13</v>
@@ -17709,16 +17709,16 @@
         </is>
       </c>
       <c r="J241" t="n">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="K241" t="n">
-        <v>13000</v>
+        <v>16000</v>
       </c>
       <c r="L241" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="M241" t="n">
-        <v>13500</v>
+        <v>16000</v>
       </c>
       <c r="N241" t="inlineStr">
         <is>
@@ -17727,11 +17727,11 @@
       </c>
       <c r="O241" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P241" t="n">
-        <v>450</v>
+        <v>533</v>
       </c>
       <c r="Q241" t="n">
         <v>30</v>
@@ -17777,24 +17777,24 @@
       </c>
       <c r="I242" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J242" t="n">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="K242" t="n">
-        <v>11000</v>
+        <v>15000</v>
       </c>
       <c r="L242" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="M242" t="n">
-        <v>11480</v>
+        <v>15000</v>
       </c>
       <c r="N242" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 25 unidades</t>
         </is>
       </c>
       <c r="O242" t="inlineStr">
@@ -17803,10 +17803,10 @@
         </is>
       </c>
       <c r="P242" t="n">
-        <v>287</v>
+        <v>15000</v>
       </c>
       <c r="Q242" t="n">
-        <v>40</v>
+        <v>1</v>
       </c>
       <c r="R242" t="inlineStr">
         <is>
@@ -17829,7 +17829,7 @@
         </is>
       </c>
       <c r="D243" s="2" t="n">
-        <v>44428</v>
+        <v>44438</v>
       </c>
       <c r="E243" t="n">
         <v>13</v>
@@ -17849,24 +17849,24 @@
       </c>
       <c r="I243" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J243" t="n">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="K243" t="n">
-        <v>16000</v>
+        <v>13000</v>
       </c>
       <c r="L243" t="n">
-        <v>17000</v>
+        <v>14000</v>
       </c>
       <c r="M243" t="n">
-        <v>16480</v>
+        <v>13500</v>
       </c>
       <c r="N243" t="inlineStr">
         <is>
-          <t>$/caja 25 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O243" t="inlineStr">
@@ -17875,10 +17875,10 @@
         </is>
       </c>
       <c r="P243" t="n">
-        <v>16480</v>
+        <v>450</v>
       </c>
       <c r="Q243" t="n">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="R243" t="inlineStr">
         <is>
@@ -17901,7 +17901,7 @@
         </is>
       </c>
       <c r="D244" s="2" t="n">
-        <v>44428</v>
+        <v>44438</v>
       </c>
       <c r="E244" t="n">
         <v>13</v>
@@ -17921,24 +17921,24 @@
       </c>
       <c r="I244" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J244" t="n">
-        <v>52</v>
+        <v>25</v>
       </c>
       <c r="K244" t="n">
-        <v>14000</v>
+        <v>11000</v>
       </c>
       <c r="L244" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="M244" t="n">
-        <v>14500</v>
+        <v>11480</v>
       </c>
       <c r="N244" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O244" t="inlineStr">
@@ -17947,10 +17947,10 @@
         </is>
       </c>
       <c r="P244" t="n">
-        <v>483</v>
+        <v>287</v>
       </c>
       <c r="Q244" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="R244" t="inlineStr">
         <is>
@@ -17993,24 +17993,24 @@
       </c>
       <c r="I245" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J245" t="n">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="K245" t="n">
-        <v>12000</v>
+        <v>16000</v>
       </c>
       <c r="L245" t="n">
-        <v>13000</v>
+        <v>17000</v>
       </c>
       <c r="M245" t="n">
-        <v>12500</v>
+        <v>16480</v>
       </c>
       <c r="N245" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 25 unidades</t>
         </is>
       </c>
       <c r="O245" t="inlineStr">
@@ -18019,10 +18019,10 @@
         </is>
       </c>
       <c r="P245" t="n">
-        <v>312</v>
+        <v>16480</v>
       </c>
       <c r="Q245" t="n">
-        <v>40</v>
+        <v>1</v>
       </c>
       <c r="R245" t="inlineStr">
         <is>
@@ -18060,7 +18060,7 @@
       </c>
       <c r="H246" t="inlineStr">
         <is>
-          <t>Madrigal</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I246" t="inlineStr">
@@ -18069,20 +18069,20 @@
         </is>
       </c>
       <c r="J246" t="n">
-        <v>34</v>
+        <v>52</v>
       </c>
       <c r="K246" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="L246" t="n">
-        <v>17000</v>
+        <v>15000</v>
       </c>
       <c r="M246" t="n">
-        <v>16500</v>
+        <v>14500</v>
       </c>
       <c r="N246" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O246" t="inlineStr">
@@ -18091,10 +18091,10 @@
         </is>
       </c>
       <c r="P246" t="n">
-        <v>412</v>
+        <v>483</v>
       </c>
       <c r="Q246" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="R246" t="inlineStr">
         <is>
@@ -18132,7 +18132,7 @@
       </c>
       <c r="H247" t="inlineStr">
         <is>
-          <t>Madrigal</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I247" t="inlineStr">
@@ -18141,20 +18141,20 @@
         </is>
       </c>
       <c r="J247" t="n">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="K247" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="L247" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="M247" t="n">
-        <v>14500</v>
+        <v>12500</v>
       </c>
       <c r="N247" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O247" t="inlineStr">
@@ -18163,10 +18163,10 @@
         </is>
       </c>
       <c r="P247" t="n">
-        <v>290</v>
+        <v>312</v>
       </c>
       <c r="Q247" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="R247" t="inlineStr">
         <is>
@@ -18189,7 +18189,7 @@
         </is>
       </c>
       <c r="D248" s="2" t="n">
-        <v>44442</v>
+        <v>44428</v>
       </c>
       <c r="E248" t="n">
         <v>13</v>
@@ -18204,29 +18204,29 @@
       </c>
       <c r="H248" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Madrigal</t>
         </is>
       </c>
       <c r="I248" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J248" t="n">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="K248" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="L248" t="n">
-        <v>15000</v>
+        <v>17000</v>
       </c>
       <c r="M248" t="n">
-        <v>15000</v>
+        <v>16500</v>
       </c>
       <c r="N248" t="inlineStr">
         <is>
-          <t>$/caja 25 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O248" t="inlineStr">
@@ -18235,10 +18235,10 @@
         </is>
       </c>
       <c r="P248" t="n">
-        <v>15000</v>
+        <v>412</v>
       </c>
       <c r="Q248" t="n">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="R248" t="inlineStr">
         <is>
@@ -18261,7 +18261,7 @@
         </is>
       </c>
       <c r="D249" s="2" t="n">
-        <v>44442</v>
+        <v>44428</v>
       </c>
       <c r="E249" t="n">
         <v>13</v>
@@ -18276,29 +18276,29 @@
       </c>
       <c r="H249" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Madrigal</t>
         </is>
       </c>
       <c r="I249" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J249" t="n">
-        <v>43</v>
+        <v>16</v>
       </c>
       <c r="K249" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="L249" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="M249" t="n">
-        <v>13488</v>
+        <v>14500</v>
       </c>
       <c r="N249" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O249" t="inlineStr">
@@ -18307,10 +18307,10 @@
         </is>
       </c>
       <c r="P249" t="n">
-        <v>450</v>
+        <v>290</v>
       </c>
       <c r="Q249" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R249" t="inlineStr">
         <is>
@@ -18353,24 +18353,24 @@
       </c>
       <c r="I250" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J250" t="n">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="K250" t="n">
-        <v>11000</v>
+        <v>15000</v>
       </c>
       <c r="L250" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="M250" t="n">
-        <v>11500</v>
+        <v>15000</v>
       </c>
       <c r="N250" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 25 unidades</t>
         </is>
       </c>
       <c r="O250" t="inlineStr">
@@ -18379,10 +18379,10 @@
         </is>
       </c>
       <c r="P250" t="n">
-        <v>288</v>
+        <v>15000</v>
       </c>
       <c r="Q250" t="n">
-        <v>40</v>
+        <v>1</v>
       </c>
       <c r="R250" t="inlineStr">
         <is>
@@ -18405,7 +18405,7 @@
         </is>
       </c>
       <c r="D251" s="2" t="n">
-        <v>44435</v>
+        <v>44442</v>
       </c>
       <c r="E251" t="n">
         <v>13</v>
@@ -18425,36 +18425,36 @@
       </c>
       <c r="I251" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J251" t="n">
-        <v>70</v>
+        <v>43</v>
       </c>
       <c r="K251" t="n">
-        <v>16000</v>
+        <v>13000</v>
       </c>
       <c r="L251" t="n">
-        <v>17000</v>
+        <v>14000</v>
       </c>
       <c r="M251" t="n">
-        <v>16386</v>
+        <v>13488</v>
       </c>
       <c r="N251" t="inlineStr">
         <is>
-          <t>$/caja 25 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O251" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P251" t="n">
-        <v>16386</v>
+        <v>450</v>
       </c>
       <c r="Q251" t="n">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="R251" t="inlineStr">
         <is>
@@ -18477,7 +18477,7 @@
         </is>
       </c>
       <c r="D252" s="2" t="n">
-        <v>44435</v>
+        <v>44442</v>
       </c>
       <c r="E252" t="n">
         <v>13</v>
@@ -18497,36 +18497,36 @@
       </c>
       <c r="I252" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J252" t="n">
-        <v>224</v>
+        <v>32</v>
       </c>
       <c r="K252" t="n">
-        <v>14000</v>
+        <v>11000</v>
       </c>
       <c r="L252" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="M252" t="n">
-        <v>14500</v>
+        <v>11500</v>
       </c>
       <c r="N252" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O252" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P252" t="n">
-        <v>483</v>
+        <v>288</v>
       </c>
       <c r="Q252" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="R252" t="inlineStr">
         <is>
@@ -18569,24 +18569,24 @@
       </c>
       <c r="I253" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J253" t="n">
-        <v>143</v>
+        <v>70</v>
       </c>
       <c r="K253" t="n">
-        <v>12000</v>
+        <v>16000</v>
       </c>
       <c r="L253" t="n">
-        <v>13000</v>
+        <v>17000</v>
       </c>
       <c r="M253" t="n">
-        <v>12497</v>
+        <v>16386</v>
       </c>
       <c r="N253" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 25 unidades</t>
         </is>
       </c>
       <c r="O253" t="inlineStr">
@@ -18595,10 +18595,10 @@
         </is>
       </c>
       <c r="P253" t="n">
-        <v>312</v>
+        <v>16386</v>
       </c>
       <c r="Q253" t="n">
-        <v>40</v>
+        <v>1</v>
       </c>
       <c r="R253" t="inlineStr">
         <is>
@@ -18636,7 +18636,7 @@
       </c>
       <c r="H254" t="inlineStr">
         <is>
-          <t>Madrigal</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I254" t="inlineStr">
@@ -18645,7 +18645,7 @@
         </is>
       </c>
       <c r="J254" t="n">
-        <v>34</v>
+        <v>224</v>
       </c>
       <c r="K254" t="n">
         <v>14000</v>
@@ -18658,7 +18658,7 @@
       </c>
       <c r="N254" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O254" t="inlineStr">
@@ -18667,10 +18667,10 @@
         </is>
       </c>
       <c r="P254" t="n">
-        <v>362</v>
+        <v>483</v>
       </c>
       <c r="Q254" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="R254" t="inlineStr">
         <is>
@@ -18708,7 +18708,7 @@
       </c>
       <c r="H255" t="inlineStr">
         <is>
-          <t>Madrigal</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I255" t="inlineStr">
@@ -18717,7 +18717,7 @@
         </is>
       </c>
       <c r="J255" t="n">
-        <v>16</v>
+        <v>143</v>
       </c>
       <c r="K255" t="n">
         <v>12000</v>
@@ -18726,11 +18726,11 @@
         <v>13000</v>
       </c>
       <c r="M255" t="n">
-        <v>12500</v>
+        <v>12497</v>
       </c>
       <c r="N255" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O255" t="inlineStr">
@@ -18739,10 +18739,10 @@
         </is>
       </c>
       <c r="P255" t="n">
-        <v>250</v>
+        <v>312</v>
       </c>
       <c r="Q255" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="R255" t="inlineStr">
         <is>
@@ -18765,7 +18765,7 @@
         </is>
       </c>
       <c r="D256" s="2" t="n">
-        <v>44376</v>
+        <v>44435</v>
       </c>
       <c r="E256" t="n">
         <v>13</v>
@@ -18780,29 +18780,29 @@
       </c>
       <c r="H256" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Madrigal</t>
         </is>
       </c>
       <c r="I256" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J256" t="n">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="K256" t="n">
-        <v>21000</v>
+        <v>14000</v>
       </c>
       <c r="L256" t="n">
-        <v>22000</v>
+        <v>15000</v>
       </c>
       <c r="M256" t="n">
-        <v>21500</v>
+        <v>14500</v>
       </c>
       <c r="N256" t="inlineStr">
         <is>
-          <t>$/caja 25 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O256" t="inlineStr">
@@ -18811,10 +18811,10 @@
         </is>
       </c>
       <c r="P256" t="n">
-        <v>21500</v>
+        <v>362</v>
       </c>
       <c r="Q256" t="n">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="R256" t="inlineStr">
         <is>
@@ -18837,7 +18837,7 @@
         </is>
       </c>
       <c r="D257" s="2" t="n">
-        <v>44376</v>
+        <v>44435</v>
       </c>
       <c r="E257" t="n">
         <v>13</v>
@@ -18852,29 +18852,29 @@
       </c>
       <c r="H257" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Madrigal</t>
         </is>
       </c>
       <c r="I257" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J257" t="n">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="K257" t="n">
-        <v>19000</v>
+        <v>12000</v>
       </c>
       <c r="L257" t="n">
-        <v>20000</v>
+        <v>13000</v>
       </c>
       <c r="M257" t="n">
-        <v>19500</v>
+        <v>12500</v>
       </c>
       <c r="N257" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O257" t="inlineStr">
@@ -18883,10 +18883,10 @@
         </is>
       </c>
       <c r="P257" t="n">
-        <v>650</v>
+        <v>250</v>
       </c>
       <c r="Q257" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R257" t="inlineStr">
         <is>
@@ -18929,24 +18929,24 @@
       </c>
       <c r="I258" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J258" t="n">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="K258" t="n">
-        <v>16000</v>
+        <v>21000</v>
       </c>
       <c r="L258" t="n">
-        <v>17000</v>
+        <v>22000</v>
       </c>
       <c r="M258" t="n">
-        <v>16480</v>
+        <v>21500</v>
       </c>
       <c r="N258" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 25 unidades</t>
         </is>
       </c>
       <c r="O258" t="inlineStr">
@@ -18955,10 +18955,10 @@
         </is>
       </c>
       <c r="P258" t="n">
-        <v>412</v>
+        <v>21500</v>
       </c>
       <c r="Q258" t="n">
-        <v>40</v>
+        <v>1</v>
       </c>
       <c r="R258" t="inlineStr">
         <is>
@@ -18981,7 +18981,7 @@
         </is>
       </c>
       <c r="D259" s="2" t="n">
-        <v>44412</v>
+        <v>44376</v>
       </c>
       <c r="E259" t="n">
         <v>13</v>
@@ -19001,24 +19001,24 @@
       </c>
       <c r="I259" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J259" t="n">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="K259" t="n">
-        <v>16000</v>
+        <v>19000</v>
       </c>
       <c r="L259" t="n">
-        <v>16000</v>
+        <v>20000</v>
       </c>
       <c r="M259" t="n">
-        <v>16000</v>
+        <v>19500</v>
       </c>
       <c r="N259" t="inlineStr">
         <is>
-          <t>$/caja 25 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O259" t="inlineStr">
@@ -19027,10 +19027,10 @@
         </is>
       </c>
       <c r="P259" t="n">
-        <v>16000</v>
+        <v>650</v>
       </c>
       <c r="Q259" t="n">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="R259" t="inlineStr">
         <is>
@@ -19053,7 +19053,7 @@
         </is>
       </c>
       <c r="D260" s="2" t="n">
-        <v>44412</v>
+        <v>44376</v>
       </c>
       <c r="E260" t="n">
         <v>13</v>
@@ -19073,24 +19073,24 @@
       </c>
       <c r="I260" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J260" t="n">
-        <v>52</v>
+        <v>25</v>
       </c>
       <c r="K260" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="L260" t="n">
-        <v>15000</v>
+        <v>17000</v>
       </c>
       <c r="M260" t="n">
-        <v>14500</v>
+        <v>16480</v>
       </c>
       <c r="N260" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O260" t="inlineStr">
@@ -19099,10 +19099,10 @@
         </is>
       </c>
       <c r="P260" t="n">
-        <v>483</v>
+        <v>412</v>
       </c>
       <c r="Q260" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="R260" t="inlineStr">
         <is>
@@ -19145,24 +19145,24 @@
       </c>
       <c r="I261" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J261" t="n">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="K261" t="n">
-        <v>13000</v>
+        <v>16000</v>
       </c>
       <c r="L261" t="n">
-        <v>13000</v>
+        <v>16000</v>
       </c>
       <c r="M261" t="n">
-        <v>13000</v>
+        <v>16000</v>
       </c>
       <c r="N261" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 25 unidades</t>
         </is>
       </c>
       <c r="O261" t="inlineStr">
@@ -19171,10 +19171,10 @@
         </is>
       </c>
       <c r="P261" t="n">
-        <v>325</v>
+        <v>16000</v>
       </c>
       <c r="Q261" t="n">
-        <v>40</v>
+        <v>1</v>
       </c>
       <c r="R261" t="inlineStr">
         <is>
@@ -19197,7 +19197,7 @@
         </is>
       </c>
       <c r="D262" s="2" t="n">
-        <v>44399</v>
+        <v>44412</v>
       </c>
       <c r="E262" t="n">
         <v>13</v>
@@ -19217,24 +19217,24 @@
       </c>
       <c r="I262" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J262" t="n">
-        <v>18</v>
+        <v>52</v>
       </c>
       <c r="K262" t="n">
-        <v>18000</v>
+        <v>14000</v>
       </c>
       <c r="L262" t="n">
-        <v>19000</v>
+        <v>15000</v>
       </c>
       <c r="M262" t="n">
-        <v>18500</v>
+        <v>14500</v>
       </c>
       <c r="N262" t="inlineStr">
         <is>
-          <t>$/caja 25 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O262" t="inlineStr">
@@ -19243,10 +19243,10 @@
         </is>
       </c>
       <c r="P262" t="n">
-        <v>18500</v>
+        <v>483</v>
       </c>
       <c r="Q262" t="n">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="R262" t="inlineStr">
         <is>
@@ -19269,7 +19269,7 @@
         </is>
       </c>
       <c r="D263" s="2" t="n">
-        <v>44399</v>
+        <v>44412</v>
       </c>
       <c r="E263" t="n">
         <v>13</v>
@@ -19289,24 +19289,24 @@
       </c>
       <c r="I263" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J263" t="n">
         <v>34</v>
       </c>
       <c r="K263" t="n">
-        <v>16000</v>
+        <v>13000</v>
       </c>
       <c r="L263" t="n">
-        <v>17000</v>
+        <v>13000</v>
       </c>
       <c r="M263" t="n">
-        <v>16500</v>
+        <v>13000</v>
       </c>
       <c r="N263" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O263" t="inlineStr">
@@ -19315,10 +19315,10 @@
         </is>
       </c>
       <c r="P263" t="n">
-        <v>550</v>
+        <v>325</v>
       </c>
       <c r="Q263" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="R263" t="inlineStr">
         <is>
@@ -19361,24 +19361,24 @@
       </c>
       <c r="I264" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J264" t="n">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="K264" t="n">
-        <v>14000</v>
+        <v>18000</v>
       </c>
       <c r="L264" t="n">
-        <v>15000</v>
+        <v>19000</v>
       </c>
       <c r="M264" t="n">
-        <v>14480</v>
+        <v>18500</v>
       </c>
       <c r="N264" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 25 unidades</t>
         </is>
       </c>
       <c r="O264" t="inlineStr">
@@ -19387,10 +19387,10 @@
         </is>
       </c>
       <c r="P264" t="n">
-        <v>362</v>
+        <v>18500</v>
       </c>
       <c r="Q264" t="n">
-        <v>40</v>
+        <v>1</v>
       </c>
       <c r="R264" t="inlineStr">
         <is>
@@ -19413,7 +19413,7 @@
         </is>
       </c>
       <c r="D265" s="2" t="n">
-        <v>44400</v>
+        <v>44399</v>
       </c>
       <c r="E265" t="n">
         <v>13</v>
@@ -19433,36 +19433,36 @@
       </c>
       <c r="I265" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J265" t="n">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="K265" t="n">
-        <v>19000</v>
+        <v>16000</v>
       </c>
       <c r="L265" t="n">
-        <v>20000</v>
+        <v>17000</v>
       </c>
       <c r="M265" t="n">
-        <v>19471</v>
+        <v>16500</v>
       </c>
       <c r="N265" t="inlineStr">
         <is>
-          <t>$/caja 25 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O265" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P265" t="n">
-        <v>19471</v>
+        <v>550</v>
       </c>
       <c r="Q265" t="n">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="R265" t="inlineStr">
         <is>
@@ -19485,7 +19485,7 @@
         </is>
       </c>
       <c r="D266" s="2" t="n">
-        <v>44400</v>
+        <v>44399</v>
       </c>
       <c r="E266" t="n">
         <v>13</v>
@@ -19505,36 +19505,36 @@
       </c>
       <c r="I266" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J266" t="n">
-        <v>43</v>
+        <v>25</v>
       </c>
       <c r="K266" t="n">
-        <v>17000</v>
+        <v>14000</v>
       </c>
       <c r="L266" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="M266" t="n">
-        <v>17512</v>
+        <v>14480</v>
       </c>
       <c r="N266" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O266" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P266" t="n">
-        <v>584</v>
+        <v>362</v>
       </c>
       <c r="Q266" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="R266" t="inlineStr">
         <is>
@@ -19577,38 +19577,182 @@
       </c>
       <c r="I267" t="inlineStr">
         <is>
+          <t>Extra</t>
+        </is>
+      </c>
+      <c r="J267" t="n">
+        <v>17</v>
+      </c>
+      <c r="K267" t="n">
+        <v>19000</v>
+      </c>
+      <c r="L267" t="n">
+        <v>20000</v>
+      </c>
+      <c r="M267" t="n">
+        <v>19471</v>
+      </c>
+      <c r="N267" t="inlineStr">
+        <is>
+          <t>$/caja 25 unidades</t>
+        </is>
+      </c>
+      <c r="O267" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P267" t="n">
+        <v>19471</v>
+      </c>
+      <c r="Q267" t="n">
+        <v>1</v>
+      </c>
+      <c r="R267" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" t="n">
+        <v>9</v>
+      </c>
+      <c r="B268" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C268" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D268" s="2" t="n">
+        <v>44400</v>
+      </c>
+      <c r="E268" t="n">
+        <v>13</v>
+      </c>
+      <c r="F268" t="n">
+        <v>100112013</v>
+      </c>
+      <c r="G268" t="inlineStr">
+        <is>
+          <t>Alcachofa</t>
+        </is>
+      </c>
+      <c r="H268" t="inlineStr">
+        <is>
+          <t>Española</t>
+        </is>
+      </c>
+      <c r="I268" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J268" t="n">
+        <v>43</v>
+      </c>
+      <c r="K268" t="n">
+        <v>17000</v>
+      </c>
+      <c r="L268" t="n">
+        <v>18000</v>
+      </c>
+      <c r="M268" t="n">
+        <v>17512</v>
+      </c>
+      <c r="N268" t="inlineStr">
+        <is>
+          <t>$/caja 30 unidades</t>
+        </is>
+      </c>
+      <c r="O268" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P268" t="n">
+        <v>584</v>
+      </c>
+      <c r="Q268" t="n">
+        <v>30</v>
+      </c>
+      <c r="R268" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" t="n">
+        <v>9</v>
+      </c>
+      <c r="B269" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C269" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D269" s="2" t="n">
+        <v>44400</v>
+      </c>
+      <c r="E269" t="n">
+        <v>13</v>
+      </c>
+      <c r="F269" t="n">
+        <v>100112013</v>
+      </c>
+      <c r="G269" t="inlineStr">
+        <is>
+          <t>Alcachofa</t>
+        </is>
+      </c>
+      <c r="H269" t="inlineStr">
+        <is>
+          <t>Española</t>
+        </is>
+      </c>
+      <c r="I269" t="inlineStr">
+        <is>
           <t>Segunda</t>
         </is>
       </c>
-      <c r="J267" t="n">
+      <c r="J269" t="n">
         <v>28</v>
       </c>
-      <c r="K267" t="n">
+      <c r="K269" t="n">
         <v>15000</v>
       </c>
-      <c r="L267" t="n">
+      <c r="L269" t="n">
         <v>16000</v>
       </c>
-      <c r="M267" t="n">
+      <c r="M269" t="n">
         <v>15500</v>
       </c>
-      <c r="N267" t="inlineStr">
+      <c r="N269" t="inlineStr">
         <is>
           <t>$/caja 40 unidades</t>
         </is>
       </c>
-      <c r="O267" t="inlineStr">
+      <c r="O269" t="inlineStr">
         <is>
           <t>Provincia de Limarí</t>
         </is>
       </c>
-      <c r="P267" t="n">
+      <c r="P269" t="n">
         <v>388</v>
       </c>
-      <c r="Q267" t="n">
+      <c r="Q269" t="n">
         <v>40</v>
       </c>
-      <c r="R267" t="inlineStr">
+      <c r="R269" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Central Mapocho de Santiago - Alcachofa.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Central Mapocho de Santiago - Alcachofa.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R269"/>
+  <dimension ref="A1:R272"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -19341,7 +19341,7 @@
         </is>
       </c>
       <c r="D264" s="2" t="n">
-        <v>44399</v>
+        <v>44448</v>
       </c>
       <c r="E264" t="n">
         <v>13</v>
@@ -19365,16 +19365,16 @@
         </is>
       </c>
       <c r="J264" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="K264" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="L264" t="n">
-        <v>19000</v>
+        <v>15000</v>
       </c>
       <c r="M264" t="n">
-        <v>18500</v>
+        <v>15000</v>
       </c>
       <c r="N264" t="inlineStr">
         <is>
@@ -19383,11 +19383,11 @@
       </c>
       <c r="O264" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P264" t="n">
-        <v>18500</v>
+        <v>15000</v>
       </c>
       <c r="Q264" t="n">
         <v>1</v>
@@ -19413,7 +19413,7 @@
         </is>
       </c>
       <c r="D265" s="2" t="n">
-        <v>44399</v>
+        <v>44448</v>
       </c>
       <c r="E265" t="n">
         <v>13</v>
@@ -19437,16 +19437,16 @@
         </is>
       </c>
       <c r="J265" t="n">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="K265" t="n">
-        <v>16000</v>
+        <v>13000</v>
       </c>
       <c r="L265" t="n">
-        <v>17000</v>
+        <v>14000</v>
       </c>
       <c r="M265" t="n">
-        <v>16500</v>
+        <v>13512</v>
       </c>
       <c r="N265" t="inlineStr">
         <is>
@@ -19455,11 +19455,11 @@
       </c>
       <c r="O265" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P265" t="n">
-        <v>550</v>
+        <v>450</v>
       </c>
       <c r="Q265" t="n">
         <v>30</v>
@@ -19485,7 +19485,7 @@
         </is>
       </c>
       <c r="D266" s="2" t="n">
-        <v>44399</v>
+        <v>44448</v>
       </c>
       <c r="E266" t="n">
         <v>13</v>
@@ -19512,13 +19512,13 @@
         <v>25</v>
       </c>
       <c r="K266" t="n">
-        <v>14000</v>
+        <v>11000</v>
       </c>
       <c r="L266" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="M266" t="n">
-        <v>14480</v>
+        <v>11480</v>
       </c>
       <c r="N266" t="inlineStr">
         <is>
@@ -19527,11 +19527,11 @@
       </c>
       <c r="O266" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P266" t="n">
-        <v>362</v>
+        <v>287</v>
       </c>
       <c r="Q266" t="n">
         <v>40</v>
@@ -19557,7 +19557,7 @@
         </is>
       </c>
       <c r="D267" s="2" t="n">
-        <v>44400</v>
+        <v>44399</v>
       </c>
       <c r="E267" t="n">
         <v>13</v>
@@ -19581,16 +19581,16 @@
         </is>
       </c>
       <c r="J267" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="K267" t="n">
+        <v>18000</v>
+      </c>
+      <c r="L267" t="n">
         <v>19000</v>
       </c>
-      <c r="L267" t="n">
-        <v>20000</v>
-      </c>
       <c r="M267" t="n">
-        <v>19471</v>
+        <v>18500</v>
       </c>
       <c r="N267" t="inlineStr">
         <is>
@@ -19599,11 +19599,11 @@
       </c>
       <c r="O267" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P267" t="n">
-        <v>19471</v>
+        <v>18500</v>
       </c>
       <c r="Q267" t="n">
         <v>1</v>
@@ -19629,7 +19629,7 @@
         </is>
       </c>
       <c r="D268" s="2" t="n">
-        <v>44400</v>
+        <v>44399</v>
       </c>
       <c r="E268" t="n">
         <v>13</v>
@@ -19653,16 +19653,16 @@
         </is>
       </c>
       <c r="J268" t="n">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="K268" t="n">
+        <v>16000</v>
+      </c>
+      <c r="L268" t="n">
         <v>17000</v>
       </c>
-      <c r="L268" t="n">
-        <v>18000</v>
-      </c>
       <c r="M268" t="n">
-        <v>17512</v>
+        <v>16500</v>
       </c>
       <c r="N268" t="inlineStr">
         <is>
@@ -19671,11 +19671,11 @@
       </c>
       <c r="O268" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P268" t="n">
-        <v>584</v>
+        <v>550</v>
       </c>
       <c r="Q268" t="n">
         <v>30</v>
@@ -19701,7 +19701,7 @@
         </is>
       </c>
       <c r="D269" s="2" t="n">
-        <v>44400</v>
+        <v>44399</v>
       </c>
       <c r="E269" t="n">
         <v>13</v>
@@ -19725,16 +19725,16 @@
         </is>
       </c>
       <c r="J269" t="n">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="K269" t="n">
+        <v>14000</v>
+      </c>
+      <c r="L269" t="n">
         <v>15000</v>
       </c>
-      <c r="L269" t="n">
-        <v>16000</v>
-      </c>
       <c r="M269" t="n">
-        <v>15500</v>
+        <v>14480</v>
       </c>
       <c r="N269" t="inlineStr">
         <is>
@@ -19743,16 +19743,232 @@
       </c>
       <c r="O269" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P269" t="n">
-        <v>388</v>
+        <v>362</v>
       </c>
       <c r="Q269" t="n">
         <v>40</v>
       </c>
       <c r="R269" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" t="n">
+        <v>9</v>
+      </c>
+      <c r="B270" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C270" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D270" s="2" t="n">
+        <v>44400</v>
+      </c>
+      <c r="E270" t="n">
+        <v>13</v>
+      </c>
+      <c r="F270" t="n">
+        <v>100112013</v>
+      </c>
+      <c r="G270" t="inlineStr">
+        <is>
+          <t>Alcachofa</t>
+        </is>
+      </c>
+      <c r="H270" t="inlineStr">
+        <is>
+          <t>Española</t>
+        </is>
+      </c>
+      <c r="I270" t="inlineStr">
+        <is>
+          <t>Extra</t>
+        </is>
+      </c>
+      <c r="J270" t="n">
+        <v>17</v>
+      </c>
+      <c r="K270" t="n">
+        <v>19000</v>
+      </c>
+      <c r="L270" t="n">
+        <v>20000</v>
+      </c>
+      <c r="M270" t="n">
+        <v>19471</v>
+      </c>
+      <c r="N270" t="inlineStr">
+        <is>
+          <t>$/caja 25 unidades</t>
+        </is>
+      </c>
+      <c r="O270" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P270" t="n">
+        <v>19471</v>
+      </c>
+      <c r="Q270" t="n">
+        <v>1</v>
+      </c>
+      <c r="R270" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" t="n">
+        <v>9</v>
+      </c>
+      <c r="B271" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C271" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D271" s="2" t="n">
+        <v>44400</v>
+      </c>
+      <c r="E271" t="n">
+        <v>13</v>
+      </c>
+      <c r="F271" t="n">
+        <v>100112013</v>
+      </c>
+      <c r="G271" t="inlineStr">
+        <is>
+          <t>Alcachofa</t>
+        </is>
+      </c>
+      <c r="H271" t="inlineStr">
+        <is>
+          <t>Española</t>
+        </is>
+      </c>
+      <c r="I271" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J271" t="n">
+        <v>43</v>
+      </c>
+      <c r="K271" t="n">
+        <v>17000</v>
+      </c>
+      <c r="L271" t="n">
+        <v>18000</v>
+      </c>
+      <c r="M271" t="n">
+        <v>17512</v>
+      </c>
+      <c r="N271" t="inlineStr">
+        <is>
+          <t>$/caja 30 unidades</t>
+        </is>
+      </c>
+      <c r="O271" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P271" t="n">
+        <v>584</v>
+      </c>
+      <c r="Q271" t="n">
+        <v>30</v>
+      </c>
+      <c r="R271" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" t="n">
+        <v>9</v>
+      </c>
+      <c r="B272" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C272" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D272" s="2" t="n">
+        <v>44400</v>
+      </c>
+      <c r="E272" t="n">
+        <v>13</v>
+      </c>
+      <c r="F272" t="n">
+        <v>100112013</v>
+      </c>
+      <c r="G272" t="inlineStr">
+        <is>
+          <t>Alcachofa</t>
+        </is>
+      </c>
+      <c r="H272" t="inlineStr">
+        <is>
+          <t>Española</t>
+        </is>
+      </c>
+      <c r="I272" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="J272" t="n">
+        <v>28</v>
+      </c>
+      <c r="K272" t="n">
+        <v>15000</v>
+      </c>
+      <c r="L272" t="n">
+        <v>16000</v>
+      </c>
+      <c r="M272" t="n">
+        <v>15500</v>
+      </c>
+      <c r="N272" t="inlineStr">
+        <is>
+          <t>$/caja 40 unidades</t>
+        </is>
+      </c>
+      <c r="O272" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P272" t="n">
+        <v>388</v>
+      </c>
+      <c r="Q272" t="n">
+        <v>40</v>
+      </c>
+      <c r="R272" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Central Mapocho de Santiago - Alcachofa.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Central Mapocho de Santiago - Alcachofa.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R272"/>
+  <dimension ref="A1:R275"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -17757,7 +17757,7 @@
         </is>
       </c>
       <c r="D242" s="2" t="n">
-        <v>44438</v>
+        <v>44449</v>
       </c>
       <c r="E242" t="n">
         <v>13</v>
@@ -17781,16 +17781,16 @@
         </is>
       </c>
       <c r="J242" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="K242" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="L242" t="n">
         <v>15000</v>
       </c>
       <c r="M242" t="n">
-        <v>15000</v>
+        <v>14500</v>
       </c>
       <c r="N242" t="inlineStr">
         <is>
@@ -17803,7 +17803,7 @@
         </is>
       </c>
       <c r="P242" t="n">
-        <v>15000</v>
+        <v>14500</v>
       </c>
       <c r="Q242" t="n">
         <v>1</v>
@@ -17829,7 +17829,7 @@
         </is>
       </c>
       <c r="D243" s="2" t="n">
-        <v>44438</v>
+        <v>44449</v>
       </c>
       <c r="E243" t="n">
         <v>13</v>
@@ -17853,16 +17853,16 @@
         </is>
       </c>
       <c r="J243" t="n">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="K243" t="n">
+        <v>12000</v>
+      </c>
+      <c r="L243" t="n">
         <v>13000</v>
       </c>
-      <c r="L243" t="n">
-        <v>14000</v>
-      </c>
       <c r="M243" t="n">
-        <v>13500</v>
+        <v>12488</v>
       </c>
       <c r="N243" t="inlineStr">
         <is>
@@ -17875,7 +17875,7 @@
         </is>
       </c>
       <c r="P243" t="n">
-        <v>450</v>
+        <v>416</v>
       </c>
       <c r="Q243" t="n">
         <v>30</v>
@@ -17901,7 +17901,7 @@
         </is>
       </c>
       <c r="D244" s="2" t="n">
-        <v>44438</v>
+        <v>44449</v>
       </c>
       <c r="E244" t="n">
         <v>13</v>
@@ -17928,13 +17928,13 @@
         <v>25</v>
       </c>
       <c r="K244" t="n">
+        <v>10000</v>
+      </c>
+      <c r="L244" t="n">
         <v>11000</v>
       </c>
-      <c r="L244" t="n">
-        <v>12000</v>
-      </c>
       <c r="M244" t="n">
-        <v>11480</v>
+        <v>10480</v>
       </c>
       <c r="N244" t="inlineStr">
         <is>
@@ -17947,7 +17947,7 @@
         </is>
       </c>
       <c r="P244" t="n">
-        <v>287</v>
+        <v>262</v>
       </c>
       <c r="Q244" t="n">
         <v>40</v>
@@ -17973,7 +17973,7 @@
         </is>
       </c>
       <c r="D245" s="2" t="n">
-        <v>44428</v>
+        <v>44438</v>
       </c>
       <c r="E245" t="n">
         <v>13</v>
@@ -17997,16 +17997,16 @@
         </is>
       </c>
       <c r="J245" t="n">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="K245" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="L245" t="n">
-        <v>17000</v>
+        <v>15000</v>
       </c>
       <c r="M245" t="n">
-        <v>16480</v>
+        <v>15000</v>
       </c>
       <c r="N245" t="inlineStr">
         <is>
@@ -18019,7 +18019,7 @@
         </is>
       </c>
       <c r="P245" t="n">
-        <v>16480</v>
+        <v>15000</v>
       </c>
       <c r="Q245" t="n">
         <v>1</v>
@@ -18045,7 +18045,7 @@
         </is>
       </c>
       <c r="D246" s="2" t="n">
-        <v>44428</v>
+        <v>44438</v>
       </c>
       <c r="E246" t="n">
         <v>13</v>
@@ -18069,16 +18069,16 @@
         </is>
       </c>
       <c r="J246" t="n">
-        <v>52</v>
+        <v>34</v>
       </c>
       <c r="K246" t="n">
+        <v>13000</v>
+      </c>
+      <c r="L246" t="n">
         <v>14000</v>
       </c>
-      <c r="L246" t="n">
-        <v>15000</v>
-      </c>
       <c r="M246" t="n">
-        <v>14500</v>
+        <v>13500</v>
       </c>
       <c r="N246" t="inlineStr">
         <is>
@@ -18091,7 +18091,7 @@
         </is>
       </c>
       <c r="P246" t="n">
-        <v>483</v>
+        <v>450</v>
       </c>
       <c r="Q246" t="n">
         <v>30</v>
@@ -18117,7 +18117,7 @@
         </is>
       </c>
       <c r="D247" s="2" t="n">
-        <v>44428</v>
+        <v>44438</v>
       </c>
       <c r="E247" t="n">
         <v>13</v>
@@ -18141,16 +18141,16 @@
         </is>
       </c>
       <c r="J247" t="n">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="K247" t="n">
+        <v>11000</v>
+      </c>
+      <c r="L247" t="n">
         <v>12000</v>
       </c>
-      <c r="L247" t="n">
-        <v>13000</v>
-      </c>
       <c r="M247" t="n">
-        <v>12500</v>
+        <v>11480</v>
       </c>
       <c r="N247" t="inlineStr">
         <is>
@@ -18163,7 +18163,7 @@
         </is>
       </c>
       <c r="P247" t="n">
-        <v>312</v>
+        <v>287</v>
       </c>
       <c r="Q247" t="n">
         <v>40</v>
@@ -18204,16 +18204,16 @@
       </c>
       <c r="H248" t="inlineStr">
         <is>
-          <t>Madrigal</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I248" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J248" t="n">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="K248" t="n">
         <v>16000</v>
@@ -18222,11 +18222,11 @@
         <v>17000</v>
       </c>
       <c r="M248" t="n">
-        <v>16500</v>
+        <v>16480</v>
       </c>
       <c r="N248" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 25 unidades</t>
         </is>
       </c>
       <c r="O248" t="inlineStr">
@@ -18235,10 +18235,10 @@
         </is>
       </c>
       <c r="P248" t="n">
-        <v>412</v>
+        <v>16480</v>
       </c>
       <c r="Q248" t="n">
-        <v>40</v>
+        <v>1</v>
       </c>
       <c r="R248" t="inlineStr">
         <is>
@@ -18276,16 +18276,16 @@
       </c>
       <c r="H249" t="inlineStr">
         <is>
-          <t>Madrigal</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I249" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J249" t="n">
-        <v>16</v>
+        <v>52</v>
       </c>
       <c r="K249" t="n">
         <v>14000</v>
@@ -18298,7 +18298,7 @@
       </c>
       <c r="N249" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O249" t="inlineStr">
@@ -18307,10 +18307,10 @@
         </is>
       </c>
       <c r="P249" t="n">
-        <v>290</v>
+        <v>483</v>
       </c>
       <c r="Q249" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R249" t="inlineStr">
         <is>
@@ -18333,7 +18333,7 @@
         </is>
       </c>
       <c r="D250" s="2" t="n">
-        <v>44442</v>
+        <v>44428</v>
       </c>
       <c r="E250" t="n">
         <v>13</v>
@@ -18353,24 +18353,24 @@
       </c>
       <c r="I250" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J250" t="n">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="K250" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="L250" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="M250" t="n">
-        <v>15000</v>
+        <v>12500</v>
       </c>
       <c r="N250" t="inlineStr">
         <is>
-          <t>$/caja 25 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O250" t="inlineStr">
@@ -18379,10 +18379,10 @@
         </is>
       </c>
       <c r="P250" t="n">
-        <v>15000</v>
+        <v>312</v>
       </c>
       <c r="Q250" t="n">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="R250" t="inlineStr">
         <is>
@@ -18405,7 +18405,7 @@
         </is>
       </c>
       <c r="D251" s="2" t="n">
-        <v>44442</v>
+        <v>44428</v>
       </c>
       <c r="E251" t="n">
         <v>13</v>
@@ -18420,7 +18420,7 @@
       </c>
       <c r="H251" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Madrigal</t>
         </is>
       </c>
       <c r="I251" t="inlineStr">
@@ -18429,20 +18429,20 @@
         </is>
       </c>
       <c r="J251" t="n">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="K251" t="n">
-        <v>13000</v>
+        <v>16000</v>
       </c>
       <c r="L251" t="n">
-        <v>14000</v>
+        <v>17000</v>
       </c>
       <c r="M251" t="n">
-        <v>13488</v>
+        <v>16500</v>
       </c>
       <c r="N251" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O251" t="inlineStr">
@@ -18451,10 +18451,10 @@
         </is>
       </c>
       <c r="P251" t="n">
-        <v>450</v>
+        <v>412</v>
       </c>
       <c r="Q251" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="R251" t="inlineStr">
         <is>
@@ -18477,7 +18477,7 @@
         </is>
       </c>
       <c r="D252" s="2" t="n">
-        <v>44442</v>
+        <v>44428</v>
       </c>
       <c r="E252" t="n">
         <v>13</v>
@@ -18492,7 +18492,7 @@
       </c>
       <c r="H252" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Madrigal</t>
         </is>
       </c>
       <c r="I252" t="inlineStr">
@@ -18501,20 +18501,20 @@
         </is>
       </c>
       <c r="J252" t="n">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="K252" t="n">
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="L252" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="M252" t="n">
-        <v>11500</v>
+        <v>14500</v>
       </c>
       <c r="N252" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O252" t="inlineStr">
@@ -18523,10 +18523,10 @@
         </is>
       </c>
       <c r="P252" t="n">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="Q252" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="R252" t="inlineStr">
         <is>
@@ -18549,7 +18549,7 @@
         </is>
       </c>
       <c r="D253" s="2" t="n">
-        <v>44435</v>
+        <v>44442</v>
       </c>
       <c r="E253" t="n">
         <v>13</v>
@@ -18573,16 +18573,16 @@
         </is>
       </c>
       <c r="J253" t="n">
-        <v>70</v>
+        <v>18</v>
       </c>
       <c r="K253" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="L253" t="n">
-        <v>17000</v>
+        <v>15000</v>
       </c>
       <c r="M253" t="n">
-        <v>16386</v>
+        <v>15000</v>
       </c>
       <c r="N253" t="inlineStr">
         <is>
@@ -18591,11 +18591,11 @@
       </c>
       <c r="O253" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P253" t="n">
-        <v>16386</v>
+        <v>15000</v>
       </c>
       <c r="Q253" t="n">
         <v>1</v>
@@ -18621,7 +18621,7 @@
         </is>
       </c>
       <c r="D254" s="2" t="n">
-        <v>44435</v>
+        <v>44442</v>
       </c>
       <c r="E254" t="n">
         <v>13</v>
@@ -18645,16 +18645,16 @@
         </is>
       </c>
       <c r="J254" t="n">
-        <v>224</v>
+        <v>43</v>
       </c>
       <c r="K254" t="n">
+        <v>13000</v>
+      </c>
+      <c r="L254" t="n">
         <v>14000</v>
       </c>
-      <c r="L254" t="n">
-        <v>15000</v>
-      </c>
       <c r="M254" t="n">
-        <v>14500</v>
+        <v>13488</v>
       </c>
       <c r="N254" t="inlineStr">
         <is>
@@ -18663,11 +18663,11 @@
       </c>
       <c r="O254" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P254" t="n">
-        <v>483</v>
+        <v>450</v>
       </c>
       <c r="Q254" t="n">
         <v>30</v>
@@ -18693,7 +18693,7 @@
         </is>
       </c>
       <c r="D255" s="2" t="n">
-        <v>44435</v>
+        <v>44442</v>
       </c>
       <c r="E255" t="n">
         <v>13</v>
@@ -18717,16 +18717,16 @@
         </is>
       </c>
       <c r="J255" t="n">
-        <v>143</v>
+        <v>32</v>
       </c>
       <c r="K255" t="n">
+        <v>11000</v>
+      </c>
+      <c r="L255" t="n">
         <v>12000</v>
       </c>
-      <c r="L255" t="n">
-        <v>13000</v>
-      </c>
       <c r="M255" t="n">
-        <v>12497</v>
+        <v>11500</v>
       </c>
       <c r="N255" t="inlineStr">
         <is>
@@ -18735,11 +18735,11 @@
       </c>
       <c r="O255" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P255" t="n">
-        <v>312</v>
+        <v>288</v>
       </c>
       <c r="Q255" t="n">
         <v>40</v>
@@ -18780,29 +18780,29 @@
       </c>
       <c r="H256" t="inlineStr">
         <is>
-          <t>Madrigal</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I256" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J256" t="n">
-        <v>34</v>
+        <v>70</v>
       </c>
       <c r="K256" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="L256" t="n">
-        <v>15000</v>
+        <v>17000</v>
       </c>
       <c r="M256" t="n">
-        <v>14500</v>
+        <v>16386</v>
       </c>
       <c r="N256" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 25 unidades</t>
         </is>
       </c>
       <c r="O256" t="inlineStr">
@@ -18811,10 +18811,10 @@
         </is>
       </c>
       <c r="P256" t="n">
-        <v>362</v>
+        <v>16386</v>
       </c>
       <c r="Q256" t="n">
-        <v>40</v>
+        <v>1</v>
       </c>
       <c r="R256" t="inlineStr">
         <is>
@@ -18852,29 +18852,29 @@
       </c>
       <c r="H257" t="inlineStr">
         <is>
-          <t>Madrigal</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I257" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J257" t="n">
-        <v>16</v>
+        <v>224</v>
       </c>
       <c r="K257" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="L257" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="M257" t="n">
-        <v>12500</v>
+        <v>14500</v>
       </c>
       <c r="N257" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O257" t="inlineStr">
@@ -18883,10 +18883,10 @@
         </is>
       </c>
       <c r="P257" t="n">
-        <v>250</v>
+        <v>483</v>
       </c>
       <c r="Q257" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R257" t="inlineStr">
         <is>
@@ -18909,7 +18909,7 @@
         </is>
       </c>
       <c r="D258" s="2" t="n">
-        <v>44376</v>
+        <v>44435</v>
       </c>
       <c r="E258" t="n">
         <v>13</v>
@@ -18929,24 +18929,24 @@
       </c>
       <c r="I258" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J258" t="n">
-        <v>16</v>
+        <v>143</v>
       </c>
       <c r="K258" t="n">
-        <v>21000</v>
+        <v>12000</v>
       </c>
       <c r="L258" t="n">
-        <v>22000</v>
+        <v>13000</v>
       </c>
       <c r="M258" t="n">
-        <v>21500</v>
+        <v>12497</v>
       </c>
       <c r="N258" t="inlineStr">
         <is>
-          <t>$/caja 25 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O258" t="inlineStr">
@@ -18955,10 +18955,10 @@
         </is>
       </c>
       <c r="P258" t="n">
-        <v>21500</v>
+        <v>312</v>
       </c>
       <c r="Q258" t="n">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="R258" t="inlineStr">
         <is>
@@ -18981,7 +18981,7 @@
         </is>
       </c>
       <c r="D259" s="2" t="n">
-        <v>44376</v>
+        <v>44435</v>
       </c>
       <c r="E259" t="n">
         <v>13</v>
@@ -18996,7 +18996,7 @@
       </c>
       <c r="H259" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Madrigal</t>
         </is>
       </c>
       <c r="I259" t="inlineStr">
@@ -19008,17 +19008,17 @@
         <v>34</v>
       </c>
       <c r="K259" t="n">
-        <v>19000</v>
+        <v>14000</v>
       </c>
       <c r="L259" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="M259" t="n">
-        <v>19500</v>
+        <v>14500</v>
       </c>
       <c r="N259" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O259" t="inlineStr">
@@ -19027,10 +19027,10 @@
         </is>
       </c>
       <c r="P259" t="n">
-        <v>650</v>
+        <v>362</v>
       </c>
       <c r="Q259" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="R259" t="inlineStr">
         <is>
@@ -19053,7 +19053,7 @@
         </is>
       </c>
       <c r="D260" s="2" t="n">
-        <v>44376</v>
+        <v>44435</v>
       </c>
       <c r="E260" t="n">
         <v>13</v>
@@ -19068,7 +19068,7 @@
       </c>
       <c r="H260" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Madrigal</t>
         </is>
       </c>
       <c r="I260" t="inlineStr">
@@ -19077,20 +19077,20 @@
         </is>
       </c>
       <c r="J260" t="n">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="K260" t="n">
-        <v>16000</v>
+        <v>12000</v>
       </c>
       <c r="L260" t="n">
-        <v>17000</v>
+        <v>13000</v>
       </c>
       <c r="M260" t="n">
-        <v>16480</v>
+        <v>12500</v>
       </c>
       <c r="N260" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O260" t="inlineStr">
@@ -19099,10 +19099,10 @@
         </is>
       </c>
       <c r="P260" t="n">
-        <v>412</v>
+        <v>250</v>
       </c>
       <c r="Q260" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="R260" t="inlineStr">
         <is>
@@ -19125,7 +19125,7 @@
         </is>
       </c>
       <c r="D261" s="2" t="n">
-        <v>44412</v>
+        <v>44376</v>
       </c>
       <c r="E261" t="n">
         <v>13</v>
@@ -19152,13 +19152,13 @@
         <v>16</v>
       </c>
       <c r="K261" t="n">
-        <v>16000</v>
+        <v>21000</v>
       </c>
       <c r="L261" t="n">
-        <v>16000</v>
+        <v>22000</v>
       </c>
       <c r="M261" t="n">
-        <v>16000</v>
+        <v>21500</v>
       </c>
       <c r="N261" t="inlineStr">
         <is>
@@ -19171,7 +19171,7 @@
         </is>
       </c>
       <c r="P261" t="n">
-        <v>16000</v>
+        <v>21500</v>
       </c>
       <c r="Q261" t="n">
         <v>1</v>
@@ -19197,7 +19197,7 @@
         </is>
       </c>
       <c r="D262" s="2" t="n">
-        <v>44412</v>
+        <v>44376</v>
       </c>
       <c r="E262" t="n">
         <v>13</v>
@@ -19221,16 +19221,16 @@
         </is>
       </c>
       <c r="J262" t="n">
-        <v>52</v>
+        <v>34</v>
       </c>
       <c r="K262" t="n">
-        <v>14000</v>
+        <v>19000</v>
       </c>
       <c r="L262" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="M262" t="n">
-        <v>14500</v>
+        <v>19500</v>
       </c>
       <c r="N262" t="inlineStr">
         <is>
@@ -19243,7 +19243,7 @@
         </is>
       </c>
       <c r="P262" t="n">
-        <v>483</v>
+        <v>650</v>
       </c>
       <c r="Q262" t="n">
         <v>30</v>
@@ -19269,7 +19269,7 @@
         </is>
       </c>
       <c r="D263" s="2" t="n">
-        <v>44412</v>
+        <v>44376</v>
       </c>
       <c r="E263" t="n">
         <v>13</v>
@@ -19293,16 +19293,16 @@
         </is>
       </c>
       <c r="J263" t="n">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="K263" t="n">
-        <v>13000</v>
+        <v>16000</v>
       </c>
       <c r="L263" t="n">
-        <v>13000</v>
+        <v>17000</v>
       </c>
       <c r="M263" t="n">
-        <v>13000</v>
+        <v>16480</v>
       </c>
       <c r="N263" t="inlineStr">
         <is>
@@ -19315,7 +19315,7 @@
         </is>
       </c>
       <c r="P263" t="n">
-        <v>325</v>
+        <v>412</v>
       </c>
       <c r="Q263" t="n">
         <v>40</v>
@@ -19341,7 +19341,7 @@
         </is>
       </c>
       <c r="D264" s="2" t="n">
-        <v>44448</v>
+        <v>44412</v>
       </c>
       <c r="E264" t="n">
         <v>13</v>
@@ -19368,13 +19368,13 @@
         <v>16</v>
       </c>
       <c r="K264" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="L264" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="M264" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="N264" t="inlineStr">
         <is>
@@ -19383,11 +19383,11 @@
       </c>
       <c r="O264" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P264" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="Q264" t="n">
         <v>1</v>
@@ -19413,7 +19413,7 @@
         </is>
       </c>
       <c r="D265" s="2" t="n">
-        <v>44448</v>
+        <v>44412</v>
       </c>
       <c r="E265" t="n">
         <v>13</v>
@@ -19437,16 +19437,16 @@
         </is>
       </c>
       <c r="J265" t="n">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="K265" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="L265" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="M265" t="n">
-        <v>13512</v>
+        <v>14500</v>
       </c>
       <c r="N265" t="inlineStr">
         <is>
@@ -19455,11 +19455,11 @@
       </c>
       <c r="O265" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P265" t="n">
-        <v>450</v>
+        <v>483</v>
       </c>
       <c r="Q265" t="n">
         <v>30</v>
@@ -19485,7 +19485,7 @@
         </is>
       </c>
       <c r="D266" s="2" t="n">
-        <v>44448</v>
+        <v>44412</v>
       </c>
       <c r="E266" t="n">
         <v>13</v>
@@ -19509,16 +19509,16 @@
         </is>
       </c>
       <c r="J266" t="n">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="K266" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="L266" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="M266" t="n">
-        <v>11480</v>
+        <v>13000</v>
       </c>
       <c r="N266" t="inlineStr">
         <is>
@@ -19527,11 +19527,11 @@
       </c>
       <c r="O266" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P266" t="n">
-        <v>287</v>
+        <v>325</v>
       </c>
       <c r="Q266" t="n">
         <v>40</v>
@@ -19557,7 +19557,7 @@
         </is>
       </c>
       <c r="D267" s="2" t="n">
-        <v>44399</v>
+        <v>44448</v>
       </c>
       <c r="E267" t="n">
         <v>13</v>
@@ -19581,16 +19581,16 @@
         </is>
       </c>
       <c r="J267" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="K267" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="L267" t="n">
-        <v>19000</v>
+        <v>15000</v>
       </c>
       <c r="M267" t="n">
-        <v>18500</v>
+        <v>15000</v>
       </c>
       <c r="N267" t="inlineStr">
         <is>
@@ -19599,11 +19599,11 @@
       </c>
       <c r="O267" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P267" t="n">
-        <v>18500</v>
+        <v>15000</v>
       </c>
       <c r="Q267" t="n">
         <v>1</v>
@@ -19629,7 +19629,7 @@
         </is>
       </c>
       <c r="D268" s="2" t="n">
-        <v>44399</v>
+        <v>44448</v>
       </c>
       <c r="E268" t="n">
         <v>13</v>
@@ -19653,16 +19653,16 @@
         </is>
       </c>
       <c r="J268" t="n">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="K268" t="n">
-        <v>16000</v>
+        <v>13000</v>
       </c>
       <c r="L268" t="n">
-        <v>17000</v>
+        <v>14000</v>
       </c>
       <c r="M268" t="n">
-        <v>16500</v>
+        <v>13512</v>
       </c>
       <c r="N268" t="inlineStr">
         <is>
@@ -19671,11 +19671,11 @@
       </c>
       <c r="O268" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P268" t="n">
-        <v>550</v>
+        <v>450</v>
       </c>
       <c r="Q268" t="n">
         <v>30</v>
@@ -19701,7 +19701,7 @@
         </is>
       </c>
       <c r="D269" s="2" t="n">
-        <v>44399</v>
+        <v>44448</v>
       </c>
       <c r="E269" t="n">
         <v>13</v>
@@ -19728,13 +19728,13 @@
         <v>25</v>
       </c>
       <c r="K269" t="n">
-        <v>14000</v>
+        <v>11000</v>
       </c>
       <c r="L269" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="M269" t="n">
-        <v>14480</v>
+        <v>11480</v>
       </c>
       <c r="N269" t="inlineStr">
         <is>
@@ -19743,11 +19743,11 @@
       </c>
       <c r="O269" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P269" t="n">
-        <v>362</v>
+        <v>287</v>
       </c>
       <c r="Q269" t="n">
         <v>40</v>
@@ -19773,7 +19773,7 @@
         </is>
       </c>
       <c r="D270" s="2" t="n">
-        <v>44400</v>
+        <v>44399</v>
       </c>
       <c r="E270" t="n">
         <v>13</v>
@@ -19797,16 +19797,16 @@
         </is>
       </c>
       <c r="J270" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="K270" t="n">
+        <v>18000</v>
+      </c>
+      <c r="L270" t="n">
         <v>19000</v>
       </c>
-      <c r="L270" t="n">
-        <v>20000</v>
-      </c>
       <c r="M270" t="n">
-        <v>19471</v>
+        <v>18500</v>
       </c>
       <c r="N270" t="inlineStr">
         <is>
@@ -19815,11 +19815,11 @@
       </c>
       <c r="O270" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P270" t="n">
-        <v>19471</v>
+        <v>18500</v>
       </c>
       <c r="Q270" t="n">
         <v>1</v>
@@ -19845,7 +19845,7 @@
         </is>
       </c>
       <c r="D271" s="2" t="n">
-        <v>44400</v>
+        <v>44399</v>
       </c>
       <c r="E271" t="n">
         <v>13</v>
@@ -19869,16 +19869,16 @@
         </is>
       </c>
       <c r="J271" t="n">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="K271" t="n">
+        <v>16000</v>
+      </c>
+      <c r="L271" t="n">
         <v>17000</v>
       </c>
-      <c r="L271" t="n">
-        <v>18000</v>
-      </c>
       <c r="M271" t="n">
-        <v>17512</v>
+        <v>16500</v>
       </c>
       <c r="N271" t="inlineStr">
         <is>
@@ -19887,11 +19887,11 @@
       </c>
       <c r="O271" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P271" t="n">
-        <v>584</v>
+        <v>550</v>
       </c>
       <c r="Q271" t="n">
         <v>30</v>
@@ -19917,7 +19917,7 @@
         </is>
       </c>
       <c r="D272" s="2" t="n">
-        <v>44400</v>
+        <v>44399</v>
       </c>
       <c r="E272" t="n">
         <v>13</v>
@@ -19941,16 +19941,16 @@
         </is>
       </c>
       <c r="J272" t="n">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="K272" t="n">
+        <v>14000</v>
+      </c>
+      <c r="L272" t="n">
         <v>15000</v>
       </c>
-      <c r="L272" t="n">
-        <v>16000</v>
-      </c>
       <c r="M272" t="n">
-        <v>15500</v>
+        <v>14480</v>
       </c>
       <c r="N272" t="inlineStr">
         <is>
@@ -19959,16 +19959,232 @@
       </c>
       <c r="O272" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P272" t="n">
-        <v>388</v>
+        <v>362</v>
       </c>
       <c r="Q272" t="n">
         <v>40</v>
       </c>
       <c r="R272" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" t="n">
+        <v>9</v>
+      </c>
+      <c r="B273" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C273" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D273" s="2" t="n">
+        <v>44400</v>
+      </c>
+      <c r="E273" t="n">
+        <v>13</v>
+      </c>
+      <c r="F273" t="n">
+        <v>100112013</v>
+      </c>
+      <c r="G273" t="inlineStr">
+        <is>
+          <t>Alcachofa</t>
+        </is>
+      </c>
+      <c r="H273" t="inlineStr">
+        <is>
+          <t>Española</t>
+        </is>
+      </c>
+      <c r="I273" t="inlineStr">
+        <is>
+          <t>Extra</t>
+        </is>
+      </c>
+      <c r="J273" t="n">
+        <v>17</v>
+      </c>
+      <c r="K273" t="n">
+        <v>19000</v>
+      </c>
+      <c r="L273" t="n">
+        <v>20000</v>
+      </c>
+      <c r="M273" t="n">
+        <v>19471</v>
+      </c>
+      <c r="N273" t="inlineStr">
+        <is>
+          <t>$/caja 25 unidades</t>
+        </is>
+      </c>
+      <c r="O273" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P273" t="n">
+        <v>19471</v>
+      </c>
+      <c r="Q273" t="n">
+        <v>1</v>
+      </c>
+      <c r="R273" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" t="n">
+        <v>9</v>
+      </c>
+      <c r="B274" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C274" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D274" s="2" t="n">
+        <v>44400</v>
+      </c>
+      <c r="E274" t="n">
+        <v>13</v>
+      </c>
+      <c r="F274" t="n">
+        <v>100112013</v>
+      </c>
+      <c r="G274" t="inlineStr">
+        <is>
+          <t>Alcachofa</t>
+        </is>
+      </c>
+      <c r="H274" t="inlineStr">
+        <is>
+          <t>Española</t>
+        </is>
+      </c>
+      <c r="I274" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J274" t="n">
+        <v>43</v>
+      </c>
+      <c r="K274" t="n">
+        <v>17000</v>
+      </c>
+      <c r="L274" t="n">
+        <v>18000</v>
+      </c>
+      <c r="M274" t="n">
+        <v>17512</v>
+      </c>
+      <c r="N274" t="inlineStr">
+        <is>
+          <t>$/caja 30 unidades</t>
+        </is>
+      </c>
+      <c r="O274" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P274" t="n">
+        <v>584</v>
+      </c>
+      <c r="Q274" t="n">
+        <v>30</v>
+      </c>
+      <c r="R274" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" t="n">
+        <v>9</v>
+      </c>
+      <c r="B275" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C275" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D275" s="2" t="n">
+        <v>44400</v>
+      </c>
+      <c r="E275" t="n">
+        <v>13</v>
+      </c>
+      <c r="F275" t="n">
+        <v>100112013</v>
+      </c>
+      <c r="G275" t="inlineStr">
+        <is>
+          <t>Alcachofa</t>
+        </is>
+      </c>
+      <c r="H275" t="inlineStr">
+        <is>
+          <t>Española</t>
+        </is>
+      </c>
+      <c r="I275" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="J275" t="n">
+        <v>28</v>
+      </c>
+      <c r="K275" t="n">
+        <v>15000</v>
+      </c>
+      <c r="L275" t="n">
+        <v>16000</v>
+      </c>
+      <c r="M275" t="n">
+        <v>15500</v>
+      </c>
+      <c r="N275" t="inlineStr">
+        <is>
+          <t>$/caja 40 unidades</t>
+        </is>
+      </c>
+      <c r="O275" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P275" t="n">
+        <v>388</v>
+      </c>
+      <c r="Q275" t="n">
+        <v>40</v>
+      </c>
+      <c r="R275" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Central Mapocho de Santiago - Alcachofa.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Central Mapocho de Santiago - Alcachofa.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R275"/>
+  <dimension ref="A1:R276"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10773,7 +10773,7 @@
         </is>
       </c>
       <c r="D145" s="2" t="n">
-        <v>44358</v>
+        <v>44452</v>
       </c>
       <c r="E145" t="n">
         <v>13</v>
@@ -10788,41 +10788,41 @@
       </c>
       <c r="H145" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I145" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J145" t="n">
-        <v>52</v>
+        <v>25</v>
       </c>
       <c r="K145" t="n">
-        <v>15000</v>
+        <v>11000</v>
       </c>
       <c r="L145" t="n">
-        <v>16000</v>
+        <v>12000</v>
       </c>
       <c r="M145" t="n">
-        <v>15500</v>
+        <v>11480</v>
       </c>
       <c r="N145" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O145" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P145" t="n">
-        <v>310</v>
+        <v>287</v>
       </c>
       <c r="Q145" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="R145" t="inlineStr">
         <is>
@@ -10865,24 +10865,24 @@
       </c>
       <c r="I146" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J146" t="n">
-        <v>34</v>
+        <v>52</v>
       </c>
       <c r="K146" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="L146" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="M146" t="n">
-        <v>14000</v>
+        <v>15500</v>
       </c>
       <c r="N146" t="inlineStr">
         <is>
-          <t>$/caja 70 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O146" t="inlineStr">
@@ -10891,10 +10891,10 @@
         </is>
       </c>
       <c r="P146" t="n">
-        <v>200</v>
+        <v>310</v>
       </c>
       <c r="Q146" t="n">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="R146" t="inlineStr">
         <is>
@@ -10932,41 +10932,41 @@
       </c>
       <c r="H147" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I147" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J147" t="n">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="K147" t="n">
-        <v>18000</v>
+        <v>14000</v>
       </c>
       <c r="L147" t="n">
-        <v>19000</v>
+        <v>14000</v>
       </c>
       <c r="M147" t="n">
-        <v>18500</v>
+        <v>14000</v>
       </c>
       <c r="N147" t="inlineStr">
         <is>
-          <t>$/caja 25 unidades</t>
+          <t>$/caja 70 unidades</t>
         </is>
       </c>
       <c r="O147" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P147" t="n">
-        <v>18500</v>
+        <v>200</v>
       </c>
       <c r="Q147" t="n">
-        <v>1</v>
+        <v>70</v>
       </c>
       <c r="R147" t="inlineStr">
         <is>
@@ -11009,24 +11009,24 @@
       </c>
       <c r="I148" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J148" t="n">
-        <v>43</v>
+        <v>16</v>
       </c>
       <c r="K148" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="L148" t="n">
-        <v>16000</v>
+        <v>19000</v>
       </c>
       <c r="M148" t="n">
-        <v>15488</v>
+        <v>18500</v>
       </c>
       <c r="N148" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 25 unidades</t>
         </is>
       </c>
       <c r="O148" t="inlineStr">
@@ -11035,10 +11035,10 @@
         </is>
       </c>
       <c r="P148" t="n">
-        <v>516</v>
+        <v>18500</v>
       </c>
       <c r="Q148" t="n">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="R148" t="inlineStr">
         <is>
@@ -11081,24 +11081,24 @@
       </c>
       <c r="I149" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J149" t="n">
-        <v>25</v>
+        <v>43</v>
       </c>
       <c r="K149" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="L149" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="M149" t="n">
-        <v>14000</v>
+        <v>15488</v>
       </c>
       <c r="N149" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O149" t="inlineStr">
@@ -11107,10 +11107,10 @@
         </is>
       </c>
       <c r="P149" t="n">
-        <v>350</v>
+        <v>516</v>
       </c>
       <c r="Q149" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="R149" t="inlineStr">
         <is>
@@ -11133,7 +11133,7 @@
         </is>
       </c>
       <c r="D150" s="2" t="n">
-        <v>44433</v>
+        <v>44358</v>
       </c>
       <c r="E150" t="n">
         <v>13</v>
@@ -11153,36 +11153,36 @@
       </c>
       <c r="I150" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J150" t="n">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="K150" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="L150" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="M150" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="N150" t="inlineStr">
         <is>
-          <t>$/caja 25 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O150" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P150" t="n">
-        <v>16000</v>
+        <v>350</v>
       </c>
       <c r="Q150" t="n">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="R150" t="inlineStr">
         <is>
@@ -11225,24 +11225,24 @@
       </c>
       <c r="I151" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J151" t="n">
-        <v>52</v>
+        <v>16</v>
       </c>
       <c r="K151" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="L151" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="M151" t="n">
-        <v>14500</v>
+        <v>16000</v>
       </c>
       <c r="N151" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 25 unidades</t>
         </is>
       </c>
       <c r="O151" t="inlineStr">
@@ -11251,10 +11251,10 @@
         </is>
       </c>
       <c r="P151" t="n">
-        <v>483</v>
+        <v>16000</v>
       </c>
       <c r="Q151" t="n">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="R151" t="inlineStr">
         <is>
@@ -11297,24 +11297,24 @@
       </c>
       <c r="I152" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J152" t="n">
-        <v>34</v>
+        <v>52</v>
       </c>
       <c r="K152" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="L152" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="M152" t="n">
-        <v>12500</v>
+        <v>14500</v>
       </c>
       <c r="N152" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O152" t="inlineStr">
@@ -11323,10 +11323,10 @@
         </is>
       </c>
       <c r="P152" t="n">
-        <v>312</v>
+        <v>483</v>
       </c>
       <c r="Q152" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="R152" t="inlineStr">
         <is>
@@ -11349,7 +11349,7 @@
         </is>
       </c>
       <c r="D153" s="2" t="n">
-        <v>44397</v>
+        <v>44433</v>
       </c>
       <c r="E153" t="n">
         <v>13</v>
@@ -11369,36 +11369,36 @@
       </c>
       <c r="I153" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J153" t="n">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="K153" t="n">
-        <v>19000</v>
+        <v>12000</v>
       </c>
       <c r="L153" t="n">
-        <v>20000</v>
+        <v>13000</v>
       </c>
       <c r="M153" t="n">
-        <v>19500</v>
+        <v>12500</v>
       </c>
       <c r="N153" t="inlineStr">
         <is>
-          <t>$/caja 25 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O153" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P153" t="n">
-        <v>19500</v>
+        <v>312</v>
       </c>
       <c r="Q153" t="n">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="R153" t="inlineStr">
         <is>
@@ -11441,24 +11441,24 @@
       </c>
       <c r="I154" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J154" t="n">
-        <v>43</v>
+        <v>16</v>
       </c>
       <c r="K154" t="n">
-        <v>16000</v>
+        <v>19000</v>
       </c>
       <c r="L154" t="n">
-        <v>17000</v>
+        <v>20000</v>
       </c>
       <c r="M154" t="n">
-        <v>16488</v>
+        <v>19500</v>
       </c>
       <c r="N154" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 25 unidades</t>
         </is>
       </c>
       <c r="O154" t="inlineStr">
@@ -11467,10 +11467,10 @@
         </is>
       </c>
       <c r="P154" t="n">
-        <v>550</v>
+        <v>19500</v>
       </c>
       <c r="Q154" t="n">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="R154" t="inlineStr">
         <is>
@@ -11513,24 +11513,24 @@
       </c>
       <c r="I155" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J155" t="n">
-        <v>25</v>
+        <v>43</v>
       </c>
       <c r="K155" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="L155" t="n">
-        <v>15000</v>
+        <v>17000</v>
       </c>
       <c r="M155" t="n">
-        <v>15000</v>
+        <v>16488</v>
       </c>
       <c r="N155" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O155" t="inlineStr">
@@ -11539,10 +11539,10 @@
         </is>
       </c>
       <c r="P155" t="n">
-        <v>375</v>
+        <v>550</v>
       </c>
       <c r="Q155" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="R155" t="inlineStr">
         <is>
@@ -11565,7 +11565,7 @@
         </is>
       </c>
       <c r="D156" s="2" t="n">
-        <v>44335</v>
+        <v>44397</v>
       </c>
       <c r="E156" t="n">
         <v>13</v>
@@ -11580,12 +11580,12 @@
       </c>
       <c r="H156" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I156" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J156" t="n">
@@ -11595,14 +11595,14 @@
         <v>15000</v>
       </c>
       <c r="L156" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="M156" t="n">
-        <v>15480</v>
+        <v>15000</v>
       </c>
       <c r="N156" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O156" t="inlineStr">
@@ -11611,10 +11611,10 @@
         </is>
       </c>
       <c r="P156" t="n">
-        <v>310</v>
+        <v>375</v>
       </c>
       <c r="Q156" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="R156" t="inlineStr">
         <is>
@@ -11652,7 +11652,7 @@
       </c>
       <c r="H157" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I157" t="inlineStr">
@@ -11661,20 +11661,20 @@
         </is>
       </c>
       <c r="J157" t="n">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="K157" t="n">
-        <v>17000</v>
+        <v>15000</v>
       </c>
       <c r="L157" t="n">
-        <v>18000</v>
+        <v>16000</v>
       </c>
       <c r="M157" t="n">
-        <v>17500</v>
+        <v>15480</v>
       </c>
       <c r="N157" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O157" t="inlineStr">
@@ -11683,10 +11683,10 @@
         </is>
       </c>
       <c r="P157" t="n">
-        <v>583</v>
+        <v>310</v>
       </c>
       <c r="Q157" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R157" t="inlineStr">
         <is>
@@ -11733,20 +11733,20 @@
         </is>
       </c>
       <c r="J158" t="n">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="K158" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="L158" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="M158" t="n">
-        <v>16000</v>
+        <v>17500</v>
       </c>
       <c r="N158" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O158" t="inlineStr">
@@ -11755,10 +11755,10 @@
         </is>
       </c>
       <c r="P158" t="n">
-        <v>400</v>
+        <v>583</v>
       </c>
       <c r="Q158" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="R158" t="inlineStr">
         <is>
@@ -11781,7 +11781,7 @@
         </is>
       </c>
       <c r="D159" s="2" t="n">
-        <v>44426</v>
+        <v>44335</v>
       </c>
       <c r="E159" t="n">
         <v>13</v>
@@ -11801,11 +11801,11 @@
       </c>
       <c r="I159" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J159" t="n">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="K159" t="n">
         <v>16000</v>
@@ -11818,7 +11818,7 @@
       </c>
       <c r="N159" t="inlineStr">
         <is>
-          <t>$/caja 25 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O159" t="inlineStr">
@@ -11827,10 +11827,10 @@
         </is>
       </c>
       <c r="P159" t="n">
-        <v>16000</v>
+        <v>400</v>
       </c>
       <c r="Q159" t="n">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="R159" t="inlineStr">
         <is>
@@ -11873,24 +11873,24 @@
       </c>
       <c r="I160" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J160" t="n">
-        <v>52</v>
+        <v>16</v>
       </c>
       <c r="K160" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="L160" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="M160" t="n">
-        <v>14500</v>
+        <v>16000</v>
       </c>
       <c r="N160" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 25 unidades</t>
         </is>
       </c>
       <c r="O160" t="inlineStr">
@@ -11899,10 +11899,10 @@
         </is>
       </c>
       <c r="P160" t="n">
-        <v>483</v>
+        <v>16000</v>
       </c>
       <c r="Q160" t="n">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="R160" t="inlineStr">
         <is>
@@ -11945,24 +11945,24 @@
       </c>
       <c r="I161" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J161" t="n">
-        <v>34</v>
+        <v>52</v>
       </c>
       <c r="K161" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="L161" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="M161" t="n">
-        <v>13000</v>
+        <v>14500</v>
       </c>
       <c r="N161" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O161" t="inlineStr">
@@ -11971,10 +11971,10 @@
         </is>
       </c>
       <c r="P161" t="n">
-        <v>325</v>
+        <v>483</v>
       </c>
       <c r="Q161" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="R161" t="inlineStr">
         <is>
@@ -11997,7 +11997,7 @@
         </is>
       </c>
       <c r="D162" s="2" t="n">
-        <v>44421</v>
+        <v>44426</v>
       </c>
       <c r="E162" t="n">
         <v>13</v>
@@ -12017,24 +12017,24 @@
       </c>
       <c r="I162" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J162" t="n">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="K162" t="n">
-        <v>17000</v>
+        <v>13000</v>
       </c>
       <c r="L162" t="n">
-        <v>17000</v>
+        <v>13000</v>
       </c>
       <c r="M162" t="n">
-        <v>17000</v>
+        <v>13000</v>
       </c>
       <c r="N162" t="inlineStr">
         <is>
-          <t>$/caja 25 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O162" t="inlineStr">
@@ -12043,10 +12043,10 @@
         </is>
       </c>
       <c r="P162" t="n">
-        <v>17000</v>
+        <v>325</v>
       </c>
       <c r="Q162" t="n">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="R162" t="inlineStr">
         <is>
@@ -12089,24 +12089,24 @@
       </c>
       <c r="I163" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J163" t="n">
-        <v>70</v>
+        <v>25</v>
       </c>
       <c r="K163" t="n">
-        <v>15000</v>
+        <v>17000</v>
       </c>
       <c r="L163" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="M163" t="n">
-        <v>15500</v>
+        <v>17000</v>
       </c>
       <c r="N163" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 25 unidades</t>
         </is>
       </c>
       <c r="O163" t="inlineStr">
@@ -12115,10 +12115,10 @@
         </is>
       </c>
       <c r="P163" t="n">
-        <v>517</v>
+        <v>17000</v>
       </c>
       <c r="Q163" t="n">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="R163" t="inlineStr">
         <is>
@@ -12161,24 +12161,24 @@
       </c>
       <c r="I164" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J164" t="n">
-        <v>43</v>
+        <v>70</v>
       </c>
       <c r="K164" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="L164" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="M164" t="n">
-        <v>13488</v>
+        <v>15500</v>
       </c>
       <c r="N164" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O164" t="inlineStr">
@@ -12187,10 +12187,10 @@
         </is>
       </c>
       <c r="P164" t="n">
-        <v>337</v>
+        <v>517</v>
       </c>
       <c r="Q164" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="R164" t="inlineStr">
         <is>
@@ -12213,7 +12213,7 @@
         </is>
       </c>
       <c r="D165" s="2" t="n">
-        <v>44434</v>
+        <v>44421</v>
       </c>
       <c r="E165" t="n">
         <v>13</v>
@@ -12233,36 +12233,36 @@
       </c>
       <c r="I165" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J165" t="n">
-        <v>18</v>
+        <v>43</v>
       </c>
       <c r="K165" t="n">
-        <v>16000</v>
+        <v>13000</v>
       </c>
       <c r="L165" t="n">
-        <v>17000</v>
+        <v>14000</v>
       </c>
       <c r="M165" t="n">
-        <v>16500</v>
+        <v>13488</v>
       </c>
       <c r="N165" t="inlineStr">
         <is>
-          <t>$/caja 25 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O165" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P165" t="n">
-        <v>16500</v>
+        <v>337</v>
       </c>
       <c r="Q165" t="n">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="R165" t="inlineStr">
         <is>
@@ -12305,24 +12305,24 @@
       </c>
       <c r="I166" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J166" t="n">
-        <v>52</v>
+        <v>18</v>
       </c>
       <c r="K166" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="L166" t="n">
-        <v>15000</v>
+        <v>17000</v>
       </c>
       <c r="M166" t="n">
-        <v>14500</v>
+        <v>16500</v>
       </c>
       <c r="N166" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 25 unidades</t>
         </is>
       </c>
       <c r="O166" t="inlineStr">
@@ -12331,10 +12331,10 @@
         </is>
       </c>
       <c r="P166" t="n">
-        <v>483</v>
+        <v>16500</v>
       </c>
       <c r="Q166" t="n">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="R166" t="inlineStr">
         <is>
@@ -12377,24 +12377,24 @@
       </c>
       <c r="I167" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J167" t="n">
-        <v>34</v>
+        <v>52</v>
       </c>
       <c r="K167" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="L167" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="M167" t="n">
-        <v>12500</v>
+        <v>14500</v>
       </c>
       <c r="N167" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O167" t="inlineStr">
@@ -12403,10 +12403,10 @@
         </is>
       </c>
       <c r="P167" t="n">
-        <v>312</v>
+        <v>483</v>
       </c>
       <c r="Q167" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="R167" t="inlineStr">
         <is>
@@ -12429,7 +12429,7 @@
         </is>
       </c>
       <c r="D168" s="2" t="n">
-        <v>44398</v>
+        <v>44434</v>
       </c>
       <c r="E168" t="n">
         <v>13</v>
@@ -12449,24 +12449,24 @@
       </c>
       <c r="I168" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J168" t="n">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="K168" t="n">
-        <v>18000</v>
+        <v>12000</v>
       </c>
       <c r="L168" t="n">
-        <v>18000</v>
+        <v>13000</v>
       </c>
       <c r="M168" t="n">
-        <v>18000</v>
+        <v>12500</v>
       </c>
       <c r="N168" t="inlineStr">
         <is>
-          <t>$/caja 25 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O168" t="inlineStr">
@@ -12475,10 +12475,10 @@
         </is>
       </c>
       <c r="P168" t="n">
-        <v>18000</v>
+        <v>312</v>
       </c>
       <c r="Q168" t="n">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="R168" t="inlineStr">
         <is>
@@ -12521,24 +12521,24 @@
       </c>
       <c r="I169" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J169" t="n">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="K169" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="L169" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="M169" t="n">
-        <v>16500</v>
+        <v>18000</v>
       </c>
       <c r="N169" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 25 unidades</t>
         </is>
       </c>
       <c r="O169" t="inlineStr">
@@ -12547,10 +12547,10 @@
         </is>
       </c>
       <c r="P169" t="n">
-        <v>550</v>
+        <v>18000</v>
       </c>
       <c r="Q169" t="n">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="R169" t="inlineStr">
         <is>
@@ -12593,24 +12593,24 @@
       </c>
       <c r="I170" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J170" t="n">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="K170" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="L170" t="n">
-        <v>15000</v>
+        <v>17000</v>
       </c>
       <c r="M170" t="n">
-        <v>14500</v>
+        <v>16500</v>
       </c>
       <c r="N170" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O170" t="inlineStr">
@@ -12619,10 +12619,10 @@
         </is>
       </c>
       <c r="P170" t="n">
-        <v>362</v>
+        <v>550</v>
       </c>
       <c r="Q170" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="R170" t="inlineStr">
         <is>
@@ -12645,7 +12645,7 @@
         </is>
       </c>
       <c r="D171" s="2" t="n">
-        <v>44420</v>
+        <v>44398</v>
       </c>
       <c r="E171" t="n">
         <v>13</v>
@@ -12665,36 +12665,36 @@
       </c>
       <c r="I171" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J171" t="n">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="K171" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="L171" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="M171" t="n">
-        <v>16000</v>
+        <v>14500</v>
       </c>
       <c r="N171" t="inlineStr">
         <is>
-          <t>$/caja 25 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O171" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P171" t="n">
-        <v>16000</v>
+        <v>362</v>
       </c>
       <c r="Q171" t="n">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="R171" t="inlineStr">
         <is>
@@ -12737,24 +12737,24 @@
       </c>
       <c r="I172" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J172" t="n">
-        <v>70</v>
+        <v>25</v>
       </c>
       <c r="K172" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="L172" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="M172" t="n">
-        <v>14500</v>
+        <v>16000</v>
       </c>
       <c r="N172" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 25 unidades</t>
         </is>
       </c>
       <c r="O172" t="inlineStr">
@@ -12763,10 +12763,10 @@
         </is>
       </c>
       <c r="P172" t="n">
-        <v>483</v>
+        <v>16000</v>
       </c>
       <c r="Q172" t="n">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="R172" t="inlineStr">
         <is>
@@ -12809,24 +12809,24 @@
       </c>
       <c r="I173" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J173" t="n">
-        <v>43</v>
+        <v>70</v>
       </c>
       <c r="K173" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="L173" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="M173" t="n">
-        <v>12512</v>
+        <v>14500</v>
       </c>
       <c r="N173" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O173" t="inlineStr">
@@ -12835,10 +12835,10 @@
         </is>
       </c>
       <c r="P173" t="n">
-        <v>313</v>
+        <v>483</v>
       </c>
       <c r="Q173" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="R173" t="inlineStr">
         <is>
@@ -12861,7 +12861,7 @@
         </is>
       </c>
       <c r="D174" s="2" t="n">
-        <v>44348</v>
+        <v>44420</v>
       </c>
       <c r="E174" t="n">
         <v>13</v>
@@ -12876,41 +12876,41 @@
       </c>
       <c r="H174" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I174" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J174" t="n">
+        <v>43</v>
+      </c>
+      <c r="K174" t="n">
+        <v>12000</v>
+      </c>
+      <c r="L174" t="n">
+        <v>13000</v>
+      </c>
+      <c r="M174" t="n">
+        <v>12512</v>
+      </c>
+      <c r="N174" t="inlineStr">
+        <is>
+          <t>$/caja 40 unidades</t>
+        </is>
+      </c>
+      <c r="O174" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P174" t="n">
+        <v>313</v>
+      </c>
+      <c r="Q174" t="n">
         <v>40</v>
-      </c>
-      <c r="K174" t="n">
-        <v>16000</v>
-      </c>
-      <c r="L174" t="n">
-        <v>17000</v>
-      </c>
-      <c r="M174" t="n">
-        <v>16500</v>
-      </c>
-      <c r="N174" t="inlineStr">
-        <is>
-          <t>$/caja 50 unidades</t>
-        </is>
-      </c>
-      <c r="O174" t="inlineStr">
-        <is>
-          <t>Provincia de Limarí</t>
-        </is>
-      </c>
-      <c r="P174" t="n">
-        <v>330</v>
-      </c>
-      <c r="Q174" t="n">
-        <v>50</v>
       </c>
       <c r="R174" t="inlineStr">
         <is>
@@ -12953,24 +12953,24 @@
       </c>
       <c r="I175" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J175" t="n">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="K175" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="L175" t="n">
-        <v>14000</v>
+        <v>17000</v>
       </c>
       <c r="M175" t="n">
-        <v>14000</v>
+        <v>16500</v>
       </c>
       <c r="N175" t="inlineStr">
         <is>
-          <t>$/caja 70 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O175" t="inlineStr">
@@ -12979,10 +12979,10 @@
         </is>
       </c>
       <c r="P175" t="n">
-        <v>200</v>
+        <v>330</v>
       </c>
       <c r="Q175" t="n">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="R175" t="inlineStr">
         <is>
@@ -13020,41 +13020,41 @@
       </c>
       <c r="H176" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I176" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J176" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="K176" t="n">
-        <v>19000</v>
+        <v>14000</v>
       </c>
       <c r="L176" t="n">
-        <v>20000</v>
+        <v>14000</v>
       </c>
       <c r="M176" t="n">
-        <v>19500</v>
+        <v>14000</v>
       </c>
       <c r="N176" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 70 unidades</t>
         </is>
       </c>
       <c r="O176" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P176" t="n">
-        <v>650</v>
+        <v>200</v>
       </c>
       <c r="Q176" t="n">
-        <v>30</v>
+        <v>70</v>
       </c>
       <c r="R176" t="inlineStr">
         <is>
@@ -13097,24 +13097,24 @@
       </c>
       <c r="I177" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J177" t="n">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="K177" t="n">
-        <v>16000</v>
+        <v>19000</v>
       </c>
       <c r="L177" t="n">
-        <v>17000</v>
+        <v>20000</v>
       </c>
       <c r="M177" t="n">
-        <v>16500</v>
+        <v>19500</v>
       </c>
       <c r="N177" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O177" t="inlineStr">
@@ -13123,10 +13123,10 @@
         </is>
       </c>
       <c r="P177" t="n">
-        <v>412</v>
+        <v>650</v>
       </c>
       <c r="Q177" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="R177" t="inlineStr">
         <is>
@@ -13149,7 +13149,7 @@
         </is>
       </c>
       <c r="D178" s="2" t="n">
-        <v>44316</v>
+        <v>44348</v>
       </c>
       <c r="E178" t="n">
         <v>13</v>
@@ -13164,41 +13164,41 @@
       </c>
       <c r="H178" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I178" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J178" t="n">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="K178" t="n">
-        <v>18000</v>
+        <v>16000</v>
       </c>
       <c r="L178" t="n">
-        <v>18000</v>
+        <v>17000</v>
       </c>
       <c r="M178" t="n">
-        <v>18000</v>
+        <v>16500</v>
       </c>
       <c r="N178" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O178" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P178" t="n">
-        <v>360</v>
+        <v>412</v>
       </c>
       <c r="Q178" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="R178" t="inlineStr">
         <is>
@@ -13236,16 +13236,16 @@
       </c>
       <c r="H179" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I179" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J179" t="n">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="K179" t="n">
         <v>18000</v>
@@ -13258,7 +13258,7 @@
       </c>
       <c r="N179" t="inlineStr">
         <is>
-          <t>$/caja 25 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O179" t="inlineStr">
@@ -13267,10 +13267,10 @@
         </is>
       </c>
       <c r="P179" t="n">
-        <v>18000</v>
+        <v>360</v>
       </c>
       <c r="Q179" t="n">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="R179" t="inlineStr">
         <is>
@@ -13313,24 +13313,24 @@
       </c>
       <c r="I180" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J180" t="n">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="K180" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="L180" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="M180" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="N180" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 25 unidades</t>
         </is>
       </c>
       <c r="O180" t="inlineStr">
@@ -13339,10 +13339,10 @@
         </is>
       </c>
       <c r="P180" t="n">
-        <v>533</v>
+        <v>18000</v>
       </c>
       <c r="Q180" t="n">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="R180" t="inlineStr">
         <is>
@@ -13365,7 +13365,7 @@
         </is>
       </c>
       <c r="D181" s="2" t="n">
-        <v>44427</v>
+        <v>44316</v>
       </c>
       <c r="E181" t="n">
         <v>13</v>
@@ -13385,24 +13385,24 @@
       </c>
       <c r="I181" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J181" t="n">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="K181" t="n">
-        <v>17000</v>
+        <v>16000</v>
       </c>
       <c r="L181" t="n">
-        <v>17000</v>
+        <v>16000</v>
       </c>
       <c r="M181" t="n">
-        <v>17000</v>
+        <v>16000</v>
       </c>
       <c r="N181" t="inlineStr">
         <is>
-          <t>$/caja 25 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O181" t="inlineStr">
@@ -13411,10 +13411,10 @@
         </is>
       </c>
       <c r="P181" t="n">
-        <v>17000</v>
+        <v>533</v>
       </c>
       <c r="Q181" t="n">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="R181" t="inlineStr">
         <is>
@@ -13457,24 +13457,24 @@
       </c>
       <c r="I182" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J182" t="n">
-        <v>43</v>
+        <v>16</v>
       </c>
       <c r="K182" t="n">
-        <v>15000</v>
+        <v>17000</v>
       </c>
       <c r="L182" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="M182" t="n">
-        <v>15488</v>
+        <v>17000</v>
       </c>
       <c r="N182" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 25 unidades</t>
         </is>
       </c>
       <c r="O182" t="inlineStr">
@@ -13483,10 +13483,10 @@
         </is>
       </c>
       <c r="P182" t="n">
-        <v>516</v>
+        <v>17000</v>
       </c>
       <c r="Q182" t="n">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="R182" t="inlineStr">
         <is>
@@ -13529,24 +13529,24 @@
       </c>
       <c r="I183" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J183" t="n">
-        <v>25</v>
+        <v>43</v>
       </c>
       <c r="K183" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="L183" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="M183" t="n">
-        <v>13480</v>
+        <v>15488</v>
       </c>
       <c r="N183" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O183" t="inlineStr">
@@ -13555,10 +13555,10 @@
         </is>
       </c>
       <c r="P183" t="n">
-        <v>337</v>
+        <v>516</v>
       </c>
       <c r="Q183" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="R183" t="inlineStr">
         <is>
@@ -13596,25 +13596,25 @@
       </c>
       <c r="H184" t="inlineStr">
         <is>
-          <t>Madrigal</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I184" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J184" t="n">
         <v>25</v>
       </c>
       <c r="K184" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="L184" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="M184" t="n">
-        <v>15480</v>
+        <v>13480</v>
       </c>
       <c r="N184" t="inlineStr">
         <is>
@@ -13627,7 +13627,7 @@
         </is>
       </c>
       <c r="P184" t="n">
-        <v>387</v>
+        <v>337</v>
       </c>
       <c r="Q184" t="n">
         <v>40</v>
@@ -13673,24 +13673,24 @@
       </c>
       <c r="I185" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J185" t="n">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="K185" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="L185" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="M185" t="n">
-        <v>13500</v>
+        <v>15480</v>
       </c>
       <c r="N185" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O185" t="inlineStr">
@@ -13699,10 +13699,10 @@
         </is>
       </c>
       <c r="P185" t="n">
-        <v>270</v>
+        <v>387</v>
       </c>
       <c r="Q185" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="R185" t="inlineStr">
         <is>
@@ -13725,7 +13725,7 @@
         </is>
       </c>
       <c r="D186" s="2" t="n">
-        <v>44341</v>
+        <v>44427</v>
       </c>
       <c r="E186" t="n">
         <v>13</v>
@@ -13740,25 +13740,25 @@
       </c>
       <c r="H186" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Madrigal</t>
         </is>
       </c>
       <c r="I186" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J186" t="n">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="K186" t="n">
-        <v>16000</v>
+        <v>13000</v>
       </c>
       <c r="L186" t="n">
-        <v>17000</v>
+        <v>14000</v>
       </c>
       <c r="M186" t="n">
-        <v>16484</v>
+        <v>13500</v>
       </c>
       <c r="N186" t="inlineStr">
         <is>
@@ -13771,7 +13771,7 @@
         </is>
       </c>
       <c r="P186" t="n">
-        <v>330</v>
+        <v>270</v>
       </c>
       <c r="Q186" t="n">
         <v>50</v>
@@ -13812,7 +13812,7 @@
       </c>
       <c r="H187" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I187" t="inlineStr">
@@ -13821,32 +13821,32 @@
         </is>
       </c>
       <c r="J187" t="n">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="K187" t="n">
+        <v>16000</v>
+      </c>
+      <c r="L187" t="n">
         <v>17000</v>
       </c>
-      <c r="L187" t="n">
-        <v>18000</v>
-      </c>
       <c r="M187" t="n">
-        <v>17476</v>
+        <v>16484</v>
       </c>
       <c r="N187" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O187" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P187" t="n">
-        <v>583</v>
+        <v>330</v>
       </c>
       <c r="Q187" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R187" t="inlineStr">
         <is>
@@ -13889,24 +13889,24 @@
       </c>
       <c r="I188" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J188" t="n">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="K188" t="n">
-        <v>14000</v>
+        <v>17000</v>
       </c>
       <c r="L188" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="M188" t="n">
-        <v>14500</v>
+        <v>17476</v>
       </c>
       <c r="N188" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O188" t="inlineStr">
@@ -13915,10 +13915,10 @@
         </is>
       </c>
       <c r="P188" t="n">
-        <v>362</v>
+        <v>583</v>
       </c>
       <c r="Q188" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="R188" t="inlineStr">
         <is>
@@ -13941,7 +13941,7 @@
         </is>
       </c>
       <c r="D189" s="2" t="n">
-        <v>44414</v>
+        <v>44341</v>
       </c>
       <c r="E189" t="n">
         <v>13</v>
@@ -13961,36 +13961,36 @@
       </c>
       <c r="I189" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J189" t="n">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="K189" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="L189" t="n">
         <v>15000</v>
       </c>
       <c r="M189" t="n">
-        <v>15000</v>
+        <v>14500</v>
       </c>
       <c r="N189" t="inlineStr">
         <is>
-          <t>$/caja 25 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O189" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P189" t="n">
-        <v>15000</v>
+        <v>362</v>
       </c>
       <c r="Q189" t="n">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="R189" t="inlineStr">
         <is>
@@ -14033,24 +14033,24 @@
       </c>
       <c r="I190" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J190" t="n">
-        <v>61</v>
+        <v>25</v>
       </c>
       <c r="K190" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="L190" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="M190" t="n">
-        <v>13492</v>
+        <v>15000</v>
       </c>
       <c r="N190" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 25 unidades</t>
         </is>
       </c>
       <c r="O190" t="inlineStr">
@@ -14059,10 +14059,10 @@
         </is>
       </c>
       <c r="P190" t="n">
-        <v>450</v>
+        <v>15000</v>
       </c>
       <c r="Q190" t="n">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="R190" t="inlineStr">
         <is>
@@ -14105,24 +14105,24 @@
       </c>
       <c r="I191" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J191" t="n">
-        <v>43</v>
+        <v>61</v>
       </c>
       <c r="K191" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="L191" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="M191" t="n">
-        <v>12000</v>
+        <v>13492</v>
       </c>
       <c r="N191" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O191" t="inlineStr">
@@ -14131,10 +14131,10 @@
         </is>
       </c>
       <c r="P191" t="n">
-        <v>300</v>
+        <v>450</v>
       </c>
       <c r="Q191" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="R191" t="inlineStr">
         <is>
@@ -14157,7 +14157,7 @@
         </is>
       </c>
       <c r="D192" s="2" t="n">
-        <v>44301</v>
+        <v>44414</v>
       </c>
       <c r="E192" t="n">
         <v>13</v>
@@ -14177,24 +14177,24 @@
       </c>
       <c r="I192" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J192" t="n">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="K192" t="n">
-        <v>17000</v>
+        <v>12000</v>
       </c>
       <c r="L192" t="n">
-        <v>18000</v>
+        <v>12000</v>
       </c>
       <c r="M192" t="n">
-        <v>17500</v>
+        <v>12000</v>
       </c>
       <c r="N192" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O192" t="inlineStr">
@@ -14203,10 +14203,10 @@
         </is>
       </c>
       <c r="P192" t="n">
-        <v>583</v>
+        <v>300</v>
       </c>
       <c r="Q192" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="R192" t="inlineStr">
         <is>
@@ -14229,7 +14229,7 @@
         </is>
       </c>
       <c r="D193" s="2" t="n">
-        <v>44417</v>
+        <v>44301</v>
       </c>
       <c r="E193" t="n">
         <v>13</v>
@@ -14249,24 +14249,24 @@
       </c>
       <c r="I193" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J193" t="n">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="K193" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="L193" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="M193" t="n">
-        <v>16000</v>
+        <v>17500</v>
       </c>
       <c r="N193" t="inlineStr">
         <is>
-          <t>$/caja 25 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O193" t="inlineStr">
@@ -14275,10 +14275,10 @@
         </is>
       </c>
       <c r="P193" t="n">
-        <v>16000</v>
+        <v>583</v>
       </c>
       <c r="Q193" t="n">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="R193" t="inlineStr">
         <is>
@@ -14321,24 +14321,24 @@
       </c>
       <c r="I194" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J194" t="n">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="K194" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="L194" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="M194" t="n">
-        <v>14500</v>
+        <v>16000</v>
       </c>
       <c r="N194" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 25 unidades</t>
         </is>
       </c>
       <c r="O194" t="inlineStr">
@@ -14347,10 +14347,10 @@
         </is>
       </c>
       <c r="P194" t="n">
-        <v>483</v>
+        <v>16000</v>
       </c>
       <c r="Q194" t="n">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="R194" t="inlineStr">
         <is>
@@ -14393,24 +14393,24 @@
       </c>
       <c r="I195" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J195" t="n">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="K195" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="L195" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="M195" t="n">
-        <v>12000</v>
+        <v>14500</v>
       </c>
       <c r="N195" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O195" t="inlineStr">
@@ -14419,10 +14419,10 @@
         </is>
       </c>
       <c r="P195" t="n">
-        <v>300</v>
+        <v>483</v>
       </c>
       <c r="Q195" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="R195" t="inlineStr">
         <is>
@@ -14445,7 +14445,7 @@
         </is>
       </c>
       <c r="D196" s="2" t="n">
-        <v>44441</v>
+        <v>44417</v>
       </c>
       <c r="E196" t="n">
         <v>13</v>
@@ -14465,24 +14465,24 @@
       </c>
       <c r="I196" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J196" t="n">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="K196" t="n">
-        <v>16000</v>
+        <v>12000</v>
       </c>
       <c r="L196" t="n">
-        <v>17000</v>
+        <v>12000</v>
       </c>
       <c r="M196" t="n">
-        <v>16444</v>
+        <v>12000</v>
       </c>
       <c r="N196" t="inlineStr">
         <is>
-          <t>$/caja 25 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O196" t="inlineStr">
@@ -14491,10 +14491,10 @@
         </is>
       </c>
       <c r="P196" t="n">
-        <v>16444</v>
+        <v>300</v>
       </c>
       <c r="Q196" t="n">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="R196" t="inlineStr">
         <is>
@@ -14537,24 +14537,24 @@
       </c>
       <c r="I197" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J197" t="n">
-        <v>34</v>
+        <v>9</v>
       </c>
       <c r="K197" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="L197" t="n">
-        <v>15000</v>
+        <v>17000</v>
       </c>
       <c r="M197" t="n">
-        <v>14500</v>
+        <v>16444</v>
       </c>
       <c r="N197" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 25 unidades</t>
         </is>
       </c>
       <c r="O197" t="inlineStr">
@@ -14563,10 +14563,10 @@
         </is>
       </c>
       <c r="P197" t="n">
-        <v>483</v>
+        <v>16444</v>
       </c>
       <c r="Q197" t="n">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="R197" t="inlineStr">
         <is>
@@ -14609,24 +14609,24 @@
       </c>
       <c r="I198" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J198" t="n">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="K198" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="L198" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="M198" t="n">
-        <v>12480</v>
+        <v>14500</v>
       </c>
       <c r="N198" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O198" t="inlineStr">
@@ -14635,10 +14635,10 @@
         </is>
       </c>
       <c r="P198" t="n">
-        <v>312</v>
+        <v>483</v>
       </c>
       <c r="Q198" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="R198" t="inlineStr">
         <is>
@@ -14661,7 +14661,7 @@
         </is>
       </c>
       <c r="D199" s="2" t="n">
-        <v>44432</v>
+        <v>44441</v>
       </c>
       <c r="E199" t="n">
         <v>13</v>
@@ -14681,36 +14681,36 @@
       </c>
       <c r="I199" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J199" t="n">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="K199" t="n">
-        <v>16000</v>
+        <v>12000</v>
       </c>
       <c r="L199" t="n">
-        <v>17000</v>
+        <v>13000</v>
       </c>
       <c r="M199" t="n">
-        <v>16500</v>
+        <v>12480</v>
       </c>
       <c r="N199" t="inlineStr">
         <is>
-          <t>$/caja 25 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O199" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P199" t="n">
-        <v>16500</v>
+        <v>312</v>
       </c>
       <c r="Q199" t="n">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="R199" t="inlineStr">
         <is>
@@ -14753,24 +14753,24 @@
       </c>
       <c r="I200" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J200" t="n">
-        <v>52</v>
+        <v>16</v>
       </c>
       <c r="K200" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="L200" t="n">
-        <v>15000</v>
+        <v>17000</v>
       </c>
       <c r="M200" t="n">
-        <v>14500</v>
+        <v>16500</v>
       </c>
       <c r="N200" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 25 unidades</t>
         </is>
       </c>
       <c r="O200" t="inlineStr">
@@ -14779,10 +14779,10 @@
         </is>
       </c>
       <c r="P200" t="n">
-        <v>483</v>
+        <v>16500</v>
       </c>
       <c r="Q200" t="n">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="R200" t="inlineStr">
         <is>
@@ -14825,24 +14825,24 @@
       </c>
       <c r="I201" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J201" t="n">
-        <v>34</v>
+        <v>52</v>
       </c>
       <c r="K201" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="L201" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="M201" t="n">
-        <v>12500</v>
+        <v>14500</v>
       </c>
       <c r="N201" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O201" t="inlineStr">
@@ -14851,10 +14851,10 @@
         </is>
       </c>
       <c r="P201" t="n">
-        <v>312</v>
+        <v>483</v>
       </c>
       <c r="Q201" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="R201" t="inlineStr">
         <is>
@@ -14892,25 +14892,25 @@
       </c>
       <c r="H202" t="inlineStr">
         <is>
-          <t>Madrigal</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I202" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J202" t="n">
         <v>34</v>
       </c>
       <c r="K202" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="L202" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="M202" t="n">
-        <v>14500</v>
+        <v>12500</v>
       </c>
       <c r="N202" t="inlineStr">
         <is>
@@ -14923,7 +14923,7 @@
         </is>
       </c>
       <c r="P202" t="n">
-        <v>362</v>
+        <v>312</v>
       </c>
       <c r="Q202" t="n">
         <v>40</v>
@@ -14969,24 +14969,24 @@
       </c>
       <c r="I203" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J203" t="n">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="K203" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="L203" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="M203" t="n">
-        <v>12500</v>
+        <v>14500</v>
       </c>
       <c r="N203" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O203" t="inlineStr">
@@ -14995,10 +14995,10 @@
         </is>
       </c>
       <c r="P203" t="n">
-        <v>250</v>
+        <v>362</v>
       </c>
       <c r="Q203" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="R203" t="inlineStr">
         <is>
@@ -15021,7 +15021,7 @@
         </is>
       </c>
       <c r="D204" s="2" t="n">
-        <v>44351</v>
+        <v>44432</v>
       </c>
       <c r="E204" t="n">
         <v>13</v>
@@ -15036,25 +15036,25 @@
       </c>
       <c r="H204" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Madrigal</t>
         </is>
       </c>
       <c r="I204" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J204" t="n">
-        <v>43</v>
+        <v>16</v>
       </c>
       <c r="K204" t="n">
-        <v>16000</v>
+        <v>12000</v>
       </c>
       <c r="L204" t="n">
-        <v>17000</v>
+        <v>13000</v>
       </c>
       <c r="M204" t="n">
-        <v>16512</v>
+        <v>12500</v>
       </c>
       <c r="N204" t="inlineStr">
         <is>
@@ -15063,11 +15063,11 @@
       </c>
       <c r="O204" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P204" t="n">
-        <v>330</v>
+        <v>250</v>
       </c>
       <c r="Q204" t="n">
         <v>50</v>
@@ -15113,24 +15113,24 @@
       </c>
       <c r="I205" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J205" t="n">
-        <v>21</v>
+        <v>43</v>
       </c>
       <c r="K205" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="L205" t="n">
-        <v>15000</v>
+        <v>17000</v>
       </c>
       <c r="M205" t="n">
-        <v>15000</v>
+        <v>16512</v>
       </c>
       <c r="N205" t="inlineStr">
         <is>
-          <t>$/caja 70 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O205" t="inlineStr">
@@ -15139,10 +15139,10 @@
         </is>
       </c>
       <c r="P205" t="n">
-        <v>214</v>
+        <v>330</v>
       </c>
       <c r="Q205" t="n">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="R205" t="inlineStr">
         <is>
@@ -15180,41 +15180,41 @@
       </c>
       <c r="H206" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I206" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J206" t="n">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="K206" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="L206" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="M206" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="N206" t="inlineStr">
         <is>
-          <t>$/caja 25 unidades</t>
+          <t>$/caja 70 unidades</t>
         </is>
       </c>
       <c r="O206" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P206" t="n">
-        <v>20000</v>
+        <v>214</v>
       </c>
       <c r="Q206" t="n">
-        <v>1</v>
+        <v>70</v>
       </c>
       <c r="R206" t="inlineStr">
         <is>
@@ -15257,24 +15257,24 @@
       </c>
       <c r="I207" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J207" t="n">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="K207" t="n">
-        <v>17000</v>
+        <v>20000</v>
       </c>
       <c r="L207" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="M207" t="n">
-        <v>17500</v>
+        <v>20000</v>
       </c>
       <c r="N207" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 25 unidades</t>
         </is>
       </c>
       <c r="O207" t="inlineStr">
@@ -15283,10 +15283,10 @@
         </is>
       </c>
       <c r="P207" t="n">
-        <v>583</v>
+        <v>20000</v>
       </c>
       <c r="Q207" t="n">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="R207" t="inlineStr">
         <is>
@@ -15329,24 +15329,24 @@
       </c>
       <c r="I208" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J208" t="n">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="K208" t="n">
-        <v>15000</v>
+        <v>17000</v>
       </c>
       <c r="L208" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="M208" t="n">
-        <v>15000</v>
+        <v>17500</v>
       </c>
       <c r="N208" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O208" t="inlineStr">
@@ -15355,10 +15355,10 @@
         </is>
       </c>
       <c r="P208" t="n">
-        <v>375</v>
+        <v>583</v>
       </c>
       <c r="Q208" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="R208" t="inlineStr">
         <is>
@@ -15381,7 +15381,7 @@
         </is>
       </c>
       <c r="D209" s="2" t="n">
-        <v>44369</v>
+        <v>44351</v>
       </c>
       <c r="E209" t="n">
         <v>13</v>
@@ -15401,24 +15401,24 @@
       </c>
       <c r="I209" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J209" t="n">
         <v>16</v>
       </c>
       <c r="K209" t="n">
-        <v>21000</v>
+        <v>15000</v>
       </c>
       <c r="L209" t="n">
-        <v>22000</v>
+        <v>15000</v>
       </c>
       <c r="M209" t="n">
-        <v>21500</v>
+        <v>15000</v>
       </c>
       <c r="N209" t="inlineStr">
         <is>
-          <t>$/caja 25 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O209" t="inlineStr">
@@ -15427,10 +15427,10 @@
         </is>
       </c>
       <c r="P209" t="n">
-        <v>21500</v>
+        <v>375</v>
       </c>
       <c r="Q209" t="n">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="R209" t="inlineStr">
         <is>
@@ -15473,24 +15473,24 @@
       </c>
       <c r="I210" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J210" t="n">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="K210" t="n">
-        <v>19000</v>
+        <v>21000</v>
       </c>
       <c r="L210" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="M210" t="n">
-        <v>19500</v>
+        <v>21500</v>
       </c>
       <c r="N210" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 25 unidades</t>
         </is>
       </c>
       <c r="O210" t="inlineStr">
@@ -15499,10 +15499,10 @@
         </is>
       </c>
       <c r="P210" t="n">
-        <v>650</v>
+        <v>21500</v>
       </c>
       <c r="Q210" t="n">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="R210" t="inlineStr">
         <is>
@@ -15545,24 +15545,24 @@
       </c>
       <c r="I211" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J211" t="n">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="K211" t="n">
-        <v>17000</v>
+        <v>19000</v>
       </c>
       <c r="L211" t="n">
-        <v>17000</v>
+        <v>20000</v>
       </c>
       <c r="M211" t="n">
-        <v>17000</v>
+        <v>19500</v>
       </c>
       <c r="N211" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O211" t="inlineStr">
@@ -15571,10 +15571,10 @@
         </is>
       </c>
       <c r="P211" t="n">
-        <v>425</v>
+        <v>650</v>
       </c>
       <c r="Q211" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="R211" t="inlineStr">
         <is>
@@ -15612,25 +15612,25 @@
       </c>
       <c r="H212" t="inlineStr">
         <is>
-          <t>Madrigal</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I212" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J212" t="n">
-        <v>43</v>
+        <v>25</v>
       </c>
       <c r="K212" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="L212" t="n">
         <v>17000</v>
       </c>
       <c r="M212" t="n">
-        <v>16488</v>
+        <v>17000</v>
       </c>
       <c r="N212" t="inlineStr">
         <is>
@@ -15639,11 +15639,11 @@
       </c>
       <c r="O212" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P212" t="n">
-        <v>412</v>
+        <v>425</v>
       </c>
       <c r="Q212" t="n">
         <v>40</v>
@@ -15689,24 +15689,24 @@
       </c>
       <c r="I213" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J213" t="n">
-        <v>25</v>
+        <v>43</v>
       </c>
       <c r="K213" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="L213" t="n">
-        <v>14000</v>
+        <v>17000</v>
       </c>
       <c r="M213" t="n">
-        <v>14000</v>
+        <v>16488</v>
       </c>
       <c r="N213" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O213" t="inlineStr">
@@ -15715,10 +15715,10 @@
         </is>
       </c>
       <c r="P213" t="n">
-        <v>280</v>
+        <v>412</v>
       </c>
       <c r="Q213" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="R213" t="inlineStr">
         <is>
@@ -15741,7 +15741,7 @@
         </is>
       </c>
       <c r="D214" s="2" t="n">
-        <v>44342</v>
+        <v>44369</v>
       </c>
       <c r="E214" t="n">
         <v>13</v>
@@ -15756,25 +15756,25 @@
       </c>
       <c r="H214" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Madrigal</t>
         </is>
       </c>
       <c r="I214" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J214" t="n">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="K214" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="L214" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="M214" t="n">
-        <v>15476</v>
+        <v>14000</v>
       </c>
       <c r="N214" t="inlineStr">
         <is>
@@ -15783,11 +15783,11 @@
       </c>
       <c r="O214" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P214" t="n">
-        <v>310</v>
+        <v>280</v>
       </c>
       <c r="Q214" t="n">
         <v>50</v>
@@ -15828,7 +15828,7 @@
       </c>
       <c r="H215" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I215" t="inlineStr">
@@ -15837,32 +15837,32 @@
         </is>
       </c>
       <c r="J215" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="K215" t="n">
-        <v>17000</v>
+        <v>15000</v>
       </c>
       <c r="L215" t="n">
-        <v>18000</v>
+        <v>16000</v>
       </c>
       <c r="M215" t="n">
-        <v>17500</v>
+        <v>15476</v>
       </c>
       <c r="N215" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O215" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P215" t="n">
-        <v>583</v>
+        <v>310</v>
       </c>
       <c r="Q215" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R215" t="inlineStr">
         <is>
@@ -15905,24 +15905,24 @@
       </c>
       <c r="I216" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J216" t="n">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="K216" t="n">
-        <v>15000</v>
+        <v>17000</v>
       </c>
       <c r="L216" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="M216" t="n">
-        <v>15000</v>
+        <v>17500</v>
       </c>
       <c r="N216" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O216" t="inlineStr">
@@ -15931,10 +15931,10 @@
         </is>
       </c>
       <c r="P216" t="n">
-        <v>375</v>
+        <v>583</v>
       </c>
       <c r="Q216" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="R216" t="inlineStr">
         <is>
@@ -15957,7 +15957,7 @@
         </is>
       </c>
       <c r="D217" s="2" t="n">
-        <v>44294</v>
+        <v>44342</v>
       </c>
       <c r="E217" t="n">
         <v>13</v>
@@ -15977,24 +15977,24 @@
       </c>
       <c r="I217" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J217" t="n">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="K217" t="n">
-        <v>17000</v>
+        <v>15000</v>
       </c>
       <c r="L217" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="M217" t="n">
-        <v>17481</v>
+        <v>15000</v>
       </c>
       <c r="N217" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O217" t="inlineStr">
@@ -16003,10 +16003,10 @@
         </is>
       </c>
       <c r="P217" t="n">
-        <v>583</v>
+        <v>375</v>
       </c>
       <c r="Q217" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="R217" t="inlineStr">
         <is>
@@ -16029,7 +16029,7 @@
         </is>
       </c>
       <c r="D218" s="2" t="n">
-        <v>44379</v>
+        <v>44294</v>
       </c>
       <c r="E218" t="n">
         <v>13</v>
@@ -16049,36 +16049,36 @@
       </c>
       <c r="I218" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J218" t="n">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="K218" t="n">
-        <v>20000</v>
+        <v>17000</v>
       </c>
       <c r="L218" t="n">
-        <v>21000</v>
+        <v>18000</v>
       </c>
       <c r="M218" t="n">
-        <v>20500</v>
+        <v>17481</v>
       </c>
       <c r="N218" t="inlineStr">
         <is>
-          <t>$/caja 25 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O218" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P218" t="n">
-        <v>20500</v>
+        <v>583</v>
       </c>
       <c r="Q218" t="n">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="R218" t="inlineStr">
         <is>
@@ -16121,24 +16121,24 @@
       </c>
       <c r="I219" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J219" t="n">
-        <v>52</v>
+        <v>16</v>
       </c>
       <c r="K219" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="L219" t="n">
-        <v>19000</v>
+        <v>21000</v>
       </c>
       <c r="M219" t="n">
-        <v>18500</v>
+        <v>20500</v>
       </c>
       <c r="N219" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 25 unidades</t>
         </is>
       </c>
       <c r="O219" t="inlineStr">
@@ -16147,10 +16147,10 @@
         </is>
       </c>
       <c r="P219" t="n">
-        <v>617</v>
+        <v>20500</v>
       </c>
       <c r="Q219" t="n">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="R219" t="inlineStr">
         <is>
@@ -16193,24 +16193,24 @@
       </c>
       <c r="I220" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J220" t="n">
-        <v>34</v>
+        <v>52</v>
       </c>
       <c r="K220" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="L220" t="n">
-        <v>16000</v>
+        <v>19000</v>
       </c>
       <c r="M220" t="n">
-        <v>16000</v>
+        <v>18500</v>
       </c>
       <c r="N220" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O220" t="inlineStr">
@@ -16219,10 +16219,10 @@
         </is>
       </c>
       <c r="P220" t="n">
-        <v>400</v>
+        <v>617</v>
       </c>
       <c r="Q220" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="R220" t="inlineStr">
         <is>
@@ -16260,29 +16260,29 @@
       </c>
       <c r="H221" t="inlineStr">
         <is>
-          <t>Madrigal</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I221" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J221" t="n">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="K221" t="n">
-        <v>22000</v>
+        <v>16000</v>
       </c>
       <c r="L221" t="n">
-        <v>23000</v>
+        <v>16000</v>
       </c>
       <c r="M221" t="n">
-        <v>22500</v>
+        <v>16000</v>
       </c>
       <c r="N221" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O221" t="inlineStr">
@@ -16291,10 +16291,10 @@
         </is>
       </c>
       <c r="P221" t="n">
-        <v>750</v>
+        <v>400</v>
       </c>
       <c r="Q221" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="R221" t="inlineStr">
         <is>
@@ -16337,24 +16337,24 @@
       </c>
       <c r="I222" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J222" t="n">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="K222" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="L222" t="n">
-        <v>21000</v>
+        <v>23000</v>
       </c>
       <c r="M222" t="n">
-        <v>20500</v>
+        <v>22500</v>
       </c>
       <c r="N222" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O222" t="inlineStr">
@@ -16363,10 +16363,10 @@
         </is>
       </c>
       <c r="P222" t="n">
-        <v>512</v>
+        <v>750</v>
       </c>
       <c r="Q222" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="R222" t="inlineStr">
         <is>
@@ -16409,24 +16409,24 @@
       </c>
       <c r="I223" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J223" t="n">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="K223" t="n">
-        <v>19000</v>
+        <v>20000</v>
       </c>
       <c r="L223" t="n">
-        <v>19000</v>
+        <v>21000</v>
       </c>
       <c r="M223" t="n">
-        <v>19000</v>
+        <v>20500</v>
       </c>
       <c r="N223" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O223" t="inlineStr">
@@ -16435,10 +16435,10 @@
         </is>
       </c>
       <c r="P223" t="n">
-        <v>380</v>
+        <v>512</v>
       </c>
       <c r="Q223" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="R223" t="inlineStr">
         <is>
@@ -16461,7 +16461,7 @@
         </is>
       </c>
       <c r="D224" s="2" t="n">
-        <v>44302</v>
+        <v>44379</v>
       </c>
       <c r="E224" t="n">
         <v>13</v>
@@ -16476,41 +16476,41 @@
       </c>
       <c r="H224" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Madrigal</t>
         </is>
       </c>
       <c r="I224" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J224" t="n">
+        <v>25</v>
+      </c>
+      <c r="K224" t="n">
+        <v>19000</v>
+      </c>
+      <c r="L224" t="n">
+        <v>19000</v>
+      </c>
+      <c r="M224" t="n">
+        <v>19000</v>
+      </c>
+      <c r="N224" t="inlineStr">
+        <is>
+          <t>$/caja 50 unidades</t>
+        </is>
+      </c>
+      <c r="O224" t="inlineStr">
+        <is>
+          <t>Provincia del Elquí</t>
+        </is>
+      </c>
+      <c r="P224" t="n">
+        <v>380</v>
+      </c>
+      <c r="Q224" t="n">
         <v>50</v>
-      </c>
-      <c r="K224" t="n">
-        <v>18000</v>
-      </c>
-      <c r="L224" t="n">
-        <v>18000</v>
-      </c>
-      <c r="M224" t="n">
-        <v>18000</v>
-      </c>
-      <c r="N224" t="inlineStr">
-        <is>
-          <t>$/caja 30 unidades</t>
-        </is>
-      </c>
-      <c r="O224" t="inlineStr">
-        <is>
-          <t>Provincia de Limarí</t>
-        </is>
-      </c>
-      <c r="P224" t="n">
-        <v>600</v>
-      </c>
-      <c r="Q224" t="n">
-        <v>30</v>
       </c>
       <c r="R224" t="inlineStr">
         <is>
@@ -16533,7 +16533,7 @@
         </is>
       </c>
       <c r="D225" s="2" t="n">
-        <v>44315</v>
+        <v>44302</v>
       </c>
       <c r="E225" t="n">
         <v>13</v>
@@ -16553,24 +16553,24 @@
       </c>
       <c r="I225" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J225" t="n">
-        <v>16</v>
+        <v>50</v>
       </c>
       <c r="K225" t="n">
-        <v>19000</v>
+        <v>18000</v>
       </c>
       <c r="L225" t="n">
-        <v>19000</v>
+        <v>18000</v>
       </c>
       <c r="M225" t="n">
-        <v>19000</v>
+        <v>18000</v>
       </c>
       <c r="N225" t="inlineStr">
         <is>
-          <t>$/caja 25 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O225" t="inlineStr">
@@ -16579,10 +16579,10 @@
         </is>
       </c>
       <c r="P225" t="n">
-        <v>19000</v>
+        <v>600</v>
       </c>
       <c r="Q225" t="n">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="R225" t="inlineStr">
         <is>
@@ -16625,24 +16625,24 @@
       </c>
       <c r="I226" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J226" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="K226" t="n">
-        <v>17000</v>
+        <v>19000</v>
       </c>
       <c r="L226" t="n">
-        <v>17000</v>
+        <v>19000</v>
       </c>
       <c r="M226" t="n">
-        <v>17000</v>
+        <v>19000</v>
       </c>
       <c r="N226" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 25 unidades</t>
         </is>
       </c>
       <c r="O226" t="inlineStr">
@@ -16651,10 +16651,10 @@
         </is>
       </c>
       <c r="P226" t="n">
-        <v>567</v>
+        <v>19000</v>
       </c>
       <c r="Q226" t="n">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="R226" t="inlineStr">
         <is>
@@ -16677,7 +16677,7 @@
         </is>
       </c>
       <c r="D227" s="2" t="n">
-        <v>44391</v>
+        <v>44315</v>
       </c>
       <c r="E227" t="n">
         <v>13</v>
@@ -16697,36 +16697,36 @@
       </c>
       <c r="I227" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J227" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="K227" t="n">
         <v>17000</v>
       </c>
       <c r="L227" t="n">
-        <v>18000</v>
+        <v>17000</v>
       </c>
       <c r="M227" t="n">
-        <v>17500</v>
+        <v>17000</v>
       </c>
       <c r="N227" t="inlineStr">
         <is>
-          <t>$/caja 25 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O227" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P227" t="n">
-        <v>17500</v>
+        <v>567</v>
       </c>
       <c r="Q227" t="n">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="R227" t="inlineStr">
         <is>
@@ -16769,24 +16769,24 @@
       </c>
       <c r="I228" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J228" t="n">
-        <v>43</v>
+        <v>16</v>
       </c>
       <c r="K228" t="n">
-        <v>15000</v>
+        <v>17000</v>
       </c>
       <c r="L228" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="M228" t="n">
-        <v>15488</v>
+        <v>17500</v>
       </c>
       <c r="N228" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 25 unidades</t>
         </is>
       </c>
       <c r="O228" t="inlineStr">
@@ -16795,10 +16795,10 @@
         </is>
       </c>
       <c r="P228" t="n">
-        <v>516</v>
+        <v>17500</v>
       </c>
       <c r="Q228" t="n">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="R228" t="inlineStr">
         <is>
@@ -16841,24 +16841,24 @@
       </c>
       <c r="I229" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J229" t="n">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="K229" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="L229" t="n">
-        <v>13000</v>
+        <v>16000</v>
       </c>
       <c r="M229" t="n">
-        <v>13000</v>
+        <v>15488</v>
       </c>
       <c r="N229" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O229" t="inlineStr">
@@ -16867,10 +16867,10 @@
         </is>
       </c>
       <c r="P229" t="n">
-        <v>325</v>
+        <v>516</v>
       </c>
       <c r="Q229" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="R229" t="inlineStr">
         <is>
@@ -16893,7 +16893,7 @@
         </is>
       </c>
       <c r="D230" s="2" t="n">
-        <v>44446</v>
+        <v>44391</v>
       </c>
       <c r="E230" t="n">
         <v>13</v>
@@ -16913,36 +16913,36 @@
       </c>
       <c r="I230" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J230" t="n">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="K230" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="L230" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="M230" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="N230" t="inlineStr">
         <is>
-          <t>$/caja 25 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O230" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P230" t="n">
-        <v>15000</v>
+        <v>325</v>
       </c>
       <c r="Q230" t="n">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="R230" t="inlineStr">
         <is>
@@ -16985,24 +16985,24 @@
       </c>
       <c r="I231" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J231" t="n">
-        <v>43</v>
+        <v>16</v>
       </c>
       <c r="K231" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="L231" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="M231" t="n">
-        <v>13512</v>
+        <v>15000</v>
       </c>
       <c r="N231" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 25 unidades</t>
         </is>
       </c>
       <c r="O231" t="inlineStr">
@@ -17011,10 +17011,10 @@
         </is>
       </c>
       <c r="P231" t="n">
-        <v>450</v>
+        <v>15000</v>
       </c>
       <c r="Q231" t="n">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="R231" t="inlineStr">
         <is>
@@ -17057,24 +17057,24 @@
       </c>
       <c r="I232" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J232" t="n">
-        <v>25</v>
+        <v>43</v>
       </c>
       <c r="K232" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="L232" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="M232" t="n">
-        <v>11480</v>
+        <v>13512</v>
       </c>
       <c r="N232" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O232" t="inlineStr">
@@ -17083,10 +17083,10 @@
         </is>
       </c>
       <c r="P232" t="n">
-        <v>287</v>
+        <v>450</v>
       </c>
       <c r="Q232" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="R232" t="inlineStr">
         <is>
@@ -17124,25 +17124,25 @@
       </c>
       <c r="H233" t="inlineStr">
         <is>
-          <t>Madrigal</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I233" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J233" t="n">
         <v>25</v>
       </c>
       <c r="K233" t="n">
+        <v>11000</v>
+      </c>
+      <c r="L233" t="n">
         <v>12000</v>
       </c>
-      <c r="L233" t="n">
-        <v>13000</v>
-      </c>
       <c r="M233" t="n">
-        <v>12480</v>
+        <v>11480</v>
       </c>
       <c r="N233" t="inlineStr">
         <is>
@@ -17155,7 +17155,7 @@
         </is>
       </c>
       <c r="P233" t="n">
-        <v>312</v>
+        <v>287</v>
       </c>
       <c r="Q233" t="n">
         <v>40</v>
@@ -17181,7 +17181,7 @@
         </is>
       </c>
       <c r="D234" s="2" t="n">
-        <v>44411</v>
+        <v>44446</v>
       </c>
       <c r="E234" t="n">
         <v>13</v>
@@ -17196,29 +17196,29 @@
       </c>
       <c r="H234" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Madrigal</t>
         </is>
       </c>
       <c r="I234" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J234" t="n">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="K234" t="n">
-        <v>16000</v>
+        <v>12000</v>
       </c>
       <c r="L234" t="n">
-        <v>16000</v>
+        <v>13000</v>
       </c>
       <c r="M234" t="n">
-        <v>16000</v>
+        <v>12480</v>
       </c>
       <c r="N234" t="inlineStr">
         <is>
-          <t>$/caja 25 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O234" t="inlineStr">
@@ -17227,10 +17227,10 @@
         </is>
       </c>
       <c r="P234" t="n">
-        <v>16000</v>
+        <v>312</v>
       </c>
       <c r="Q234" t="n">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="R234" t="inlineStr">
         <is>
@@ -17273,24 +17273,24 @@
       </c>
       <c r="I235" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J235" t="n">
-        <v>61</v>
+        <v>16</v>
       </c>
       <c r="K235" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="L235" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="M235" t="n">
-        <v>14492</v>
+        <v>16000</v>
       </c>
       <c r="N235" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 25 unidades</t>
         </is>
       </c>
       <c r="O235" t="inlineStr">
@@ -17299,10 +17299,10 @@
         </is>
       </c>
       <c r="P235" t="n">
-        <v>483</v>
+        <v>16000</v>
       </c>
       <c r="Q235" t="n">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="R235" t="inlineStr">
         <is>
@@ -17345,24 +17345,24 @@
       </c>
       <c r="I236" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J236" t="n">
-        <v>25</v>
+        <v>61</v>
       </c>
       <c r="K236" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="L236" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="M236" t="n">
-        <v>12000</v>
+        <v>14492</v>
       </c>
       <c r="N236" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O236" t="inlineStr">
@@ -17371,10 +17371,10 @@
         </is>
       </c>
       <c r="P236" t="n">
-        <v>300</v>
+        <v>483</v>
       </c>
       <c r="Q236" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="R236" t="inlineStr">
         <is>
@@ -17397,7 +17397,7 @@
         </is>
       </c>
       <c r="D237" s="2" t="n">
-        <v>44313</v>
+        <v>44411</v>
       </c>
       <c r="E237" t="n">
         <v>13</v>
@@ -17417,36 +17417,36 @@
       </c>
       <c r="I237" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J237" t="n">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="K237" t="n">
-        <v>20000</v>
+        <v>12000</v>
       </c>
       <c r="L237" t="n">
-        <v>20000</v>
+        <v>12000</v>
       </c>
       <c r="M237" t="n">
-        <v>20000</v>
+        <v>12000</v>
       </c>
       <c r="N237" t="inlineStr">
         <is>
-          <t>$/caja 25 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O237" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P237" t="n">
-        <v>20000</v>
+        <v>300</v>
       </c>
       <c r="Q237" t="n">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="R237" t="inlineStr">
         <is>
@@ -17489,24 +17489,24 @@
       </c>
       <c r="I238" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J238" t="n">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="K238" t="n">
-        <v>17000</v>
+        <v>20000</v>
       </c>
       <c r="L238" t="n">
-        <v>17000</v>
+        <v>20000</v>
       </c>
       <c r="M238" t="n">
-        <v>17000</v>
+        <v>20000</v>
       </c>
       <c r="N238" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 25 unidades</t>
         </is>
       </c>
       <c r="O238" t="inlineStr">
@@ -17515,10 +17515,10 @@
         </is>
       </c>
       <c r="P238" t="n">
-        <v>567</v>
+        <v>20000</v>
       </c>
       <c r="Q238" t="n">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="R238" t="inlineStr">
         <is>
@@ -17541,7 +17541,7 @@
         </is>
       </c>
       <c r="D239" s="2" t="n">
-        <v>44329</v>
+        <v>44313</v>
       </c>
       <c r="E239" t="n">
         <v>13</v>
@@ -17556,7 +17556,7 @@
       </c>
       <c r="H239" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I239" t="inlineStr">
@@ -17568,17 +17568,17 @@
         <v>25</v>
       </c>
       <c r="K239" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="L239" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="M239" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="N239" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O239" t="inlineStr">
@@ -17587,10 +17587,10 @@
         </is>
       </c>
       <c r="P239" t="n">
-        <v>320</v>
+        <v>567</v>
       </c>
       <c r="Q239" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R239" t="inlineStr">
         <is>
@@ -17628,29 +17628,29 @@
       </c>
       <c r="H240" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I240" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J240" t="n">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="K240" t="n">
-        <v>18000</v>
+        <v>16000</v>
       </c>
       <c r="L240" t="n">
-        <v>18000</v>
+        <v>16000</v>
       </c>
       <c r="M240" t="n">
-        <v>18000</v>
+        <v>16000</v>
       </c>
       <c r="N240" t="inlineStr">
         <is>
-          <t>$/caja 25 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O240" t="inlineStr">
@@ -17659,10 +17659,10 @@
         </is>
       </c>
       <c r="P240" t="n">
-        <v>18000</v>
+        <v>320</v>
       </c>
       <c r="Q240" t="n">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="R240" t="inlineStr">
         <is>
@@ -17705,24 +17705,24 @@
       </c>
       <c r="I241" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J241" t="n">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="K241" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="L241" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="M241" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="N241" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 25 unidades</t>
         </is>
       </c>
       <c r="O241" t="inlineStr">
@@ -17731,10 +17731,10 @@
         </is>
       </c>
       <c r="P241" t="n">
-        <v>533</v>
+        <v>18000</v>
       </c>
       <c r="Q241" t="n">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="R241" t="inlineStr">
         <is>
@@ -17757,7 +17757,7 @@
         </is>
       </c>
       <c r="D242" s="2" t="n">
-        <v>44449</v>
+        <v>44329</v>
       </c>
       <c r="E242" t="n">
         <v>13</v>
@@ -17777,36 +17777,36 @@
       </c>
       <c r="I242" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J242" t="n">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="K242" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="L242" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="M242" t="n">
-        <v>14500</v>
+        <v>16000</v>
       </c>
       <c r="N242" t="inlineStr">
         <is>
-          <t>$/caja 25 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O242" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P242" t="n">
-        <v>14500</v>
+        <v>533</v>
       </c>
       <c r="Q242" t="n">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="R242" t="inlineStr">
         <is>
@@ -17849,24 +17849,24 @@
       </c>
       <c r="I243" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J243" t="n">
-        <v>43</v>
+        <v>16</v>
       </c>
       <c r="K243" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="L243" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="M243" t="n">
-        <v>12488</v>
+        <v>14500</v>
       </c>
       <c r="N243" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 25 unidades</t>
         </is>
       </c>
       <c r="O243" t="inlineStr">
@@ -17875,10 +17875,10 @@
         </is>
       </c>
       <c r="P243" t="n">
-        <v>416</v>
+        <v>14500</v>
       </c>
       <c r="Q243" t="n">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="R243" t="inlineStr">
         <is>
@@ -17921,24 +17921,24 @@
       </c>
       <c r="I244" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J244" t="n">
-        <v>25</v>
+        <v>43</v>
       </c>
       <c r="K244" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="L244" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="M244" t="n">
-        <v>10480</v>
+        <v>12488</v>
       </c>
       <c r="N244" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O244" t="inlineStr">
@@ -17947,10 +17947,10 @@
         </is>
       </c>
       <c r="P244" t="n">
-        <v>262</v>
+        <v>416</v>
       </c>
       <c r="Q244" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="R244" t="inlineStr">
         <is>
@@ -17973,7 +17973,7 @@
         </is>
       </c>
       <c r="D245" s="2" t="n">
-        <v>44438</v>
+        <v>44449</v>
       </c>
       <c r="E245" t="n">
         <v>13</v>
@@ -17993,24 +17993,24 @@
       </c>
       <c r="I245" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J245" t="n">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="K245" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="L245" t="n">
-        <v>15000</v>
+        <v>11000</v>
       </c>
       <c r="M245" t="n">
-        <v>15000</v>
+        <v>10480</v>
       </c>
       <c r="N245" t="inlineStr">
         <is>
-          <t>$/caja 25 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O245" t="inlineStr">
@@ -18019,10 +18019,10 @@
         </is>
       </c>
       <c r="P245" t="n">
-        <v>15000</v>
+        <v>262</v>
       </c>
       <c r="Q245" t="n">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="R245" t="inlineStr">
         <is>
@@ -18065,24 +18065,24 @@
       </c>
       <c r="I246" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J246" t="n">
-        <v>34</v>
+        <v>12</v>
       </c>
       <c r="K246" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="L246" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="M246" t="n">
-        <v>13500</v>
+        <v>15000</v>
       </c>
       <c r="N246" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 25 unidades</t>
         </is>
       </c>
       <c r="O246" t="inlineStr">
@@ -18091,10 +18091,10 @@
         </is>
       </c>
       <c r="P246" t="n">
-        <v>450</v>
+        <v>15000</v>
       </c>
       <c r="Q246" t="n">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="R246" t="inlineStr">
         <is>
@@ -18137,24 +18137,24 @@
       </c>
       <c r="I247" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J247" t="n">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="K247" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="L247" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="M247" t="n">
-        <v>11480</v>
+        <v>13500</v>
       </c>
       <c r="N247" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O247" t="inlineStr">
@@ -18163,10 +18163,10 @@
         </is>
       </c>
       <c r="P247" t="n">
-        <v>287</v>
+        <v>450</v>
       </c>
       <c r="Q247" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="R247" t="inlineStr">
         <is>
@@ -18189,7 +18189,7 @@
         </is>
       </c>
       <c r="D248" s="2" t="n">
-        <v>44428</v>
+        <v>44438</v>
       </c>
       <c r="E248" t="n">
         <v>13</v>
@@ -18209,24 +18209,24 @@
       </c>
       <c r="I248" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J248" t="n">
         <v>25</v>
       </c>
       <c r="K248" t="n">
-        <v>16000</v>
+        <v>11000</v>
       </c>
       <c r="L248" t="n">
-        <v>17000</v>
+        <v>12000</v>
       </c>
       <c r="M248" t="n">
-        <v>16480</v>
+        <v>11480</v>
       </c>
       <c r="N248" t="inlineStr">
         <is>
-          <t>$/caja 25 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O248" t="inlineStr">
@@ -18235,10 +18235,10 @@
         </is>
       </c>
       <c r="P248" t="n">
-        <v>16480</v>
+        <v>287</v>
       </c>
       <c r="Q248" t="n">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="R248" t="inlineStr">
         <is>
@@ -18281,24 +18281,24 @@
       </c>
       <c r="I249" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J249" t="n">
-        <v>52</v>
+        <v>25</v>
       </c>
       <c r="K249" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="L249" t="n">
-        <v>15000</v>
+        <v>17000</v>
       </c>
       <c r="M249" t="n">
-        <v>14500</v>
+        <v>16480</v>
       </c>
       <c r="N249" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 25 unidades</t>
         </is>
       </c>
       <c r="O249" t="inlineStr">
@@ -18307,10 +18307,10 @@
         </is>
       </c>
       <c r="P249" t="n">
-        <v>483</v>
+        <v>16480</v>
       </c>
       <c r="Q249" t="n">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="R249" t="inlineStr">
         <is>
@@ -18353,24 +18353,24 @@
       </c>
       <c r="I250" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J250" t="n">
-        <v>34</v>
+        <v>52</v>
       </c>
       <c r="K250" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="L250" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="M250" t="n">
-        <v>12500</v>
+        <v>14500</v>
       </c>
       <c r="N250" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O250" t="inlineStr">
@@ -18379,10 +18379,10 @@
         </is>
       </c>
       <c r="P250" t="n">
-        <v>312</v>
+        <v>483</v>
       </c>
       <c r="Q250" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="R250" t="inlineStr">
         <is>
@@ -18420,25 +18420,25 @@
       </c>
       <c r="H251" t="inlineStr">
         <is>
-          <t>Madrigal</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I251" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J251" t="n">
         <v>34</v>
       </c>
       <c r="K251" t="n">
-        <v>16000</v>
+        <v>12000</v>
       </c>
       <c r="L251" t="n">
-        <v>17000</v>
+        <v>13000</v>
       </c>
       <c r="M251" t="n">
-        <v>16500</v>
+        <v>12500</v>
       </c>
       <c r="N251" t="inlineStr">
         <is>
@@ -18451,7 +18451,7 @@
         </is>
       </c>
       <c r="P251" t="n">
-        <v>412</v>
+        <v>312</v>
       </c>
       <c r="Q251" t="n">
         <v>40</v>
@@ -18497,24 +18497,24 @@
       </c>
       <c r="I252" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J252" t="n">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="K252" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="L252" t="n">
-        <v>15000</v>
+        <v>17000</v>
       </c>
       <c r="M252" t="n">
-        <v>14500</v>
+        <v>16500</v>
       </c>
       <c r="N252" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O252" t="inlineStr">
@@ -18523,10 +18523,10 @@
         </is>
       </c>
       <c r="P252" t="n">
-        <v>290</v>
+        <v>412</v>
       </c>
       <c r="Q252" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="R252" t="inlineStr">
         <is>
@@ -18549,7 +18549,7 @@
         </is>
       </c>
       <c r="D253" s="2" t="n">
-        <v>44442</v>
+        <v>44428</v>
       </c>
       <c r="E253" t="n">
         <v>13</v>
@@ -18564,29 +18564,29 @@
       </c>
       <c r="H253" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Madrigal</t>
         </is>
       </c>
       <c r="I253" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J253" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="K253" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="L253" t="n">
         <v>15000</v>
       </c>
       <c r="M253" t="n">
-        <v>15000</v>
+        <v>14500</v>
       </c>
       <c r="N253" t="inlineStr">
         <is>
-          <t>$/caja 25 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O253" t="inlineStr">
@@ -18595,10 +18595,10 @@
         </is>
       </c>
       <c r="P253" t="n">
-        <v>15000</v>
+        <v>290</v>
       </c>
       <c r="Q253" t="n">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="R253" t="inlineStr">
         <is>
@@ -18641,24 +18641,24 @@
       </c>
       <c r="I254" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J254" t="n">
-        <v>43</v>
+        <v>18</v>
       </c>
       <c r="K254" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="L254" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="M254" t="n">
-        <v>13488</v>
+        <v>15000</v>
       </c>
       <c r="N254" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 25 unidades</t>
         </is>
       </c>
       <c r="O254" t="inlineStr">
@@ -18667,10 +18667,10 @@
         </is>
       </c>
       <c r="P254" t="n">
-        <v>450</v>
+        <v>15000</v>
       </c>
       <c r="Q254" t="n">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="R254" t="inlineStr">
         <is>
@@ -18713,24 +18713,24 @@
       </c>
       <c r="I255" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J255" t="n">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="K255" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="L255" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="M255" t="n">
-        <v>11500</v>
+        <v>13488</v>
       </c>
       <c r="N255" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O255" t="inlineStr">
@@ -18739,10 +18739,10 @@
         </is>
       </c>
       <c r="P255" t="n">
-        <v>288</v>
+        <v>450</v>
       </c>
       <c r="Q255" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="R255" t="inlineStr">
         <is>
@@ -18765,7 +18765,7 @@
         </is>
       </c>
       <c r="D256" s="2" t="n">
-        <v>44435</v>
+        <v>44442</v>
       </c>
       <c r="E256" t="n">
         <v>13</v>
@@ -18785,36 +18785,36 @@
       </c>
       <c r="I256" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J256" t="n">
-        <v>70</v>
+        <v>32</v>
       </c>
       <c r="K256" t="n">
-        <v>16000</v>
+        <v>11000</v>
       </c>
       <c r="L256" t="n">
-        <v>17000</v>
+        <v>12000</v>
       </c>
       <c r="M256" t="n">
-        <v>16386</v>
+        <v>11500</v>
       </c>
       <c r="N256" t="inlineStr">
         <is>
-          <t>$/caja 25 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O256" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P256" t="n">
-        <v>16386</v>
+        <v>288</v>
       </c>
       <c r="Q256" t="n">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="R256" t="inlineStr">
         <is>
@@ -18857,24 +18857,24 @@
       </c>
       <c r="I257" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J257" t="n">
-        <v>224</v>
+        <v>70</v>
       </c>
       <c r="K257" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="L257" t="n">
-        <v>15000</v>
+        <v>17000</v>
       </c>
       <c r="M257" t="n">
-        <v>14500</v>
+        <v>16386</v>
       </c>
       <c r="N257" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 25 unidades</t>
         </is>
       </c>
       <c r="O257" t="inlineStr">
@@ -18883,10 +18883,10 @@
         </is>
       </c>
       <c r="P257" t="n">
-        <v>483</v>
+        <v>16386</v>
       </c>
       <c r="Q257" t="n">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="R257" t="inlineStr">
         <is>
@@ -18929,24 +18929,24 @@
       </c>
       <c r="I258" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J258" t="n">
-        <v>143</v>
+        <v>224</v>
       </c>
       <c r="K258" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="L258" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="M258" t="n">
-        <v>12497</v>
+        <v>14500</v>
       </c>
       <c r="N258" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O258" t="inlineStr">
@@ -18955,10 +18955,10 @@
         </is>
       </c>
       <c r="P258" t="n">
-        <v>312</v>
+        <v>483</v>
       </c>
       <c r="Q258" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="R258" t="inlineStr">
         <is>
@@ -18996,25 +18996,25 @@
       </c>
       <c r="H259" t="inlineStr">
         <is>
-          <t>Madrigal</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I259" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J259" t="n">
-        <v>34</v>
+        <v>143</v>
       </c>
       <c r="K259" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="L259" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="M259" t="n">
-        <v>14500</v>
+        <v>12497</v>
       </c>
       <c r="N259" t="inlineStr">
         <is>
@@ -19027,7 +19027,7 @@
         </is>
       </c>
       <c r="P259" t="n">
-        <v>362</v>
+        <v>312</v>
       </c>
       <c r="Q259" t="n">
         <v>40</v>
@@ -19073,24 +19073,24 @@
       </c>
       <c r="I260" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J260" t="n">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="K260" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="L260" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="M260" t="n">
-        <v>12500</v>
+        <v>14500</v>
       </c>
       <c r="N260" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O260" t="inlineStr">
@@ -19099,10 +19099,10 @@
         </is>
       </c>
       <c r="P260" t="n">
-        <v>250</v>
+        <v>362</v>
       </c>
       <c r="Q260" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="R260" t="inlineStr">
         <is>
@@ -19125,7 +19125,7 @@
         </is>
       </c>
       <c r="D261" s="2" t="n">
-        <v>44376</v>
+        <v>44435</v>
       </c>
       <c r="E261" t="n">
         <v>13</v>
@@ -19140,29 +19140,29 @@
       </c>
       <c r="H261" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Madrigal</t>
         </is>
       </c>
       <c r="I261" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J261" t="n">
         <v>16</v>
       </c>
       <c r="K261" t="n">
-        <v>21000</v>
+        <v>12000</v>
       </c>
       <c r="L261" t="n">
-        <v>22000</v>
+        <v>13000</v>
       </c>
       <c r="M261" t="n">
-        <v>21500</v>
+        <v>12500</v>
       </c>
       <c r="N261" t="inlineStr">
         <is>
-          <t>$/caja 25 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O261" t="inlineStr">
@@ -19171,10 +19171,10 @@
         </is>
       </c>
       <c r="P261" t="n">
-        <v>21500</v>
+        <v>250</v>
       </c>
       <c r="Q261" t="n">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="R261" t="inlineStr">
         <is>
@@ -19217,24 +19217,24 @@
       </c>
       <c r="I262" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J262" t="n">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="K262" t="n">
-        <v>19000</v>
+        <v>21000</v>
       </c>
       <c r="L262" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="M262" t="n">
-        <v>19500</v>
+        <v>21500</v>
       </c>
       <c r="N262" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 25 unidades</t>
         </is>
       </c>
       <c r="O262" t="inlineStr">
@@ -19243,10 +19243,10 @@
         </is>
       </c>
       <c r="P262" t="n">
-        <v>650</v>
+        <v>21500</v>
       </c>
       <c r="Q262" t="n">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="R262" t="inlineStr">
         <is>
@@ -19289,24 +19289,24 @@
       </c>
       <c r="I263" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J263" t="n">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="K263" t="n">
-        <v>16000</v>
+        <v>19000</v>
       </c>
       <c r="L263" t="n">
-        <v>17000</v>
+        <v>20000</v>
       </c>
       <c r="M263" t="n">
-        <v>16480</v>
+        <v>19500</v>
       </c>
       <c r="N263" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O263" t="inlineStr">
@@ -19315,10 +19315,10 @@
         </is>
       </c>
       <c r="P263" t="n">
-        <v>412</v>
+        <v>650</v>
       </c>
       <c r="Q263" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="R263" t="inlineStr">
         <is>
@@ -19341,7 +19341,7 @@
         </is>
       </c>
       <c r="D264" s="2" t="n">
-        <v>44412</v>
+        <v>44376</v>
       </c>
       <c r="E264" t="n">
         <v>13</v>
@@ -19361,24 +19361,24 @@
       </c>
       <c r="I264" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J264" t="n">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="K264" t="n">
         <v>16000</v>
       </c>
       <c r="L264" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="M264" t="n">
-        <v>16000</v>
+        <v>16480</v>
       </c>
       <c r="N264" t="inlineStr">
         <is>
-          <t>$/caja 25 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O264" t="inlineStr">
@@ -19387,10 +19387,10 @@
         </is>
       </c>
       <c r="P264" t="n">
-        <v>16000</v>
+        <v>412</v>
       </c>
       <c r="Q264" t="n">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="R264" t="inlineStr">
         <is>
@@ -19433,24 +19433,24 @@
       </c>
       <c r="I265" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J265" t="n">
-        <v>52</v>
+        <v>16</v>
       </c>
       <c r="K265" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="L265" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="M265" t="n">
-        <v>14500</v>
+        <v>16000</v>
       </c>
       <c r="N265" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 25 unidades</t>
         </is>
       </c>
       <c r="O265" t="inlineStr">
@@ -19459,10 +19459,10 @@
         </is>
       </c>
       <c r="P265" t="n">
-        <v>483</v>
+        <v>16000</v>
       </c>
       <c r="Q265" t="n">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="R265" t="inlineStr">
         <is>
@@ -19505,24 +19505,24 @@
       </c>
       <c r="I266" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J266" t="n">
-        <v>34</v>
+        <v>52</v>
       </c>
       <c r="K266" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="L266" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="M266" t="n">
-        <v>13000</v>
+        <v>14500</v>
       </c>
       <c r="N266" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O266" t="inlineStr">
@@ -19531,10 +19531,10 @@
         </is>
       </c>
       <c r="P266" t="n">
-        <v>325</v>
+        <v>483</v>
       </c>
       <c r="Q266" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="R266" t="inlineStr">
         <is>
@@ -19557,7 +19557,7 @@
         </is>
       </c>
       <c r="D267" s="2" t="n">
-        <v>44448</v>
+        <v>44412</v>
       </c>
       <c r="E267" t="n">
         <v>13</v>
@@ -19577,36 +19577,36 @@
       </c>
       <c r="I267" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J267" t="n">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="K267" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="L267" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="M267" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="N267" t="inlineStr">
         <is>
-          <t>$/caja 25 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O267" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P267" t="n">
-        <v>15000</v>
+        <v>325</v>
       </c>
       <c r="Q267" t="n">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="R267" t="inlineStr">
         <is>
@@ -19649,24 +19649,24 @@
       </c>
       <c r="I268" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J268" t="n">
-        <v>43</v>
+        <v>16</v>
       </c>
       <c r="K268" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="L268" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="M268" t="n">
-        <v>13512</v>
+        <v>15000</v>
       </c>
       <c r="N268" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 25 unidades</t>
         </is>
       </c>
       <c r="O268" t="inlineStr">
@@ -19675,10 +19675,10 @@
         </is>
       </c>
       <c r="P268" t="n">
-        <v>450</v>
+        <v>15000</v>
       </c>
       <c r="Q268" t="n">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="R268" t="inlineStr">
         <is>
@@ -19721,24 +19721,24 @@
       </c>
       <c r="I269" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J269" t="n">
-        <v>25</v>
+        <v>43</v>
       </c>
       <c r="K269" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="L269" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="M269" t="n">
-        <v>11480</v>
+        <v>13512</v>
       </c>
       <c r="N269" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O269" t="inlineStr">
@@ -19747,10 +19747,10 @@
         </is>
       </c>
       <c r="P269" t="n">
-        <v>287</v>
+        <v>450</v>
       </c>
       <c r="Q269" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="R269" t="inlineStr">
         <is>
@@ -19773,7 +19773,7 @@
         </is>
       </c>
       <c r="D270" s="2" t="n">
-        <v>44399</v>
+        <v>44448</v>
       </c>
       <c r="E270" t="n">
         <v>13</v>
@@ -19793,36 +19793,36 @@
       </c>
       <c r="I270" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J270" t="n">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="K270" t="n">
-        <v>18000</v>
+        <v>11000</v>
       </c>
       <c r="L270" t="n">
-        <v>19000</v>
+        <v>12000</v>
       </c>
       <c r="M270" t="n">
-        <v>18500</v>
+        <v>11480</v>
       </c>
       <c r="N270" t="inlineStr">
         <is>
-          <t>$/caja 25 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O270" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P270" t="n">
-        <v>18500</v>
+        <v>287</v>
       </c>
       <c r="Q270" t="n">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="R270" t="inlineStr">
         <is>
@@ -19865,24 +19865,24 @@
       </c>
       <c r="I271" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J271" t="n">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="K271" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="L271" t="n">
-        <v>17000</v>
+        <v>19000</v>
       </c>
       <c r="M271" t="n">
-        <v>16500</v>
+        <v>18500</v>
       </c>
       <c r="N271" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 25 unidades</t>
         </is>
       </c>
       <c r="O271" t="inlineStr">
@@ -19891,10 +19891,10 @@
         </is>
       </c>
       <c r="P271" t="n">
-        <v>550</v>
+        <v>18500</v>
       </c>
       <c r="Q271" t="n">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="R271" t="inlineStr">
         <is>
@@ -19937,24 +19937,24 @@
       </c>
       <c r="I272" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J272" t="n">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="K272" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="L272" t="n">
-        <v>15000</v>
+        <v>17000</v>
       </c>
       <c r="M272" t="n">
-        <v>14480</v>
+        <v>16500</v>
       </c>
       <c r="N272" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O272" t="inlineStr">
@@ -19963,10 +19963,10 @@
         </is>
       </c>
       <c r="P272" t="n">
-        <v>362</v>
+        <v>550</v>
       </c>
       <c r="Q272" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="R272" t="inlineStr">
         <is>
@@ -19989,7 +19989,7 @@
         </is>
       </c>
       <c r="D273" s="2" t="n">
-        <v>44400</v>
+        <v>44399</v>
       </c>
       <c r="E273" t="n">
         <v>13</v>
@@ -20009,36 +20009,36 @@
       </c>
       <c r="I273" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J273" t="n">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="K273" t="n">
-        <v>19000</v>
+        <v>14000</v>
       </c>
       <c r="L273" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="M273" t="n">
-        <v>19471</v>
+        <v>14480</v>
       </c>
       <c r="N273" t="inlineStr">
         <is>
-          <t>$/caja 25 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O273" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P273" t="n">
-        <v>19471</v>
+        <v>362</v>
       </c>
       <c r="Q273" t="n">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="R273" t="inlineStr">
         <is>
@@ -20081,24 +20081,24 @@
       </c>
       <c r="I274" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J274" t="n">
-        <v>43</v>
+        <v>17</v>
       </c>
       <c r="K274" t="n">
-        <v>17000</v>
+        <v>19000</v>
       </c>
       <c r="L274" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="M274" t="n">
-        <v>17512</v>
+        <v>19471</v>
       </c>
       <c r="N274" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 25 unidades</t>
         </is>
       </c>
       <c r="O274" t="inlineStr">
@@ -20107,10 +20107,10 @@
         </is>
       </c>
       <c r="P274" t="n">
-        <v>584</v>
+        <v>19471</v>
       </c>
       <c r="Q274" t="n">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="R274" t="inlineStr">
         <is>
@@ -20153,38 +20153,110 @@
       </c>
       <c r="I275" t="inlineStr">
         <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J275" t="n">
+        <v>43</v>
+      </c>
+      <c r="K275" t="n">
+        <v>17000</v>
+      </c>
+      <c r="L275" t="n">
+        <v>18000</v>
+      </c>
+      <c r="M275" t="n">
+        <v>17512</v>
+      </c>
+      <c r="N275" t="inlineStr">
+        <is>
+          <t>$/caja 30 unidades</t>
+        </is>
+      </c>
+      <c r="O275" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P275" t="n">
+        <v>584</v>
+      </c>
+      <c r="Q275" t="n">
+        <v>30</v>
+      </c>
+      <c r="R275" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" t="n">
+        <v>9</v>
+      </c>
+      <c r="B276" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C276" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D276" s="2" t="n">
+        <v>44400</v>
+      </c>
+      <c r="E276" t="n">
+        <v>13</v>
+      </c>
+      <c r="F276" t="n">
+        <v>100112013</v>
+      </c>
+      <c r="G276" t="inlineStr">
+        <is>
+          <t>Alcachofa</t>
+        </is>
+      </c>
+      <c r="H276" t="inlineStr">
+        <is>
+          <t>Española</t>
+        </is>
+      </c>
+      <c r="I276" t="inlineStr">
+        <is>
           <t>Segunda</t>
         </is>
       </c>
-      <c r="J275" t="n">
+      <c r="J276" t="n">
         <v>28</v>
       </c>
-      <c r="K275" t="n">
+      <c r="K276" t="n">
         <v>15000</v>
       </c>
-      <c r="L275" t="n">
+      <c r="L276" t="n">
         <v>16000</v>
       </c>
-      <c r="M275" t="n">
+      <c r="M276" t="n">
         <v>15500</v>
       </c>
-      <c r="N275" t="inlineStr">
+      <c r="N276" t="inlineStr">
         <is>
           <t>$/caja 40 unidades</t>
         </is>
       </c>
-      <c r="O275" t="inlineStr">
+      <c r="O276" t="inlineStr">
         <is>
           <t>Provincia de Limarí</t>
         </is>
       </c>
-      <c r="P275" t="n">
+      <c r="P276" t="n">
         <v>388</v>
       </c>
-      <c r="Q275" t="n">
+      <c r="Q276" t="n">
         <v>40</v>
       </c>
-      <c r="R275" t="inlineStr">
+      <c r="R276" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Central Mapocho de Santiago - Alcachofa.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Central Mapocho de Santiago - Alcachofa.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R281"/>
+  <dimension ref="A1:R284"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -13941,7 +13941,7 @@
         </is>
       </c>
       <c r="D189" s="2" t="n">
-        <v>44418</v>
+        <v>44455</v>
       </c>
       <c r="E189" t="n">
         <v>13</v>
@@ -13965,16 +13965,16 @@
         </is>
       </c>
       <c r="J189" t="n">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="K189" t="n">
-        <v>16000</v>
+        <v>11000</v>
       </c>
       <c r="L189" t="n">
-        <v>16000</v>
+        <v>12000</v>
       </c>
       <c r="M189" t="n">
-        <v>16000</v>
+        <v>11500</v>
       </c>
       <c r="N189" t="inlineStr">
         <is>
@@ -13983,11 +13983,11 @@
       </c>
       <c r="O189" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P189" t="n">
-        <v>16000</v>
+        <v>11500</v>
       </c>
       <c r="Q189" t="n">
         <v>1</v>
@@ -14013,7 +14013,7 @@
         </is>
       </c>
       <c r="D190" s="2" t="n">
-        <v>44418</v>
+        <v>44455</v>
       </c>
       <c r="E190" t="n">
         <v>13</v>
@@ -14037,16 +14037,16 @@
         </is>
       </c>
       <c r="J190" t="n">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="K190" t="n">
-        <v>14000</v>
+        <v>9000</v>
       </c>
       <c r="L190" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="M190" t="n">
-        <v>14500</v>
+        <v>9492</v>
       </c>
       <c r="N190" t="inlineStr">
         <is>
@@ -14055,11 +14055,11 @@
       </c>
       <c r="O190" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P190" t="n">
-        <v>483</v>
+        <v>316</v>
       </c>
       <c r="Q190" t="n">
         <v>30</v>
@@ -14085,7 +14085,7 @@
         </is>
       </c>
       <c r="D191" s="2" t="n">
-        <v>44418</v>
+        <v>44455</v>
       </c>
       <c r="E191" t="n">
         <v>13</v>
@@ -14112,13 +14112,13 @@
         <v>34</v>
       </c>
       <c r="K191" t="n">
-        <v>13000</v>
+        <v>7000</v>
       </c>
       <c r="L191" t="n">
-        <v>13000</v>
+        <v>8000</v>
       </c>
       <c r="M191" t="n">
-        <v>13000</v>
+        <v>7500</v>
       </c>
       <c r="N191" t="inlineStr">
         <is>
@@ -14127,11 +14127,11 @@
       </c>
       <c r="O191" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P191" t="n">
-        <v>325</v>
+        <v>188</v>
       </c>
       <c r="Q191" t="n">
         <v>40</v>
@@ -14157,7 +14157,7 @@
         </is>
       </c>
       <c r="D192" s="2" t="n">
-        <v>44414</v>
+        <v>44418</v>
       </c>
       <c r="E192" t="n">
         <v>13</v>
@@ -14184,13 +14184,13 @@
         <v>25</v>
       </c>
       <c r="K192" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="L192" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="M192" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="N192" t="inlineStr">
         <is>
@@ -14199,11 +14199,11 @@
       </c>
       <c r="O192" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P192" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="Q192" t="n">
         <v>1</v>
@@ -14229,7 +14229,7 @@
         </is>
       </c>
       <c r="D193" s="2" t="n">
-        <v>44414</v>
+        <v>44418</v>
       </c>
       <c r="E193" t="n">
         <v>13</v>
@@ -14253,16 +14253,16 @@
         </is>
       </c>
       <c r="J193" t="n">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="K193" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="L193" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="M193" t="n">
-        <v>13492</v>
+        <v>14500</v>
       </c>
       <c r="N193" t="inlineStr">
         <is>
@@ -14271,11 +14271,11 @@
       </c>
       <c r="O193" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P193" t="n">
-        <v>450</v>
+        <v>483</v>
       </c>
       <c r="Q193" t="n">
         <v>30</v>
@@ -14301,7 +14301,7 @@
         </is>
       </c>
       <c r="D194" s="2" t="n">
-        <v>44414</v>
+        <v>44418</v>
       </c>
       <c r="E194" t="n">
         <v>13</v>
@@ -14325,16 +14325,16 @@
         </is>
       </c>
       <c r="J194" t="n">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="K194" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="L194" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="M194" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="N194" t="inlineStr">
         <is>
@@ -14343,11 +14343,11 @@
       </c>
       <c r="O194" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P194" t="n">
-        <v>300</v>
+        <v>325</v>
       </c>
       <c r="Q194" t="n">
         <v>40</v>
@@ -14373,7 +14373,7 @@
         </is>
       </c>
       <c r="D195" s="2" t="n">
-        <v>44427</v>
+        <v>44414</v>
       </c>
       <c r="E195" t="n">
         <v>13</v>
@@ -14397,16 +14397,16 @@
         </is>
       </c>
       <c r="J195" t="n">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="K195" t="n">
-        <v>17000</v>
+        <v>15000</v>
       </c>
       <c r="L195" t="n">
-        <v>17000</v>
+        <v>15000</v>
       </c>
       <c r="M195" t="n">
-        <v>17000</v>
+        <v>15000</v>
       </c>
       <c r="N195" t="inlineStr">
         <is>
@@ -14419,7 +14419,7 @@
         </is>
       </c>
       <c r="P195" t="n">
-        <v>17000</v>
+        <v>15000</v>
       </c>
       <c r="Q195" t="n">
         <v>1</v>
@@ -14445,7 +14445,7 @@
         </is>
       </c>
       <c r="D196" s="2" t="n">
-        <v>44427</v>
+        <v>44414</v>
       </c>
       <c r="E196" t="n">
         <v>13</v>
@@ -14469,16 +14469,16 @@
         </is>
       </c>
       <c r="J196" t="n">
-        <v>43</v>
+        <v>61</v>
       </c>
       <c r="K196" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="L196" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="M196" t="n">
-        <v>15488</v>
+        <v>13492</v>
       </c>
       <c r="N196" t="inlineStr">
         <is>
@@ -14491,7 +14491,7 @@
         </is>
       </c>
       <c r="P196" t="n">
-        <v>516</v>
+        <v>450</v>
       </c>
       <c r="Q196" t="n">
         <v>30</v>
@@ -14517,7 +14517,7 @@
         </is>
       </c>
       <c r="D197" s="2" t="n">
-        <v>44427</v>
+        <v>44414</v>
       </c>
       <c r="E197" t="n">
         <v>13</v>
@@ -14541,16 +14541,16 @@
         </is>
       </c>
       <c r="J197" t="n">
-        <v>25</v>
+        <v>43</v>
       </c>
       <c r="K197" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="L197" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="M197" t="n">
-        <v>13480</v>
+        <v>12000</v>
       </c>
       <c r="N197" t="inlineStr">
         <is>
@@ -14563,7 +14563,7 @@
         </is>
       </c>
       <c r="P197" t="n">
-        <v>337</v>
+        <v>300</v>
       </c>
       <c r="Q197" t="n">
         <v>40</v>
@@ -14604,29 +14604,29 @@
       </c>
       <c r="H198" t="inlineStr">
         <is>
-          <t>Madrigal</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I198" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J198" t="n">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="K198" t="n">
-        <v>15000</v>
+        <v>17000</v>
       </c>
       <c r="L198" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="M198" t="n">
-        <v>15480</v>
+        <v>17000</v>
       </c>
       <c r="N198" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 25 unidades</t>
         </is>
       </c>
       <c r="O198" t="inlineStr">
@@ -14635,10 +14635,10 @@
         </is>
       </c>
       <c r="P198" t="n">
-        <v>387</v>
+        <v>17000</v>
       </c>
       <c r="Q198" t="n">
-        <v>40</v>
+        <v>1</v>
       </c>
       <c r="R198" t="inlineStr">
         <is>
@@ -14676,29 +14676,29 @@
       </c>
       <c r="H199" t="inlineStr">
         <is>
-          <t>Madrigal</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I199" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J199" t="n">
-        <v>16</v>
+        <v>43</v>
       </c>
       <c r="K199" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="L199" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="M199" t="n">
-        <v>13500</v>
+        <v>15488</v>
       </c>
       <c r="N199" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O199" t="inlineStr">
@@ -14707,10 +14707,10 @@
         </is>
       </c>
       <c r="P199" t="n">
-        <v>270</v>
+        <v>516</v>
       </c>
       <c r="Q199" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R199" t="inlineStr">
         <is>
@@ -14733,7 +14733,7 @@
         </is>
       </c>
       <c r="D200" s="2" t="n">
-        <v>44447</v>
+        <v>44427</v>
       </c>
       <c r="E200" t="n">
         <v>13</v>
@@ -14753,24 +14753,24 @@
       </c>
       <c r="I200" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J200" t="n">
         <v>25</v>
       </c>
       <c r="K200" t="n">
+        <v>13000</v>
+      </c>
+      <c r="L200" t="n">
         <v>14000</v>
       </c>
-      <c r="L200" t="n">
-        <v>15000</v>
-      </c>
       <c r="M200" t="n">
-        <v>14520</v>
+        <v>13480</v>
       </c>
       <c r="N200" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O200" t="inlineStr">
@@ -14779,10 +14779,10 @@
         </is>
       </c>
       <c r="P200" t="n">
-        <v>484</v>
+        <v>337</v>
       </c>
       <c r="Q200" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="R200" t="inlineStr">
         <is>
@@ -14805,7 +14805,7 @@
         </is>
       </c>
       <c r="D201" s="2" t="n">
-        <v>44447</v>
+        <v>44427</v>
       </c>
       <c r="E201" t="n">
         <v>13</v>
@@ -14820,25 +14820,25 @@
       </c>
       <c r="H201" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Madrigal</t>
         </is>
       </c>
       <c r="I201" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J201" t="n">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="K201" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="L201" t="n">
-        <v>13000</v>
+        <v>16000</v>
       </c>
       <c r="M201" t="n">
-        <v>13000</v>
+        <v>15480</v>
       </c>
       <c r="N201" t="inlineStr">
         <is>
@@ -14851,7 +14851,7 @@
         </is>
       </c>
       <c r="P201" t="n">
-        <v>325</v>
+        <v>387</v>
       </c>
       <c r="Q201" t="n">
         <v>40</v>
@@ -14877,7 +14877,7 @@
         </is>
       </c>
       <c r="D202" s="2" t="n">
-        <v>44390</v>
+        <v>44427</v>
       </c>
       <c r="E202" t="n">
         <v>13</v>
@@ -14892,29 +14892,29 @@
       </c>
       <c r="H202" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Madrigal</t>
         </is>
       </c>
       <c r="I202" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J202" t="n">
         <v>16</v>
       </c>
       <c r="K202" t="n">
-        <v>19000</v>
+        <v>13000</v>
       </c>
       <c r="L202" t="n">
-        <v>20000</v>
+        <v>14000</v>
       </c>
       <c r="M202" t="n">
-        <v>19500</v>
+        <v>13500</v>
       </c>
       <c r="N202" t="inlineStr">
         <is>
-          <t>$/caja 25 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O202" t="inlineStr">
@@ -14923,10 +14923,10 @@
         </is>
       </c>
       <c r="P202" t="n">
-        <v>19500</v>
+        <v>270</v>
       </c>
       <c r="Q202" t="n">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="R202" t="inlineStr">
         <is>
@@ -14949,7 +14949,7 @@
         </is>
       </c>
       <c r="D203" s="2" t="n">
-        <v>44390</v>
+        <v>44447</v>
       </c>
       <c r="E203" t="n">
         <v>13</v>
@@ -14973,16 +14973,16 @@
         </is>
       </c>
       <c r="J203" t="n">
-        <v>43</v>
+        <v>25</v>
       </c>
       <c r="K203" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="L203" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="M203" t="n">
-        <v>17023</v>
+        <v>14520</v>
       </c>
       <c r="N203" t="inlineStr">
         <is>
@@ -14995,7 +14995,7 @@
         </is>
       </c>
       <c r="P203" t="n">
-        <v>567</v>
+        <v>484</v>
       </c>
       <c r="Q203" t="n">
         <v>30</v>
@@ -15021,7 +15021,7 @@
         </is>
       </c>
       <c r="D204" s="2" t="n">
-        <v>44390</v>
+        <v>44447</v>
       </c>
       <c r="E204" t="n">
         <v>13</v>
@@ -15045,16 +15045,16 @@
         </is>
       </c>
       <c r="J204" t="n">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="K204" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="L204" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="M204" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="N204" t="inlineStr">
         <is>
@@ -15067,7 +15067,7 @@
         </is>
       </c>
       <c r="P204" t="n">
-        <v>350</v>
+        <v>325</v>
       </c>
       <c r="Q204" t="n">
         <v>40</v>
@@ -15093,7 +15093,7 @@
         </is>
       </c>
       <c r="D205" s="2" t="n">
-        <v>44386</v>
+        <v>44390</v>
       </c>
       <c r="E205" t="n">
         <v>13</v>
@@ -15120,13 +15120,13 @@
         <v>16</v>
       </c>
       <c r="K205" t="n">
-        <v>20000</v>
+        <v>19000</v>
       </c>
       <c r="L205" t="n">
         <v>20000</v>
       </c>
       <c r="M205" t="n">
-        <v>20000</v>
+        <v>19500</v>
       </c>
       <c r="N205" t="inlineStr">
         <is>
@@ -15135,11 +15135,11 @@
       </c>
       <c r="O205" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P205" t="n">
-        <v>20000</v>
+        <v>19500</v>
       </c>
       <c r="Q205" t="n">
         <v>1</v>
@@ -15165,7 +15165,7 @@
         </is>
       </c>
       <c r="D206" s="2" t="n">
-        <v>44386</v>
+        <v>44390</v>
       </c>
       <c r="E206" t="n">
         <v>13</v>
@@ -15189,16 +15189,16 @@
         </is>
       </c>
       <c r="J206" t="n">
-        <v>61</v>
+        <v>43</v>
       </c>
       <c r="K206" t="n">
-        <v>17000</v>
+        <v>16000</v>
       </c>
       <c r="L206" t="n">
         <v>18000</v>
       </c>
       <c r="M206" t="n">
-        <v>17492</v>
+        <v>17023</v>
       </c>
       <c r="N206" t="inlineStr">
         <is>
@@ -15207,11 +15207,11 @@
       </c>
       <c r="O206" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P206" t="n">
-        <v>583</v>
+        <v>567</v>
       </c>
       <c r="Q206" t="n">
         <v>30</v>
@@ -15237,7 +15237,7 @@
         </is>
       </c>
       <c r="D207" s="2" t="n">
-        <v>44386</v>
+        <v>44390</v>
       </c>
       <c r="E207" t="n">
         <v>13</v>
@@ -15261,16 +15261,16 @@
         </is>
       </c>
       <c r="J207" t="n">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="K207" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="L207" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="M207" t="n">
-        <v>15500</v>
+        <v>14000</v>
       </c>
       <c r="N207" t="inlineStr">
         <is>
@@ -15279,11 +15279,11 @@
       </c>
       <c r="O207" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P207" t="n">
-        <v>388</v>
+        <v>350</v>
       </c>
       <c r="Q207" t="n">
         <v>40</v>
@@ -15324,7 +15324,7 @@
       </c>
       <c r="H208" t="inlineStr">
         <is>
-          <t>Madrigal</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I208" t="inlineStr">
@@ -15336,17 +15336,17 @@
         <v>16</v>
       </c>
       <c r="K208" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="L208" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="M208" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="N208" t="inlineStr">
         <is>
-          <t>$/caja 35 unidades</t>
+          <t>$/caja 25 unidades</t>
         </is>
       </c>
       <c r="O208" t="inlineStr">
@@ -15355,10 +15355,10 @@
         </is>
       </c>
       <c r="P208" t="n">
-        <v>629</v>
+        <v>20000</v>
       </c>
       <c r="Q208" t="n">
-        <v>35</v>
+        <v>1</v>
       </c>
       <c r="R208" t="inlineStr">
         <is>
@@ -15396,7 +15396,7 @@
       </c>
       <c r="H209" t="inlineStr">
         <is>
-          <t>Madrigal</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I209" t="inlineStr">
@@ -15405,20 +15405,20 @@
         </is>
       </c>
       <c r="J209" t="n">
-        <v>43</v>
+        <v>61</v>
       </c>
       <c r="K209" t="n">
-        <v>20000</v>
+        <v>17000</v>
       </c>
       <c r="L209" t="n">
-        <v>21000</v>
+        <v>18000</v>
       </c>
       <c r="M209" t="n">
-        <v>20488</v>
+        <v>17492</v>
       </c>
       <c r="N209" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O209" t="inlineStr">
@@ -15427,10 +15427,10 @@
         </is>
       </c>
       <c r="P209" t="n">
-        <v>512</v>
+        <v>583</v>
       </c>
       <c r="Q209" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="R209" t="inlineStr">
         <is>
@@ -15468,7 +15468,7 @@
       </c>
       <c r="H210" t="inlineStr">
         <is>
-          <t>Madrigal</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I210" t="inlineStr">
@@ -15477,20 +15477,20 @@
         </is>
       </c>
       <c r="J210" t="n">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="K210" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="L210" t="n">
-        <v>19000</v>
+        <v>16000</v>
       </c>
       <c r="M210" t="n">
-        <v>18480</v>
+        <v>15500</v>
       </c>
       <c r="N210" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O210" t="inlineStr">
@@ -15499,10 +15499,10 @@
         </is>
       </c>
       <c r="P210" t="n">
-        <v>370</v>
+        <v>388</v>
       </c>
       <c r="Q210" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="R210" t="inlineStr">
         <is>
@@ -15525,7 +15525,7 @@
         </is>
       </c>
       <c r="D211" s="2" t="n">
-        <v>44308</v>
+        <v>44386</v>
       </c>
       <c r="E211" t="n">
         <v>13</v>
@@ -15540,7 +15540,7 @@
       </c>
       <c r="H211" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Madrigal</t>
         </is>
       </c>
       <c r="I211" t="inlineStr">
@@ -15552,29 +15552,29 @@
         <v>16</v>
       </c>
       <c r="K211" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="L211" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="M211" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="N211" t="inlineStr">
         <is>
-          <t>$/caja 25 unidades</t>
+          <t>$/caja 35 unidades</t>
         </is>
       </c>
       <c r="O211" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P211" t="n">
-        <v>20000</v>
+        <v>629</v>
       </c>
       <c r="Q211" t="n">
-        <v>1</v>
+        <v>35</v>
       </c>
       <c r="R211" t="inlineStr">
         <is>
@@ -15597,7 +15597,7 @@
         </is>
       </c>
       <c r="D212" s="2" t="n">
-        <v>44308</v>
+        <v>44386</v>
       </c>
       <c r="E212" t="n">
         <v>13</v>
@@ -15612,7 +15612,7 @@
       </c>
       <c r="H212" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Madrigal</t>
         </is>
       </c>
       <c r="I212" t="inlineStr">
@@ -15621,32 +15621,32 @@
         </is>
       </c>
       <c r="J212" t="n">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="K212" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="L212" t="n">
-        <v>18000</v>
+        <v>21000</v>
       </c>
       <c r="M212" t="n">
-        <v>18000</v>
+        <v>20488</v>
       </c>
       <c r="N212" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O212" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P212" t="n">
-        <v>600</v>
+        <v>512</v>
       </c>
       <c r="Q212" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="R212" t="inlineStr">
         <is>
@@ -15669,7 +15669,7 @@
         </is>
       </c>
       <c r="D213" s="2" t="n">
-        <v>44301</v>
+        <v>44386</v>
       </c>
       <c r="E213" t="n">
         <v>13</v>
@@ -15684,41 +15684,41 @@
       </c>
       <c r="H213" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Madrigal</t>
         </is>
       </c>
       <c r="I213" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J213" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="K213" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="L213" t="n">
-        <v>18000</v>
+        <v>19000</v>
       </c>
       <c r="M213" t="n">
-        <v>17500</v>
+        <v>18480</v>
       </c>
       <c r="N213" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O213" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P213" t="n">
-        <v>583</v>
+        <v>370</v>
       </c>
       <c r="Q213" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R213" t="inlineStr">
         <is>
@@ -15741,7 +15741,7 @@
         </is>
       </c>
       <c r="D214" s="2" t="n">
-        <v>44166</v>
+        <v>44308</v>
       </c>
       <c r="E214" t="n">
         <v>13</v>
@@ -15761,36 +15761,36 @@
       </c>
       <c r="I214" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J214" t="n">
-        <v>250</v>
+        <v>16</v>
       </c>
       <c r="K214" t="n">
-        <v>11000</v>
+        <v>20000</v>
       </c>
       <c r="L214" t="n">
-        <v>11000</v>
+        <v>20000</v>
       </c>
       <c r="M214" t="n">
-        <v>11000</v>
+        <v>20000</v>
       </c>
       <c r="N214" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 25 unidades</t>
         </is>
       </c>
       <c r="O214" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P214" t="n">
-        <v>367</v>
+        <v>20000</v>
       </c>
       <c r="Q214" t="n">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="R214" t="inlineStr">
         <is>
@@ -15813,7 +15813,7 @@
         </is>
       </c>
       <c r="D215" s="2" t="n">
-        <v>44168</v>
+        <v>44308</v>
       </c>
       <c r="E215" t="n">
         <v>13</v>
@@ -15837,16 +15837,16 @@
         </is>
       </c>
       <c r="J215" t="n">
-        <v>230</v>
+        <v>30</v>
       </c>
       <c r="K215" t="n">
-        <v>11000</v>
+        <v>18000</v>
       </c>
       <c r="L215" t="n">
-        <v>11000</v>
+        <v>18000</v>
       </c>
       <c r="M215" t="n">
-        <v>11000</v>
+        <v>18000</v>
       </c>
       <c r="N215" t="inlineStr">
         <is>
@@ -15855,11 +15855,11 @@
       </c>
       <c r="O215" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P215" t="n">
-        <v>367</v>
+        <v>600</v>
       </c>
       <c r="Q215" t="n">
         <v>30</v>
@@ -15885,7 +15885,7 @@
         </is>
       </c>
       <c r="D216" s="2" t="n">
-        <v>44369</v>
+        <v>44301</v>
       </c>
       <c r="E216" t="n">
         <v>13</v>
@@ -15905,36 +15905,36 @@
       </c>
       <c r="I216" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J216" t="n">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="K216" t="n">
-        <v>21000</v>
+        <v>17000</v>
       </c>
       <c r="L216" t="n">
-        <v>22000</v>
+        <v>18000</v>
       </c>
       <c r="M216" t="n">
-        <v>21500</v>
+        <v>17500</v>
       </c>
       <c r="N216" t="inlineStr">
         <is>
-          <t>$/caja 25 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O216" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P216" t="n">
-        <v>21500</v>
+        <v>583</v>
       </c>
       <c r="Q216" t="n">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="R216" t="inlineStr">
         <is>
@@ -15957,7 +15957,7 @@
         </is>
       </c>
       <c r="D217" s="2" t="n">
-        <v>44369</v>
+        <v>44166</v>
       </c>
       <c r="E217" t="n">
         <v>13</v>
@@ -15981,16 +15981,16 @@
         </is>
       </c>
       <c r="J217" t="n">
-        <v>34</v>
+        <v>250</v>
       </c>
       <c r="K217" t="n">
-        <v>19000</v>
+        <v>11000</v>
       </c>
       <c r="L217" t="n">
-        <v>20000</v>
+        <v>11000</v>
       </c>
       <c r="M217" t="n">
-        <v>19500</v>
+        <v>11000</v>
       </c>
       <c r="N217" t="inlineStr">
         <is>
@@ -15999,11 +15999,11 @@
       </c>
       <c r="O217" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P217" t="n">
-        <v>650</v>
+        <v>367</v>
       </c>
       <c r="Q217" t="n">
         <v>30</v>
@@ -16029,7 +16029,7 @@
         </is>
       </c>
       <c r="D218" s="2" t="n">
-        <v>44369</v>
+        <v>44168</v>
       </c>
       <c r="E218" t="n">
         <v>13</v>
@@ -16049,36 +16049,36 @@
       </c>
       <c r="I218" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J218" t="n">
-        <v>25</v>
+        <v>230</v>
       </c>
       <c r="K218" t="n">
-        <v>17000</v>
+        <v>11000</v>
       </c>
       <c r="L218" t="n">
-        <v>17000</v>
+        <v>11000</v>
       </c>
       <c r="M218" t="n">
-        <v>17000</v>
+        <v>11000</v>
       </c>
       <c r="N218" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O218" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P218" t="n">
-        <v>425</v>
+        <v>367</v>
       </c>
       <c r="Q218" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="R218" t="inlineStr">
         <is>
@@ -16116,41 +16116,41 @@
       </c>
       <c r="H219" t="inlineStr">
         <is>
-          <t>Madrigal</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I219" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J219" t="n">
-        <v>43</v>
+        <v>16</v>
       </c>
       <c r="K219" t="n">
-        <v>16000</v>
+        <v>21000</v>
       </c>
       <c r="L219" t="n">
-        <v>17000</v>
+        <v>22000</v>
       </c>
       <c r="M219" t="n">
-        <v>16488</v>
+        <v>21500</v>
       </c>
       <c r="N219" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 25 unidades</t>
         </is>
       </c>
       <c r="O219" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P219" t="n">
-        <v>412</v>
+        <v>21500</v>
       </c>
       <c r="Q219" t="n">
-        <v>40</v>
+        <v>1</v>
       </c>
       <c r="R219" t="inlineStr">
         <is>
@@ -16188,41 +16188,41 @@
       </c>
       <c r="H220" t="inlineStr">
         <is>
-          <t>Madrigal</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I220" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J220" t="n">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="K220" t="n">
-        <v>14000</v>
+        <v>19000</v>
       </c>
       <c r="L220" t="n">
-        <v>14000</v>
+        <v>20000</v>
       </c>
       <c r="M220" t="n">
-        <v>14000</v>
+        <v>19500</v>
       </c>
       <c r="N220" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O220" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P220" t="n">
-        <v>280</v>
+        <v>650</v>
       </c>
       <c r="Q220" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R220" t="inlineStr">
         <is>
@@ -16245,7 +16245,7 @@
         </is>
       </c>
       <c r="D221" s="2" t="n">
-        <v>44433</v>
+        <v>44369</v>
       </c>
       <c r="E221" t="n">
         <v>13</v>
@@ -16265,24 +16265,24 @@
       </c>
       <c r="I221" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J221" t="n">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="K221" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="L221" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="M221" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="N221" t="inlineStr">
         <is>
-          <t>$/caja 25 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O221" t="inlineStr">
@@ -16291,10 +16291,10 @@
         </is>
       </c>
       <c r="P221" t="n">
-        <v>16000</v>
+        <v>425</v>
       </c>
       <c r="Q221" t="n">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="R221" t="inlineStr">
         <is>
@@ -16317,7 +16317,7 @@
         </is>
       </c>
       <c r="D222" s="2" t="n">
-        <v>44433</v>
+        <v>44369</v>
       </c>
       <c r="E222" t="n">
         <v>13</v>
@@ -16332,7 +16332,7 @@
       </c>
       <c r="H222" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Madrigal</t>
         </is>
       </c>
       <c r="I222" t="inlineStr">
@@ -16341,32 +16341,32 @@
         </is>
       </c>
       <c r="J222" t="n">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="K222" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="L222" t="n">
-        <v>15000</v>
+        <v>17000</v>
       </c>
       <c r="M222" t="n">
-        <v>14500</v>
+        <v>16488</v>
       </c>
       <c r="N222" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O222" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P222" t="n">
-        <v>483</v>
+        <v>412</v>
       </c>
       <c r="Q222" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="R222" t="inlineStr">
         <is>
@@ -16389,7 +16389,7 @@
         </is>
       </c>
       <c r="D223" s="2" t="n">
-        <v>44433</v>
+        <v>44369</v>
       </c>
       <c r="E223" t="n">
         <v>13</v>
@@ -16404,7 +16404,7 @@
       </c>
       <c r="H223" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Madrigal</t>
         </is>
       </c>
       <c r="I223" t="inlineStr">
@@ -16413,32 +16413,32 @@
         </is>
       </c>
       <c r="J223" t="n">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="K223" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="L223" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="M223" t="n">
-        <v>12500</v>
+        <v>14000</v>
       </c>
       <c r="N223" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O223" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P223" t="n">
-        <v>312</v>
+        <v>280</v>
       </c>
       <c r="Q223" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="R223" t="inlineStr">
         <is>
@@ -16461,7 +16461,7 @@
         </is>
       </c>
       <c r="D224" s="2" t="n">
-        <v>44371</v>
+        <v>44433</v>
       </c>
       <c r="E224" t="n">
         <v>13</v>
@@ -16485,16 +16485,16 @@
         </is>
       </c>
       <c r="J224" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="K224" t="n">
-        <v>20000</v>
+        <v>16000</v>
       </c>
       <c r="L224" t="n">
-        <v>21000</v>
+        <v>16000</v>
       </c>
       <c r="M224" t="n">
-        <v>20500</v>
+        <v>16000</v>
       </c>
       <c r="N224" t="inlineStr">
         <is>
@@ -16503,11 +16503,11 @@
       </c>
       <c r="O224" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P224" t="n">
-        <v>20500</v>
+        <v>16000</v>
       </c>
       <c r="Q224" t="n">
         <v>1</v>
@@ -16533,7 +16533,7 @@
         </is>
       </c>
       <c r="D225" s="2" t="n">
-        <v>44371</v>
+        <v>44433</v>
       </c>
       <c r="E225" t="n">
         <v>13</v>
@@ -16557,16 +16557,16 @@
         </is>
       </c>
       <c r="J225" t="n">
-        <v>36</v>
+        <v>52</v>
       </c>
       <c r="K225" t="n">
-        <v>17000</v>
+        <v>14000</v>
       </c>
       <c r="L225" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="M225" t="n">
-        <v>17500</v>
+        <v>14500</v>
       </c>
       <c r="N225" t="inlineStr">
         <is>
@@ -16575,11 +16575,11 @@
       </c>
       <c r="O225" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P225" t="n">
-        <v>583</v>
+        <v>483</v>
       </c>
       <c r="Q225" t="n">
         <v>30</v>
@@ -16605,7 +16605,7 @@
         </is>
       </c>
       <c r="D226" s="2" t="n">
-        <v>44371</v>
+        <v>44433</v>
       </c>
       <c r="E226" t="n">
         <v>13</v>
@@ -16629,16 +16629,16 @@
         </is>
       </c>
       <c r="J226" t="n">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="K226" t="n">
-        <v>16000</v>
+        <v>12000</v>
       </c>
       <c r="L226" t="n">
-        <v>16000</v>
+        <v>13000</v>
       </c>
       <c r="M226" t="n">
-        <v>16000</v>
+        <v>12500</v>
       </c>
       <c r="N226" t="inlineStr">
         <is>
@@ -16647,11 +16647,11 @@
       </c>
       <c r="O226" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P226" t="n">
-        <v>400</v>
+        <v>312</v>
       </c>
       <c r="Q226" t="n">
         <v>40</v>
@@ -16677,7 +16677,7 @@
         </is>
       </c>
       <c r="D227" s="2" t="n">
-        <v>44316</v>
+        <v>44371</v>
       </c>
       <c r="E227" t="n">
         <v>13</v>
@@ -16692,29 +16692,29 @@
       </c>
       <c r="H227" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I227" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J227" t="n">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="K227" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="L227" t="n">
-        <v>18000</v>
+        <v>21000</v>
       </c>
       <c r="M227" t="n">
-        <v>18000</v>
+        <v>20500</v>
       </c>
       <c r="N227" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 25 unidades</t>
         </is>
       </c>
       <c r="O227" t="inlineStr">
@@ -16723,10 +16723,10 @@
         </is>
       </c>
       <c r="P227" t="n">
-        <v>360</v>
+        <v>20500</v>
       </c>
       <c r="Q227" t="n">
-        <v>50</v>
+        <v>1</v>
       </c>
       <c r="R227" t="inlineStr">
         <is>
@@ -16749,7 +16749,7 @@
         </is>
       </c>
       <c r="D228" s="2" t="n">
-        <v>44316</v>
+        <v>44371</v>
       </c>
       <c r="E228" t="n">
         <v>13</v>
@@ -16769,24 +16769,24 @@
       </c>
       <c r="I228" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J228" t="n">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="K228" t="n">
-        <v>18000</v>
+        <v>17000</v>
       </c>
       <c r="L228" t="n">
         <v>18000</v>
       </c>
       <c r="M228" t="n">
-        <v>18000</v>
+        <v>17500</v>
       </c>
       <c r="N228" t="inlineStr">
         <is>
-          <t>$/caja 25 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O228" t="inlineStr">
@@ -16795,10 +16795,10 @@
         </is>
       </c>
       <c r="P228" t="n">
-        <v>18000</v>
+        <v>583</v>
       </c>
       <c r="Q228" t="n">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="R228" t="inlineStr">
         <is>
@@ -16821,7 +16821,7 @@
         </is>
       </c>
       <c r="D229" s="2" t="n">
-        <v>44316</v>
+        <v>44371</v>
       </c>
       <c r="E229" t="n">
         <v>13</v>
@@ -16841,11 +16841,11 @@
       </c>
       <c r="I229" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J229" t="n">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="K229" t="n">
         <v>16000</v>
@@ -16858,7 +16858,7 @@
       </c>
       <c r="N229" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O229" t="inlineStr">
@@ -16867,10 +16867,10 @@
         </is>
       </c>
       <c r="P229" t="n">
-        <v>533</v>
+        <v>400</v>
       </c>
       <c r="Q229" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="R229" t="inlineStr">
         <is>
@@ -16893,7 +16893,7 @@
         </is>
       </c>
       <c r="D230" s="2" t="n">
-        <v>44397</v>
+        <v>44316</v>
       </c>
       <c r="E230" t="n">
         <v>13</v>
@@ -16908,29 +16908,29 @@
       </c>
       <c r="H230" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I230" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J230" t="n">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="K230" t="n">
-        <v>19000</v>
+        <v>18000</v>
       </c>
       <c r="L230" t="n">
-        <v>20000</v>
+        <v>18000</v>
       </c>
       <c r="M230" t="n">
-        <v>19500</v>
+        <v>18000</v>
       </c>
       <c r="N230" t="inlineStr">
         <is>
-          <t>$/caja 25 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O230" t="inlineStr">
@@ -16939,10 +16939,10 @@
         </is>
       </c>
       <c r="P230" t="n">
-        <v>19500</v>
+        <v>360</v>
       </c>
       <c r="Q230" t="n">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="R230" t="inlineStr">
         <is>
@@ -16965,7 +16965,7 @@
         </is>
       </c>
       <c r="D231" s="2" t="n">
-        <v>44397</v>
+        <v>44316</v>
       </c>
       <c r="E231" t="n">
         <v>13</v>
@@ -16985,24 +16985,24 @@
       </c>
       <c r="I231" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J231" t="n">
-        <v>43</v>
+        <v>18</v>
       </c>
       <c r="K231" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="L231" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="M231" t="n">
-        <v>16488</v>
+        <v>18000</v>
       </c>
       <c r="N231" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 25 unidades</t>
         </is>
       </c>
       <c r="O231" t="inlineStr">
@@ -17011,10 +17011,10 @@
         </is>
       </c>
       <c r="P231" t="n">
-        <v>550</v>
+        <v>18000</v>
       </c>
       <c r="Q231" t="n">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="R231" t="inlineStr">
         <is>
@@ -17037,7 +17037,7 @@
         </is>
       </c>
       <c r="D232" s="2" t="n">
-        <v>44397</v>
+        <v>44316</v>
       </c>
       <c r="E232" t="n">
         <v>13</v>
@@ -17057,24 +17057,24 @@
       </c>
       <c r="I232" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J232" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="K232" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="L232" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="M232" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="N232" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O232" t="inlineStr">
@@ -17083,10 +17083,10 @@
         </is>
       </c>
       <c r="P232" t="n">
-        <v>375</v>
+        <v>533</v>
       </c>
       <c r="Q232" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="R232" t="inlineStr">
         <is>
@@ -17109,7 +17109,7 @@
         </is>
       </c>
       <c r="D233" s="2" t="n">
-        <v>44363</v>
+        <v>44397</v>
       </c>
       <c r="E233" t="n">
         <v>13</v>
@@ -17124,41 +17124,41 @@
       </c>
       <c r="H233" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I233" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J233" t="n">
-        <v>52</v>
+        <v>16</v>
       </c>
       <c r="K233" t="n">
-        <v>16000</v>
+        <v>19000</v>
       </c>
       <c r="L233" t="n">
-        <v>17000</v>
+        <v>20000</v>
       </c>
       <c r="M233" t="n">
-        <v>16500</v>
+        <v>19500</v>
       </c>
       <c r="N233" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 25 unidades</t>
         </is>
       </c>
       <c r="O233" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P233" t="n">
-        <v>330</v>
+        <v>19500</v>
       </c>
       <c r="Q233" t="n">
-        <v>50</v>
+        <v>1</v>
       </c>
       <c r="R233" t="inlineStr">
         <is>
@@ -17181,7 +17181,7 @@
         </is>
       </c>
       <c r="D234" s="2" t="n">
-        <v>44363</v>
+        <v>44397</v>
       </c>
       <c r="E234" t="n">
         <v>13</v>
@@ -17205,16 +17205,16 @@
         </is>
       </c>
       <c r="J234" t="n">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="K234" t="n">
+        <v>16000</v>
+      </c>
+      <c r="L234" t="n">
         <v>17000</v>
       </c>
-      <c r="L234" t="n">
-        <v>18000</v>
-      </c>
       <c r="M234" t="n">
-        <v>17500</v>
+        <v>16488</v>
       </c>
       <c r="N234" t="inlineStr">
         <is>
@@ -17227,7 +17227,7 @@
         </is>
       </c>
       <c r="P234" t="n">
-        <v>583</v>
+        <v>550</v>
       </c>
       <c r="Q234" t="n">
         <v>30</v>
@@ -17253,7 +17253,7 @@
         </is>
       </c>
       <c r="D235" s="2" t="n">
-        <v>44438</v>
+        <v>44397</v>
       </c>
       <c r="E235" t="n">
         <v>13</v>
@@ -17273,11 +17273,11 @@
       </c>
       <c r="I235" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J235" t="n">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="K235" t="n">
         <v>15000</v>
@@ -17290,7 +17290,7 @@
       </c>
       <c r="N235" t="inlineStr">
         <is>
-          <t>$/caja 25 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O235" t="inlineStr">
@@ -17299,10 +17299,10 @@
         </is>
       </c>
       <c r="P235" t="n">
-        <v>15000</v>
+        <v>375</v>
       </c>
       <c r="Q235" t="n">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="R235" t="inlineStr">
         <is>
@@ -17325,7 +17325,7 @@
         </is>
       </c>
       <c r="D236" s="2" t="n">
-        <v>44438</v>
+        <v>44363</v>
       </c>
       <c r="E236" t="n">
         <v>13</v>
@@ -17340,7 +17340,7 @@
       </c>
       <c r="H236" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I236" t="inlineStr">
@@ -17349,32 +17349,32 @@
         </is>
       </c>
       <c r="J236" t="n">
-        <v>34</v>
+        <v>52</v>
       </c>
       <c r="K236" t="n">
-        <v>13000</v>
+        <v>16000</v>
       </c>
       <c r="L236" t="n">
-        <v>14000</v>
+        <v>17000</v>
       </c>
       <c r="M236" t="n">
-        <v>13500</v>
+        <v>16500</v>
       </c>
       <c r="N236" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O236" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P236" t="n">
-        <v>450</v>
+        <v>330</v>
       </c>
       <c r="Q236" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R236" t="inlineStr">
         <is>
@@ -17397,7 +17397,7 @@
         </is>
       </c>
       <c r="D237" s="2" t="n">
-        <v>44438</v>
+        <v>44363</v>
       </c>
       <c r="E237" t="n">
         <v>13</v>
@@ -17417,24 +17417,24 @@
       </c>
       <c r="I237" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J237" t="n">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="K237" t="n">
-        <v>11000</v>
+        <v>17000</v>
       </c>
       <c r="L237" t="n">
-        <v>12000</v>
+        <v>18000</v>
       </c>
       <c r="M237" t="n">
-        <v>11480</v>
+        <v>17500</v>
       </c>
       <c r="N237" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O237" t="inlineStr">
@@ -17443,10 +17443,10 @@
         </is>
       </c>
       <c r="P237" t="n">
-        <v>287</v>
+        <v>583</v>
       </c>
       <c r="Q237" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="R237" t="inlineStr">
         <is>
@@ -17469,7 +17469,7 @@
         </is>
       </c>
       <c r="D238" s="2" t="n">
-        <v>44372</v>
+        <v>44438</v>
       </c>
       <c r="E238" t="n">
         <v>13</v>
@@ -17484,7 +17484,7 @@
       </c>
       <c r="H238" t="inlineStr">
         <is>
-          <t>Madrigal</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I238" t="inlineStr">
@@ -17493,32 +17493,32 @@
         </is>
       </c>
       <c r="J238" t="n">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="K238" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="L238" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="M238" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="N238" t="inlineStr">
         <is>
-          <t>$/caja 35 unidades</t>
+          <t>$/caja 25 unidades</t>
         </is>
       </c>
       <c r="O238" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P238" t="n">
-        <v>571</v>
+        <v>15000</v>
       </c>
       <c r="Q238" t="n">
-        <v>35</v>
+        <v>1</v>
       </c>
       <c r="R238" t="inlineStr">
         <is>
@@ -17541,7 +17541,7 @@
         </is>
       </c>
       <c r="D239" s="2" t="n">
-        <v>44372</v>
+        <v>44438</v>
       </c>
       <c r="E239" t="n">
         <v>13</v>
@@ -17556,7 +17556,7 @@
       </c>
       <c r="H239" t="inlineStr">
         <is>
-          <t>Madrigal</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I239" t="inlineStr">
@@ -17565,32 +17565,32 @@
         </is>
       </c>
       <c r="J239" t="n">
-        <v>52</v>
+        <v>34</v>
       </c>
       <c r="K239" t="n">
-        <v>17000</v>
+        <v>13000</v>
       </c>
       <c r="L239" t="n">
-        <v>18000</v>
+        <v>14000</v>
       </c>
       <c r="M239" t="n">
-        <v>17500</v>
+        <v>13500</v>
       </c>
       <c r="N239" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O239" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P239" t="n">
-        <v>438</v>
+        <v>450</v>
       </c>
       <c r="Q239" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="R239" t="inlineStr">
         <is>
@@ -17613,7 +17613,7 @@
         </is>
       </c>
       <c r="D240" s="2" t="n">
-        <v>44372</v>
+        <v>44438</v>
       </c>
       <c r="E240" t="n">
         <v>13</v>
@@ -17628,7 +17628,7 @@
       </c>
       <c r="H240" t="inlineStr">
         <is>
-          <t>Madrigal</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I240" t="inlineStr">
@@ -17637,32 +17637,32 @@
         </is>
       </c>
       <c r="J240" t="n">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="K240" t="n">
-        <v>16000</v>
+        <v>11000</v>
       </c>
       <c r="L240" t="n">
-        <v>16000</v>
+        <v>12000</v>
       </c>
       <c r="M240" t="n">
-        <v>16000</v>
+        <v>11480</v>
       </c>
       <c r="N240" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O240" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P240" t="n">
-        <v>320</v>
+        <v>287</v>
       </c>
       <c r="Q240" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="R240" t="inlineStr">
         <is>
@@ -17685,7 +17685,7 @@
         </is>
       </c>
       <c r="D241" s="2" t="n">
-        <v>44356</v>
+        <v>44372</v>
       </c>
       <c r="E241" t="n">
         <v>13</v>
@@ -17700,29 +17700,29 @@
       </c>
       <c r="H241" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Madrigal</t>
         </is>
       </c>
       <c r="I241" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J241" t="n">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="K241" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="L241" t="n">
-        <v>16000</v>
+        <v>20000</v>
       </c>
       <c r="M241" t="n">
-        <v>15476</v>
+        <v>20000</v>
       </c>
       <c r="N241" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 35 unidades</t>
         </is>
       </c>
       <c r="O241" t="inlineStr">
@@ -17731,10 +17731,10 @@
         </is>
       </c>
       <c r="P241" t="n">
-        <v>310</v>
+        <v>571</v>
       </c>
       <c r="Q241" t="n">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="R241" t="inlineStr">
         <is>
@@ -17757,7 +17757,7 @@
         </is>
       </c>
       <c r="D242" s="2" t="n">
-        <v>44356</v>
+        <v>44372</v>
       </c>
       <c r="E242" t="n">
         <v>13</v>
@@ -17772,29 +17772,29 @@
       </c>
       <c r="H242" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Madrigal</t>
         </is>
       </c>
       <c r="I242" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J242" t="n">
-        <v>12</v>
+        <v>52</v>
       </c>
       <c r="K242" t="n">
-        <v>13000</v>
+        <v>17000</v>
       </c>
       <c r="L242" t="n">
-        <v>13000</v>
+        <v>18000</v>
       </c>
       <c r="M242" t="n">
-        <v>13000</v>
+        <v>17500</v>
       </c>
       <c r="N242" t="inlineStr">
         <is>
-          <t>$/caja 70 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O242" t="inlineStr">
@@ -17803,10 +17803,10 @@
         </is>
       </c>
       <c r="P242" t="n">
-        <v>186</v>
+        <v>438</v>
       </c>
       <c r="Q242" t="n">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="R242" t="inlineStr">
         <is>
@@ -17829,7 +17829,7 @@
         </is>
       </c>
       <c r="D243" s="2" t="n">
-        <v>44356</v>
+        <v>44372</v>
       </c>
       <c r="E243" t="n">
         <v>13</v>
@@ -17844,41 +17844,41 @@
       </c>
       <c r="H243" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Madrigal</t>
         </is>
       </c>
       <c r="I243" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J243" t="n">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="K243" t="n">
-        <v>17000</v>
+        <v>16000</v>
       </c>
       <c r="L243" t="n">
-        <v>18000</v>
+        <v>16000</v>
       </c>
       <c r="M243" t="n">
-        <v>17520</v>
+        <v>16000</v>
       </c>
       <c r="N243" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O243" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P243" t="n">
-        <v>584</v>
+        <v>320</v>
       </c>
       <c r="Q243" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R243" t="inlineStr">
         <is>
@@ -17916,41 +17916,41 @@
       </c>
       <c r="H244" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I244" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J244" t="n">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="K244" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="L244" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="M244" t="n">
-        <v>14500</v>
+        <v>15476</v>
       </c>
       <c r="N244" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O244" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P244" t="n">
-        <v>483</v>
+        <v>310</v>
       </c>
       <c r="Q244" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R244" t="inlineStr">
         <is>
@@ -17973,7 +17973,7 @@
         </is>
       </c>
       <c r="D245" s="2" t="n">
-        <v>44351</v>
+        <v>44356</v>
       </c>
       <c r="E245" t="n">
         <v>13</v>
@@ -17993,36 +17993,36 @@
       </c>
       <c r="I245" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J245" t="n">
-        <v>43</v>
+        <v>12</v>
       </c>
       <c r="K245" t="n">
-        <v>16000</v>
+        <v>13000</v>
       </c>
       <c r="L245" t="n">
-        <v>17000</v>
+        <v>13000</v>
       </c>
       <c r="M245" t="n">
-        <v>16512</v>
+        <v>13000</v>
       </c>
       <c r="N245" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 70 unidades</t>
         </is>
       </c>
       <c r="O245" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P245" t="n">
-        <v>330</v>
+        <v>186</v>
       </c>
       <c r="Q245" t="n">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="R245" t="inlineStr">
         <is>
@@ -18045,7 +18045,7 @@
         </is>
       </c>
       <c r="D246" s="2" t="n">
-        <v>44351</v>
+        <v>44356</v>
       </c>
       <c r="E246" t="n">
         <v>13</v>
@@ -18060,29 +18060,29 @@
       </c>
       <c r="H246" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I246" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J246" t="n">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="K246" t="n">
-        <v>15000</v>
+        <v>17000</v>
       </c>
       <c r="L246" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="M246" t="n">
-        <v>15000</v>
+        <v>17520</v>
       </c>
       <c r="N246" t="inlineStr">
         <is>
-          <t>$/caja 70 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O246" t="inlineStr">
@@ -18091,10 +18091,10 @@
         </is>
       </c>
       <c r="P246" t="n">
-        <v>214</v>
+        <v>584</v>
       </c>
       <c r="Q246" t="n">
-        <v>70</v>
+        <v>30</v>
       </c>
       <c r="R246" t="inlineStr">
         <is>
@@ -18117,7 +18117,7 @@
         </is>
       </c>
       <c r="D247" s="2" t="n">
-        <v>44351</v>
+        <v>44356</v>
       </c>
       <c r="E247" t="n">
         <v>13</v>
@@ -18137,36 +18137,36 @@
       </c>
       <c r="I247" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J247" t="n">
         <v>16</v>
       </c>
       <c r="K247" t="n">
-        <v>20000</v>
+        <v>14000</v>
       </c>
       <c r="L247" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="M247" t="n">
-        <v>20000</v>
+        <v>14500</v>
       </c>
       <c r="N247" t="inlineStr">
         <is>
-          <t>$/caja 25 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O247" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P247" t="n">
-        <v>20000</v>
+        <v>483</v>
       </c>
       <c r="Q247" t="n">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="R247" t="inlineStr">
         <is>
@@ -18204,7 +18204,7 @@
       </c>
       <c r="H248" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I248" t="inlineStr">
@@ -18213,32 +18213,32 @@
         </is>
       </c>
       <c r="J248" t="n">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="K248" t="n">
+        <v>16000</v>
+      </c>
+      <c r="L248" t="n">
         <v>17000</v>
       </c>
-      <c r="L248" t="n">
-        <v>18000</v>
-      </c>
       <c r="M248" t="n">
-        <v>17500</v>
+        <v>16512</v>
       </c>
       <c r="N248" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O248" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P248" t="n">
-        <v>583</v>
+        <v>330</v>
       </c>
       <c r="Q248" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R248" t="inlineStr">
         <is>
@@ -18276,7 +18276,7 @@
       </c>
       <c r="H249" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I249" t="inlineStr">
@@ -18285,7 +18285,7 @@
         </is>
       </c>
       <c r="J249" t="n">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="K249" t="n">
         <v>15000</v>
@@ -18298,19 +18298,19 @@
       </c>
       <c r="N249" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 70 unidades</t>
         </is>
       </c>
       <c r="O249" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P249" t="n">
-        <v>375</v>
+        <v>214</v>
       </c>
       <c r="Q249" t="n">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="R249" t="inlineStr">
         <is>
@@ -18333,7 +18333,7 @@
         </is>
       </c>
       <c r="D250" s="2" t="n">
-        <v>44365</v>
+        <v>44351</v>
       </c>
       <c r="E250" t="n">
         <v>13</v>
@@ -18348,29 +18348,29 @@
       </c>
       <c r="H250" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I250" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J250" t="n">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="K250" t="n">
-        <v>16000</v>
+        <v>20000</v>
       </c>
       <c r="L250" t="n">
-        <v>17000</v>
+        <v>20000</v>
       </c>
       <c r="M250" t="n">
-        <v>16500</v>
+        <v>20000</v>
       </c>
       <c r="N250" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 25 unidades</t>
         </is>
       </c>
       <c r="O250" t="inlineStr">
@@ -18379,10 +18379,10 @@
         </is>
       </c>
       <c r="P250" t="n">
-        <v>330</v>
+        <v>20000</v>
       </c>
       <c r="Q250" t="n">
-        <v>50</v>
+        <v>1</v>
       </c>
       <c r="R250" t="inlineStr">
         <is>
@@ -18405,7 +18405,7 @@
         </is>
       </c>
       <c r="D251" s="2" t="n">
-        <v>44365</v>
+        <v>44351</v>
       </c>
       <c r="E251" t="n">
         <v>13</v>
@@ -18420,29 +18420,29 @@
       </c>
       <c r="H251" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I251" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J251" t="n">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="K251" t="n">
-        <v>15000</v>
+        <v>17000</v>
       </c>
       <c r="L251" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="M251" t="n">
-        <v>15000</v>
+        <v>17500</v>
       </c>
       <c r="N251" t="inlineStr">
         <is>
-          <t>$/caja 70 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O251" t="inlineStr">
@@ -18451,10 +18451,10 @@
         </is>
       </c>
       <c r="P251" t="n">
-        <v>214</v>
+        <v>583</v>
       </c>
       <c r="Q251" t="n">
-        <v>70</v>
+        <v>30</v>
       </c>
       <c r="R251" t="inlineStr">
         <is>
@@ -18477,7 +18477,7 @@
         </is>
       </c>
       <c r="D252" s="2" t="n">
-        <v>44365</v>
+        <v>44351</v>
       </c>
       <c r="E252" t="n">
         <v>13</v>
@@ -18497,24 +18497,24 @@
       </c>
       <c r="I252" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J252" t="n">
-        <v>36</v>
+        <v>16</v>
       </c>
       <c r="K252" t="n">
-        <v>17000</v>
+        <v>15000</v>
       </c>
       <c r="L252" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="M252" t="n">
-        <v>17500</v>
+        <v>15000</v>
       </c>
       <c r="N252" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O252" t="inlineStr">
@@ -18523,10 +18523,10 @@
         </is>
       </c>
       <c r="P252" t="n">
-        <v>583</v>
+        <v>375</v>
       </c>
       <c r="Q252" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="R252" t="inlineStr">
         <is>
@@ -18564,29 +18564,29 @@
       </c>
       <c r="H253" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I253" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J253" t="n">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="K253" t="n">
         <v>16000</v>
       </c>
       <c r="L253" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="M253" t="n">
-        <v>16000</v>
+        <v>16500</v>
       </c>
       <c r="N253" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O253" t="inlineStr">
@@ -18595,10 +18595,10 @@
         </is>
       </c>
       <c r="P253" t="n">
-        <v>400</v>
+        <v>330</v>
       </c>
       <c r="Q253" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="R253" t="inlineStr">
         <is>
@@ -18621,7 +18621,7 @@
         </is>
       </c>
       <c r="D254" s="2" t="n">
-        <v>44306</v>
+        <v>44365</v>
       </c>
       <c r="E254" t="n">
         <v>13</v>
@@ -18636,41 +18636,41 @@
       </c>
       <c r="H254" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I254" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J254" t="n">
         <v>16</v>
       </c>
       <c r="K254" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="L254" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="M254" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="N254" t="inlineStr">
         <is>
-          <t>$/caja 25 unidades</t>
+          <t>$/caja 70 unidades</t>
         </is>
       </c>
       <c r="O254" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P254" t="n">
-        <v>20000</v>
+        <v>214</v>
       </c>
       <c r="Q254" t="n">
-        <v>1</v>
+        <v>70</v>
       </c>
       <c r="R254" t="inlineStr">
         <is>
@@ -18693,7 +18693,7 @@
         </is>
       </c>
       <c r="D255" s="2" t="n">
-        <v>44306</v>
+        <v>44365</v>
       </c>
       <c r="E255" t="n">
         <v>13</v>
@@ -18717,16 +18717,16 @@
         </is>
       </c>
       <c r="J255" t="n">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="K255" t="n">
-        <v>18000</v>
+        <v>17000</v>
       </c>
       <c r="L255" t="n">
         <v>18000</v>
       </c>
       <c r="M255" t="n">
-        <v>18000</v>
+        <v>17500</v>
       </c>
       <c r="N255" t="inlineStr">
         <is>
@@ -18735,11 +18735,11 @@
       </c>
       <c r="O255" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P255" t="n">
-        <v>600</v>
+        <v>583</v>
       </c>
       <c r="Q255" t="n">
         <v>30</v>
@@ -18765,7 +18765,7 @@
         </is>
       </c>
       <c r="D256" s="2" t="n">
-        <v>44357</v>
+        <v>44365</v>
       </c>
       <c r="E256" t="n">
         <v>13</v>
@@ -18780,41 +18780,41 @@
       </c>
       <c r="H256" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I256" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J256" t="n">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="K256" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="L256" t="n">
         <v>16000</v>
       </c>
       <c r="M256" t="n">
-        <v>15500</v>
+        <v>16000</v>
       </c>
       <c r="N256" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O256" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P256" t="n">
-        <v>310</v>
+        <v>400</v>
       </c>
       <c r="Q256" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="R256" t="inlineStr">
         <is>
@@ -18837,7 +18837,7 @@
         </is>
       </c>
       <c r="D257" s="2" t="n">
-        <v>44357</v>
+        <v>44306</v>
       </c>
       <c r="E257" t="n">
         <v>13</v>
@@ -18852,29 +18852,29 @@
       </c>
       <c r="H257" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I257" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J257" t="n">
         <v>16</v>
       </c>
       <c r="K257" t="n">
-        <v>13000</v>
+        <v>20000</v>
       </c>
       <c r="L257" t="n">
-        <v>13000</v>
+        <v>20000</v>
       </c>
       <c r="M257" t="n">
-        <v>13000</v>
+        <v>20000</v>
       </c>
       <c r="N257" t="inlineStr">
         <is>
-          <t>$/caja 70 unidades</t>
+          <t>$/caja 25 unidades</t>
         </is>
       </c>
       <c r="O257" t="inlineStr">
@@ -18883,10 +18883,10 @@
         </is>
       </c>
       <c r="P257" t="n">
-        <v>186</v>
+        <v>20000</v>
       </c>
       <c r="Q257" t="n">
-        <v>70</v>
+        <v>1</v>
       </c>
       <c r="R257" t="inlineStr">
         <is>
@@ -18909,7 +18909,7 @@
         </is>
       </c>
       <c r="D258" s="2" t="n">
-        <v>44357</v>
+        <v>44306</v>
       </c>
       <c r="E258" t="n">
         <v>13</v>
@@ -18929,36 +18929,36 @@
       </c>
       <c r="I258" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J258" t="n">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="K258" t="n">
-        <v>19000</v>
+        <v>18000</v>
       </c>
       <c r="L258" t="n">
-        <v>20000</v>
+        <v>18000</v>
       </c>
       <c r="M258" t="n">
-        <v>19500</v>
+        <v>18000</v>
       </c>
       <c r="N258" t="inlineStr">
         <is>
-          <t>$/caja 25 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O258" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P258" t="n">
-        <v>19500</v>
+        <v>600</v>
       </c>
       <c r="Q258" t="n">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="R258" t="inlineStr">
         <is>
@@ -18996,7 +18996,7 @@
       </c>
       <c r="H259" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I259" t="inlineStr">
@@ -19008,29 +19008,29 @@
         <v>34</v>
       </c>
       <c r="K259" t="n">
-        <v>17000</v>
+        <v>15000</v>
       </c>
       <c r="L259" t="n">
-        <v>18000</v>
+        <v>16000</v>
       </c>
       <c r="M259" t="n">
-        <v>17500</v>
+        <v>15500</v>
       </c>
       <c r="N259" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O259" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P259" t="n">
-        <v>583</v>
+        <v>310</v>
       </c>
       <c r="Q259" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R259" t="inlineStr">
         <is>
@@ -19068,7 +19068,7 @@
       </c>
       <c r="H260" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I260" t="inlineStr">
@@ -19077,32 +19077,32 @@
         </is>
       </c>
       <c r="J260" t="n">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="K260" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="L260" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="M260" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="N260" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 70 unidades</t>
         </is>
       </c>
       <c r="O260" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P260" t="n">
-        <v>375</v>
+        <v>186</v>
       </c>
       <c r="Q260" t="n">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="R260" t="inlineStr">
         <is>
@@ -19125,7 +19125,7 @@
         </is>
       </c>
       <c r="D261" s="2" t="n">
-        <v>44162</v>
+        <v>44357</v>
       </c>
       <c r="E261" t="n">
         <v>13</v>
@@ -19145,36 +19145,36 @@
       </c>
       <c r="I261" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J261" t="n">
-        <v>300</v>
+        <v>16</v>
       </c>
       <c r="K261" t="n">
-        <v>9000</v>
+        <v>19000</v>
       </c>
       <c r="L261" t="n">
-        <v>9000</v>
+        <v>20000</v>
       </c>
       <c r="M261" t="n">
-        <v>9000</v>
+        <v>19500</v>
       </c>
       <c r="N261" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 25 unidades</t>
         </is>
       </c>
       <c r="O261" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P261" t="n">
-        <v>300</v>
+        <v>19500</v>
       </c>
       <c r="Q261" t="n">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="R261" t="inlineStr">
         <is>
@@ -19197,7 +19197,7 @@
         </is>
       </c>
       <c r="D262" s="2" t="n">
-        <v>44411</v>
+        <v>44357</v>
       </c>
       <c r="E262" t="n">
         <v>13</v>
@@ -19217,36 +19217,36 @@
       </c>
       <c r="I262" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J262" t="n">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="K262" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="L262" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="M262" t="n">
-        <v>16000</v>
+        <v>17500</v>
       </c>
       <c r="N262" t="inlineStr">
         <is>
-          <t>$/caja 25 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O262" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P262" t="n">
-        <v>16000</v>
+        <v>583</v>
       </c>
       <c r="Q262" t="n">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="R262" t="inlineStr">
         <is>
@@ -19269,7 +19269,7 @@
         </is>
       </c>
       <c r="D263" s="2" t="n">
-        <v>44411</v>
+        <v>44357</v>
       </c>
       <c r="E263" t="n">
         <v>13</v>
@@ -19289,36 +19289,36 @@
       </c>
       <c r="I263" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J263" t="n">
-        <v>61</v>
+        <v>25</v>
       </c>
       <c r="K263" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="L263" t="n">
         <v>15000</v>
       </c>
       <c r="M263" t="n">
-        <v>14492</v>
+        <v>15000</v>
       </c>
       <c r="N263" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O263" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P263" t="n">
-        <v>483</v>
+        <v>375</v>
       </c>
       <c r="Q263" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="R263" t="inlineStr">
         <is>
@@ -19341,7 +19341,7 @@
         </is>
       </c>
       <c r="D264" s="2" t="n">
-        <v>44411</v>
+        <v>44162</v>
       </c>
       <c r="E264" t="n">
         <v>13</v>
@@ -19361,36 +19361,36 @@
       </c>
       <c r="I264" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J264" t="n">
-        <v>25</v>
+        <v>300</v>
       </c>
       <c r="K264" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="L264" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="M264" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="N264" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O264" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P264" t="n">
         <v>300</v>
       </c>
       <c r="Q264" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="R264" t="inlineStr">
         <is>
@@ -19413,7 +19413,7 @@
         </is>
       </c>
       <c r="D265" s="2" t="n">
-        <v>44376</v>
+        <v>44411</v>
       </c>
       <c r="E265" t="n">
         <v>13</v>
@@ -19440,13 +19440,13 @@
         <v>16</v>
       </c>
       <c r="K265" t="n">
-        <v>21000</v>
+        <v>16000</v>
       </c>
       <c r="L265" t="n">
-        <v>22000</v>
+        <v>16000</v>
       </c>
       <c r="M265" t="n">
-        <v>21500</v>
+        <v>16000</v>
       </c>
       <c r="N265" t="inlineStr">
         <is>
@@ -19455,11 +19455,11 @@
       </c>
       <c r="O265" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P265" t="n">
-        <v>21500</v>
+        <v>16000</v>
       </c>
       <c r="Q265" t="n">
         <v>1</v>
@@ -19485,7 +19485,7 @@
         </is>
       </c>
       <c r="D266" s="2" t="n">
-        <v>44376</v>
+        <v>44411</v>
       </c>
       <c r="E266" t="n">
         <v>13</v>
@@ -19509,16 +19509,16 @@
         </is>
       </c>
       <c r="J266" t="n">
-        <v>34</v>
+        <v>61</v>
       </c>
       <c r="K266" t="n">
-        <v>19000</v>
+        <v>14000</v>
       </c>
       <c r="L266" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="M266" t="n">
-        <v>19500</v>
+        <v>14492</v>
       </c>
       <c r="N266" t="inlineStr">
         <is>
@@ -19527,11 +19527,11 @@
       </c>
       <c r="O266" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P266" t="n">
-        <v>650</v>
+        <v>483</v>
       </c>
       <c r="Q266" t="n">
         <v>30</v>
@@ -19557,7 +19557,7 @@
         </is>
       </c>
       <c r="D267" s="2" t="n">
-        <v>44376</v>
+        <v>44411</v>
       </c>
       <c r="E267" t="n">
         <v>13</v>
@@ -19584,13 +19584,13 @@
         <v>25</v>
       </c>
       <c r="K267" t="n">
-        <v>16000</v>
+        <v>12000</v>
       </c>
       <c r="L267" t="n">
-        <v>17000</v>
+        <v>12000</v>
       </c>
       <c r="M267" t="n">
-        <v>16480</v>
+        <v>12000</v>
       </c>
       <c r="N267" t="inlineStr">
         <is>
@@ -19599,11 +19599,11 @@
       </c>
       <c r="O267" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P267" t="n">
-        <v>412</v>
+        <v>300</v>
       </c>
       <c r="Q267" t="n">
         <v>40</v>
@@ -19629,7 +19629,7 @@
         </is>
       </c>
       <c r="D268" s="2" t="n">
-        <v>44292</v>
+        <v>44376</v>
       </c>
       <c r="E268" t="n">
         <v>13</v>
@@ -19649,36 +19649,36 @@
       </c>
       <c r="I268" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J268" t="n">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="K268" t="n">
-        <v>18000</v>
+        <v>21000</v>
       </c>
       <c r="L268" t="n">
-        <v>18000</v>
+        <v>22000</v>
       </c>
       <c r="M268" t="n">
-        <v>18000</v>
+        <v>21500</v>
       </c>
       <c r="N268" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 25 unidades</t>
         </is>
       </c>
       <c r="O268" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P268" t="n">
-        <v>600</v>
+        <v>21500</v>
       </c>
       <c r="Q268" t="n">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="R268" t="inlineStr">
         <is>
@@ -19701,7 +19701,7 @@
         </is>
       </c>
       <c r="D269" s="2" t="n">
-        <v>44358</v>
+        <v>44376</v>
       </c>
       <c r="E269" t="n">
         <v>13</v>
@@ -19716,7 +19716,7 @@
       </c>
       <c r="H269" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I269" t="inlineStr">
@@ -19725,20 +19725,20 @@
         </is>
       </c>
       <c r="J269" t="n">
-        <v>52</v>
+        <v>34</v>
       </c>
       <c r="K269" t="n">
-        <v>15000</v>
+        <v>19000</v>
       </c>
       <c r="L269" t="n">
-        <v>16000</v>
+        <v>20000</v>
       </c>
       <c r="M269" t="n">
-        <v>15500</v>
+        <v>19500</v>
       </c>
       <c r="N269" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O269" t="inlineStr">
@@ -19747,10 +19747,10 @@
         </is>
       </c>
       <c r="P269" t="n">
-        <v>310</v>
+        <v>650</v>
       </c>
       <c r="Q269" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R269" t="inlineStr">
         <is>
@@ -19773,7 +19773,7 @@
         </is>
       </c>
       <c r="D270" s="2" t="n">
-        <v>44358</v>
+        <v>44376</v>
       </c>
       <c r="E270" t="n">
         <v>13</v>
@@ -19788,7 +19788,7 @@
       </c>
       <c r="H270" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I270" t="inlineStr">
@@ -19797,20 +19797,20 @@
         </is>
       </c>
       <c r="J270" t="n">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="K270" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="L270" t="n">
-        <v>14000</v>
+        <v>17000</v>
       </c>
       <c r="M270" t="n">
-        <v>14000</v>
+        <v>16480</v>
       </c>
       <c r="N270" t="inlineStr">
         <is>
-          <t>$/caja 70 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O270" t="inlineStr">
@@ -19819,10 +19819,10 @@
         </is>
       </c>
       <c r="P270" t="n">
-        <v>200</v>
+        <v>412</v>
       </c>
       <c r="Q270" t="n">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="R270" t="inlineStr">
         <is>
@@ -19845,7 +19845,7 @@
         </is>
       </c>
       <c r="D271" s="2" t="n">
-        <v>44358</v>
+        <v>44292</v>
       </c>
       <c r="E271" t="n">
         <v>13</v>
@@ -19865,24 +19865,24 @@
       </c>
       <c r="I271" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J271" t="n">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="K271" t="n">
         <v>18000</v>
       </c>
       <c r="L271" t="n">
-        <v>19000</v>
+        <v>18000</v>
       </c>
       <c r="M271" t="n">
-        <v>18500</v>
+        <v>18000</v>
       </c>
       <c r="N271" t="inlineStr">
         <is>
-          <t>$/caja 25 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O271" t="inlineStr">
@@ -19891,10 +19891,10 @@
         </is>
       </c>
       <c r="P271" t="n">
-        <v>18500</v>
+        <v>600</v>
       </c>
       <c r="Q271" t="n">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="R271" t="inlineStr">
         <is>
@@ -19932,7 +19932,7 @@
       </c>
       <c r="H272" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I272" t="inlineStr">
@@ -19941,7 +19941,7 @@
         </is>
       </c>
       <c r="J272" t="n">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="K272" t="n">
         <v>15000</v>
@@ -19950,23 +19950,23 @@
         <v>16000</v>
       </c>
       <c r="M272" t="n">
-        <v>15488</v>
+        <v>15500</v>
       </c>
       <c r="N272" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O272" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P272" t="n">
-        <v>516</v>
+        <v>310</v>
       </c>
       <c r="Q272" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R272" t="inlineStr">
         <is>
@@ -20004,7 +20004,7 @@
       </c>
       <c r="H273" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I273" t="inlineStr">
@@ -20013,7 +20013,7 @@
         </is>
       </c>
       <c r="J273" t="n">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="K273" t="n">
         <v>14000</v>
@@ -20026,19 +20026,19 @@
       </c>
       <c r="N273" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 70 unidades</t>
         </is>
       </c>
       <c r="O273" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P273" t="n">
-        <v>350</v>
+        <v>200</v>
       </c>
       <c r="Q273" t="n">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="R273" t="inlineStr">
         <is>
@@ -20061,7 +20061,7 @@
         </is>
       </c>
       <c r="D274" s="2" t="n">
-        <v>44425</v>
+        <v>44358</v>
       </c>
       <c r="E274" t="n">
         <v>13</v>
@@ -20085,16 +20085,16 @@
         </is>
       </c>
       <c r="J274" t="n">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="K274" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="L274" t="n">
-        <v>16000</v>
+        <v>19000</v>
       </c>
       <c r="M274" t="n">
-        <v>16000</v>
+        <v>18500</v>
       </c>
       <c r="N274" t="inlineStr">
         <is>
@@ -20107,7 +20107,7 @@
         </is>
       </c>
       <c r="P274" t="n">
-        <v>16000</v>
+        <v>18500</v>
       </c>
       <c r="Q274" t="n">
         <v>1</v>
@@ -20133,7 +20133,7 @@
         </is>
       </c>
       <c r="D275" s="2" t="n">
-        <v>44425</v>
+        <v>44358</v>
       </c>
       <c r="E275" t="n">
         <v>13</v>
@@ -20157,16 +20157,16 @@
         </is>
       </c>
       <c r="J275" t="n">
-        <v>61</v>
+        <v>43</v>
       </c>
       <c r="K275" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="L275" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="M275" t="n">
-        <v>14508</v>
+        <v>15488</v>
       </c>
       <c r="N275" t="inlineStr">
         <is>
@@ -20179,7 +20179,7 @@
         </is>
       </c>
       <c r="P275" t="n">
-        <v>484</v>
+        <v>516</v>
       </c>
       <c r="Q275" t="n">
         <v>30</v>
@@ -20205,7 +20205,7 @@
         </is>
       </c>
       <c r="D276" s="2" t="n">
-        <v>44425</v>
+        <v>44358</v>
       </c>
       <c r="E276" t="n">
         <v>13</v>
@@ -20229,16 +20229,16 @@
         </is>
       </c>
       <c r="J276" t="n">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="K276" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="L276" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="M276" t="n">
-        <v>12500</v>
+        <v>14000</v>
       </c>
       <c r="N276" t="inlineStr">
         <is>
@@ -20251,7 +20251,7 @@
         </is>
       </c>
       <c r="P276" t="n">
-        <v>312</v>
+        <v>350</v>
       </c>
       <c r="Q276" t="n">
         <v>40</v>
@@ -20292,29 +20292,29 @@
       </c>
       <c r="H277" t="inlineStr">
         <is>
-          <t>Madrigal</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I277" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J277" t="n">
-        <v>43</v>
+        <v>25</v>
       </c>
       <c r="K277" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="L277" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="M277" t="n">
-        <v>14512</v>
+        <v>16000</v>
       </c>
       <c r="N277" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 25 unidades</t>
         </is>
       </c>
       <c r="O277" t="inlineStr">
@@ -20323,10 +20323,10 @@
         </is>
       </c>
       <c r="P277" t="n">
-        <v>363</v>
+        <v>16000</v>
       </c>
       <c r="Q277" t="n">
-        <v>40</v>
+        <v>1</v>
       </c>
       <c r="R277" t="inlineStr">
         <is>
@@ -20364,29 +20364,29 @@
       </c>
       <c r="H278" t="inlineStr">
         <is>
-          <t>Madrigal</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I278" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J278" t="n">
-        <v>25</v>
+        <v>61</v>
       </c>
       <c r="K278" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="L278" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="M278" t="n">
-        <v>12480</v>
+        <v>14508</v>
       </c>
       <c r="N278" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O278" t="inlineStr">
@@ -20395,10 +20395,10 @@
         </is>
       </c>
       <c r="P278" t="n">
-        <v>250</v>
+        <v>484</v>
       </c>
       <c r="Q278" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R278" t="inlineStr">
         <is>
@@ -20421,7 +20421,7 @@
         </is>
       </c>
       <c r="D279" s="2" t="n">
-        <v>44323</v>
+        <v>44425</v>
       </c>
       <c r="E279" t="n">
         <v>13</v>
@@ -20436,29 +20436,29 @@
       </c>
       <c r="H279" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I279" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J279" t="n">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="K279" t="n">
-        <v>18000</v>
+        <v>12000</v>
       </c>
       <c r="L279" t="n">
-        <v>18000</v>
+        <v>13000</v>
       </c>
       <c r="M279" t="n">
-        <v>18000</v>
+        <v>12500</v>
       </c>
       <c r="N279" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O279" t="inlineStr">
@@ -20467,10 +20467,10 @@
         </is>
       </c>
       <c r="P279" t="n">
-        <v>360</v>
+        <v>312</v>
       </c>
       <c r="Q279" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="R279" t="inlineStr">
         <is>
@@ -20493,7 +20493,7 @@
         </is>
       </c>
       <c r="D280" s="2" t="n">
-        <v>44323</v>
+        <v>44425</v>
       </c>
       <c r="E280" t="n">
         <v>13</v>
@@ -20508,29 +20508,29 @@
       </c>
       <c r="H280" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Madrigal</t>
         </is>
       </c>
       <c r="I280" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J280" t="n">
-        <v>16</v>
+        <v>43</v>
       </c>
       <c r="K280" t="n">
-        <v>18000</v>
+        <v>14000</v>
       </c>
       <c r="L280" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="M280" t="n">
-        <v>18000</v>
+        <v>14512</v>
       </c>
       <c r="N280" t="inlineStr">
         <is>
-          <t>$/caja 25 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O280" t="inlineStr">
@@ -20539,10 +20539,10 @@
         </is>
       </c>
       <c r="P280" t="n">
-        <v>18000</v>
+        <v>363</v>
       </c>
       <c r="Q280" t="n">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="R280" t="inlineStr">
         <is>
@@ -20565,7 +20565,7 @@
         </is>
       </c>
       <c r="D281" s="2" t="n">
-        <v>44323</v>
+        <v>44425</v>
       </c>
       <c r="E281" t="n">
         <v>13</v>
@@ -20580,43 +20580,259 @@
       </c>
       <c r="H281" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Madrigal</t>
         </is>
       </c>
       <c r="I281" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J281" t="n">
         <v>25</v>
       </c>
       <c r="K281" t="n">
+        <v>12000</v>
+      </c>
+      <c r="L281" t="n">
+        <v>13000</v>
+      </c>
+      <c r="M281" t="n">
+        <v>12480</v>
+      </c>
+      <c r="N281" t="inlineStr">
+        <is>
+          <t>$/caja 50 unidades</t>
+        </is>
+      </c>
+      <c r="O281" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P281" t="n">
+        <v>250</v>
+      </c>
+      <c r="Q281" t="n">
+        <v>50</v>
+      </c>
+      <c r="R281" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" t="n">
+        <v>9</v>
+      </c>
+      <c r="B282" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C282" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D282" s="2" t="n">
+        <v>44323</v>
+      </c>
+      <c r="E282" t="n">
+        <v>13</v>
+      </c>
+      <c r="F282" t="n">
+        <v>100112013</v>
+      </c>
+      <c r="G282" t="inlineStr">
+        <is>
+          <t>Alcachofa</t>
+        </is>
+      </c>
+      <c r="H282" t="inlineStr">
+        <is>
+          <t>Argentina(o)</t>
+        </is>
+      </c>
+      <c r="I282" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J282" t="n">
+        <v>16</v>
+      </c>
+      <c r="K282" t="n">
+        <v>18000</v>
+      </c>
+      <c r="L282" t="n">
+        <v>18000</v>
+      </c>
+      <c r="M282" t="n">
+        <v>18000</v>
+      </c>
+      <c r="N282" t="inlineStr">
+        <is>
+          <t>$/caja 50 unidades</t>
+        </is>
+      </c>
+      <c r="O282" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P282" t="n">
+        <v>360</v>
+      </c>
+      <c r="Q282" t="n">
+        <v>50</v>
+      </c>
+      <c r="R282" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" t="n">
+        <v>9</v>
+      </c>
+      <c r="B283" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C283" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D283" s="2" t="n">
+        <v>44323</v>
+      </c>
+      <c r="E283" t="n">
+        <v>13</v>
+      </c>
+      <c r="F283" t="n">
+        <v>100112013</v>
+      </c>
+      <c r="G283" t="inlineStr">
+        <is>
+          <t>Alcachofa</t>
+        </is>
+      </c>
+      <c r="H283" t="inlineStr">
+        <is>
+          <t>Española</t>
+        </is>
+      </c>
+      <c r="I283" t="inlineStr">
+        <is>
+          <t>Extra</t>
+        </is>
+      </c>
+      <c r="J283" t="n">
+        <v>16</v>
+      </c>
+      <c r="K283" t="n">
+        <v>18000</v>
+      </c>
+      <c r="L283" t="n">
+        <v>18000</v>
+      </c>
+      <c r="M283" t="n">
+        <v>18000</v>
+      </c>
+      <c r="N283" t="inlineStr">
+        <is>
+          <t>$/caja 25 unidades</t>
+        </is>
+      </c>
+      <c r="O283" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P283" t="n">
+        <v>18000</v>
+      </c>
+      <c r="Q283" t="n">
+        <v>1</v>
+      </c>
+      <c r="R283" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" t="n">
+        <v>9</v>
+      </c>
+      <c r="B284" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C284" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D284" s="2" t="n">
+        <v>44323</v>
+      </c>
+      <c r="E284" t="n">
+        <v>13</v>
+      </c>
+      <c r="F284" t="n">
+        <v>100112013</v>
+      </c>
+      <c r="G284" t="inlineStr">
+        <is>
+          <t>Alcachofa</t>
+        </is>
+      </c>
+      <c r="H284" t="inlineStr">
+        <is>
+          <t>Española</t>
+        </is>
+      </c>
+      <c r="I284" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J284" t="n">
+        <v>25</v>
+      </c>
+      <c r="K284" t="n">
         <v>16000</v>
       </c>
-      <c r="L281" t="n">
+      <c r="L284" t="n">
         <v>16000</v>
       </c>
-      <c r="M281" t="n">
+      <c r="M284" t="n">
         <v>16000</v>
       </c>
-      <c r="N281" t="inlineStr">
+      <c r="N284" t="inlineStr">
         <is>
           <t>$/caja 30 unidades</t>
         </is>
       </c>
-      <c r="O281" t="inlineStr">
+      <c r="O284" t="inlineStr">
         <is>
           <t>Provincia de Limarí</t>
         </is>
       </c>
-      <c r="P281" t="n">
+      <c r="P284" t="n">
         <v>533</v>
       </c>
-      <c r="Q281" t="n">
+      <c r="Q284" t="n">
         <v>30</v>
       </c>
-      <c r="R281" t="inlineStr">
+      <c r="R284" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Central Mapocho de Santiago - Alcachofa.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Central Mapocho de Santiago - Alcachofa.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R284"/>
+  <dimension ref="A1:R286"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -14373,7 +14373,7 @@
         </is>
       </c>
       <c r="D195" s="2" t="n">
-        <v>44414</v>
+        <v>44460</v>
       </c>
       <c r="E195" t="n">
         <v>13</v>
@@ -14393,24 +14393,24 @@
       </c>
       <c r="I195" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J195" t="n">
-        <v>25</v>
+        <v>43</v>
       </c>
       <c r="K195" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="L195" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="M195" t="n">
-        <v>15000</v>
+        <v>13488</v>
       </c>
       <c r="N195" t="inlineStr">
         <is>
-          <t>$/caja 25 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O195" t="inlineStr">
@@ -14419,10 +14419,10 @@
         </is>
       </c>
       <c r="P195" t="n">
-        <v>15000</v>
+        <v>450</v>
       </c>
       <c r="Q195" t="n">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="R195" t="inlineStr">
         <is>
@@ -14445,7 +14445,7 @@
         </is>
       </c>
       <c r="D196" s="2" t="n">
-        <v>44414</v>
+        <v>44460</v>
       </c>
       <c r="E196" t="n">
         <v>13</v>
@@ -14465,24 +14465,24 @@
       </c>
       <c r="I196" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J196" t="n">
-        <v>61</v>
+        <v>25</v>
       </c>
       <c r="K196" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="L196" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="M196" t="n">
-        <v>13492</v>
+        <v>11480</v>
       </c>
       <c r="N196" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O196" t="inlineStr">
@@ -14491,10 +14491,10 @@
         </is>
       </c>
       <c r="P196" t="n">
-        <v>450</v>
+        <v>287</v>
       </c>
       <c r="Q196" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="R196" t="inlineStr">
         <is>
@@ -14537,24 +14537,24 @@
       </c>
       <c r="I197" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J197" t="n">
-        <v>43</v>
+        <v>25</v>
       </c>
       <c r="K197" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="L197" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="M197" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="N197" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 25 unidades</t>
         </is>
       </c>
       <c r="O197" t="inlineStr">
@@ -14563,10 +14563,10 @@
         </is>
       </c>
       <c r="P197" t="n">
-        <v>300</v>
+        <v>15000</v>
       </c>
       <c r="Q197" t="n">
-        <v>40</v>
+        <v>1</v>
       </c>
       <c r="R197" t="inlineStr">
         <is>
@@ -14589,7 +14589,7 @@
         </is>
       </c>
       <c r="D198" s="2" t="n">
-        <v>44427</v>
+        <v>44414</v>
       </c>
       <c r="E198" t="n">
         <v>13</v>
@@ -14609,24 +14609,24 @@
       </c>
       <c r="I198" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J198" t="n">
-        <v>16</v>
+        <v>61</v>
       </c>
       <c r="K198" t="n">
-        <v>17000</v>
+        <v>13000</v>
       </c>
       <c r="L198" t="n">
-        <v>17000</v>
+        <v>14000</v>
       </c>
       <c r="M198" t="n">
-        <v>17000</v>
+        <v>13492</v>
       </c>
       <c r="N198" t="inlineStr">
         <is>
-          <t>$/caja 25 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O198" t="inlineStr">
@@ -14635,10 +14635,10 @@
         </is>
       </c>
       <c r="P198" t="n">
-        <v>17000</v>
+        <v>450</v>
       </c>
       <c r="Q198" t="n">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="R198" t="inlineStr">
         <is>
@@ -14661,7 +14661,7 @@
         </is>
       </c>
       <c r="D199" s="2" t="n">
-        <v>44427</v>
+        <v>44414</v>
       </c>
       <c r="E199" t="n">
         <v>13</v>
@@ -14681,24 +14681,24 @@
       </c>
       <c r="I199" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J199" t="n">
         <v>43</v>
       </c>
       <c r="K199" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="L199" t="n">
-        <v>16000</v>
+        <v>12000</v>
       </c>
       <c r="M199" t="n">
-        <v>15488</v>
+        <v>12000</v>
       </c>
       <c r="N199" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O199" t="inlineStr">
@@ -14707,10 +14707,10 @@
         </is>
       </c>
       <c r="P199" t="n">
-        <v>516</v>
+        <v>300</v>
       </c>
       <c r="Q199" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="R199" t="inlineStr">
         <is>
@@ -14753,24 +14753,24 @@
       </c>
       <c r="I200" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J200" t="n">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="K200" t="n">
-        <v>13000</v>
+        <v>17000</v>
       </c>
       <c r="L200" t="n">
-        <v>14000</v>
+        <v>17000</v>
       </c>
       <c r="M200" t="n">
-        <v>13480</v>
+        <v>17000</v>
       </c>
       <c r="N200" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 25 unidades</t>
         </is>
       </c>
       <c r="O200" t="inlineStr">
@@ -14779,10 +14779,10 @@
         </is>
       </c>
       <c r="P200" t="n">
-        <v>337</v>
+        <v>17000</v>
       </c>
       <c r="Q200" t="n">
-        <v>40</v>
+        <v>1</v>
       </c>
       <c r="R200" t="inlineStr">
         <is>
@@ -14820,7 +14820,7 @@
       </c>
       <c r="H201" t="inlineStr">
         <is>
-          <t>Madrigal</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I201" t="inlineStr">
@@ -14829,7 +14829,7 @@
         </is>
       </c>
       <c r="J201" t="n">
-        <v>25</v>
+        <v>43</v>
       </c>
       <c r="K201" t="n">
         <v>15000</v>
@@ -14838,11 +14838,11 @@
         <v>16000</v>
       </c>
       <c r="M201" t="n">
-        <v>15480</v>
+        <v>15488</v>
       </c>
       <c r="N201" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O201" t="inlineStr">
@@ -14851,10 +14851,10 @@
         </is>
       </c>
       <c r="P201" t="n">
-        <v>387</v>
+        <v>516</v>
       </c>
       <c r="Q201" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="R201" t="inlineStr">
         <is>
@@ -14892,7 +14892,7 @@
       </c>
       <c r="H202" t="inlineStr">
         <is>
-          <t>Madrigal</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I202" t="inlineStr">
@@ -14901,7 +14901,7 @@
         </is>
       </c>
       <c r="J202" t="n">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="K202" t="n">
         <v>13000</v>
@@ -14910,11 +14910,11 @@
         <v>14000</v>
       </c>
       <c r="M202" t="n">
-        <v>13500</v>
+        <v>13480</v>
       </c>
       <c r="N202" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O202" t="inlineStr">
@@ -14923,10 +14923,10 @@
         </is>
       </c>
       <c r="P202" t="n">
-        <v>270</v>
+        <v>337</v>
       </c>
       <c r="Q202" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="R202" t="inlineStr">
         <is>
@@ -14949,7 +14949,7 @@
         </is>
       </c>
       <c r="D203" s="2" t="n">
-        <v>44447</v>
+        <v>44427</v>
       </c>
       <c r="E203" t="n">
         <v>13</v>
@@ -14964,7 +14964,7 @@
       </c>
       <c r="H203" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Madrigal</t>
         </is>
       </c>
       <c r="I203" t="inlineStr">
@@ -14976,17 +14976,17 @@
         <v>25</v>
       </c>
       <c r="K203" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="L203" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="M203" t="n">
-        <v>14520</v>
+        <v>15480</v>
       </c>
       <c r="N203" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O203" t="inlineStr">
@@ -14995,10 +14995,10 @@
         </is>
       </c>
       <c r="P203" t="n">
-        <v>484</v>
+        <v>387</v>
       </c>
       <c r="Q203" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="R203" t="inlineStr">
         <is>
@@ -15021,7 +15021,7 @@
         </is>
       </c>
       <c r="D204" s="2" t="n">
-        <v>44447</v>
+        <v>44427</v>
       </c>
       <c r="E204" t="n">
         <v>13</v>
@@ -15036,7 +15036,7 @@
       </c>
       <c r="H204" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Madrigal</t>
         </is>
       </c>
       <c r="I204" t="inlineStr">
@@ -15051,14 +15051,14 @@
         <v>13000</v>
       </c>
       <c r="L204" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="M204" t="n">
-        <v>13000</v>
+        <v>13500</v>
       </c>
       <c r="N204" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O204" t="inlineStr">
@@ -15067,10 +15067,10 @@
         </is>
       </c>
       <c r="P204" t="n">
-        <v>325</v>
+        <v>270</v>
       </c>
       <c r="Q204" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="R204" t="inlineStr">
         <is>
@@ -15093,7 +15093,7 @@
         </is>
       </c>
       <c r="D205" s="2" t="n">
-        <v>44390</v>
+        <v>44447</v>
       </c>
       <c r="E205" t="n">
         <v>13</v>
@@ -15113,24 +15113,24 @@
       </c>
       <c r="I205" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J205" t="n">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="K205" t="n">
-        <v>19000</v>
+        <v>14000</v>
       </c>
       <c r="L205" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="M205" t="n">
-        <v>19500</v>
+        <v>14520</v>
       </c>
       <c r="N205" t="inlineStr">
         <is>
-          <t>$/caja 25 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O205" t="inlineStr">
@@ -15139,10 +15139,10 @@
         </is>
       </c>
       <c r="P205" t="n">
-        <v>19500</v>
+        <v>484</v>
       </c>
       <c r="Q205" t="n">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="R205" t="inlineStr">
         <is>
@@ -15165,7 +15165,7 @@
         </is>
       </c>
       <c r="D206" s="2" t="n">
-        <v>44390</v>
+        <v>44447</v>
       </c>
       <c r="E206" t="n">
         <v>13</v>
@@ -15185,24 +15185,24 @@
       </c>
       <c r="I206" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J206" t="n">
-        <v>43</v>
+        <v>16</v>
       </c>
       <c r="K206" t="n">
-        <v>16000</v>
+        <v>13000</v>
       </c>
       <c r="L206" t="n">
-        <v>18000</v>
+        <v>13000</v>
       </c>
       <c r="M206" t="n">
-        <v>17023</v>
+        <v>13000</v>
       </c>
       <c r="N206" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O206" t="inlineStr">
@@ -15211,10 +15211,10 @@
         </is>
       </c>
       <c r="P206" t="n">
-        <v>567</v>
+        <v>325</v>
       </c>
       <c r="Q206" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="R206" t="inlineStr">
         <is>
@@ -15257,24 +15257,24 @@
       </c>
       <c r="I207" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J207" t="n">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="K207" t="n">
-        <v>14000</v>
+        <v>19000</v>
       </c>
       <c r="L207" t="n">
-        <v>14000</v>
+        <v>20000</v>
       </c>
       <c r="M207" t="n">
-        <v>14000</v>
+        <v>19500</v>
       </c>
       <c r="N207" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 25 unidades</t>
         </is>
       </c>
       <c r="O207" t="inlineStr">
@@ -15283,10 +15283,10 @@
         </is>
       </c>
       <c r="P207" t="n">
-        <v>350</v>
+        <v>19500</v>
       </c>
       <c r="Q207" t="n">
-        <v>40</v>
+        <v>1</v>
       </c>
       <c r="R207" t="inlineStr">
         <is>
@@ -15309,7 +15309,7 @@
         </is>
       </c>
       <c r="D208" s="2" t="n">
-        <v>44386</v>
+        <v>44390</v>
       </c>
       <c r="E208" t="n">
         <v>13</v>
@@ -15329,36 +15329,36 @@
       </c>
       <c r="I208" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J208" t="n">
-        <v>16</v>
+        <v>43</v>
       </c>
       <c r="K208" t="n">
-        <v>20000</v>
+        <v>16000</v>
       </c>
       <c r="L208" t="n">
-        <v>20000</v>
+        <v>18000</v>
       </c>
       <c r="M208" t="n">
-        <v>20000</v>
+        <v>17023</v>
       </c>
       <c r="N208" t="inlineStr">
         <is>
-          <t>$/caja 25 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O208" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P208" t="n">
-        <v>20000</v>
+        <v>567</v>
       </c>
       <c r="Q208" t="n">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="R208" t="inlineStr">
         <is>
@@ -15381,7 +15381,7 @@
         </is>
       </c>
       <c r="D209" s="2" t="n">
-        <v>44386</v>
+        <v>44390</v>
       </c>
       <c r="E209" t="n">
         <v>13</v>
@@ -15401,36 +15401,36 @@
       </c>
       <c r="I209" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J209" t="n">
-        <v>61</v>
+        <v>25</v>
       </c>
       <c r="K209" t="n">
-        <v>17000</v>
+        <v>14000</v>
       </c>
       <c r="L209" t="n">
-        <v>18000</v>
+        <v>14000</v>
       </c>
       <c r="M209" t="n">
-        <v>17492</v>
+        <v>14000</v>
       </c>
       <c r="N209" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O209" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P209" t="n">
-        <v>583</v>
+        <v>350</v>
       </c>
       <c r="Q209" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="R209" t="inlineStr">
         <is>
@@ -15473,24 +15473,24 @@
       </c>
       <c r="I210" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J210" t="n">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="K210" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="L210" t="n">
-        <v>16000</v>
+        <v>20000</v>
       </c>
       <c r="M210" t="n">
-        <v>15500</v>
+        <v>20000</v>
       </c>
       <c r="N210" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 25 unidades</t>
         </is>
       </c>
       <c r="O210" t="inlineStr">
@@ -15499,10 +15499,10 @@
         </is>
       </c>
       <c r="P210" t="n">
-        <v>388</v>
+        <v>20000</v>
       </c>
       <c r="Q210" t="n">
-        <v>40</v>
+        <v>1</v>
       </c>
       <c r="R210" t="inlineStr">
         <is>
@@ -15540,29 +15540,29 @@
       </c>
       <c r="H211" t="inlineStr">
         <is>
-          <t>Madrigal</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I211" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J211" t="n">
-        <v>16</v>
+        <v>61</v>
       </c>
       <c r="K211" t="n">
-        <v>22000</v>
+        <v>17000</v>
       </c>
       <c r="L211" t="n">
-        <v>22000</v>
+        <v>18000</v>
       </c>
       <c r="M211" t="n">
-        <v>22000</v>
+        <v>17492</v>
       </c>
       <c r="N211" t="inlineStr">
         <is>
-          <t>$/caja 35 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O211" t="inlineStr">
@@ -15571,10 +15571,10 @@
         </is>
       </c>
       <c r="P211" t="n">
-        <v>629</v>
+        <v>583</v>
       </c>
       <c r="Q211" t="n">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="R211" t="inlineStr">
         <is>
@@ -15612,25 +15612,25 @@
       </c>
       <c r="H212" t="inlineStr">
         <is>
-          <t>Madrigal</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I212" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J212" t="n">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="K212" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="L212" t="n">
-        <v>21000</v>
+        <v>16000</v>
       </c>
       <c r="M212" t="n">
-        <v>20488</v>
+        <v>15500</v>
       </c>
       <c r="N212" t="inlineStr">
         <is>
@@ -15643,7 +15643,7 @@
         </is>
       </c>
       <c r="P212" t="n">
-        <v>512</v>
+        <v>388</v>
       </c>
       <c r="Q212" t="n">
         <v>40</v>
@@ -15689,24 +15689,24 @@
       </c>
       <c r="I213" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J213" t="n">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="K213" t="n">
-        <v>18000</v>
+        <v>22000</v>
       </c>
       <c r="L213" t="n">
-        <v>19000</v>
+        <v>22000</v>
       </c>
       <c r="M213" t="n">
-        <v>18480</v>
+        <v>22000</v>
       </c>
       <c r="N213" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 35 unidades</t>
         </is>
       </c>
       <c r="O213" t="inlineStr">
@@ -15715,10 +15715,10 @@
         </is>
       </c>
       <c r="P213" t="n">
-        <v>370</v>
+        <v>629</v>
       </c>
       <c r="Q213" t="n">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="R213" t="inlineStr">
         <is>
@@ -15741,7 +15741,7 @@
         </is>
       </c>
       <c r="D214" s="2" t="n">
-        <v>44308</v>
+        <v>44386</v>
       </c>
       <c r="E214" t="n">
         <v>13</v>
@@ -15756,41 +15756,41 @@
       </c>
       <c r="H214" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Madrigal</t>
         </is>
       </c>
       <c r="I214" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J214" t="n">
-        <v>16</v>
+        <v>43</v>
       </c>
       <c r="K214" t="n">
         <v>20000</v>
       </c>
       <c r="L214" t="n">
-        <v>20000</v>
+        <v>21000</v>
       </c>
       <c r="M214" t="n">
-        <v>20000</v>
+        <v>20488</v>
       </c>
       <c r="N214" t="inlineStr">
         <is>
-          <t>$/caja 25 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O214" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P214" t="n">
-        <v>20000</v>
+        <v>512</v>
       </c>
       <c r="Q214" t="n">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="R214" t="inlineStr">
         <is>
@@ -15813,7 +15813,7 @@
         </is>
       </c>
       <c r="D215" s="2" t="n">
-        <v>44308</v>
+        <v>44386</v>
       </c>
       <c r="E215" t="n">
         <v>13</v>
@@ -15828,41 +15828,41 @@
       </c>
       <c r="H215" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Madrigal</t>
         </is>
       </c>
       <c r="I215" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J215" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="K215" t="n">
         <v>18000</v>
       </c>
       <c r="L215" t="n">
-        <v>18000</v>
+        <v>19000</v>
       </c>
       <c r="M215" t="n">
-        <v>18000</v>
+        <v>18480</v>
       </c>
       <c r="N215" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O215" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P215" t="n">
-        <v>600</v>
+        <v>370</v>
       </c>
       <c r="Q215" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R215" t="inlineStr">
         <is>
@@ -15885,7 +15885,7 @@
         </is>
       </c>
       <c r="D216" s="2" t="n">
-        <v>44301</v>
+        <v>44308</v>
       </c>
       <c r="E216" t="n">
         <v>13</v>
@@ -15905,24 +15905,24 @@
       </c>
       <c r="I216" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J216" t="n">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="K216" t="n">
-        <v>17000</v>
+        <v>20000</v>
       </c>
       <c r="L216" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="M216" t="n">
-        <v>17500</v>
+        <v>20000</v>
       </c>
       <c r="N216" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 25 unidades</t>
         </is>
       </c>
       <c r="O216" t="inlineStr">
@@ -15931,10 +15931,10 @@
         </is>
       </c>
       <c r="P216" t="n">
-        <v>583</v>
+        <v>20000</v>
       </c>
       <c r="Q216" t="n">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="R216" t="inlineStr">
         <is>
@@ -15957,7 +15957,7 @@
         </is>
       </c>
       <c r="D217" s="2" t="n">
-        <v>44166</v>
+        <v>44308</v>
       </c>
       <c r="E217" t="n">
         <v>13</v>
@@ -15981,16 +15981,16 @@
         </is>
       </c>
       <c r="J217" t="n">
-        <v>250</v>
+        <v>30</v>
       </c>
       <c r="K217" t="n">
-        <v>11000</v>
+        <v>18000</v>
       </c>
       <c r="L217" t="n">
-        <v>11000</v>
+        <v>18000</v>
       </c>
       <c r="M217" t="n">
-        <v>11000</v>
+        <v>18000</v>
       </c>
       <c r="N217" t="inlineStr">
         <is>
@@ -15999,11 +15999,11 @@
       </c>
       <c r="O217" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P217" t="n">
-        <v>367</v>
+        <v>600</v>
       </c>
       <c r="Q217" t="n">
         <v>30</v>
@@ -16029,7 +16029,7 @@
         </is>
       </c>
       <c r="D218" s="2" t="n">
-        <v>44168</v>
+        <v>44301</v>
       </c>
       <c r="E218" t="n">
         <v>13</v>
@@ -16053,16 +16053,16 @@
         </is>
       </c>
       <c r="J218" t="n">
-        <v>230</v>
+        <v>30</v>
       </c>
       <c r="K218" t="n">
-        <v>11000</v>
+        <v>17000</v>
       </c>
       <c r="L218" t="n">
-        <v>11000</v>
+        <v>18000</v>
       </c>
       <c r="M218" t="n">
-        <v>11000</v>
+        <v>17500</v>
       </c>
       <c r="N218" t="inlineStr">
         <is>
@@ -16071,11 +16071,11 @@
       </c>
       <c r="O218" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P218" t="n">
-        <v>367</v>
+        <v>583</v>
       </c>
       <c r="Q218" t="n">
         <v>30</v>
@@ -16101,7 +16101,7 @@
         </is>
       </c>
       <c r="D219" s="2" t="n">
-        <v>44369</v>
+        <v>44166</v>
       </c>
       <c r="E219" t="n">
         <v>13</v>
@@ -16121,36 +16121,36 @@
       </c>
       <c r="I219" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J219" t="n">
-        <v>16</v>
+        <v>250</v>
       </c>
       <c r="K219" t="n">
-        <v>21000</v>
+        <v>11000</v>
       </c>
       <c r="L219" t="n">
-        <v>22000</v>
+        <v>11000</v>
       </c>
       <c r="M219" t="n">
-        <v>21500</v>
+        <v>11000</v>
       </c>
       <c r="N219" t="inlineStr">
         <is>
-          <t>$/caja 25 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O219" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P219" t="n">
-        <v>21500</v>
+        <v>367</v>
       </c>
       <c r="Q219" t="n">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="R219" t="inlineStr">
         <is>
@@ -16173,7 +16173,7 @@
         </is>
       </c>
       <c r="D220" s="2" t="n">
-        <v>44369</v>
+        <v>44168</v>
       </c>
       <c r="E220" t="n">
         <v>13</v>
@@ -16197,16 +16197,16 @@
         </is>
       </c>
       <c r="J220" t="n">
-        <v>34</v>
+        <v>230</v>
       </c>
       <c r="K220" t="n">
-        <v>19000</v>
+        <v>11000</v>
       </c>
       <c r="L220" t="n">
-        <v>20000</v>
+        <v>11000</v>
       </c>
       <c r="M220" t="n">
-        <v>19500</v>
+        <v>11000</v>
       </c>
       <c r="N220" t="inlineStr">
         <is>
@@ -16215,11 +16215,11 @@
       </c>
       <c r="O220" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P220" t="n">
-        <v>650</v>
+        <v>367</v>
       </c>
       <c r="Q220" t="n">
         <v>30</v>
@@ -16265,24 +16265,24 @@
       </c>
       <c r="I221" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J221" t="n">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="K221" t="n">
-        <v>17000</v>
+        <v>21000</v>
       </c>
       <c r="L221" t="n">
-        <v>17000</v>
+        <v>22000</v>
       </c>
       <c r="M221" t="n">
-        <v>17000</v>
+        <v>21500</v>
       </c>
       <c r="N221" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 25 unidades</t>
         </is>
       </c>
       <c r="O221" t="inlineStr">
@@ -16291,10 +16291,10 @@
         </is>
       </c>
       <c r="P221" t="n">
-        <v>425</v>
+        <v>21500</v>
       </c>
       <c r="Q221" t="n">
-        <v>40</v>
+        <v>1</v>
       </c>
       <c r="R221" t="inlineStr">
         <is>
@@ -16332,7 +16332,7 @@
       </c>
       <c r="H222" t="inlineStr">
         <is>
-          <t>Madrigal</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I222" t="inlineStr">
@@ -16341,32 +16341,32 @@
         </is>
       </c>
       <c r="J222" t="n">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="K222" t="n">
-        <v>16000</v>
+        <v>19000</v>
       </c>
       <c r="L222" t="n">
-        <v>17000</v>
+        <v>20000</v>
       </c>
       <c r="M222" t="n">
-        <v>16488</v>
+        <v>19500</v>
       </c>
       <c r="N222" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O222" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P222" t="n">
-        <v>412</v>
+        <v>650</v>
       </c>
       <c r="Q222" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="R222" t="inlineStr">
         <is>
@@ -16404,7 +16404,7 @@
       </c>
       <c r="H223" t="inlineStr">
         <is>
-          <t>Madrigal</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I223" t="inlineStr">
@@ -16416,29 +16416,29 @@
         <v>25</v>
       </c>
       <c r="K223" t="n">
-        <v>14000</v>
+        <v>17000</v>
       </c>
       <c r="L223" t="n">
-        <v>14000</v>
+        <v>17000</v>
       </c>
       <c r="M223" t="n">
-        <v>14000</v>
+        <v>17000</v>
       </c>
       <c r="N223" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O223" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P223" t="n">
-        <v>280</v>
+        <v>425</v>
       </c>
       <c r="Q223" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="R223" t="inlineStr">
         <is>
@@ -16461,7 +16461,7 @@
         </is>
       </c>
       <c r="D224" s="2" t="n">
-        <v>44433</v>
+        <v>44369</v>
       </c>
       <c r="E224" t="n">
         <v>13</v>
@@ -16476,41 +16476,41 @@
       </c>
       <c r="H224" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Madrigal</t>
         </is>
       </c>
       <c r="I224" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J224" t="n">
-        <v>16</v>
+        <v>43</v>
       </c>
       <c r="K224" t="n">
         <v>16000</v>
       </c>
       <c r="L224" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="M224" t="n">
-        <v>16000</v>
+        <v>16488</v>
       </c>
       <c r="N224" t="inlineStr">
         <is>
-          <t>$/caja 25 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O224" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P224" t="n">
-        <v>16000</v>
+        <v>412</v>
       </c>
       <c r="Q224" t="n">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="R224" t="inlineStr">
         <is>
@@ -16533,7 +16533,7 @@
         </is>
       </c>
       <c r="D225" s="2" t="n">
-        <v>44433</v>
+        <v>44369</v>
       </c>
       <c r="E225" t="n">
         <v>13</v>
@@ -16548,41 +16548,41 @@
       </c>
       <c r="H225" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Madrigal</t>
         </is>
       </c>
       <c r="I225" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J225" t="n">
-        <v>52</v>
+        <v>25</v>
       </c>
       <c r="K225" t="n">
         <v>14000</v>
       </c>
       <c r="L225" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="M225" t="n">
-        <v>14500</v>
+        <v>14000</v>
       </c>
       <c r="N225" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O225" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P225" t="n">
-        <v>483</v>
+        <v>280</v>
       </c>
       <c r="Q225" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R225" t="inlineStr">
         <is>
@@ -16625,24 +16625,24 @@
       </c>
       <c r="I226" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J226" t="n">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="K226" t="n">
-        <v>12000</v>
+        <v>16000</v>
       </c>
       <c r="L226" t="n">
-        <v>13000</v>
+        <v>16000</v>
       </c>
       <c r="M226" t="n">
-        <v>12500</v>
+        <v>16000</v>
       </c>
       <c r="N226" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 25 unidades</t>
         </is>
       </c>
       <c r="O226" t="inlineStr">
@@ -16651,10 +16651,10 @@
         </is>
       </c>
       <c r="P226" t="n">
-        <v>312</v>
+        <v>16000</v>
       </c>
       <c r="Q226" t="n">
-        <v>40</v>
+        <v>1</v>
       </c>
       <c r="R226" t="inlineStr">
         <is>
@@ -16677,7 +16677,7 @@
         </is>
       </c>
       <c r="D227" s="2" t="n">
-        <v>44371</v>
+        <v>44433</v>
       </c>
       <c r="E227" t="n">
         <v>13</v>
@@ -16697,36 +16697,36 @@
       </c>
       <c r="I227" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J227" t="n">
-        <v>18</v>
+        <v>52</v>
       </c>
       <c r="K227" t="n">
-        <v>20000</v>
+        <v>14000</v>
       </c>
       <c r="L227" t="n">
-        <v>21000</v>
+        <v>15000</v>
       </c>
       <c r="M227" t="n">
-        <v>20500</v>
+        <v>14500</v>
       </c>
       <c r="N227" t="inlineStr">
         <is>
-          <t>$/caja 25 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O227" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P227" t="n">
-        <v>20500</v>
+        <v>483</v>
       </c>
       <c r="Q227" t="n">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="R227" t="inlineStr">
         <is>
@@ -16749,7 +16749,7 @@
         </is>
       </c>
       <c r="D228" s="2" t="n">
-        <v>44371</v>
+        <v>44433</v>
       </c>
       <c r="E228" t="n">
         <v>13</v>
@@ -16769,36 +16769,36 @@
       </c>
       <c r="I228" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J228" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="K228" t="n">
-        <v>17000</v>
+        <v>12000</v>
       </c>
       <c r="L228" t="n">
-        <v>18000</v>
+        <v>13000</v>
       </c>
       <c r="M228" t="n">
-        <v>17500</v>
+        <v>12500</v>
       </c>
       <c r="N228" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O228" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P228" t="n">
-        <v>583</v>
+        <v>312</v>
       </c>
       <c r="Q228" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="R228" t="inlineStr">
         <is>
@@ -16841,24 +16841,24 @@
       </c>
       <c r="I229" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J229" t="n">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="K229" t="n">
-        <v>16000</v>
+        <v>20000</v>
       </c>
       <c r="L229" t="n">
-        <v>16000</v>
+        <v>21000</v>
       </c>
       <c r="M229" t="n">
-        <v>16000</v>
+        <v>20500</v>
       </c>
       <c r="N229" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 25 unidades</t>
         </is>
       </c>
       <c r="O229" t="inlineStr">
@@ -16867,10 +16867,10 @@
         </is>
       </c>
       <c r="P229" t="n">
-        <v>400</v>
+        <v>20500</v>
       </c>
       <c r="Q229" t="n">
-        <v>40</v>
+        <v>1</v>
       </c>
       <c r="R229" t="inlineStr">
         <is>
@@ -16893,7 +16893,7 @@
         </is>
       </c>
       <c r="D230" s="2" t="n">
-        <v>44316</v>
+        <v>44371</v>
       </c>
       <c r="E230" t="n">
         <v>13</v>
@@ -16908,7 +16908,7 @@
       </c>
       <c r="H230" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I230" t="inlineStr">
@@ -16917,20 +16917,20 @@
         </is>
       </c>
       <c r="J230" t="n">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="K230" t="n">
-        <v>18000</v>
+        <v>17000</v>
       </c>
       <c r="L230" t="n">
         <v>18000</v>
       </c>
       <c r="M230" t="n">
-        <v>18000</v>
+        <v>17500</v>
       </c>
       <c r="N230" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O230" t="inlineStr">
@@ -16939,10 +16939,10 @@
         </is>
       </c>
       <c r="P230" t="n">
-        <v>360</v>
+        <v>583</v>
       </c>
       <c r="Q230" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R230" t="inlineStr">
         <is>
@@ -16965,7 +16965,7 @@
         </is>
       </c>
       <c r="D231" s="2" t="n">
-        <v>44316</v>
+        <v>44371</v>
       </c>
       <c r="E231" t="n">
         <v>13</v>
@@ -16985,24 +16985,24 @@
       </c>
       <c r="I231" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J231" t="n">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="K231" t="n">
-        <v>18000</v>
+        <v>16000</v>
       </c>
       <c r="L231" t="n">
-        <v>18000</v>
+        <v>16000</v>
       </c>
       <c r="M231" t="n">
-        <v>18000</v>
+        <v>16000</v>
       </c>
       <c r="N231" t="inlineStr">
         <is>
-          <t>$/caja 25 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O231" t="inlineStr">
@@ -17011,10 +17011,10 @@
         </is>
       </c>
       <c r="P231" t="n">
-        <v>18000</v>
+        <v>400</v>
       </c>
       <c r="Q231" t="n">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="R231" t="inlineStr">
         <is>
@@ -17052,7 +17052,7 @@
       </c>
       <c r="H232" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I232" t="inlineStr">
@@ -17061,20 +17061,20 @@
         </is>
       </c>
       <c r="J232" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="K232" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="L232" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="M232" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="N232" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O232" t="inlineStr">
@@ -17083,10 +17083,10 @@
         </is>
       </c>
       <c r="P232" t="n">
-        <v>533</v>
+        <v>360</v>
       </c>
       <c r="Q232" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R232" t="inlineStr">
         <is>
@@ -17109,7 +17109,7 @@
         </is>
       </c>
       <c r="D233" s="2" t="n">
-        <v>44397</v>
+        <v>44316</v>
       </c>
       <c r="E233" t="n">
         <v>13</v>
@@ -17133,16 +17133,16 @@
         </is>
       </c>
       <c r="J233" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="K233" t="n">
-        <v>19000</v>
+        <v>18000</v>
       </c>
       <c r="L233" t="n">
-        <v>20000</v>
+        <v>18000</v>
       </c>
       <c r="M233" t="n">
-        <v>19500</v>
+        <v>18000</v>
       </c>
       <c r="N233" t="inlineStr">
         <is>
@@ -17155,7 +17155,7 @@
         </is>
       </c>
       <c r="P233" t="n">
-        <v>19500</v>
+        <v>18000</v>
       </c>
       <c r="Q233" t="n">
         <v>1</v>
@@ -17181,7 +17181,7 @@
         </is>
       </c>
       <c r="D234" s="2" t="n">
-        <v>44397</v>
+        <v>44316</v>
       </c>
       <c r="E234" t="n">
         <v>13</v>
@@ -17205,16 +17205,16 @@
         </is>
       </c>
       <c r="J234" t="n">
-        <v>43</v>
+        <v>23</v>
       </c>
       <c r="K234" t="n">
         <v>16000</v>
       </c>
       <c r="L234" t="n">
-        <v>17000</v>
+        <v>16000</v>
       </c>
       <c r="M234" t="n">
-        <v>16488</v>
+        <v>16000</v>
       </c>
       <c r="N234" t="inlineStr">
         <is>
@@ -17227,7 +17227,7 @@
         </is>
       </c>
       <c r="P234" t="n">
-        <v>550</v>
+        <v>533</v>
       </c>
       <c r="Q234" t="n">
         <v>30</v>
@@ -17273,24 +17273,24 @@
       </c>
       <c r="I235" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J235" t="n">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="K235" t="n">
-        <v>15000</v>
+        <v>19000</v>
       </c>
       <c r="L235" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="M235" t="n">
-        <v>15000</v>
+        <v>19500</v>
       </c>
       <c r="N235" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 25 unidades</t>
         </is>
       </c>
       <c r="O235" t="inlineStr">
@@ -17299,10 +17299,10 @@
         </is>
       </c>
       <c r="P235" t="n">
-        <v>375</v>
+        <v>19500</v>
       </c>
       <c r="Q235" t="n">
-        <v>40</v>
+        <v>1</v>
       </c>
       <c r="R235" t="inlineStr">
         <is>
@@ -17325,7 +17325,7 @@
         </is>
       </c>
       <c r="D236" s="2" t="n">
-        <v>44363</v>
+        <v>44397</v>
       </c>
       <c r="E236" t="n">
         <v>13</v>
@@ -17340,7 +17340,7 @@
       </c>
       <c r="H236" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I236" t="inlineStr">
@@ -17349,7 +17349,7 @@
         </is>
       </c>
       <c r="J236" t="n">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="K236" t="n">
         <v>16000</v>
@@ -17358,23 +17358,23 @@
         <v>17000</v>
       </c>
       <c r="M236" t="n">
-        <v>16500</v>
+        <v>16488</v>
       </c>
       <c r="N236" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O236" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P236" t="n">
-        <v>330</v>
+        <v>550</v>
       </c>
       <c r="Q236" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R236" t="inlineStr">
         <is>
@@ -17397,7 +17397,7 @@
         </is>
       </c>
       <c r="D237" s="2" t="n">
-        <v>44363</v>
+        <v>44397</v>
       </c>
       <c r="E237" t="n">
         <v>13</v>
@@ -17417,24 +17417,24 @@
       </c>
       <c r="I237" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J237" t="n">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="K237" t="n">
-        <v>17000</v>
+        <v>15000</v>
       </c>
       <c r="L237" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="M237" t="n">
-        <v>17500</v>
+        <v>15000</v>
       </c>
       <c r="N237" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O237" t="inlineStr">
@@ -17443,10 +17443,10 @@
         </is>
       </c>
       <c r="P237" t="n">
-        <v>583</v>
+        <v>375</v>
       </c>
       <c r="Q237" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="R237" t="inlineStr">
         <is>
@@ -17469,7 +17469,7 @@
         </is>
       </c>
       <c r="D238" s="2" t="n">
-        <v>44438</v>
+        <v>44363</v>
       </c>
       <c r="E238" t="n">
         <v>13</v>
@@ -17484,41 +17484,41 @@
       </c>
       <c r="H238" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I238" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J238" t="n">
-        <v>12</v>
+        <v>52</v>
       </c>
       <c r="K238" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="L238" t="n">
-        <v>15000</v>
+        <v>17000</v>
       </c>
       <c r="M238" t="n">
-        <v>15000</v>
+        <v>16500</v>
       </c>
       <c r="N238" t="inlineStr">
         <is>
-          <t>$/caja 25 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O238" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P238" t="n">
-        <v>15000</v>
+        <v>330</v>
       </c>
       <c r="Q238" t="n">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="R238" t="inlineStr">
         <is>
@@ -17541,7 +17541,7 @@
         </is>
       </c>
       <c r="D239" s="2" t="n">
-        <v>44438</v>
+        <v>44363</v>
       </c>
       <c r="E239" t="n">
         <v>13</v>
@@ -17568,13 +17568,13 @@
         <v>34</v>
       </c>
       <c r="K239" t="n">
-        <v>13000</v>
+        <v>17000</v>
       </c>
       <c r="L239" t="n">
-        <v>14000</v>
+        <v>18000</v>
       </c>
       <c r="M239" t="n">
-        <v>13500</v>
+        <v>17500</v>
       </c>
       <c r="N239" t="inlineStr">
         <is>
@@ -17587,7 +17587,7 @@
         </is>
       </c>
       <c r="P239" t="n">
-        <v>450</v>
+        <v>583</v>
       </c>
       <c r="Q239" t="n">
         <v>30</v>
@@ -17633,24 +17633,24 @@
       </c>
       <c r="I240" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J240" t="n">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="K240" t="n">
-        <v>11000</v>
+        <v>15000</v>
       </c>
       <c r="L240" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="M240" t="n">
-        <v>11480</v>
+        <v>15000</v>
       </c>
       <c r="N240" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 25 unidades</t>
         </is>
       </c>
       <c r="O240" t="inlineStr">
@@ -17659,10 +17659,10 @@
         </is>
       </c>
       <c r="P240" t="n">
-        <v>287</v>
+        <v>15000</v>
       </c>
       <c r="Q240" t="n">
-        <v>40</v>
+        <v>1</v>
       </c>
       <c r="R240" t="inlineStr">
         <is>
@@ -17685,7 +17685,7 @@
         </is>
       </c>
       <c r="D241" s="2" t="n">
-        <v>44372</v>
+        <v>44438</v>
       </c>
       <c r="E241" t="n">
         <v>13</v>
@@ -17700,41 +17700,41 @@
       </c>
       <c r="H241" t="inlineStr">
         <is>
-          <t>Madrigal</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I241" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J241" t="n">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="K241" t="n">
-        <v>20000</v>
+        <v>13000</v>
       </c>
       <c r="L241" t="n">
-        <v>20000</v>
+        <v>14000</v>
       </c>
       <c r="M241" t="n">
-        <v>20000</v>
+        <v>13500</v>
       </c>
       <c r="N241" t="inlineStr">
         <is>
-          <t>$/caja 35 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O241" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P241" t="n">
-        <v>571</v>
+        <v>450</v>
       </c>
       <c r="Q241" t="n">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="R241" t="inlineStr">
         <is>
@@ -17757,7 +17757,7 @@
         </is>
       </c>
       <c r="D242" s="2" t="n">
-        <v>44372</v>
+        <v>44438</v>
       </c>
       <c r="E242" t="n">
         <v>13</v>
@@ -17772,25 +17772,25 @@
       </c>
       <c r="H242" t="inlineStr">
         <is>
-          <t>Madrigal</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I242" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J242" t="n">
-        <v>52</v>
+        <v>25</v>
       </c>
       <c r="K242" t="n">
-        <v>17000</v>
+        <v>11000</v>
       </c>
       <c r="L242" t="n">
-        <v>18000</v>
+        <v>12000</v>
       </c>
       <c r="M242" t="n">
-        <v>17500</v>
+        <v>11480</v>
       </c>
       <c r="N242" t="inlineStr">
         <is>
@@ -17799,11 +17799,11 @@
       </c>
       <c r="O242" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P242" t="n">
-        <v>438</v>
+        <v>287</v>
       </c>
       <c r="Q242" t="n">
         <v>40</v>
@@ -17849,24 +17849,24 @@
       </c>
       <c r="I243" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J243" t="n">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="K243" t="n">
-        <v>16000</v>
+        <v>20000</v>
       </c>
       <c r="L243" t="n">
-        <v>16000</v>
+        <v>20000</v>
       </c>
       <c r="M243" t="n">
-        <v>16000</v>
+        <v>20000</v>
       </c>
       <c r="N243" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 35 unidades</t>
         </is>
       </c>
       <c r="O243" t="inlineStr">
@@ -17875,10 +17875,10 @@
         </is>
       </c>
       <c r="P243" t="n">
-        <v>320</v>
+        <v>571</v>
       </c>
       <c r="Q243" t="n">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="R243" t="inlineStr">
         <is>
@@ -17901,7 +17901,7 @@
         </is>
       </c>
       <c r="D244" s="2" t="n">
-        <v>44356</v>
+        <v>44372</v>
       </c>
       <c r="E244" t="n">
         <v>13</v>
@@ -17916,7 +17916,7 @@
       </c>
       <c r="H244" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Madrigal</t>
         </is>
       </c>
       <c r="I244" t="inlineStr">
@@ -17925,20 +17925,20 @@
         </is>
       </c>
       <c r="J244" t="n">
-        <v>21</v>
+        <v>52</v>
       </c>
       <c r="K244" t="n">
-        <v>15000</v>
+        <v>17000</v>
       </c>
       <c r="L244" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="M244" t="n">
-        <v>15476</v>
+        <v>17500</v>
       </c>
       <c r="N244" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O244" t="inlineStr">
@@ -17947,10 +17947,10 @@
         </is>
       </c>
       <c r="P244" t="n">
-        <v>310</v>
+        <v>438</v>
       </c>
       <c r="Q244" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="R244" t="inlineStr">
         <is>
@@ -17973,7 +17973,7 @@
         </is>
       </c>
       <c r="D245" s="2" t="n">
-        <v>44356</v>
+        <v>44372</v>
       </c>
       <c r="E245" t="n">
         <v>13</v>
@@ -17988,7 +17988,7 @@
       </c>
       <c r="H245" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Madrigal</t>
         </is>
       </c>
       <c r="I245" t="inlineStr">
@@ -17997,20 +17997,20 @@
         </is>
       </c>
       <c r="J245" t="n">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="K245" t="n">
-        <v>13000</v>
+        <v>16000</v>
       </c>
       <c r="L245" t="n">
-        <v>13000</v>
+        <v>16000</v>
       </c>
       <c r="M245" t="n">
-        <v>13000</v>
+        <v>16000</v>
       </c>
       <c r="N245" t="inlineStr">
         <is>
-          <t>$/caja 70 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O245" t="inlineStr">
@@ -18019,10 +18019,10 @@
         </is>
       </c>
       <c r="P245" t="n">
-        <v>186</v>
+        <v>320</v>
       </c>
       <c r="Q245" t="n">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="R245" t="inlineStr">
         <is>
@@ -18060,7 +18060,7 @@
       </c>
       <c r="H246" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I246" t="inlineStr">
@@ -18069,32 +18069,32 @@
         </is>
       </c>
       <c r="J246" t="n">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="K246" t="n">
-        <v>17000</v>
+        <v>15000</v>
       </c>
       <c r="L246" t="n">
-        <v>18000</v>
+        <v>16000</v>
       </c>
       <c r="M246" t="n">
-        <v>17520</v>
+        <v>15476</v>
       </c>
       <c r="N246" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O246" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P246" t="n">
-        <v>584</v>
+        <v>310</v>
       </c>
       <c r="Q246" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R246" t="inlineStr">
         <is>
@@ -18132,7 +18132,7 @@
       </c>
       <c r="H247" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I247" t="inlineStr">
@@ -18141,32 +18141,32 @@
         </is>
       </c>
       <c r="J247" t="n">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="K247" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="L247" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="M247" t="n">
-        <v>14500</v>
+        <v>13000</v>
       </c>
       <c r="N247" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 70 unidades</t>
         </is>
       </c>
       <c r="O247" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P247" t="n">
-        <v>483</v>
+        <v>186</v>
       </c>
       <c r="Q247" t="n">
-        <v>30</v>
+        <v>70</v>
       </c>
       <c r="R247" t="inlineStr">
         <is>
@@ -18189,7 +18189,7 @@
         </is>
       </c>
       <c r="D248" s="2" t="n">
-        <v>44351</v>
+        <v>44356</v>
       </c>
       <c r="E248" t="n">
         <v>13</v>
@@ -18204,7 +18204,7 @@
       </c>
       <c r="H248" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I248" t="inlineStr">
@@ -18213,20 +18213,20 @@
         </is>
       </c>
       <c r="J248" t="n">
-        <v>43</v>
+        <v>25</v>
       </c>
       <c r="K248" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="L248" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="M248" t="n">
-        <v>16512</v>
+        <v>17520</v>
       </c>
       <c r="N248" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O248" t="inlineStr">
@@ -18235,10 +18235,10 @@
         </is>
       </c>
       <c r="P248" t="n">
-        <v>330</v>
+        <v>584</v>
       </c>
       <c r="Q248" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R248" t="inlineStr">
         <is>
@@ -18261,7 +18261,7 @@
         </is>
       </c>
       <c r="D249" s="2" t="n">
-        <v>44351</v>
+        <v>44356</v>
       </c>
       <c r="E249" t="n">
         <v>13</v>
@@ -18276,7 +18276,7 @@
       </c>
       <c r="H249" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I249" t="inlineStr">
@@ -18285,20 +18285,20 @@
         </is>
       </c>
       <c r="J249" t="n">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="K249" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="L249" t="n">
         <v>15000</v>
       </c>
       <c r="M249" t="n">
-        <v>15000</v>
+        <v>14500</v>
       </c>
       <c r="N249" t="inlineStr">
         <is>
-          <t>$/caja 70 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O249" t="inlineStr">
@@ -18307,10 +18307,10 @@
         </is>
       </c>
       <c r="P249" t="n">
-        <v>214</v>
+        <v>483</v>
       </c>
       <c r="Q249" t="n">
-        <v>70</v>
+        <v>30</v>
       </c>
       <c r="R249" t="inlineStr">
         <is>
@@ -18348,41 +18348,41 @@
       </c>
       <c r="H250" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I250" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J250" t="n">
-        <v>16</v>
+        <v>43</v>
       </c>
       <c r="K250" t="n">
-        <v>20000</v>
+        <v>16000</v>
       </c>
       <c r="L250" t="n">
-        <v>20000</v>
+        <v>17000</v>
       </c>
       <c r="M250" t="n">
-        <v>20000</v>
+        <v>16512</v>
       </c>
       <c r="N250" t="inlineStr">
         <is>
-          <t>$/caja 25 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O250" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P250" t="n">
-        <v>20000</v>
+        <v>330</v>
       </c>
       <c r="Q250" t="n">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="R250" t="inlineStr">
         <is>
@@ -18420,41 +18420,41 @@
       </c>
       <c r="H251" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I251" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J251" t="n">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="K251" t="n">
-        <v>17000</v>
+        <v>15000</v>
       </c>
       <c r="L251" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="M251" t="n">
-        <v>17500</v>
+        <v>15000</v>
       </c>
       <c r="N251" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 70 unidades</t>
         </is>
       </c>
       <c r="O251" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P251" t="n">
-        <v>583</v>
+        <v>214</v>
       </c>
       <c r="Q251" t="n">
-        <v>30</v>
+        <v>70</v>
       </c>
       <c r="R251" t="inlineStr">
         <is>
@@ -18497,24 +18497,24 @@
       </c>
       <c r="I252" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J252" t="n">
         <v>16</v>
       </c>
       <c r="K252" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="L252" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="M252" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="N252" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 25 unidades</t>
         </is>
       </c>
       <c r="O252" t="inlineStr">
@@ -18523,10 +18523,10 @@
         </is>
       </c>
       <c r="P252" t="n">
-        <v>375</v>
+        <v>20000</v>
       </c>
       <c r="Q252" t="n">
-        <v>40</v>
+        <v>1</v>
       </c>
       <c r="R252" t="inlineStr">
         <is>
@@ -18549,7 +18549,7 @@
         </is>
       </c>
       <c r="D253" s="2" t="n">
-        <v>44365</v>
+        <v>44351</v>
       </c>
       <c r="E253" t="n">
         <v>13</v>
@@ -18564,7 +18564,7 @@
       </c>
       <c r="H253" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I253" t="inlineStr">
@@ -18576,17 +18576,17 @@
         <v>34</v>
       </c>
       <c r="K253" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="L253" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="M253" t="n">
-        <v>16500</v>
+        <v>17500</v>
       </c>
       <c r="N253" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O253" t="inlineStr">
@@ -18595,10 +18595,10 @@
         </is>
       </c>
       <c r="P253" t="n">
-        <v>330</v>
+        <v>583</v>
       </c>
       <c r="Q253" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R253" t="inlineStr">
         <is>
@@ -18621,7 +18621,7 @@
         </is>
       </c>
       <c r="D254" s="2" t="n">
-        <v>44365</v>
+        <v>44351</v>
       </c>
       <c r="E254" t="n">
         <v>13</v>
@@ -18636,7 +18636,7 @@
       </c>
       <c r="H254" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I254" t="inlineStr">
@@ -18658,7 +18658,7 @@
       </c>
       <c r="N254" t="inlineStr">
         <is>
-          <t>$/caja 70 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O254" t="inlineStr">
@@ -18667,10 +18667,10 @@
         </is>
       </c>
       <c r="P254" t="n">
-        <v>214</v>
+        <v>375</v>
       </c>
       <c r="Q254" t="n">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="R254" t="inlineStr">
         <is>
@@ -18708,7 +18708,7 @@
       </c>
       <c r="H255" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I255" t="inlineStr">
@@ -18717,20 +18717,20 @@
         </is>
       </c>
       <c r="J255" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="K255" t="n">
+        <v>16000</v>
+      </c>
+      <c r="L255" t="n">
         <v>17000</v>
       </c>
-      <c r="L255" t="n">
-        <v>18000</v>
-      </c>
       <c r="M255" t="n">
-        <v>17500</v>
+        <v>16500</v>
       </c>
       <c r="N255" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O255" t="inlineStr">
@@ -18739,10 +18739,10 @@
         </is>
       </c>
       <c r="P255" t="n">
-        <v>583</v>
+        <v>330</v>
       </c>
       <c r="Q255" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R255" t="inlineStr">
         <is>
@@ -18780,7 +18780,7 @@
       </c>
       <c r="H256" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I256" t="inlineStr">
@@ -18789,20 +18789,20 @@
         </is>
       </c>
       <c r="J256" t="n">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="K256" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="L256" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="M256" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="N256" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 70 unidades</t>
         </is>
       </c>
       <c r="O256" t="inlineStr">
@@ -18811,10 +18811,10 @@
         </is>
       </c>
       <c r="P256" t="n">
-        <v>400</v>
+        <v>214</v>
       </c>
       <c r="Q256" t="n">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="R256" t="inlineStr">
         <is>
@@ -18837,7 +18837,7 @@
         </is>
       </c>
       <c r="D257" s="2" t="n">
-        <v>44306</v>
+        <v>44365</v>
       </c>
       <c r="E257" t="n">
         <v>13</v>
@@ -18857,36 +18857,36 @@
       </c>
       <c r="I257" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J257" t="n">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="K257" t="n">
-        <v>20000</v>
+        <v>17000</v>
       </c>
       <c r="L257" t="n">
-        <v>20000</v>
+        <v>18000</v>
       </c>
       <c r="M257" t="n">
-        <v>20000</v>
+        <v>17500</v>
       </c>
       <c r="N257" t="inlineStr">
         <is>
-          <t>$/caja 25 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O257" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P257" t="n">
-        <v>20000</v>
+        <v>583</v>
       </c>
       <c r="Q257" t="n">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="R257" t="inlineStr">
         <is>
@@ -18909,7 +18909,7 @@
         </is>
       </c>
       <c r="D258" s="2" t="n">
-        <v>44306</v>
+        <v>44365</v>
       </c>
       <c r="E258" t="n">
         <v>13</v>
@@ -18929,36 +18929,36 @@
       </c>
       <c r="I258" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J258" t="n">
         <v>25</v>
       </c>
       <c r="K258" t="n">
-        <v>18000</v>
+        <v>16000</v>
       </c>
       <c r="L258" t="n">
-        <v>18000</v>
+        <v>16000</v>
       </c>
       <c r="M258" t="n">
-        <v>18000</v>
+        <v>16000</v>
       </c>
       <c r="N258" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O258" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P258" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="Q258" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="R258" t="inlineStr">
         <is>
@@ -18981,7 +18981,7 @@
         </is>
       </c>
       <c r="D259" s="2" t="n">
-        <v>44357</v>
+        <v>44306</v>
       </c>
       <c r="E259" t="n">
         <v>13</v>
@@ -18996,29 +18996,29 @@
       </c>
       <c r="H259" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I259" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J259" t="n">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="K259" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="L259" t="n">
-        <v>16000</v>
+        <v>20000</v>
       </c>
       <c r="M259" t="n">
-        <v>15500</v>
+        <v>20000</v>
       </c>
       <c r="N259" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 25 unidades</t>
         </is>
       </c>
       <c r="O259" t="inlineStr">
@@ -19027,10 +19027,10 @@
         </is>
       </c>
       <c r="P259" t="n">
-        <v>310</v>
+        <v>20000</v>
       </c>
       <c r="Q259" t="n">
-        <v>50</v>
+        <v>1</v>
       </c>
       <c r="R259" t="inlineStr">
         <is>
@@ -19053,7 +19053,7 @@
         </is>
       </c>
       <c r="D260" s="2" t="n">
-        <v>44357</v>
+        <v>44306</v>
       </c>
       <c r="E260" t="n">
         <v>13</v>
@@ -19068,29 +19068,29 @@
       </c>
       <c r="H260" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I260" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J260" t="n">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="K260" t="n">
-        <v>13000</v>
+        <v>18000</v>
       </c>
       <c r="L260" t="n">
-        <v>13000</v>
+        <v>18000</v>
       </c>
       <c r="M260" t="n">
-        <v>13000</v>
+        <v>18000</v>
       </c>
       <c r="N260" t="inlineStr">
         <is>
-          <t>$/caja 70 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O260" t="inlineStr">
@@ -19099,10 +19099,10 @@
         </is>
       </c>
       <c r="P260" t="n">
-        <v>186</v>
+        <v>600</v>
       </c>
       <c r="Q260" t="n">
-        <v>70</v>
+        <v>30</v>
       </c>
       <c r="R260" t="inlineStr">
         <is>
@@ -19140,41 +19140,41 @@
       </c>
       <c r="H261" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I261" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J261" t="n">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="K261" t="n">
-        <v>19000</v>
+        <v>15000</v>
       </c>
       <c r="L261" t="n">
-        <v>20000</v>
+        <v>16000</v>
       </c>
       <c r="M261" t="n">
-        <v>19500</v>
+        <v>15500</v>
       </c>
       <c r="N261" t="inlineStr">
         <is>
-          <t>$/caja 25 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O261" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P261" t="n">
-        <v>19500</v>
+        <v>310</v>
       </c>
       <c r="Q261" t="n">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="R261" t="inlineStr">
         <is>
@@ -19212,41 +19212,41 @@
       </c>
       <c r="H262" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I262" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J262" t="n">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="K262" t="n">
-        <v>17000</v>
+        <v>13000</v>
       </c>
       <c r="L262" t="n">
-        <v>18000</v>
+        <v>13000</v>
       </c>
       <c r="M262" t="n">
-        <v>17500</v>
+        <v>13000</v>
       </c>
       <c r="N262" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 70 unidades</t>
         </is>
       </c>
       <c r="O262" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P262" t="n">
-        <v>583</v>
+        <v>186</v>
       </c>
       <c r="Q262" t="n">
-        <v>30</v>
+        <v>70</v>
       </c>
       <c r="R262" t="inlineStr">
         <is>
@@ -19289,24 +19289,24 @@
       </c>
       <c r="I263" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J263" t="n">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="K263" t="n">
-        <v>15000</v>
+        <v>19000</v>
       </c>
       <c r="L263" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="M263" t="n">
-        <v>15000</v>
+        <v>19500</v>
       </c>
       <c r="N263" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 25 unidades</t>
         </is>
       </c>
       <c r="O263" t="inlineStr">
@@ -19315,10 +19315,10 @@
         </is>
       </c>
       <c r="P263" t="n">
-        <v>375</v>
+        <v>19500</v>
       </c>
       <c r="Q263" t="n">
-        <v>40</v>
+        <v>1</v>
       </c>
       <c r="R263" t="inlineStr">
         <is>
@@ -19341,7 +19341,7 @@
         </is>
       </c>
       <c r="D264" s="2" t="n">
-        <v>44162</v>
+        <v>44357</v>
       </c>
       <c r="E264" t="n">
         <v>13</v>
@@ -19365,16 +19365,16 @@
         </is>
       </c>
       <c r="J264" t="n">
-        <v>300</v>
+        <v>34</v>
       </c>
       <c r="K264" t="n">
-        <v>9000</v>
+        <v>17000</v>
       </c>
       <c r="L264" t="n">
-        <v>9000</v>
+        <v>18000</v>
       </c>
       <c r="M264" t="n">
-        <v>9000</v>
+        <v>17500</v>
       </c>
       <c r="N264" t="inlineStr">
         <is>
@@ -19383,11 +19383,11 @@
       </c>
       <c r="O264" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P264" t="n">
-        <v>300</v>
+        <v>583</v>
       </c>
       <c r="Q264" t="n">
         <v>30</v>
@@ -19413,7 +19413,7 @@
         </is>
       </c>
       <c r="D265" s="2" t="n">
-        <v>44411</v>
+        <v>44357</v>
       </c>
       <c r="E265" t="n">
         <v>13</v>
@@ -19433,36 +19433,36 @@
       </c>
       <c r="I265" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J265" t="n">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="K265" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="L265" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="M265" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="N265" t="inlineStr">
         <is>
-          <t>$/caja 25 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O265" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P265" t="n">
-        <v>16000</v>
+        <v>375</v>
       </c>
       <c r="Q265" t="n">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="R265" t="inlineStr">
         <is>
@@ -19485,7 +19485,7 @@
         </is>
       </c>
       <c r="D266" s="2" t="n">
-        <v>44411</v>
+        <v>44162</v>
       </c>
       <c r="E266" t="n">
         <v>13</v>
@@ -19509,16 +19509,16 @@
         </is>
       </c>
       <c r="J266" t="n">
-        <v>61</v>
+        <v>300</v>
       </c>
       <c r="K266" t="n">
-        <v>14000</v>
+        <v>9000</v>
       </c>
       <c r="L266" t="n">
-        <v>15000</v>
+        <v>9000</v>
       </c>
       <c r="M266" t="n">
-        <v>14492</v>
+        <v>9000</v>
       </c>
       <c r="N266" t="inlineStr">
         <is>
@@ -19527,11 +19527,11 @@
       </c>
       <c r="O266" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P266" t="n">
-        <v>483</v>
+        <v>300</v>
       </c>
       <c r="Q266" t="n">
         <v>30</v>
@@ -19577,24 +19577,24 @@
       </c>
       <c r="I267" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J267" t="n">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="K267" t="n">
-        <v>12000</v>
+        <v>16000</v>
       </c>
       <c r="L267" t="n">
-        <v>12000</v>
+        <v>16000</v>
       </c>
       <c r="M267" t="n">
-        <v>12000</v>
+        <v>16000</v>
       </c>
       <c r="N267" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 25 unidades</t>
         </is>
       </c>
       <c r="O267" t="inlineStr">
@@ -19603,10 +19603,10 @@
         </is>
       </c>
       <c r="P267" t="n">
-        <v>300</v>
+        <v>16000</v>
       </c>
       <c r="Q267" t="n">
-        <v>40</v>
+        <v>1</v>
       </c>
       <c r="R267" t="inlineStr">
         <is>
@@ -19629,7 +19629,7 @@
         </is>
       </c>
       <c r="D268" s="2" t="n">
-        <v>44376</v>
+        <v>44411</v>
       </c>
       <c r="E268" t="n">
         <v>13</v>
@@ -19649,36 +19649,36 @@
       </c>
       <c r="I268" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J268" t="n">
-        <v>16</v>
+        <v>61</v>
       </c>
       <c r="K268" t="n">
-        <v>21000</v>
+        <v>14000</v>
       </c>
       <c r="L268" t="n">
-        <v>22000</v>
+        <v>15000</v>
       </c>
       <c r="M268" t="n">
-        <v>21500</v>
+        <v>14492</v>
       </c>
       <c r="N268" t="inlineStr">
         <is>
-          <t>$/caja 25 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O268" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P268" t="n">
-        <v>21500</v>
+        <v>483</v>
       </c>
       <c r="Q268" t="n">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="R268" t="inlineStr">
         <is>
@@ -19701,7 +19701,7 @@
         </is>
       </c>
       <c r="D269" s="2" t="n">
-        <v>44376</v>
+        <v>44411</v>
       </c>
       <c r="E269" t="n">
         <v>13</v>
@@ -19721,36 +19721,36 @@
       </c>
       <c r="I269" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J269" t="n">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="K269" t="n">
-        <v>19000</v>
+        <v>12000</v>
       </c>
       <c r="L269" t="n">
-        <v>20000</v>
+        <v>12000</v>
       </c>
       <c r="M269" t="n">
-        <v>19500</v>
+        <v>12000</v>
       </c>
       <c r="N269" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O269" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P269" t="n">
-        <v>650</v>
+        <v>300</v>
       </c>
       <c r="Q269" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="R269" t="inlineStr">
         <is>
@@ -19793,24 +19793,24 @@
       </c>
       <c r="I270" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J270" t="n">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="K270" t="n">
-        <v>16000</v>
+        <v>21000</v>
       </c>
       <c r="L270" t="n">
-        <v>17000</v>
+        <v>22000</v>
       </c>
       <c r="M270" t="n">
-        <v>16480</v>
+        <v>21500</v>
       </c>
       <c r="N270" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 25 unidades</t>
         </is>
       </c>
       <c r="O270" t="inlineStr">
@@ -19819,10 +19819,10 @@
         </is>
       </c>
       <c r="P270" t="n">
-        <v>412</v>
+        <v>21500</v>
       </c>
       <c r="Q270" t="n">
-        <v>40</v>
+        <v>1</v>
       </c>
       <c r="R270" t="inlineStr">
         <is>
@@ -19845,7 +19845,7 @@
         </is>
       </c>
       <c r="D271" s="2" t="n">
-        <v>44292</v>
+        <v>44376</v>
       </c>
       <c r="E271" t="n">
         <v>13</v>
@@ -19869,16 +19869,16 @@
         </is>
       </c>
       <c r="J271" t="n">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="K271" t="n">
-        <v>18000</v>
+        <v>19000</v>
       </c>
       <c r="L271" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="M271" t="n">
-        <v>18000</v>
+        <v>19500</v>
       </c>
       <c r="N271" t="inlineStr">
         <is>
@@ -19887,11 +19887,11 @@
       </c>
       <c r="O271" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P271" t="n">
-        <v>600</v>
+        <v>650</v>
       </c>
       <c r="Q271" t="n">
         <v>30</v>
@@ -19917,7 +19917,7 @@
         </is>
       </c>
       <c r="D272" s="2" t="n">
-        <v>44358</v>
+        <v>44376</v>
       </c>
       <c r="E272" t="n">
         <v>13</v>
@@ -19932,29 +19932,29 @@
       </c>
       <c r="H272" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I272" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J272" t="n">
-        <v>52</v>
+        <v>25</v>
       </c>
       <c r="K272" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="L272" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="M272" t="n">
-        <v>15500</v>
+        <v>16480</v>
       </c>
       <c r="N272" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O272" t="inlineStr">
@@ -19963,10 +19963,10 @@
         </is>
       </c>
       <c r="P272" t="n">
-        <v>310</v>
+        <v>412</v>
       </c>
       <c r="Q272" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="R272" t="inlineStr">
         <is>
@@ -19989,7 +19989,7 @@
         </is>
       </c>
       <c r="D273" s="2" t="n">
-        <v>44358</v>
+        <v>44292</v>
       </c>
       <c r="E273" t="n">
         <v>13</v>
@@ -20004,41 +20004,41 @@
       </c>
       <c r="H273" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I273" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J273" t="n">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="K273" t="n">
-        <v>14000</v>
+        <v>18000</v>
       </c>
       <c r="L273" t="n">
-        <v>14000</v>
+        <v>18000</v>
       </c>
       <c r="M273" t="n">
-        <v>14000</v>
+        <v>18000</v>
       </c>
       <c r="N273" t="inlineStr">
         <is>
-          <t>$/caja 70 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O273" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P273" t="n">
-        <v>200</v>
+        <v>600</v>
       </c>
       <c r="Q273" t="n">
-        <v>70</v>
+        <v>30</v>
       </c>
       <c r="R273" t="inlineStr">
         <is>
@@ -20076,41 +20076,41 @@
       </c>
       <c r="H274" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I274" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J274" t="n">
-        <v>16</v>
+        <v>52</v>
       </c>
       <c r="K274" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="L274" t="n">
-        <v>19000</v>
+        <v>16000</v>
       </c>
       <c r="M274" t="n">
-        <v>18500</v>
+        <v>15500</v>
       </c>
       <c r="N274" t="inlineStr">
         <is>
-          <t>$/caja 25 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O274" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P274" t="n">
-        <v>18500</v>
+        <v>310</v>
       </c>
       <c r="Q274" t="n">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="R274" t="inlineStr">
         <is>
@@ -20148,41 +20148,41 @@
       </c>
       <c r="H275" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I275" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J275" t="n">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="K275" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="L275" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="M275" t="n">
-        <v>15488</v>
+        <v>14000</v>
       </c>
       <c r="N275" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 70 unidades</t>
         </is>
       </c>
       <c r="O275" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P275" t="n">
-        <v>516</v>
+        <v>200</v>
       </c>
       <c r="Q275" t="n">
-        <v>30</v>
+        <v>70</v>
       </c>
       <c r="R275" t="inlineStr">
         <is>
@@ -20225,24 +20225,24 @@
       </c>
       <c r="I276" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J276" t="n">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="K276" t="n">
-        <v>14000</v>
+        <v>18000</v>
       </c>
       <c r="L276" t="n">
-        <v>14000</v>
+        <v>19000</v>
       </c>
       <c r="M276" t="n">
-        <v>14000</v>
+        <v>18500</v>
       </c>
       <c r="N276" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 25 unidades</t>
         </is>
       </c>
       <c r="O276" t="inlineStr">
@@ -20251,10 +20251,10 @@
         </is>
       </c>
       <c r="P276" t="n">
-        <v>350</v>
+        <v>18500</v>
       </c>
       <c r="Q276" t="n">
-        <v>40</v>
+        <v>1</v>
       </c>
       <c r="R276" t="inlineStr">
         <is>
@@ -20277,7 +20277,7 @@
         </is>
       </c>
       <c r="D277" s="2" t="n">
-        <v>44425</v>
+        <v>44358</v>
       </c>
       <c r="E277" t="n">
         <v>13</v>
@@ -20297,24 +20297,24 @@
       </c>
       <c r="I277" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J277" t="n">
-        <v>25</v>
+        <v>43</v>
       </c>
       <c r="K277" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="L277" t="n">
         <v>16000</v>
       </c>
       <c r="M277" t="n">
-        <v>16000</v>
+        <v>15488</v>
       </c>
       <c r="N277" t="inlineStr">
         <is>
-          <t>$/caja 25 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O277" t="inlineStr">
@@ -20323,10 +20323,10 @@
         </is>
       </c>
       <c r="P277" t="n">
-        <v>16000</v>
+        <v>516</v>
       </c>
       <c r="Q277" t="n">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="R277" t="inlineStr">
         <is>
@@ -20349,7 +20349,7 @@
         </is>
       </c>
       <c r="D278" s="2" t="n">
-        <v>44425</v>
+        <v>44358</v>
       </c>
       <c r="E278" t="n">
         <v>13</v>
@@ -20369,24 +20369,24 @@
       </c>
       <c r="I278" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J278" t="n">
-        <v>61</v>
+        <v>25</v>
       </c>
       <c r="K278" t="n">
         <v>14000</v>
       </c>
       <c r="L278" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="M278" t="n">
-        <v>14508</v>
+        <v>14000</v>
       </c>
       <c r="N278" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O278" t="inlineStr">
@@ -20395,10 +20395,10 @@
         </is>
       </c>
       <c r="P278" t="n">
-        <v>484</v>
+        <v>350</v>
       </c>
       <c r="Q278" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="R278" t="inlineStr">
         <is>
@@ -20441,24 +20441,24 @@
       </c>
       <c r="I279" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J279" t="n">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="K279" t="n">
-        <v>12000</v>
+        <v>16000</v>
       </c>
       <c r="L279" t="n">
-        <v>13000</v>
+        <v>16000</v>
       </c>
       <c r="M279" t="n">
-        <v>12500</v>
+        <v>16000</v>
       </c>
       <c r="N279" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 25 unidades</t>
         </is>
       </c>
       <c r="O279" t="inlineStr">
@@ -20467,10 +20467,10 @@
         </is>
       </c>
       <c r="P279" t="n">
-        <v>312</v>
+        <v>16000</v>
       </c>
       <c r="Q279" t="n">
-        <v>40</v>
+        <v>1</v>
       </c>
       <c r="R279" t="inlineStr">
         <is>
@@ -20508,7 +20508,7 @@
       </c>
       <c r="H280" t="inlineStr">
         <is>
-          <t>Madrigal</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I280" t="inlineStr">
@@ -20517,7 +20517,7 @@
         </is>
       </c>
       <c r="J280" t="n">
-        <v>43</v>
+        <v>61</v>
       </c>
       <c r="K280" t="n">
         <v>14000</v>
@@ -20526,11 +20526,11 @@
         <v>15000</v>
       </c>
       <c r="M280" t="n">
-        <v>14512</v>
+        <v>14508</v>
       </c>
       <c r="N280" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O280" t="inlineStr">
@@ -20539,10 +20539,10 @@
         </is>
       </c>
       <c r="P280" t="n">
-        <v>363</v>
+        <v>484</v>
       </c>
       <c r="Q280" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="R280" t="inlineStr">
         <is>
@@ -20580,7 +20580,7 @@
       </c>
       <c r="H281" t="inlineStr">
         <is>
-          <t>Madrigal</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I281" t="inlineStr">
@@ -20589,7 +20589,7 @@
         </is>
       </c>
       <c r="J281" t="n">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="K281" t="n">
         <v>12000</v>
@@ -20598,11 +20598,11 @@
         <v>13000</v>
       </c>
       <c r="M281" t="n">
-        <v>12480</v>
+        <v>12500</v>
       </c>
       <c r="N281" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O281" t="inlineStr">
@@ -20611,10 +20611,10 @@
         </is>
       </c>
       <c r="P281" t="n">
-        <v>250</v>
+        <v>312</v>
       </c>
       <c r="Q281" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="R281" t="inlineStr">
         <is>
@@ -20637,7 +20637,7 @@
         </is>
       </c>
       <c r="D282" s="2" t="n">
-        <v>44323</v>
+        <v>44425</v>
       </c>
       <c r="E282" t="n">
         <v>13</v>
@@ -20652,7 +20652,7 @@
       </c>
       <c r="H282" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Madrigal</t>
         </is>
       </c>
       <c r="I282" t="inlineStr">
@@ -20661,20 +20661,20 @@
         </is>
       </c>
       <c r="J282" t="n">
-        <v>16</v>
+        <v>43</v>
       </c>
       <c r="K282" t="n">
-        <v>18000</v>
+        <v>14000</v>
       </c>
       <c r="L282" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="M282" t="n">
-        <v>18000</v>
+        <v>14512</v>
       </c>
       <c r="N282" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O282" t="inlineStr">
@@ -20683,10 +20683,10 @@
         </is>
       </c>
       <c r="P282" t="n">
-        <v>360</v>
+        <v>363</v>
       </c>
       <c r="Q282" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="R282" t="inlineStr">
         <is>
@@ -20709,7 +20709,7 @@
         </is>
       </c>
       <c r="D283" s="2" t="n">
-        <v>44323</v>
+        <v>44425</v>
       </c>
       <c r="E283" t="n">
         <v>13</v>
@@ -20724,29 +20724,29 @@
       </c>
       <c r="H283" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Madrigal</t>
         </is>
       </c>
       <c r="I283" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J283" t="n">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="K283" t="n">
-        <v>18000</v>
+        <v>12000</v>
       </c>
       <c r="L283" t="n">
-        <v>18000</v>
+        <v>13000</v>
       </c>
       <c r="M283" t="n">
-        <v>18000</v>
+        <v>12480</v>
       </c>
       <c r="N283" t="inlineStr">
         <is>
-          <t>$/caja 25 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O283" t="inlineStr">
@@ -20755,10 +20755,10 @@
         </is>
       </c>
       <c r="P283" t="n">
-        <v>18000</v>
+        <v>250</v>
       </c>
       <c r="Q283" t="n">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="R283" t="inlineStr">
         <is>
@@ -20796,7 +20796,7 @@
       </c>
       <c r="H284" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I284" t="inlineStr">
@@ -20805,34 +20805,178 @@
         </is>
       </c>
       <c r="J284" t="n">
+        <v>16</v>
+      </c>
+      <c r="K284" t="n">
+        <v>18000</v>
+      </c>
+      <c r="L284" t="n">
+        <v>18000</v>
+      </c>
+      <c r="M284" t="n">
+        <v>18000</v>
+      </c>
+      <c r="N284" t="inlineStr">
+        <is>
+          <t>$/caja 50 unidades</t>
+        </is>
+      </c>
+      <c r="O284" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P284" t="n">
+        <v>360</v>
+      </c>
+      <c r="Q284" t="n">
+        <v>50</v>
+      </c>
+      <c r="R284" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" t="n">
+        <v>9</v>
+      </c>
+      <c r="B285" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C285" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D285" s="2" t="n">
+        <v>44323</v>
+      </c>
+      <c r="E285" t="n">
+        <v>13</v>
+      </c>
+      <c r="F285" t="n">
+        <v>100112013</v>
+      </c>
+      <c r="G285" t="inlineStr">
+        <is>
+          <t>Alcachofa</t>
+        </is>
+      </c>
+      <c r="H285" t="inlineStr">
+        <is>
+          <t>Española</t>
+        </is>
+      </c>
+      <c r="I285" t="inlineStr">
+        <is>
+          <t>Extra</t>
+        </is>
+      </c>
+      <c r="J285" t="n">
+        <v>16</v>
+      </c>
+      <c r="K285" t="n">
+        <v>18000</v>
+      </c>
+      <c r="L285" t="n">
+        <v>18000</v>
+      </c>
+      <c r="M285" t="n">
+        <v>18000</v>
+      </c>
+      <c r="N285" t="inlineStr">
+        <is>
+          <t>$/caja 25 unidades</t>
+        </is>
+      </c>
+      <c r="O285" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P285" t="n">
+        <v>18000</v>
+      </c>
+      <c r="Q285" t="n">
+        <v>1</v>
+      </c>
+      <c r="R285" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" t="n">
+        <v>9</v>
+      </c>
+      <c r="B286" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C286" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D286" s="2" t="n">
+        <v>44323</v>
+      </c>
+      <c r="E286" t="n">
+        <v>13</v>
+      </c>
+      <c r="F286" t="n">
+        <v>100112013</v>
+      </c>
+      <c r="G286" t="inlineStr">
+        <is>
+          <t>Alcachofa</t>
+        </is>
+      </c>
+      <c r="H286" t="inlineStr">
+        <is>
+          <t>Española</t>
+        </is>
+      </c>
+      <c r="I286" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J286" t="n">
         <v>25</v>
       </c>
-      <c r="K284" t="n">
+      <c r="K286" t="n">
         <v>16000</v>
       </c>
-      <c r="L284" t="n">
+      <c r="L286" t="n">
         <v>16000</v>
       </c>
-      <c r="M284" t="n">
+      <c r="M286" t="n">
         <v>16000</v>
       </c>
-      <c r="N284" t="inlineStr">
+      <c r="N286" t="inlineStr">
         <is>
           <t>$/caja 30 unidades</t>
         </is>
       </c>
-      <c r="O284" t="inlineStr">
+      <c r="O286" t="inlineStr">
         <is>
           <t>Provincia de Limarí</t>
         </is>
       </c>
-      <c r="P284" t="n">
+      <c r="P286" t="n">
         <v>533</v>
       </c>
-      <c r="Q284" t="n">
+      <c r="Q286" t="n">
         <v>30</v>
       </c>
-      <c r="R284" t="inlineStr">
+      <c r="R286" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Central Mapocho de Santiago - Alcachofa.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Central Mapocho de Santiago - Alcachofa.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R286"/>
+  <dimension ref="A1:R288"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -19125,7 +19125,7 @@
         </is>
       </c>
       <c r="D261" s="2" t="n">
-        <v>44357</v>
+        <v>44461</v>
       </c>
       <c r="E261" t="n">
         <v>13</v>
@@ -19140,7 +19140,7 @@
       </c>
       <c r="H261" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I261" t="inlineStr">
@@ -19149,20 +19149,20 @@
         </is>
       </c>
       <c r="J261" t="n">
-        <v>34</v>
+        <v>52</v>
       </c>
       <c r="K261" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="L261" t="n">
-        <v>16000</v>
+        <v>13000</v>
       </c>
       <c r="M261" t="n">
-        <v>15500</v>
+        <v>12500</v>
       </c>
       <c r="N261" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O261" t="inlineStr">
@@ -19171,10 +19171,10 @@
         </is>
       </c>
       <c r="P261" t="n">
-        <v>310</v>
+        <v>417</v>
       </c>
       <c r="Q261" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R261" t="inlineStr">
         <is>
@@ -19197,7 +19197,7 @@
         </is>
       </c>
       <c r="D262" s="2" t="n">
-        <v>44357</v>
+        <v>44461</v>
       </c>
       <c r="E262" t="n">
         <v>13</v>
@@ -19212,7 +19212,7 @@
       </c>
       <c r="H262" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I262" t="inlineStr">
@@ -19221,20 +19221,20 @@
         </is>
       </c>
       <c r="J262" t="n">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="K262" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="L262" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="M262" t="n">
-        <v>13000</v>
+        <v>10480</v>
       </c>
       <c r="N262" t="inlineStr">
         <is>
-          <t>$/caja 70 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O262" t="inlineStr">
@@ -19243,10 +19243,10 @@
         </is>
       </c>
       <c r="P262" t="n">
-        <v>186</v>
+        <v>262</v>
       </c>
       <c r="Q262" t="n">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="R262" t="inlineStr">
         <is>
@@ -19284,41 +19284,41 @@
       </c>
       <c r="H263" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I263" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J263" t="n">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="K263" t="n">
-        <v>19000</v>
+        <v>15000</v>
       </c>
       <c r="L263" t="n">
-        <v>20000</v>
+        <v>16000</v>
       </c>
       <c r="M263" t="n">
-        <v>19500</v>
+        <v>15500</v>
       </c>
       <c r="N263" t="inlineStr">
         <is>
-          <t>$/caja 25 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O263" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P263" t="n">
-        <v>19500</v>
+        <v>310</v>
       </c>
       <c r="Q263" t="n">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="R263" t="inlineStr">
         <is>
@@ -19356,41 +19356,41 @@
       </c>
       <c r="H264" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I264" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J264" t="n">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="K264" t="n">
-        <v>17000</v>
+        <v>13000</v>
       </c>
       <c r="L264" t="n">
-        <v>18000</v>
+        <v>13000</v>
       </c>
       <c r="M264" t="n">
-        <v>17500</v>
+        <v>13000</v>
       </c>
       <c r="N264" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 70 unidades</t>
         </is>
       </c>
       <c r="O264" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P264" t="n">
-        <v>583</v>
+        <v>186</v>
       </c>
       <c r="Q264" t="n">
-        <v>30</v>
+        <v>70</v>
       </c>
       <c r="R264" t="inlineStr">
         <is>
@@ -19433,24 +19433,24 @@
       </c>
       <c r="I265" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J265" t="n">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="K265" t="n">
-        <v>15000</v>
+        <v>19000</v>
       </c>
       <c r="L265" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="M265" t="n">
-        <v>15000</v>
+        <v>19500</v>
       </c>
       <c r="N265" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 25 unidades</t>
         </is>
       </c>
       <c r="O265" t="inlineStr">
@@ -19459,10 +19459,10 @@
         </is>
       </c>
       <c r="P265" t="n">
-        <v>375</v>
+        <v>19500</v>
       </c>
       <c r="Q265" t="n">
-        <v>40</v>
+        <v>1</v>
       </c>
       <c r="R265" t="inlineStr">
         <is>
@@ -19485,7 +19485,7 @@
         </is>
       </c>
       <c r="D266" s="2" t="n">
-        <v>44162</v>
+        <v>44357</v>
       </c>
       <c r="E266" t="n">
         <v>13</v>
@@ -19509,16 +19509,16 @@
         </is>
       </c>
       <c r="J266" t="n">
-        <v>300</v>
+        <v>34</v>
       </c>
       <c r="K266" t="n">
-        <v>9000</v>
+        <v>17000</v>
       </c>
       <c r="L266" t="n">
-        <v>9000</v>
+        <v>18000</v>
       </c>
       <c r="M266" t="n">
-        <v>9000</v>
+        <v>17500</v>
       </c>
       <c r="N266" t="inlineStr">
         <is>
@@ -19527,11 +19527,11 @@
       </c>
       <c r="O266" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P266" t="n">
-        <v>300</v>
+        <v>583</v>
       </c>
       <c r="Q266" t="n">
         <v>30</v>
@@ -19557,7 +19557,7 @@
         </is>
       </c>
       <c r="D267" s="2" t="n">
-        <v>44411</v>
+        <v>44357</v>
       </c>
       <c r="E267" t="n">
         <v>13</v>
@@ -19577,36 +19577,36 @@
       </c>
       <c r="I267" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J267" t="n">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="K267" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="L267" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="M267" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="N267" t="inlineStr">
         <is>
-          <t>$/caja 25 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O267" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P267" t="n">
-        <v>16000</v>
+        <v>375</v>
       </c>
       <c r="Q267" t="n">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="R267" t="inlineStr">
         <is>
@@ -19629,7 +19629,7 @@
         </is>
       </c>
       <c r="D268" s="2" t="n">
-        <v>44411</v>
+        <v>44162</v>
       </c>
       <c r="E268" t="n">
         <v>13</v>
@@ -19653,16 +19653,16 @@
         </is>
       </c>
       <c r="J268" t="n">
-        <v>61</v>
+        <v>300</v>
       </c>
       <c r="K268" t="n">
-        <v>14000</v>
+        <v>9000</v>
       </c>
       <c r="L268" t="n">
-        <v>15000</v>
+        <v>9000</v>
       </c>
       <c r="M268" t="n">
-        <v>14492</v>
+        <v>9000</v>
       </c>
       <c r="N268" t="inlineStr">
         <is>
@@ -19671,11 +19671,11 @@
       </c>
       <c r="O268" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P268" t="n">
-        <v>483</v>
+        <v>300</v>
       </c>
       <c r="Q268" t="n">
         <v>30</v>
@@ -19721,24 +19721,24 @@
       </c>
       <c r="I269" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J269" t="n">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="K269" t="n">
-        <v>12000</v>
+        <v>16000</v>
       </c>
       <c r="L269" t="n">
-        <v>12000</v>
+        <v>16000</v>
       </c>
       <c r="M269" t="n">
-        <v>12000</v>
+        <v>16000</v>
       </c>
       <c r="N269" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 25 unidades</t>
         </is>
       </c>
       <c r="O269" t="inlineStr">
@@ -19747,10 +19747,10 @@
         </is>
       </c>
       <c r="P269" t="n">
-        <v>300</v>
+        <v>16000</v>
       </c>
       <c r="Q269" t="n">
-        <v>40</v>
+        <v>1</v>
       </c>
       <c r="R269" t="inlineStr">
         <is>
@@ -19773,7 +19773,7 @@
         </is>
       </c>
       <c r="D270" s="2" t="n">
-        <v>44376</v>
+        <v>44411</v>
       </c>
       <c r="E270" t="n">
         <v>13</v>
@@ -19793,36 +19793,36 @@
       </c>
       <c r="I270" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J270" t="n">
-        <v>16</v>
+        <v>61</v>
       </c>
       <c r="K270" t="n">
-        <v>21000</v>
+        <v>14000</v>
       </c>
       <c r="L270" t="n">
-        <v>22000</v>
+        <v>15000</v>
       </c>
       <c r="M270" t="n">
-        <v>21500</v>
+        <v>14492</v>
       </c>
       <c r="N270" t="inlineStr">
         <is>
-          <t>$/caja 25 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O270" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P270" t="n">
-        <v>21500</v>
+        <v>483</v>
       </c>
       <c r="Q270" t="n">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="R270" t="inlineStr">
         <is>
@@ -19845,7 +19845,7 @@
         </is>
       </c>
       <c r="D271" s="2" t="n">
-        <v>44376</v>
+        <v>44411</v>
       </c>
       <c r="E271" t="n">
         <v>13</v>
@@ -19865,36 +19865,36 @@
       </c>
       <c r="I271" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J271" t="n">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="K271" t="n">
-        <v>19000</v>
+        <v>12000</v>
       </c>
       <c r="L271" t="n">
-        <v>20000</v>
+        <v>12000</v>
       </c>
       <c r="M271" t="n">
-        <v>19500</v>
+        <v>12000</v>
       </c>
       <c r="N271" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O271" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P271" t="n">
-        <v>650</v>
+        <v>300</v>
       </c>
       <c r="Q271" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="R271" t="inlineStr">
         <is>
@@ -19937,24 +19937,24 @@
       </c>
       <c r="I272" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J272" t="n">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="K272" t="n">
-        <v>16000</v>
+        <v>21000</v>
       </c>
       <c r="L272" t="n">
-        <v>17000</v>
+        <v>22000</v>
       </c>
       <c r="M272" t="n">
-        <v>16480</v>
+        <v>21500</v>
       </c>
       <c r="N272" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 25 unidades</t>
         </is>
       </c>
       <c r="O272" t="inlineStr">
@@ -19963,10 +19963,10 @@
         </is>
       </c>
       <c r="P272" t="n">
-        <v>412</v>
+        <v>21500</v>
       </c>
       <c r="Q272" t="n">
-        <v>40</v>
+        <v>1</v>
       </c>
       <c r="R272" t="inlineStr">
         <is>
@@ -19989,7 +19989,7 @@
         </is>
       </c>
       <c r="D273" s="2" t="n">
-        <v>44292</v>
+        <v>44376</v>
       </c>
       <c r="E273" t="n">
         <v>13</v>
@@ -20013,16 +20013,16 @@
         </is>
       </c>
       <c r="J273" t="n">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="K273" t="n">
-        <v>18000</v>
+        <v>19000</v>
       </c>
       <c r="L273" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="M273" t="n">
-        <v>18000</v>
+        <v>19500</v>
       </c>
       <c r="N273" t="inlineStr">
         <is>
@@ -20031,11 +20031,11 @@
       </c>
       <c r="O273" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P273" t="n">
-        <v>600</v>
+        <v>650</v>
       </c>
       <c r="Q273" t="n">
         <v>30</v>
@@ -20061,7 +20061,7 @@
         </is>
       </c>
       <c r="D274" s="2" t="n">
-        <v>44358</v>
+        <v>44376</v>
       </c>
       <c r="E274" t="n">
         <v>13</v>
@@ -20076,29 +20076,29 @@
       </c>
       <c r="H274" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I274" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J274" t="n">
-        <v>52</v>
+        <v>25</v>
       </c>
       <c r="K274" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="L274" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="M274" t="n">
-        <v>15500</v>
+        <v>16480</v>
       </c>
       <c r="N274" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O274" t="inlineStr">
@@ -20107,10 +20107,10 @@
         </is>
       </c>
       <c r="P274" t="n">
-        <v>310</v>
+        <v>412</v>
       </c>
       <c r="Q274" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="R274" t="inlineStr">
         <is>
@@ -20133,7 +20133,7 @@
         </is>
       </c>
       <c r="D275" s="2" t="n">
-        <v>44358</v>
+        <v>44292</v>
       </c>
       <c r="E275" t="n">
         <v>13</v>
@@ -20148,41 +20148,41 @@
       </c>
       <c r="H275" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I275" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J275" t="n">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="K275" t="n">
-        <v>14000</v>
+        <v>18000</v>
       </c>
       <c r="L275" t="n">
-        <v>14000</v>
+        <v>18000</v>
       </c>
       <c r="M275" t="n">
-        <v>14000</v>
+        <v>18000</v>
       </c>
       <c r="N275" t="inlineStr">
         <is>
-          <t>$/caja 70 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O275" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P275" t="n">
-        <v>200</v>
+        <v>600</v>
       </c>
       <c r="Q275" t="n">
-        <v>70</v>
+        <v>30</v>
       </c>
       <c r="R275" t="inlineStr">
         <is>
@@ -20220,41 +20220,41 @@
       </c>
       <c r="H276" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I276" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J276" t="n">
-        <v>16</v>
+        <v>52</v>
       </c>
       <c r="K276" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="L276" t="n">
-        <v>19000</v>
+        <v>16000</v>
       </c>
       <c r="M276" t="n">
-        <v>18500</v>
+        <v>15500</v>
       </c>
       <c r="N276" t="inlineStr">
         <is>
-          <t>$/caja 25 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O276" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P276" t="n">
-        <v>18500</v>
+        <v>310</v>
       </c>
       <c r="Q276" t="n">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="R276" t="inlineStr">
         <is>
@@ -20292,41 +20292,41 @@
       </c>
       <c r="H277" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I277" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J277" t="n">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="K277" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="L277" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="M277" t="n">
-        <v>15488</v>
+        <v>14000</v>
       </c>
       <c r="N277" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 70 unidades</t>
         </is>
       </c>
       <c r="O277" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P277" t="n">
-        <v>516</v>
+        <v>200</v>
       </c>
       <c r="Q277" t="n">
-        <v>30</v>
+        <v>70</v>
       </c>
       <c r="R277" t="inlineStr">
         <is>
@@ -20369,24 +20369,24 @@
       </c>
       <c r="I278" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J278" t="n">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="K278" t="n">
-        <v>14000</v>
+        <v>18000</v>
       </c>
       <c r="L278" t="n">
-        <v>14000</v>
+        <v>19000</v>
       </c>
       <c r="M278" t="n">
-        <v>14000</v>
+        <v>18500</v>
       </c>
       <c r="N278" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 25 unidades</t>
         </is>
       </c>
       <c r="O278" t="inlineStr">
@@ -20395,10 +20395,10 @@
         </is>
       </c>
       <c r="P278" t="n">
-        <v>350</v>
+        <v>18500</v>
       </c>
       <c r="Q278" t="n">
-        <v>40</v>
+        <v>1</v>
       </c>
       <c r="R278" t="inlineStr">
         <is>
@@ -20421,7 +20421,7 @@
         </is>
       </c>
       <c r="D279" s="2" t="n">
-        <v>44425</v>
+        <v>44358</v>
       </c>
       <c r="E279" t="n">
         <v>13</v>
@@ -20441,24 +20441,24 @@
       </c>
       <c r="I279" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J279" t="n">
-        <v>25</v>
+        <v>43</v>
       </c>
       <c r="K279" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="L279" t="n">
         <v>16000</v>
       </c>
       <c r="M279" t="n">
-        <v>16000</v>
+        <v>15488</v>
       </c>
       <c r="N279" t="inlineStr">
         <is>
-          <t>$/caja 25 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O279" t="inlineStr">
@@ -20467,10 +20467,10 @@
         </is>
       </c>
       <c r="P279" t="n">
-        <v>16000</v>
+        <v>516</v>
       </c>
       <c r="Q279" t="n">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="R279" t="inlineStr">
         <is>
@@ -20493,7 +20493,7 @@
         </is>
       </c>
       <c r="D280" s="2" t="n">
-        <v>44425</v>
+        <v>44358</v>
       </c>
       <c r="E280" t="n">
         <v>13</v>
@@ -20513,24 +20513,24 @@
       </c>
       <c r="I280" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J280" t="n">
-        <v>61</v>
+        <v>25</v>
       </c>
       <c r="K280" t="n">
         <v>14000</v>
       </c>
       <c r="L280" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="M280" t="n">
-        <v>14508</v>
+        <v>14000</v>
       </c>
       <c r="N280" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O280" t="inlineStr">
@@ -20539,10 +20539,10 @@
         </is>
       </c>
       <c r="P280" t="n">
-        <v>484</v>
+        <v>350</v>
       </c>
       <c r="Q280" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="R280" t="inlineStr">
         <is>
@@ -20585,24 +20585,24 @@
       </c>
       <c r="I281" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J281" t="n">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="K281" t="n">
-        <v>12000</v>
+        <v>16000</v>
       </c>
       <c r="L281" t="n">
-        <v>13000</v>
+        <v>16000</v>
       </c>
       <c r="M281" t="n">
-        <v>12500</v>
+        <v>16000</v>
       </c>
       <c r="N281" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 25 unidades</t>
         </is>
       </c>
       <c r="O281" t="inlineStr">
@@ -20611,10 +20611,10 @@
         </is>
       </c>
       <c r="P281" t="n">
-        <v>312</v>
+        <v>16000</v>
       </c>
       <c r="Q281" t="n">
-        <v>40</v>
+        <v>1</v>
       </c>
       <c r="R281" t="inlineStr">
         <is>
@@ -20652,7 +20652,7 @@
       </c>
       <c r="H282" t="inlineStr">
         <is>
-          <t>Madrigal</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I282" t="inlineStr">
@@ -20661,7 +20661,7 @@
         </is>
       </c>
       <c r="J282" t="n">
-        <v>43</v>
+        <v>61</v>
       </c>
       <c r="K282" t="n">
         <v>14000</v>
@@ -20670,11 +20670,11 @@
         <v>15000</v>
       </c>
       <c r="M282" t="n">
-        <v>14512</v>
+        <v>14508</v>
       </c>
       <c r="N282" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O282" t="inlineStr">
@@ -20683,10 +20683,10 @@
         </is>
       </c>
       <c r="P282" t="n">
-        <v>363</v>
+        <v>484</v>
       </c>
       <c r="Q282" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="R282" t="inlineStr">
         <is>
@@ -20724,7 +20724,7 @@
       </c>
       <c r="H283" t="inlineStr">
         <is>
-          <t>Madrigal</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I283" t="inlineStr">
@@ -20733,7 +20733,7 @@
         </is>
       </c>
       <c r="J283" t="n">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="K283" t="n">
         <v>12000</v>
@@ -20742,11 +20742,11 @@
         <v>13000</v>
       </c>
       <c r="M283" t="n">
-        <v>12480</v>
+        <v>12500</v>
       </c>
       <c r="N283" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O283" t="inlineStr">
@@ -20755,10 +20755,10 @@
         </is>
       </c>
       <c r="P283" t="n">
-        <v>250</v>
+        <v>312</v>
       </c>
       <c r="Q283" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="R283" t="inlineStr">
         <is>
@@ -20781,7 +20781,7 @@
         </is>
       </c>
       <c r="D284" s="2" t="n">
-        <v>44323</v>
+        <v>44425</v>
       </c>
       <c r="E284" t="n">
         <v>13</v>
@@ -20796,7 +20796,7 @@
       </c>
       <c r="H284" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Madrigal</t>
         </is>
       </c>
       <c r="I284" t="inlineStr">
@@ -20805,20 +20805,20 @@
         </is>
       </c>
       <c r="J284" t="n">
-        <v>16</v>
+        <v>43</v>
       </c>
       <c r="K284" t="n">
-        <v>18000</v>
+        <v>14000</v>
       </c>
       <c r="L284" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="M284" t="n">
-        <v>18000</v>
+        <v>14512</v>
       </c>
       <c r="N284" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O284" t="inlineStr">
@@ -20827,10 +20827,10 @@
         </is>
       </c>
       <c r="P284" t="n">
-        <v>360</v>
+        <v>363</v>
       </c>
       <c r="Q284" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="R284" t="inlineStr">
         <is>
@@ -20853,7 +20853,7 @@
         </is>
       </c>
       <c r="D285" s="2" t="n">
-        <v>44323</v>
+        <v>44425</v>
       </c>
       <c r="E285" t="n">
         <v>13</v>
@@ -20868,29 +20868,29 @@
       </c>
       <c r="H285" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Madrigal</t>
         </is>
       </c>
       <c r="I285" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J285" t="n">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="K285" t="n">
-        <v>18000</v>
+        <v>12000</v>
       </c>
       <c r="L285" t="n">
-        <v>18000</v>
+        <v>13000</v>
       </c>
       <c r="M285" t="n">
-        <v>18000</v>
+        <v>12480</v>
       </c>
       <c r="N285" t="inlineStr">
         <is>
-          <t>$/caja 25 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O285" t="inlineStr">
@@ -20899,10 +20899,10 @@
         </is>
       </c>
       <c r="P285" t="n">
-        <v>18000</v>
+        <v>250</v>
       </c>
       <c r="Q285" t="n">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="R285" t="inlineStr">
         <is>
@@ -20940,7 +20940,7 @@
       </c>
       <c r="H286" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I286" t="inlineStr">
@@ -20949,34 +20949,178 @@
         </is>
       </c>
       <c r="J286" t="n">
+        <v>16</v>
+      </c>
+      <c r="K286" t="n">
+        <v>18000</v>
+      </c>
+      <c r="L286" t="n">
+        <v>18000</v>
+      </c>
+      <c r="M286" t="n">
+        <v>18000</v>
+      </c>
+      <c r="N286" t="inlineStr">
+        <is>
+          <t>$/caja 50 unidades</t>
+        </is>
+      </c>
+      <c r="O286" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P286" t="n">
+        <v>360</v>
+      </c>
+      <c r="Q286" t="n">
+        <v>50</v>
+      </c>
+      <c r="R286" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" t="n">
+        <v>9</v>
+      </c>
+      <c r="B287" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C287" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D287" s="2" t="n">
+        <v>44323</v>
+      </c>
+      <c r="E287" t="n">
+        <v>13</v>
+      </c>
+      <c r="F287" t="n">
+        <v>100112013</v>
+      </c>
+      <c r="G287" t="inlineStr">
+        <is>
+          <t>Alcachofa</t>
+        </is>
+      </c>
+      <c r="H287" t="inlineStr">
+        <is>
+          <t>Española</t>
+        </is>
+      </c>
+      <c r="I287" t="inlineStr">
+        <is>
+          <t>Extra</t>
+        </is>
+      </c>
+      <c r="J287" t="n">
+        <v>16</v>
+      </c>
+      <c r="K287" t="n">
+        <v>18000</v>
+      </c>
+      <c r="L287" t="n">
+        <v>18000</v>
+      </c>
+      <c r="M287" t="n">
+        <v>18000</v>
+      </c>
+      <c r="N287" t="inlineStr">
+        <is>
+          <t>$/caja 25 unidades</t>
+        </is>
+      </c>
+      <c r="O287" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P287" t="n">
+        <v>18000</v>
+      </c>
+      <c r="Q287" t="n">
+        <v>1</v>
+      </c>
+      <c r="R287" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" t="n">
+        <v>9</v>
+      </c>
+      <c r="B288" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C288" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D288" s="2" t="n">
+        <v>44323</v>
+      </c>
+      <c r="E288" t="n">
+        <v>13</v>
+      </c>
+      <c r="F288" t="n">
+        <v>100112013</v>
+      </c>
+      <c r="G288" t="inlineStr">
+        <is>
+          <t>Alcachofa</t>
+        </is>
+      </c>
+      <c r="H288" t="inlineStr">
+        <is>
+          <t>Española</t>
+        </is>
+      </c>
+      <c r="I288" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J288" t="n">
         <v>25</v>
       </c>
-      <c r="K286" t="n">
+      <c r="K288" t="n">
         <v>16000</v>
       </c>
-      <c r="L286" t="n">
+      <c r="L288" t="n">
         <v>16000</v>
       </c>
-      <c r="M286" t="n">
+      <c r="M288" t="n">
         <v>16000</v>
       </c>
-      <c r="N286" t="inlineStr">
+      <c r="N288" t="inlineStr">
         <is>
           <t>$/caja 30 unidades</t>
         </is>
       </c>
-      <c r="O286" t="inlineStr">
+      <c r="O288" t="inlineStr">
         <is>
           <t>Provincia de Limarí</t>
         </is>
       </c>
-      <c r="P286" t="n">
+      <c r="P288" t="n">
         <v>533</v>
       </c>
-      <c r="Q286" t="n">
+      <c r="Q288" t="n">
         <v>30</v>
       </c>
-      <c r="R286" t="inlineStr">
+      <c r="R288" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Central Mapocho de Santiago - Alcachofa.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Central Mapocho de Santiago - Alcachofa.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R291"/>
+  <dimension ref="A1:R294"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -16245,7 +16245,7 @@
         </is>
       </c>
       <c r="D221" s="2" t="n">
-        <v>44301</v>
+        <v>44463</v>
       </c>
       <c r="E221" t="n">
         <v>13</v>
@@ -16265,24 +16265,24 @@
       </c>
       <c r="I221" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J221" t="n">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="K221" t="n">
-        <v>17000</v>
+        <v>14000</v>
       </c>
       <c r="L221" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="M221" t="n">
-        <v>17500</v>
+        <v>14524</v>
       </c>
       <c r="N221" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 25 unidades</t>
         </is>
       </c>
       <c r="O221" t="inlineStr">
@@ -16291,10 +16291,10 @@
         </is>
       </c>
       <c r="P221" t="n">
-        <v>583</v>
+        <v>14524</v>
       </c>
       <c r="Q221" t="n">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="R221" t="inlineStr">
         <is>
@@ -16317,7 +16317,7 @@
         </is>
       </c>
       <c r="D222" s="2" t="n">
-        <v>44166</v>
+        <v>44463</v>
       </c>
       <c r="E222" t="n">
         <v>13</v>
@@ -16341,16 +16341,16 @@
         </is>
       </c>
       <c r="J222" t="n">
-        <v>250</v>
+        <v>52</v>
       </c>
       <c r="K222" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="L222" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="M222" t="n">
-        <v>11000</v>
+        <v>12500</v>
       </c>
       <c r="N222" t="inlineStr">
         <is>
@@ -16359,11 +16359,11 @@
       </c>
       <c r="O222" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P222" t="n">
-        <v>367</v>
+        <v>417</v>
       </c>
       <c r="Q222" t="n">
         <v>30</v>
@@ -16389,7 +16389,7 @@
         </is>
       </c>
       <c r="D223" s="2" t="n">
-        <v>44168</v>
+        <v>44463</v>
       </c>
       <c r="E223" t="n">
         <v>13</v>
@@ -16409,36 +16409,36 @@
       </c>
       <c r="I223" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J223" t="n">
-        <v>230</v>
+        <v>38</v>
       </c>
       <c r="K223" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="L223" t="n">
         <v>11000</v>
       </c>
       <c r="M223" t="n">
-        <v>11000</v>
+        <v>10500</v>
       </c>
       <c r="N223" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O223" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P223" t="n">
-        <v>367</v>
+        <v>262</v>
       </c>
       <c r="Q223" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="R223" t="inlineStr">
         <is>
@@ -16461,7 +16461,7 @@
         </is>
       </c>
       <c r="D224" s="2" t="n">
-        <v>44369</v>
+        <v>44301</v>
       </c>
       <c r="E224" t="n">
         <v>13</v>
@@ -16481,36 +16481,36 @@
       </c>
       <c r="I224" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J224" t="n">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="K224" t="n">
-        <v>21000</v>
+        <v>17000</v>
       </c>
       <c r="L224" t="n">
-        <v>22000</v>
+        <v>18000</v>
       </c>
       <c r="M224" t="n">
-        <v>21500</v>
+        <v>17500</v>
       </c>
       <c r="N224" t="inlineStr">
         <is>
-          <t>$/caja 25 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O224" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P224" t="n">
-        <v>21500</v>
+        <v>583</v>
       </c>
       <c r="Q224" t="n">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="R224" t="inlineStr">
         <is>
@@ -16533,7 +16533,7 @@
         </is>
       </c>
       <c r="D225" s="2" t="n">
-        <v>44369</v>
+        <v>44166</v>
       </c>
       <c r="E225" t="n">
         <v>13</v>
@@ -16557,16 +16557,16 @@
         </is>
       </c>
       <c r="J225" t="n">
-        <v>34</v>
+        <v>250</v>
       </c>
       <c r="K225" t="n">
-        <v>19000</v>
+        <v>11000</v>
       </c>
       <c r="L225" t="n">
-        <v>20000</v>
+        <v>11000</v>
       </c>
       <c r="M225" t="n">
-        <v>19500</v>
+        <v>11000</v>
       </c>
       <c r="N225" t="inlineStr">
         <is>
@@ -16575,11 +16575,11 @@
       </c>
       <c r="O225" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P225" t="n">
-        <v>650</v>
+        <v>367</v>
       </c>
       <c r="Q225" t="n">
         <v>30</v>
@@ -16605,7 +16605,7 @@
         </is>
       </c>
       <c r="D226" s="2" t="n">
-        <v>44369</v>
+        <v>44168</v>
       </c>
       <c r="E226" t="n">
         <v>13</v>
@@ -16625,36 +16625,36 @@
       </c>
       <c r="I226" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J226" t="n">
-        <v>25</v>
+        <v>230</v>
       </c>
       <c r="K226" t="n">
-        <v>17000</v>
+        <v>11000</v>
       </c>
       <c r="L226" t="n">
-        <v>17000</v>
+        <v>11000</v>
       </c>
       <c r="M226" t="n">
-        <v>17000</v>
+        <v>11000</v>
       </c>
       <c r="N226" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O226" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P226" t="n">
-        <v>425</v>
+        <v>367</v>
       </c>
       <c r="Q226" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="R226" t="inlineStr">
         <is>
@@ -16692,41 +16692,41 @@
       </c>
       <c r="H227" t="inlineStr">
         <is>
-          <t>Madrigal</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I227" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J227" t="n">
-        <v>43</v>
+        <v>16</v>
       </c>
       <c r="K227" t="n">
-        <v>16000</v>
+        <v>21000</v>
       </c>
       <c r="L227" t="n">
-        <v>17000</v>
+        <v>22000</v>
       </c>
       <c r="M227" t="n">
-        <v>16488</v>
+        <v>21500</v>
       </c>
       <c r="N227" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 25 unidades</t>
         </is>
       </c>
       <c r="O227" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P227" t="n">
-        <v>412</v>
+        <v>21500</v>
       </c>
       <c r="Q227" t="n">
-        <v>40</v>
+        <v>1</v>
       </c>
       <c r="R227" t="inlineStr">
         <is>
@@ -16764,41 +16764,41 @@
       </c>
       <c r="H228" t="inlineStr">
         <is>
-          <t>Madrigal</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I228" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J228" t="n">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="K228" t="n">
-        <v>14000</v>
+        <v>19000</v>
       </c>
       <c r="L228" t="n">
-        <v>14000</v>
+        <v>20000</v>
       </c>
       <c r="M228" t="n">
-        <v>14000</v>
+        <v>19500</v>
       </c>
       <c r="N228" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O228" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P228" t="n">
-        <v>280</v>
+        <v>650</v>
       </c>
       <c r="Q228" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R228" t="inlineStr">
         <is>
@@ -16821,7 +16821,7 @@
         </is>
       </c>
       <c r="D229" s="2" t="n">
-        <v>44433</v>
+        <v>44369</v>
       </c>
       <c r="E229" t="n">
         <v>13</v>
@@ -16841,24 +16841,24 @@
       </c>
       <c r="I229" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J229" t="n">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="K229" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="L229" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="M229" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="N229" t="inlineStr">
         <is>
-          <t>$/caja 25 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O229" t="inlineStr">
@@ -16867,10 +16867,10 @@
         </is>
       </c>
       <c r="P229" t="n">
-        <v>16000</v>
+        <v>425</v>
       </c>
       <c r="Q229" t="n">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="R229" t="inlineStr">
         <is>
@@ -16893,7 +16893,7 @@
         </is>
       </c>
       <c r="D230" s="2" t="n">
-        <v>44433</v>
+        <v>44369</v>
       </c>
       <c r="E230" t="n">
         <v>13</v>
@@ -16908,7 +16908,7 @@
       </c>
       <c r="H230" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Madrigal</t>
         </is>
       </c>
       <c r="I230" t="inlineStr">
@@ -16917,32 +16917,32 @@
         </is>
       </c>
       <c r="J230" t="n">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="K230" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="L230" t="n">
-        <v>15000</v>
+        <v>17000</v>
       </c>
       <c r="M230" t="n">
-        <v>14500</v>
+        <v>16488</v>
       </c>
       <c r="N230" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O230" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P230" t="n">
-        <v>483</v>
+        <v>412</v>
       </c>
       <c r="Q230" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="R230" t="inlineStr">
         <is>
@@ -16965,7 +16965,7 @@
         </is>
       </c>
       <c r="D231" s="2" t="n">
-        <v>44433</v>
+        <v>44369</v>
       </c>
       <c r="E231" t="n">
         <v>13</v>
@@ -16980,7 +16980,7 @@
       </c>
       <c r="H231" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Madrigal</t>
         </is>
       </c>
       <c r="I231" t="inlineStr">
@@ -16989,32 +16989,32 @@
         </is>
       </c>
       <c r="J231" t="n">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="K231" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="L231" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="M231" t="n">
-        <v>12500</v>
+        <v>14000</v>
       </c>
       <c r="N231" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O231" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P231" t="n">
-        <v>312</v>
+        <v>280</v>
       </c>
       <c r="Q231" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="R231" t="inlineStr">
         <is>
@@ -17037,7 +17037,7 @@
         </is>
       </c>
       <c r="D232" s="2" t="n">
-        <v>44371</v>
+        <v>44433</v>
       </c>
       <c r="E232" t="n">
         <v>13</v>
@@ -17061,16 +17061,16 @@
         </is>
       </c>
       <c r="J232" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="K232" t="n">
-        <v>20000</v>
+        <v>16000</v>
       </c>
       <c r="L232" t="n">
-        <v>21000</v>
+        <v>16000</v>
       </c>
       <c r="M232" t="n">
-        <v>20500</v>
+        <v>16000</v>
       </c>
       <c r="N232" t="inlineStr">
         <is>
@@ -17079,11 +17079,11 @@
       </c>
       <c r="O232" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P232" t="n">
-        <v>20500</v>
+        <v>16000</v>
       </c>
       <c r="Q232" t="n">
         <v>1</v>
@@ -17109,7 +17109,7 @@
         </is>
       </c>
       <c r="D233" s="2" t="n">
-        <v>44371</v>
+        <v>44433</v>
       </c>
       <c r="E233" t="n">
         <v>13</v>
@@ -17133,16 +17133,16 @@
         </is>
       </c>
       <c r="J233" t="n">
-        <v>36</v>
+        <v>52</v>
       </c>
       <c r="K233" t="n">
-        <v>17000</v>
+        <v>14000</v>
       </c>
       <c r="L233" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="M233" t="n">
-        <v>17500</v>
+        <v>14500</v>
       </c>
       <c r="N233" t="inlineStr">
         <is>
@@ -17151,11 +17151,11 @@
       </c>
       <c r="O233" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P233" t="n">
-        <v>583</v>
+        <v>483</v>
       </c>
       <c r="Q233" t="n">
         <v>30</v>
@@ -17181,7 +17181,7 @@
         </is>
       </c>
       <c r="D234" s="2" t="n">
-        <v>44371</v>
+        <v>44433</v>
       </c>
       <c r="E234" t="n">
         <v>13</v>
@@ -17205,16 +17205,16 @@
         </is>
       </c>
       <c r="J234" t="n">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="K234" t="n">
-        <v>16000</v>
+        <v>12000</v>
       </c>
       <c r="L234" t="n">
-        <v>16000</v>
+        <v>13000</v>
       </c>
       <c r="M234" t="n">
-        <v>16000</v>
+        <v>12500</v>
       </c>
       <c r="N234" t="inlineStr">
         <is>
@@ -17223,11 +17223,11 @@
       </c>
       <c r="O234" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P234" t="n">
-        <v>400</v>
+        <v>312</v>
       </c>
       <c r="Q234" t="n">
         <v>40</v>
@@ -17253,7 +17253,7 @@
         </is>
       </c>
       <c r="D235" s="2" t="n">
-        <v>44316</v>
+        <v>44371</v>
       </c>
       <c r="E235" t="n">
         <v>13</v>
@@ -17268,29 +17268,29 @@
       </c>
       <c r="H235" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I235" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J235" t="n">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="K235" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="L235" t="n">
-        <v>18000</v>
+        <v>21000</v>
       </c>
       <c r="M235" t="n">
-        <v>18000</v>
+        <v>20500</v>
       </c>
       <c r="N235" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 25 unidades</t>
         </is>
       </c>
       <c r="O235" t="inlineStr">
@@ -17299,10 +17299,10 @@
         </is>
       </c>
       <c r="P235" t="n">
-        <v>360</v>
+        <v>20500</v>
       </c>
       <c r="Q235" t="n">
-        <v>50</v>
+        <v>1</v>
       </c>
       <c r="R235" t="inlineStr">
         <is>
@@ -17325,7 +17325,7 @@
         </is>
       </c>
       <c r="D236" s="2" t="n">
-        <v>44316</v>
+        <v>44371</v>
       </c>
       <c r="E236" t="n">
         <v>13</v>
@@ -17345,24 +17345,24 @@
       </c>
       <c r="I236" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J236" t="n">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="K236" t="n">
-        <v>18000</v>
+        <v>17000</v>
       </c>
       <c r="L236" t="n">
         <v>18000</v>
       </c>
       <c r="M236" t="n">
-        <v>18000</v>
+        <v>17500</v>
       </c>
       <c r="N236" t="inlineStr">
         <is>
-          <t>$/caja 25 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O236" t="inlineStr">
@@ -17371,10 +17371,10 @@
         </is>
       </c>
       <c r="P236" t="n">
-        <v>18000</v>
+        <v>583</v>
       </c>
       <c r="Q236" t="n">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="R236" t="inlineStr">
         <is>
@@ -17397,7 +17397,7 @@
         </is>
       </c>
       <c r="D237" s="2" t="n">
-        <v>44316</v>
+        <v>44371</v>
       </c>
       <c r="E237" t="n">
         <v>13</v>
@@ -17417,11 +17417,11 @@
       </c>
       <c r="I237" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J237" t="n">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="K237" t="n">
         <v>16000</v>
@@ -17434,7 +17434,7 @@
       </c>
       <c r="N237" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O237" t="inlineStr">
@@ -17443,10 +17443,10 @@
         </is>
       </c>
       <c r="P237" t="n">
-        <v>533</v>
+        <v>400</v>
       </c>
       <c r="Q237" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="R237" t="inlineStr">
         <is>
@@ -17469,7 +17469,7 @@
         </is>
       </c>
       <c r="D238" s="2" t="n">
-        <v>44397</v>
+        <v>44316</v>
       </c>
       <c r="E238" t="n">
         <v>13</v>
@@ -17484,29 +17484,29 @@
       </c>
       <c r="H238" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I238" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J238" t="n">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="K238" t="n">
-        <v>19000</v>
+        <v>18000</v>
       </c>
       <c r="L238" t="n">
-        <v>20000</v>
+        <v>18000</v>
       </c>
       <c r="M238" t="n">
-        <v>19500</v>
+        <v>18000</v>
       </c>
       <c r="N238" t="inlineStr">
         <is>
-          <t>$/caja 25 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O238" t="inlineStr">
@@ -17515,10 +17515,10 @@
         </is>
       </c>
       <c r="P238" t="n">
-        <v>19500</v>
+        <v>360</v>
       </c>
       <c r="Q238" t="n">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="R238" t="inlineStr">
         <is>
@@ -17541,7 +17541,7 @@
         </is>
       </c>
       <c r="D239" s="2" t="n">
-        <v>44397</v>
+        <v>44316</v>
       </c>
       <c r="E239" t="n">
         <v>13</v>
@@ -17561,24 +17561,24 @@
       </c>
       <c r="I239" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J239" t="n">
-        <v>43</v>
+        <v>18</v>
       </c>
       <c r="K239" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="L239" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="M239" t="n">
-        <v>16488</v>
+        <v>18000</v>
       </c>
       <c r="N239" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 25 unidades</t>
         </is>
       </c>
       <c r="O239" t="inlineStr">
@@ -17587,10 +17587,10 @@
         </is>
       </c>
       <c r="P239" t="n">
-        <v>550</v>
+        <v>18000</v>
       </c>
       <c r="Q239" t="n">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="R239" t="inlineStr">
         <is>
@@ -17613,7 +17613,7 @@
         </is>
       </c>
       <c r="D240" s="2" t="n">
-        <v>44397</v>
+        <v>44316</v>
       </c>
       <c r="E240" t="n">
         <v>13</v>
@@ -17633,24 +17633,24 @@
       </c>
       <c r="I240" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J240" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="K240" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="L240" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="M240" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="N240" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O240" t="inlineStr">
@@ -17659,10 +17659,10 @@
         </is>
       </c>
       <c r="P240" t="n">
-        <v>375</v>
+        <v>533</v>
       </c>
       <c r="Q240" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="R240" t="inlineStr">
         <is>
@@ -17685,7 +17685,7 @@
         </is>
       </c>
       <c r="D241" s="2" t="n">
-        <v>44363</v>
+        <v>44397</v>
       </c>
       <c r="E241" t="n">
         <v>13</v>
@@ -17700,41 +17700,41 @@
       </c>
       <c r="H241" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I241" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J241" t="n">
-        <v>52</v>
+        <v>16</v>
       </c>
       <c r="K241" t="n">
-        <v>16000</v>
+        <v>19000</v>
       </c>
       <c r="L241" t="n">
-        <v>17000</v>
+        <v>20000</v>
       </c>
       <c r="M241" t="n">
-        <v>16500</v>
+        <v>19500</v>
       </c>
       <c r="N241" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 25 unidades</t>
         </is>
       </c>
       <c r="O241" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P241" t="n">
-        <v>330</v>
+        <v>19500</v>
       </c>
       <c r="Q241" t="n">
-        <v>50</v>
+        <v>1</v>
       </c>
       <c r="R241" t="inlineStr">
         <is>
@@ -17757,7 +17757,7 @@
         </is>
       </c>
       <c r="D242" s="2" t="n">
-        <v>44363</v>
+        <v>44397</v>
       </c>
       <c r="E242" t="n">
         <v>13</v>
@@ -17781,16 +17781,16 @@
         </is>
       </c>
       <c r="J242" t="n">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="K242" t="n">
+        <v>16000</v>
+      </c>
+      <c r="L242" t="n">
         <v>17000</v>
       </c>
-      <c r="L242" t="n">
-        <v>18000</v>
-      </c>
       <c r="M242" t="n">
-        <v>17500</v>
+        <v>16488</v>
       </c>
       <c r="N242" t="inlineStr">
         <is>
@@ -17803,7 +17803,7 @@
         </is>
       </c>
       <c r="P242" t="n">
-        <v>583</v>
+        <v>550</v>
       </c>
       <c r="Q242" t="n">
         <v>30</v>
@@ -17829,7 +17829,7 @@
         </is>
       </c>
       <c r="D243" s="2" t="n">
-        <v>44438</v>
+        <v>44397</v>
       </c>
       <c r="E243" t="n">
         <v>13</v>
@@ -17849,11 +17849,11 @@
       </c>
       <c r="I243" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J243" t="n">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="K243" t="n">
         <v>15000</v>
@@ -17866,7 +17866,7 @@
       </c>
       <c r="N243" t="inlineStr">
         <is>
-          <t>$/caja 25 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O243" t="inlineStr">
@@ -17875,10 +17875,10 @@
         </is>
       </c>
       <c r="P243" t="n">
-        <v>15000</v>
+        <v>375</v>
       </c>
       <c r="Q243" t="n">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="R243" t="inlineStr">
         <is>
@@ -17901,7 +17901,7 @@
         </is>
       </c>
       <c r="D244" s="2" t="n">
-        <v>44438</v>
+        <v>44363</v>
       </c>
       <c r="E244" t="n">
         <v>13</v>
@@ -17916,7 +17916,7 @@
       </c>
       <c r="H244" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I244" t="inlineStr">
@@ -17925,32 +17925,32 @@
         </is>
       </c>
       <c r="J244" t="n">
-        <v>34</v>
+        <v>52</v>
       </c>
       <c r="K244" t="n">
-        <v>13000</v>
+        <v>16000</v>
       </c>
       <c r="L244" t="n">
-        <v>14000</v>
+        <v>17000</v>
       </c>
       <c r="M244" t="n">
-        <v>13500</v>
+        <v>16500</v>
       </c>
       <c r="N244" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O244" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P244" t="n">
-        <v>450</v>
+        <v>330</v>
       </c>
       <c r="Q244" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R244" t="inlineStr">
         <is>
@@ -17973,7 +17973,7 @@
         </is>
       </c>
       <c r="D245" s="2" t="n">
-        <v>44438</v>
+        <v>44363</v>
       </c>
       <c r="E245" t="n">
         <v>13</v>
@@ -17993,24 +17993,24 @@
       </c>
       <c r="I245" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J245" t="n">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="K245" t="n">
-        <v>11000</v>
+        <v>17000</v>
       </c>
       <c r="L245" t="n">
-        <v>12000</v>
+        <v>18000</v>
       </c>
       <c r="M245" t="n">
-        <v>11480</v>
+        <v>17500</v>
       </c>
       <c r="N245" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O245" t="inlineStr">
@@ -18019,10 +18019,10 @@
         </is>
       </c>
       <c r="P245" t="n">
-        <v>287</v>
+        <v>583</v>
       </c>
       <c r="Q245" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="R245" t="inlineStr">
         <is>
@@ -18045,7 +18045,7 @@
         </is>
       </c>
       <c r="D246" s="2" t="n">
-        <v>44372</v>
+        <v>44438</v>
       </c>
       <c r="E246" t="n">
         <v>13</v>
@@ -18060,7 +18060,7 @@
       </c>
       <c r="H246" t="inlineStr">
         <is>
-          <t>Madrigal</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I246" t="inlineStr">
@@ -18069,32 +18069,32 @@
         </is>
       </c>
       <c r="J246" t="n">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="K246" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="L246" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="M246" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="N246" t="inlineStr">
         <is>
-          <t>$/caja 35 unidades</t>
+          <t>$/caja 25 unidades</t>
         </is>
       </c>
       <c r="O246" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P246" t="n">
-        <v>571</v>
+        <v>15000</v>
       </c>
       <c r="Q246" t="n">
-        <v>35</v>
+        <v>1</v>
       </c>
       <c r="R246" t="inlineStr">
         <is>
@@ -18117,7 +18117,7 @@
         </is>
       </c>
       <c r="D247" s="2" t="n">
-        <v>44372</v>
+        <v>44438</v>
       </c>
       <c r="E247" t="n">
         <v>13</v>
@@ -18132,7 +18132,7 @@
       </c>
       <c r="H247" t="inlineStr">
         <is>
-          <t>Madrigal</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I247" t="inlineStr">
@@ -18141,32 +18141,32 @@
         </is>
       </c>
       <c r="J247" t="n">
-        <v>52</v>
+        <v>34</v>
       </c>
       <c r="K247" t="n">
-        <v>17000</v>
+        <v>13000</v>
       </c>
       <c r="L247" t="n">
-        <v>18000</v>
+        <v>14000</v>
       </c>
       <c r="M247" t="n">
-        <v>17500</v>
+        <v>13500</v>
       </c>
       <c r="N247" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O247" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P247" t="n">
-        <v>438</v>
+        <v>450</v>
       </c>
       <c r="Q247" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="R247" t="inlineStr">
         <is>
@@ -18189,7 +18189,7 @@
         </is>
       </c>
       <c r="D248" s="2" t="n">
-        <v>44372</v>
+        <v>44438</v>
       </c>
       <c r="E248" t="n">
         <v>13</v>
@@ -18204,7 +18204,7 @@
       </c>
       <c r="H248" t="inlineStr">
         <is>
-          <t>Madrigal</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I248" t="inlineStr">
@@ -18213,32 +18213,32 @@
         </is>
       </c>
       <c r="J248" t="n">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="K248" t="n">
-        <v>16000</v>
+        <v>11000</v>
       </c>
       <c r="L248" t="n">
-        <v>16000</v>
+        <v>12000</v>
       </c>
       <c r="M248" t="n">
-        <v>16000</v>
+        <v>11480</v>
       </c>
       <c r="N248" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O248" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P248" t="n">
-        <v>320</v>
+        <v>287</v>
       </c>
       <c r="Q248" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="R248" t="inlineStr">
         <is>
@@ -18261,7 +18261,7 @@
         </is>
       </c>
       <c r="D249" s="2" t="n">
-        <v>44356</v>
+        <v>44372</v>
       </c>
       <c r="E249" t="n">
         <v>13</v>
@@ -18276,29 +18276,29 @@
       </c>
       <c r="H249" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Madrigal</t>
         </is>
       </c>
       <c r="I249" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J249" t="n">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="K249" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="L249" t="n">
-        <v>16000</v>
+        <v>20000</v>
       </c>
       <c r="M249" t="n">
-        <v>15476</v>
+        <v>20000</v>
       </c>
       <c r="N249" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 35 unidades</t>
         </is>
       </c>
       <c r="O249" t="inlineStr">
@@ -18307,10 +18307,10 @@
         </is>
       </c>
       <c r="P249" t="n">
-        <v>310</v>
+        <v>571</v>
       </c>
       <c r="Q249" t="n">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="R249" t="inlineStr">
         <is>
@@ -18333,7 +18333,7 @@
         </is>
       </c>
       <c r="D250" s="2" t="n">
-        <v>44356</v>
+        <v>44372</v>
       </c>
       <c r="E250" t="n">
         <v>13</v>
@@ -18348,29 +18348,29 @@
       </c>
       <c r="H250" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Madrigal</t>
         </is>
       </c>
       <c r="I250" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J250" t="n">
-        <v>12</v>
+        <v>52</v>
       </c>
       <c r="K250" t="n">
-        <v>13000</v>
+        <v>17000</v>
       </c>
       <c r="L250" t="n">
-        <v>13000</v>
+        <v>18000</v>
       </c>
       <c r="M250" t="n">
-        <v>13000</v>
+        <v>17500</v>
       </c>
       <c r="N250" t="inlineStr">
         <is>
-          <t>$/caja 70 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O250" t="inlineStr">
@@ -18379,10 +18379,10 @@
         </is>
       </c>
       <c r="P250" t="n">
-        <v>186</v>
+        <v>438</v>
       </c>
       <c r="Q250" t="n">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="R250" t="inlineStr">
         <is>
@@ -18405,7 +18405,7 @@
         </is>
       </c>
       <c r="D251" s="2" t="n">
-        <v>44356</v>
+        <v>44372</v>
       </c>
       <c r="E251" t="n">
         <v>13</v>
@@ -18420,41 +18420,41 @@
       </c>
       <c r="H251" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Madrigal</t>
         </is>
       </c>
       <c r="I251" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J251" t="n">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="K251" t="n">
-        <v>17000</v>
+        <v>16000</v>
       </c>
       <c r="L251" t="n">
-        <v>18000</v>
+        <v>16000</v>
       </c>
       <c r="M251" t="n">
-        <v>17520</v>
+        <v>16000</v>
       </c>
       <c r="N251" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O251" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P251" t="n">
-        <v>584</v>
+        <v>320</v>
       </c>
       <c r="Q251" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R251" t="inlineStr">
         <is>
@@ -18492,41 +18492,41 @@
       </c>
       <c r="H252" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I252" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J252" t="n">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="K252" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="L252" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="M252" t="n">
-        <v>14500</v>
+        <v>15476</v>
       </c>
       <c r="N252" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O252" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P252" t="n">
-        <v>483</v>
+        <v>310</v>
       </c>
       <c r="Q252" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R252" t="inlineStr">
         <is>
@@ -18549,7 +18549,7 @@
         </is>
       </c>
       <c r="D253" s="2" t="n">
-        <v>44351</v>
+        <v>44356</v>
       </c>
       <c r="E253" t="n">
         <v>13</v>
@@ -18569,36 +18569,36 @@
       </c>
       <c r="I253" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J253" t="n">
-        <v>43</v>
+        <v>12</v>
       </c>
       <c r="K253" t="n">
-        <v>16000</v>
+        <v>13000</v>
       </c>
       <c r="L253" t="n">
-        <v>17000</v>
+        <v>13000</v>
       </c>
       <c r="M253" t="n">
-        <v>16512</v>
+        <v>13000</v>
       </c>
       <c r="N253" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 70 unidades</t>
         </is>
       </c>
       <c r="O253" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P253" t="n">
-        <v>330</v>
+        <v>186</v>
       </c>
       <c r="Q253" t="n">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="R253" t="inlineStr">
         <is>
@@ -18621,7 +18621,7 @@
         </is>
       </c>
       <c r="D254" s="2" t="n">
-        <v>44351</v>
+        <v>44356</v>
       </c>
       <c r="E254" t="n">
         <v>13</v>
@@ -18636,29 +18636,29 @@
       </c>
       <c r="H254" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I254" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J254" t="n">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="K254" t="n">
-        <v>15000</v>
+        <v>17000</v>
       </c>
       <c r="L254" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="M254" t="n">
-        <v>15000</v>
+        <v>17520</v>
       </c>
       <c r="N254" t="inlineStr">
         <is>
-          <t>$/caja 70 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O254" t="inlineStr">
@@ -18667,10 +18667,10 @@
         </is>
       </c>
       <c r="P254" t="n">
-        <v>214</v>
+        <v>584</v>
       </c>
       <c r="Q254" t="n">
-        <v>70</v>
+        <v>30</v>
       </c>
       <c r="R254" t="inlineStr">
         <is>
@@ -18693,7 +18693,7 @@
         </is>
       </c>
       <c r="D255" s="2" t="n">
-        <v>44351</v>
+        <v>44356</v>
       </c>
       <c r="E255" t="n">
         <v>13</v>
@@ -18713,36 +18713,36 @@
       </c>
       <c r="I255" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J255" t="n">
         <v>16</v>
       </c>
       <c r="K255" t="n">
-        <v>20000</v>
+        <v>14000</v>
       </c>
       <c r="L255" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="M255" t="n">
-        <v>20000</v>
+        <v>14500</v>
       </c>
       <c r="N255" t="inlineStr">
         <is>
-          <t>$/caja 25 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O255" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P255" t="n">
-        <v>20000</v>
+        <v>483</v>
       </c>
       <c r="Q255" t="n">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="R255" t="inlineStr">
         <is>
@@ -18780,7 +18780,7 @@
       </c>
       <c r="H256" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I256" t="inlineStr">
@@ -18789,32 +18789,32 @@
         </is>
       </c>
       <c r="J256" t="n">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="K256" t="n">
+        <v>16000</v>
+      </c>
+      <c r="L256" t="n">
         <v>17000</v>
       </c>
-      <c r="L256" t="n">
-        <v>18000</v>
-      </c>
       <c r="M256" t="n">
-        <v>17500</v>
+        <v>16512</v>
       </c>
       <c r="N256" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O256" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P256" t="n">
-        <v>583</v>
+        <v>330</v>
       </c>
       <c r="Q256" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R256" t="inlineStr">
         <is>
@@ -18852,7 +18852,7 @@
       </c>
       <c r="H257" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I257" t="inlineStr">
@@ -18861,7 +18861,7 @@
         </is>
       </c>
       <c r="J257" t="n">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="K257" t="n">
         <v>15000</v>
@@ -18874,19 +18874,19 @@
       </c>
       <c r="N257" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 70 unidades</t>
         </is>
       </c>
       <c r="O257" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P257" t="n">
-        <v>375</v>
+        <v>214</v>
       </c>
       <c r="Q257" t="n">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="R257" t="inlineStr">
         <is>
@@ -18909,7 +18909,7 @@
         </is>
       </c>
       <c r="D258" s="2" t="n">
-        <v>44365</v>
+        <v>44351</v>
       </c>
       <c r="E258" t="n">
         <v>13</v>
@@ -18924,29 +18924,29 @@
       </c>
       <c r="H258" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I258" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J258" t="n">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="K258" t="n">
-        <v>16000</v>
+        <v>20000</v>
       </c>
       <c r="L258" t="n">
-        <v>17000</v>
+        <v>20000</v>
       </c>
       <c r="M258" t="n">
-        <v>16500</v>
+        <v>20000</v>
       </c>
       <c r="N258" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 25 unidades</t>
         </is>
       </c>
       <c r="O258" t="inlineStr">
@@ -18955,10 +18955,10 @@
         </is>
       </c>
       <c r="P258" t="n">
-        <v>330</v>
+        <v>20000</v>
       </c>
       <c r="Q258" t="n">
-        <v>50</v>
+        <v>1</v>
       </c>
       <c r="R258" t="inlineStr">
         <is>
@@ -18981,7 +18981,7 @@
         </is>
       </c>
       <c r="D259" s="2" t="n">
-        <v>44365</v>
+        <v>44351</v>
       </c>
       <c r="E259" t="n">
         <v>13</v>
@@ -18996,29 +18996,29 @@
       </c>
       <c r="H259" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I259" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J259" t="n">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="K259" t="n">
-        <v>15000</v>
+        <v>17000</v>
       </c>
       <c r="L259" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="M259" t="n">
-        <v>15000</v>
+        <v>17500</v>
       </c>
       <c r="N259" t="inlineStr">
         <is>
-          <t>$/caja 70 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O259" t="inlineStr">
@@ -19027,10 +19027,10 @@
         </is>
       </c>
       <c r="P259" t="n">
-        <v>214</v>
+        <v>583</v>
       </c>
       <c r="Q259" t="n">
-        <v>70</v>
+        <v>30</v>
       </c>
       <c r="R259" t="inlineStr">
         <is>
@@ -19053,7 +19053,7 @@
         </is>
       </c>
       <c r="D260" s="2" t="n">
-        <v>44365</v>
+        <v>44351</v>
       </c>
       <c r="E260" t="n">
         <v>13</v>
@@ -19073,24 +19073,24 @@
       </c>
       <c r="I260" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J260" t="n">
-        <v>36</v>
+        <v>16</v>
       </c>
       <c r="K260" t="n">
-        <v>17000</v>
+        <v>15000</v>
       </c>
       <c r="L260" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="M260" t="n">
-        <v>17500</v>
+        <v>15000</v>
       </c>
       <c r="N260" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O260" t="inlineStr">
@@ -19099,10 +19099,10 @@
         </is>
       </c>
       <c r="P260" t="n">
-        <v>583</v>
+        <v>375</v>
       </c>
       <c r="Q260" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="R260" t="inlineStr">
         <is>
@@ -19140,29 +19140,29 @@
       </c>
       <c r="H261" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I261" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J261" t="n">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="K261" t="n">
         <v>16000</v>
       </c>
       <c r="L261" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="M261" t="n">
-        <v>16000</v>
+        <v>16500</v>
       </c>
       <c r="N261" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O261" t="inlineStr">
@@ -19171,10 +19171,10 @@
         </is>
       </c>
       <c r="P261" t="n">
-        <v>400</v>
+        <v>330</v>
       </c>
       <c r="Q261" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="R261" t="inlineStr">
         <is>
@@ -19197,7 +19197,7 @@
         </is>
       </c>
       <c r="D262" s="2" t="n">
-        <v>44306</v>
+        <v>44365</v>
       </c>
       <c r="E262" t="n">
         <v>13</v>
@@ -19212,41 +19212,41 @@
       </c>
       <c r="H262" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I262" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J262" t="n">
         <v>16</v>
       </c>
       <c r="K262" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="L262" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="M262" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="N262" t="inlineStr">
         <is>
-          <t>$/caja 25 unidades</t>
+          <t>$/caja 70 unidades</t>
         </is>
       </c>
       <c r="O262" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P262" t="n">
-        <v>20000</v>
+        <v>214</v>
       </c>
       <c r="Q262" t="n">
-        <v>1</v>
+        <v>70</v>
       </c>
       <c r="R262" t="inlineStr">
         <is>
@@ -19269,7 +19269,7 @@
         </is>
       </c>
       <c r="D263" s="2" t="n">
-        <v>44306</v>
+        <v>44365</v>
       </c>
       <c r="E263" t="n">
         <v>13</v>
@@ -19293,16 +19293,16 @@
         </is>
       </c>
       <c r="J263" t="n">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="K263" t="n">
-        <v>18000</v>
+        <v>17000</v>
       </c>
       <c r="L263" t="n">
         <v>18000</v>
       </c>
       <c r="M263" t="n">
-        <v>18000</v>
+        <v>17500</v>
       </c>
       <c r="N263" t="inlineStr">
         <is>
@@ -19311,11 +19311,11 @@
       </c>
       <c r="O263" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P263" t="n">
-        <v>600</v>
+        <v>583</v>
       </c>
       <c r="Q263" t="n">
         <v>30</v>
@@ -19341,7 +19341,7 @@
         </is>
       </c>
       <c r="D264" s="2" t="n">
-        <v>44461</v>
+        <v>44365</v>
       </c>
       <c r="E264" t="n">
         <v>13</v>
@@ -19361,36 +19361,36 @@
       </c>
       <c r="I264" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J264" t="n">
-        <v>52</v>
+        <v>25</v>
       </c>
       <c r="K264" t="n">
-        <v>12000</v>
+        <v>16000</v>
       </c>
       <c r="L264" t="n">
-        <v>13000</v>
+        <v>16000</v>
       </c>
       <c r="M264" t="n">
-        <v>12500</v>
+        <v>16000</v>
       </c>
       <c r="N264" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O264" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P264" t="n">
-        <v>417</v>
+        <v>400</v>
       </c>
       <c r="Q264" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="R264" t="inlineStr">
         <is>
@@ -19413,7 +19413,7 @@
         </is>
       </c>
       <c r="D265" s="2" t="n">
-        <v>44461</v>
+        <v>44306</v>
       </c>
       <c r="E265" t="n">
         <v>13</v>
@@ -19433,24 +19433,24 @@
       </c>
       <c r="I265" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J265" t="n">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="K265" t="n">
-        <v>10000</v>
+        <v>20000</v>
       </c>
       <c r="L265" t="n">
-        <v>11000</v>
+        <v>20000</v>
       </c>
       <c r="M265" t="n">
-        <v>10480</v>
+        <v>20000</v>
       </c>
       <c r="N265" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 25 unidades</t>
         </is>
       </c>
       <c r="O265" t="inlineStr">
@@ -19459,10 +19459,10 @@
         </is>
       </c>
       <c r="P265" t="n">
-        <v>262</v>
+        <v>20000</v>
       </c>
       <c r="Q265" t="n">
-        <v>40</v>
+        <v>1</v>
       </c>
       <c r="R265" t="inlineStr">
         <is>
@@ -19485,7 +19485,7 @@
         </is>
       </c>
       <c r="D266" s="2" t="n">
-        <v>44357</v>
+        <v>44306</v>
       </c>
       <c r="E266" t="n">
         <v>13</v>
@@ -19500,7 +19500,7 @@
       </c>
       <c r="H266" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I266" t="inlineStr">
@@ -19509,20 +19509,20 @@
         </is>
       </c>
       <c r="J266" t="n">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="K266" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="L266" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="M266" t="n">
-        <v>15500</v>
+        <v>18000</v>
       </c>
       <c r="N266" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O266" t="inlineStr">
@@ -19531,10 +19531,10 @@
         </is>
       </c>
       <c r="P266" t="n">
-        <v>310</v>
+        <v>600</v>
       </c>
       <c r="Q266" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R266" t="inlineStr">
         <is>
@@ -19557,7 +19557,7 @@
         </is>
       </c>
       <c r="D267" s="2" t="n">
-        <v>44357</v>
+        <v>44461</v>
       </c>
       <c r="E267" t="n">
         <v>13</v>
@@ -19572,29 +19572,29 @@
       </c>
       <c r="H267" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I267" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J267" t="n">
-        <v>16</v>
+        <v>52</v>
       </c>
       <c r="K267" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="L267" t="n">
         <v>13000</v>
       </c>
       <c r="M267" t="n">
-        <v>13000</v>
+        <v>12500</v>
       </c>
       <c r="N267" t="inlineStr">
         <is>
-          <t>$/caja 70 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O267" t="inlineStr">
@@ -19603,10 +19603,10 @@
         </is>
       </c>
       <c r="P267" t="n">
-        <v>186</v>
+        <v>417</v>
       </c>
       <c r="Q267" t="n">
-        <v>70</v>
+        <v>30</v>
       </c>
       <c r="R267" t="inlineStr">
         <is>
@@ -19629,7 +19629,7 @@
         </is>
       </c>
       <c r="D268" s="2" t="n">
-        <v>44357</v>
+        <v>44461</v>
       </c>
       <c r="E268" t="n">
         <v>13</v>
@@ -19649,36 +19649,36 @@
       </c>
       <c r="I268" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J268" t="n">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="K268" t="n">
-        <v>19000</v>
+        <v>10000</v>
       </c>
       <c r="L268" t="n">
-        <v>20000</v>
+        <v>11000</v>
       </c>
       <c r="M268" t="n">
-        <v>19500</v>
+        <v>10480</v>
       </c>
       <c r="N268" t="inlineStr">
         <is>
-          <t>$/caja 25 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O268" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P268" t="n">
-        <v>19500</v>
+        <v>262</v>
       </c>
       <c r="Q268" t="n">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="R268" t="inlineStr">
         <is>
@@ -19716,7 +19716,7 @@
       </c>
       <c r="H269" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I269" t="inlineStr">
@@ -19728,29 +19728,29 @@
         <v>34</v>
       </c>
       <c r="K269" t="n">
-        <v>17000</v>
+        <v>15000</v>
       </c>
       <c r="L269" t="n">
-        <v>18000</v>
+        <v>16000</v>
       </c>
       <c r="M269" t="n">
-        <v>17500</v>
+        <v>15500</v>
       </c>
       <c r="N269" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O269" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P269" t="n">
-        <v>583</v>
+        <v>310</v>
       </c>
       <c r="Q269" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R269" t="inlineStr">
         <is>
@@ -19788,7 +19788,7 @@
       </c>
       <c r="H270" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I270" t="inlineStr">
@@ -19797,32 +19797,32 @@
         </is>
       </c>
       <c r="J270" t="n">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="K270" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="L270" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="M270" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="N270" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 70 unidades</t>
         </is>
       </c>
       <c r="O270" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P270" t="n">
-        <v>375</v>
+        <v>186</v>
       </c>
       <c r="Q270" t="n">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="R270" t="inlineStr">
         <is>
@@ -19845,7 +19845,7 @@
         </is>
       </c>
       <c r="D271" s="2" t="n">
-        <v>44162</v>
+        <v>44357</v>
       </c>
       <c r="E271" t="n">
         <v>13</v>
@@ -19865,36 +19865,36 @@
       </c>
       <c r="I271" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J271" t="n">
-        <v>300</v>
+        <v>16</v>
       </c>
       <c r="K271" t="n">
-        <v>9000</v>
+        <v>19000</v>
       </c>
       <c r="L271" t="n">
-        <v>9000</v>
+        <v>20000</v>
       </c>
       <c r="M271" t="n">
-        <v>9000</v>
+        <v>19500</v>
       </c>
       <c r="N271" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 25 unidades</t>
         </is>
       </c>
       <c r="O271" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P271" t="n">
-        <v>300</v>
+        <v>19500</v>
       </c>
       <c r="Q271" t="n">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="R271" t="inlineStr">
         <is>
@@ -19917,7 +19917,7 @@
         </is>
       </c>
       <c r="D272" s="2" t="n">
-        <v>44411</v>
+        <v>44357</v>
       </c>
       <c r="E272" t="n">
         <v>13</v>
@@ -19937,36 +19937,36 @@
       </c>
       <c r="I272" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J272" t="n">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="K272" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="L272" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="M272" t="n">
-        <v>16000</v>
+        <v>17500</v>
       </c>
       <c r="N272" t="inlineStr">
         <is>
-          <t>$/caja 25 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O272" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P272" t="n">
-        <v>16000</v>
+        <v>583</v>
       </c>
       <c r="Q272" t="n">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="R272" t="inlineStr">
         <is>
@@ -19989,7 +19989,7 @@
         </is>
       </c>
       <c r="D273" s="2" t="n">
-        <v>44411</v>
+        <v>44357</v>
       </c>
       <c r="E273" t="n">
         <v>13</v>
@@ -20009,36 +20009,36 @@
       </c>
       <c r="I273" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J273" t="n">
-        <v>61</v>
+        <v>25</v>
       </c>
       <c r="K273" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="L273" t="n">
         <v>15000</v>
       </c>
       <c r="M273" t="n">
-        <v>14492</v>
+        <v>15000</v>
       </c>
       <c r="N273" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O273" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P273" t="n">
-        <v>483</v>
+        <v>375</v>
       </c>
       <c r="Q273" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="R273" t="inlineStr">
         <is>
@@ -20061,7 +20061,7 @@
         </is>
       </c>
       <c r="D274" s="2" t="n">
-        <v>44411</v>
+        <v>44162</v>
       </c>
       <c r="E274" t="n">
         <v>13</v>
@@ -20081,36 +20081,36 @@
       </c>
       <c r="I274" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J274" t="n">
-        <v>25</v>
+        <v>300</v>
       </c>
       <c r="K274" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="L274" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="M274" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="N274" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O274" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P274" t="n">
         <v>300</v>
       </c>
       <c r="Q274" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="R274" t="inlineStr">
         <is>
@@ -20133,7 +20133,7 @@
         </is>
       </c>
       <c r="D275" s="2" t="n">
-        <v>44376</v>
+        <v>44411</v>
       </c>
       <c r="E275" t="n">
         <v>13</v>
@@ -20160,13 +20160,13 @@
         <v>16</v>
       </c>
       <c r="K275" t="n">
-        <v>21000</v>
+        <v>16000</v>
       </c>
       <c r="L275" t="n">
-        <v>22000</v>
+        <v>16000</v>
       </c>
       <c r="M275" t="n">
-        <v>21500</v>
+        <v>16000</v>
       </c>
       <c r="N275" t="inlineStr">
         <is>
@@ -20175,11 +20175,11 @@
       </c>
       <c r="O275" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P275" t="n">
-        <v>21500</v>
+        <v>16000</v>
       </c>
       <c r="Q275" t="n">
         <v>1</v>
@@ -20205,7 +20205,7 @@
         </is>
       </c>
       <c r="D276" s="2" t="n">
-        <v>44376</v>
+        <v>44411</v>
       </c>
       <c r="E276" t="n">
         <v>13</v>
@@ -20229,16 +20229,16 @@
         </is>
       </c>
       <c r="J276" t="n">
-        <v>34</v>
+        <v>61</v>
       </c>
       <c r="K276" t="n">
-        <v>19000</v>
+        <v>14000</v>
       </c>
       <c r="L276" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="M276" t="n">
-        <v>19500</v>
+        <v>14492</v>
       </c>
       <c r="N276" t="inlineStr">
         <is>
@@ -20247,11 +20247,11 @@
       </c>
       <c r="O276" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P276" t="n">
-        <v>650</v>
+        <v>483</v>
       </c>
       <c r="Q276" t="n">
         <v>30</v>
@@ -20277,7 +20277,7 @@
         </is>
       </c>
       <c r="D277" s="2" t="n">
-        <v>44376</v>
+        <v>44411</v>
       </c>
       <c r="E277" t="n">
         <v>13</v>
@@ -20304,13 +20304,13 @@
         <v>25</v>
       </c>
       <c r="K277" t="n">
-        <v>16000</v>
+        <v>12000</v>
       </c>
       <c r="L277" t="n">
-        <v>17000</v>
+        <v>12000</v>
       </c>
       <c r="M277" t="n">
-        <v>16480</v>
+        <v>12000</v>
       </c>
       <c r="N277" t="inlineStr">
         <is>
@@ -20319,11 +20319,11 @@
       </c>
       <c r="O277" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P277" t="n">
-        <v>412</v>
+        <v>300</v>
       </c>
       <c r="Q277" t="n">
         <v>40</v>
@@ -20349,7 +20349,7 @@
         </is>
       </c>
       <c r="D278" s="2" t="n">
-        <v>44292</v>
+        <v>44376</v>
       </c>
       <c r="E278" t="n">
         <v>13</v>
@@ -20369,36 +20369,36 @@
       </c>
       <c r="I278" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J278" t="n">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="K278" t="n">
-        <v>18000</v>
+        <v>21000</v>
       </c>
       <c r="L278" t="n">
-        <v>18000</v>
+        <v>22000</v>
       </c>
       <c r="M278" t="n">
-        <v>18000</v>
+        <v>21500</v>
       </c>
       <c r="N278" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 25 unidades</t>
         </is>
       </c>
       <c r="O278" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P278" t="n">
-        <v>600</v>
+        <v>21500</v>
       </c>
       <c r="Q278" t="n">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="R278" t="inlineStr">
         <is>
@@ -20421,7 +20421,7 @@
         </is>
       </c>
       <c r="D279" s="2" t="n">
-        <v>44358</v>
+        <v>44376</v>
       </c>
       <c r="E279" t="n">
         <v>13</v>
@@ -20436,7 +20436,7 @@
       </c>
       <c r="H279" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I279" t="inlineStr">
@@ -20445,20 +20445,20 @@
         </is>
       </c>
       <c r="J279" t="n">
-        <v>52</v>
+        <v>34</v>
       </c>
       <c r="K279" t="n">
-        <v>15000</v>
+        <v>19000</v>
       </c>
       <c r="L279" t="n">
-        <v>16000</v>
+        <v>20000</v>
       </c>
       <c r="M279" t="n">
-        <v>15500</v>
+        <v>19500</v>
       </c>
       <c r="N279" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O279" t="inlineStr">
@@ -20467,10 +20467,10 @@
         </is>
       </c>
       <c r="P279" t="n">
-        <v>310</v>
+        <v>650</v>
       </c>
       <c r="Q279" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R279" t="inlineStr">
         <is>
@@ -20493,7 +20493,7 @@
         </is>
       </c>
       <c r="D280" s="2" t="n">
-        <v>44358</v>
+        <v>44376</v>
       </c>
       <c r="E280" t="n">
         <v>13</v>
@@ -20508,7 +20508,7 @@
       </c>
       <c r="H280" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I280" t="inlineStr">
@@ -20517,20 +20517,20 @@
         </is>
       </c>
       <c r="J280" t="n">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="K280" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="L280" t="n">
-        <v>14000</v>
+        <v>17000</v>
       </c>
       <c r="M280" t="n">
-        <v>14000</v>
+        <v>16480</v>
       </c>
       <c r="N280" t="inlineStr">
         <is>
-          <t>$/caja 70 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O280" t="inlineStr">
@@ -20539,10 +20539,10 @@
         </is>
       </c>
       <c r="P280" t="n">
-        <v>200</v>
+        <v>412</v>
       </c>
       <c r="Q280" t="n">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="R280" t="inlineStr">
         <is>
@@ -20565,7 +20565,7 @@
         </is>
       </c>
       <c r="D281" s="2" t="n">
-        <v>44358</v>
+        <v>44292</v>
       </c>
       <c r="E281" t="n">
         <v>13</v>
@@ -20585,24 +20585,24 @@
       </c>
       <c r="I281" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J281" t="n">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="K281" t="n">
         <v>18000</v>
       </c>
       <c r="L281" t="n">
-        <v>19000</v>
+        <v>18000</v>
       </c>
       <c r="M281" t="n">
-        <v>18500</v>
+        <v>18000</v>
       </c>
       <c r="N281" t="inlineStr">
         <is>
-          <t>$/caja 25 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O281" t="inlineStr">
@@ -20611,10 +20611,10 @@
         </is>
       </c>
       <c r="P281" t="n">
-        <v>18500</v>
+        <v>600</v>
       </c>
       <c r="Q281" t="n">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="R281" t="inlineStr">
         <is>
@@ -20652,7 +20652,7 @@
       </c>
       <c r="H282" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I282" t="inlineStr">
@@ -20661,7 +20661,7 @@
         </is>
       </c>
       <c r="J282" t="n">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="K282" t="n">
         <v>15000</v>
@@ -20670,23 +20670,23 @@
         <v>16000</v>
       </c>
       <c r="M282" t="n">
-        <v>15488</v>
+        <v>15500</v>
       </c>
       <c r="N282" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O282" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P282" t="n">
-        <v>516</v>
+        <v>310</v>
       </c>
       <c r="Q282" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R282" t="inlineStr">
         <is>
@@ -20724,7 +20724,7 @@
       </c>
       <c r="H283" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I283" t="inlineStr">
@@ -20733,7 +20733,7 @@
         </is>
       </c>
       <c r="J283" t="n">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="K283" t="n">
         <v>14000</v>
@@ -20746,19 +20746,19 @@
       </c>
       <c r="N283" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 70 unidades</t>
         </is>
       </c>
       <c r="O283" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P283" t="n">
-        <v>350</v>
+        <v>200</v>
       </c>
       <c r="Q283" t="n">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="R283" t="inlineStr">
         <is>
@@ -20781,7 +20781,7 @@
         </is>
       </c>
       <c r="D284" s="2" t="n">
-        <v>44425</v>
+        <v>44358</v>
       </c>
       <c r="E284" t="n">
         <v>13</v>
@@ -20805,16 +20805,16 @@
         </is>
       </c>
       <c r="J284" t="n">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="K284" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="L284" t="n">
-        <v>16000</v>
+        <v>19000</v>
       </c>
       <c r="M284" t="n">
-        <v>16000</v>
+        <v>18500</v>
       </c>
       <c r="N284" t="inlineStr">
         <is>
@@ -20827,7 +20827,7 @@
         </is>
       </c>
       <c r="P284" t="n">
-        <v>16000</v>
+        <v>18500</v>
       </c>
       <c r="Q284" t="n">
         <v>1</v>
@@ -20853,7 +20853,7 @@
         </is>
       </c>
       <c r="D285" s="2" t="n">
-        <v>44425</v>
+        <v>44358</v>
       </c>
       <c r="E285" t="n">
         <v>13</v>
@@ -20877,16 +20877,16 @@
         </is>
       </c>
       <c r="J285" t="n">
-        <v>61</v>
+        <v>43</v>
       </c>
       <c r="K285" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="L285" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="M285" t="n">
-        <v>14508</v>
+        <v>15488</v>
       </c>
       <c r="N285" t="inlineStr">
         <is>
@@ -20899,7 +20899,7 @@
         </is>
       </c>
       <c r="P285" t="n">
-        <v>484</v>
+        <v>516</v>
       </c>
       <c r="Q285" t="n">
         <v>30</v>
@@ -20925,7 +20925,7 @@
         </is>
       </c>
       <c r="D286" s="2" t="n">
-        <v>44425</v>
+        <v>44358</v>
       </c>
       <c r="E286" t="n">
         <v>13</v>
@@ -20949,16 +20949,16 @@
         </is>
       </c>
       <c r="J286" t="n">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="K286" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="L286" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="M286" t="n">
-        <v>12500</v>
+        <v>14000</v>
       </c>
       <c r="N286" t="inlineStr">
         <is>
@@ -20971,7 +20971,7 @@
         </is>
       </c>
       <c r="P286" t="n">
-        <v>312</v>
+        <v>350</v>
       </c>
       <c r="Q286" t="n">
         <v>40</v>
@@ -21012,29 +21012,29 @@
       </c>
       <c r="H287" t="inlineStr">
         <is>
-          <t>Madrigal</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I287" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J287" t="n">
-        <v>43</v>
+        <v>25</v>
       </c>
       <c r="K287" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="L287" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="M287" t="n">
-        <v>14512</v>
+        <v>16000</v>
       </c>
       <c r="N287" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 25 unidades</t>
         </is>
       </c>
       <c r="O287" t="inlineStr">
@@ -21043,10 +21043,10 @@
         </is>
       </c>
       <c r="P287" t="n">
-        <v>363</v>
+        <v>16000</v>
       </c>
       <c r="Q287" t="n">
-        <v>40</v>
+        <v>1</v>
       </c>
       <c r="R287" t="inlineStr">
         <is>
@@ -21084,29 +21084,29 @@
       </c>
       <c r="H288" t="inlineStr">
         <is>
-          <t>Madrigal</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I288" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J288" t="n">
-        <v>25</v>
+        <v>61</v>
       </c>
       <c r="K288" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="L288" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="M288" t="n">
-        <v>12480</v>
+        <v>14508</v>
       </c>
       <c r="N288" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O288" t="inlineStr">
@@ -21115,10 +21115,10 @@
         </is>
       </c>
       <c r="P288" t="n">
-        <v>250</v>
+        <v>484</v>
       </c>
       <c r="Q288" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R288" t="inlineStr">
         <is>
@@ -21141,7 +21141,7 @@
         </is>
       </c>
       <c r="D289" s="2" t="n">
-        <v>44323</v>
+        <v>44425</v>
       </c>
       <c r="E289" t="n">
         <v>13</v>
@@ -21156,29 +21156,29 @@
       </c>
       <c r="H289" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I289" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J289" t="n">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="K289" t="n">
-        <v>18000</v>
+        <v>12000</v>
       </c>
       <c r="L289" t="n">
-        <v>18000</v>
+        <v>13000</v>
       </c>
       <c r="M289" t="n">
-        <v>18000</v>
+        <v>12500</v>
       </c>
       <c r="N289" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O289" t="inlineStr">
@@ -21187,10 +21187,10 @@
         </is>
       </c>
       <c r="P289" t="n">
-        <v>360</v>
+        <v>312</v>
       </c>
       <c r="Q289" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="R289" t="inlineStr">
         <is>
@@ -21213,7 +21213,7 @@
         </is>
       </c>
       <c r="D290" s="2" t="n">
-        <v>44323</v>
+        <v>44425</v>
       </c>
       <c r="E290" t="n">
         <v>13</v>
@@ -21228,29 +21228,29 @@
       </c>
       <c r="H290" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Madrigal</t>
         </is>
       </c>
       <c r="I290" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J290" t="n">
-        <v>16</v>
+        <v>43</v>
       </c>
       <c r="K290" t="n">
-        <v>18000</v>
+        <v>14000</v>
       </c>
       <c r="L290" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="M290" t="n">
-        <v>18000</v>
+        <v>14512</v>
       </c>
       <c r="N290" t="inlineStr">
         <is>
-          <t>$/caja 25 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O290" t="inlineStr">
@@ -21259,10 +21259,10 @@
         </is>
       </c>
       <c r="P290" t="n">
-        <v>18000</v>
+        <v>363</v>
       </c>
       <c r="Q290" t="n">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="R290" t="inlineStr">
         <is>
@@ -21285,7 +21285,7 @@
         </is>
       </c>
       <c r="D291" s="2" t="n">
-        <v>44323</v>
+        <v>44425</v>
       </c>
       <c r="E291" t="n">
         <v>13</v>
@@ -21300,43 +21300,259 @@
       </c>
       <c r="H291" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Madrigal</t>
         </is>
       </c>
       <c r="I291" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J291" t="n">
         <v>25</v>
       </c>
       <c r="K291" t="n">
+        <v>12000</v>
+      </c>
+      <c r="L291" t="n">
+        <v>13000</v>
+      </c>
+      <c r="M291" t="n">
+        <v>12480</v>
+      </c>
+      <c r="N291" t="inlineStr">
+        <is>
+          <t>$/caja 50 unidades</t>
+        </is>
+      </c>
+      <c r="O291" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P291" t="n">
+        <v>250</v>
+      </c>
+      <c r="Q291" t="n">
+        <v>50</v>
+      </c>
+      <c r="R291" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" t="n">
+        <v>9</v>
+      </c>
+      <c r="B292" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C292" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D292" s="2" t="n">
+        <v>44323</v>
+      </c>
+      <c r="E292" t="n">
+        <v>13</v>
+      </c>
+      <c r="F292" t="n">
+        <v>100112013</v>
+      </c>
+      <c r="G292" t="inlineStr">
+        <is>
+          <t>Alcachofa</t>
+        </is>
+      </c>
+      <c r="H292" t="inlineStr">
+        <is>
+          <t>Argentina(o)</t>
+        </is>
+      </c>
+      <c r="I292" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J292" t="n">
+        <v>16</v>
+      </c>
+      <c r="K292" t="n">
+        <v>18000</v>
+      </c>
+      <c r="L292" t="n">
+        <v>18000</v>
+      </c>
+      <c r="M292" t="n">
+        <v>18000</v>
+      </c>
+      <c r="N292" t="inlineStr">
+        <is>
+          <t>$/caja 50 unidades</t>
+        </is>
+      </c>
+      <c r="O292" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P292" t="n">
+        <v>360</v>
+      </c>
+      <c r="Q292" t="n">
+        <v>50</v>
+      </c>
+      <c r="R292" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" t="n">
+        <v>9</v>
+      </c>
+      <c r="B293" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C293" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D293" s="2" t="n">
+        <v>44323</v>
+      </c>
+      <c r="E293" t="n">
+        <v>13</v>
+      </c>
+      <c r="F293" t="n">
+        <v>100112013</v>
+      </c>
+      <c r="G293" t="inlineStr">
+        <is>
+          <t>Alcachofa</t>
+        </is>
+      </c>
+      <c r="H293" t="inlineStr">
+        <is>
+          <t>Española</t>
+        </is>
+      </c>
+      <c r="I293" t="inlineStr">
+        <is>
+          <t>Extra</t>
+        </is>
+      </c>
+      <c r="J293" t="n">
+        <v>16</v>
+      </c>
+      <c r="K293" t="n">
+        <v>18000</v>
+      </c>
+      <c r="L293" t="n">
+        <v>18000</v>
+      </c>
+      <c r="M293" t="n">
+        <v>18000</v>
+      </c>
+      <c r="N293" t="inlineStr">
+        <is>
+          <t>$/caja 25 unidades</t>
+        </is>
+      </c>
+      <c r="O293" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P293" t="n">
+        <v>18000</v>
+      </c>
+      <c r="Q293" t="n">
+        <v>1</v>
+      </c>
+      <c r="R293" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" t="n">
+        <v>9</v>
+      </c>
+      <c r="B294" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C294" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D294" s="2" t="n">
+        <v>44323</v>
+      </c>
+      <c r="E294" t="n">
+        <v>13</v>
+      </c>
+      <c r="F294" t="n">
+        <v>100112013</v>
+      </c>
+      <c r="G294" t="inlineStr">
+        <is>
+          <t>Alcachofa</t>
+        </is>
+      </c>
+      <c r="H294" t="inlineStr">
+        <is>
+          <t>Española</t>
+        </is>
+      </c>
+      <c r="I294" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J294" t="n">
+        <v>25</v>
+      </c>
+      <c r="K294" t="n">
         <v>16000</v>
       </c>
-      <c r="L291" t="n">
+      <c r="L294" t="n">
         <v>16000</v>
       </c>
-      <c r="M291" t="n">
+      <c r="M294" t="n">
         <v>16000</v>
       </c>
-      <c r="N291" t="inlineStr">
+      <c r="N294" t="inlineStr">
         <is>
           <t>$/caja 30 unidades</t>
         </is>
       </c>
-      <c r="O291" t="inlineStr">
+      <c r="O294" t="inlineStr">
         <is>
           <t>Provincia de Limarí</t>
         </is>
       </c>
-      <c r="P291" t="n">
+      <c r="P294" t="n">
         <v>533</v>
       </c>
-      <c r="Q291" t="n">
+      <c r="Q294" t="n">
         <v>30</v>
       </c>
-      <c r="R291" t="inlineStr">
+      <c r="R294" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Central Mapocho de Santiago - Alcachofa.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Central Mapocho de Santiago - Alcachofa.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R294"/>
+  <dimension ref="A1:R295"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15309,7 +15309,7 @@
         </is>
       </c>
       <c r="D208" s="2" t="n">
-        <v>44447</v>
+        <v>44466</v>
       </c>
       <c r="E208" t="n">
         <v>13</v>
@@ -15333,16 +15333,16 @@
         </is>
       </c>
       <c r="J208" t="n">
-        <v>25</v>
+        <v>52</v>
       </c>
       <c r="K208" t="n">
-        <v>14000</v>
+        <v>11000</v>
       </c>
       <c r="L208" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="M208" t="n">
-        <v>14520</v>
+        <v>11500</v>
       </c>
       <c r="N208" t="inlineStr">
         <is>
@@ -15355,7 +15355,7 @@
         </is>
       </c>
       <c r="P208" t="n">
-        <v>484</v>
+        <v>383</v>
       </c>
       <c r="Q208" t="n">
         <v>30</v>
@@ -15401,24 +15401,24 @@
       </c>
       <c r="I209" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J209" t="n">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="K209" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="L209" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="M209" t="n">
-        <v>13000</v>
+        <v>14520</v>
       </c>
       <c r="N209" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O209" t="inlineStr">
@@ -15427,10 +15427,10 @@
         </is>
       </c>
       <c r="P209" t="n">
-        <v>325</v>
+        <v>484</v>
       </c>
       <c r="Q209" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="R209" t="inlineStr">
         <is>
@@ -15453,7 +15453,7 @@
         </is>
       </c>
       <c r="D210" s="2" t="n">
-        <v>44390</v>
+        <v>44447</v>
       </c>
       <c r="E210" t="n">
         <v>13</v>
@@ -15473,24 +15473,24 @@
       </c>
       <c r="I210" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J210" t="n">
         <v>16</v>
       </c>
       <c r="K210" t="n">
-        <v>19000</v>
+        <v>13000</v>
       </c>
       <c r="L210" t="n">
-        <v>20000</v>
+        <v>13000</v>
       </c>
       <c r="M210" t="n">
-        <v>19500</v>
+        <v>13000</v>
       </c>
       <c r="N210" t="inlineStr">
         <is>
-          <t>$/caja 25 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O210" t="inlineStr">
@@ -15499,10 +15499,10 @@
         </is>
       </c>
       <c r="P210" t="n">
-        <v>19500</v>
+        <v>325</v>
       </c>
       <c r="Q210" t="n">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="R210" t="inlineStr">
         <is>
@@ -15545,24 +15545,24 @@
       </c>
       <c r="I211" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J211" t="n">
-        <v>43</v>
+        <v>16</v>
       </c>
       <c r="K211" t="n">
-        <v>16000</v>
+        <v>19000</v>
       </c>
       <c r="L211" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="M211" t="n">
-        <v>17023</v>
+        <v>19500</v>
       </c>
       <c r="N211" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 25 unidades</t>
         </is>
       </c>
       <c r="O211" t="inlineStr">
@@ -15571,10 +15571,10 @@
         </is>
       </c>
       <c r="P211" t="n">
-        <v>567</v>
+        <v>19500</v>
       </c>
       <c r="Q211" t="n">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="R211" t="inlineStr">
         <is>
@@ -15617,24 +15617,24 @@
       </c>
       <c r="I212" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J212" t="n">
-        <v>25</v>
+        <v>43</v>
       </c>
       <c r="K212" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="L212" t="n">
-        <v>14000</v>
+        <v>18000</v>
       </c>
       <c r="M212" t="n">
-        <v>14000</v>
+        <v>17023</v>
       </c>
       <c r="N212" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O212" t="inlineStr">
@@ -15643,10 +15643,10 @@
         </is>
       </c>
       <c r="P212" t="n">
-        <v>350</v>
+        <v>567</v>
       </c>
       <c r="Q212" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="R212" t="inlineStr">
         <is>
@@ -15669,7 +15669,7 @@
         </is>
       </c>
       <c r="D213" s="2" t="n">
-        <v>44386</v>
+        <v>44390</v>
       </c>
       <c r="E213" t="n">
         <v>13</v>
@@ -15689,36 +15689,36 @@
       </c>
       <c r="I213" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J213" t="n">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="K213" t="n">
-        <v>20000</v>
+        <v>14000</v>
       </c>
       <c r="L213" t="n">
-        <v>20000</v>
+        <v>14000</v>
       </c>
       <c r="M213" t="n">
-        <v>20000</v>
+        <v>14000</v>
       </c>
       <c r="N213" t="inlineStr">
         <is>
-          <t>$/caja 25 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O213" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P213" t="n">
-        <v>20000</v>
+        <v>350</v>
       </c>
       <c r="Q213" t="n">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="R213" t="inlineStr">
         <is>
@@ -15761,24 +15761,24 @@
       </c>
       <c r="I214" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J214" t="n">
-        <v>61</v>
+        <v>16</v>
       </c>
       <c r="K214" t="n">
-        <v>17000</v>
+        <v>20000</v>
       </c>
       <c r="L214" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="M214" t="n">
-        <v>17492</v>
+        <v>20000</v>
       </c>
       <c r="N214" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 25 unidades</t>
         </is>
       </c>
       <c r="O214" t="inlineStr">
@@ -15787,10 +15787,10 @@
         </is>
       </c>
       <c r="P214" t="n">
-        <v>583</v>
+        <v>20000</v>
       </c>
       <c r="Q214" t="n">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="R214" t="inlineStr">
         <is>
@@ -15833,24 +15833,24 @@
       </c>
       <c r="I215" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J215" t="n">
-        <v>34</v>
+        <v>61</v>
       </c>
       <c r="K215" t="n">
-        <v>15000</v>
+        <v>17000</v>
       </c>
       <c r="L215" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="M215" t="n">
-        <v>15500</v>
+        <v>17492</v>
       </c>
       <c r="N215" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O215" t="inlineStr">
@@ -15859,10 +15859,10 @@
         </is>
       </c>
       <c r="P215" t="n">
-        <v>388</v>
+        <v>583</v>
       </c>
       <c r="Q215" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="R215" t="inlineStr">
         <is>
@@ -15900,29 +15900,29 @@
       </c>
       <c r="H216" t="inlineStr">
         <is>
-          <t>Madrigal</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I216" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J216" t="n">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="K216" t="n">
-        <v>22000</v>
+        <v>15000</v>
       </c>
       <c r="L216" t="n">
-        <v>22000</v>
+        <v>16000</v>
       </c>
       <c r="M216" t="n">
-        <v>22000</v>
+        <v>15500</v>
       </c>
       <c r="N216" t="inlineStr">
         <is>
-          <t>$/caja 35 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O216" t="inlineStr">
@@ -15931,10 +15931,10 @@
         </is>
       </c>
       <c r="P216" t="n">
-        <v>629</v>
+        <v>388</v>
       </c>
       <c r="Q216" t="n">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="R216" t="inlineStr">
         <is>
@@ -15977,24 +15977,24 @@
       </c>
       <c r="I217" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J217" t="n">
-        <v>43</v>
+        <v>16</v>
       </c>
       <c r="K217" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="L217" t="n">
-        <v>21000</v>
+        <v>22000</v>
       </c>
       <c r="M217" t="n">
-        <v>20488</v>
+        <v>22000</v>
       </c>
       <c r="N217" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 35 unidades</t>
         </is>
       </c>
       <c r="O217" t="inlineStr">
@@ -16003,10 +16003,10 @@
         </is>
       </c>
       <c r="P217" t="n">
-        <v>512</v>
+        <v>629</v>
       </c>
       <c r="Q217" t="n">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="R217" t="inlineStr">
         <is>
@@ -16049,24 +16049,24 @@
       </c>
       <c r="I218" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J218" t="n">
-        <v>25</v>
+        <v>43</v>
       </c>
       <c r="K218" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="L218" t="n">
-        <v>19000</v>
+        <v>21000</v>
       </c>
       <c r="M218" t="n">
-        <v>18480</v>
+        <v>20488</v>
       </c>
       <c r="N218" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O218" t="inlineStr">
@@ -16075,10 +16075,10 @@
         </is>
       </c>
       <c r="P218" t="n">
-        <v>370</v>
+        <v>512</v>
       </c>
       <c r="Q218" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="R218" t="inlineStr">
         <is>
@@ -16101,7 +16101,7 @@
         </is>
       </c>
       <c r="D219" s="2" t="n">
-        <v>44308</v>
+        <v>44386</v>
       </c>
       <c r="E219" t="n">
         <v>13</v>
@@ -16116,41 +16116,41 @@
       </c>
       <c r="H219" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Madrigal</t>
         </is>
       </c>
       <c r="I219" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J219" t="n">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="K219" t="n">
-        <v>20000</v>
+        <v>18000</v>
       </c>
       <c r="L219" t="n">
-        <v>20000</v>
+        <v>19000</v>
       </c>
       <c r="M219" t="n">
-        <v>20000</v>
+        <v>18480</v>
       </c>
       <c r="N219" t="inlineStr">
         <is>
-          <t>$/caja 25 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O219" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P219" t="n">
-        <v>20000</v>
+        <v>370</v>
       </c>
       <c r="Q219" t="n">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="R219" t="inlineStr">
         <is>
@@ -16193,24 +16193,24 @@
       </c>
       <c r="I220" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J220" t="n">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="K220" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="L220" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="M220" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="N220" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 25 unidades</t>
         </is>
       </c>
       <c r="O220" t="inlineStr">
@@ -16219,10 +16219,10 @@
         </is>
       </c>
       <c r="P220" t="n">
-        <v>600</v>
+        <v>20000</v>
       </c>
       <c r="Q220" t="n">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="R220" t="inlineStr">
         <is>
@@ -16245,7 +16245,7 @@
         </is>
       </c>
       <c r="D221" s="2" t="n">
-        <v>44463</v>
+        <v>44308</v>
       </c>
       <c r="E221" t="n">
         <v>13</v>
@@ -16265,24 +16265,24 @@
       </c>
       <c r="I221" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J221" t="n">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="K221" t="n">
-        <v>14000</v>
+        <v>18000</v>
       </c>
       <c r="L221" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="M221" t="n">
-        <v>14524</v>
+        <v>18000</v>
       </c>
       <c r="N221" t="inlineStr">
         <is>
-          <t>$/caja 25 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O221" t="inlineStr">
@@ -16291,10 +16291,10 @@
         </is>
       </c>
       <c r="P221" t="n">
-        <v>14524</v>
+        <v>600</v>
       </c>
       <c r="Q221" t="n">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="R221" t="inlineStr">
         <is>
@@ -16337,24 +16337,24 @@
       </c>
       <c r="I222" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J222" t="n">
-        <v>52</v>
+        <v>21</v>
       </c>
       <c r="K222" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="L222" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="M222" t="n">
-        <v>12500</v>
+        <v>14524</v>
       </c>
       <c r="N222" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 25 unidades</t>
         </is>
       </c>
       <c r="O222" t="inlineStr">
@@ -16363,10 +16363,10 @@
         </is>
       </c>
       <c r="P222" t="n">
-        <v>417</v>
+        <v>14524</v>
       </c>
       <c r="Q222" t="n">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="R222" t="inlineStr">
         <is>
@@ -16409,24 +16409,24 @@
       </c>
       <c r="I223" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J223" t="n">
-        <v>38</v>
+        <v>52</v>
       </c>
       <c r="K223" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="L223" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="M223" t="n">
-        <v>10500</v>
+        <v>12500</v>
       </c>
       <c r="N223" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O223" t="inlineStr">
@@ -16435,10 +16435,10 @@
         </is>
       </c>
       <c r="P223" t="n">
-        <v>262</v>
+        <v>417</v>
       </c>
       <c r="Q223" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="R223" t="inlineStr">
         <is>
@@ -16461,7 +16461,7 @@
         </is>
       </c>
       <c r="D224" s="2" t="n">
-        <v>44301</v>
+        <v>44463</v>
       </c>
       <c r="E224" t="n">
         <v>13</v>
@@ -16481,24 +16481,24 @@
       </c>
       <c r="I224" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J224" t="n">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="K224" t="n">
-        <v>17000</v>
+        <v>10000</v>
       </c>
       <c r="L224" t="n">
-        <v>18000</v>
+        <v>11000</v>
       </c>
       <c r="M224" t="n">
-        <v>17500</v>
+        <v>10500</v>
       </c>
       <c r="N224" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O224" t="inlineStr">
@@ -16507,10 +16507,10 @@
         </is>
       </c>
       <c r="P224" t="n">
-        <v>583</v>
+        <v>262</v>
       </c>
       <c r="Q224" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="R224" t="inlineStr">
         <is>
@@ -16533,7 +16533,7 @@
         </is>
       </c>
       <c r="D225" s="2" t="n">
-        <v>44166</v>
+        <v>44301</v>
       </c>
       <c r="E225" t="n">
         <v>13</v>
@@ -16557,16 +16557,16 @@
         </is>
       </c>
       <c r="J225" t="n">
-        <v>250</v>
+        <v>30</v>
       </c>
       <c r="K225" t="n">
-        <v>11000</v>
+        <v>17000</v>
       </c>
       <c r="L225" t="n">
-        <v>11000</v>
+        <v>18000</v>
       </c>
       <c r="M225" t="n">
-        <v>11000</v>
+        <v>17500</v>
       </c>
       <c r="N225" t="inlineStr">
         <is>
@@ -16575,11 +16575,11 @@
       </c>
       <c r="O225" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P225" t="n">
-        <v>367</v>
+        <v>583</v>
       </c>
       <c r="Q225" t="n">
         <v>30</v>
@@ -16605,7 +16605,7 @@
         </is>
       </c>
       <c r="D226" s="2" t="n">
-        <v>44168</v>
+        <v>44166</v>
       </c>
       <c r="E226" t="n">
         <v>13</v>
@@ -16629,7 +16629,7 @@
         </is>
       </c>
       <c r="J226" t="n">
-        <v>230</v>
+        <v>250</v>
       </c>
       <c r="K226" t="n">
         <v>11000</v>
@@ -16677,7 +16677,7 @@
         </is>
       </c>
       <c r="D227" s="2" t="n">
-        <v>44369</v>
+        <v>44168</v>
       </c>
       <c r="E227" t="n">
         <v>13</v>
@@ -16697,36 +16697,36 @@
       </c>
       <c r="I227" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J227" t="n">
-        <v>16</v>
+        <v>230</v>
       </c>
       <c r="K227" t="n">
-        <v>21000</v>
+        <v>11000</v>
       </c>
       <c r="L227" t="n">
-        <v>22000</v>
+        <v>11000</v>
       </c>
       <c r="M227" t="n">
-        <v>21500</v>
+        <v>11000</v>
       </c>
       <c r="N227" t="inlineStr">
         <is>
-          <t>$/caja 25 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O227" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P227" t="n">
-        <v>21500</v>
+        <v>367</v>
       </c>
       <c r="Q227" t="n">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="R227" t="inlineStr">
         <is>
@@ -16769,24 +16769,24 @@
       </c>
       <c r="I228" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J228" t="n">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="K228" t="n">
-        <v>19000</v>
+        <v>21000</v>
       </c>
       <c r="L228" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="M228" t="n">
-        <v>19500</v>
+        <v>21500</v>
       </c>
       <c r="N228" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 25 unidades</t>
         </is>
       </c>
       <c r="O228" t="inlineStr">
@@ -16795,10 +16795,10 @@
         </is>
       </c>
       <c r="P228" t="n">
-        <v>650</v>
+        <v>21500</v>
       </c>
       <c r="Q228" t="n">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="R228" t="inlineStr">
         <is>
@@ -16841,24 +16841,24 @@
       </c>
       <c r="I229" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J229" t="n">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="K229" t="n">
-        <v>17000</v>
+        <v>19000</v>
       </c>
       <c r="L229" t="n">
-        <v>17000</v>
+        <v>20000</v>
       </c>
       <c r="M229" t="n">
-        <v>17000</v>
+        <v>19500</v>
       </c>
       <c r="N229" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O229" t="inlineStr">
@@ -16867,10 +16867,10 @@
         </is>
       </c>
       <c r="P229" t="n">
-        <v>425</v>
+        <v>650</v>
       </c>
       <c r="Q229" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="R229" t="inlineStr">
         <is>
@@ -16908,25 +16908,25 @@
       </c>
       <c r="H230" t="inlineStr">
         <is>
-          <t>Madrigal</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I230" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J230" t="n">
-        <v>43</v>
+        <v>25</v>
       </c>
       <c r="K230" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="L230" t="n">
         <v>17000</v>
       </c>
       <c r="M230" t="n">
-        <v>16488</v>
+        <v>17000</v>
       </c>
       <c r="N230" t="inlineStr">
         <is>
@@ -16935,11 +16935,11 @@
       </c>
       <c r="O230" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P230" t="n">
-        <v>412</v>
+        <v>425</v>
       </c>
       <c r="Q230" t="n">
         <v>40</v>
@@ -16985,24 +16985,24 @@
       </c>
       <c r="I231" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J231" t="n">
-        <v>25</v>
+        <v>43</v>
       </c>
       <c r="K231" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="L231" t="n">
-        <v>14000</v>
+        <v>17000</v>
       </c>
       <c r="M231" t="n">
-        <v>14000</v>
+        <v>16488</v>
       </c>
       <c r="N231" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O231" t="inlineStr">
@@ -17011,10 +17011,10 @@
         </is>
       </c>
       <c r="P231" t="n">
-        <v>280</v>
+        <v>412</v>
       </c>
       <c r="Q231" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="R231" t="inlineStr">
         <is>
@@ -17037,7 +17037,7 @@
         </is>
       </c>
       <c r="D232" s="2" t="n">
-        <v>44433</v>
+        <v>44369</v>
       </c>
       <c r="E232" t="n">
         <v>13</v>
@@ -17052,41 +17052,41 @@
       </c>
       <c r="H232" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Madrigal</t>
         </is>
       </c>
       <c r="I232" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J232" t="n">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="K232" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="L232" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="M232" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="N232" t="inlineStr">
         <is>
-          <t>$/caja 25 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O232" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P232" t="n">
-        <v>16000</v>
+        <v>280</v>
       </c>
       <c r="Q232" t="n">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="R232" t="inlineStr">
         <is>
@@ -17129,24 +17129,24 @@
       </c>
       <c r="I233" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J233" t="n">
-        <v>52</v>
+        <v>16</v>
       </c>
       <c r="K233" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="L233" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="M233" t="n">
-        <v>14500</v>
+        <v>16000</v>
       </c>
       <c r="N233" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 25 unidades</t>
         </is>
       </c>
       <c r="O233" t="inlineStr">
@@ -17155,10 +17155,10 @@
         </is>
       </c>
       <c r="P233" t="n">
-        <v>483</v>
+        <v>16000</v>
       </c>
       <c r="Q233" t="n">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="R233" t="inlineStr">
         <is>
@@ -17201,24 +17201,24 @@
       </c>
       <c r="I234" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J234" t="n">
-        <v>34</v>
+        <v>52</v>
       </c>
       <c r="K234" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="L234" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="M234" t="n">
-        <v>12500</v>
+        <v>14500</v>
       </c>
       <c r="N234" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O234" t="inlineStr">
@@ -17227,10 +17227,10 @@
         </is>
       </c>
       <c r="P234" t="n">
-        <v>312</v>
+        <v>483</v>
       </c>
       <c r="Q234" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="R234" t="inlineStr">
         <is>
@@ -17253,7 +17253,7 @@
         </is>
       </c>
       <c r="D235" s="2" t="n">
-        <v>44371</v>
+        <v>44433</v>
       </c>
       <c r="E235" t="n">
         <v>13</v>
@@ -17273,36 +17273,36 @@
       </c>
       <c r="I235" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J235" t="n">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="K235" t="n">
-        <v>20000</v>
+        <v>12000</v>
       </c>
       <c r="L235" t="n">
-        <v>21000</v>
+        <v>13000</v>
       </c>
       <c r="M235" t="n">
-        <v>20500</v>
+        <v>12500</v>
       </c>
       <c r="N235" t="inlineStr">
         <is>
-          <t>$/caja 25 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O235" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P235" t="n">
-        <v>20500</v>
+        <v>312</v>
       </c>
       <c r="Q235" t="n">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="R235" t="inlineStr">
         <is>
@@ -17345,24 +17345,24 @@
       </c>
       <c r="I236" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J236" t="n">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="K236" t="n">
-        <v>17000</v>
+        <v>20000</v>
       </c>
       <c r="L236" t="n">
-        <v>18000</v>
+        <v>21000</v>
       </c>
       <c r="M236" t="n">
-        <v>17500</v>
+        <v>20500</v>
       </c>
       <c r="N236" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 25 unidades</t>
         </is>
       </c>
       <c r="O236" t="inlineStr">
@@ -17371,10 +17371,10 @@
         </is>
       </c>
       <c r="P236" t="n">
-        <v>583</v>
+        <v>20500</v>
       </c>
       <c r="Q236" t="n">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="R236" t="inlineStr">
         <is>
@@ -17417,24 +17417,24 @@
       </c>
       <c r="I237" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J237" t="n">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="K237" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="L237" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="M237" t="n">
-        <v>16000</v>
+        <v>17500</v>
       </c>
       <c r="N237" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O237" t="inlineStr">
@@ -17443,10 +17443,10 @@
         </is>
       </c>
       <c r="P237" t="n">
-        <v>400</v>
+        <v>583</v>
       </c>
       <c r="Q237" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="R237" t="inlineStr">
         <is>
@@ -17469,7 +17469,7 @@
         </is>
       </c>
       <c r="D238" s="2" t="n">
-        <v>44316</v>
+        <v>44371</v>
       </c>
       <c r="E238" t="n">
         <v>13</v>
@@ -17484,29 +17484,29 @@
       </c>
       <c r="H238" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I238" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J238" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="K238" t="n">
-        <v>18000</v>
+        <v>16000</v>
       </c>
       <c r="L238" t="n">
-        <v>18000</v>
+        <v>16000</v>
       </c>
       <c r="M238" t="n">
-        <v>18000</v>
+        <v>16000</v>
       </c>
       <c r="N238" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O238" t="inlineStr">
@@ -17515,10 +17515,10 @@
         </is>
       </c>
       <c r="P238" t="n">
-        <v>360</v>
+        <v>400</v>
       </c>
       <c r="Q238" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="R238" t="inlineStr">
         <is>
@@ -17556,16 +17556,16 @@
       </c>
       <c r="H239" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I239" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J239" t="n">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="K239" t="n">
         <v>18000</v>
@@ -17578,7 +17578,7 @@
       </c>
       <c r="N239" t="inlineStr">
         <is>
-          <t>$/caja 25 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O239" t="inlineStr">
@@ -17587,10 +17587,10 @@
         </is>
       </c>
       <c r="P239" t="n">
-        <v>18000</v>
+        <v>360</v>
       </c>
       <c r="Q239" t="n">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="R239" t="inlineStr">
         <is>
@@ -17633,24 +17633,24 @@
       </c>
       <c r="I240" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J240" t="n">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="K240" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="L240" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="M240" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="N240" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 25 unidades</t>
         </is>
       </c>
       <c r="O240" t="inlineStr">
@@ -17659,10 +17659,10 @@
         </is>
       </c>
       <c r="P240" t="n">
-        <v>533</v>
+        <v>18000</v>
       </c>
       <c r="Q240" t="n">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="R240" t="inlineStr">
         <is>
@@ -17685,7 +17685,7 @@
         </is>
       </c>
       <c r="D241" s="2" t="n">
-        <v>44397</v>
+        <v>44316</v>
       </c>
       <c r="E241" t="n">
         <v>13</v>
@@ -17705,24 +17705,24 @@
       </c>
       <c r="I241" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J241" t="n">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="K241" t="n">
-        <v>19000</v>
+        <v>16000</v>
       </c>
       <c r="L241" t="n">
-        <v>20000</v>
+        <v>16000</v>
       </c>
       <c r="M241" t="n">
-        <v>19500</v>
+        <v>16000</v>
       </c>
       <c r="N241" t="inlineStr">
         <is>
-          <t>$/caja 25 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O241" t="inlineStr">
@@ -17731,10 +17731,10 @@
         </is>
       </c>
       <c r="P241" t="n">
-        <v>19500</v>
+        <v>533</v>
       </c>
       <c r="Q241" t="n">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="R241" t="inlineStr">
         <is>
@@ -17777,24 +17777,24 @@
       </c>
       <c r="I242" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J242" t="n">
-        <v>43</v>
+        <v>16</v>
       </c>
       <c r="K242" t="n">
-        <v>16000</v>
+        <v>19000</v>
       </c>
       <c r="L242" t="n">
-        <v>17000</v>
+        <v>20000</v>
       </c>
       <c r="M242" t="n">
-        <v>16488</v>
+        <v>19500</v>
       </c>
       <c r="N242" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 25 unidades</t>
         </is>
       </c>
       <c r="O242" t="inlineStr">
@@ -17803,10 +17803,10 @@
         </is>
       </c>
       <c r="P242" t="n">
-        <v>550</v>
+        <v>19500</v>
       </c>
       <c r="Q242" t="n">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="R242" t="inlineStr">
         <is>
@@ -17849,24 +17849,24 @@
       </c>
       <c r="I243" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J243" t="n">
-        <v>25</v>
+        <v>43</v>
       </c>
       <c r="K243" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="L243" t="n">
-        <v>15000</v>
+        <v>17000</v>
       </c>
       <c r="M243" t="n">
-        <v>15000</v>
+        <v>16488</v>
       </c>
       <c r="N243" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O243" t="inlineStr">
@@ -17875,10 +17875,10 @@
         </is>
       </c>
       <c r="P243" t="n">
-        <v>375</v>
+        <v>550</v>
       </c>
       <c r="Q243" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="R243" t="inlineStr">
         <is>
@@ -17901,7 +17901,7 @@
         </is>
       </c>
       <c r="D244" s="2" t="n">
-        <v>44363</v>
+        <v>44397</v>
       </c>
       <c r="E244" t="n">
         <v>13</v>
@@ -17916,41 +17916,41 @@
       </c>
       <c r="H244" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I244" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J244" t="n">
-        <v>52</v>
+        <v>25</v>
       </c>
       <c r="K244" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="L244" t="n">
-        <v>17000</v>
+        <v>15000</v>
       </c>
       <c r="M244" t="n">
-        <v>16500</v>
+        <v>15000</v>
       </c>
       <c r="N244" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O244" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P244" t="n">
-        <v>330</v>
+        <v>375</v>
       </c>
       <c r="Q244" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="R244" t="inlineStr">
         <is>
@@ -17988,7 +17988,7 @@
       </c>
       <c r="H245" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I245" t="inlineStr">
@@ -17997,32 +17997,32 @@
         </is>
       </c>
       <c r="J245" t="n">
-        <v>34</v>
+        <v>52</v>
       </c>
       <c r="K245" t="n">
+        <v>16000</v>
+      </c>
+      <c r="L245" t="n">
         <v>17000</v>
       </c>
-      <c r="L245" t="n">
-        <v>18000</v>
-      </c>
       <c r="M245" t="n">
-        <v>17500</v>
+        <v>16500</v>
       </c>
       <c r="N245" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O245" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P245" t="n">
-        <v>583</v>
+        <v>330</v>
       </c>
       <c r="Q245" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R245" t="inlineStr">
         <is>
@@ -18045,7 +18045,7 @@
         </is>
       </c>
       <c r="D246" s="2" t="n">
-        <v>44438</v>
+        <v>44363</v>
       </c>
       <c r="E246" t="n">
         <v>13</v>
@@ -18065,24 +18065,24 @@
       </c>
       <c r="I246" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J246" t="n">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="K246" t="n">
-        <v>15000</v>
+        <v>17000</v>
       </c>
       <c r="L246" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="M246" t="n">
-        <v>15000</v>
+        <v>17500</v>
       </c>
       <c r="N246" t="inlineStr">
         <is>
-          <t>$/caja 25 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O246" t="inlineStr">
@@ -18091,10 +18091,10 @@
         </is>
       </c>
       <c r="P246" t="n">
-        <v>15000</v>
+        <v>583</v>
       </c>
       <c r="Q246" t="n">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="R246" t="inlineStr">
         <is>
@@ -18137,24 +18137,24 @@
       </c>
       <c r="I247" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J247" t="n">
-        <v>34</v>
+        <v>12</v>
       </c>
       <c r="K247" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="L247" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="M247" t="n">
-        <v>13500</v>
+        <v>15000</v>
       </c>
       <c r="N247" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 25 unidades</t>
         </is>
       </c>
       <c r="O247" t="inlineStr">
@@ -18163,10 +18163,10 @@
         </is>
       </c>
       <c r="P247" t="n">
-        <v>450</v>
+        <v>15000</v>
       </c>
       <c r="Q247" t="n">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="R247" t="inlineStr">
         <is>
@@ -18209,24 +18209,24 @@
       </c>
       <c r="I248" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J248" t="n">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="K248" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="L248" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="M248" t="n">
-        <v>11480</v>
+        <v>13500</v>
       </c>
       <c r="N248" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O248" t="inlineStr">
@@ -18235,10 +18235,10 @@
         </is>
       </c>
       <c r="P248" t="n">
-        <v>287</v>
+        <v>450</v>
       </c>
       <c r="Q248" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="R248" t="inlineStr">
         <is>
@@ -18261,7 +18261,7 @@
         </is>
       </c>
       <c r="D249" s="2" t="n">
-        <v>44372</v>
+        <v>44438</v>
       </c>
       <c r="E249" t="n">
         <v>13</v>
@@ -18276,41 +18276,41 @@
       </c>
       <c r="H249" t="inlineStr">
         <is>
-          <t>Madrigal</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I249" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J249" t="n">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="K249" t="n">
-        <v>20000</v>
+        <v>11000</v>
       </c>
       <c r="L249" t="n">
-        <v>20000</v>
+        <v>12000</v>
       </c>
       <c r="M249" t="n">
-        <v>20000</v>
+        <v>11480</v>
       </c>
       <c r="N249" t="inlineStr">
         <is>
-          <t>$/caja 35 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O249" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P249" t="n">
-        <v>571</v>
+        <v>287</v>
       </c>
       <c r="Q249" t="n">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="R249" t="inlineStr">
         <is>
@@ -18353,24 +18353,24 @@
       </c>
       <c r="I250" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J250" t="n">
-        <v>52</v>
+        <v>16</v>
       </c>
       <c r="K250" t="n">
-        <v>17000</v>
+        <v>20000</v>
       </c>
       <c r="L250" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="M250" t="n">
-        <v>17500</v>
+        <v>20000</v>
       </c>
       <c r="N250" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 35 unidades</t>
         </is>
       </c>
       <c r="O250" t="inlineStr">
@@ -18379,10 +18379,10 @@
         </is>
       </c>
       <c r="P250" t="n">
-        <v>438</v>
+        <v>571</v>
       </c>
       <c r="Q250" t="n">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="R250" t="inlineStr">
         <is>
@@ -18425,24 +18425,24 @@
       </c>
       <c r="I251" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J251" t="n">
-        <v>34</v>
+        <v>52</v>
       </c>
       <c r="K251" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="L251" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="M251" t="n">
-        <v>16000</v>
+        <v>17500</v>
       </c>
       <c r="N251" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O251" t="inlineStr">
@@ -18451,10 +18451,10 @@
         </is>
       </c>
       <c r="P251" t="n">
-        <v>320</v>
+        <v>438</v>
       </c>
       <c r="Q251" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="R251" t="inlineStr">
         <is>
@@ -18477,7 +18477,7 @@
         </is>
       </c>
       <c r="D252" s="2" t="n">
-        <v>44356</v>
+        <v>44372</v>
       </c>
       <c r="E252" t="n">
         <v>13</v>
@@ -18492,25 +18492,25 @@
       </c>
       <c r="H252" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Madrigal</t>
         </is>
       </c>
       <c r="I252" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J252" t="n">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="K252" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="L252" t="n">
         <v>16000</v>
       </c>
       <c r="M252" t="n">
-        <v>15476</v>
+        <v>16000</v>
       </c>
       <c r="N252" t="inlineStr">
         <is>
@@ -18523,7 +18523,7 @@
         </is>
       </c>
       <c r="P252" t="n">
-        <v>310</v>
+        <v>320</v>
       </c>
       <c r="Q252" t="n">
         <v>50</v>
@@ -18569,24 +18569,24 @@
       </c>
       <c r="I253" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J253" t="n">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="K253" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="L253" t="n">
-        <v>13000</v>
+        <v>16000</v>
       </c>
       <c r="M253" t="n">
-        <v>13000</v>
+        <v>15476</v>
       </c>
       <c r="N253" t="inlineStr">
         <is>
-          <t>$/caja 70 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O253" t="inlineStr">
@@ -18595,10 +18595,10 @@
         </is>
       </c>
       <c r="P253" t="n">
-        <v>186</v>
+        <v>310</v>
       </c>
       <c r="Q253" t="n">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="R253" t="inlineStr">
         <is>
@@ -18636,41 +18636,41 @@
       </c>
       <c r="H254" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I254" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J254" t="n">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="K254" t="n">
-        <v>17000</v>
+        <v>13000</v>
       </c>
       <c r="L254" t="n">
-        <v>18000</v>
+        <v>13000</v>
       </c>
       <c r="M254" t="n">
-        <v>17520</v>
+        <v>13000</v>
       </c>
       <c r="N254" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 70 unidades</t>
         </is>
       </c>
       <c r="O254" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P254" t="n">
-        <v>584</v>
+        <v>186</v>
       </c>
       <c r="Q254" t="n">
-        <v>30</v>
+        <v>70</v>
       </c>
       <c r="R254" t="inlineStr">
         <is>
@@ -18713,20 +18713,20 @@
       </c>
       <c r="I255" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J255" t="n">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="K255" t="n">
-        <v>14000</v>
+        <v>17000</v>
       </c>
       <c r="L255" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="M255" t="n">
-        <v>14500</v>
+        <v>17520</v>
       </c>
       <c r="N255" t="inlineStr">
         <is>
@@ -18739,7 +18739,7 @@
         </is>
       </c>
       <c r="P255" t="n">
-        <v>483</v>
+        <v>584</v>
       </c>
       <c r="Q255" t="n">
         <v>30</v>
@@ -18765,7 +18765,7 @@
         </is>
       </c>
       <c r="D256" s="2" t="n">
-        <v>44351</v>
+        <v>44356</v>
       </c>
       <c r="E256" t="n">
         <v>13</v>
@@ -18780,29 +18780,29 @@
       </c>
       <c r="H256" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I256" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J256" t="n">
-        <v>43</v>
+        <v>16</v>
       </c>
       <c r="K256" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="L256" t="n">
-        <v>17000</v>
+        <v>15000</v>
       </c>
       <c r="M256" t="n">
-        <v>16512</v>
+        <v>14500</v>
       </c>
       <c r="N256" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O256" t="inlineStr">
@@ -18811,10 +18811,10 @@
         </is>
       </c>
       <c r="P256" t="n">
-        <v>330</v>
+        <v>483</v>
       </c>
       <c r="Q256" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R256" t="inlineStr">
         <is>
@@ -18857,24 +18857,24 @@
       </c>
       <c r="I257" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J257" t="n">
-        <v>21</v>
+        <v>43</v>
       </c>
       <c r="K257" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="L257" t="n">
-        <v>15000</v>
+        <v>17000</v>
       </c>
       <c r="M257" t="n">
-        <v>15000</v>
+        <v>16512</v>
       </c>
       <c r="N257" t="inlineStr">
         <is>
-          <t>$/caja 70 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O257" t="inlineStr">
@@ -18883,10 +18883,10 @@
         </is>
       </c>
       <c r="P257" t="n">
-        <v>214</v>
+        <v>330</v>
       </c>
       <c r="Q257" t="n">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="R257" t="inlineStr">
         <is>
@@ -18924,41 +18924,41 @@
       </c>
       <c r="H258" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I258" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J258" t="n">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="K258" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="L258" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="M258" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="N258" t="inlineStr">
         <is>
-          <t>$/caja 25 unidades</t>
+          <t>$/caja 70 unidades</t>
         </is>
       </c>
       <c r="O258" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P258" t="n">
-        <v>20000</v>
+        <v>214</v>
       </c>
       <c r="Q258" t="n">
-        <v>1</v>
+        <v>70</v>
       </c>
       <c r="R258" t="inlineStr">
         <is>
@@ -19001,24 +19001,24 @@
       </c>
       <c r="I259" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J259" t="n">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="K259" t="n">
-        <v>17000</v>
+        <v>20000</v>
       </c>
       <c r="L259" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="M259" t="n">
-        <v>17500</v>
+        <v>20000</v>
       </c>
       <c r="N259" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 25 unidades</t>
         </is>
       </c>
       <c r="O259" t="inlineStr">
@@ -19027,10 +19027,10 @@
         </is>
       </c>
       <c r="P259" t="n">
-        <v>583</v>
+        <v>20000</v>
       </c>
       <c r="Q259" t="n">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="R259" t="inlineStr">
         <is>
@@ -19073,24 +19073,24 @@
       </c>
       <c r="I260" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J260" t="n">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="K260" t="n">
-        <v>15000</v>
+        <v>17000</v>
       </c>
       <c r="L260" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="M260" t="n">
-        <v>15000</v>
+        <v>17500</v>
       </c>
       <c r="N260" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O260" t="inlineStr">
@@ -19099,10 +19099,10 @@
         </is>
       </c>
       <c r="P260" t="n">
-        <v>375</v>
+        <v>583</v>
       </c>
       <c r="Q260" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="R260" t="inlineStr">
         <is>
@@ -19125,7 +19125,7 @@
         </is>
       </c>
       <c r="D261" s="2" t="n">
-        <v>44365</v>
+        <v>44351</v>
       </c>
       <c r="E261" t="n">
         <v>13</v>
@@ -19140,29 +19140,29 @@
       </c>
       <c r="H261" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I261" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J261" t="n">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="K261" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="L261" t="n">
-        <v>17000</v>
+        <v>15000</v>
       </c>
       <c r="M261" t="n">
-        <v>16500</v>
+        <v>15000</v>
       </c>
       <c r="N261" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O261" t="inlineStr">
@@ -19171,10 +19171,10 @@
         </is>
       </c>
       <c r="P261" t="n">
-        <v>330</v>
+        <v>375</v>
       </c>
       <c r="Q261" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="R261" t="inlineStr">
         <is>
@@ -19217,24 +19217,24 @@
       </c>
       <c r="I262" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J262" t="n">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="K262" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="L262" t="n">
-        <v>15000</v>
+        <v>17000</v>
       </c>
       <c r="M262" t="n">
-        <v>15000</v>
+        <v>16500</v>
       </c>
       <c r="N262" t="inlineStr">
         <is>
-          <t>$/caja 70 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O262" t="inlineStr">
@@ -19243,10 +19243,10 @@
         </is>
       </c>
       <c r="P262" t="n">
-        <v>214</v>
+        <v>330</v>
       </c>
       <c r="Q262" t="n">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="R262" t="inlineStr">
         <is>
@@ -19284,29 +19284,29 @@
       </c>
       <c r="H263" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I263" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J263" t="n">
-        <v>36</v>
+        <v>16</v>
       </c>
       <c r="K263" t="n">
-        <v>17000</v>
+        <v>15000</v>
       </c>
       <c r="L263" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="M263" t="n">
-        <v>17500</v>
+        <v>15000</v>
       </c>
       <c r="N263" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 70 unidades</t>
         </is>
       </c>
       <c r="O263" t="inlineStr">
@@ -19315,10 +19315,10 @@
         </is>
       </c>
       <c r="P263" t="n">
-        <v>583</v>
+        <v>214</v>
       </c>
       <c r="Q263" t="n">
-        <v>30</v>
+        <v>70</v>
       </c>
       <c r="R263" t="inlineStr">
         <is>
@@ -19361,24 +19361,24 @@
       </c>
       <c r="I264" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J264" t="n">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="K264" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="L264" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="M264" t="n">
-        <v>16000</v>
+        <v>17500</v>
       </c>
       <c r="N264" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O264" t="inlineStr">
@@ -19387,10 +19387,10 @@
         </is>
       </c>
       <c r="P264" t="n">
-        <v>400</v>
+        <v>583</v>
       </c>
       <c r="Q264" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="R264" t="inlineStr">
         <is>
@@ -19413,7 +19413,7 @@
         </is>
       </c>
       <c r="D265" s="2" t="n">
-        <v>44306</v>
+        <v>44365</v>
       </c>
       <c r="E265" t="n">
         <v>13</v>
@@ -19433,36 +19433,36 @@
       </c>
       <c r="I265" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J265" t="n">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="K265" t="n">
-        <v>20000</v>
+        <v>16000</v>
       </c>
       <c r="L265" t="n">
-        <v>20000</v>
+        <v>16000</v>
       </c>
       <c r="M265" t="n">
-        <v>20000</v>
+        <v>16000</v>
       </c>
       <c r="N265" t="inlineStr">
         <is>
-          <t>$/caja 25 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O265" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P265" t="n">
-        <v>20000</v>
+        <v>400</v>
       </c>
       <c r="Q265" t="n">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="R265" t="inlineStr">
         <is>
@@ -19505,24 +19505,24 @@
       </c>
       <c r="I266" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J266" t="n">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="K266" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="L266" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="M266" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="N266" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 25 unidades</t>
         </is>
       </c>
       <c r="O266" t="inlineStr">
@@ -19531,10 +19531,10 @@
         </is>
       </c>
       <c r="P266" t="n">
-        <v>600</v>
+        <v>20000</v>
       </c>
       <c r="Q266" t="n">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="R266" t="inlineStr">
         <is>
@@ -19557,7 +19557,7 @@
         </is>
       </c>
       <c r="D267" s="2" t="n">
-        <v>44461</v>
+        <v>44306</v>
       </c>
       <c r="E267" t="n">
         <v>13</v>
@@ -19581,16 +19581,16 @@
         </is>
       </c>
       <c r="J267" t="n">
-        <v>52</v>
+        <v>25</v>
       </c>
       <c r="K267" t="n">
-        <v>12000</v>
+        <v>18000</v>
       </c>
       <c r="L267" t="n">
-        <v>13000</v>
+        <v>18000</v>
       </c>
       <c r="M267" t="n">
-        <v>12500</v>
+        <v>18000</v>
       </c>
       <c r="N267" t="inlineStr">
         <is>
@@ -19603,7 +19603,7 @@
         </is>
       </c>
       <c r="P267" t="n">
-        <v>417</v>
+        <v>600</v>
       </c>
       <c r="Q267" t="n">
         <v>30</v>
@@ -19649,24 +19649,24 @@
       </c>
       <c r="I268" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J268" t="n">
-        <v>25</v>
+        <v>52</v>
       </c>
       <c r="K268" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="L268" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="M268" t="n">
-        <v>10480</v>
+        <v>12500</v>
       </c>
       <c r="N268" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O268" t="inlineStr">
@@ -19675,10 +19675,10 @@
         </is>
       </c>
       <c r="P268" t="n">
-        <v>262</v>
+        <v>417</v>
       </c>
       <c r="Q268" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="R268" t="inlineStr">
         <is>
@@ -19701,7 +19701,7 @@
         </is>
       </c>
       <c r="D269" s="2" t="n">
-        <v>44357</v>
+        <v>44461</v>
       </c>
       <c r="E269" t="n">
         <v>13</v>
@@ -19716,29 +19716,29 @@
       </c>
       <c r="H269" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I269" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J269" t="n">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="K269" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="L269" t="n">
-        <v>16000</v>
+        <v>11000</v>
       </c>
       <c r="M269" t="n">
-        <v>15500</v>
+        <v>10480</v>
       </c>
       <c r="N269" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O269" t="inlineStr">
@@ -19747,10 +19747,10 @@
         </is>
       </c>
       <c r="P269" t="n">
-        <v>310</v>
+        <v>262</v>
       </c>
       <c r="Q269" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="R269" t="inlineStr">
         <is>
@@ -19793,24 +19793,24 @@
       </c>
       <c r="I270" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J270" t="n">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="K270" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="L270" t="n">
-        <v>13000</v>
+        <v>16000</v>
       </c>
       <c r="M270" t="n">
-        <v>13000</v>
+        <v>15500</v>
       </c>
       <c r="N270" t="inlineStr">
         <is>
-          <t>$/caja 70 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O270" t="inlineStr">
@@ -19819,10 +19819,10 @@
         </is>
       </c>
       <c r="P270" t="n">
-        <v>186</v>
+        <v>310</v>
       </c>
       <c r="Q270" t="n">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="R270" t="inlineStr">
         <is>
@@ -19860,41 +19860,41 @@
       </c>
       <c r="H271" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I271" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J271" t="n">
         <v>16</v>
       </c>
       <c r="K271" t="n">
-        <v>19000</v>
+        <v>13000</v>
       </c>
       <c r="L271" t="n">
-        <v>20000</v>
+        <v>13000</v>
       </c>
       <c r="M271" t="n">
-        <v>19500</v>
+        <v>13000</v>
       </c>
       <c r="N271" t="inlineStr">
         <is>
-          <t>$/caja 25 unidades</t>
+          <t>$/caja 70 unidades</t>
         </is>
       </c>
       <c r="O271" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P271" t="n">
-        <v>19500</v>
+        <v>186</v>
       </c>
       <c r="Q271" t="n">
-        <v>1</v>
+        <v>70</v>
       </c>
       <c r="R271" t="inlineStr">
         <is>
@@ -19937,24 +19937,24 @@
       </c>
       <c r="I272" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J272" t="n">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="K272" t="n">
-        <v>17000</v>
+        <v>19000</v>
       </c>
       <c r="L272" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="M272" t="n">
-        <v>17500</v>
+        <v>19500</v>
       </c>
       <c r="N272" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 25 unidades</t>
         </is>
       </c>
       <c r="O272" t="inlineStr">
@@ -19963,10 +19963,10 @@
         </is>
       </c>
       <c r="P272" t="n">
-        <v>583</v>
+        <v>19500</v>
       </c>
       <c r="Q272" t="n">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="R272" t="inlineStr">
         <is>
@@ -20009,24 +20009,24 @@
       </c>
       <c r="I273" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J273" t="n">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="K273" t="n">
-        <v>15000</v>
+        <v>17000</v>
       </c>
       <c r="L273" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="M273" t="n">
-        <v>15000</v>
+        <v>17500</v>
       </c>
       <c r="N273" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O273" t="inlineStr">
@@ -20035,10 +20035,10 @@
         </is>
       </c>
       <c r="P273" t="n">
-        <v>375</v>
+        <v>583</v>
       </c>
       <c r="Q273" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="R273" t="inlineStr">
         <is>
@@ -20061,7 +20061,7 @@
         </is>
       </c>
       <c r="D274" s="2" t="n">
-        <v>44162</v>
+        <v>44357</v>
       </c>
       <c r="E274" t="n">
         <v>13</v>
@@ -20081,36 +20081,36 @@
       </c>
       <c r="I274" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J274" t="n">
-        <v>300</v>
+        <v>25</v>
       </c>
       <c r="K274" t="n">
-        <v>9000</v>
+        <v>15000</v>
       </c>
       <c r="L274" t="n">
-        <v>9000</v>
+        <v>15000</v>
       </c>
       <c r="M274" t="n">
-        <v>9000</v>
+        <v>15000</v>
       </c>
       <c r="N274" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O274" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P274" t="n">
-        <v>300</v>
+        <v>375</v>
       </c>
       <c r="Q274" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="R274" t="inlineStr">
         <is>
@@ -20133,7 +20133,7 @@
         </is>
       </c>
       <c r="D275" s="2" t="n">
-        <v>44411</v>
+        <v>44162</v>
       </c>
       <c r="E275" t="n">
         <v>13</v>
@@ -20153,36 +20153,36 @@
       </c>
       <c r="I275" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J275" t="n">
-        <v>16</v>
+        <v>300</v>
       </c>
       <c r="K275" t="n">
-        <v>16000</v>
+        <v>9000</v>
       </c>
       <c r="L275" t="n">
-        <v>16000</v>
+        <v>9000</v>
       </c>
       <c r="M275" t="n">
-        <v>16000</v>
+        <v>9000</v>
       </c>
       <c r="N275" t="inlineStr">
         <is>
-          <t>$/caja 25 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O275" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P275" t="n">
-        <v>16000</v>
+        <v>300</v>
       </c>
       <c r="Q275" t="n">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="R275" t="inlineStr">
         <is>
@@ -20225,24 +20225,24 @@
       </c>
       <c r="I276" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J276" t="n">
-        <v>61</v>
+        <v>16</v>
       </c>
       <c r="K276" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="L276" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="M276" t="n">
-        <v>14492</v>
+        <v>16000</v>
       </c>
       <c r="N276" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 25 unidades</t>
         </is>
       </c>
       <c r="O276" t="inlineStr">
@@ -20251,10 +20251,10 @@
         </is>
       </c>
       <c r="P276" t="n">
-        <v>483</v>
+        <v>16000</v>
       </c>
       <c r="Q276" t="n">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="R276" t="inlineStr">
         <is>
@@ -20297,24 +20297,24 @@
       </c>
       <c r="I277" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J277" t="n">
-        <v>25</v>
+        <v>61</v>
       </c>
       <c r="K277" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="L277" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="M277" t="n">
-        <v>12000</v>
+        <v>14492</v>
       </c>
       <c r="N277" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O277" t="inlineStr">
@@ -20323,10 +20323,10 @@
         </is>
       </c>
       <c r="P277" t="n">
-        <v>300</v>
+        <v>483</v>
       </c>
       <c r="Q277" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="R277" t="inlineStr">
         <is>
@@ -20349,7 +20349,7 @@
         </is>
       </c>
       <c r="D278" s="2" t="n">
-        <v>44376</v>
+        <v>44411</v>
       </c>
       <c r="E278" t="n">
         <v>13</v>
@@ -20369,36 +20369,36 @@
       </c>
       <c r="I278" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J278" t="n">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="K278" t="n">
-        <v>21000</v>
+        <v>12000</v>
       </c>
       <c r="L278" t="n">
-        <v>22000</v>
+        <v>12000</v>
       </c>
       <c r="M278" t="n">
-        <v>21500</v>
+        <v>12000</v>
       </c>
       <c r="N278" t="inlineStr">
         <is>
-          <t>$/caja 25 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O278" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P278" t="n">
-        <v>21500</v>
+        <v>300</v>
       </c>
       <c r="Q278" t="n">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="R278" t="inlineStr">
         <is>
@@ -20441,24 +20441,24 @@
       </c>
       <c r="I279" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J279" t="n">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="K279" t="n">
-        <v>19000</v>
+        <v>21000</v>
       </c>
       <c r="L279" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="M279" t="n">
-        <v>19500</v>
+        <v>21500</v>
       </c>
       <c r="N279" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 25 unidades</t>
         </is>
       </c>
       <c r="O279" t="inlineStr">
@@ -20467,10 +20467,10 @@
         </is>
       </c>
       <c r="P279" t="n">
-        <v>650</v>
+        <v>21500</v>
       </c>
       <c r="Q279" t="n">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="R279" t="inlineStr">
         <is>
@@ -20513,24 +20513,24 @@
       </c>
       <c r="I280" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J280" t="n">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="K280" t="n">
-        <v>16000</v>
+        <v>19000</v>
       </c>
       <c r="L280" t="n">
-        <v>17000</v>
+        <v>20000</v>
       </c>
       <c r="M280" t="n">
-        <v>16480</v>
+        <v>19500</v>
       </c>
       <c r="N280" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O280" t="inlineStr">
@@ -20539,10 +20539,10 @@
         </is>
       </c>
       <c r="P280" t="n">
-        <v>412</v>
+        <v>650</v>
       </c>
       <c r="Q280" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="R280" t="inlineStr">
         <is>
@@ -20565,7 +20565,7 @@
         </is>
       </c>
       <c r="D281" s="2" t="n">
-        <v>44292</v>
+        <v>44376</v>
       </c>
       <c r="E281" t="n">
         <v>13</v>
@@ -20585,36 +20585,36 @@
       </c>
       <c r="I281" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J281" t="n">
         <v>25</v>
       </c>
       <c r="K281" t="n">
-        <v>18000</v>
+        <v>16000</v>
       </c>
       <c r="L281" t="n">
-        <v>18000</v>
+        <v>17000</v>
       </c>
       <c r="M281" t="n">
-        <v>18000</v>
+        <v>16480</v>
       </c>
       <c r="N281" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O281" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P281" t="n">
-        <v>600</v>
+        <v>412</v>
       </c>
       <c r="Q281" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="R281" t="inlineStr">
         <is>
@@ -20637,7 +20637,7 @@
         </is>
       </c>
       <c r="D282" s="2" t="n">
-        <v>44358</v>
+        <v>44292</v>
       </c>
       <c r="E282" t="n">
         <v>13</v>
@@ -20652,7 +20652,7 @@
       </c>
       <c r="H282" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I282" t="inlineStr">
@@ -20661,32 +20661,32 @@
         </is>
       </c>
       <c r="J282" t="n">
-        <v>52</v>
+        <v>25</v>
       </c>
       <c r="K282" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="L282" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="M282" t="n">
-        <v>15500</v>
+        <v>18000</v>
       </c>
       <c r="N282" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O282" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P282" t="n">
-        <v>310</v>
+        <v>600</v>
       </c>
       <c r="Q282" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R282" t="inlineStr">
         <is>
@@ -20729,24 +20729,24 @@
       </c>
       <c r="I283" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J283" t="n">
-        <v>34</v>
+        <v>52</v>
       </c>
       <c r="K283" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="L283" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="M283" t="n">
-        <v>14000</v>
+        <v>15500</v>
       </c>
       <c r="N283" t="inlineStr">
         <is>
-          <t>$/caja 70 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O283" t="inlineStr">
@@ -20755,10 +20755,10 @@
         </is>
       </c>
       <c r="P283" t="n">
-        <v>200</v>
+        <v>310</v>
       </c>
       <c r="Q283" t="n">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="R283" t="inlineStr">
         <is>
@@ -20796,41 +20796,41 @@
       </c>
       <c r="H284" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I284" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J284" t="n">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="K284" t="n">
-        <v>18000</v>
+        <v>14000</v>
       </c>
       <c r="L284" t="n">
-        <v>19000</v>
+        <v>14000</v>
       </c>
       <c r="M284" t="n">
-        <v>18500</v>
+        <v>14000</v>
       </c>
       <c r="N284" t="inlineStr">
         <is>
-          <t>$/caja 25 unidades</t>
+          <t>$/caja 70 unidades</t>
         </is>
       </c>
       <c r="O284" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P284" t="n">
-        <v>18500</v>
+        <v>200</v>
       </c>
       <c r="Q284" t="n">
-        <v>1</v>
+        <v>70</v>
       </c>
       <c r="R284" t="inlineStr">
         <is>
@@ -20873,24 +20873,24 @@
       </c>
       <c r="I285" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J285" t="n">
-        <v>43</v>
+        <v>16</v>
       </c>
       <c r="K285" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="L285" t="n">
-        <v>16000</v>
+        <v>19000</v>
       </c>
       <c r="M285" t="n">
-        <v>15488</v>
+        <v>18500</v>
       </c>
       <c r="N285" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 25 unidades</t>
         </is>
       </c>
       <c r="O285" t="inlineStr">
@@ -20899,10 +20899,10 @@
         </is>
       </c>
       <c r="P285" t="n">
-        <v>516</v>
+        <v>18500</v>
       </c>
       <c r="Q285" t="n">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="R285" t="inlineStr">
         <is>
@@ -20945,24 +20945,24 @@
       </c>
       <c r="I286" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J286" t="n">
-        <v>25</v>
+        <v>43</v>
       </c>
       <c r="K286" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="L286" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="M286" t="n">
-        <v>14000</v>
+        <v>15488</v>
       </c>
       <c r="N286" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O286" t="inlineStr">
@@ -20971,10 +20971,10 @@
         </is>
       </c>
       <c r="P286" t="n">
-        <v>350</v>
+        <v>516</v>
       </c>
       <c r="Q286" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="R286" t="inlineStr">
         <is>
@@ -20997,7 +20997,7 @@
         </is>
       </c>
       <c r="D287" s="2" t="n">
-        <v>44425</v>
+        <v>44358</v>
       </c>
       <c r="E287" t="n">
         <v>13</v>
@@ -21017,24 +21017,24 @@
       </c>
       <c r="I287" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J287" t="n">
         <v>25</v>
       </c>
       <c r="K287" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="L287" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="M287" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="N287" t="inlineStr">
         <is>
-          <t>$/caja 25 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O287" t="inlineStr">
@@ -21043,10 +21043,10 @@
         </is>
       </c>
       <c r="P287" t="n">
-        <v>16000</v>
+        <v>350</v>
       </c>
       <c r="Q287" t="n">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="R287" t="inlineStr">
         <is>
@@ -21089,24 +21089,24 @@
       </c>
       <c r="I288" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J288" t="n">
-        <v>61</v>
+        <v>25</v>
       </c>
       <c r="K288" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="L288" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="M288" t="n">
-        <v>14508</v>
+        <v>16000</v>
       </c>
       <c r="N288" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 25 unidades</t>
         </is>
       </c>
       <c r="O288" t="inlineStr">
@@ -21115,10 +21115,10 @@
         </is>
       </c>
       <c r="P288" t="n">
-        <v>484</v>
+        <v>16000</v>
       </c>
       <c r="Q288" t="n">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="R288" t="inlineStr">
         <is>
@@ -21161,24 +21161,24 @@
       </c>
       <c r="I289" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J289" t="n">
-        <v>34</v>
+        <v>61</v>
       </c>
       <c r="K289" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="L289" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="M289" t="n">
-        <v>12500</v>
+        <v>14508</v>
       </c>
       <c r="N289" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O289" t="inlineStr">
@@ -21187,10 +21187,10 @@
         </is>
       </c>
       <c r="P289" t="n">
-        <v>312</v>
+        <v>484</v>
       </c>
       <c r="Q289" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="R289" t="inlineStr">
         <is>
@@ -21228,25 +21228,25 @@
       </c>
       <c r="H290" t="inlineStr">
         <is>
-          <t>Madrigal</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I290" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J290" t="n">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="K290" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="L290" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="M290" t="n">
-        <v>14512</v>
+        <v>12500</v>
       </c>
       <c r="N290" t="inlineStr">
         <is>
@@ -21259,7 +21259,7 @@
         </is>
       </c>
       <c r="P290" t="n">
-        <v>363</v>
+        <v>312</v>
       </c>
       <c r="Q290" t="n">
         <v>40</v>
@@ -21305,24 +21305,24 @@
       </c>
       <c r="I291" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J291" t="n">
-        <v>25</v>
+        <v>43</v>
       </c>
       <c r="K291" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="L291" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="M291" t="n">
-        <v>12480</v>
+        <v>14512</v>
       </c>
       <c r="N291" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O291" t="inlineStr">
@@ -21331,10 +21331,10 @@
         </is>
       </c>
       <c r="P291" t="n">
-        <v>250</v>
+        <v>363</v>
       </c>
       <c r="Q291" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="R291" t="inlineStr">
         <is>
@@ -21357,7 +21357,7 @@
         </is>
       </c>
       <c r="D292" s="2" t="n">
-        <v>44323</v>
+        <v>44425</v>
       </c>
       <c r="E292" t="n">
         <v>13</v>
@@ -21372,25 +21372,25 @@
       </c>
       <c r="H292" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Madrigal</t>
         </is>
       </c>
       <c r="I292" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J292" t="n">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="K292" t="n">
-        <v>18000</v>
+        <v>12000</v>
       </c>
       <c r="L292" t="n">
-        <v>18000</v>
+        <v>13000</v>
       </c>
       <c r="M292" t="n">
-        <v>18000</v>
+        <v>12480</v>
       </c>
       <c r="N292" t="inlineStr">
         <is>
@@ -21403,7 +21403,7 @@
         </is>
       </c>
       <c r="P292" t="n">
-        <v>360</v>
+        <v>250</v>
       </c>
       <c r="Q292" t="n">
         <v>50</v>
@@ -21444,12 +21444,12 @@
       </c>
       <c r="H293" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I293" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J293" t="n">
@@ -21466,7 +21466,7 @@
       </c>
       <c r="N293" t="inlineStr">
         <is>
-          <t>$/caja 25 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O293" t="inlineStr">
@@ -21475,10 +21475,10 @@
         </is>
       </c>
       <c r="P293" t="n">
-        <v>18000</v>
+        <v>360</v>
       </c>
       <c r="Q293" t="n">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="R293" t="inlineStr">
         <is>
@@ -21521,38 +21521,110 @@
       </c>
       <c r="I294" t="inlineStr">
         <is>
+          <t>Extra</t>
+        </is>
+      </c>
+      <c r="J294" t="n">
+        <v>16</v>
+      </c>
+      <c r="K294" t="n">
+        <v>18000</v>
+      </c>
+      <c r="L294" t="n">
+        <v>18000</v>
+      </c>
+      <c r="M294" t="n">
+        <v>18000</v>
+      </c>
+      <c r="N294" t="inlineStr">
+        <is>
+          <t>$/caja 25 unidades</t>
+        </is>
+      </c>
+      <c r="O294" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P294" t="n">
+        <v>18000</v>
+      </c>
+      <c r="Q294" t="n">
+        <v>1</v>
+      </c>
+      <c r="R294" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" t="n">
+        <v>9</v>
+      </c>
+      <c r="B295" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C295" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D295" s="2" t="n">
+        <v>44323</v>
+      </c>
+      <c r="E295" t="n">
+        <v>13</v>
+      </c>
+      <c r="F295" t="n">
+        <v>100112013</v>
+      </c>
+      <c r="G295" t="inlineStr">
+        <is>
+          <t>Alcachofa</t>
+        </is>
+      </c>
+      <c r="H295" t="inlineStr">
+        <is>
+          <t>Española</t>
+        </is>
+      </c>
+      <c r="I295" t="inlineStr">
+        <is>
           <t>Primera</t>
         </is>
       </c>
-      <c r="J294" t="n">
+      <c r="J295" t="n">
         <v>25</v>
       </c>
-      <c r="K294" t="n">
+      <c r="K295" t="n">
         <v>16000</v>
       </c>
-      <c r="L294" t="n">
+      <c r="L295" t="n">
         <v>16000</v>
       </c>
-      <c r="M294" t="n">
+      <c r="M295" t="n">
         <v>16000</v>
       </c>
-      <c r="N294" t="inlineStr">
+      <c r="N295" t="inlineStr">
         <is>
           <t>$/caja 30 unidades</t>
         </is>
       </c>
-      <c r="O294" t="inlineStr">
+      <c r="O295" t="inlineStr">
         <is>
           <t>Provincia de Limarí</t>
         </is>
       </c>
-      <c r="P294" t="n">
+      <c r="P295" t="n">
         <v>533</v>
       </c>
-      <c r="Q294" t="n">
+      <c r="Q295" t="n">
         <v>30</v>
       </c>
-      <c r="R294" t="inlineStr">
+      <c r="R295" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Central Mapocho de Santiago - Alcachofa.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Central Mapocho de Santiago - Alcachofa.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R295"/>
+  <dimension ref="A1:R301"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9117,7 +9117,7 @@
         </is>
       </c>
       <c r="D122" s="2" t="n">
-        <v>44342</v>
+        <v>44467</v>
       </c>
       <c r="E122" t="n">
         <v>13</v>
@@ -9132,41 +9132,41 @@
       </c>
       <c r="H122" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I122" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J122" t="n">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="K122" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="L122" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="M122" t="n">
-        <v>15476</v>
+        <v>13480</v>
       </c>
       <c r="N122" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 25 unidades</t>
         </is>
       </c>
       <c r="O122" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P122" t="n">
-        <v>310</v>
+        <v>13480</v>
       </c>
       <c r="Q122" t="n">
-        <v>50</v>
+        <v>1</v>
       </c>
       <c r="R122" t="inlineStr">
         <is>
@@ -9189,7 +9189,7 @@
         </is>
       </c>
       <c r="D123" s="2" t="n">
-        <v>44342</v>
+        <v>44467</v>
       </c>
       <c r="E123" t="n">
         <v>13</v>
@@ -9209,36 +9209,36 @@
       </c>
       <c r="I123" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J123" t="n">
-        <v>24</v>
+        <v>97</v>
       </c>
       <c r="K123" t="n">
-        <v>17000</v>
+        <v>550</v>
       </c>
       <c r="L123" t="n">
-        <v>18000</v>
+        <v>600</v>
       </c>
       <c r="M123" t="n">
-        <v>17500</v>
+        <v>575</v>
       </c>
       <c r="N123" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O123" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P123" t="n">
-        <v>583</v>
+        <v>575</v>
       </c>
       <c r="Q123" t="n">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="R123" t="inlineStr">
         <is>
@@ -9261,7 +9261,7 @@
         </is>
       </c>
       <c r="D124" s="2" t="n">
-        <v>44342</v>
+        <v>44467</v>
       </c>
       <c r="E124" t="n">
         <v>13</v>
@@ -9281,24 +9281,24 @@
       </c>
       <c r="I124" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J124" t="n">
-        <v>15</v>
+        <v>61</v>
       </c>
       <c r="K124" t="n">
-        <v>15000</v>
+        <v>11000</v>
       </c>
       <c r="L124" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="M124" t="n">
-        <v>15000</v>
+        <v>11492</v>
       </c>
       <c r="N124" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O124" t="inlineStr">
@@ -9307,10 +9307,10 @@
         </is>
       </c>
       <c r="P124" t="n">
-        <v>375</v>
+        <v>383</v>
       </c>
       <c r="Q124" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="R124" t="inlineStr">
         <is>
@@ -9333,7 +9333,7 @@
         </is>
       </c>
       <c r="D125" s="2" t="n">
-        <v>44434</v>
+        <v>44467</v>
       </c>
       <c r="E125" t="n">
         <v>13</v>
@@ -9353,33 +9353,33 @@
       </c>
       <c r="I125" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J125" t="n">
-        <v>18</v>
+        <v>250</v>
       </c>
       <c r="K125" t="n">
-        <v>16000</v>
+        <v>450</v>
       </c>
       <c r="L125" t="n">
-        <v>17000</v>
+        <v>500</v>
       </c>
       <c r="M125" t="n">
-        <v>16500</v>
+        <v>475</v>
       </c>
       <c r="N125" t="inlineStr">
         <is>
-          <t>$/caja 25 unidades</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O125" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P125" t="n">
-        <v>16500</v>
+        <v>475</v>
       </c>
       <c r="Q125" t="n">
         <v>1</v>
@@ -9405,7 +9405,7 @@
         </is>
       </c>
       <c r="D126" s="2" t="n">
-        <v>44434</v>
+        <v>44467</v>
       </c>
       <c r="E126" t="n">
         <v>13</v>
@@ -9425,36 +9425,36 @@
       </c>
       <c r="I126" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J126" t="n">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="K126" t="n">
-        <v>14000</v>
+        <v>9000</v>
       </c>
       <c r="L126" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="M126" t="n">
-        <v>14500</v>
+        <v>9512</v>
       </c>
       <c r="N126" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O126" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P126" t="n">
-        <v>483</v>
+        <v>238</v>
       </c>
       <c r="Q126" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="R126" t="inlineStr">
         <is>
@@ -9477,7 +9477,7 @@
         </is>
       </c>
       <c r="D127" s="2" t="n">
-        <v>44434</v>
+        <v>44467</v>
       </c>
       <c r="E127" t="n">
         <v>13</v>
@@ -9501,32 +9501,32 @@
         </is>
       </c>
       <c r="J127" t="n">
-        <v>34</v>
+        <v>160</v>
       </c>
       <c r="K127" t="n">
-        <v>12000</v>
+        <v>350</v>
       </c>
       <c r="L127" t="n">
-        <v>13000</v>
+        <v>400</v>
       </c>
       <c r="M127" t="n">
-        <v>12500</v>
+        <v>375</v>
       </c>
       <c r="N127" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O127" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P127" t="n">
-        <v>312</v>
+        <v>375</v>
       </c>
       <c r="Q127" t="n">
-        <v>40</v>
+        <v>1</v>
       </c>
       <c r="R127" t="inlineStr">
         <is>
@@ -9549,7 +9549,7 @@
         </is>
       </c>
       <c r="D128" s="2" t="n">
-        <v>44327</v>
+        <v>44342</v>
       </c>
       <c r="E128" t="n">
         <v>13</v>
@@ -9573,16 +9573,16 @@
         </is>
       </c>
       <c r="J128" t="n">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="K128" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="L128" t="n">
         <v>16000</v>
       </c>
       <c r="M128" t="n">
-        <v>16000</v>
+        <v>15476</v>
       </c>
       <c r="N128" t="inlineStr">
         <is>
@@ -9595,7 +9595,7 @@
         </is>
       </c>
       <c r="P128" t="n">
-        <v>320</v>
+        <v>310</v>
       </c>
       <c r="Q128" t="n">
         <v>50</v>
@@ -9621,7 +9621,7 @@
         </is>
       </c>
       <c r="D129" s="2" t="n">
-        <v>44327</v>
+        <v>44342</v>
       </c>
       <c r="E129" t="n">
         <v>13</v>
@@ -9645,16 +9645,16 @@
         </is>
       </c>
       <c r="J129" t="n">
-        <v>43</v>
+        <v>24</v>
       </c>
       <c r="K129" t="n">
-        <v>18000</v>
+        <v>17000</v>
       </c>
       <c r="L129" t="n">
         <v>18000</v>
       </c>
       <c r="M129" t="n">
-        <v>18000</v>
+        <v>17500</v>
       </c>
       <c r="N129" t="inlineStr">
         <is>
@@ -9663,11 +9663,11 @@
       </c>
       <c r="O129" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P129" t="n">
-        <v>600</v>
+        <v>583</v>
       </c>
       <c r="Q129" t="n">
         <v>30</v>
@@ -9693,7 +9693,7 @@
         </is>
       </c>
       <c r="D130" s="2" t="n">
-        <v>44300</v>
+        <v>44342</v>
       </c>
       <c r="E130" t="n">
         <v>13</v>
@@ -9713,24 +9713,24 @@
       </c>
       <c r="I130" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J130" t="n">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="K130" t="n">
-        <v>17000</v>
+        <v>15000</v>
       </c>
       <c r="L130" t="n">
-        <v>17000</v>
+        <v>15000</v>
       </c>
       <c r="M130" t="n">
-        <v>17000</v>
+        <v>15000</v>
       </c>
       <c r="N130" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O130" t="inlineStr">
@@ -9739,10 +9739,10 @@
         </is>
       </c>
       <c r="P130" t="n">
-        <v>567</v>
+        <v>375</v>
       </c>
       <c r="Q130" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="R130" t="inlineStr">
         <is>
@@ -9765,7 +9765,7 @@
         </is>
       </c>
       <c r="D131" s="2" t="n">
-        <v>44399</v>
+        <v>44434</v>
       </c>
       <c r="E131" t="n">
         <v>13</v>
@@ -9792,13 +9792,13 @@
         <v>18</v>
       </c>
       <c r="K131" t="n">
-        <v>18000</v>
+        <v>16000</v>
       </c>
       <c r="L131" t="n">
-        <v>19000</v>
+        <v>17000</v>
       </c>
       <c r="M131" t="n">
-        <v>18500</v>
+        <v>16500</v>
       </c>
       <c r="N131" t="inlineStr">
         <is>
@@ -9811,7 +9811,7 @@
         </is>
       </c>
       <c r="P131" t="n">
-        <v>18500</v>
+        <v>16500</v>
       </c>
       <c r="Q131" t="n">
         <v>1</v>
@@ -9837,7 +9837,7 @@
         </is>
       </c>
       <c r="D132" s="2" t="n">
-        <v>44399</v>
+        <v>44434</v>
       </c>
       <c r="E132" t="n">
         <v>13</v>
@@ -9861,16 +9861,16 @@
         </is>
       </c>
       <c r="J132" t="n">
-        <v>34</v>
+        <v>52</v>
       </c>
       <c r="K132" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="L132" t="n">
-        <v>17000</v>
+        <v>15000</v>
       </c>
       <c r="M132" t="n">
-        <v>16500</v>
+        <v>14500</v>
       </c>
       <c r="N132" t="inlineStr">
         <is>
@@ -9883,7 +9883,7 @@
         </is>
       </c>
       <c r="P132" t="n">
-        <v>550</v>
+        <v>483</v>
       </c>
       <c r="Q132" t="n">
         <v>30</v>
@@ -9909,7 +9909,7 @@
         </is>
       </c>
       <c r="D133" s="2" t="n">
-        <v>44399</v>
+        <v>44434</v>
       </c>
       <c r="E133" t="n">
         <v>13</v>
@@ -9933,16 +9933,16 @@
         </is>
       </c>
       <c r="J133" t="n">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="K133" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="L133" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="M133" t="n">
-        <v>14480</v>
+        <v>12500</v>
       </c>
       <c r="N133" t="inlineStr">
         <is>
@@ -9955,7 +9955,7 @@
         </is>
       </c>
       <c r="P133" t="n">
-        <v>362</v>
+        <v>312</v>
       </c>
       <c r="Q133" t="n">
         <v>40</v>
@@ -9981,7 +9981,7 @@
         </is>
       </c>
       <c r="D134" s="2" t="n">
-        <v>44452</v>
+        <v>44327</v>
       </c>
       <c r="E134" t="n">
         <v>13</v>
@@ -9996,41 +9996,41 @@
       </c>
       <c r="H134" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I134" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J134" t="n">
         <v>25</v>
       </c>
       <c r="K134" t="n">
-        <v>11000</v>
+        <v>16000</v>
       </c>
       <c r="L134" t="n">
-        <v>12000</v>
+        <v>16000</v>
       </c>
       <c r="M134" t="n">
-        <v>11480</v>
+        <v>16000</v>
       </c>
       <c r="N134" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O134" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P134" t="n">
-        <v>287</v>
+        <v>320</v>
       </c>
       <c r="Q134" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="R134" t="inlineStr">
         <is>
@@ -10053,7 +10053,7 @@
         </is>
       </c>
       <c r="D135" s="2" t="n">
-        <v>44383</v>
+        <v>44327</v>
       </c>
       <c r="E135" t="n">
         <v>13</v>
@@ -10073,36 +10073,36 @@
       </c>
       <c r="I135" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J135" t="n">
-        <v>25</v>
+        <v>43</v>
       </c>
       <c r="K135" t="n">
-        <v>20000</v>
+        <v>18000</v>
       </c>
       <c r="L135" t="n">
-        <v>20000</v>
+        <v>18000</v>
       </c>
       <c r="M135" t="n">
-        <v>20000</v>
+        <v>18000</v>
       </c>
       <c r="N135" t="inlineStr">
         <is>
-          <t>$/caja 25 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O135" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P135" t="n">
-        <v>20000</v>
+        <v>600</v>
       </c>
       <c r="Q135" t="n">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="R135" t="inlineStr">
         <is>
@@ -10125,7 +10125,7 @@
         </is>
       </c>
       <c r="D136" s="2" t="n">
-        <v>44383</v>
+        <v>44300</v>
       </c>
       <c r="E136" t="n">
         <v>13</v>
@@ -10149,16 +10149,16 @@
         </is>
       </c>
       <c r="J136" t="n">
-        <v>70</v>
+        <v>30</v>
       </c>
       <c r="K136" t="n">
         <v>17000</v>
       </c>
       <c r="L136" t="n">
-        <v>18000</v>
+        <v>17000</v>
       </c>
       <c r="M136" t="n">
-        <v>17500</v>
+        <v>17000</v>
       </c>
       <c r="N136" t="inlineStr">
         <is>
@@ -10171,7 +10171,7 @@
         </is>
       </c>
       <c r="P136" t="n">
-        <v>583</v>
+        <v>567</v>
       </c>
       <c r="Q136" t="n">
         <v>30</v>
@@ -10197,7 +10197,7 @@
         </is>
       </c>
       <c r="D137" s="2" t="n">
-        <v>44383</v>
+        <v>44399</v>
       </c>
       <c r="E137" t="n">
         <v>13</v>
@@ -10217,36 +10217,36 @@
       </c>
       <c r="I137" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J137" t="n">
-        <v>52</v>
+        <v>18</v>
       </c>
       <c r="K137" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="L137" t="n">
-        <v>15000</v>
+        <v>19000</v>
       </c>
       <c r="M137" t="n">
-        <v>15000</v>
+        <v>18500</v>
       </c>
       <c r="N137" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 25 unidades</t>
         </is>
       </c>
       <c r="O137" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P137" t="n">
-        <v>375</v>
+        <v>18500</v>
       </c>
       <c r="Q137" t="n">
-        <v>40</v>
+        <v>1</v>
       </c>
       <c r="R137" t="inlineStr">
         <is>
@@ -10269,7 +10269,7 @@
         </is>
       </c>
       <c r="D138" s="2" t="n">
-        <v>44383</v>
+        <v>44399</v>
       </c>
       <c r="E138" t="n">
         <v>13</v>
@@ -10284,41 +10284,41 @@
       </c>
       <c r="H138" t="inlineStr">
         <is>
-          <t>Madrigal</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I138" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J138" t="n">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="K138" t="n">
-        <v>21000</v>
+        <v>16000</v>
       </c>
       <c r="L138" t="n">
-        <v>22000</v>
+        <v>17000</v>
       </c>
       <c r="M138" t="n">
-        <v>21500</v>
+        <v>16500</v>
       </c>
       <c r="N138" t="inlineStr">
         <is>
-          <t>$/caja 35 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O138" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P138" t="n">
-        <v>614</v>
+        <v>550</v>
       </c>
       <c r="Q138" t="n">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="R138" t="inlineStr">
         <is>
@@ -10341,7 +10341,7 @@
         </is>
       </c>
       <c r="D139" s="2" t="n">
-        <v>44383</v>
+        <v>44399</v>
       </c>
       <c r="E139" t="n">
         <v>13</v>
@@ -10356,25 +10356,25 @@
       </c>
       <c r="H139" t="inlineStr">
         <is>
-          <t>Madrigal</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I139" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J139" t="n">
-        <v>52</v>
+        <v>25</v>
       </c>
       <c r="K139" t="n">
-        <v>18000</v>
+        <v>14000</v>
       </c>
       <c r="L139" t="n">
-        <v>19000</v>
+        <v>15000</v>
       </c>
       <c r="M139" t="n">
-        <v>18500</v>
+        <v>14480</v>
       </c>
       <c r="N139" t="inlineStr">
         <is>
@@ -10383,11 +10383,11 @@
       </c>
       <c r="O139" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P139" t="n">
-        <v>462</v>
+        <v>362</v>
       </c>
       <c r="Q139" t="n">
         <v>40</v>
@@ -10413,7 +10413,7 @@
         </is>
       </c>
       <c r="D140" s="2" t="n">
-        <v>44383</v>
+        <v>44452</v>
       </c>
       <c r="E140" t="n">
         <v>13</v>
@@ -10428,7 +10428,7 @@
       </c>
       <c r="H140" t="inlineStr">
         <is>
-          <t>Madrigal</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I140" t="inlineStr">
@@ -10437,20 +10437,20 @@
         </is>
       </c>
       <c r="J140" t="n">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="K140" t="n">
-        <v>15000</v>
+        <v>11000</v>
       </c>
       <c r="L140" t="n">
-        <v>16000</v>
+        <v>12000</v>
       </c>
       <c r="M140" t="n">
-        <v>15500</v>
+        <v>11480</v>
       </c>
       <c r="N140" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O140" t="inlineStr">
@@ -10459,10 +10459,10 @@
         </is>
       </c>
       <c r="P140" t="n">
-        <v>310</v>
+        <v>287</v>
       </c>
       <c r="Q140" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="R140" t="inlineStr">
         <is>
@@ -10485,7 +10485,7 @@
         </is>
       </c>
       <c r="D141" s="2" t="n">
-        <v>44441</v>
+        <v>44383</v>
       </c>
       <c r="E141" t="n">
         <v>13</v>
@@ -10509,16 +10509,16 @@
         </is>
       </c>
       <c r="J141" t="n">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="K141" t="n">
-        <v>16000</v>
+        <v>20000</v>
       </c>
       <c r="L141" t="n">
-        <v>17000</v>
+        <v>20000</v>
       </c>
       <c r="M141" t="n">
-        <v>16444</v>
+        <v>20000</v>
       </c>
       <c r="N141" t="inlineStr">
         <is>
@@ -10531,7 +10531,7 @@
         </is>
       </c>
       <c r="P141" t="n">
-        <v>16444</v>
+        <v>20000</v>
       </c>
       <c r="Q141" t="n">
         <v>1</v>
@@ -10557,7 +10557,7 @@
         </is>
       </c>
       <c r="D142" s="2" t="n">
-        <v>44441</v>
+        <v>44383</v>
       </c>
       <c r="E142" t="n">
         <v>13</v>
@@ -10581,16 +10581,16 @@
         </is>
       </c>
       <c r="J142" t="n">
-        <v>34</v>
+        <v>70</v>
       </c>
       <c r="K142" t="n">
-        <v>14000</v>
+        <v>17000</v>
       </c>
       <c r="L142" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="M142" t="n">
-        <v>14500</v>
+        <v>17500</v>
       </c>
       <c r="N142" t="inlineStr">
         <is>
@@ -10603,7 +10603,7 @@
         </is>
       </c>
       <c r="P142" t="n">
-        <v>483</v>
+        <v>583</v>
       </c>
       <c r="Q142" t="n">
         <v>30</v>
@@ -10629,7 +10629,7 @@
         </is>
       </c>
       <c r="D143" s="2" t="n">
-        <v>44441</v>
+        <v>44383</v>
       </c>
       <c r="E143" t="n">
         <v>13</v>
@@ -10653,16 +10653,16 @@
         </is>
       </c>
       <c r="J143" t="n">
-        <v>25</v>
+        <v>52</v>
       </c>
       <c r="K143" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="L143" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="M143" t="n">
-        <v>12480</v>
+        <v>15000</v>
       </c>
       <c r="N143" t="inlineStr">
         <is>
@@ -10675,7 +10675,7 @@
         </is>
       </c>
       <c r="P143" t="n">
-        <v>312</v>
+        <v>375</v>
       </c>
       <c r="Q143" t="n">
         <v>40</v>
@@ -10701,7 +10701,7 @@
         </is>
       </c>
       <c r="D144" s="2" t="n">
-        <v>44405</v>
+        <v>44383</v>
       </c>
       <c r="E144" t="n">
         <v>13</v>
@@ -10716,7 +10716,7 @@
       </c>
       <c r="H144" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Madrigal</t>
         </is>
       </c>
       <c r="I144" t="inlineStr">
@@ -10728,29 +10728,29 @@
         <v>16</v>
       </c>
       <c r="K144" t="n">
-        <v>19000</v>
+        <v>21000</v>
       </c>
       <c r="L144" t="n">
-        <v>19000</v>
+        <v>22000</v>
       </c>
       <c r="M144" t="n">
-        <v>19000</v>
+        <v>21500</v>
       </c>
       <c r="N144" t="inlineStr">
         <is>
-          <t>$/caja 25 unidades</t>
+          <t>$/caja 35 unidades</t>
         </is>
       </c>
       <c r="O144" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P144" t="n">
-        <v>19000</v>
+        <v>614</v>
       </c>
       <c r="Q144" t="n">
-        <v>1</v>
+        <v>35</v>
       </c>
       <c r="R144" t="inlineStr">
         <is>
@@ -10773,7 +10773,7 @@
         </is>
       </c>
       <c r="D145" s="2" t="n">
-        <v>44405</v>
+        <v>44383</v>
       </c>
       <c r="E145" t="n">
         <v>13</v>
@@ -10788,7 +10788,7 @@
       </c>
       <c r="H145" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Madrigal</t>
         </is>
       </c>
       <c r="I145" t="inlineStr">
@@ -10797,32 +10797,32 @@
         </is>
       </c>
       <c r="J145" t="n">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="K145" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="L145" t="n">
-        <v>17000</v>
+        <v>19000</v>
       </c>
       <c r="M145" t="n">
-        <v>16512</v>
+        <v>18500</v>
       </c>
       <c r="N145" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O145" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P145" t="n">
-        <v>550</v>
+        <v>462</v>
       </c>
       <c r="Q145" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="R145" t="inlineStr">
         <is>
@@ -10845,7 +10845,7 @@
         </is>
       </c>
       <c r="D146" s="2" t="n">
-        <v>44405</v>
+        <v>44383</v>
       </c>
       <c r="E146" t="n">
         <v>13</v>
@@ -10860,7 +10860,7 @@
       </c>
       <c r="H146" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Madrigal</t>
         </is>
       </c>
       <c r="I146" t="inlineStr">
@@ -10869,32 +10869,32 @@
         </is>
       </c>
       <c r="J146" t="n">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="K146" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="L146" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="M146" t="n">
-        <v>14520</v>
+        <v>15500</v>
       </c>
       <c r="N146" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O146" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P146" t="n">
-        <v>363</v>
+        <v>310</v>
       </c>
       <c r="Q146" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="R146" t="inlineStr">
         <is>
@@ -10917,7 +10917,7 @@
         </is>
       </c>
       <c r="D147" s="2" t="n">
-        <v>44407</v>
+        <v>44441</v>
       </c>
       <c r="E147" t="n">
         <v>13</v>
@@ -10941,16 +10941,16 @@
         </is>
       </c>
       <c r="J147" t="n">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="K147" t="n">
+        <v>16000</v>
+      </c>
+      <c r="L147" t="n">
         <v>17000</v>
       </c>
-      <c r="L147" t="n">
-        <v>18000</v>
-      </c>
       <c r="M147" t="n">
-        <v>17500</v>
+        <v>16444</v>
       </c>
       <c r="N147" t="inlineStr">
         <is>
@@ -10959,11 +10959,11 @@
       </c>
       <c r="O147" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P147" t="n">
-        <v>17500</v>
+        <v>16444</v>
       </c>
       <c r="Q147" t="n">
         <v>1</v>
@@ -10989,7 +10989,7 @@
         </is>
       </c>
       <c r="D148" s="2" t="n">
-        <v>44407</v>
+        <v>44441</v>
       </c>
       <c r="E148" t="n">
         <v>13</v>
@@ -11013,16 +11013,16 @@
         </is>
       </c>
       <c r="J148" t="n">
-        <v>61</v>
+        <v>34</v>
       </c>
       <c r="K148" t="n">
+        <v>14000</v>
+      </c>
+      <c r="L148" t="n">
         <v>15000</v>
       </c>
-      <c r="L148" t="n">
-        <v>16000</v>
-      </c>
       <c r="M148" t="n">
-        <v>15508</v>
+        <v>14500</v>
       </c>
       <c r="N148" t="inlineStr">
         <is>
@@ -11031,11 +11031,11 @@
       </c>
       <c r="O148" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P148" t="n">
-        <v>517</v>
+        <v>483</v>
       </c>
       <c r="Q148" t="n">
         <v>30</v>
@@ -11061,7 +11061,7 @@
         </is>
       </c>
       <c r="D149" s="2" t="n">
-        <v>44407</v>
+        <v>44441</v>
       </c>
       <c r="E149" t="n">
         <v>13</v>
@@ -11085,16 +11085,16 @@
         </is>
       </c>
       <c r="J149" t="n">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="K149" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="L149" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="M149" t="n">
-        <v>14000</v>
+        <v>12480</v>
       </c>
       <c r="N149" t="inlineStr">
         <is>
@@ -11103,11 +11103,11 @@
       </c>
       <c r="O149" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P149" t="n">
-        <v>350</v>
+        <v>312</v>
       </c>
       <c r="Q149" t="n">
         <v>40</v>
@@ -11133,7 +11133,7 @@
         </is>
       </c>
       <c r="D150" s="2" t="n">
-        <v>44307</v>
+        <v>44405</v>
       </c>
       <c r="E150" t="n">
         <v>13</v>
@@ -11157,16 +11157,16 @@
         </is>
       </c>
       <c r="J150" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="K150" t="n">
-        <v>18000</v>
+        <v>19000</v>
       </c>
       <c r="L150" t="n">
-        <v>18000</v>
+        <v>19000</v>
       </c>
       <c r="M150" t="n">
-        <v>18000</v>
+        <v>19000</v>
       </c>
       <c r="N150" t="inlineStr">
         <is>
@@ -11175,11 +11175,11 @@
       </c>
       <c r="O150" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P150" t="n">
-        <v>18000</v>
+        <v>19000</v>
       </c>
       <c r="Q150" t="n">
         <v>1</v>
@@ -11205,7 +11205,7 @@
         </is>
       </c>
       <c r="D151" s="2" t="n">
-        <v>44307</v>
+        <v>44405</v>
       </c>
       <c r="E151" t="n">
         <v>13</v>
@@ -11229,16 +11229,16 @@
         </is>
       </c>
       <c r="J151" t="n">
-        <v>16</v>
+        <v>43</v>
       </c>
       <c r="K151" t="n">
         <v>16000</v>
       </c>
       <c r="L151" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="M151" t="n">
-        <v>16000</v>
+        <v>16512</v>
       </c>
       <c r="N151" t="inlineStr">
         <is>
@@ -11247,11 +11247,11 @@
       </c>
       <c r="O151" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P151" t="n">
-        <v>533</v>
+        <v>550</v>
       </c>
       <c r="Q151" t="n">
         <v>30</v>
@@ -11277,7 +11277,7 @@
         </is>
       </c>
       <c r="D152" s="2" t="n">
-        <v>44336</v>
+        <v>44405</v>
       </c>
       <c r="E152" t="n">
         <v>13</v>
@@ -11292,29 +11292,29 @@
       </c>
       <c r="H152" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I152" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J152" t="n">
         <v>25</v>
       </c>
       <c r="K152" t="n">
+        <v>14000</v>
+      </c>
+      <c r="L152" t="n">
         <v>15000</v>
       </c>
-      <c r="L152" t="n">
-        <v>16000</v>
-      </c>
       <c r="M152" t="n">
-        <v>15480</v>
+        <v>14520</v>
       </c>
       <c r="N152" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O152" t="inlineStr">
@@ -11323,10 +11323,10 @@
         </is>
       </c>
       <c r="P152" t="n">
-        <v>310</v>
+        <v>363</v>
       </c>
       <c r="Q152" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="R152" t="inlineStr">
         <is>
@@ -11349,7 +11349,7 @@
         </is>
       </c>
       <c r="D153" s="2" t="n">
-        <v>44336</v>
+        <v>44407</v>
       </c>
       <c r="E153" t="n">
         <v>13</v>
@@ -11364,29 +11364,29 @@
       </c>
       <c r="H153" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I153" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J153" t="n">
         <v>16</v>
       </c>
       <c r="K153" t="n">
-        <v>13000</v>
+        <v>17000</v>
       </c>
       <c r="L153" t="n">
-        <v>14000</v>
+        <v>18000</v>
       </c>
       <c r="M153" t="n">
-        <v>13500</v>
+        <v>17500</v>
       </c>
       <c r="N153" t="inlineStr">
         <is>
-          <t>$/caja 70 unidades</t>
+          <t>$/caja 25 unidades</t>
         </is>
       </c>
       <c r="O153" t="inlineStr">
@@ -11395,10 +11395,10 @@
         </is>
       </c>
       <c r="P153" t="n">
-        <v>193</v>
+        <v>17500</v>
       </c>
       <c r="Q153" t="n">
-        <v>70</v>
+        <v>1</v>
       </c>
       <c r="R153" t="inlineStr">
         <is>
@@ -11421,7 +11421,7 @@
         </is>
       </c>
       <c r="D154" s="2" t="n">
-        <v>44336</v>
+        <v>44407</v>
       </c>
       <c r="E154" t="n">
         <v>13</v>
@@ -11445,16 +11445,16 @@
         </is>
       </c>
       <c r="J154" t="n">
-        <v>34</v>
+        <v>61</v>
       </c>
       <c r="K154" t="n">
-        <v>17000</v>
+        <v>15000</v>
       </c>
       <c r="L154" t="n">
-        <v>18000</v>
+        <v>16000</v>
       </c>
       <c r="M154" t="n">
-        <v>17500</v>
+        <v>15508</v>
       </c>
       <c r="N154" t="inlineStr">
         <is>
@@ -11467,7 +11467,7 @@
         </is>
       </c>
       <c r="P154" t="n">
-        <v>583</v>
+        <v>517</v>
       </c>
       <c r="Q154" t="n">
         <v>30</v>
@@ -11493,7 +11493,7 @@
         </is>
       </c>
       <c r="D155" s="2" t="n">
-        <v>44336</v>
+        <v>44407</v>
       </c>
       <c r="E155" t="n">
         <v>13</v>
@@ -11517,16 +11517,16 @@
         </is>
       </c>
       <c r="J155" t="n">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="K155" t="n">
         <v>14000</v>
       </c>
       <c r="L155" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="M155" t="n">
-        <v>14500</v>
+        <v>14000</v>
       </c>
       <c r="N155" t="inlineStr">
         <is>
@@ -11539,7 +11539,7 @@
         </is>
       </c>
       <c r="P155" t="n">
-        <v>362</v>
+        <v>350</v>
       </c>
       <c r="Q155" t="n">
         <v>40</v>
@@ -11565,7 +11565,7 @@
         </is>
       </c>
       <c r="D156" s="2" t="n">
-        <v>44341</v>
+        <v>44307</v>
       </c>
       <c r="E156" t="n">
         <v>13</v>
@@ -11580,29 +11580,29 @@
       </c>
       <c r="H156" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I156" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J156" t="n">
-        <v>31</v>
+        <v>10</v>
       </c>
       <c r="K156" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="L156" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="M156" t="n">
-        <v>16484</v>
+        <v>18000</v>
       </c>
       <c r="N156" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 25 unidades</t>
         </is>
       </c>
       <c r="O156" t="inlineStr">
@@ -11611,10 +11611,10 @@
         </is>
       </c>
       <c r="P156" t="n">
-        <v>330</v>
+        <v>18000</v>
       </c>
       <c r="Q156" t="n">
-        <v>50</v>
+        <v>1</v>
       </c>
       <c r="R156" t="inlineStr">
         <is>
@@ -11637,7 +11637,7 @@
         </is>
       </c>
       <c r="D157" s="2" t="n">
-        <v>44341</v>
+        <v>44307</v>
       </c>
       <c r="E157" t="n">
         <v>13</v>
@@ -11661,16 +11661,16 @@
         </is>
       </c>
       <c r="J157" t="n">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="K157" t="n">
-        <v>17000</v>
+        <v>16000</v>
       </c>
       <c r="L157" t="n">
-        <v>18000</v>
+        <v>16000</v>
       </c>
       <c r="M157" t="n">
-        <v>17476</v>
+        <v>16000</v>
       </c>
       <c r="N157" t="inlineStr">
         <is>
@@ -11679,11 +11679,11 @@
       </c>
       <c r="O157" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P157" t="n">
-        <v>583</v>
+        <v>533</v>
       </c>
       <c r="Q157" t="n">
         <v>30</v>
@@ -11709,7 +11709,7 @@
         </is>
       </c>
       <c r="D158" s="2" t="n">
-        <v>44341</v>
+        <v>44336</v>
       </c>
       <c r="E158" t="n">
         <v>13</v>
@@ -11724,29 +11724,29 @@
       </c>
       <c r="H158" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I158" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J158" t="n">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="K158" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="L158" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="M158" t="n">
-        <v>14500</v>
+        <v>15480</v>
       </c>
       <c r="N158" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O158" t="inlineStr">
@@ -11755,10 +11755,10 @@
         </is>
       </c>
       <c r="P158" t="n">
-        <v>362</v>
+        <v>310</v>
       </c>
       <c r="Q158" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="R158" t="inlineStr">
         <is>
@@ -11781,7 +11781,7 @@
         </is>
       </c>
       <c r="D159" s="2" t="n">
-        <v>44426</v>
+        <v>44336</v>
       </c>
       <c r="E159" t="n">
         <v>13</v>
@@ -11796,41 +11796,41 @@
       </c>
       <c r="H159" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I159" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J159" t="n">
         <v>16</v>
       </c>
       <c r="K159" t="n">
-        <v>16000</v>
+        <v>13000</v>
       </c>
       <c r="L159" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="M159" t="n">
-        <v>16000</v>
+        <v>13500</v>
       </c>
       <c r="N159" t="inlineStr">
         <is>
-          <t>$/caja 25 unidades</t>
+          <t>$/caja 70 unidades</t>
         </is>
       </c>
       <c r="O159" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P159" t="n">
-        <v>16000</v>
+        <v>193</v>
       </c>
       <c r="Q159" t="n">
-        <v>1</v>
+        <v>70</v>
       </c>
       <c r="R159" t="inlineStr">
         <is>
@@ -11853,7 +11853,7 @@
         </is>
       </c>
       <c r="D160" s="2" t="n">
-        <v>44426</v>
+        <v>44336</v>
       </c>
       <c r="E160" t="n">
         <v>13</v>
@@ -11877,16 +11877,16 @@
         </is>
       </c>
       <c r="J160" t="n">
-        <v>52</v>
+        <v>34</v>
       </c>
       <c r="K160" t="n">
-        <v>14000</v>
+        <v>17000</v>
       </c>
       <c r="L160" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="M160" t="n">
-        <v>14500</v>
+        <v>17500</v>
       </c>
       <c r="N160" t="inlineStr">
         <is>
@@ -11895,11 +11895,11 @@
       </c>
       <c r="O160" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P160" t="n">
-        <v>483</v>
+        <v>583</v>
       </c>
       <c r="Q160" t="n">
         <v>30</v>
@@ -11925,7 +11925,7 @@
         </is>
       </c>
       <c r="D161" s="2" t="n">
-        <v>44426</v>
+        <v>44336</v>
       </c>
       <c r="E161" t="n">
         <v>13</v>
@@ -11949,16 +11949,16 @@
         </is>
       </c>
       <c r="J161" t="n">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="K161" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="L161" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="M161" t="n">
-        <v>13000</v>
+        <v>14500</v>
       </c>
       <c r="N161" t="inlineStr">
         <is>
@@ -11967,11 +11967,11 @@
       </c>
       <c r="O161" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P161" t="n">
-        <v>325</v>
+        <v>362</v>
       </c>
       <c r="Q161" t="n">
         <v>40</v>
@@ -11997,7 +11997,7 @@
         </is>
       </c>
       <c r="D162" s="2" t="n">
-        <v>44328</v>
+        <v>44341</v>
       </c>
       <c r="E162" t="n">
         <v>13</v>
@@ -12021,16 +12021,16 @@
         </is>
       </c>
       <c r="J162" t="n">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="K162" t="n">
         <v>16000</v>
       </c>
       <c r="L162" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="M162" t="n">
-        <v>16000</v>
+        <v>16484</v>
       </c>
       <c r="N162" t="inlineStr">
         <is>
@@ -12043,7 +12043,7 @@
         </is>
       </c>
       <c r="P162" t="n">
-        <v>320</v>
+        <v>330</v>
       </c>
       <c r="Q162" t="n">
         <v>50</v>
@@ -12069,7 +12069,7 @@
         </is>
       </c>
       <c r="D163" s="2" t="n">
-        <v>44328</v>
+        <v>44341</v>
       </c>
       <c r="E163" t="n">
         <v>13</v>
@@ -12093,16 +12093,16 @@
         </is>
       </c>
       <c r="J163" t="n">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="K163" t="n">
-        <v>18000</v>
+        <v>17000</v>
       </c>
       <c r="L163" t="n">
         <v>18000</v>
       </c>
       <c r="M163" t="n">
-        <v>18000</v>
+        <v>17476</v>
       </c>
       <c r="N163" t="inlineStr">
         <is>
@@ -12111,11 +12111,11 @@
       </c>
       <c r="O163" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P163" t="n">
-        <v>600</v>
+        <v>583</v>
       </c>
       <c r="Q163" t="n">
         <v>30</v>
@@ -12141,7 +12141,7 @@
         </is>
       </c>
       <c r="D164" s="2" t="n">
-        <v>44328</v>
+        <v>44341</v>
       </c>
       <c r="E164" t="n">
         <v>13</v>
@@ -12165,16 +12165,16 @@
         </is>
       </c>
       <c r="J164" t="n">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="K164" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="L164" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="M164" t="n">
-        <v>16000</v>
+        <v>14500</v>
       </c>
       <c r="N164" t="inlineStr">
         <is>
@@ -12183,11 +12183,11 @@
       </c>
       <c r="O164" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P164" t="n">
-        <v>400</v>
+        <v>362</v>
       </c>
       <c r="Q164" t="n">
         <v>40</v>
@@ -12213,7 +12213,7 @@
         </is>
       </c>
       <c r="D165" s="2" t="n">
-        <v>44400</v>
+        <v>44426</v>
       </c>
       <c r="E165" t="n">
         <v>13</v>
@@ -12237,16 +12237,16 @@
         </is>
       </c>
       <c r="J165" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K165" t="n">
-        <v>19000</v>
+        <v>16000</v>
       </c>
       <c r="L165" t="n">
-        <v>20000</v>
+        <v>16000</v>
       </c>
       <c r="M165" t="n">
-        <v>19471</v>
+        <v>16000</v>
       </c>
       <c r="N165" t="inlineStr">
         <is>
@@ -12259,7 +12259,7 @@
         </is>
       </c>
       <c r="P165" t="n">
-        <v>19471</v>
+        <v>16000</v>
       </c>
       <c r="Q165" t="n">
         <v>1</v>
@@ -12285,7 +12285,7 @@
         </is>
       </c>
       <c r="D166" s="2" t="n">
-        <v>44400</v>
+        <v>44426</v>
       </c>
       <c r="E166" t="n">
         <v>13</v>
@@ -12309,16 +12309,16 @@
         </is>
       </c>
       <c r="J166" t="n">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="K166" t="n">
-        <v>17000</v>
+        <v>14000</v>
       </c>
       <c r="L166" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="M166" t="n">
-        <v>17512</v>
+        <v>14500</v>
       </c>
       <c r="N166" t="inlineStr">
         <is>
@@ -12331,7 +12331,7 @@
         </is>
       </c>
       <c r="P166" t="n">
-        <v>584</v>
+        <v>483</v>
       </c>
       <c r="Q166" t="n">
         <v>30</v>
@@ -12357,7 +12357,7 @@
         </is>
       </c>
       <c r="D167" s="2" t="n">
-        <v>44400</v>
+        <v>44426</v>
       </c>
       <c r="E167" t="n">
         <v>13</v>
@@ -12381,16 +12381,16 @@
         </is>
       </c>
       <c r="J167" t="n">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="K167" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="L167" t="n">
-        <v>16000</v>
+        <v>13000</v>
       </c>
       <c r="M167" t="n">
-        <v>15500</v>
+        <v>13000</v>
       </c>
       <c r="N167" t="inlineStr">
         <is>
@@ -12403,7 +12403,7 @@
         </is>
       </c>
       <c r="P167" t="n">
-        <v>388</v>
+        <v>325</v>
       </c>
       <c r="Q167" t="n">
         <v>40</v>
@@ -12429,7 +12429,7 @@
         </is>
       </c>
       <c r="D168" s="2" t="n">
-        <v>44392</v>
+        <v>44328</v>
       </c>
       <c r="E168" t="n">
         <v>13</v>
@@ -12444,41 +12444,41 @@
       </c>
       <c r="H168" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I168" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J168" t="n">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="K168" t="n">
-        <v>17000</v>
+        <v>16000</v>
       </c>
       <c r="L168" t="n">
-        <v>18000</v>
+        <v>16000</v>
       </c>
       <c r="M168" t="n">
-        <v>17500</v>
+        <v>16000</v>
       </c>
       <c r="N168" t="inlineStr">
         <is>
-          <t>$/caja 25 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O168" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P168" t="n">
-        <v>17500</v>
+        <v>320</v>
       </c>
       <c r="Q168" t="n">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="R168" t="inlineStr">
         <is>
@@ -12501,7 +12501,7 @@
         </is>
       </c>
       <c r="D169" s="2" t="n">
-        <v>44392</v>
+        <v>44328</v>
       </c>
       <c r="E169" t="n">
         <v>13</v>
@@ -12525,16 +12525,16 @@
         </is>
       </c>
       <c r="J169" t="n">
-        <v>52</v>
+        <v>16</v>
       </c>
       <c r="K169" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="L169" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="M169" t="n">
-        <v>15500</v>
+        <v>18000</v>
       </c>
       <c r="N169" t="inlineStr">
         <is>
@@ -12543,11 +12543,11 @@
       </c>
       <c r="O169" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P169" t="n">
-        <v>517</v>
+        <v>600</v>
       </c>
       <c r="Q169" t="n">
         <v>30</v>
@@ -12573,7 +12573,7 @@
         </is>
       </c>
       <c r="D170" s="2" t="n">
-        <v>44392</v>
+        <v>44328</v>
       </c>
       <c r="E170" t="n">
         <v>13</v>
@@ -12600,13 +12600,13 @@
         <v>25</v>
       </c>
       <c r="K170" t="n">
-        <v>13000</v>
+        <v>16000</v>
       </c>
       <c r="L170" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="M170" t="n">
-        <v>13480</v>
+        <v>16000</v>
       </c>
       <c r="N170" t="inlineStr">
         <is>
@@ -12615,11 +12615,11 @@
       </c>
       <c r="O170" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P170" t="n">
-        <v>337</v>
+        <v>400</v>
       </c>
       <c r="Q170" t="n">
         <v>40</v>
@@ -12645,7 +12645,7 @@
         </is>
       </c>
       <c r="D171" s="2" t="n">
-        <v>44442</v>
+        <v>44400</v>
       </c>
       <c r="E171" t="n">
         <v>13</v>
@@ -12669,16 +12669,16 @@
         </is>
       </c>
       <c r="J171" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K171" t="n">
-        <v>15000</v>
+        <v>19000</v>
       </c>
       <c r="L171" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="M171" t="n">
-        <v>15000</v>
+        <v>19471</v>
       </c>
       <c r="N171" t="inlineStr">
         <is>
@@ -12691,7 +12691,7 @@
         </is>
       </c>
       <c r="P171" t="n">
-        <v>15000</v>
+        <v>19471</v>
       </c>
       <c r="Q171" t="n">
         <v>1</v>
@@ -12717,7 +12717,7 @@
         </is>
       </c>
       <c r="D172" s="2" t="n">
-        <v>44442</v>
+        <v>44400</v>
       </c>
       <c r="E172" t="n">
         <v>13</v>
@@ -12744,13 +12744,13 @@
         <v>43</v>
       </c>
       <c r="K172" t="n">
-        <v>13000</v>
+        <v>17000</v>
       </c>
       <c r="L172" t="n">
-        <v>14000</v>
+        <v>18000</v>
       </c>
       <c r="M172" t="n">
-        <v>13488</v>
+        <v>17512</v>
       </c>
       <c r="N172" t="inlineStr">
         <is>
@@ -12763,7 +12763,7 @@
         </is>
       </c>
       <c r="P172" t="n">
-        <v>450</v>
+        <v>584</v>
       </c>
       <c r="Q172" t="n">
         <v>30</v>
@@ -12789,7 +12789,7 @@
         </is>
       </c>
       <c r="D173" s="2" t="n">
-        <v>44442</v>
+        <v>44400</v>
       </c>
       <c r="E173" t="n">
         <v>13</v>
@@ -12813,16 +12813,16 @@
         </is>
       </c>
       <c r="J173" t="n">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="K173" t="n">
-        <v>11000</v>
+        <v>15000</v>
       </c>
       <c r="L173" t="n">
-        <v>12000</v>
+        <v>16000</v>
       </c>
       <c r="M173" t="n">
-        <v>11500</v>
+        <v>15500</v>
       </c>
       <c r="N173" t="inlineStr">
         <is>
@@ -12835,7 +12835,7 @@
         </is>
       </c>
       <c r="P173" t="n">
-        <v>288</v>
+        <v>388</v>
       </c>
       <c r="Q173" t="n">
         <v>40</v>
@@ -12861,7 +12861,7 @@
         </is>
       </c>
       <c r="D174" s="2" t="n">
-        <v>44453</v>
+        <v>44392</v>
       </c>
       <c r="E174" t="n">
         <v>13</v>
@@ -12888,13 +12888,13 @@
         <v>16</v>
       </c>
       <c r="K174" t="n">
-        <v>14000</v>
+        <v>17000</v>
       </c>
       <c r="L174" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="M174" t="n">
-        <v>14500</v>
+        <v>17500</v>
       </c>
       <c r="N174" t="inlineStr">
         <is>
@@ -12903,11 +12903,11 @@
       </c>
       <c r="O174" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P174" t="n">
-        <v>14500</v>
+        <v>17500</v>
       </c>
       <c r="Q174" t="n">
         <v>1</v>
@@ -12933,7 +12933,7 @@
         </is>
       </c>
       <c r="D175" s="2" t="n">
-        <v>44453</v>
+        <v>44392</v>
       </c>
       <c r="E175" t="n">
         <v>13</v>
@@ -12960,13 +12960,13 @@
         <v>52</v>
       </c>
       <c r="K175" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="L175" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="M175" t="n">
-        <v>13500</v>
+        <v>15500</v>
       </c>
       <c r="N175" t="inlineStr">
         <is>
@@ -12975,11 +12975,11 @@
       </c>
       <c r="O175" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P175" t="n">
-        <v>450</v>
+        <v>517</v>
       </c>
       <c r="Q175" t="n">
         <v>30</v>
@@ -13005,7 +13005,7 @@
         </is>
       </c>
       <c r="D176" s="2" t="n">
-        <v>44453</v>
+        <v>44392</v>
       </c>
       <c r="E176" t="n">
         <v>13</v>
@@ -13029,16 +13029,16 @@
         </is>
       </c>
       <c r="J176" t="n">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="K176" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="L176" t="n">
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="M176" t="n">
-        <v>10500</v>
+        <v>13480</v>
       </c>
       <c r="N176" t="inlineStr">
         <is>
@@ -13047,11 +13047,11 @@
       </c>
       <c r="O176" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P176" t="n">
-        <v>262</v>
+        <v>337</v>
       </c>
       <c r="Q176" t="n">
         <v>40</v>
@@ -13077,7 +13077,7 @@
         </is>
       </c>
       <c r="D177" s="2" t="n">
-        <v>44309</v>
+        <v>44442</v>
       </c>
       <c r="E177" t="n">
         <v>13</v>
@@ -13101,16 +13101,16 @@
         </is>
       </c>
       <c r="J177" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="K177" t="n">
-        <v>19000</v>
+        <v>15000</v>
       </c>
       <c r="L177" t="n">
-        <v>19000</v>
+        <v>15000</v>
       </c>
       <c r="M177" t="n">
-        <v>19000</v>
+        <v>15000</v>
       </c>
       <c r="N177" t="inlineStr">
         <is>
@@ -13119,11 +13119,11 @@
       </c>
       <c r="O177" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P177" t="n">
-        <v>19000</v>
+        <v>15000</v>
       </c>
       <c r="Q177" t="n">
         <v>1</v>
@@ -13149,7 +13149,7 @@
         </is>
       </c>
       <c r="D178" s="2" t="n">
-        <v>44309</v>
+        <v>44442</v>
       </c>
       <c r="E178" t="n">
         <v>13</v>
@@ -13173,16 +13173,16 @@
         </is>
       </c>
       <c r="J178" t="n">
-        <v>25</v>
+        <v>43</v>
       </c>
       <c r="K178" t="n">
-        <v>17000</v>
+        <v>13000</v>
       </c>
       <c r="L178" t="n">
-        <v>17000</v>
+        <v>14000</v>
       </c>
       <c r="M178" t="n">
-        <v>17000</v>
+        <v>13488</v>
       </c>
       <c r="N178" t="inlineStr">
         <is>
@@ -13191,11 +13191,11 @@
       </c>
       <c r="O178" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P178" t="n">
-        <v>567</v>
+        <v>450</v>
       </c>
       <c r="Q178" t="n">
         <v>30</v>
@@ -13221,7 +13221,7 @@
         </is>
       </c>
       <c r="D179" s="2" t="n">
-        <v>44448</v>
+        <v>44442</v>
       </c>
       <c r="E179" t="n">
         <v>13</v>
@@ -13241,24 +13241,24 @@
       </c>
       <c r="I179" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J179" t="n">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="K179" t="n">
-        <v>15000</v>
+        <v>11000</v>
       </c>
       <c r="L179" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="M179" t="n">
-        <v>15000</v>
+        <v>11500</v>
       </c>
       <c r="N179" t="inlineStr">
         <is>
-          <t>$/caja 25 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O179" t="inlineStr">
@@ -13267,10 +13267,10 @@
         </is>
       </c>
       <c r="P179" t="n">
-        <v>15000</v>
+        <v>288</v>
       </c>
       <c r="Q179" t="n">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="R179" t="inlineStr">
         <is>
@@ -13293,7 +13293,7 @@
         </is>
       </c>
       <c r="D180" s="2" t="n">
-        <v>44448</v>
+        <v>44453</v>
       </c>
       <c r="E180" t="n">
         <v>13</v>
@@ -13313,24 +13313,24 @@
       </c>
       <c r="I180" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J180" t="n">
-        <v>43</v>
+        <v>16</v>
       </c>
       <c r="K180" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="L180" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="M180" t="n">
-        <v>13512</v>
+        <v>14500</v>
       </c>
       <c r="N180" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 25 unidades</t>
         </is>
       </c>
       <c r="O180" t="inlineStr">
@@ -13339,10 +13339,10 @@
         </is>
       </c>
       <c r="P180" t="n">
-        <v>450</v>
+        <v>14500</v>
       </c>
       <c r="Q180" t="n">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="R180" t="inlineStr">
         <is>
@@ -13365,7 +13365,7 @@
         </is>
       </c>
       <c r="D181" s="2" t="n">
-        <v>44448</v>
+        <v>44453</v>
       </c>
       <c r="E181" t="n">
         <v>13</v>
@@ -13385,24 +13385,24 @@
       </c>
       <c r="I181" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J181" t="n">
-        <v>25</v>
+        <v>52</v>
       </c>
       <c r="K181" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="L181" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="M181" t="n">
-        <v>11480</v>
+        <v>13500</v>
       </c>
       <c r="N181" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O181" t="inlineStr">
@@ -13411,10 +13411,10 @@
         </is>
       </c>
       <c r="P181" t="n">
-        <v>287</v>
+        <v>450</v>
       </c>
       <c r="Q181" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="R181" t="inlineStr">
         <is>
@@ -13437,7 +13437,7 @@
         </is>
       </c>
       <c r="D182" s="2" t="n">
-        <v>44420</v>
+        <v>44453</v>
       </c>
       <c r="E182" t="n">
         <v>13</v>
@@ -13457,24 +13457,24 @@
       </c>
       <c r="I182" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J182" t="n">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="K182" t="n">
-        <v>16000</v>
+        <v>10000</v>
       </c>
       <c r="L182" t="n">
-        <v>16000</v>
+        <v>11000</v>
       </c>
       <c r="M182" t="n">
-        <v>16000</v>
+        <v>10500</v>
       </c>
       <c r="N182" t="inlineStr">
         <is>
-          <t>$/caja 25 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O182" t="inlineStr">
@@ -13483,10 +13483,10 @@
         </is>
       </c>
       <c r="P182" t="n">
-        <v>16000</v>
+        <v>262</v>
       </c>
       <c r="Q182" t="n">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="R182" t="inlineStr">
         <is>
@@ -13509,7 +13509,7 @@
         </is>
       </c>
       <c r="D183" s="2" t="n">
-        <v>44420</v>
+        <v>44309</v>
       </c>
       <c r="E183" t="n">
         <v>13</v>
@@ -13529,36 +13529,36 @@
       </c>
       <c r="I183" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J183" t="n">
-        <v>70</v>
+        <v>16</v>
       </c>
       <c r="K183" t="n">
-        <v>14000</v>
+        <v>19000</v>
       </c>
       <c r="L183" t="n">
-        <v>15000</v>
+        <v>19000</v>
       </c>
       <c r="M183" t="n">
-        <v>14500</v>
+        <v>19000</v>
       </c>
       <c r="N183" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 25 unidades</t>
         </is>
       </c>
       <c r="O183" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P183" t="n">
-        <v>483</v>
+        <v>19000</v>
       </c>
       <c r="Q183" t="n">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="R183" t="inlineStr">
         <is>
@@ -13581,7 +13581,7 @@
         </is>
       </c>
       <c r="D184" s="2" t="n">
-        <v>44420</v>
+        <v>44309</v>
       </c>
       <c r="E184" t="n">
         <v>13</v>
@@ -13601,36 +13601,36 @@
       </c>
       <c r="I184" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J184" t="n">
-        <v>43</v>
+        <v>25</v>
       </c>
       <c r="K184" t="n">
-        <v>12000</v>
+        <v>17000</v>
       </c>
       <c r="L184" t="n">
-        <v>13000</v>
+        <v>17000</v>
       </c>
       <c r="M184" t="n">
-        <v>12512</v>
+        <v>17000</v>
       </c>
       <c r="N184" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O184" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P184" t="n">
-        <v>313</v>
+        <v>567</v>
       </c>
       <c r="Q184" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="R184" t="inlineStr">
         <is>
@@ -13653,7 +13653,7 @@
         </is>
       </c>
       <c r="D185" s="2" t="n">
-        <v>44344</v>
+        <v>44448</v>
       </c>
       <c r="E185" t="n">
         <v>13</v>
@@ -13668,29 +13668,29 @@
       </c>
       <c r="H185" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I185" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J185" t="n">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="K185" t="n">
         <v>15000</v>
       </c>
       <c r="L185" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="M185" t="n">
-        <v>15524</v>
+        <v>15000</v>
       </c>
       <c r="N185" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 25 unidades</t>
         </is>
       </c>
       <c r="O185" t="inlineStr">
@@ -13699,10 +13699,10 @@
         </is>
       </c>
       <c r="P185" t="n">
-        <v>310</v>
+        <v>15000</v>
       </c>
       <c r="Q185" t="n">
-        <v>50</v>
+        <v>1</v>
       </c>
       <c r="R185" t="inlineStr">
         <is>
@@ -13725,7 +13725,7 @@
         </is>
       </c>
       <c r="D186" s="2" t="n">
-        <v>44344</v>
+        <v>44448</v>
       </c>
       <c r="E186" t="n">
         <v>13</v>
@@ -13749,16 +13749,16 @@
         </is>
       </c>
       <c r="J186" t="n">
-        <v>16</v>
+        <v>43</v>
       </c>
       <c r="K186" t="n">
-        <v>17000</v>
+        <v>13000</v>
       </c>
       <c r="L186" t="n">
-        <v>18000</v>
+        <v>14000</v>
       </c>
       <c r="M186" t="n">
-        <v>17500</v>
+        <v>13512</v>
       </c>
       <c r="N186" t="inlineStr">
         <is>
@@ -13771,7 +13771,7 @@
         </is>
       </c>
       <c r="P186" t="n">
-        <v>583</v>
+        <v>450</v>
       </c>
       <c r="Q186" t="n">
         <v>30</v>
@@ -13797,7 +13797,7 @@
         </is>
       </c>
       <c r="D187" s="2" t="n">
-        <v>44344</v>
+        <v>44448</v>
       </c>
       <c r="E187" t="n">
         <v>13</v>
@@ -13821,16 +13821,16 @@
         </is>
       </c>
       <c r="J187" t="n">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="K187" t="n">
-        <v>14000</v>
+        <v>11000</v>
       </c>
       <c r="L187" t="n">
-        <v>16000</v>
+        <v>12000</v>
       </c>
       <c r="M187" t="n">
-        <v>15000</v>
+        <v>11480</v>
       </c>
       <c r="N187" t="inlineStr">
         <is>
@@ -13843,7 +13843,7 @@
         </is>
       </c>
       <c r="P187" t="n">
-        <v>375</v>
+        <v>287</v>
       </c>
       <c r="Q187" t="n">
         <v>40</v>
@@ -13869,7 +13869,7 @@
         </is>
       </c>
       <c r="D188" s="2" t="n">
-        <v>44350</v>
+        <v>44420</v>
       </c>
       <c r="E188" t="n">
         <v>13</v>
@@ -13884,41 +13884,41 @@
       </c>
       <c r="H188" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I188" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J188" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="K188" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="L188" t="n">
         <v>16000</v>
       </c>
       <c r="M188" t="n">
-        <v>15500</v>
+        <v>16000</v>
       </c>
       <c r="N188" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 25 unidades</t>
         </is>
       </c>
       <c r="O188" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P188" t="n">
-        <v>310</v>
+        <v>16000</v>
       </c>
       <c r="Q188" t="n">
-        <v>50</v>
+        <v>1</v>
       </c>
       <c r="R188" t="inlineStr">
         <is>
@@ -13941,7 +13941,7 @@
         </is>
       </c>
       <c r="D189" s="2" t="n">
-        <v>44350</v>
+        <v>44420</v>
       </c>
       <c r="E189" t="n">
         <v>13</v>
@@ -13956,41 +13956,41 @@
       </c>
       <c r="H189" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I189" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J189" t="n">
-        <v>16</v>
+        <v>70</v>
       </c>
       <c r="K189" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="L189" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="M189" t="n">
-        <v>13000</v>
+        <v>14500</v>
       </c>
       <c r="N189" t="inlineStr">
         <is>
-          <t>$/caja 70 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O189" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P189" t="n">
-        <v>186</v>
+        <v>483</v>
       </c>
       <c r="Q189" t="n">
-        <v>70</v>
+        <v>30</v>
       </c>
       <c r="R189" t="inlineStr">
         <is>
@@ -14013,7 +14013,7 @@
         </is>
       </c>
       <c r="D190" s="2" t="n">
-        <v>44350</v>
+        <v>44420</v>
       </c>
       <c r="E190" t="n">
         <v>13</v>
@@ -14033,24 +14033,24 @@
       </c>
       <c r="I190" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J190" t="n">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="K190" t="n">
-        <v>18000</v>
+        <v>12000</v>
       </c>
       <c r="L190" t="n">
-        <v>19000</v>
+        <v>13000</v>
       </c>
       <c r="M190" t="n">
-        <v>18500</v>
+        <v>12512</v>
       </c>
       <c r="N190" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O190" t="inlineStr">
@@ -14059,10 +14059,10 @@
         </is>
       </c>
       <c r="P190" t="n">
-        <v>617</v>
+        <v>313</v>
       </c>
       <c r="Q190" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="R190" t="inlineStr">
         <is>
@@ -14085,7 +14085,7 @@
         </is>
       </c>
       <c r="D191" s="2" t="n">
-        <v>44350</v>
+        <v>44344</v>
       </c>
       <c r="E191" t="n">
         <v>13</v>
@@ -14100,29 +14100,29 @@
       </c>
       <c r="H191" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I191" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J191" t="n">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="K191" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="L191" t="n">
         <v>16000</v>
       </c>
       <c r="M191" t="n">
-        <v>16000</v>
+        <v>15524</v>
       </c>
       <c r="N191" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O191" t="inlineStr">
@@ -14131,10 +14131,10 @@
         </is>
       </c>
       <c r="P191" t="n">
-        <v>400</v>
+        <v>310</v>
       </c>
       <c r="Q191" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="R191" t="inlineStr">
         <is>
@@ -14157,7 +14157,7 @@
         </is>
       </c>
       <c r="D192" s="2" t="n">
-        <v>44455</v>
+        <v>44344</v>
       </c>
       <c r="E192" t="n">
         <v>13</v>
@@ -14177,24 +14177,24 @@
       </c>
       <c r="I192" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J192" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="K192" t="n">
-        <v>11000</v>
+        <v>17000</v>
       </c>
       <c r="L192" t="n">
-        <v>12000</v>
+        <v>18000</v>
       </c>
       <c r="M192" t="n">
-        <v>11500</v>
+        <v>17500</v>
       </c>
       <c r="N192" t="inlineStr">
         <is>
-          <t>$/caja 25 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O192" t="inlineStr">
@@ -14203,10 +14203,10 @@
         </is>
       </c>
       <c r="P192" t="n">
-        <v>11500</v>
+        <v>583</v>
       </c>
       <c r="Q192" t="n">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="R192" t="inlineStr">
         <is>
@@ -14229,7 +14229,7 @@
         </is>
       </c>
       <c r="D193" s="2" t="n">
-        <v>44455</v>
+        <v>44344</v>
       </c>
       <c r="E193" t="n">
         <v>13</v>
@@ -14249,24 +14249,24 @@
       </c>
       <c r="I193" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J193" t="n">
-        <v>61</v>
+        <v>14</v>
       </c>
       <c r="K193" t="n">
-        <v>9000</v>
+        <v>14000</v>
       </c>
       <c r="L193" t="n">
-        <v>10000</v>
+        <v>16000</v>
       </c>
       <c r="M193" t="n">
-        <v>9492</v>
+        <v>15000</v>
       </c>
       <c r="N193" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O193" t="inlineStr">
@@ -14275,10 +14275,10 @@
         </is>
       </c>
       <c r="P193" t="n">
-        <v>316</v>
+        <v>375</v>
       </c>
       <c r="Q193" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="R193" t="inlineStr">
         <is>
@@ -14301,7 +14301,7 @@
         </is>
       </c>
       <c r="D194" s="2" t="n">
-        <v>44455</v>
+        <v>44350</v>
       </c>
       <c r="E194" t="n">
         <v>13</v>
@@ -14316,41 +14316,41 @@
       </c>
       <c r="H194" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I194" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J194" t="n">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="K194" t="n">
-        <v>7000</v>
+        <v>15000</v>
       </c>
       <c r="L194" t="n">
-        <v>8000</v>
+        <v>16000</v>
       </c>
       <c r="M194" t="n">
-        <v>7500</v>
+        <v>15500</v>
       </c>
       <c r="N194" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O194" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P194" t="n">
-        <v>188</v>
+        <v>310</v>
       </c>
       <c r="Q194" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="R194" t="inlineStr">
         <is>
@@ -14373,7 +14373,7 @@
         </is>
       </c>
       <c r="D195" s="2" t="n">
-        <v>44418</v>
+        <v>44350</v>
       </c>
       <c r="E195" t="n">
         <v>13</v>
@@ -14388,29 +14388,29 @@
       </c>
       <c r="H195" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I195" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J195" t="n">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="K195" t="n">
-        <v>16000</v>
+        <v>13000</v>
       </c>
       <c r="L195" t="n">
-        <v>16000</v>
+        <v>13000</v>
       </c>
       <c r="M195" t="n">
-        <v>16000</v>
+        <v>13000</v>
       </c>
       <c r="N195" t="inlineStr">
         <is>
-          <t>$/caja 25 unidades</t>
+          <t>$/caja 70 unidades</t>
         </is>
       </c>
       <c r="O195" t="inlineStr">
@@ -14419,10 +14419,10 @@
         </is>
       </c>
       <c r="P195" t="n">
-        <v>16000</v>
+        <v>186</v>
       </c>
       <c r="Q195" t="n">
-        <v>1</v>
+        <v>70</v>
       </c>
       <c r="R195" t="inlineStr">
         <is>
@@ -14445,7 +14445,7 @@
         </is>
       </c>
       <c r="D196" s="2" t="n">
-        <v>44418</v>
+        <v>44350</v>
       </c>
       <c r="E196" t="n">
         <v>13</v>
@@ -14469,16 +14469,16 @@
         </is>
       </c>
       <c r="J196" t="n">
-        <v>52</v>
+        <v>34</v>
       </c>
       <c r="K196" t="n">
-        <v>14000</v>
+        <v>18000</v>
       </c>
       <c r="L196" t="n">
-        <v>15000</v>
+        <v>19000</v>
       </c>
       <c r="M196" t="n">
-        <v>14500</v>
+        <v>18500</v>
       </c>
       <c r="N196" t="inlineStr">
         <is>
@@ -14487,11 +14487,11 @@
       </c>
       <c r="O196" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P196" t="n">
-        <v>483</v>
+        <v>617</v>
       </c>
       <c r="Q196" t="n">
         <v>30</v>
@@ -14517,7 +14517,7 @@
         </is>
       </c>
       <c r="D197" s="2" t="n">
-        <v>44418</v>
+        <v>44350</v>
       </c>
       <c r="E197" t="n">
         <v>13</v>
@@ -14541,16 +14541,16 @@
         </is>
       </c>
       <c r="J197" t="n">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="K197" t="n">
-        <v>13000</v>
+        <v>16000</v>
       </c>
       <c r="L197" t="n">
-        <v>13000</v>
+        <v>16000</v>
       </c>
       <c r="M197" t="n">
-        <v>13000</v>
+        <v>16000</v>
       </c>
       <c r="N197" t="inlineStr">
         <is>
@@ -14559,11 +14559,11 @@
       </c>
       <c r="O197" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P197" t="n">
-        <v>325</v>
+        <v>400</v>
       </c>
       <c r="Q197" t="n">
         <v>40</v>
@@ -14589,7 +14589,7 @@
         </is>
       </c>
       <c r="D198" s="2" t="n">
-        <v>44460</v>
+        <v>44455</v>
       </c>
       <c r="E198" t="n">
         <v>13</v>
@@ -14609,24 +14609,24 @@
       </c>
       <c r="I198" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J198" t="n">
-        <v>43</v>
+        <v>18</v>
       </c>
       <c r="K198" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="L198" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="M198" t="n">
-        <v>13488</v>
+        <v>11500</v>
       </c>
       <c r="N198" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 25 unidades</t>
         </is>
       </c>
       <c r="O198" t="inlineStr">
@@ -14635,10 +14635,10 @@
         </is>
       </c>
       <c r="P198" t="n">
-        <v>450</v>
+        <v>11500</v>
       </c>
       <c r="Q198" t="n">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="R198" t="inlineStr">
         <is>
@@ -14661,7 +14661,7 @@
         </is>
       </c>
       <c r="D199" s="2" t="n">
-        <v>44460</v>
+        <v>44455</v>
       </c>
       <c r="E199" t="n">
         <v>13</v>
@@ -14681,24 +14681,24 @@
       </c>
       <c r="I199" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J199" t="n">
-        <v>25</v>
+        <v>61</v>
       </c>
       <c r="K199" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="L199" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="M199" t="n">
-        <v>11480</v>
+        <v>9492</v>
       </c>
       <c r="N199" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O199" t="inlineStr">
@@ -14707,10 +14707,10 @@
         </is>
       </c>
       <c r="P199" t="n">
-        <v>287</v>
+        <v>316</v>
       </c>
       <c r="Q199" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="R199" t="inlineStr">
         <is>
@@ -14733,7 +14733,7 @@
         </is>
       </c>
       <c r="D200" s="2" t="n">
-        <v>44414</v>
+        <v>44455</v>
       </c>
       <c r="E200" t="n">
         <v>13</v>
@@ -14753,24 +14753,24 @@
       </c>
       <c r="I200" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J200" t="n">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="K200" t="n">
-        <v>15000</v>
+        <v>7000</v>
       </c>
       <c r="L200" t="n">
-        <v>15000</v>
+        <v>8000</v>
       </c>
       <c r="M200" t="n">
-        <v>15000</v>
+        <v>7500</v>
       </c>
       <c r="N200" t="inlineStr">
         <is>
-          <t>$/caja 25 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O200" t="inlineStr">
@@ -14779,10 +14779,10 @@
         </is>
       </c>
       <c r="P200" t="n">
-        <v>15000</v>
+        <v>188</v>
       </c>
       <c r="Q200" t="n">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="R200" t="inlineStr">
         <is>
@@ -14805,7 +14805,7 @@
         </is>
       </c>
       <c r="D201" s="2" t="n">
-        <v>44414</v>
+        <v>44418</v>
       </c>
       <c r="E201" t="n">
         <v>13</v>
@@ -14825,36 +14825,36 @@
       </c>
       <c r="I201" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J201" t="n">
-        <v>61</v>
+        <v>25</v>
       </c>
       <c r="K201" t="n">
-        <v>13000</v>
+        <v>16000</v>
       </c>
       <c r="L201" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="M201" t="n">
-        <v>13492</v>
+        <v>16000</v>
       </c>
       <c r="N201" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 25 unidades</t>
         </is>
       </c>
       <c r="O201" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P201" t="n">
-        <v>450</v>
+        <v>16000</v>
       </c>
       <c r="Q201" t="n">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="R201" t="inlineStr">
         <is>
@@ -14877,7 +14877,7 @@
         </is>
       </c>
       <c r="D202" s="2" t="n">
-        <v>44414</v>
+        <v>44418</v>
       </c>
       <c r="E202" t="n">
         <v>13</v>
@@ -14897,36 +14897,36 @@
       </c>
       <c r="I202" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J202" t="n">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="K202" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="L202" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="M202" t="n">
-        <v>12000</v>
+        <v>14500</v>
       </c>
       <c r="N202" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O202" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P202" t="n">
-        <v>300</v>
+        <v>483</v>
       </c>
       <c r="Q202" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="R202" t="inlineStr">
         <is>
@@ -14949,7 +14949,7 @@
         </is>
       </c>
       <c r="D203" s="2" t="n">
-        <v>44427</v>
+        <v>44418</v>
       </c>
       <c r="E203" t="n">
         <v>13</v>
@@ -14969,36 +14969,36 @@
       </c>
       <c r="I203" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J203" t="n">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="K203" t="n">
-        <v>17000</v>
+        <v>13000</v>
       </c>
       <c r="L203" t="n">
-        <v>17000</v>
+        <v>13000</v>
       </c>
       <c r="M203" t="n">
-        <v>17000</v>
+        <v>13000</v>
       </c>
       <c r="N203" t="inlineStr">
         <is>
-          <t>$/caja 25 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O203" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P203" t="n">
-        <v>17000</v>
+        <v>325</v>
       </c>
       <c r="Q203" t="n">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="R203" t="inlineStr">
         <is>
@@ -15021,7 +15021,7 @@
         </is>
       </c>
       <c r="D204" s="2" t="n">
-        <v>44427</v>
+        <v>44460</v>
       </c>
       <c r="E204" t="n">
         <v>13</v>
@@ -15048,13 +15048,13 @@
         <v>43</v>
       </c>
       <c r="K204" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="L204" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="M204" t="n">
-        <v>15488</v>
+        <v>13488</v>
       </c>
       <c r="N204" t="inlineStr">
         <is>
@@ -15067,7 +15067,7 @@
         </is>
       </c>
       <c r="P204" t="n">
-        <v>516</v>
+        <v>450</v>
       </c>
       <c r="Q204" t="n">
         <v>30</v>
@@ -15093,7 +15093,7 @@
         </is>
       </c>
       <c r="D205" s="2" t="n">
-        <v>44427</v>
+        <v>44460</v>
       </c>
       <c r="E205" t="n">
         <v>13</v>
@@ -15120,13 +15120,13 @@
         <v>25</v>
       </c>
       <c r="K205" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="L205" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="M205" t="n">
-        <v>13480</v>
+        <v>11480</v>
       </c>
       <c r="N205" t="inlineStr">
         <is>
@@ -15139,7 +15139,7 @@
         </is>
       </c>
       <c r="P205" t="n">
-        <v>337</v>
+        <v>287</v>
       </c>
       <c r="Q205" t="n">
         <v>40</v>
@@ -15165,7 +15165,7 @@
         </is>
       </c>
       <c r="D206" s="2" t="n">
-        <v>44427</v>
+        <v>44414</v>
       </c>
       <c r="E206" t="n">
         <v>13</v>
@@ -15180,12 +15180,12 @@
       </c>
       <c r="H206" t="inlineStr">
         <is>
-          <t>Madrigal</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I206" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J206" t="n">
@@ -15195,14 +15195,14 @@
         <v>15000</v>
       </c>
       <c r="L206" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="M206" t="n">
-        <v>15480</v>
+        <v>15000</v>
       </c>
       <c r="N206" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 25 unidades</t>
         </is>
       </c>
       <c r="O206" t="inlineStr">
@@ -15211,10 +15211,10 @@
         </is>
       </c>
       <c r="P206" t="n">
-        <v>387</v>
+        <v>15000</v>
       </c>
       <c r="Q206" t="n">
-        <v>40</v>
+        <v>1</v>
       </c>
       <c r="R206" t="inlineStr">
         <is>
@@ -15237,7 +15237,7 @@
         </is>
       </c>
       <c r="D207" s="2" t="n">
-        <v>44427</v>
+        <v>44414</v>
       </c>
       <c r="E207" t="n">
         <v>13</v>
@@ -15252,16 +15252,16 @@
       </c>
       <c r="H207" t="inlineStr">
         <is>
-          <t>Madrigal</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I207" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J207" t="n">
-        <v>16</v>
+        <v>61</v>
       </c>
       <c r="K207" t="n">
         <v>13000</v>
@@ -15270,11 +15270,11 @@
         <v>14000</v>
       </c>
       <c r="M207" t="n">
-        <v>13500</v>
+        <v>13492</v>
       </c>
       <c r="N207" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O207" t="inlineStr">
@@ -15283,10 +15283,10 @@
         </is>
       </c>
       <c r="P207" t="n">
-        <v>270</v>
+        <v>450</v>
       </c>
       <c r="Q207" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R207" t="inlineStr">
         <is>
@@ -15309,7 +15309,7 @@
         </is>
       </c>
       <c r="D208" s="2" t="n">
-        <v>44466</v>
+        <v>44414</v>
       </c>
       <c r="E208" t="n">
         <v>13</v>
@@ -15329,24 +15329,24 @@
       </c>
       <c r="I208" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J208" t="n">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="K208" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="L208" t="n">
         <v>12000</v>
       </c>
       <c r="M208" t="n">
-        <v>11500</v>
+        <v>12000</v>
       </c>
       <c r="N208" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O208" t="inlineStr">
@@ -15355,10 +15355,10 @@
         </is>
       </c>
       <c r="P208" t="n">
-        <v>383</v>
+        <v>300</v>
       </c>
       <c r="Q208" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="R208" t="inlineStr">
         <is>
@@ -15381,7 +15381,7 @@
         </is>
       </c>
       <c r="D209" s="2" t="n">
-        <v>44447</v>
+        <v>44427</v>
       </c>
       <c r="E209" t="n">
         <v>13</v>
@@ -15401,24 +15401,24 @@
       </c>
       <c r="I209" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J209" t="n">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="K209" t="n">
-        <v>14000</v>
+        <v>17000</v>
       </c>
       <c r="L209" t="n">
-        <v>15000</v>
+        <v>17000</v>
       </c>
       <c r="M209" t="n">
-        <v>14520</v>
+        <v>17000</v>
       </c>
       <c r="N209" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 25 unidades</t>
         </is>
       </c>
       <c r="O209" t="inlineStr">
@@ -15427,10 +15427,10 @@
         </is>
       </c>
       <c r="P209" t="n">
-        <v>484</v>
+        <v>17000</v>
       </c>
       <c r="Q209" t="n">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="R209" t="inlineStr">
         <is>
@@ -15453,7 +15453,7 @@
         </is>
       </c>
       <c r="D210" s="2" t="n">
-        <v>44447</v>
+        <v>44427</v>
       </c>
       <c r="E210" t="n">
         <v>13</v>
@@ -15473,24 +15473,24 @@
       </c>
       <c r="I210" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J210" t="n">
-        <v>16</v>
+        <v>43</v>
       </c>
       <c r="K210" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="L210" t="n">
-        <v>13000</v>
+        <v>16000</v>
       </c>
       <c r="M210" t="n">
-        <v>13000</v>
+        <v>15488</v>
       </c>
       <c r="N210" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O210" t="inlineStr">
@@ -15499,10 +15499,10 @@
         </is>
       </c>
       <c r="P210" t="n">
-        <v>325</v>
+        <v>516</v>
       </c>
       <c r="Q210" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="R210" t="inlineStr">
         <is>
@@ -15525,7 +15525,7 @@
         </is>
       </c>
       <c r="D211" s="2" t="n">
-        <v>44390</v>
+        <v>44427</v>
       </c>
       <c r="E211" t="n">
         <v>13</v>
@@ -15545,24 +15545,24 @@
       </c>
       <c r="I211" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J211" t="n">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="K211" t="n">
-        <v>19000</v>
+        <v>13000</v>
       </c>
       <c r="L211" t="n">
-        <v>20000</v>
+        <v>14000</v>
       </c>
       <c r="M211" t="n">
-        <v>19500</v>
+        <v>13480</v>
       </c>
       <c r="N211" t="inlineStr">
         <is>
-          <t>$/caja 25 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O211" t="inlineStr">
@@ -15571,10 +15571,10 @@
         </is>
       </c>
       <c r="P211" t="n">
-        <v>19500</v>
+        <v>337</v>
       </c>
       <c r="Q211" t="n">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="R211" t="inlineStr">
         <is>
@@ -15597,7 +15597,7 @@
         </is>
       </c>
       <c r="D212" s="2" t="n">
-        <v>44390</v>
+        <v>44427</v>
       </c>
       <c r="E212" t="n">
         <v>13</v>
@@ -15612,7 +15612,7 @@
       </c>
       <c r="H212" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Madrigal</t>
         </is>
       </c>
       <c r="I212" t="inlineStr">
@@ -15621,20 +15621,20 @@
         </is>
       </c>
       <c r="J212" t="n">
-        <v>43</v>
+        <v>25</v>
       </c>
       <c r="K212" t="n">
+        <v>15000</v>
+      </c>
+      <c r="L212" t="n">
         <v>16000</v>
       </c>
-      <c r="L212" t="n">
-        <v>18000</v>
-      </c>
       <c r="M212" t="n">
-        <v>17023</v>
+        <v>15480</v>
       </c>
       <c r="N212" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O212" t="inlineStr">
@@ -15643,10 +15643,10 @@
         </is>
       </c>
       <c r="P212" t="n">
-        <v>567</v>
+        <v>387</v>
       </c>
       <c r="Q212" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="R212" t="inlineStr">
         <is>
@@ -15669,7 +15669,7 @@
         </is>
       </c>
       <c r="D213" s="2" t="n">
-        <v>44390</v>
+        <v>44427</v>
       </c>
       <c r="E213" t="n">
         <v>13</v>
@@ -15684,7 +15684,7 @@
       </c>
       <c r="H213" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Madrigal</t>
         </is>
       </c>
       <c r="I213" t="inlineStr">
@@ -15693,20 +15693,20 @@
         </is>
       </c>
       <c r="J213" t="n">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="K213" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="L213" t="n">
         <v>14000</v>
       </c>
       <c r="M213" t="n">
-        <v>14000</v>
+        <v>13500</v>
       </c>
       <c r="N213" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O213" t="inlineStr">
@@ -15715,10 +15715,10 @@
         </is>
       </c>
       <c r="P213" t="n">
-        <v>350</v>
+        <v>270</v>
       </c>
       <c r="Q213" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="R213" t="inlineStr">
         <is>
@@ -15741,7 +15741,7 @@
         </is>
       </c>
       <c r="D214" s="2" t="n">
-        <v>44386</v>
+        <v>44466</v>
       </c>
       <c r="E214" t="n">
         <v>13</v>
@@ -15761,36 +15761,36 @@
       </c>
       <c r="I214" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J214" t="n">
-        <v>16</v>
+        <v>52</v>
       </c>
       <c r="K214" t="n">
-        <v>20000</v>
+        <v>11000</v>
       </c>
       <c r="L214" t="n">
-        <v>20000</v>
+        <v>12000</v>
       </c>
       <c r="M214" t="n">
-        <v>20000</v>
+        <v>11500</v>
       </c>
       <c r="N214" t="inlineStr">
         <is>
-          <t>$/caja 25 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O214" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P214" t="n">
-        <v>20000</v>
+        <v>383</v>
       </c>
       <c r="Q214" t="n">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="R214" t="inlineStr">
         <is>
@@ -15813,7 +15813,7 @@
         </is>
       </c>
       <c r="D215" s="2" t="n">
-        <v>44386</v>
+        <v>44447</v>
       </c>
       <c r="E215" t="n">
         <v>13</v>
@@ -15837,16 +15837,16 @@
         </is>
       </c>
       <c r="J215" t="n">
-        <v>61</v>
+        <v>25</v>
       </c>
       <c r="K215" t="n">
-        <v>17000</v>
+        <v>14000</v>
       </c>
       <c r="L215" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="M215" t="n">
-        <v>17492</v>
+        <v>14520</v>
       </c>
       <c r="N215" t="inlineStr">
         <is>
@@ -15855,11 +15855,11 @@
       </c>
       <c r="O215" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P215" t="n">
-        <v>583</v>
+        <v>484</v>
       </c>
       <c r="Q215" t="n">
         <v>30</v>
@@ -15885,7 +15885,7 @@
         </is>
       </c>
       <c r="D216" s="2" t="n">
-        <v>44386</v>
+        <v>44447</v>
       </c>
       <c r="E216" t="n">
         <v>13</v>
@@ -15909,16 +15909,16 @@
         </is>
       </c>
       <c r="J216" t="n">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="K216" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="L216" t="n">
-        <v>16000</v>
+        <v>13000</v>
       </c>
       <c r="M216" t="n">
-        <v>15500</v>
+        <v>13000</v>
       </c>
       <c r="N216" t="inlineStr">
         <is>
@@ -15927,11 +15927,11 @@
       </c>
       <c r="O216" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P216" t="n">
-        <v>388</v>
+        <v>325</v>
       </c>
       <c r="Q216" t="n">
         <v>40</v>
@@ -15957,7 +15957,7 @@
         </is>
       </c>
       <c r="D217" s="2" t="n">
-        <v>44386</v>
+        <v>44390</v>
       </c>
       <c r="E217" t="n">
         <v>13</v>
@@ -15972,7 +15972,7 @@
       </c>
       <c r="H217" t="inlineStr">
         <is>
-          <t>Madrigal</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I217" t="inlineStr">
@@ -15984,29 +15984,29 @@
         <v>16</v>
       </c>
       <c r="K217" t="n">
-        <v>22000</v>
+        <v>19000</v>
       </c>
       <c r="L217" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="M217" t="n">
-        <v>22000</v>
+        <v>19500</v>
       </c>
       <c r="N217" t="inlineStr">
         <is>
-          <t>$/caja 35 unidades</t>
+          <t>$/caja 25 unidades</t>
         </is>
       </c>
       <c r="O217" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P217" t="n">
-        <v>629</v>
+        <v>19500</v>
       </c>
       <c r="Q217" t="n">
-        <v>35</v>
+        <v>1</v>
       </c>
       <c r="R217" t="inlineStr">
         <is>
@@ -16029,7 +16029,7 @@
         </is>
       </c>
       <c r="D218" s="2" t="n">
-        <v>44386</v>
+        <v>44390</v>
       </c>
       <c r="E218" t="n">
         <v>13</v>
@@ -16044,7 +16044,7 @@
       </c>
       <c r="H218" t="inlineStr">
         <is>
-          <t>Madrigal</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I218" t="inlineStr">
@@ -16056,29 +16056,29 @@
         <v>43</v>
       </c>
       <c r="K218" t="n">
-        <v>20000</v>
+        <v>16000</v>
       </c>
       <c r="L218" t="n">
-        <v>21000</v>
+        <v>18000</v>
       </c>
       <c r="M218" t="n">
-        <v>20488</v>
+        <v>17023</v>
       </c>
       <c r="N218" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O218" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P218" t="n">
-        <v>512</v>
+        <v>567</v>
       </c>
       <c r="Q218" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="R218" t="inlineStr">
         <is>
@@ -16101,7 +16101,7 @@
         </is>
       </c>
       <c r="D219" s="2" t="n">
-        <v>44386</v>
+        <v>44390</v>
       </c>
       <c r="E219" t="n">
         <v>13</v>
@@ -16116,7 +16116,7 @@
       </c>
       <c r="H219" t="inlineStr">
         <is>
-          <t>Madrigal</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I219" t="inlineStr">
@@ -16128,29 +16128,29 @@
         <v>25</v>
       </c>
       <c r="K219" t="n">
-        <v>18000</v>
+        <v>14000</v>
       </c>
       <c r="L219" t="n">
-        <v>19000</v>
+        <v>14000</v>
       </c>
       <c r="M219" t="n">
-        <v>18480</v>
+        <v>14000</v>
       </c>
       <c r="N219" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O219" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P219" t="n">
-        <v>370</v>
+        <v>350</v>
       </c>
       <c r="Q219" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="R219" t="inlineStr">
         <is>
@@ -16173,7 +16173,7 @@
         </is>
       </c>
       <c r="D220" s="2" t="n">
-        <v>44308</v>
+        <v>44386</v>
       </c>
       <c r="E220" t="n">
         <v>13</v>
@@ -16215,7 +16215,7 @@
       </c>
       <c r="O220" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P220" t="n">
@@ -16245,7 +16245,7 @@
         </is>
       </c>
       <c r="D221" s="2" t="n">
-        <v>44308</v>
+        <v>44386</v>
       </c>
       <c r="E221" t="n">
         <v>13</v>
@@ -16269,16 +16269,16 @@
         </is>
       </c>
       <c r="J221" t="n">
-        <v>30</v>
+        <v>61</v>
       </c>
       <c r="K221" t="n">
-        <v>18000</v>
+        <v>17000</v>
       </c>
       <c r="L221" t="n">
         <v>18000</v>
       </c>
       <c r="M221" t="n">
-        <v>18000</v>
+        <v>17492</v>
       </c>
       <c r="N221" t="inlineStr">
         <is>
@@ -16287,11 +16287,11 @@
       </c>
       <c r="O221" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P221" t="n">
-        <v>600</v>
+        <v>583</v>
       </c>
       <c r="Q221" t="n">
         <v>30</v>
@@ -16317,7 +16317,7 @@
         </is>
       </c>
       <c r="D222" s="2" t="n">
-        <v>44463</v>
+        <v>44386</v>
       </c>
       <c r="E222" t="n">
         <v>13</v>
@@ -16337,36 +16337,36 @@
       </c>
       <c r="I222" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J222" t="n">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="K222" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="L222" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="M222" t="n">
-        <v>14524</v>
+        <v>15500</v>
       </c>
       <c r="N222" t="inlineStr">
         <is>
-          <t>$/caja 25 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O222" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P222" t="n">
-        <v>14524</v>
+        <v>388</v>
       </c>
       <c r="Q222" t="n">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="R222" t="inlineStr">
         <is>
@@ -16389,7 +16389,7 @@
         </is>
       </c>
       <c r="D223" s="2" t="n">
-        <v>44463</v>
+        <v>44386</v>
       </c>
       <c r="E223" t="n">
         <v>13</v>
@@ -16404,41 +16404,41 @@
       </c>
       <c r="H223" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Madrigal</t>
         </is>
       </c>
       <c r="I223" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J223" t="n">
-        <v>52</v>
+        <v>16</v>
       </c>
       <c r="K223" t="n">
-        <v>12000</v>
+        <v>22000</v>
       </c>
       <c r="L223" t="n">
-        <v>13000</v>
+        <v>22000</v>
       </c>
       <c r="M223" t="n">
-        <v>12500</v>
+        <v>22000</v>
       </c>
       <c r="N223" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 35 unidades</t>
         </is>
       </c>
       <c r="O223" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P223" t="n">
-        <v>417</v>
+        <v>629</v>
       </c>
       <c r="Q223" t="n">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="R223" t="inlineStr">
         <is>
@@ -16461,7 +16461,7 @@
         </is>
       </c>
       <c r="D224" s="2" t="n">
-        <v>44463</v>
+        <v>44386</v>
       </c>
       <c r="E224" t="n">
         <v>13</v>
@@ -16476,25 +16476,25 @@
       </c>
       <c r="H224" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Madrigal</t>
         </is>
       </c>
       <c r="I224" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J224" t="n">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="K224" t="n">
-        <v>10000</v>
+        <v>20000</v>
       </c>
       <c r="L224" t="n">
-        <v>11000</v>
+        <v>21000</v>
       </c>
       <c r="M224" t="n">
-        <v>10500</v>
+        <v>20488</v>
       </c>
       <c r="N224" t="inlineStr">
         <is>
@@ -16503,11 +16503,11 @@
       </c>
       <c r="O224" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P224" t="n">
-        <v>262</v>
+        <v>512</v>
       </c>
       <c r="Q224" t="n">
         <v>40</v>
@@ -16533,7 +16533,7 @@
         </is>
       </c>
       <c r="D225" s="2" t="n">
-        <v>44301</v>
+        <v>44386</v>
       </c>
       <c r="E225" t="n">
         <v>13</v>
@@ -16548,41 +16548,41 @@
       </c>
       <c r="H225" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Madrigal</t>
         </is>
       </c>
       <c r="I225" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J225" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="K225" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="L225" t="n">
-        <v>18000</v>
+        <v>19000</v>
       </c>
       <c r="M225" t="n">
-        <v>17500</v>
+        <v>18480</v>
       </c>
       <c r="N225" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O225" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P225" t="n">
-        <v>583</v>
+        <v>370</v>
       </c>
       <c r="Q225" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R225" t="inlineStr">
         <is>
@@ -16605,7 +16605,7 @@
         </is>
       </c>
       <c r="D226" s="2" t="n">
-        <v>44166</v>
+        <v>44308</v>
       </c>
       <c r="E226" t="n">
         <v>13</v>
@@ -16625,36 +16625,36 @@
       </c>
       <c r="I226" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J226" t="n">
-        <v>250</v>
+        <v>16</v>
       </c>
       <c r="K226" t="n">
-        <v>11000</v>
+        <v>20000</v>
       </c>
       <c r="L226" t="n">
-        <v>11000</v>
+        <v>20000</v>
       </c>
       <c r="M226" t="n">
-        <v>11000</v>
+        <v>20000</v>
       </c>
       <c r="N226" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 25 unidades</t>
         </is>
       </c>
       <c r="O226" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P226" t="n">
-        <v>367</v>
+        <v>20000</v>
       </c>
       <c r="Q226" t="n">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="R226" t="inlineStr">
         <is>
@@ -16677,7 +16677,7 @@
         </is>
       </c>
       <c r="D227" s="2" t="n">
-        <v>44168</v>
+        <v>44308</v>
       </c>
       <c r="E227" t="n">
         <v>13</v>
@@ -16701,16 +16701,16 @@
         </is>
       </c>
       <c r="J227" t="n">
-        <v>230</v>
+        <v>30</v>
       </c>
       <c r="K227" t="n">
-        <v>11000</v>
+        <v>18000</v>
       </c>
       <c r="L227" t="n">
-        <v>11000</v>
+        <v>18000</v>
       </c>
       <c r="M227" t="n">
-        <v>11000</v>
+        <v>18000</v>
       </c>
       <c r="N227" t="inlineStr">
         <is>
@@ -16719,11 +16719,11 @@
       </c>
       <c r="O227" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P227" t="n">
-        <v>367</v>
+        <v>600</v>
       </c>
       <c r="Q227" t="n">
         <v>30</v>
@@ -16749,7 +16749,7 @@
         </is>
       </c>
       <c r="D228" s="2" t="n">
-        <v>44369</v>
+        <v>44463</v>
       </c>
       <c r="E228" t="n">
         <v>13</v>
@@ -16773,16 +16773,16 @@
         </is>
       </c>
       <c r="J228" t="n">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="K228" t="n">
-        <v>21000</v>
+        <v>14000</v>
       </c>
       <c r="L228" t="n">
-        <v>22000</v>
+        <v>15000</v>
       </c>
       <c r="M228" t="n">
-        <v>21500</v>
+        <v>14524</v>
       </c>
       <c r="N228" t="inlineStr">
         <is>
@@ -16791,11 +16791,11 @@
       </c>
       <c r="O228" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P228" t="n">
-        <v>21500</v>
+        <v>14524</v>
       </c>
       <c r="Q228" t="n">
         <v>1</v>
@@ -16821,7 +16821,7 @@
         </is>
       </c>
       <c r="D229" s="2" t="n">
-        <v>44369</v>
+        <v>44463</v>
       </c>
       <c r="E229" t="n">
         <v>13</v>
@@ -16845,16 +16845,16 @@
         </is>
       </c>
       <c r="J229" t="n">
-        <v>34</v>
+        <v>52</v>
       </c>
       <c r="K229" t="n">
-        <v>19000</v>
+        <v>12000</v>
       </c>
       <c r="L229" t="n">
-        <v>20000</v>
+        <v>13000</v>
       </c>
       <c r="M229" t="n">
-        <v>19500</v>
+        <v>12500</v>
       </c>
       <c r="N229" t="inlineStr">
         <is>
@@ -16863,11 +16863,11 @@
       </c>
       <c r="O229" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P229" t="n">
-        <v>650</v>
+        <v>417</v>
       </c>
       <c r="Q229" t="n">
         <v>30</v>
@@ -16893,7 +16893,7 @@
         </is>
       </c>
       <c r="D230" s="2" t="n">
-        <v>44369</v>
+        <v>44463</v>
       </c>
       <c r="E230" t="n">
         <v>13</v>
@@ -16917,16 +16917,16 @@
         </is>
       </c>
       <c r="J230" t="n">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="K230" t="n">
-        <v>17000</v>
+        <v>10000</v>
       </c>
       <c r="L230" t="n">
-        <v>17000</v>
+        <v>11000</v>
       </c>
       <c r="M230" t="n">
-        <v>17000</v>
+        <v>10500</v>
       </c>
       <c r="N230" t="inlineStr">
         <is>
@@ -16935,11 +16935,11 @@
       </c>
       <c r="O230" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P230" t="n">
-        <v>425</v>
+        <v>262</v>
       </c>
       <c r="Q230" t="n">
         <v>40</v>
@@ -16965,7 +16965,7 @@
         </is>
       </c>
       <c r="D231" s="2" t="n">
-        <v>44369</v>
+        <v>44301</v>
       </c>
       <c r="E231" t="n">
         <v>13</v>
@@ -16980,7 +16980,7 @@
       </c>
       <c r="H231" t="inlineStr">
         <is>
-          <t>Madrigal</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I231" t="inlineStr">
@@ -16989,20 +16989,20 @@
         </is>
       </c>
       <c r="J231" t="n">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="K231" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="L231" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="M231" t="n">
-        <v>16488</v>
+        <v>17500</v>
       </c>
       <c r="N231" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O231" t="inlineStr">
@@ -17011,10 +17011,10 @@
         </is>
       </c>
       <c r="P231" t="n">
-        <v>412</v>
+        <v>583</v>
       </c>
       <c r="Q231" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="R231" t="inlineStr">
         <is>
@@ -17037,7 +17037,7 @@
         </is>
       </c>
       <c r="D232" s="2" t="n">
-        <v>44369</v>
+        <v>44166</v>
       </c>
       <c r="E232" t="n">
         <v>13</v>
@@ -17052,41 +17052,41 @@
       </c>
       <c r="H232" t="inlineStr">
         <is>
-          <t>Madrigal</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I232" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J232" t="n">
-        <v>25</v>
+        <v>250</v>
       </c>
       <c r="K232" t="n">
-        <v>14000</v>
+        <v>11000</v>
       </c>
       <c r="L232" t="n">
-        <v>14000</v>
+        <v>11000</v>
       </c>
       <c r="M232" t="n">
-        <v>14000</v>
+        <v>11000</v>
       </c>
       <c r="N232" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O232" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P232" t="n">
-        <v>280</v>
+        <v>367</v>
       </c>
       <c r="Q232" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R232" t="inlineStr">
         <is>
@@ -17109,7 +17109,7 @@
         </is>
       </c>
       <c r="D233" s="2" t="n">
-        <v>44433</v>
+        <v>44168</v>
       </c>
       <c r="E233" t="n">
         <v>13</v>
@@ -17129,36 +17129,36 @@
       </c>
       <c r="I233" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J233" t="n">
-        <v>16</v>
+        <v>230</v>
       </c>
       <c r="K233" t="n">
-        <v>16000</v>
+        <v>11000</v>
       </c>
       <c r="L233" t="n">
-        <v>16000</v>
+        <v>11000</v>
       </c>
       <c r="M233" t="n">
-        <v>16000</v>
+        <v>11000</v>
       </c>
       <c r="N233" t="inlineStr">
         <is>
-          <t>$/caja 25 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O233" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P233" t="n">
-        <v>16000</v>
+        <v>367</v>
       </c>
       <c r="Q233" t="n">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="R233" t="inlineStr">
         <is>
@@ -17181,7 +17181,7 @@
         </is>
       </c>
       <c r="D234" s="2" t="n">
-        <v>44433</v>
+        <v>44369</v>
       </c>
       <c r="E234" t="n">
         <v>13</v>
@@ -17201,24 +17201,24 @@
       </c>
       <c r="I234" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J234" t="n">
-        <v>52</v>
+        <v>16</v>
       </c>
       <c r="K234" t="n">
-        <v>14000</v>
+        <v>21000</v>
       </c>
       <c r="L234" t="n">
-        <v>15000</v>
+        <v>22000</v>
       </c>
       <c r="M234" t="n">
-        <v>14500</v>
+        <v>21500</v>
       </c>
       <c r="N234" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 25 unidades</t>
         </is>
       </c>
       <c r="O234" t="inlineStr">
@@ -17227,10 +17227,10 @@
         </is>
       </c>
       <c r="P234" t="n">
-        <v>483</v>
+        <v>21500</v>
       </c>
       <c r="Q234" t="n">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="R234" t="inlineStr">
         <is>
@@ -17253,7 +17253,7 @@
         </is>
       </c>
       <c r="D235" s="2" t="n">
-        <v>44433</v>
+        <v>44369</v>
       </c>
       <c r="E235" t="n">
         <v>13</v>
@@ -17273,24 +17273,24 @@
       </c>
       <c r="I235" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J235" t="n">
         <v>34</v>
       </c>
       <c r="K235" t="n">
-        <v>12000</v>
+        <v>19000</v>
       </c>
       <c r="L235" t="n">
-        <v>13000</v>
+        <v>20000</v>
       </c>
       <c r="M235" t="n">
-        <v>12500</v>
+        <v>19500</v>
       </c>
       <c r="N235" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O235" t="inlineStr">
@@ -17299,10 +17299,10 @@
         </is>
       </c>
       <c r="P235" t="n">
-        <v>312</v>
+        <v>650</v>
       </c>
       <c r="Q235" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="R235" t="inlineStr">
         <is>
@@ -17325,7 +17325,7 @@
         </is>
       </c>
       <c r="D236" s="2" t="n">
-        <v>44371</v>
+        <v>44369</v>
       </c>
       <c r="E236" t="n">
         <v>13</v>
@@ -17345,36 +17345,36 @@
       </c>
       <c r="I236" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J236" t="n">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="K236" t="n">
-        <v>20000</v>
+        <v>17000</v>
       </c>
       <c r="L236" t="n">
-        <v>21000</v>
+        <v>17000</v>
       </c>
       <c r="M236" t="n">
-        <v>20500</v>
+        <v>17000</v>
       </c>
       <c r="N236" t="inlineStr">
         <is>
-          <t>$/caja 25 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O236" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P236" t="n">
-        <v>20500</v>
+        <v>425</v>
       </c>
       <c r="Q236" t="n">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="R236" t="inlineStr">
         <is>
@@ -17397,7 +17397,7 @@
         </is>
       </c>
       <c r="D237" s="2" t="n">
-        <v>44371</v>
+        <v>44369</v>
       </c>
       <c r="E237" t="n">
         <v>13</v>
@@ -17412,7 +17412,7 @@
       </c>
       <c r="H237" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Madrigal</t>
         </is>
       </c>
       <c r="I237" t="inlineStr">
@@ -17421,20 +17421,20 @@
         </is>
       </c>
       <c r="J237" t="n">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="K237" t="n">
+        <v>16000</v>
+      </c>
+      <c r="L237" t="n">
         <v>17000</v>
       </c>
-      <c r="L237" t="n">
-        <v>18000</v>
-      </c>
       <c r="M237" t="n">
-        <v>17500</v>
+        <v>16488</v>
       </c>
       <c r="N237" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O237" t="inlineStr">
@@ -17443,10 +17443,10 @@
         </is>
       </c>
       <c r="P237" t="n">
-        <v>583</v>
+        <v>412</v>
       </c>
       <c r="Q237" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="R237" t="inlineStr">
         <is>
@@ -17469,7 +17469,7 @@
         </is>
       </c>
       <c r="D238" s="2" t="n">
-        <v>44371</v>
+        <v>44369</v>
       </c>
       <c r="E238" t="n">
         <v>13</v>
@@ -17484,7 +17484,7 @@
       </c>
       <c r="H238" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Madrigal</t>
         </is>
       </c>
       <c r="I238" t="inlineStr">
@@ -17493,20 +17493,20 @@
         </is>
       </c>
       <c r="J238" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="K238" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="L238" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="M238" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="N238" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O238" t="inlineStr">
@@ -17515,10 +17515,10 @@
         </is>
       </c>
       <c r="P238" t="n">
-        <v>400</v>
+        <v>280</v>
       </c>
       <c r="Q238" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="R238" t="inlineStr">
         <is>
@@ -17541,7 +17541,7 @@
         </is>
       </c>
       <c r="D239" s="2" t="n">
-        <v>44316</v>
+        <v>44433</v>
       </c>
       <c r="E239" t="n">
         <v>13</v>
@@ -17556,41 +17556,41 @@
       </c>
       <c r="H239" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I239" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J239" t="n">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="K239" t="n">
-        <v>18000</v>
+        <v>16000</v>
       </c>
       <c r="L239" t="n">
-        <v>18000</v>
+        <v>16000</v>
       </c>
       <c r="M239" t="n">
-        <v>18000</v>
+        <v>16000</v>
       </c>
       <c r="N239" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 25 unidades</t>
         </is>
       </c>
       <c r="O239" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P239" t="n">
-        <v>360</v>
+        <v>16000</v>
       </c>
       <c r="Q239" t="n">
-        <v>50</v>
+        <v>1</v>
       </c>
       <c r="R239" t="inlineStr">
         <is>
@@ -17613,7 +17613,7 @@
         </is>
       </c>
       <c r="D240" s="2" t="n">
-        <v>44316</v>
+        <v>44433</v>
       </c>
       <c r="E240" t="n">
         <v>13</v>
@@ -17633,36 +17633,36 @@
       </c>
       <c r="I240" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J240" t="n">
-        <v>18</v>
+        <v>52</v>
       </c>
       <c r="K240" t="n">
-        <v>18000</v>
+        <v>14000</v>
       </c>
       <c r="L240" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="M240" t="n">
-        <v>18000</v>
+        <v>14500</v>
       </c>
       <c r="N240" t="inlineStr">
         <is>
-          <t>$/caja 25 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O240" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P240" t="n">
-        <v>18000</v>
+        <v>483</v>
       </c>
       <c r="Q240" t="n">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="R240" t="inlineStr">
         <is>
@@ -17685,7 +17685,7 @@
         </is>
       </c>
       <c r="D241" s="2" t="n">
-        <v>44316</v>
+        <v>44433</v>
       </c>
       <c r="E241" t="n">
         <v>13</v>
@@ -17705,36 +17705,36 @@
       </c>
       <c r="I241" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J241" t="n">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="K241" t="n">
-        <v>16000</v>
+        <v>12000</v>
       </c>
       <c r="L241" t="n">
-        <v>16000</v>
+        <v>13000</v>
       </c>
       <c r="M241" t="n">
-        <v>16000</v>
+        <v>12500</v>
       </c>
       <c r="N241" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O241" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P241" t="n">
-        <v>533</v>
+        <v>312</v>
       </c>
       <c r="Q241" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="R241" t="inlineStr">
         <is>
@@ -17757,7 +17757,7 @@
         </is>
       </c>
       <c r="D242" s="2" t="n">
-        <v>44397</v>
+        <v>44371</v>
       </c>
       <c r="E242" t="n">
         <v>13</v>
@@ -17781,16 +17781,16 @@
         </is>
       </c>
       <c r="J242" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="K242" t="n">
-        <v>19000</v>
+        <v>20000</v>
       </c>
       <c r="L242" t="n">
-        <v>20000</v>
+        <v>21000</v>
       </c>
       <c r="M242" t="n">
-        <v>19500</v>
+        <v>20500</v>
       </c>
       <c r="N242" t="inlineStr">
         <is>
@@ -17803,7 +17803,7 @@
         </is>
       </c>
       <c r="P242" t="n">
-        <v>19500</v>
+        <v>20500</v>
       </c>
       <c r="Q242" t="n">
         <v>1</v>
@@ -17829,7 +17829,7 @@
         </is>
       </c>
       <c r="D243" s="2" t="n">
-        <v>44397</v>
+        <v>44371</v>
       </c>
       <c r="E243" t="n">
         <v>13</v>
@@ -17853,16 +17853,16 @@
         </is>
       </c>
       <c r="J243" t="n">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="K243" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="L243" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="M243" t="n">
-        <v>16488</v>
+        <v>17500</v>
       </c>
       <c r="N243" t="inlineStr">
         <is>
@@ -17875,7 +17875,7 @@
         </is>
       </c>
       <c r="P243" t="n">
-        <v>550</v>
+        <v>583</v>
       </c>
       <c r="Q243" t="n">
         <v>30</v>
@@ -17901,7 +17901,7 @@
         </is>
       </c>
       <c r="D244" s="2" t="n">
-        <v>44397</v>
+        <v>44371</v>
       </c>
       <c r="E244" t="n">
         <v>13</v>
@@ -17925,16 +17925,16 @@
         </is>
       </c>
       <c r="J244" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="K244" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="L244" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="M244" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="N244" t="inlineStr">
         <is>
@@ -17947,7 +17947,7 @@
         </is>
       </c>
       <c r="P244" t="n">
-        <v>375</v>
+        <v>400</v>
       </c>
       <c r="Q244" t="n">
         <v>40</v>
@@ -17973,7 +17973,7 @@
         </is>
       </c>
       <c r="D245" s="2" t="n">
-        <v>44363</v>
+        <v>44316</v>
       </c>
       <c r="E245" t="n">
         <v>13</v>
@@ -17997,16 +17997,16 @@
         </is>
       </c>
       <c r="J245" t="n">
-        <v>52</v>
+        <v>25</v>
       </c>
       <c r="K245" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="L245" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="M245" t="n">
-        <v>16500</v>
+        <v>18000</v>
       </c>
       <c r="N245" t="inlineStr">
         <is>
@@ -18015,11 +18015,11 @@
       </c>
       <c r="O245" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P245" t="n">
-        <v>330</v>
+        <v>360</v>
       </c>
       <c r="Q245" t="n">
         <v>50</v>
@@ -18045,7 +18045,7 @@
         </is>
       </c>
       <c r="D246" s="2" t="n">
-        <v>44363</v>
+        <v>44316</v>
       </c>
       <c r="E246" t="n">
         <v>13</v>
@@ -18065,24 +18065,24 @@
       </c>
       <c r="I246" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J246" t="n">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="K246" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="L246" t="n">
         <v>18000</v>
       </c>
       <c r="M246" t="n">
-        <v>17500</v>
+        <v>18000</v>
       </c>
       <c r="N246" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 25 unidades</t>
         </is>
       </c>
       <c r="O246" t="inlineStr">
@@ -18091,10 +18091,10 @@
         </is>
       </c>
       <c r="P246" t="n">
-        <v>583</v>
+        <v>18000</v>
       </c>
       <c r="Q246" t="n">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="R246" t="inlineStr">
         <is>
@@ -18117,7 +18117,7 @@
         </is>
       </c>
       <c r="D247" s="2" t="n">
-        <v>44438</v>
+        <v>44316</v>
       </c>
       <c r="E247" t="n">
         <v>13</v>
@@ -18137,24 +18137,24 @@
       </c>
       <c r="I247" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J247" t="n">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="K247" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="L247" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="M247" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="N247" t="inlineStr">
         <is>
-          <t>$/caja 25 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O247" t="inlineStr">
@@ -18163,10 +18163,10 @@
         </is>
       </c>
       <c r="P247" t="n">
-        <v>15000</v>
+        <v>533</v>
       </c>
       <c r="Q247" t="n">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="R247" t="inlineStr">
         <is>
@@ -18189,7 +18189,7 @@
         </is>
       </c>
       <c r="D248" s="2" t="n">
-        <v>44438</v>
+        <v>44397</v>
       </c>
       <c r="E248" t="n">
         <v>13</v>
@@ -18209,24 +18209,24 @@
       </c>
       <c r="I248" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J248" t="n">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="K248" t="n">
-        <v>13000</v>
+        <v>19000</v>
       </c>
       <c r="L248" t="n">
-        <v>14000</v>
+        <v>20000</v>
       </c>
       <c r="M248" t="n">
-        <v>13500</v>
+        <v>19500</v>
       </c>
       <c r="N248" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 25 unidades</t>
         </is>
       </c>
       <c r="O248" t="inlineStr">
@@ -18235,10 +18235,10 @@
         </is>
       </c>
       <c r="P248" t="n">
-        <v>450</v>
+        <v>19500</v>
       </c>
       <c r="Q248" t="n">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="R248" t="inlineStr">
         <is>
@@ -18261,7 +18261,7 @@
         </is>
       </c>
       <c r="D249" s="2" t="n">
-        <v>44438</v>
+        <v>44397</v>
       </c>
       <c r="E249" t="n">
         <v>13</v>
@@ -18281,24 +18281,24 @@
       </c>
       <c r="I249" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J249" t="n">
-        <v>25</v>
+        <v>43</v>
       </c>
       <c r="K249" t="n">
-        <v>11000</v>
+        <v>16000</v>
       </c>
       <c r="L249" t="n">
-        <v>12000</v>
+        <v>17000</v>
       </c>
       <c r="M249" t="n">
-        <v>11480</v>
+        <v>16488</v>
       </c>
       <c r="N249" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O249" t="inlineStr">
@@ -18307,10 +18307,10 @@
         </is>
       </c>
       <c r="P249" t="n">
-        <v>287</v>
+        <v>550</v>
       </c>
       <c r="Q249" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="R249" t="inlineStr">
         <is>
@@ -18333,7 +18333,7 @@
         </is>
       </c>
       <c r="D250" s="2" t="n">
-        <v>44372</v>
+        <v>44397</v>
       </c>
       <c r="E250" t="n">
         <v>13</v>
@@ -18348,41 +18348,41 @@
       </c>
       <c r="H250" t="inlineStr">
         <is>
-          <t>Madrigal</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I250" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J250" t="n">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="K250" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="L250" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="M250" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="N250" t="inlineStr">
         <is>
-          <t>$/caja 35 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O250" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P250" t="n">
-        <v>571</v>
+        <v>375</v>
       </c>
       <c r="Q250" t="n">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="R250" t="inlineStr">
         <is>
@@ -18405,7 +18405,7 @@
         </is>
       </c>
       <c r="D251" s="2" t="n">
-        <v>44372</v>
+        <v>44363</v>
       </c>
       <c r="E251" t="n">
         <v>13</v>
@@ -18420,7 +18420,7 @@
       </c>
       <c r="H251" t="inlineStr">
         <is>
-          <t>Madrigal</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I251" t="inlineStr">
@@ -18432,17 +18432,17 @@
         <v>52</v>
       </c>
       <c r="K251" t="n">
+        <v>16000</v>
+      </c>
+      <c r="L251" t="n">
         <v>17000</v>
       </c>
-      <c r="L251" t="n">
-        <v>18000</v>
-      </c>
       <c r="M251" t="n">
-        <v>17500</v>
+        <v>16500</v>
       </c>
       <c r="N251" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O251" t="inlineStr">
@@ -18451,10 +18451,10 @@
         </is>
       </c>
       <c r="P251" t="n">
-        <v>438</v>
+        <v>330</v>
       </c>
       <c r="Q251" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="R251" t="inlineStr">
         <is>
@@ -18477,7 +18477,7 @@
         </is>
       </c>
       <c r="D252" s="2" t="n">
-        <v>44372</v>
+        <v>44363</v>
       </c>
       <c r="E252" t="n">
         <v>13</v>
@@ -18492,41 +18492,41 @@
       </c>
       <c r="H252" t="inlineStr">
         <is>
-          <t>Madrigal</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I252" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J252" t="n">
         <v>34</v>
       </c>
       <c r="K252" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="L252" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="M252" t="n">
-        <v>16000</v>
+        <v>17500</v>
       </c>
       <c r="N252" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O252" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P252" t="n">
-        <v>320</v>
+        <v>583</v>
       </c>
       <c r="Q252" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R252" t="inlineStr">
         <is>
@@ -18549,7 +18549,7 @@
         </is>
       </c>
       <c r="D253" s="2" t="n">
-        <v>44356</v>
+        <v>44438</v>
       </c>
       <c r="E253" t="n">
         <v>13</v>
@@ -18564,41 +18564,41 @@
       </c>
       <c r="H253" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I253" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J253" t="n">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="K253" t="n">
         <v>15000</v>
       </c>
       <c r="L253" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="M253" t="n">
-        <v>15476</v>
+        <v>15000</v>
       </c>
       <c r="N253" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 25 unidades</t>
         </is>
       </c>
       <c r="O253" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P253" t="n">
-        <v>310</v>
+        <v>15000</v>
       </c>
       <c r="Q253" t="n">
-        <v>50</v>
+        <v>1</v>
       </c>
       <c r="R253" t="inlineStr">
         <is>
@@ -18621,7 +18621,7 @@
         </is>
       </c>
       <c r="D254" s="2" t="n">
-        <v>44356</v>
+        <v>44438</v>
       </c>
       <c r="E254" t="n">
         <v>13</v>
@@ -18636,41 +18636,41 @@
       </c>
       <c r="H254" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I254" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J254" t="n">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="K254" t="n">
         <v>13000</v>
       </c>
       <c r="L254" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="M254" t="n">
-        <v>13000</v>
+        <v>13500</v>
       </c>
       <c r="N254" t="inlineStr">
         <is>
-          <t>$/caja 70 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O254" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P254" t="n">
-        <v>186</v>
+        <v>450</v>
       </c>
       <c r="Q254" t="n">
-        <v>70</v>
+        <v>30</v>
       </c>
       <c r="R254" t="inlineStr">
         <is>
@@ -18693,7 +18693,7 @@
         </is>
       </c>
       <c r="D255" s="2" t="n">
-        <v>44356</v>
+        <v>44438</v>
       </c>
       <c r="E255" t="n">
         <v>13</v>
@@ -18713,24 +18713,24 @@
       </c>
       <c r="I255" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J255" t="n">
         <v>25</v>
       </c>
       <c r="K255" t="n">
-        <v>17000</v>
+        <v>11000</v>
       </c>
       <c r="L255" t="n">
-        <v>18000</v>
+        <v>12000</v>
       </c>
       <c r="M255" t="n">
-        <v>17520</v>
+        <v>11480</v>
       </c>
       <c r="N255" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O255" t="inlineStr">
@@ -18739,10 +18739,10 @@
         </is>
       </c>
       <c r="P255" t="n">
-        <v>584</v>
+        <v>287</v>
       </c>
       <c r="Q255" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="R255" t="inlineStr">
         <is>
@@ -18765,7 +18765,7 @@
         </is>
       </c>
       <c r="D256" s="2" t="n">
-        <v>44356</v>
+        <v>44372</v>
       </c>
       <c r="E256" t="n">
         <v>13</v>
@@ -18780,41 +18780,41 @@
       </c>
       <c r="H256" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Madrigal</t>
         </is>
       </c>
       <c r="I256" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J256" t="n">
         <v>16</v>
       </c>
       <c r="K256" t="n">
-        <v>14000</v>
+        <v>20000</v>
       </c>
       <c r="L256" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="M256" t="n">
-        <v>14500</v>
+        <v>20000</v>
       </c>
       <c r="N256" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 35 unidades</t>
         </is>
       </c>
       <c r="O256" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P256" t="n">
-        <v>483</v>
+        <v>571</v>
       </c>
       <c r="Q256" t="n">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="R256" t="inlineStr">
         <is>
@@ -18837,7 +18837,7 @@
         </is>
       </c>
       <c r="D257" s="2" t="n">
-        <v>44351</v>
+        <v>44372</v>
       </c>
       <c r="E257" t="n">
         <v>13</v>
@@ -18852,7 +18852,7 @@
       </c>
       <c r="H257" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Madrigal</t>
         </is>
       </c>
       <c r="I257" t="inlineStr">
@@ -18861,32 +18861,32 @@
         </is>
       </c>
       <c r="J257" t="n">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="K257" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="L257" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="M257" t="n">
-        <v>16512</v>
+        <v>17500</v>
       </c>
       <c r="N257" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O257" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P257" t="n">
-        <v>330</v>
+        <v>438</v>
       </c>
       <c r="Q257" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="R257" t="inlineStr">
         <is>
@@ -18909,7 +18909,7 @@
         </is>
       </c>
       <c r="D258" s="2" t="n">
-        <v>44351</v>
+        <v>44372</v>
       </c>
       <c r="E258" t="n">
         <v>13</v>
@@ -18924,7 +18924,7 @@
       </c>
       <c r="H258" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Madrigal</t>
         </is>
       </c>
       <c r="I258" t="inlineStr">
@@ -18933,32 +18933,32 @@
         </is>
       </c>
       <c r="J258" t="n">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="K258" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="L258" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="M258" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="N258" t="inlineStr">
         <is>
-          <t>$/caja 70 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O258" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P258" t="n">
-        <v>214</v>
+        <v>320</v>
       </c>
       <c r="Q258" t="n">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="R258" t="inlineStr">
         <is>
@@ -18981,7 +18981,7 @@
         </is>
       </c>
       <c r="D259" s="2" t="n">
-        <v>44351</v>
+        <v>44356</v>
       </c>
       <c r="E259" t="n">
         <v>13</v>
@@ -18996,29 +18996,29 @@
       </c>
       <c r="H259" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I259" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J259" t="n">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="K259" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="L259" t="n">
-        <v>20000</v>
+        <v>16000</v>
       </c>
       <c r="M259" t="n">
-        <v>20000</v>
+        <v>15476</v>
       </c>
       <c r="N259" t="inlineStr">
         <is>
-          <t>$/caja 25 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O259" t="inlineStr">
@@ -19027,10 +19027,10 @@
         </is>
       </c>
       <c r="P259" t="n">
-        <v>20000</v>
+        <v>310</v>
       </c>
       <c r="Q259" t="n">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="R259" t="inlineStr">
         <is>
@@ -19053,7 +19053,7 @@
         </is>
       </c>
       <c r="D260" s="2" t="n">
-        <v>44351</v>
+        <v>44356</v>
       </c>
       <c r="E260" t="n">
         <v>13</v>
@@ -19068,29 +19068,29 @@
       </c>
       <c r="H260" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I260" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J260" t="n">
-        <v>34</v>
+        <v>12</v>
       </c>
       <c r="K260" t="n">
-        <v>17000</v>
+        <v>13000</v>
       </c>
       <c r="L260" t="n">
-        <v>18000</v>
+        <v>13000</v>
       </c>
       <c r="M260" t="n">
-        <v>17500</v>
+        <v>13000</v>
       </c>
       <c r="N260" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 70 unidades</t>
         </is>
       </c>
       <c r="O260" t="inlineStr">
@@ -19099,10 +19099,10 @@
         </is>
       </c>
       <c r="P260" t="n">
-        <v>583</v>
+        <v>186</v>
       </c>
       <c r="Q260" t="n">
-        <v>30</v>
+        <v>70</v>
       </c>
       <c r="R260" t="inlineStr">
         <is>
@@ -19125,7 +19125,7 @@
         </is>
       </c>
       <c r="D261" s="2" t="n">
-        <v>44351</v>
+        <v>44356</v>
       </c>
       <c r="E261" t="n">
         <v>13</v>
@@ -19145,36 +19145,36 @@
       </c>
       <c r="I261" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J261" t="n">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="K261" t="n">
-        <v>15000</v>
+        <v>17000</v>
       </c>
       <c r="L261" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="M261" t="n">
-        <v>15000</v>
+        <v>17520</v>
       </c>
       <c r="N261" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O261" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P261" t="n">
-        <v>375</v>
+        <v>584</v>
       </c>
       <c r="Q261" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="R261" t="inlineStr">
         <is>
@@ -19197,7 +19197,7 @@
         </is>
       </c>
       <c r="D262" s="2" t="n">
-        <v>44365</v>
+        <v>44356</v>
       </c>
       <c r="E262" t="n">
         <v>13</v>
@@ -19212,41 +19212,41 @@
       </c>
       <c r="H262" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I262" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J262" t="n">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="K262" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="L262" t="n">
-        <v>17000</v>
+        <v>15000</v>
       </c>
       <c r="M262" t="n">
-        <v>16500</v>
+        <v>14500</v>
       </c>
       <c r="N262" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O262" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P262" t="n">
-        <v>330</v>
+        <v>483</v>
       </c>
       <c r="Q262" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R262" t="inlineStr">
         <is>
@@ -19269,7 +19269,7 @@
         </is>
       </c>
       <c r="D263" s="2" t="n">
-        <v>44365</v>
+        <v>44351</v>
       </c>
       <c r="E263" t="n">
         <v>13</v>
@@ -19289,36 +19289,36 @@
       </c>
       <c r="I263" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J263" t="n">
-        <v>16</v>
+        <v>43</v>
       </c>
       <c r="K263" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="L263" t="n">
-        <v>15000</v>
+        <v>17000</v>
       </c>
       <c r="M263" t="n">
-        <v>15000</v>
+        <v>16512</v>
       </c>
       <c r="N263" t="inlineStr">
         <is>
-          <t>$/caja 70 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O263" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P263" t="n">
-        <v>214</v>
+        <v>330</v>
       </c>
       <c r="Q263" t="n">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="R263" t="inlineStr">
         <is>
@@ -19341,7 +19341,7 @@
         </is>
       </c>
       <c r="D264" s="2" t="n">
-        <v>44365</v>
+        <v>44351</v>
       </c>
       <c r="E264" t="n">
         <v>13</v>
@@ -19356,41 +19356,41 @@
       </c>
       <c r="H264" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I264" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J264" t="n">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="K264" t="n">
-        <v>17000</v>
+        <v>15000</v>
       </c>
       <c r="L264" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="M264" t="n">
-        <v>17500</v>
+        <v>15000</v>
       </c>
       <c r="N264" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 70 unidades</t>
         </is>
       </c>
       <c r="O264" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P264" t="n">
-        <v>583</v>
+        <v>214</v>
       </c>
       <c r="Q264" t="n">
-        <v>30</v>
+        <v>70</v>
       </c>
       <c r="R264" t="inlineStr">
         <is>
@@ -19413,7 +19413,7 @@
         </is>
       </c>
       <c r="D265" s="2" t="n">
-        <v>44365</v>
+        <v>44351</v>
       </c>
       <c r="E265" t="n">
         <v>13</v>
@@ -19433,24 +19433,24 @@
       </c>
       <c r="I265" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J265" t="n">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="K265" t="n">
-        <v>16000</v>
+        <v>20000</v>
       </c>
       <c r="L265" t="n">
-        <v>16000</v>
+        <v>20000</v>
       </c>
       <c r="M265" t="n">
-        <v>16000</v>
+        <v>20000</v>
       </c>
       <c r="N265" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 25 unidades</t>
         </is>
       </c>
       <c r="O265" t="inlineStr">
@@ -19459,10 +19459,10 @@
         </is>
       </c>
       <c r="P265" t="n">
-        <v>400</v>
+        <v>20000</v>
       </c>
       <c r="Q265" t="n">
-        <v>40</v>
+        <v>1</v>
       </c>
       <c r="R265" t="inlineStr">
         <is>
@@ -19485,7 +19485,7 @@
         </is>
       </c>
       <c r="D266" s="2" t="n">
-        <v>44306</v>
+        <v>44351</v>
       </c>
       <c r="E266" t="n">
         <v>13</v>
@@ -19505,36 +19505,36 @@
       </c>
       <c r="I266" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J266" t="n">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="K266" t="n">
-        <v>20000</v>
+        <v>17000</v>
       </c>
       <c r="L266" t="n">
-        <v>20000</v>
+        <v>18000</v>
       </c>
       <c r="M266" t="n">
-        <v>20000</v>
+        <v>17500</v>
       </c>
       <c r="N266" t="inlineStr">
         <is>
-          <t>$/caja 25 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O266" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P266" t="n">
-        <v>20000</v>
+        <v>583</v>
       </c>
       <c r="Q266" t="n">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="R266" t="inlineStr">
         <is>
@@ -19557,7 +19557,7 @@
         </is>
       </c>
       <c r="D267" s="2" t="n">
-        <v>44306</v>
+        <v>44351</v>
       </c>
       <c r="E267" t="n">
         <v>13</v>
@@ -19577,36 +19577,36 @@
       </c>
       <c r="I267" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J267" t="n">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="K267" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="L267" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="M267" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="N267" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O267" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P267" t="n">
-        <v>600</v>
+        <v>375</v>
       </c>
       <c r="Q267" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="R267" t="inlineStr">
         <is>
@@ -19629,7 +19629,7 @@
         </is>
       </c>
       <c r="D268" s="2" t="n">
-        <v>44461</v>
+        <v>44365</v>
       </c>
       <c r="E268" t="n">
         <v>13</v>
@@ -19644,7 +19644,7 @@
       </c>
       <c r="H268" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I268" t="inlineStr">
@@ -19653,32 +19653,32 @@
         </is>
       </c>
       <c r="J268" t="n">
-        <v>52</v>
+        <v>34</v>
       </c>
       <c r="K268" t="n">
-        <v>12000</v>
+        <v>16000</v>
       </c>
       <c r="L268" t="n">
-        <v>13000</v>
+        <v>17000</v>
       </c>
       <c r="M268" t="n">
-        <v>12500</v>
+        <v>16500</v>
       </c>
       <c r="N268" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O268" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P268" t="n">
-        <v>417</v>
+        <v>330</v>
       </c>
       <c r="Q268" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R268" t="inlineStr">
         <is>
@@ -19701,7 +19701,7 @@
         </is>
       </c>
       <c r="D269" s="2" t="n">
-        <v>44461</v>
+        <v>44365</v>
       </c>
       <c r="E269" t="n">
         <v>13</v>
@@ -19716,7 +19716,7 @@
       </c>
       <c r="H269" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I269" t="inlineStr">
@@ -19725,32 +19725,32 @@
         </is>
       </c>
       <c r="J269" t="n">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="K269" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="L269" t="n">
-        <v>11000</v>
+        <v>15000</v>
       </c>
       <c r="M269" t="n">
-        <v>10480</v>
+        <v>15000</v>
       </c>
       <c r="N269" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 70 unidades</t>
         </is>
       </c>
       <c r="O269" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P269" t="n">
-        <v>262</v>
+        <v>214</v>
       </c>
       <c r="Q269" t="n">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="R269" t="inlineStr">
         <is>
@@ -19773,7 +19773,7 @@
         </is>
       </c>
       <c r="D270" s="2" t="n">
-        <v>44357</v>
+        <v>44365</v>
       </c>
       <c r="E270" t="n">
         <v>13</v>
@@ -19788,7 +19788,7 @@
       </c>
       <c r="H270" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I270" t="inlineStr">
@@ -19797,32 +19797,32 @@
         </is>
       </c>
       <c r="J270" t="n">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="K270" t="n">
-        <v>15000</v>
+        <v>17000</v>
       </c>
       <c r="L270" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="M270" t="n">
-        <v>15500</v>
+        <v>17500</v>
       </c>
       <c r="N270" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O270" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P270" t="n">
-        <v>310</v>
+        <v>583</v>
       </c>
       <c r="Q270" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R270" t="inlineStr">
         <is>
@@ -19845,7 +19845,7 @@
         </is>
       </c>
       <c r="D271" s="2" t="n">
-        <v>44357</v>
+        <v>44365</v>
       </c>
       <c r="E271" t="n">
         <v>13</v>
@@ -19860,7 +19860,7 @@
       </c>
       <c r="H271" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I271" t="inlineStr">
@@ -19869,32 +19869,32 @@
         </is>
       </c>
       <c r="J271" t="n">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="K271" t="n">
-        <v>13000</v>
+        <v>16000</v>
       </c>
       <c r="L271" t="n">
-        <v>13000</v>
+        <v>16000</v>
       </c>
       <c r="M271" t="n">
-        <v>13000</v>
+        <v>16000</v>
       </c>
       <c r="N271" t="inlineStr">
         <is>
-          <t>$/caja 70 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O271" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P271" t="n">
-        <v>186</v>
+        <v>400</v>
       </c>
       <c r="Q271" t="n">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="R271" t="inlineStr">
         <is>
@@ -19917,7 +19917,7 @@
         </is>
       </c>
       <c r="D272" s="2" t="n">
-        <v>44357</v>
+        <v>44306</v>
       </c>
       <c r="E272" t="n">
         <v>13</v>
@@ -19944,13 +19944,13 @@
         <v>16</v>
       </c>
       <c r="K272" t="n">
-        <v>19000</v>
+        <v>20000</v>
       </c>
       <c r="L272" t="n">
         <v>20000</v>
       </c>
       <c r="M272" t="n">
-        <v>19500</v>
+        <v>20000</v>
       </c>
       <c r="N272" t="inlineStr">
         <is>
@@ -19959,11 +19959,11 @@
       </c>
       <c r="O272" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P272" t="n">
-        <v>19500</v>
+        <v>20000</v>
       </c>
       <c r="Q272" t="n">
         <v>1</v>
@@ -19989,7 +19989,7 @@
         </is>
       </c>
       <c r="D273" s="2" t="n">
-        <v>44357</v>
+        <v>44306</v>
       </c>
       <c r="E273" t="n">
         <v>13</v>
@@ -20013,16 +20013,16 @@
         </is>
       </c>
       <c r="J273" t="n">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="K273" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="L273" t="n">
         <v>18000</v>
       </c>
       <c r="M273" t="n">
-        <v>17500</v>
+        <v>18000</v>
       </c>
       <c r="N273" t="inlineStr">
         <is>
@@ -20031,11 +20031,11 @@
       </c>
       <c r="O273" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P273" t="n">
-        <v>583</v>
+        <v>600</v>
       </c>
       <c r="Q273" t="n">
         <v>30</v>
@@ -20061,7 +20061,7 @@
         </is>
       </c>
       <c r="D274" s="2" t="n">
-        <v>44357</v>
+        <v>44461</v>
       </c>
       <c r="E274" t="n">
         <v>13</v>
@@ -20081,36 +20081,36 @@
       </c>
       <c r="I274" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J274" t="n">
-        <v>25</v>
+        <v>52</v>
       </c>
       <c r="K274" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="L274" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="M274" t="n">
-        <v>15000</v>
+        <v>12500</v>
       </c>
       <c r="N274" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O274" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P274" t="n">
-        <v>375</v>
+        <v>417</v>
       </c>
       <c r="Q274" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="R274" t="inlineStr">
         <is>
@@ -20133,7 +20133,7 @@
         </is>
       </c>
       <c r="D275" s="2" t="n">
-        <v>44162</v>
+        <v>44461</v>
       </c>
       <c r="E275" t="n">
         <v>13</v>
@@ -20153,36 +20153,36 @@
       </c>
       <c r="I275" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J275" t="n">
-        <v>300</v>
+        <v>25</v>
       </c>
       <c r="K275" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="L275" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="M275" t="n">
-        <v>9000</v>
+        <v>10480</v>
       </c>
       <c r="N275" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O275" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P275" t="n">
-        <v>300</v>
+        <v>262</v>
       </c>
       <c r="Q275" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="R275" t="inlineStr">
         <is>
@@ -20205,7 +20205,7 @@
         </is>
       </c>
       <c r="D276" s="2" t="n">
-        <v>44411</v>
+        <v>44357</v>
       </c>
       <c r="E276" t="n">
         <v>13</v>
@@ -20220,29 +20220,29 @@
       </c>
       <c r="H276" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I276" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J276" t="n">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="K276" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="L276" t="n">
         <v>16000</v>
       </c>
       <c r="M276" t="n">
-        <v>16000</v>
+        <v>15500</v>
       </c>
       <c r="N276" t="inlineStr">
         <is>
-          <t>$/caja 25 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O276" t="inlineStr">
@@ -20251,10 +20251,10 @@
         </is>
       </c>
       <c r="P276" t="n">
-        <v>16000</v>
+        <v>310</v>
       </c>
       <c r="Q276" t="n">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="R276" t="inlineStr">
         <is>
@@ -20277,7 +20277,7 @@
         </is>
       </c>
       <c r="D277" s="2" t="n">
-        <v>44411</v>
+        <v>44357</v>
       </c>
       <c r="E277" t="n">
         <v>13</v>
@@ -20292,29 +20292,29 @@
       </c>
       <c r="H277" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I277" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J277" t="n">
-        <v>61</v>
+        <v>16</v>
       </c>
       <c r="K277" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="L277" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="M277" t="n">
-        <v>14492</v>
+        <v>13000</v>
       </c>
       <c r="N277" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 70 unidades</t>
         </is>
       </c>
       <c r="O277" t="inlineStr">
@@ -20323,10 +20323,10 @@
         </is>
       </c>
       <c r="P277" t="n">
-        <v>483</v>
+        <v>186</v>
       </c>
       <c r="Q277" t="n">
-        <v>30</v>
+        <v>70</v>
       </c>
       <c r="R277" t="inlineStr">
         <is>
@@ -20349,7 +20349,7 @@
         </is>
       </c>
       <c r="D278" s="2" t="n">
-        <v>44411</v>
+        <v>44357</v>
       </c>
       <c r="E278" t="n">
         <v>13</v>
@@ -20369,36 +20369,36 @@
       </c>
       <c r="I278" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J278" t="n">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="K278" t="n">
-        <v>12000</v>
+        <v>19000</v>
       </c>
       <c r="L278" t="n">
-        <v>12000</v>
+        <v>20000</v>
       </c>
       <c r="M278" t="n">
-        <v>12000</v>
+        <v>19500</v>
       </c>
       <c r="N278" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 25 unidades</t>
         </is>
       </c>
       <c r="O278" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P278" t="n">
-        <v>300</v>
+        <v>19500</v>
       </c>
       <c r="Q278" t="n">
-        <v>40</v>
+        <v>1</v>
       </c>
       <c r="R278" t="inlineStr">
         <is>
@@ -20421,7 +20421,7 @@
         </is>
       </c>
       <c r="D279" s="2" t="n">
-        <v>44376</v>
+        <v>44357</v>
       </c>
       <c r="E279" t="n">
         <v>13</v>
@@ -20441,24 +20441,24 @@
       </c>
       <c r="I279" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J279" t="n">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="K279" t="n">
-        <v>21000</v>
+        <v>17000</v>
       </c>
       <c r="L279" t="n">
-        <v>22000</v>
+        <v>18000</v>
       </c>
       <c r="M279" t="n">
-        <v>21500</v>
+        <v>17500</v>
       </c>
       <c r="N279" t="inlineStr">
         <is>
-          <t>$/caja 25 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O279" t="inlineStr">
@@ -20467,10 +20467,10 @@
         </is>
       </c>
       <c r="P279" t="n">
-        <v>21500</v>
+        <v>583</v>
       </c>
       <c r="Q279" t="n">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="R279" t="inlineStr">
         <is>
@@ -20493,7 +20493,7 @@
         </is>
       </c>
       <c r="D280" s="2" t="n">
-        <v>44376</v>
+        <v>44357</v>
       </c>
       <c r="E280" t="n">
         <v>13</v>
@@ -20513,24 +20513,24 @@
       </c>
       <c r="I280" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J280" t="n">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="K280" t="n">
-        <v>19000</v>
+        <v>15000</v>
       </c>
       <c r="L280" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="M280" t="n">
-        <v>19500</v>
+        <v>15000</v>
       </c>
       <c r="N280" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O280" t="inlineStr">
@@ -20539,10 +20539,10 @@
         </is>
       </c>
       <c r="P280" t="n">
-        <v>650</v>
+        <v>375</v>
       </c>
       <c r="Q280" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="R280" t="inlineStr">
         <is>
@@ -20565,7 +20565,7 @@
         </is>
       </c>
       <c r="D281" s="2" t="n">
-        <v>44376</v>
+        <v>44162</v>
       </c>
       <c r="E281" t="n">
         <v>13</v>
@@ -20585,36 +20585,36 @@
       </c>
       <c r="I281" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J281" t="n">
-        <v>25</v>
+        <v>300</v>
       </c>
       <c r="K281" t="n">
-        <v>16000</v>
+        <v>9000</v>
       </c>
       <c r="L281" t="n">
-        <v>17000</v>
+        <v>9000</v>
       </c>
       <c r="M281" t="n">
-        <v>16480</v>
+        <v>9000</v>
       </c>
       <c r="N281" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O281" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P281" t="n">
-        <v>412</v>
+        <v>300</v>
       </c>
       <c r="Q281" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="R281" t="inlineStr">
         <is>
@@ -20637,7 +20637,7 @@
         </is>
       </c>
       <c r="D282" s="2" t="n">
-        <v>44292</v>
+        <v>44411</v>
       </c>
       <c r="E282" t="n">
         <v>13</v>
@@ -20657,24 +20657,24 @@
       </c>
       <c r="I282" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J282" t="n">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="K282" t="n">
-        <v>18000</v>
+        <v>16000</v>
       </c>
       <c r="L282" t="n">
-        <v>18000</v>
+        <v>16000</v>
       </c>
       <c r="M282" t="n">
-        <v>18000</v>
+        <v>16000</v>
       </c>
       <c r="N282" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 25 unidades</t>
         </is>
       </c>
       <c r="O282" t="inlineStr">
@@ -20683,10 +20683,10 @@
         </is>
       </c>
       <c r="P282" t="n">
-        <v>600</v>
+        <v>16000</v>
       </c>
       <c r="Q282" t="n">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="R282" t="inlineStr">
         <is>
@@ -20709,7 +20709,7 @@
         </is>
       </c>
       <c r="D283" s="2" t="n">
-        <v>44358</v>
+        <v>44411</v>
       </c>
       <c r="E283" t="n">
         <v>13</v>
@@ -20724,7 +20724,7 @@
       </c>
       <c r="H283" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I283" t="inlineStr">
@@ -20733,32 +20733,32 @@
         </is>
       </c>
       <c r="J283" t="n">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="K283" t="n">
+        <v>14000</v>
+      </c>
+      <c r="L283" t="n">
         <v>15000</v>
       </c>
-      <c r="L283" t="n">
-        <v>16000</v>
-      </c>
       <c r="M283" t="n">
-        <v>15500</v>
+        <v>14492</v>
       </c>
       <c r="N283" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O283" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P283" t="n">
-        <v>310</v>
+        <v>483</v>
       </c>
       <c r="Q283" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R283" t="inlineStr">
         <is>
@@ -20781,7 +20781,7 @@
         </is>
       </c>
       <c r="D284" s="2" t="n">
-        <v>44358</v>
+        <v>44411</v>
       </c>
       <c r="E284" t="n">
         <v>13</v>
@@ -20796,7 +20796,7 @@
       </c>
       <c r="H284" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I284" t="inlineStr">
@@ -20805,32 +20805,32 @@
         </is>
       </c>
       <c r="J284" t="n">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="K284" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="L284" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="M284" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="N284" t="inlineStr">
         <is>
-          <t>$/caja 70 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O284" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P284" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="Q284" t="n">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="R284" t="inlineStr">
         <is>
@@ -20853,7 +20853,7 @@
         </is>
       </c>
       <c r="D285" s="2" t="n">
-        <v>44358</v>
+        <v>44376</v>
       </c>
       <c r="E285" t="n">
         <v>13</v>
@@ -20880,13 +20880,13 @@
         <v>16</v>
       </c>
       <c r="K285" t="n">
-        <v>18000</v>
+        <v>21000</v>
       </c>
       <c r="L285" t="n">
-        <v>19000</v>
+        <v>22000</v>
       </c>
       <c r="M285" t="n">
-        <v>18500</v>
+        <v>21500</v>
       </c>
       <c r="N285" t="inlineStr">
         <is>
@@ -20895,11 +20895,11 @@
       </c>
       <c r="O285" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P285" t="n">
-        <v>18500</v>
+        <v>21500</v>
       </c>
       <c r="Q285" t="n">
         <v>1</v>
@@ -20925,7 +20925,7 @@
         </is>
       </c>
       <c r="D286" s="2" t="n">
-        <v>44358</v>
+        <v>44376</v>
       </c>
       <c r="E286" t="n">
         <v>13</v>
@@ -20949,16 +20949,16 @@
         </is>
       </c>
       <c r="J286" t="n">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="K286" t="n">
-        <v>15000</v>
+        <v>19000</v>
       </c>
       <c r="L286" t="n">
-        <v>16000</v>
+        <v>20000</v>
       </c>
       <c r="M286" t="n">
-        <v>15488</v>
+        <v>19500</v>
       </c>
       <c r="N286" t="inlineStr">
         <is>
@@ -20967,11 +20967,11 @@
       </c>
       <c r="O286" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P286" t="n">
-        <v>516</v>
+        <v>650</v>
       </c>
       <c r="Q286" t="n">
         <v>30</v>
@@ -20997,7 +20997,7 @@
         </is>
       </c>
       <c r="D287" s="2" t="n">
-        <v>44358</v>
+        <v>44376</v>
       </c>
       <c r="E287" t="n">
         <v>13</v>
@@ -21024,13 +21024,13 @@
         <v>25</v>
       </c>
       <c r="K287" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="L287" t="n">
-        <v>14000</v>
+        <v>17000</v>
       </c>
       <c r="M287" t="n">
-        <v>14000</v>
+        <v>16480</v>
       </c>
       <c r="N287" t="inlineStr">
         <is>
@@ -21039,11 +21039,11 @@
       </c>
       <c r="O287" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P287" t="n">
-        <v>350</v>
+        <v>412</v>
       </c>
       <c r="Q287" t="n">
         <v>40</v>
@@ -21069,7 +21069,7 @@
         </is>
       </c>
       <c r="D288" s="2" t="n">
-        <v>44425</v>
+        <v>44292</v>
       </c>
       <c r="E288" t="n">
         <v>13</v>
@@ -21089,24 +21089,24 @@
       </c>
       <c r="I288" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J288" t="n">
         <v>25</v>
       </c>
       <c r="K288" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="L288" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="M288" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="N288" t="inlineStr">
         <is>
-          <t>$/caja 25 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O288" t="inlineStr">
@@ -21115,10 +21115,10 @@
         </is>
       </c>
       <c r="P288" t="n">
-        <v>16000</v>
+        <v>600</v>
       </c>
       <c r="Q288" t="n">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="R288" t="inlineStr">
         <is>
@@ -21141,7 +21141,7 @@
         </is>
       </c>
       <c r="D289" s="2" t="n">
-        <v>44425</v>
+        <v>44358</v>
       </c>
       <c r="E289" t="n">
         <v>13</v>
@@ -21156,7 +21156,7 @@
       </c>
       <c r="H289" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I289" t="inlineStr">
@@ -21165,32 +21165,32 @@
         </is>
       </c>
       <c r="J289" t="n">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="K289" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="L289" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="M289" t="n">
-        <v>14508</v>
+        <v>15500</v>
       </c>
       <c r="N289" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O289" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P289" t="n">
-        <v>484</v>
+        <v>310</v>
       </c>
       <c r="Q289" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R289" t="inlineStr">
         <is>
@@ -21213,7 +21213,7 @@
         </is>
       </c>
       <c r="D290" s="2" t="n">
-        <v>44425</v>
+        <v>44358</v>
       </c>
       <c r="E290" t="n">
         <v>13</v>
@@ -21228,7 +21228,7 @@
       </c>
       <c r="H290" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I290" t="inlineStr">
@@ -21240,29 +21240,29 @@
         <v>34</v>
       </c>
       <c r="K290" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="L290" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="M290" t="n">
-        <v>12500</v>
+        <v>14000</v>
       </c>
       <c r="N290" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 70 unidades</t>
         </is>
       </c>
       <c r="O290" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P290" t="n">
-        <v>312</v>
+        <v>200</v>
       </c>
       <c r="Q290" t="n">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="R290" t="inlineStr">
         <is>
@@ -21285,7 +21285,7 @@
         </is>
       </c>
       <c r="D291" s="2" t="n">
-        <v>44425</v>
+        <v>44358</v>
       </c>
       <c r="E291" t="n">
         <v>13</v>
@@ -21300,29 +21300,29 @@
       </c>
       <c r="H291" t="inlineStr">
         <is>
-          <t>Madrigal</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I291" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J291" t="n">
-        <v>43</v>
+        <v>16</v>
       </c>
       <c r="K291" t="n">
-        <v>14000</v>
+        <v>18000</v>
       </c>
       <c r="L291" t="n">
-        <v>15000</v>
+        <v>19000</v>
       </c>
       <c r="M291" t="n">
-        <v>14512</v>
+        <v>18500</v>
       </c>
       <c r="N291" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 25 unidades</t>
         </is>
       </c>
       <c r="O291" t="inlineStr">
@@ -21331,10 +21331,10 @@
         </is>
       </c>
       <c r="P291" t="n">
-        <v>363</v>
+        <v>18500</v>
       </c>
       <c r="Q291" t="n">
-        <v>40</v>
+        <v>1</v>
       </c>
       <c r="R291" t="inlineStr">
         <is>
@@ -21357,7 +21357,7 @@
         </is>
       </c>
       <c r="D292" s="2" t="n">
-        <v>44425</v>
+        <v>44358</v>
       </c>
       <c r="E292" t="n">
         <v>13</v>
@@ -21372,29 +21372,29 @@
       </c>
       <c r="H292" t="inlineStr">
         <is>
-          <t>Madrigal</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I292" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J292" t="n">
-        <v>25</v>
+        <v>43</v>
       </c>
       <c r="K292" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="L292" t="n">
-        <v>13000</v>
+        <v>16000</v>
       </c>
       <c r="M292" t="n">
-        <v>12480</v>
+        <v>15488</v>
       </c>
       <c r="N292" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O292" t="inlineStr">
@@ -21403,10 +21403,10 @@
         </is>
       </c>
       <c r="P292" t="n">
-        <v>250</v>
+        <v>516</v>
       </c>
       <c r="Q292" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R292" t="inlineStr">
         <is>
@@ -21429,7 +21429,7 @@
         </is>
       </c>
       <c r="D293" s="2" t="n">
-        <v>44323</v>
+        <v>44358</v>
       </c>
       <c r="E293" t="n">
         <v>13</v>
@@ -21444,29 +21444,29 @@
       </c>
       <c r="H293" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I293" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J293" t="n">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="K293" t="n">
-        <v>18000</v>
+        <v>14000</v>
       </c>
       <c r="L293" t="n">
-        <v>18000</v>
+        <v>14000</v>
       </c>
       <c r="M293" t="n">
-        <v>18000</v>
+        <v>14000</v>
       </c>
       <c r="N293" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O293" t="inlineStr">
@@ -21475,10 +21475,10 @@
         </is>
       </c>
       <c r="P293" t="n">
-        <v>360</v>
+        <v>350</v>
       </c>
       <c r="Q293" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="R293" t="inlineStr">
         <is>
@@ -21501,7 +21501,7 @@
         </is>
       </c>
       <c r="D294" s="2" t="n">
-        <v>44323</v>
+        <v>44425</v>
       </c>
       <c r="E294" t="n">
         <v>13</v>
@@ -21525,16 +21525,16 @@
         </is>
       </c>
       <c r="J294" t="n">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="K294" t="n">
-        <v>18000</v>
+        <v>16000</v>
       </c>
       <c r="L294" t="n">
-        <v>18000</v>
+        <v>16000</v>
       </c>
       <c r="M294" t="n">
-        <v>18000</v>
+        <v>16000</v>
       </c>
       <c r="N294" t="inlineStr">
         <is>
@@ -21547,7 +21547,7 @@
         </is>
       </c>
       <c r="P294" t="n">
-        <v>18000</v>
+        <v>16000</v>
       </c>
       <c r="Q294" t="n">
         <v>1</v>
@@ -21573,7 +21573,7 @@
         </is>
       </c>
       <c r="D295" s="2" t="n">
-        <v>44323</v>
+        <v>44425</v>
       </c>
       <c r="E295" t="n">
         <v>13</v>
@@ -21597,16 +21597,16 @@
         </is>
       </c>
       <c r="J295" t="n">
-        <v>25</v>
+        <v>61</v>
       </c>
       <c r="K295" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="L295" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="M295" t="n">
-        <v>16000</v>
+        <v>14508</v>
       </c>
       <c r="N295" t="inlineStr">
         <is>
@@ -21619,12 +21619,444 @@
         </is>
       </c>
       <c r="P295" t="n">
-        <v>533</v>
+        <v>484</v>
       </c>
       <c r="Q295" t="n">
         <v>30</v>
       </c>
       <c r="R295" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" t="n">
+        <v>9</v>
+      </c>
+      <c r="B296" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C296" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D296" s="2" t="n">
+        <v>44425</v>
+      </c>
+      <c r="E296" t="n">
+        <v>13</v>
+      </c>
+      <c r="F296" t="n">
+        <v>100112013</v>
+      </c>
+      <c r="G296" t="inlineStr">
+        <is>
+          <t>Alcachofa</t>
+        </is>
+      </c>
+      <c r="H296" t="inlineStr">
+        <is>
+          <t>Española</t>
+        </is>
+      </c>
+      <c r="I296" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="J296" t="n">
+        <v>34</v>
+      </c>
+      <c r="K296" t="n">
+        <v>12000</v>
+      </c>
+      <c r="L296" t="n">
+        <v>13000</v>
+      </c>
+      <c r="M296" t="n">
+        <v>12500</v>
+      </c>
+      <c r="N296" t="inlineStr">
+        <is>
+          <t>$/caja 40 unidades</t>
+        </is>
+      </c>
+      <c r="O296" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P296" t="n">
+        <v>312</v>
+      </c>
+      <c r="Q296" t="n">
+        <v>40</v>
+      </c>
+      <c r="R296" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" t="n">
+        <v>9</v>
+      </c>
+      <c r="B297" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C297" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D297" s="2" t="n">
+        <v>44425</v>
+      </c>
+      <c r="E297" t="n">
+        <v>13</v>
+      </c>
+      <c r="F297" t="n">
+        <v>100112013</v>
+      </c>
+      <c r="G297" t="inlineStr">
+        <is>
+          <t>Alcachofa</t>
+        </is>
+      </c>
+      <c r="H297" t="inlineStr">
+        <is>
+          <t>Madrigal</t>
+        </is>
+      </c>
+      <c r="I297" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J297" t="n">
+        <v>43</v>
+      </c>
+      <c r="K297" t="n">
+        <v>14000</v>
+      </c>
+      <c r="L297" t="n">
+        <v>15000</v>
+      </c>
+      <c r="M297" t="n">
+        <v>14512</v>
+      </c>
+      <c r="N297" t="inlineStr">
+        <is>
+          <t>$/caja 40 unidades</t>
+        </is>
+      </c>
+      <c r="O297" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P297" t="n">
+        <v>363</v>
+      </c>
+      <c r="Q297" t="n">
+        <v>40</v>
+      </c>
+      <c r="R297" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" t="n">
+        <v>9</v>
+      </c>
+      <c r="B298" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C298" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D298" s="2" t="n">
+        <v>44425</v>
+      </c>
+      <c r="E298" t="n">
+        <v>13</v>
+      </c>
+      <c r="F298" t="n">
+        <v>100112013</v>
+      </c>
+      <c r="G298" t="inlineStr">
+        <is>
+          <t>Alcachofa</t>
+        </is>
+      </c>
+      <c r="H298" t="inlineStr">
+        <is>
+          <t>Madrigal</t>
+        </is>
+      </c>
+      <c r="I298" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="J298" t="n">
+        <v>25</v>
+      </c>
+      <c r="K298" t="n">
+        <v>12000</v>
+      </c>
+      <c r="L298" t="n">
+        <v>13000</v>
+      </c>
+      <c r="M298" t="n">
+        <v>12480</v>
+      </c>
+      <c r="N298" t="inlineStr">
+        <is>
+          <t>$/caja 50 unidades</t>
+        </is>
+      </c>
+      <c r="O298" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P298" t="n">
+        <v>250</v>
+      </c>
+      <c r="Q298" t="n">
+        <v>50</v>
+      </c>
+      <c r="R298" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" t="n">
+        <v>9</v>
+      </c>
+      <c r="B299" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C299" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D299" s="2" t="n">
+        <v>44323</v>
+      </c>
+      <c r="E299" t="n">
+        <v>13</v>
+      </c>
+      <c r="F299" t="n">
+        <v>100112013</v>
+      </c>
+      <c r="G299" t="inlineStr">
+        <is>
+          <t>Alcachofa</t>
+        </is>
+      </c>
+      <c r="H299" t="inlineStr">
+        <is>
+          <t>Argentina(o)</t>
+        </is>
+      </c>
+      <c r="I299" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J299" t="n">
+        <v>16</v>
+      </c>
+      <c r="K299" t="n">
+        <v>18000</v>
+      </c>
+      <c r="L299" t="n">
+        <v>18000</v>
+      </c>
+      <c r="M299" t="n">
+        <v>18000</v>
+      </c>
+      <c r="N299" t="inlineStr">
+        <is>
+          <t>$/caja 50 unidades</t>
+        </is>
+      </c>
+      <c r="O299" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P299" t="n">
+        <v>360</v>
+      </c>
+      <c r="Q299" t="n">
+        <v>50</v>
+      </c>
+      <c r="R299" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" t="n">
+        <v>9</v>
+      </c>
+      <c r="B300" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C300" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D300" s="2" t="n">
+        <v>44323</v>
+      </c>
+      <c r="E300" t="n">
+        <v>13</v>
+      </c>
+      <c r="F300" t="n">
+        <v>100112013</v>
+      </c>
+      <c r="G300" t="inlineStr">
+        <is>
+          <t>Alcachofa</t>
+        </is>
+      </c>
+      <c r="H300" t="inlineStr">
+        <is>
+          <t>Española</t>
+        </is>
+      </c>
+      <c r="I300" t="inlineStr">
+        <is>
+          <t>Extra</t>
+        </is>
+      </c>
+      <c r="J300" t="n">
+        <v>16</v>
+      </c>
+      <c r="K300" t="n">
+        <v>18000</v>
+      </c>
+      <c r="L300" t="n">
+        <v>18000</v>
+      </c>
+      <c r="M300" t="n">
+        <v>18000</v>
+      </c>
+      <c r="N300" t="inlineStr">
+        <is>
+          <t>$/caja 25 unidades</t>
+        </is>
+      </c>
+      <c r="O300" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P300" t="n">
+        <v>18000</v>
+      </c>
+      <c r="Q300" t="n">
+        <v>1</v>
+      </c>
+      <c r="R300" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" t="n">
+        <v>9</v>
+      </c>
+      <c r="B301" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C301" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D301" s="2" t="n">
+        <v>44323</v>
+      </c>
+      <c r="E301" t="n">
+        <v>13</v>
+      </c>
+      <c r="F301" t="n">
+        <v>100112013</v>
+      </c>
+      <c r="G301" t="inlineStr">
+        <is>
+          <t>Alcachofa</t>
+        </is>
+      </c>
+      <c r="H301" t="inlineStr">
+        <is>
+          <t>Española</t>
+        </is>
+      </c>
+      <c r="I301" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J301" t="n">
+        <v>25</v>
+      </c>
+      <c r="K301" t="n">
+        <v>16000</v>
+      </c>
+      <c r="L301" t="n">
+        <v>16000</v>
+      </c>
+      <c r="M301" t="n">
+        <v>16000</v>
+      </c>
+      <c r="N301" t="inlineStr">
+        <is>
+          <t>$/caja 30 unidades</t>
+        </is>
+      </c>
+      <c r="O301" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P301" t="n">
+        <v>533</v>
+      </c>
+      <c r="Q301" t="n">
+        <v>30</v>
+      </c>
+      <c r="R301" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Central Mapocho de Santiago - Alcachofa.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Central Mapocho de Santiago - Alcachofa.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R301"/>
+  <dimension ref="A1:R304"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15957,7 +15957,7 @@
         </is>
       </c>
       <c r="D217" s="2" t="n">
-        <v>44390</v>
+        <v>44468</v>
       </c>
       <c r="E217" t="n">
         <v>13</v>
@@ -15981,16 +15981,16 @@
         </is>
       </c>
       <c r="J217" t="n">
-        <v>16</v>
+        <v>52</v>
       </c>
       <c r="K217" t="n">
-        <v>19000</v>
+        <v>12000</v>
       </c>
       <c r="L217" t="n">
-        <v>20000</v>
+        <v>13000</v>
       </c>
       <c r="M217" t="n">
-        <v>19500</v>
+        <v>12500</v>
       </c>
       <c r="N217" t="inlineStr">
         <is>
@@ -16003,7 +16003,7 @@
         </is>
       </c>
       <c r="P217" t="n">
-        <v>19500</v>
+        <v>12500</v>
       </c>
       <c r="Q217" t="n">
         <v>1</v>
@@ -16029,7 +16029,7 @@
         </is>
       </c>
       <c r="D218" s="2" t="n">
-        <v>44390</v>
+        <v>44468</v>
       </c>
       <c r="E218" t="n">
         <v>13</v>
@@ -16056,13 +16056,13 @@
         <v>43</v>
       </c>
       <c r="K218" t="n">
-        <v>16000</v>
+        <v>10000</v>
       </c>
       <c r="L218" t="n">
-        <v>18000</v>
+        <v>11000</v>
       </c>
       <c r="M218" t="n">
-        <v>17023</v>
+        <v>10512</v>
       </c>
       <c r="N218" t="inlineStr">
         <is>
@@ -16075,7 +16075,7 @@
         </is>
       </c>
       <c r="P218" t="n">
-        <v>567</v>
+        <v>350</v>
       </c>
       <c r="Q218" t="n">
         <v>30</v>
@@ -16101,7 +16101,7 @@
         </is>
       </c>
       <c r="D219" s="2" t="n">
-        <v>44390</v>
+        <v>44468</v>
       </c>
       <c r="E219" t="n">
         <v>13</v>
@@ -16125,16 +16125,16 @@
         </is>
       </c>
       <c r="J219" t="n">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="K219" t="n">
-        <v>14000</v>
+        <v>8000</v>
       </c>
       <c r="L219" t="n">
-        <v>14000</v>
+        <v>9000</v>
       </c>
       <c r="M219" t="n">
-        <v>14000</v>
+        <v>8500</v>
       </c>
       <c r="N219" t="inlineStr">
         <is>
@@ -16147,7 +16147,7 @@
         </is>
       </c>
       <c r="P219" t="n">
-        <v>350</v>
+        <v>212</v>
       </c>
       <c r="Q219" t="n">
         <v>40</v>
@@ -16173,7 +16173,7 @@
         </is>
       </c>
       <c r="D220" s="2" t="n">
-        <v>44386</v>
+        <v>44390</v>
       </c>
       <c r="E220" t="n">
         <v>13</v>
@@ -16200,13 +16200,13 @@
         <v>16</v>
       </c>
       <c r="K220" t="n">
-        <v>20000</v>
+        <v>19000</v>
       </c>
       <c r="L220" t="n">
         <v>20000</v>
       </c>
       <c r="M220" t="n">
-        <v>20000</v>
+        <v>19500</v>
       </c>
       <c r="N220" t="inlineStr">
         <is>
@@ -16215,11 +16215,11 @@
       </c>
       <c r="O220" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P220" t="n">
-        <v>20000</v>
+        <v>19500</v>
       </c>
       <c r="Q220" t="n">
         <v>1</v>
@@ -16245,7 +16245,7 @@
         </is>
       </c>
       <c r="D221" s="2" t="n">
-        <v>44386</v>
+        <v>44390</v>
       </c>
       <c r="E221" t="n">
         <v>13</v>
@@ -16269,16 +16269,16 @@
         </is>
       </c>
       <c r="J221" t="n">
-        <v>61</v>
+        <v>43</v>
       </c>
       <c r="K221" t="n">
-        <v>17000</v>
+        <v>16000</v>
       </c>
       <c r="L221" t="n">
         <v>18000</v>
       </c>
       <c r="M221" t="n">
-        <v>17492</v>
+        <v>17023</v>
       </c>
       <c r="N221" t="inlineStr">
         <is>
@@ -16287,11 +16287,11 @@
       </c>
       <c r="O221" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P221" t="n">
-        <v>583</v>
+        <v>567</v>
       </c>
       <c r="Q221" t="n">
         <v>30</v>
@@ -16317,7 +16317,7 @@
         </is>
       </c>
       <c r="D222" s="2" t="n">
-        <v>44386</v>
+        <v>44390</v>
       </c>
       <c r="E222" t="n">
         <v>13</v>
@@ -16341,16 +16341,16 @@
         </is>
       </c>
       <c r="J222" t="n">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="K222" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="L222" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="M222" t="n">
-        <v>15500</v>
+        <v>14000</v>
       </c>
       <c r="N222" t="inlineStr">
         <is>
@@ -16359,11 +16359,11 @@
       </c>
       <c r="O222" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P222" t="n">
-        <v>388</v>
+        <v>350</v>
       </c>
       <c r="Q222" t="n">
         <v>40</v>
@@ -16404,7 +16404,7 @@
       </c>
       <c r="H223" t="inlineStr">
         <is>
-          <t>Madrigal</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I223" t="inlineStr">
@@ -16416,17 +16416,17 @@
         <v>16</v>
       </c>
       <c r="K223" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="L223" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="M223" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="N223" t="inlineStr">
         <is>
-          <t>$/caja 35 unidades</t>
+          <t>$/caja 25 unidades</t>
         </is>
       </c>
       <c r="O223" t="inlineStr">
@@ -16435,10 +16435,10 @@
         </is>
       </c>
       <c r="P223" t="n">
-        <v>629</v>
+        <v>20000</v>
       </c>
       <c r="Q223" t="n">
-        <v>35</v>
+        <v>1</v>
       </c>
       <c r="R223" t="inlineStr">
         <is>
@@ -16476,7 +16476,7 @@
       </c>
       <c r="H224" t="inlineStr">
         <is>
-          <t>Madrigal</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I224" t="inlineStr">
@@ -16485,20 +16485,20 @@
         </is>
       </c>
       <c r="J224" t="n">
-        <v>43</v>
+        <v>61</v>
       </c>
       <c r="K224" t="n">
-        <v>20000</v>
+        <v>17000</v>
       </c>
       <c r="L224" t="n">
-        <v>21000</v>
+        <v>18000</v>
       </c>
       <c r="M224" t="n">
-        <v>20488</v>
+        <v>17492</v>
       </c>
       <c r="N224" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O224" t="inlineStr">
@@ -16507,10 +16507,10 @@
         </is>
       </c>
       <c r="P224" t="n">
-        <v>512</v>
+        <v>583</v>
       </c>
       <c r="Q224" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="R224" t="inlineStr">
         <is>
@@ -16548,7 +16548,7 @@
       </c>
       <c r="H225" t="inlineStr">
         <is>
-          <t>Madrigal</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I225" t="inlineStr">
@@ -16557,20 +16557,20 @@
         </is>
       </c>
       <c r="J225" t="n">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="K225" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="L225" t="n">
-        <v>19000</v>
+        <v>16000</v>
       </c>
       <c r="M225" t="n">
-        <v>18480</v>
+        <v>15500</v>
       </c>
       <c r="N225" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O225" t="inlineStr">
@@ -16579,10 +16579,10 @@
         </is>
       </c>
       <c r="P225" t="n">
-        <v>370</v>
+        <v>388</v>
       </c>
       <c r="Q225" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="R225" t="inlineStr">
         <is>
@@ -16605,7 +16605,7 @@
         </is>
       </c>
       <c r="D226" s="2" t="n">
-        <v>44308</v>
+        <v>44386</v>
       </c>
       <c r="E226" t="n">
         <v>13</v>
@@ -16620,7 +16620,7 @@
       </c>
       <c r="H226" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Madrigal</t>
         </is>
       </c>
       <c r="I226" t="inlineStr">
@@ -16632,29 +16632,29 @@
         <v>16</v>
       </c>
       <c r="K226" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="L226" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="M226" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="N226" t="inlineStr">
         <is>
-          <t>$/caja 25 unidades</t>
+          <t>$/caja 35 unidades</t>
         </is>
       </c>
       <c r="O226" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P226" t="n">
-        <v>20000</v>
+        <v>629</v>
       </c>
       <c r="Q226" t="n">
-        <v>1</v>
+        <v>35</v>
       </c>
       <c r="R226" t="inlineStr">
         <is>
@@ -16677,7 +16677,7 @@
         </is>
       </c>
       <c r="D227" s="2" t="n">
-        <v>44308</v>
+        <v>44386</v>
       </c>
       <c r="E227" t="n">
         <v>13</v>
@@ -16692,7 +16692,7 @@
       </c>
       <c r="H227" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Madrigal</t>
         </is>
       </c>
       <c r="I227" t="inlineStr">
@@ -16701,32 +16701,32 @@
         </is>
       </c>
       <c r="J227" t="n">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="K227" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="L227" t="n">
-        <v>18000</v>
+        <v>21000</v>
       </c>
       <c r="M227" t="n">
-        <v>18000</v>
+        <v>20488</v>
       </c>
       <c r="N227" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O227" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P227" t="n">
-        <v>600</v>
+        <v>512</v>
       </c>
       <c r="Q227" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="R227" t="inlineStr">
         <is>
@@ -16749,7 +16749,7 @@
         </is>
       </c>
       <c r="D228" s="2" t="n">
-        <v>44463</v>
+        <v>44386</v>
       </c>
       <c r="E228" t="n">
         <v>13</v>
@@ -16764,41 +16764,41 @@
       </c>
       <c r="H228" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Madrigal</t>
         </is>
       </c>
       <c r="I228" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J228" t="n">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="K228" t="n">
-        <v>14000</v>
+        <v>18000</v>
       </c>
       <c r="L228" t="n">
-        <v>15000</v>
+        <v>19000</v>
       </c>
       <c r="M228" t="n">
-        <v>14524</v>
+        <v>18480</v>
       </c>
       <c r="N228" t="inlineStr">
         <is>
-          <t>$/caja 25 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O228" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P228" t="n">
-        <v>14524</v>
+        <v>370</v>
       </c>
       <c r="Q228" t="n">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="R228" t="inlineStr">
         <is>
@@ -16821,7 +16821,7 @@
         </is>
       </c>
       <c r="D229" s="2" t="n">
-        <v>44463</v>
+        <v>44308</v>
       </c>
       <c r="E229" t="n">
         <v>13</v>
@@ -16841,24 +16841,24 @@
       </c>
       <c r="I229" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J229" t="n">
-        <v>52</v>
+        <v>16</v>
       </c>
       <c r="K229" t="n">
-        <v>12000</v>
+        <v>20000</v>
       </c>
       <c r="L229" t="n">
-        <v>13000</v>
+        <v>20000</v>
       </c>
       <c r="M229" t="n">
-        <v>12500</v>
+        <v>20000</v>
       </c>
       <c r="N229" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 25 unidades</t>
         </is>
       </c>
       <c r="O229" t="inlineStr">
@@ -16867,10 +16867,10 @@
         </is>
       </c>
       <c r="P229" t="n">
-        <v>417</v>
+        <v>20000</v>
       </c>
       <c r="Q229" t="n">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="R229" t="inlineStr">
         <is>
@@ -16893,7 +16893,7 @@
         </is>
       </c>
       <c r="D230" s="2" t="n">
-        <v>44463</v>
+        <v>44308</v>
       </c>
       <c r="E230" t="n">
         <v>13</v>
@@ -16913,24 +16913,24 @@
       </c>
       <c r="I230" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J230" t="n">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="K230" t="n">
-        <v>10000</v>
+        <v>18000</v>
       </c>
       <c r="L230" t="n">
-        <v>11000</v>
+        <v>18000</v>
       </c>
       <c r="M230" t="n">
-        <v>10500</v>
+        <v>18000</v>
       </c>
       <c r="N230" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O230" t="inlineStr">
@@ -16939,10 +16939,10 @@
         </is>
       </c>
       <c r="P230" t="n">
-        <v>262</v>
+        <v>600</v>
       </c>
       <c r="Q230" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="R230" t="inlineStr">
         <is>
@@ -16965,7 +16965,7 @@
         </is>
       </c>
       <c r="D231" s="2" t="n">
-        <v>44301</v>
+        <v>44463</v>
       </c>
       <c r="E231" t="n">
         <v>13</v>
@@ -16985,24 +16985,24 @@
       </c>
       <c r="I231" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J231" t="n">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="K231" t="n">
-        <v>17000</v>
+        <v>14000</v>
       </c>
       <c r="L231" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="M231" t="n">
-        <v>17500</v>
+        <v>14524</v>
       </c>
       <c r="N231" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 25 unidades</t>
         </is>
       </c>
       <c r="O231" t="inlineStr">
@@ -17011,10 +17011,10 @@
         </is>
       </c>
       <c r="P231" t="n">
-        <v>583</v>
+        <v>14524</v>
       </c>
       <c r="Q231" t="n">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="R231" t="inlineStr">
         <is>
@@ -17037,7 +17037,7 @@
         </is>
       </c>
       <c r="D232" s="2" t="n">
-        <v>44166</v>
+        <v>44463</v>
       </c>
       <c r="E232" t="n">
         <v>13</v>
@@ -17061,16 +17061,16 @@
         </is>
       </c>
       <c r="J232" t="n">
-        <v>250</v>
+        <v>52</v>
       </c>
       <c r="K232" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="L232" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="M232" t="n">
-        <v>11000</v>
+        <v>12500</v>
       </c>
       <c r="N232" t="inlineStr">
         <is>
@@ -17079,11 +17079,11 @@
       </c>
       <c r="O232" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P232" t="n">
-        <v>367</v>
+        <v>417</v>
       </c>
       <c r="Q232" t="n">
         <v>30</v>
@@ -17109,7 +17109,7 @@
         </is>
       </c>
       <c r="D233" s="2" t="n">
-        <v>44168</v>
+        <v>44463</v>
       </c>
       <c r="E233" t="n">
         <v>13</v>
@@ -17129,36 +17129,36 @@
       </c>
       <c r="I233" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J233" t="n">
-        <v>230</v>
+        <v>38</v>
       </c>
       <c r="K233" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="L233" t="n">
         <v>11000</v>
       </c>
       <c r="M233" t="n">
-        <v>11000</v>
+        <v>10500</v>
       </c>
       <c r="N233" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O233" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P233" t="n">
-        <v>367</v>
+        <v>262</v>
       </c>
       <c r="Q233" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="R233" t="inlineStr">
         <is>
@@ -17181,7 +17181,7 @@
         </is>
       </c>
       <c r="D234" s="2" t="n">
-        <v>44369</v>
+        <v>44301</v>
       </c>
       <c r="E234" t="n">
         <v>13</v>
@@ -17201,36 +17201,36 @@
       </c>
       <c r="I234" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J234" t="n">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="K234" t="n">
-        <v>21000</v>
+        <v>17000</v>
       </c>
       <c r="L234" t="n">
-        <v>22000</v>
+        <v>18000</v>
       </c>
       <c r="M234" t="n">
-        <v>21500</v>
+        <v>17500</v>
       </c>
       <c r="N234" t="inlineStr">
         <is>
-          <t>$/caja 25 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O234" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P234" t="n">
-        <v>21500</v>
+        <v>583</v>
       </c>
       <c r="Q234" t="n">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="R234" t="inlineStr">
         <is>
@@ -17253,7 +17253,7 @@
         </is>
       </c>
       <c r="D235" s="2" t="n">
-        <v>44369</v>
+        <v>44166</v>
       </c>
       <c r="E235" t="n">
         <v>13</v>
@@ -17277,16 +17277,16 @@
         </is>
       </c>
       <c r="J235" t="n">
-        <v>34</v>
+        <v>250</v>
       </c>
       <c r="K235" t="n">
-        <v>19000</v>
+        <v>11000</v>
       </c>
       <c r="L235" t="n">
-        <v>20000</v>
+        <v>11000</v>
       </c>
       <c r="M235" t="n">
-        <v>19500</v>
+        <v>11000</v>
       </c>
       <c r="N235" t="inlineStr">
         <is>
@@ -17295,11 +17295,11 @@
       </c>
       <c r="O235" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P235" t="n">
-        <v>650</v>
+        <v>367</v>
       </c>
       <c r="Q235" t="n">
         <v>30</v>
@@ -17325,7 +17325,7 @@
         </is>
       </c>
       <c r="D236" s="2" t="n">
-        <v>44369</v>
+        <v>44168</v>
       </c>
       <c r="E236" t="n">
         <v>13</v>
@@ -17345,36 +17345,36 @@
       </c>
       <c r="I236" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J236" t="n">
-        <v>25</v>
+        <v>230</v>
       </c>
       <c r="K236" t="n">
-        <v>17000</v>
+        <v>11000</v>
       </c>
       <c r="L236" t="n">
-        <v>17000</v>
+        <v>11000</v>
       </c>
       <c r="M236" t="n">
-        <v>17000</v>
+        <v>11000</v>
       </c>
       <c r="N236" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O236" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P236" t="n">
-        <v>425</v>
+        <v>367</v>
       </c>
       <c r="Q236" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="R236" t="inlineStr">
         <is>
@@ -17412,41 +17412,41 @@
       </c>
       <c r="H237" t="inlineStr">
         <is>
-          <t>Madrigal</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I237" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J237" t="n">
-        <v>43</v>
+        <v>16</v>
       </c>
       <c r="K237" t="n">
-        <v>16000</v>
+        <v>21000</v>
       </c>
       <c r="L237" t="n">
-        <v>17000</v>
+        <v>22000</v>
       </c>
       <c r="M237" t="n">
-        <v>16488</v>
+        <v>21500</v>
       </c>
       <c r="N237" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 25 unidades</t>
         </is>
       </c>
       <c r="O237" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P237" t="n">
-        <v>412</v>
+        <v>21500</v>
       </c>
       <c r="Q237" t="n">
-        <v>40</v>
+        <v>1</v>
       </c>
       <c r="R237" t="inlineStr">
         <is>
@@ -17484,41 +17484,41 @@
       </c>
       <c r="H238" t="inlineStr">
         <is>
-          <t>Madrigal</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I238" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J238" t="n">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="K238" t="n">
-        <v>14000</v>
+        <v>19000</v>
       </c>
       <c r="L238" t="n">
-        <v>14000</v>
+        <v>20000</v>
       </c>
       <c r="M238" t="n">
-        <v>14000</v>
+        <v>19500</v>
       </c>
       <c r="N238" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O238" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P238" t="n">
-        <v>280</v>
+        <v>650</v>
       </c>
       <c r="Q238" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R238" t="inlineStr">
         <is>
@@ -17541,7 +17541,7 @@
         </is>
       </c>
       <c r="D239" s="2" t="n">
-        <v>44433</v>
+        <v>44369</v>
       </c>
       <c r="E239" t="n">
         <v>13</v>
@@ -17561,24 +17561,24 @@
       </c>
       <c r="I239" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J239" t="n">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="K239" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="L239" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="M239" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="N239" t="inlineStr">
         <is>
-          <t>$/caja 25 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O239" t="inlineStr">
@@ -17587,10 +17587,10 @@
         </is>
       </c>
       <c r="P239" t="n">
-        <v>16000</v>
+        <v>425</v>
       </c>
       <c r="Q239" t="n">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="R239" t="inlineStr">
         <is>
@@ -17613,7 +17613,7 @@
         </is>
       </c>
       <c r="D240" s="2" t="n">
-        <v>44433</v>
+        <v>44369</v>
       </c>
       <c r="E240" t="n">
         <v>13</v>
@@ -17628,7 +17628,7 @@
       </c>
       <c r="H240" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Madrigal</t>
         </is>
       </c>
       <c r="I240" t="inlineStr">
@@ -17637,32 +17637,32 @@
         </is>
       </c>
       <c r="J240" t="n">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="K240" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="L240" t="n">
-        <v>15000</v>
+        <v>17000</v>
       </c>
       <c r="M240" t="n">
-        <v>14500</v>
+        <v>16488</v>
       </c>
       <c r="N240" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O240" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P240" t="n">
-        <v>483</v>
+        <v>412</v>
       </c>
       <c r="Q240" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="R240" t="inlineStr">
         <is>
@@ -17685,7 +17685,7 @@
         </is>
       </c>
       <c r="D241" s="2" t="n">
-        <v>44433</v>
+        <v>44369</v>
       </c>
       <c r="E241" t="n">
         <v>13</v>
@@ -17700,7 +17700,7 @@
       </c>
       <c r="H241" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Madrigal</t>
         </is>
       </c>
       <c r="I241" t="inlineStr">
@@ -17709,32 +17709,32 @@
         </is>
       </c>
       <c r="J241" t="n">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="K241" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="L241" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="M241" t="n">
-        <v>12500</v>
+        <v>14000</v>
       </c>
       <c r="N241" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O241" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P241" t="n">
-        <v>312</v>
+        <v>280</v>
       </c>
       <c r="Q241" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="R241" t="inlineStr">
         <is>
@@ -17757,7 +17757,7 @@
         </is>
       </c>
       <c r="D242" s="2" t="n">
-        <v>44371</v>
+        <v>44433</v>
       </c>
       <c r="E242" t="n">
         <v>13</v>
@@ -17781,16 +17781,16 @@
         </is>
       </c>
       <c r="J242" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="K242" t="n">
-        <v>20000</v>
+        <v>16000</v>
       </c>
       <c r="L242" t="n">
-        <v>21000</v>
+        <v>16000</v>
       </c>
       <c r="M242" t="n">
-        <v>20500</v>
+        <v>16000</v>
       </c>
       <c r="N242" t="inlineStr">
         <is>
@@ -17799,11 +17799,11 @@
       </c>
       <c r="O242" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P242" t="n">
-        <v>20500</v>
+        <v>16000</v>
       </c>
       <c r="Q242" t="n">
         <v>1</v>
@@ -17829,7 +17829,7 @@
         </is>
       </c>
       <c r="D243" s="2" t="n">
-        <v>44371</v>
+        <v>44433</v>
       </c>
       <c r="E243" t="n">
         <v>13</v>
@@ -17853,16 +17853,16 @@
         </is>
       </c>
       <c r="J243" t="n">
-        <v>36</v>
+        <v>52</v>
       </c>
       <c r="K243" t="n">
-        <v>17000</v>
+        <v>14000</v>
       </c>
       <c r="L243" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="M243" t="n">
-        <v>17500</v>
+        <v>14500</v>
       </c>
       <c r="N243" t="inlineStr">
         <is>
@@ -17871,11 +17871,11 @@
       </c>
       <c r="O243" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P243" t="n">
-        <v>583</v>
+        <v>483</v>
       </c>
       <c r="Q243" t="n">
         <v>30</v>
@@ -17901,7 +17901,7 @@
         </is>
       </c>
       <c r="D244" s="2" t="n">
-        <v>44371</v>
+        <v>44433</v>
       </c>
       <c r="E244" t="n">
         <v>13</v>
@@ -17925,16 +17925,16 @@
         </is>
       </c>
       <c r="J244" t="n">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="K244" t="n">
-        <v>16000</v>
+        <v>12000</v>
       </c>
       <c r="L244" t="n">
-        <v>16000</v>
+        <v>13000</v>
       </c>
       <c r="M244" t="n">
-        <v>16000</v>
+        <v>12500</v>
       </c>
       <c r="N244" t="inlineStr">
         <is>
@@ -17943,11 +17943,11 @@
       </c>
       <c r="O244" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P244" t="n">
-        <v>400</v>
+        <v>312</v>
       </c>
       <c r="Q244" t="n">
         <v>40</v>
@@ -17973,7 +17973,7 @@
         </is>
       </c>
       <c r="D245" s="2" t="n">
-        <v>44316</v>
+        <v>44371</v>
       </c>
       <c r="E245" t="n">
         <v>13</v>
@@ -17988,29 +17988,29 @@
       </c>
       <c r="H245" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I245" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J245" t="n">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="K245" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="L245" t="n">
-        <v>18000</v>
+        <v>21000</v>
       </c>
       <c r="M245" t="n">
-        <v>18000</v>
+        <v>20500</v>
       </c>
       <c r="N245" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 25 unidades</t>
         </is>
       </c>
       <c r="O245" t="inlineStr">
@@ -18019,10 +18019,10 @@
         </is>
       </c>
       <c r="P245" t="n">
-        <v>360</v>
+        <v>20500</v>
       </c>
       <c r="Q245" t="n">
-        <v>50</v>
+        <v>1</v>
       </c>
       <c r="R245" t="inlineStr">
         <is>
@@ -18045,7 +18045,7 @@
         </is>
       </c>
       <c r="D246" s="2" t="n">
-        <v>44316</v>
+        <v>44371</v>
       </c>
       <c r="E246" t="n">
         <v>13</v>
@@ -18065,24 +18065,24 @@
       </c>
       <c r="I246" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J246" t="n">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="K246" t="n">
-        <v>18000</v>
+        <v>17000</v>
       </c>
       <c r="L246" t="n">
         <v>18000</v>
       </c>
       <c r="M246" t="n">
-        <v>18000</v>
+        <v>17500</v>
       </c>
       <c r="N246" t="inlineStr">
         <is>
-          <t>$/caja 25 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O246" t="inlineStr">
@@ -18091,10 +18091,10 @@
         </is>
       </c>
       <c r="P246" t="n">
-        <v>18000</v>
+        <v>583</v>
       </c>
       <c r="Q246" t="n">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="R246" t="inlineStr">
         <is>
@@ -18117,7 +18117,7 @@
         </is>
       </c>
       <c r="D247" s="2" t="n">
-        <v>44316</v>
+        <v>44371</v>
       </c>
       <c r="E247" t="n">
         <v>13</v>
@@ -18137,11 +18137,11 @@
       </c>
       <c r="I247" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J247" t="n">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="K247" t="n">
         <v>16000</v>
@@ -18154,7 +18154,7 @@
       </c>
       <c r="N247" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O247" t="inlineStr">
@@ -18163,10 +18163,10 @@
         </is>
       </c>
       <c r="P247" t="n">
-        <v>533</v>
+        <v>400</v>
       </c>
       <c r="Q247" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="R247" t="inlineStr">
         <is>
@@ -18189,7 +18189,7 @@
         </is>
       </c>
       <c r="D248" s="2" t="n">
-        <v>44397</v>
+        <v>44316</v>
       </c>
       <c r="E248" t="n">
         <v>13</v>
@@ -18204,29 +18204,29 @@
       </c>
       <c r="H248" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I248" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J248" t="n">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="K248" t="n">
-        <v>19000</v>
+        <v>18000</v>
       </c>
       <c r="L248" t="n">
-        <v>20000</v>
+        <v>18000</v>
       </c>
       <c r="M248" t="n">
-        <v>19500</v>
+        <v>18000</v>
       </c>
       <c r="N248" t="inlineStr">
         <is>
-          <t>$/caja 25 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O248" t="inlineStr">
@@ -18235,10 +18235,10 @@
         </is>
       </c>
       <c r="P248" t="n">
-        <v>19500</v>
+        <v>360</v>
       </c>
       <c r="Q248" t="n">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="R248" t="inlineStr">
         <is>
@@ -18261,7 +18261,7 @@
         </is>
       </c>
       <c r="D249" s="2" t="n">
-        <v>44397</v>
+        <v>44316</v>
       </c>
       <c r="E249" t="n">
         <v>13</v>
@@ -18281,24 +18281,24 @@
       </c>
       <c r="I249" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J249" t="n">
-        <v>43</v>
+        <v>18</v>
       </c>
       <c r="K249" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="L249" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="M249" t="n">
-        <v>16488</v>
+        <v>18000</v>
       </c>
       <c r="N249" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 25 unidades</t>
         </is>
       </c>
       <c r="O249" t="inlineStr">
@@ -18307,10 +18307,10 @@
         </is>
       </c>
       <c r="P249" t="n">
-        <v>550</v>
+        <v>18000</v>
       </c>
       <c r="Q249" t="n">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="R249" t="inlineStr">
         <is>
@@ -18333,7 +18333,7 @@
         </is>
       </c>
       <c r="D250" s="2" t="n">
-        <v>44397</v>
+        <v>44316</v>
       </c>
       <c r="E250" t="n">
         <v>13</v>
@@ -18353,24 +18353,24 @@
       </c>
       <c r="I250" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J250" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="K250" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="L250" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="M250" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="N250" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O250" t="inlineStr">
@@ -18379,10 +18379,10 @@
         </is>
       </c>
       <c r="P250" t="n">
-        <v>375</v>
+        <v>533</v>
       </c>
       <c r="Q250" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="R250" t="inlineStr">
         <is>
@@ -18405,7 +18405,7 @@
         </is>
       </c>
       <c r="D251" s="2" t="n">
-        <v>44363</v>
+        <v>44397</v>
       </c>
       <c r="E251" t="n">
         <v>13</v>
@@ -18420,41 +18420,41 @@
       </c>
       <c r="H251" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I251" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J251" t="n">
-        <v>52</v>
+        <v>16</v>
       </c>
       <c r="K251" t="n">
-        <v>16000</v>
+        <v>19000</v>
       </c>
       <c r="L251" t="n">
-        <v>17000</v>
+        <v>20000</v>
       </c>
       <c r="M251" t="n">
-        <v>16500</v>
+        <v>19500</v>
       </c>
       <c r="N251" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 25 unidades</t>
         </is>
       </c>
       <c r="O251" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P251" t="n">
-        <v>330</v>
+        <v>19500</v>
       </c>
       <c r="Q251" t="n">
-        <v>50</v>
+        <v>1</v>
       </c>
       <c r="R251" t="inlineStr">
         <is>
@@ -18477,7 +18477,7 @@
         </is>
       </c>
       <c r="D252" s="2" t="n">
-        <v>44363</v>
+        <v>44397</v>
       </c>
       <c r="E252" t="n">
         <v>13</v>
@@ -18501,16 +18501,16 @@
         </is>
       </c>
       <c r="J252" t="n">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="K252" t="n">
+        <v>16000</v>
+      </c>
+      <c r="L252" t="n">
         <v>17000</v>
       </c>
-      <c r="L252" t="n">
-        <v>18000</v>
-      </c>
       <c r="M252" t="n">
-        <v>17500</v>
+        <v>16488</v>
       </c>
       <c r="N252" t="inlineStr">
         <is>
@@ -18523,7 +18523,7 @@
         </is>
       </c>
       <c r="P252" t="n">
-        <v>583</v>
+        <v>550</v>
       </c>
       <c r="Q252" t="n">
         <v>30</v>
@@ -18549,7 +18549,7 @@
         </is>
       </c>
       <c r="D253" s="2" t="n">
-        <v>44438</v>
+        <v>44397</v>
       </c>
       <c r="E253" t="n">
         <v>13</v>
@@ -18569,11 +18569,11 @@
       </c>
       <c r="I253" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J253" t="n">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="K253" t="n">
         <v>15000</v>
@@ -18586,7 +18586,7 @@
       </c>
       <c r="N253" t="inlineStr">
         <is>
-          <t>$/caja 25 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O253" t="inlineStr">
@@ -18595,10 +18595,10 @@
         </is>
       </c>
       <c r="P253" t="n">
-        <v>15000</v>
+        <v>375</v>
       </c>
       <c r="Q253" t="n">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="R253" t="inlineStr">
         <is>
@@ -18621,7 +18621,7 @@
         </is>
       </c>
       <c r="D254" s="2" t="n">
-        <v>44438</v>
+        <v>44363</v>
       </c>
       <c r="E254" t="n">
         <v>13</v>
@@ -18636,7 +18636,7 @@
       </c>
       <c r="H254" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I254" t="inlineStr">
@@ -18645,32 +18645,32 @@
         </is>
       </c>
       <c r="J254" t="n">
-        <v>34</v>
+        <v>52</v>
       </c>
       <c r="K254" t="n">
-        <v>13000</v>
+        <v>16000</v>
       </c>
       <c r="L254" t="n">
-        <v>14000</v>
+        <v>17000</v>
       </c>
       <c r="M254" t="n">
-        <v>13500</v>
+        <v>16500</v>
       </c>
       <c r="N254" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O254" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P254" t="n">
-        <v>450</v>
+        <v>330</v>
       </c>
       <c r="Q254" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R254" t="inlineStr">
         <is>
@@ -18693,7 +18693,7 @@
         </is>
       </c>
       <c r="D255" s="2" t="n">
-        <v>44438</v>
+        <v>44363</v>
       </c>
       <c r="E255" t="n">
         <v>13</v>
@@ -18713,24 +18713,24 @@
       </c>
       <c r="I255" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J255" t="n">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="K255" t="n">
-        <v>11000</v>
+        <v>17000</v>
       </c>
       <c r="L255" t="n">
-        <v>12000</v>
+        <v>18000</v>
       </c>
       <c r="M255" t="n">
-        <v>11480</v>
+        <v>17500</v>
       </c>
       <c r="N255" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O255" t="inlineStr">
@@ -18739,10 +18739,10 @@
         </is>
       </c>
       <c r="P255" t="n">
-        <v>287</v>
+        <v>583</v>
       </c>
       <c r="Q255" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="R255" t="inlineStr">
         <is>
@@ -18765,7 +18765,7 @@
         </is>
       </c>
       <c r="D256" s="2" t="n">
-        <v>44372</v>
+        <v>44438</v>
       </c>
       <c r="E256" t="n">
         <v>13</v>
@@ -18780,7 +18780,7 @@
       </c>
       <c r="H256" t="inlineStr">
         <is>
-          <t>Madrigal</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I256" t="inlineStr">
@@ -18789,32 +18789,32 @@
         </is>
       </c>
       <c r="J256" t="n">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="K256" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="L256" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="M256" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="N256" t="inlineStr">
         <is>
-          <t>$/caja 35 unidades</t>
+          <t>$/caja 25 unidades</t>
         </is>
       </c>
       <c r="O256" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P256" t="n">
-        <v>571</v>
+        <v>15000</v>
       </c>
       <c r="Q256" t="n">
-        <v>35</v>
+        <v>1</v>
       </c>
       <c r="R256" t="inlineStr">
         <is>
@@ -18837,7 +18837,7 @@
         </is>
       </c>
       <c r="D257" s="2" t="n">
-        <v>44372</v>
+        <v>44438</v>
       </c>
       <c r="E257" t="n">
         <v>13</v>
@@ -18852,7 +18852,7 @@
       </c>
       <c r="H257" t="inlineStr">
         <is>
-          <t>Madrigal</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I257" t="inlineStr">
@@ -18861,32 +18861,32 @@
         </is>
       </c>
       <c r="J257" t="n">
-        <v>52</v>
+        <v>34</v>
       </c>
       <c r="K257" t="n">
-        <v>17000</v>
+        <v>13000</v>
       </c>
       <c r="L257" t="n">
-        <v>18000</v>
+        <v>14000</v>
       </c>
       <c r="M257" t="n">
-        <v>17500</v>
+        <v>13500</v>
       </c>
       <c r="N257" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O257" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P257" t="n">
-        <v>438</v>
+        <v>450</v>
       </c>
       <c r="Q257" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="R257" t="inlineStr">
         <is>
@@ -18909,7 +18909,7 @@
         </is>
       </c>
       <c r="D258" s="2" t="n">
-        <v>44372</v>
+        <v>44438</v>
       </c>
       <c r="E258" t="n">
         <v>13</v>
@@ -18924,7 +18924,7 @@
       </c>
       <c r="H258" t="inlineStr">
         <is>
-          <t>Madrigal</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I258" t="inlineStr">
@@ -18933,32 +18933,32 @@
         </is>
       </c>
       <c r="J258" t="n">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="K258" t="n">
-        <v>16000</v>
+        <v>11000</v>
       </c>
       <c r="L258" t="n">
-        <v>16000</v>
+        <v>12000</v>
       </c>
       <c r="M258" t="n">
-        <v>16000</v>
+        <v>11480</v>
       </c>
       <c r="N258" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O258" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P258" t="n">
-        <v>320</v>
+        <v>287</v>
       </c>
       <c r="Q258" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="R258" t="inlineStr">
         <is>
@@ -18981,7 +18981,7 @@
         </is>
       </c>
       <c r="D259" s="2" t="n">
-        <v>44356</v>
+        <v>44372</v>
       </c>
       <c r="E259" t="n">
         <v>13</v>
@@ -18996,29 +18996,29 @@
       </c>
       <c r="H259" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Madrigal</t>
         </is>
       </c>
       <c r="I259" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J259" t="n">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="K259" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="L259" t="n">
-        <v>16000</v>
+        <v>20000</v>
       </c>
       <c r="M259" t="n">
-        <v>15476</v>
+        <v>20000</v>
       </c>
       <c r="N259" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 35 unidades</t>
         </is>
       </c>
       <c r="O259" t="inlineStr">
@@ -19027,10 +19027,10 @@
         </is>
       </c>
       <c r="P259" t="n">
-        <v>310</v>
+        <v>571</v>
       </c>
       <c r="Q259" t="n">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="R259" t="inlineStr">
         <is>
@@ -19053,7 +19053,7 @@
         </is>
       </c>
       <c r="D260" s="2" t="n">
-        <v>44356</v>
+        <v>44372</v>
       </c>
       <c r="E260" t="n">
         <v>13</v>
@@ -19068,29 +19068,29 @@
       </c>
       <c r="H260" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Madrigal</t>
         </is>
       </c>
       <c r="I260" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J260" t="n">
-        <v>12</v>
+        <v>52</v>
       </c>
       <c r="K260" t="n">
-        <v>13000</v>
+        <v>17000</v>
       </c>
       <c r="L260" t="n">
-        <v>13000</v>
+        <v>18000</v>
       </c>
       <c r="M260" t="n">
-        <v>13000</v>
+        <v>17500</v>
       </c>
       <c r="N260" t="inlineStr">
         <is>
-          <t>$/caja 70 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O260" t="inlineStr">
@@ -19099,10 +19099,10 @@
         </is>
       </c>
       <c r="P260" t="n">
-        <v>186</v>
+        <v>438</v>
       </c>
       <c r="Q260" t="n">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="R260" t="inlineStr">
         <is>
@@ -19125,7 +19125,7 @@
         </is>
       </c>
       <c r="D261" s="2" t="n">
-        <v>44356</v>
+        <v>44372</v>
       </c>
       <c r="E261" t="n">
         <v>13</v>
@@ -19140,41 +19140,41 @@
       </c>
       <c r="H261" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Madrigal</t>
         </is>
       </c>
       <c r="I261" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J261" t="n">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="K261" t="n">
-        <v>17000</v>
+        <v>16000</v>
       </c>
       <c r="L261" t="n">
-        <v>18000</v>
+        <v>16000</v>
       </c>
       <c r="M261" t="n">
-        <v>17520</v>
+        <v>16000</v>
       </c>
       <c r="N261" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O261" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P261" t="n">
-        <v>584</v>
+        <v>320</v>
       </c>
       <c r="Q261" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R261" t="inlineStr">
         <is>
@@ -19212,41 +19212,41 @@
       </c>
       <c r="H262" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I262" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J262" t="n">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="K262" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="L262" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="M262" t="n">
-        <v>14500</v>
+        <v>15476</v>
       </c>
       <c r="N262" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O262" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P262" t="n">
-        <v>483</v>
+        <v>310</v>
       </c>
       <c r="Q262" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R262" t="inlineStr">
         <is>
@@ -19269,7 +19269,7 @@
         </is>
       </c>
       <c r="D263" s="2" t="n">
-        <v>44351</v>
+        <v>44356</v>
       </c>
       <c r="E263" t="n">
         <v>13</v>
@@ -19289,36 +19289,36 @@
       </c>
       <c r="I263" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J263" t="n">
-        <v>43</v>
+        <v>12</v>
       </c>
       <c r="K263" t="n">
-        <v>16000</v>
+        <v>13000</v>
       </c>
       <c r="L263" t="n">
-        <v>17000</v>
+        <v>13000</v>
       </c>
       <c r="M263" t="n">
-        <v>16512</v>
+        <v>13000</v>
       </c>
       <c r="N263" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 70 unidades</t>
         </is>
       </c>
       <c r="O263" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P263" t="n">
-        <v>330</v>
+        <v>186</v>
       </c>
       <c r="Q263" t="n">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="R263" t="inlineStr">
         <is>
@@ -19341,7 +19341,7 @@
         </is>
       </c>
       <c r="D264" s="2" t="n">
-        <v>44351</v>
+        <v>44356</v>
       </c>
       <c r="E264" t="n">
         <v>13</v>
@@ -19356,29 +19356,29 @@
       </c>
       <c r="H264" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I264" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J264" t="n">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="K264" t="n">
-        <v>15000</v>
+        <v>17000</v>
       </c>
       <c r="L264" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="M264" t="n">
-        <v>15000</v>
+        <v>17520</v>
       </c>
       <c r="N264" t="inlineStr">
         <is>
-          <t>$/caja 70 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O264" t="inlineStr">
@@ -19387,10 +19387,10 @@
         </is>
       </c>
       <c r="P264" t="n">
-        <v>214</v>
+        <v>584</v>
       </c>
       <c r="Q264" t="n">
-        <v>70</v>
+        <v>30</v>
       </c>
       <c r="R264" t="inlineStr">
         <is>
@@ -19413,7 +19413,7 @@
         </is>
       </c>
       <c r="D265" s="2" t="n">
-        <v>44351</v>
+        <v>44356</v>
       </c>
       <c r="E265" t="n">
         <v>13</v>
@@ -19433,36 +19433,36 @@
       </c>
       <c r="I265" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J265" t="n">
         <v>16</v>
       </c>
       <c r="K265" t="n">
-        <v>20000</v>
+        <v>14000</v>
       </c>
       <c r="L265" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="M265" t="n">
-        <v>20000</v>
+        <v>14500</v>
       </c>
       <c r="N265" t="inlineStr">
         <is>
-          <t>$/caja 25 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O265" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P265" t="n">
-        <v>20000</v>
+        <v>483</v>
       </c>
       <c r="Q265" t="n">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="R265" t="inlineStr">
         <is>
@@ -19500,7 +19500,7 @@
       </c>
       <c r="H266" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I266" t="inlineStr">
@@ -19509,32 +19509,32 @@
         </is>
       </c>
       <c r="J266" t="n">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="K266" t="n">
+        <v>16000</v>
+      </c>
+      <c r="L266" t="n">
         <v>17000</v>
       </c>
-      <c r="L266" t="n">
-        <v>18000</v>
-      </c>
       <c r="M266" t="n">
-        <v>17500</v>
+        <v>16512</v>
       </c>
       <c r="N266" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O266" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P266" t="n">
-        <v>583</v>
+        <v>330</v>
       </c>
       <c r="Q266" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R266" t="inlineStr">
         <is>
@@ -19572,7 +19572,7 @@
       </c>
       <c r="H267" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I267" t="inlineStr">
@@ -19581,7 +19581,7 @@
         </is>
       </c>
       <c r="J267" t="n">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="K267" t="n">
         <v>15000</v>
@@ -19594,19 +19594,19 @@
       </c>
       <c r="N267" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 70 unidades</t>
         </is>
       </c>
       <c r="O267" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P267" t="n">
-        <v>375</v>
+        <v>214</v>
       </c>
       <c r="Q267" t="n">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="R267" t="inlineStr">
         <is>
@@ -19629,7 +19629,7 @@
         </is>
       </c>
       <c r="D268" s="2" t="n">
-        <v>44365</v>
+        <v>44351</v>
       </c>
       <c r="E268" t="n">
         <v>13</v>
@@ -19644,29 +19644,29 @@
       </c>
       <c r="H268" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I268" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J268" t="n">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="K268" t="n">
-        <v>16000</v>
+        <v>20000</v>
       </c>
       <c r="L268" t="n">
-        <v>17000</v>
+        <v>20000</v>
       </c>
       <c r="M268" t="n">
-        <v>16500</v>
+        <v>20000</v>
       </c>
       <c r="N268" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 25 unidades</t>
         </is>
       </c>
       <c r="O268" t="inlineStr">
@@ -19675,10 +19675,10 @@
         </is>
       </c>
       <c r="P268" t="n">
-        <v>330</v>
+        <v>20000</v>
       </c>
       <c r="Q268" t="n">
-        <v>50</v>
+        <v>1</v>
       </c>
       <c r="R268" t="inlineStr">
         <is>
@@ -19701,7 +19701,7 @@
         </is>
       </c>
       <c r="D269" s="2" t="n">
-        <v>44365</v>
+        <v>44351</v>
       </c>
       <c r="E269" t="n">
         <v>13</v>
@@ -19716,29 +19716,29 @@
       </c>
       <c r="H269" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I269" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J269" t="n">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="K269" t="n">
-        <v>15000</v>
+        <v>17000</v>
       </c>
       <c r="L269" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="M269" t="n">
-        <v>15000</v>
+        <v>17500</v>
       </c>
       <c r="N269" t="inlineStr">
         <is>
-          <t>$/caja 70 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O269" t="inlineStr">
@@ -19747,10 +19747,10 @@
         </is>
       </c>
       <c r="P269" t="n">
-        <v>214</v>
+        <v>583</v>
       </c>
       <c r="Q269" t="n">
-        <v>70</v>
+        <v>30</v>
       </c>
       <c r="R269" t="inlineStr">
         <is>
@@ -19773,7 +19773,7 @@
         </is>
       </c>
       <c r="D270" s="2" t="n">
-        <v>44365</v>
+        <v>44351</v>
       </c>
       <c r="E270" t="n">
         <v>13</v>
@@ -19793,24 +19793,24 @@
       </c>
       <c r="I270" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J270" t="n">
-        <v>36</v>
+        <v>16</v>
       </c>
       <c r="K270" t="n">
-        <v>17000</v>
+        <v>15000</v>
       </c>
       <c r="L270" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="M270" t="n">
-        <v>17500</v>
+        <v>15000</v>
       </c>
       <c r="N270" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O270" t="inlineStr">
@@ -19819,10 +19819,10 @@
         </is>
       </c>
       <c r="P270" t="n">
-        <v>583</v>
+        <v>375</v>
       </c>
       <c r="Q270" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="R270" t="inlineStr">
         <is>
@@ -19860,29 +19860,29 @@
       </c>
       <c r="H271" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I271" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J271" t="n">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="K271" t="n">
         <v>16000</v>
       </c>
       <c r="L271" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="M271" t="n">
-        <v>16000</v>
+        <v>16500</v>
       </c>
       <c r="N271" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O271" t="inlineStr">
@@ -19891,10 +19891,10 @@
         </is>
       </c>
       <c r="P271" t="n">
-        <v>400</v>
+        <v>330</v>
       </c>
       <c r="Q271" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="R271" t="inlineStr">
         <is>
@@ -19917,7 +19917,7 @@
         </is>
       </c>
       <c r="D272" s="2" t="n">
-        <v>44306</v>
+        <v>44365</v>
       </c>
       <c r="E272" t="n">
         <v>13</v>
@@ -19932,41 +19932,41 @@
       </c>
       <c r="H272" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I272" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J272" t="n">
         <v>16</v>
       </c>
       <c r="K272" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="L272" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="M272" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="N272" t="inlineStr">
         <is>
-          <t>$/caja 25 unidades</t>
+          <t>$/caja 70 unidades</t>
         </is>
       </c>
       <c r="O272" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P272" t="n">
-        <v>20000</v>
+        <v>214</v>
       </c>
       <c r="Q272" t="n">
-        <v>1</v>
+        <v>70</v>
       </c>
       <c r="R272" t="inlineStr">
         <is>
@@ -19989,7 +19989,7 @@
         </is>
       </c>
       <c r="D273" s="2" t="n">
-        <v>44306</v>
+        <v>44365</v>
       </c>
       <c r="E273" t="n">
         <v>13</v>
@@ -20013,16 +20013,16 @@
         </is>
       </c>
       <c r="J273" t="n">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="K273" t="n">
-        <v>18000</v>
+        <v>17000</v>
       </c>
       <c r="L273" t="n">
         <v>18000</v>
       </c>
       <c r="M273" t="n">
-        <v>18000</v>
+        <v>17500</v>
       </c>
       <c r="N273" t="inlineStr">
         <is>
@@ -20031,11 +20031,11 @@
       </c>
       <c r="O273" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P273" t="n">
-        <v>600</v>
+        <v>583</v>
       </c>
       <c r="Q273" t="n">
         <v>30</v>
@@ -20061,7 +20061,7 @@
         </is>
       </c>
       <c r="D274" s="2" t="n">
-        <v>44461</v>
+        <v>44365</v>
       </c>
       <c r="E274" t="n">
         <v>13</v>
@@ -20081,36 +20081,36 @@
       </c>
       <c r="I274" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J274" t="n">
-        <v>52</v>
+        <v>25</v>
       </c>
       <c r="K274" t="n">
-        <v>12000</v>
+        <v>16000</v>
       </c>
       <c r="L274" t="n">
-        <v>13000</v>
+        <v>16000</v>
       </c>
       <c r="M274" t="n">
-        <v>12500</v>
+        <v>16000</v>
       </c>
       <c r="N274" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O274" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P274" t="n">
-        <v>417</v>
+        <v>400</v>
       </c>
       <c r="Q274" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="R274" t="inlineStr">
         <is>
@@ -20133,7 +20133,7 @@
         </is>
       </c>
       <c r="D275" s="2" t="n">
-        <v>44461</v>
+        <v>44306</v>
       </c>
       <c r="E275" t="n">
         <v>13</v>
@@ -20153,24 +20153,24 @@
       </c>
       <c r="I275" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J275" t="n">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="K275" t="n">
-        <v>10000</v>
+        <v>20000</v>
       </c>
       <c r="L275" t="n">
-        <v>11000</v>
+        <v>20000</v>
       </c>
       <c r="M275" t="n">
-        <v>10480</v>
+        <v>20000</v>
       </c>
       <c r="N275" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 25 unidades</t>
         </is>
       </c>
       <c r="O275" t="inlineStr">
@@ -20179,10 +20179,10 @@
         </is>
       </c>
       <c r="P275" t="n">
-        <v>262</v>
+        <v>20000</v>
       </c>
       <c r="Q275" t="n">
-        <v>40</v>
+        <v>1</v>
       </c>
       <c r="R275" t="inlineStr">
         <is>
@@ -20205,7 +20205,7 @@
         </is>
       </c>
       <c r="D276" s="2" t="n">
-        <v>44357</v>
+        <v>44306</v>
       </c>
       <c r="E276" t="n">
         <v>13</v>
@@ -20220,7 +20220,7 @@
       </c>
       <c r="H276" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I276" t="inlineStr">
@@ -20229,20 +20229,20 @@
         </is>
       </c>
       <c r="J276" t="n">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="K276" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="L276" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="M276" t="n">
-        <v>15500</v>
+        <v>18000</v>
       </c>
       <c r="N276" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O276" t="inlineStr">
@@ -20251,10 +20251,10 @@
         </is>
       </c>
       <c r="P276" t="n">
-        <v>310</v>
+        <v>600</v>
       </c>
       <c r="Q276" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R276" t="inlineStr">
         <is>
@@ -20277,7 +20277,7 @@
         </is>
       </c>
       <c r="D277" s="2" t="n">
-        <v>44357</v>
+        <v>44461</v>
       </c>
       <c r="E277" t="n">
         <v>13</v>
@@ -20292,29 +20292,29 @@
       </c>
       <c r="H277" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I277" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J277" t="n">
-        <v>16</v>
+        <v>52</v>
       </c>
       <c r="K277" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="L277" t="n">
         <v>13000</v>
       </c>
       <c r="M277" t="n">
-        <v>13000</v>
+        <v>12500</v>
       </c>
       <c r="N277" t="inlineStr">
         <is>
-          <t>$/caja 70 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O277" t="inlineStr">
@@ -20323,10 +20323,10 @@
         </is>
       </c>
       <c r="P277" t="n">
-        <v>186</v>
+        <v>417</v>
       </c>
       <c r="Q277" t="n">
-        <v>70</v>
+        <v>30</v>
       </c>
       <c r="R277" t="inlineStr">
         <is>
@@ -20349,7 +20349,7 @@
         </is>
       </c>
       <c r="D278" s="2" t="n">
-        <v>44357</v>
+        <v>44461</v>
       </c>
       <c r="E278" t="n">
         <v>13</v>
@@ -20369,36 +20369,36 @@
       </c>
       <c r="I278" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J278" t="n">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="K278" t="n">
-        <v>19000</v>
+        <v>10000</v>
       </c>
       <c r="L278" t="n">
-        <v>20000</v>
+        <v>11000</v>
       </c>
       <c r="M278" t="n">
-        <v>19500</v>
+        <v>10480</v>
       </c>
       <c r="N278" t="inlineStr">
         <is>
-          <t>$/caja 25 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O278" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P278" t="n">
-        <v>19500</v>
+        <v>262</v>
       </c>
       <c r="Q278" t="n">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="R278" t="inlineStr">
         <is>
@@ -20436,7 +20436,7 @@
       </c>
       <c r="H279" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I279" t="inlineStr">
@@ -20448,29 +20448,29 @@
         <v>34</v>
       </c>
       <c r="K279" t="n">
-        <v>17000</v>
+        <v>15000</v>
       </c>
       <c r="L279" t="n">
-        <v>18000</v>
+        <v>16000</v>
       </c>
       <c r="M279" t="n">
-        <v>17500</v>
+        <v>15500</v>
       </c>
       <c r="N279" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O279" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P279" t="n">
-        <v>583</v>
+        <v>310</v>
       </c>
       <c r="Q279" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R279" t="inlineStr">
         <is>
@@ -20508,7 +20508,7 @@
       </c>
       <c r="H280" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I280" t="inlineStr">
@@ -20517,32 +20517,32 @@
         </is>
       </c>
       <c r="J280" t="n">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="K280" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="L280" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="M280" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="N280" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 70 unidades</t>
         </is>
       </c>
       <c r="O280" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P280" t="n">
-        <v>375</v>
+        <v>186</v>
       </c>
       <c r="Q280" t="n">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="R280" t="inlineStr">
         <is>
@@ -20565,7 +20565,7 @@
         </is>
       </c>
       <c r="D281" s="2" t="n">
-        <v>44162</v>
+        <v>44357</v>
       </c>
       <c r="E281" t="n">
         <v>13</v>
@@ -20585,36 +20585,36 @@
       </c>
       <c r="I281" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J281" t="n">
-        <v>300</v>
+        <v>16</v>
       </c>
       <c r="K281" t="n">
-        <v>9000</v>
+        <v>19000</v>
       </c>
       <c r="L281" t="n">
-        <v>9000</v>
+        <v>20000</v>
       </c>
       <c r="M281" t="n">
-        <v>9000</v>
+        <v>19500</v>
       </c>
       <c r="N281" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 25 unidades</t>
         </is>
       </c>
       <c r="O281" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P281" t="n">
-        <v>300</v>
+        <v>19500</v>
       </c>
       <c r="Q281" t="n">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="R281" t="inlineStr">
         <is>
@@ -20637,7 +20637,7 @@
         </is>
       </c>
       <c r="D282" s="2" t="n">
-        <v>44411</v>
+        <v>44357</v>
       </c>
       <c r="E282" t="n">
         <v>13</v>
@@ -20657,36 +20657,36 @@
       </c>
       <c r="I282" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J282" t="n">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="K282" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="L282" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="M282" t="n">
-        <v>16000</v>
+        <v>17500</v>
       </c>
       <c r="N282" t="inlineStr">
         <is>
-          <t>$/caja 25 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O282" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P282" t="n">
-        <v>16000</v>
+        <v>583</v>
       </c>
       <c r="Q282" t="n">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="R282" t="inlineStr">
         <is>
@@ -20709,7 +20709,7 @@
         </is>
       </c>
       <c r="D283" s="2" t="n">
-        <v>44411</v>
+        <v>44357</v>
       </c>
       <c r="E283" t="n">
         <v>13</v>
@@ -20729,36 +20729,36 @@
       </c>
       <c r="I283" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J283" t="n">
-        <v>61</v>
+        <v>25</v>
       </c>
       <c r="K283" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="L283" t="n">
         <v>15000</v>
       </c>
       <c r="M283" t="n">
-        <v>14492</v>
+        <v>15000</v>
       </c>
       <c r="N283" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O283" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P283" t="n">
-        <v>483</v>
+        <v>375</v>
       </c>
       <c r="Q283" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="R283" t="inlineStr">
         <is>
@@ -20781,7 +20781,7 @@
         </is>
       </c>
       <c r="D284" s="2" t="n">
-        <v>44411</v>
+        <v>44162</v>
       </c>
       <c r="E284" t="n">
         <v>13</v>
@@ -20801,36 +20801,36 @@
       </c>
       <c r="I284" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J284" t="n">
-        <v>25</v>
+        <v>300</v>
       </c>
       <c r="K284" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="L284" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="M284" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="N284" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O284" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P284" t="n">
         <v>300</v>
       </c>
       <c r="Q284" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="R284" t="inlineStr">
         <is>
@@ -20853,7 +20853,7 @@
         </is>
       </c>
       <c r="D285" s="2" t="n">
-        <v>44376</v>
+        <v>44411</v>
       </c>
       <c r="E285" t="n">
         <v>13</v>
@@ -20880,13 +20880,13 @@
         <v>16</v>
       </c>
       <c r="K285" t="n">
-        <v>21000</v>
+        <v>16000</v>
       </c>
       <c r="L285" t="n">
-        <v>22000</v>
+        <v>16000</v>
       </c>
       <c r="M285" t="n">
-        <v>21500</v>
+        <v>16000</v>
       </c>
       <c r="N285" t="inlineStr">
         <is>
@@ -20895,11 +20895,11 @@
       </c>
       <c r="O285" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P285" t="n">
-        <v>21500</v>
+        <v>16000</v>
       </c>
       <c r="Q285" t="n">
         <v>1</v>
@@ -20925,7 +20925,7 @@
         </is>
       </c>
       <c r="D286" s="2" t="n">
-        <v>44376</v>
+        <v>44411</v>
       </c>
       <c r="E286" t="n">
         <v>13</v>
@@ -20949,16 +20949,16 @@
         </is>
       </c>
       <c r="J286" t="n">
-        <v>34</v>
+        <v>61</v>
       </c>
       <c r="K286" t="n">
-        <v>19000</v>
+        <v>14000</v>
       </c>
       <c r="L286" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="M286" t="n">
-        <v>19500</v>
+        <v>14492</v>
       </c>
       <c r="N286" t="inlineStr">
         <is>
@@ -20967,11 +20967,11 @@
       </c>
       <c r="O286" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P286" t="n">
-        <v>650</v>
+        <v>483</v>
       </c>
       <c r="Q286" t="n">
         <v>30</v>
@@ -20997,7 +20997,7 @@
         </is>
       </c>
       <c r="D287" s="2" t="n">
-        <v>44376</v>
+        <v>44411</v>
       </c>
       <c r="E287" t="n">
         <v>13</v>
@@ -21024,13 +21024,13 @@
         <v>25</v>
       </c>
       <c r="K287" t="n">
-        <v>16000</v>
+        <v>12000</v>
       </c>
       <c r="L287" t="n">
-        <v>17000</v>
+        <v>12000</v>
       </c>
       <c r="M287" t="n">
-        <v>16480</v>
+        <v>12000</v>
       </c>
       <c r="N287" t="inlineStr">
         <is>
@@ -21039,11 +21039,11 @@
       </c>
       <c r="O287" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P287" t="n">
-        <v>412</v>
+        <v>300</v>
       </c>
       <c r="Q287" t="n">
         <v>40</v>
@@ -21069,7 +21069,7 @@
         </is>
       </c>
       <c r="D288" s="2" t="n">
-        <v>44292</v>
+        <v>44376</v>
       </c>
       <c r="E288" t="n">
         <v>13</v>
@@ -21089,36 +21089,36 @@
       </c>
       <c r="I288" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J288" t="n">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="K288" t="n">
-        <v>18000</v>
+        <v>21000</v>
       </c>
       <c r="L288" t="n">
-        <v>18000</v>
+        <v>22000</v>
       </c>
       <c r="M288" t="n">
-        <v>18000</v>
+        <v>21500</v>
       </c>
       <c r="N288" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 25 unidades</t>
         </is>
       </c>
       <c r="O288" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P288" t="n">
-        <v>600</v>
+        <v>21500</v>
       </c>
       <c r="Q288" t="n">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="R288" t="inlineStr">
         <is>
@@ -21141,7 +21141,7 @@
         </is>
       </c>
       <c r="D289" s="2" t="n">
-        <v>44358</v>
+        <v>44376</v>
       </c>
       <c r="E289" t="n">
         <v>13</v>
@@ -21156,7 +21156,7 @@
       </c>
       <c r="H289" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I289" t="inlineStr">
@@ -21165,20 +21165,20 @@
         </is>
       </c>
       <c r="J289" t="n">
-        <v>52</v>
+        <v>34</v>
       </c>
       <c r="K289" t="n">
-        <v>15000</v>
+        <v>19000</v>
       </c>
       <c r="L289" t="n">
-        <v>16000</v>
+        <v>20000</v>
       </c>
       <c r="M289" t="n">
-        <v>15500</v>
+        <v>19500</v>
       </c>
       <c r="N289" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O289" t="inlineStr">
@@ -21187,10 +21187,10 @@
         </is>
       </c>
       <c r="P289" t="n">
-        <v>310</v>
+        <v>650</v>
       </c>
       <c r="Q289" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R289" t="inlineStr">
         <is>
@@ -21213,7 +21213,7 @@
         </is>
       </c>
       <c r="D290" s="2" t="n">
-        <v>44358</v>
+        <v>44376</v>
       </c>
       <c r="E290" t="n">
         <v>13</v>
@@ -21228,7 +21228,7 @@
       </c>
       <c r="H290" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I290" t="inlineStr">
@@ -21237,20 +21237,20 @@
         </is>
       </c>
       <c r="J290" t="n">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="K290" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="L290" t="n">
-        <v>14000</v>
+        <v>17000</v>
       </c>
       <c r="M290" t="n">
-        <v>14000</v>
+        <v>16480</v>
       </c>
       <c r="N290" t="inlineStr">
         <is>
-          <t>$/caja 70 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O290" t="inlineStr">
@@ -21259,10 +21259,10 @@
         </is>
       </c>
       <c r="P290" t="n">
-        <v>200</v>
+        <v>412</v>
       </c>
       <c r="Q290" t="n">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="R290" t="inlineStr">
         <is>
@@ -21285,7 +21285,7 @@
         </is>
       </c>
       <c r="D291" s="2" t="n">
-        <v>44358</v>
+        <v>44292</v>
       </c>
       <c r="E291" t="n">
         <v>13</v>
@@ -21305,24 +21305,24 @@
       </c>
       <c r="I291" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J291" t="n">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="K291" t="n">
         <v>18000</v>
       </c>
       <c r="L291" t="n">
-        <v>19000</v>
+        <v>18000</v>
       </c>
       <c r="M291" t="n">
-        <v>18500</v>
+        <v>18000</v>
       </c>
       <c r="N291" t="inlineStr">
         <is>
-          <t>$/caja 25 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O291" t="inlineStr">
@@ -21331,10 +21331,10 @@
         </is>
       </c>
       <c r="P291" t="n">
-        <v>18500</v>
+        <v>600</v>
       </c>
       <c r="Q291" t="n">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="R291" t="inlineStr">
         <is>
@@ -21372,7 +21372,7 @@
       </c>
       <c r="H292" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I292" t="inlineStr">
@@ -21381,7 +21381,7 @@
         </is>
       </c>
       <c r="J292" t="n">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="K292" t="n">
         <v>15000</v>
@@ -21390,23 +21390,23 @@
         <v>16000</v>
       </c>
       <c r="M292" t="n">
-        <v>15488</v>
+        <v>15500</v>
       </c>
       <c r="N292" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O292" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P292" t="n">
-        <v>516</v>
+        <v>310</v>
       </c>
       <c r="Q292" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R292" t="inlineStr">
         <is>
@@ -21444,7 +21444,7 @@
       </c>
       <c r="H293" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I293" t="inlineStr">
@@ -21453,7 +21453,7 @@
         </is>
       </c>
       <c r="J293" t="n">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="K293" t="n">
         <v>14000</v>
@@ -21466,19 +21466,19 @@
       </c>
       <c r="N293" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 70 unidades</t>
         </is>
       </c>
       <c r="O293" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P293" t="n">
-        <v>350</v>
+        <v>200</v>
       </c>
       <c r="Q293" t="n">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="R293" t="inlineStr">
         <is>
@@ -21501,7 +21501,7 @@
         </is>
       </c>
       <c r="D294" s="2" t="n">
-        <v>44425</v>
+        <v>44358</v>
       </c>
       <c r="E294" t="n">
         <v>13</v>
@@ -21525,16 +21525,16 @@
         </is>
       </c>
       <c r="J294" t="n">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="K294" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="L294" t="n">
-        <v>16000</v>
+        <v>19000</v>
       </c>
       <c r="M294" t="n">
-        <v>16000</v>
+        <v>18500</v>
       </c>
       <c r="N294" t="inlineStr">
         <is>
@@ -21547,7 +21547,7 @@
         </is>
       </c>
       <c r="P294" t="n">
-        <v>16000</v>
+        <v>18500</v>
       </c>
       <c r="Q294" t="n">
         <v>1</v>
@@ -21573,7 +21573,7 @@
         </is>
       </c>
       <c r="D295" s="2" t="n">
-        <v>44425</v>
+        <v>44358</v>
       </c>
       <c r="E295" t="n">
         <v>13</v>
@@ -21597,16 +21597,16 @@
         </is>
       </c>
       <c r="J295" t="n">
-        <v>61</v>
+        <v>43</v>
       </c>
       <c r="K295" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="L295" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="M295" t="n">
-        <v>14508</v>
+        <v>15488</v>
       </c>
       <c r="N295" t="inlineStr">
         <is>
@@ -21619,7 +21619,7 @@
         </is>
       </c>
       <c r="P295" t="n">
-        <v>484</v>
+        <v>516</v>
       </c>
       <c r="Q295" t="n">
         <v>30</v>
@@ -21645,7 +21645,7 @@
         </is>
       </c>
       <c r="D296" s="2" t="n">
-        <v>44425</v>
+        <v>44358</v>
       </c>
       <c r="E296" t="n">
         <v>13</v>
@@ -21669,16 +21669,16 @@
         </is>
       </c>
       <c r="J296" t="n">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="K296" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="L296" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="M296" t="n">
-        <v>12500</v>
+        <v>14000</v>
       </c>
       <c r="N296" t="inlineStr">
         <is>
@@ -21691,7 +21691,7 @@
         </is>
       </c>
       <c r="P296" t="n">
-        <v>312</v>
+        <v>350</v>
       </c>
       <c r="Q296" t="n">
         <v>40</v>
@@ -21732,29 +21732,29 @@
       </c>
       <c r="H297" t="inlineStr">
         <is>
-          <t>Madrigal</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I297" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J297" t="n">
-        <v>43</v>
+        <v>25</v>
       </c>
       <c r="K297" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="L297" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="M297" t="n">
-        <v>14512</v>
+        <v>16000</v>
       </c>
       <c r="N297" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 25 unidades</t>
         </is>
       </c>
       <c r="O297" t="inlineStr">
@@ -21763,10 +21763,10 @@
         </is>
       </c>
       <c r="P297" t="n">
-        <v>363</v>
+        <v>16000</v>
       </c>
       <c r="Q297" t="n">
-        <v>40</v>
+        <v>1</v>
       </c>
       <c r="R297" t="inlineStr">
         <is>
@@ -21804,29 +21804,29 @@
       </c>
       <c r="H298" t="inlineStr">
         <is>
-          <t>Madrigal</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I298" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J298" t="n">
-        <v>25</v>
+        <v>61</v>
       </c>
       <c r="K298" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="L298" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="M298" t="n">
-        <v>12480</v>
+        <v>14508</v>
       </c>
       <c r="N298" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O298" t="inlineStr">
@@ -21835,10 +21835,10 @@
         </is>
       </c>
       <c r="P298" t="n">
-        <v>250</v>
+        <v>484</v>
       </c>
       <c r="Q298" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R298" t="inlineStr">
         <is>
@@ -21861,7 +21861,7 @@
         </is>
       </c>
       <c r="D299" s="2" t="n">
-        <v>44323</v>
+        <v>44425</v>
       </c>
       <c r="E299" t="n">
         <v>13</v>
@@ -21876,29 +21876,29 @@
       </c>
       <c r="H299" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I299" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J299" t="n">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="K299" t="n">
-        <v>18000</v>
+        <v>12000</v>
       </c>
       <c r="L299" t="n">
-        <v>18000</v>
+        <v>13000</v>
       </c>
       <c r="M299" t="n">
-        <v>18000</v>
+        <v>12500</v>
       </c>
       <c r="N299" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O299" t="inlineStr">
@@ -21907,10 +21907,10 @@
         </is>
       </c>
       <c r="P299" t="n">
-        <v>360</v>
+        <v>312</v>
       </c>
       <c r="Q299" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="R299" t="inlineStr">
         <is>
@@ -21933,7 +21933,7 @@
         </is>
       </c>
       <c r="D300" s="2" t="n">
-        <v>44323</v>
+        <v>44425</v>
       </c>
       <c r="E300" t="n">
         <v>13</v>
@@ -21948,29 +21948,29 @@
       </c>
       <c r="H300" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Madrigal</t>
         </is>
       </c>
       <c r="I300" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J300" t="n">
-        <v>16</v>
+        <v>43</v>
       </c>
       <c r="K300" t="n">
-        <v>18000</v>
+        <v>14000</v>
       </c>
       <c r="L300" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="M300" t="n">
-        <v>18000</v>
+        <v>14512</v>
       </c>
       <c r="N300" t="inlineStr">
         <is>
-          <t>$/caja 25 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O300" t="inlineStr">
@@ -21979,10 +21979,10 @@
         </is>
       </c>
       <c r="P300" t="n">
-        <v>18000</v>
+        <v>363</v>
       </c>
       <c r="Q300" t="n">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="R300" t="inlineStr">
         <is>
@@ -22005,7 +22005,7 @@
         </is>
       </c>
       <c r="D301" s="2" t="n">
-        <v>44323</v>
+        <v>44425</v>
       </c>
       <c r="E301" t="n">
         <v>13</v>
@@ -22020,43 +22020,259 @@
       </c>
       <c r="H301" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Madrigal</t>
         </is>
       </c>
       <c r="I301" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J301" t="n">
         <v>25</v>
       </c>
       <c r="K301" t="n">
+        <v>12000</v>
+      </c>
+      <c r="L301" t="n">
+        <v>13000</v>
+      </c>
+      <c r="M301" t="n">
+        <v>12480</v>
+      </c>
+      <c r="N301" t="inlineStr">
+        <is>
+          <t>$/caja 50 unidades</t>
+        </is>
+      </c>
+      <c r="O301" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P301" t="n">
+        <v>250</v>
+      </c>
+      <c r="Q301" t="n">
+        <v>50</v>
+      </c>
+      <c r="R301" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" t="n">
+        <v>9</v>
+      </c>
+      <c r="B302" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C302" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D302" s="2" t="n">
+        <v>44323</v>
+      </c>
+      <c r="E302" t="n">
+        <v>13</v>
+      </c>
+      <c r="F302" t="n">
+        <v>100112013</v>
+      </c>
+      <c r="G302" t="inlineStr">
+        <is>
+          <t>Alcachofa</t>
+        </is>
+      </c>
+      <c r="H302" t="inlineStr">
+        <is>
+          <t>Argentina(o)</t>
+        </is>
+      </c>
+      <c r="I302" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J302" t="n">
+        <v>16</v>
+      </c>
+      <c r="K302" t="n">
+        <v>18000</v>
+      </c>
+      <c r="L302" t="n">
+        <v>18000</v>
+      </c>
+      <c r="M302" t="n">
+        <v>18000</v>
+      </c>
+      <c r="N302" t="inlineStr">
+        <is>
+          <t>$/caja 50 unidades</t>
+        </is>
+      </c>
+      <c r="O302" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P302" t="n">
+        <v>360</v>
+      </c>
+      <c r="Q302" t="n">
+        <v>50</v>
+      </c>
+      <c r="R302" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" t="n">
+        <v>9</v>
+      </c>
+      <c r="B303" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C303" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D303" s="2" t="n">
+        <v>44323</v>
+      </c>
+      <c r="E303" t="n">
+        <v>13</v>
+      </c>
+      <c r="F303" t="n">
+        <v>100112013</v>
+      </c>
+      <c r="G303" t="inlineStr">
+        <is>
+          <t>Alcachofa</t>
+        </is>
+      </c>
+      <c r="H303" t="inlineStr">
+        <is>
+          <t>Española</t>
+        </is>
+      </c>
+      <c r="I303" t="inlineStr">
+        <is>
+          <t>Extra</t>
+        </is>
+      </c>
+      <c r="J303" t="n">
+        <v>16</v>
+      </c>
+      <c r="K303" t="n">
+        <v>18000</v>
+      </c>
+      <c r="L303" t="n">
+        <v>18000</v>
+      </c>
+      <c r="M303" t="n">
+        <v>18000</v>
+      </c>
+      <c r="N303" t="inlineStr">
+        <is>
+          <t>$/caja 25 unidades</t>
+        </is>
+      </c>
+      <c r="O303" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P303" t="n">
+        <v>18000</v>
+      </c>
+      <c r="Q303" t="n">
+        <v>1</v>
+      </c>
+      <c r="R303" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" t="n">
+        <v>9</v>
+      </c>
+      <c r="B304" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C304" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D304" s="2" t="n">
+        <v>44323</v>
+      </c>
+      <c r="E304" t="n">
+        <v>13</v>
+      </c>
+      <c r="F304" t="n">
+        <v>100112013</v>
+      </c>
+      <c r="G304" t="inlineStr">
+        <is>
+          <t>Alcachofa</t>
+        </is>
+      </c>
+      <c r="H304" t="inlineStr">
+        <is>
+          <t>Española</t>
+        </is>
+      </c>
+      <c r="I304" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J304" t="n">
+        <v>25</v>
+      </c>
+      <c r="K304" t="n">
         <v>16000</v>
       </c>
-      <c r="L301" t="n">
+      <c r="L304" t="n">
         <v>16000</v>
       </c>
-      <c r="M301" t="n">
+      <c r="M304" t="n">
         <v>16000</v>
       </c>
-      <c r="N301" t="inlineStr">
+      <c r="N304" t="inlineStr">
         <is>
           <t>$/caja 30 unidades</t>
         </is>
       </c>
-      <c r="O301" t="inlineStr">
+      <c r="O304" t="inlineStr">
         <is>
           <t>Provincia de Limarí</t>
         </is>
       </c>
-      <c r="P301" t="n">
+      <c r="P304" t="n">
         <v>533</v>
       </c>
-      <c r="Q301" t="n">
+      <c r="Q304" t="n">
         <v>30</v>
       </c>
-      <c r="R301" t="inlineStr">
+      <c r="R304" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Central Mapocho de Santiago - Alcachofa.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Central Mapocho de Santiago - Alcachofa.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R307"/>
+  <dimension ref="A1:R312"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -18981,7 +18981,7 @@
         </is>
       </c>
       <c r="D259" s="2" t="n">
-        <v>44438</v>
+        <v>44474</v>
       </c>
       <c r="E259" t="n">
         <v>13</v>
@@ -19005,16 +19005,16 @@
         </is>
       </c>
       <c r="J259" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="K259" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="L259" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="M259" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="N259" t="inlineStr">
         <is>
@@ -19027,7 +19027,7 @@
         </is>
       </c>
       <c r="P259" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="Q259" t="n">
         <v>1</v>
@@ -19053,7 +19053,7 @@
         </is>
       </c>
       <c r="D260" s="2" t="n">
-        <v>44438</v>
+        <v>44474</v>
       </c>
       <c r="E260" t="n">
         <v>13</v>
@@ -19077,16 +19077,16 @@
         </is>
       </c>
       <c r="J260" t="n">
-        <v>34</v>
+        <v>61</v>
       </c>
       <c r="K260" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="L260" t="n">
-        <v>14000</v>
+        <v>11000</v>
       </c>
       <c r="M260" t="n">
-        <v>13500</v>
+        <v>10492</v>
       </c>
       <c r="N260" t="inlineStr">
         <is>
@@ -19099,7 +19099,7 @@
         </is>
       </c>
       <c r="P260" t="n">
-        <v>450</v>
+        <v>350</v>
       </c>
       <c r="Q260" t="n">
         <v>30</v>
@@ -19125,7 +19125,7 @@
         </is>
       </c>
       <c r="D261" s="2" t="n">
-        <v>44438</v>
+        <v>44474</v>
       </c>
       <c r="E261" t="n">
         <v>13</v>
@@ -19145,36 +19145,36 @@
       </c>
       <c r="I261" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J261" t="n">
-        <v>25</v>
+        <v>250</v>
       </c>
       <c r="K261" t="n">
-        <v>11000</v>
+        <v>400</v>
       </c>
       <c r="L261" t="n">
-        <v>12000</v>
+        <v>400</v>
       </c>
       <c r="M261" t="n">
-        <v>11480</v>
+        <v>400</v>
       </c>
       <c r="N261" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O261" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P261" t="n">
-        <v>287</v>
+        <v>400</v>
       </c>
       <c r="Q261" t="n">
-        <v>40</v>
+        <v>1</v>
       </c>
       <c r="R261" t="inlineStr">
         <is>
@@ -19197,7 +19197,7 @@
         </is>
       </c>
       <c r="D262" s="2" t="n">
-        <v>44372</v>
+        <v>44474</v>
       </c>
       <c r="E262" t="n">
         <v>13</v>
@@ -19212,41 +19212,41 @@
       </c>
       <c r="H262" t="inlineStr">
         <is>
-          <t>Madrigal</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I262" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J262" t="n">
-        <v>16</v>
+        <v>52</v>
       </c>
       <c r="K262" t="n">
-        <v>20000</v>
+        <v>8000</v>
       </c>
       <c r="L262" t="n">
-        <v>20000</v>
+        <v>9000</v>
       </c>
       <c r="M262" t="n">
-        <v>20000</v>
+        <v>8500</v>
       </c>
       <c r="N262" t="inlineStr">
         <is>
-          <t>$/caja 35 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O262" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P262" t="n">
-        <v>571</v>
+        <v>212</v>
       </c>
       <c r="Q262" t="n">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="R262" t="inlineStr">
         <is>
@@ -19269,7 +19269,7 @@
         </is>
       </c>
       <c r="D263" s="2" t="n">
-        <v>44372</v>
+        <v>44474</v>
       </c>
       <c r="E263" t="n">
         <v>13</v>
@@ -19284,41 +19284,41 @@
       </c>
       <c r="H263" t="inlineStr">
         <is>
-          <t>Madrigal</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I263" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J263" t="n">
-        <v>52</v>
+        <v>106</v>
       </c>
       <c r="K263" t="n">
-        <v>17000</v>
+        <v>300</v>
       </c>
       <c r="L263" t="n">
-        <v>18000</v>
+        <v>300</v>
       </c>
       <c r="M263" t="n">
-        <v>17500</v>
+        <v>300</v>
       </c>
       <c r="N263" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O263" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P263" t="n">
-        <v>438</v>
+        <v>300</v>
       </c>
       <c r="Q263" t="n">
-        <v>40</v>
+        <v>1</v>
       </c>
       <c r="R263" t="inlineStr">
         <is>
@@ -19341,7 +19341,7 @@
         </is>
       </c>
       <c r="D264" s="2" t="n">
-        <v>44372</v>
+        <v>44438</v>
       </c>
       <c r="E264" t="n">
         <v>13</v>
@@ -19356,41 +19356,41 @@
       </c>
       <c r="H264" t="inlineStr">
         <is>
-          <t>Madrigal</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I264" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J264" t="n">
-        <v>34</v>
+        <v>12</v>
       </c>
       <c r="K264" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="L264" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="M264" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="N264" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 25 unidades</t>
         </is>
       </c>
       <c r="O264" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P264" t="n">
-        <v>320</v>
+        <v>15000</v>
       </c>
       <c r="Q264" t="n">
-        <v>50</v>
+        <v>1</v>
       </c>
       <c r="R264" t="inlineStr">
         <is>
@@ -19413,7 +19413,7 @@
         </is>
       </c>
       <c r="D265" s="2" t="n">
-        <v>44356</v>
+        <v>44438</v>
       </c>
       <c r="E265" t="n">
         <v>13</v>
@@ -19428,7 +19428,7 @@
       </c>
       <c r="H265" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I265" t="inlineStr">
@@ -19437,32 +19437,32 @@
         </is>
       </c>
       <c r="J265" t="n">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="K265" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="L265" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="M265" t="n">
-        <v>15476</v>
+        <v>13500</v>
       </c>
       <c r="N265" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O265" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P265" t="n">
-        <v>310</v>
+        <v>450</v>
       </c>
       <c r="Q265" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R265" t="inlineStr">
         <is>
@@ -19485,7 +19485,7 @@
         </is>
       </c>
       <c r="D266" s="2" t="n">
-        <v>44356</v>
+        <v>44438</v>
       </c>
       <c r="E266" t="n">
         <v>13</v>
@@ -19500,7 +19500,7 @@
       </c>
       <c r="H266" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I266" t="inlineStr">
@@ -19509,32 +19509,32 @@
         </is>
       </c>
       <c r="J266" t="n">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="K266" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="L266" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="M266" t="n">
-        <v>13000</v>
+        <v>11480</v>
       </c>
       <c r="N266" t="inlineStr">
         <is>
-          <t>$/caja 70 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O266" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P266" t="n">
-        <v>186</v>
+        <v>287</v>
       </c>
       <c r="Q266" t="n">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="R266" t="inlineStr">
         <is>
@@ -19557,7 +19557,7 @@
         </is>
       </c>
       <c r="D267" s="2" t="n">
-        <v>44356</v>
+        <v>44372</v>
       </c>
       <c r="E267" t="n">
         <v>13</v>
@@ -19572,41 +19572,41 @@
       </c>
       <c r="H267" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Madrigal</t>
         </is>
       </c>
       <c r="I267" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J267" t="n">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="K267" t="n">
-        <v>17000</v>
+        <v>20000</v>
       </c>
       <c r="L267" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="M267" t="n">
-        <v>17520</v>
+        <v>20000</v>
       </c>
       <c r="N267" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 35 unidades</t>
         </is>
       </c>
       <c r="O267" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P267" t="n">
-        <v>584</v>
+        <v>571</v>
       </c>
       <c r="Q267" t="n">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="R267" t="inlineStr">
         <is>
@@ -19629,7 +19629,7 @@
         </is>
       </c>
       <c r="D268" s="2" t="n">
-        <v>44356</v>
+        <v>44372</v>
       </c>
       <c r="E268" t="n">
         <v>13</v>
@@ -19644,41 +19644,41 @@
       </c>
       <c r="H268" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Madrigal</t>
         </is>
       </c>
       <c r="I268" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J268" t="n">
-        <v>16</v>
+        <v>52</v>
       </c>
       <c r="K268" t="n">
-        <v>14000</v>
+        <v>17000</v>
       </c>
       <c r="L268" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="M268" t="n">
-        <v>14500</v>
+        <v>17500</v>
       </c>
       <c r="N268" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O268" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P268" t="n">
-        <v>483</v>
+        <v>438</v>
       </c>
       <c r="Q268" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="R268" t="inlineStr">
         <is>
@@ -19701,7 +19701,7 @@
         </is>
       </c>
       <c r="D269" s="2" t="n">
-        <v>44351</v>
+        <v>44372</v>
       </c>
       <c r="E269" t="n">
         <v>13</v>
@@ -19716,25 +19716,25 @@
       </c>
       <c r="H269" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Madrigal</t>
         </is>
       </c>
       <c r="I269" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J269" t="n">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="K269" t="n">
         <v>16000</v>
       </c>
       <c r="L269" t="n">
-        <v>17000</v>
+        <v>16000</v>
       </c>
       <c r="M269" t="n">
-        <v>16512</v>
+        <v>16000</v>
       </c>
       <c r="N269" t="inlineStr">
         <is>
@@ -19743,11 +19743,11 @@
       </c>
       <c r="O269" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P269" t="n">
-        <v>330</v>
+        <v>320</v>
       </c>
       <c r="Q269" t="n">
         <v>50</v>
@@ -19773,7 +19773,7 @@
         </is>
       </c>
       <c r="D270" s="2" t="n">
-        <v>44351</v>
+        <v>44356</v>
       </c>
       <c r="E270" t="n">
         <v>13</v>
@@ -19793,7 +19793,7 @@
       </c>
       <c r="I270" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J270" t="n">
@@ -19803,26 +19803,26 @@
         <v>15000</v>
       </c>
       <c r="L270" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="M270" t="n">
-        <v>15000</v>
+        <v>15476</v>
       </c>
       <c r="N270" t="inlineStr">
         <is>
-          <t>$/caja 70 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O270" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P270" t="n">
-        <v>214</v>
+        <v>310</v>
       </c>
       <c r="Q270" t="n">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="R270" t="inlineStr">
         <is>
@@ -19845,7 +19845,7 @@
         </is>
       </c>
       <c r="D271" s="2" t="n">
-        <v>44351</v>
+        <v>44356</v>
       </c>
       <c r="E271" t="n">
         <v>13</v>
@@ -19860,29 +19860,29 @@
       </c>
       <c r="H271" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I271" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J271" t="n">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="K271" t="n">
-        <v>20000</v>
+        <v>13000</v>
       </c>
       <c r="L271" t="n">
-        <v>20000</v>
+        <v>13000</v>
       </c>
       <c r="M271" t="n">
-        <v>20000</v>
+        <v>13000</v>
       </c>
       <c r="N271" t="inlineStr">
         <is>
-          <t>$/caja 25 unidades</t>
+          <t>$/caja 70 unidades</t>
         </is>
       </c>
       <c r="O271" t="inlineStr">
@@ -19891,10 +19891,10 @@
         </is>
       </c>
       <c r="P271" t="n">
-        <v>20000</v>
+        <v>186</v>
       </c>
       <c r="Q271" t="n">
-        <v>1</v>
+        <v>70</v>
       </c>
       <c r="R271" t="inlineStr">
         <is>
@@ -19917,7 +19917,7 @@
         </is>
       </c>
       <c r="D272" s="2" t="n">
-        <v>44351</v>
+        <v>44356</v>
       </c>
       <c r="E272" t="n">
         <v>13</v>
@@ -19941,7 +19941,7 @@
         </is>
       </c>
       <c r="J272" t="n">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="K272" t="n">
         <v>17000</v>
@@ -19950,7 +19950,7 @@
         <v>18000</v>
       </c>
       <c r="M272" t="n">
-        <v>17500</v>
+        <v>17520</v>
       </c>
       <c r="N272" t="inlineStr">
         <is>
@@ -19959,11 +19959,11 @@
       </c>
       <c r="O272" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P272" t="n">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="Q272" t="n">
         <v>30</v>
@@ -19989,7 +19989,7 @@
         </is>
       </c>
       <c r="D273" s="2" t="n">
-        <v>44351</v>
+        <v>44356</v>
       </c>
       <c r="E273" t="n">
         <v>13</v>
@@ -20016,29 +20016,29 @@
         <v>16</v>
       </c>
       <c r="K273" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="L273" t="n">
         <v>15000</v>
       </c>
       <c r="M273" t="n">
-        <v>15000</v>
+        <v>14500</v>
       </c>
       <c r="N273" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O273" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P273" t="n">
-        <v>375</v>
+        <v>483</v>
       </c>
       <c r="Q273" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="R273" t="inlineStr">
         <is>
@@ -20061,7 +20061,7 @@
         </is>
       </c>
       <c r="D274" s="2" t="n">
-        <v>44365</v>
+        <v>44351</v>
       </c>
       <c r="E274" t="n">
         <v>13</v>
@@ -20085,7 +20085,7 @@
         </is>
       </c>
       <c r="J274" t="n">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="K274" t="n">
         <v>16000</v>
@@ -20094,7 +20094,7 @@
         <v>17000</v>
       </c>
       <c r="M274" t="n">
-        <v>16500</v>
+        <v>16512</v>
       </c>
       <c r="N274" t="inlineStr">
         <is>
@@ -20103,7 +20103,7 @@
       </c>
       <c r="O274" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P274" t="n">
@@ -20133,7 +20133,7 @@
         </is>
       </c>
       <c r="D275" s="2" t="n">
-        <v>44365</v>
+        <v>44351</v>
       </c>
       <c r="E275" t="n">
         <v>13</v>
@@ -20157,7 +20157,7 @@
         </is>
       </c>
       <c r="J275" t="n">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="K275" t="n">
         <v>15000</v>
@@ -20175,7 +20175,7 @@
       </c>
       <c r="O275" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P275" t="n">
@@ -20205,7 +20205,7 @@
         </is>
       </c>
       <c r="D276" s="2" t="n">
-        <v>44365</v>
+        <v>44351</v>
       </c>
       <c r="E276" t="n">
         <v>13</v>
@@ -20225,24 +20225,24 @@
       </c>
       <c r="I276" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J276" t="n">
-        <v>36</v>
+        <v>16</v>
       </c>
       <c r="K276" t="n">
-        <v>17000</v>
+        <v>20000</v>
       </c>
       <c r="L276" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="M276" t="n">
-        <v>17500</v>
+        <v>20000</v>
       </c>
       <c r="N276" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 25 unidades</t>
         </is>
       </c>
       <c r="O276" t="inlineStr">
@@ -20251,10 +20251,10 @@
         </is>
       </c>
       <c r="P276" t="n">
-        <v>583</v>
+        <v>20000</v>
       </c>
       <c r="Q276" t="n">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="R276" t="inlineStr">
         <is>
@@ -20277,7 +20277,7 @@
         </is>
       </c>
       <c r="D277" s="2" t="n">
-        <v>44365</v>
+        <v>44351</v>
       </c>
       <c r="E277" t="n">
         <v>13</v>
@@ -20297,24 +20297,24 @@
       </c>
       <c r="I277" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J277" t="n">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="K277" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="L277" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="M277" t="n">
-        <v>16000</v>
+        <v>17500</v>
       </c>
       <c r="N277" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O277" t="inlineStr">
@@ -20323,10 +20323,10 @@
         </is>
       </c>
       <c r="P277" t="n">
-        <v>400</v>
+        <v>583</v>
       </c>
       <c r="Q277" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="R277" t="inlineStr">
         <is>
@@ -20349,7 +20349,7 @@
         </is>
       </c>
       <c r="D278" s="2" t="n">
-        <v>44306</v>
+        <v>44351</v>
       </c>
       <c r="E278" t="n">
         <v>13</v>
@@ -20369,36 +20369,36 @@
       </c>
       <c r="I278" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J278" t="n">
         <v>16</v>
       </c>
       <c r="K278" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="L278" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="M278" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="N278" t="inlineStr">
         <is>
-          <t>$/caja 25 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O278" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P278" t="n">
-        <v>20000</v>
+        <v>375</v>
       </c>
       <c r="Q278" t="n">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="R278" t="inlineStr">
         <is>
@@ -20421,7 +20421,7 @@
         </is>
       </c>
       <c r="D279" s="2" t="n">
-        <v>44306</v>
+        <v>44365</v>
       </c>
       <c r="E279" t="n">
         <v>13</v>
@@ -20436,7 +20436,7 @@
       </c>
       <c r="H279" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I279" t="inlineStr">
@@ -20445,32 +20445,32 @@
         </is>
       </c>
       <c r="J279" t="n">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="K279" t="n">
-        <v>18000</v>
+        <v>16000</v>
       </c>
       <c r="L279" t="n">
-        <v>18000</v>
+        <v>17000</v>
       </c>
       <c r="M279" t="n">
-        <v>18000</v>
+        <v>16500</v>
       </c>
       <c r="N279" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O279" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P279" t="n">
-        <v>600</v>
+        <v>330</v>
       </c>
       <c r="Q279" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R279" t="inlineStr">
         <is>
@@ -20493,7 +20493,7 @@
         </is>
       </c>
       <c r="D280" s="2" t="n">
-        <v>44461</v>
+        <v>44365</v>
       </c>
       <c r="E280" t="n">
         <v>13</v>
@@ -20508,41 +20508,41 @@
       </c>
       <c r="H280" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I280" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J280" t="n">
-        <v>52</v>
+        <v>16</v>
       </c>
       <c r="K280" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="L280" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="M280" t="n">
-        <v>12500</v>
+        <v>15000</v>
       </c>
       <c r="N280" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 70 unidades</t>
         </is>
       </c>
       <c r="O280" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P280" t="n">
-        <v>417</v>
+        <v>214</v>
       </c>
       <c r="Q280" t="n">
-        <v>30</v>
+        <v>70</v>
       </c>
       <c r="R280" t="inlineStr">
         <is>
@@ -20565,7 +20565,7 @@
         </is>
       </c>
       <c r="D281" s="2" t="n">
-        <v>44461</v>
+        <v>44365</v>
       </c>
       <c r="E281" t="n">
         <v>13</v>
@@ -20585,36 +20585,36 @@
       </c>
       <c r="I281" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J281" t="n">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="K281" t="n">
-        <v>10000</v>
+        <v>17000</v>
       </c>
       <c r="L281" t="n">
-        <v>11000</v>
+        <v>18000</v>
       </c>
       <c r="M281" t="n">
-        <v>10480</v>
+        <v>17500</v>
       </c>
       <c r="N281" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O281" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P281" t="n">
-        <v>262</v>
+        <v>583</v>
       </c>
       <c r="Q281" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="R281" t="inlineStr">
         <is>
@@ -20637,7 +20637,7 @@
         </is>
       </c>
       <c r="D282" s="2" t="n">
-        <v>44357</v>
+        <v>44365</v>
       </c>
       <c r="E282" t="n">
         <v>13</v>
@@ -20652,41 +20652,41 @@
       </c>
       <c r="H282" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I282" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J282" t="n">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="K282" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="L282" t="n">
         <v>16000</v>
       </c>
       <c r="M282" t="n">
-        <v>15500</v>
+        <v>16000</v>
       </c>
       <c r="N282" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O282" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P282" t="n">
-        <v>310</v>
+        <v>400</v>
       </c>
       <c r="Q282" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="R282" t="inlineStr">
         <is>
@@ -20709,7 +20709,7 @@
         </is>
       </c>
       <c r="D283" s="2" t="n">
-        <v>44357</v>
+        <v>44306</v>
       </c>
       <c r="E283" t="n">
         <v>13</v>
@@ -20724,29 +20724,29 @@
       </c>
       <c r="H283" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I283" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J283" t="n">
         <v>16</v>
       </c>
       <c r="K283" t="n">
-        <v>13000</v>
+        <v>20000</v>
       </c>
       <c r="L283" t="n">
-        <v>13000</v>
+        <v>20000</v>
       </c>
       <c r="M283" t="n">
-        <v>13000</v>
+        <v>20000</v>
       </c>
       <c r="N283" t="inlineStr">
         <is>
-          <t>$/caja 70 unidades</t>
+          <t>$/caja 25 unidades</t>
         </is>
       </c>
       <c r="O283" t="inlineStr">
@@ -20755,10 +20755,10 @@
         </is>
       </c>
       <c r="P283" t="n">
-        <v>186</v>
+        <v>20000</v>
       </c>
       <c r="Q283" t="n">
-        <v>70</v>
+        <v>1</v>
       </c>
       <c r="R283" t="inlineStr">
         <is>
@@ -20781,7 +20781,7 @@
         </is>
       </c>
       <c r="D284" s="2" t="n">
-        <v>44357</v>
+        <v>44306</v>
       </c>
       <c r="E284" t="n">
         <v>13</v>
@@ -20801,36 +20801,36 @@
       </c>
       <c r="I284" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J284" t="n">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="K284" t="n">
-        <v>19000</v>
+        <v>18000</v>
       </c>
       <c r="L284" t="n">
-        <v>20000</v>
+        <v>18000</v>
       </c>
       <c r="M284" t="n">
-        <v>19500</v>
+        <v>18000</v>
       </c>
       <c r="N284" t="inlineStr">
         <is>
-          <t>$/caja 25 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O284" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P284" t="n">
-        <v>19500</v>
+        <v>600</v>
       </c>
       <c r="Q284" t="n">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="R284" t="inlineStr">
         <is>
@@ -20853,7 +20853,7 @@
         </is>
       </c>
       <c r="D285" s="2" t="n">
-        <v>44357</v>
+        <v>44461</v>
       </c>
       <c r="E285" t="n">
         <v>13</v>
@@ -20877,16 +20877,16 @@
         </is>
       </c>
       <c r="J285" t="n">
-        <v>34</v>
+        <v>52</v>
       </c>
       <c r="K285" t="n">
-        <v>17000</v>
+        <v>12000</v>
       </c>
       <c r="L285" t="n">
-        <v>18000</v>
+        <v>13000</v>
       </c>
       <c r="M285" t="n">
-        <v>17500</v>
+        <v>12500</v>
       </c>
       <c r="N285" t="inlineStr">
         <is>
@@ -20895,11 +20895,11 @@
       </c>
       <c r="O285" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P285" t="n">
-        <v>583</v>
+        <v>417</v>
       </c>
       <c r="Q285" t="n">
         <v>30</v>
@@ -20925,7 +20925,7 @@
         </is>
       </c>
       <c r="D286" s="2" t="n">
-        <v>44357</v>
+        <v>44461</v>
       </c>
       <c r="E286" t="n">
         <v>13</v>
@@ -20952,13 +20952,13 @@
         <v>25</v>
       </c>
       <c r="K286" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="L286" t="n">
-        <v>15000</v>
+        <v>11000</v>
       </c>
       <c r="M286" t="n">
-        <v>15000</v>
+        <v>10480</v>
       </c>
       <c r="N286" t="inlineStr">
         <is>
@@ -20967,11 +20967,11 @@
       </c>
       <c r="O286" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P286" t="n">
-        <v>375</v>
+        <v>262</v>
       </c>
       <c r="Q286" t="n">
         <v>40</v>
@@ -20997,7 +20997,7 @@
         </is>
       </c>
       <c r="D287" s="2" t="n">
-        <v>44162</v>
+        <v>44357</v>
       </c>
       <c r="E287" t="n">
         <v>13</v>
@@ -21012,7 +21012,7 @@
       </c>
       <c r="H287" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I287" t="inlineStr">
@@ -21021,32 +21021,32 @@
         </is>
       </c>
       <c r="J287" t="n">
-        <v>300</v>
+        <v>34</v>
       </c>
       <c r="K287" t="n">
-        <v>9000</v>
+        <v>15000</v>
       </c>
       <c r="L287" t="n">
-        <v>9000</v>
+        <v>16000</v>
       </c>
       <c r="M287" t="n">
-        <v>9000</v>
+        <v>15500</v>
       </c>
       <c r="N287" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O287" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P287" t="n">
-        <v>300</v>
+        <v>310</v>
       </c>
       <c r="Q287" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R287" t="inlineStr">
         <is>
@@ -21069,7 +21069,7 @@
         </is>
       </c>
       <c r="D288" s="2" t="n">
-        <v>44411</v>
+        <v>44357</v>
       </c>
       <c r="E288" t="n">
         <v>13</v>
@@ -21084,29 +21084,29 @@
       </c>
       <c r="H288" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I288" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J288" t="n">
         <v>16</v>
       </c>
       <c r="K288" t="n">
-        <v>16000</v>
+        <v>13000</v>
       </c>
       <c r="L288" t="n">
-        <v>16000</v>
+        <v>13000</v>
       </c>
       <c r="M288" t="n">
-        <v>16000</v>
+        <v>13000</v>
       </c>
       <c r="N288" t="inlineStr">
         <is>
-          <t>$/caja 25 unidades</t>
+          <t>$/caja 70 unidades</t>
         </is>
       </c>
       <c r="O288" t="inlineStr">
@@ -21115,10 +21115,10 @@
         </is>
       </c>
       <c r="P288" t="n">
-        <v>16000</v>
+        <v>186</v>
       </c>
       <c r="Q288" t="n">
-        <v>1</v>
+        <v>70</v>
       </c>
       <c r="R288" t="inlineStr">
         <is>
@@ -21141,7 +21141,7 @@
         </is>
       </c>
       <c r="D289" s="2" t="n">
-        <v>44411</v>
+        <v>44357</v>
       </c>
       <c r="E289" t="n">
         <v>13</v>
@@ -21161,36 +21161,36 @@
       </c>
       <c r="I289" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J289" t="n">
-        <v>61</v>
+        <v>16</v>
       </c>
       <c r="K289" t="n">
-        <v>14000</v>
+        <v>19000</v>
       </c>
       <c r="L289" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="M289" t="n">
-        <v>14492</v>
+        <v>19500</v>
       </c>
       <c r="N289" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 25 unidades</t>
         </is>
       </c>
       <c r="O289" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P289" t="n">
-        <v>483</v>
+        <v>19500</v>
       </c>
       <c r="Q289" t="n">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="R289" t="inlineStr">
         <is>
@@ -21213,7 +21213,7 @@
         </is>
       </c>
       <c r="D290" s="2" t="n">
-        <v>44411</v>
+        <v>44357</v>
       </c>
       <c r="E290" t="n">
         <v>13</v>
@@ -21233,36 +21233,36 @@
       </c>
       <c r="I290" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J290" t="n">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="K290" t="n">
-        <v>12000</v>
+        <v>17000</v>
       </c>
       <c r="L290" t="n">
-        <v>12000</v>
+        <v>18000</v>
       </c>
       <c r="M290" t="n">
-        <v>12000</v>
+        <v>17500</v>
       </c>
       <c r="N290" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O290" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P290" t="n">
-        <v>300</v>
+        <v>583</v>
       </c>
       <c r="Q290" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="R290" t="inlineStr">
         <is>
@@ -21285,7 +21285,7 @@
         </is>
       </c>
       <c r="D291" s="2" t="n">
-        <v>44376</v>
+        <v>44357</v>
       </c>
       <c r="E291" t="n">
         <v>13</v>
@@ -21305,24 +21305,24 @@
       </c>
       <c r="I291" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J291" t="n">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="K291" t="n">
-        <v>21000</v>
+        <v>15000</v>
       </c>
       <c r="L291" t="n">
-        <v>22000</v>
+        <v>15000</v>
       </c>
       <c r="M291" t="n">
-        <v>21500</v>
+        <v>15000</v>
       </c>
       <c r="N291" t="inlineStr">
         <is>
-          <t>$/caja 25 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O291" t="inlineStr">
@@ -21331,10 +21331,10 @@
         </is>
       </c>
       <c r="P291" t="n">
-        <v>21500</v>
+        <v>375</v>
       </c>
       <c r="Q291" t="n">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="R291" t="inlineStr">
         <is>
@@ -21357,7 +21357,7 @@
         </is>
       </c>
       <c r="D292" s="2" t="n">
-        <v>44376</v>
+        <v>44162</v>
       </c>
       <c r="E292" t="n">
         <v>13</v>
@@ -21381,16 +21381,16 @@
         </is>
       </c>
       <c r="J292" t="n">
-        <v>34</v>
+        <v>300</v>
       </c>
       <c r="K292" t="n">
-        <v>19000</v>
+        <v>9000</v>
       </c>
       <c r="L292" t="n">
-        <v>20000</v>
+        <v>9000</v>
       </c>
       <c r="M292" t="n">
-        <v>19500</v>
+        <v>9000</v>
       </c>
       <c r="N292" t="inlineStr">
         <is>
@@ -21399,11 +21399,11 @@
       </c>
       <c r="O292" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P292" t="n">
-        <v>650</v>
+        <v>300</v>
       </c>
       <c r="Q292" t="n">
         <v>30</v>
@@ -21429,7 +21429,7 @@
         </is>
       </c>
       <c r="D293" s="2" t="n">
-        <v>44376</v>
+        <v>44411</v>
       </c>
       <c r="E293" t="n">
         <v>13</v>
@@ -21449,36 +21449,36 @@
       </c>
       <c r="I293" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J293" t="n">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="K293" t="n">
         <v>16000</v>
       </c>
       <c r="L293" t="n">
-        <v>17000</v>
+        <v>16000</v>
       </c>
       <c r="M293" t="n">
-        <v>16480</v>
+        <v>16000</v>
       </c>
       <c r="N293" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 25 unidades</t>
         </is>
       </c>
       <c r="O293" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P293" t="n">
-        <v>412</v>
+        <v>16000</v>
       </c>
       <c r="Q293" t="n">
-        <v>40</v>
+        <v>1</v>
       </c>
       <c r="R293" t="inlineStr">
         <is>
@@ -21501,7 +21501,7 @@
         </is>
       </c>
       <c r="D294" s="2" t="n">
-        <v>44292</v>
+        <v>44411</v>
       </c>
       <c r="E294" t="n">
         <v>13</v>
@@ -21525,16 +21525,16 @@
         </is>
       </c>
       <c r="J294" t="n">
-        <v>25</v>
+        <v>61</v>
       </c>
       <c r="K294" t="n">
-        <v>18000</v>
+        <v>14000</v>
       </c>
       <c r="L294" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="M294" t="n">
-        <v>18000</v>
+        <v>14492</v>
       </c>
       <c r="N294" t="inlineStr">
         <is>
@@ -21547,7 +21547,7 @@
         </is>
       </c>
       <c r="P294" t="n">
-        <v>600</v>
+        <v>483</v>
       </c>
       <c r="Q294" t="n">
         <v>30</v>
@@ -21573,7 +21573,7 @@
         </is>
       </c>
       <c r="D295" s="2" t="n">
-        <v>44358</v>
+        <v>44411</v>
       </c>
       <c r="E295" t="n">
         <v>13</v>
@@ -21588,41 +21588,41 @@
       </c>
       <c r="H295" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I295" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J295" t="n">
-        <v>52</v>
+        <v>25</v>
       </c>
       <c r="K295" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="L295" t="n">
-        <v>16000</v>
+        <v>12000</v>
       </c>
       <c r="M295" t="n">
-        <v>15500</v>
+        <v>12000</v>
       </c>
       <c r="N295" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O295" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P295" t="n">
-        <v>310</v>
+        <v>300</v>
       </c>
       <c r="Q295" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="R295" t="inlineStr">
         <is>
@@ -21645,7 +21645,7 @@
         </is>
       </c>
       <c r="D296" s="2" t="n">
-        <v>44358</v>
+        <v>44376</v>
       </c>
       <c r="E296" t="n">
         <v>13</v>
@@ -21660,29 +21660,29 @@
       </c>
       <c r="H296" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I296" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J296" t="n">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="K296" t="n">
-        <v>14000</v>
+        <v>21000</v>
       </c>
       <c r="L296" t="n">
-        <v>14000</v>
+        <v>22000</v>
       </c>
       <c r="M296" t="n">
-        <v>14000</v>
+        <v>21500</v>
       </c>
       <c r="N296" t="inlineStr">
         <is>
-          <t>$/caja 70 unidades</t>
+          <t>$/caja 25 unidades</t>
         </is>
       </c>
       <c r="O296" t="inlineStr">
@@ -21691,10 +21691,10 @@
         </is>
       </c>
       <c r="P296" t="n">
-        <v>200</v>
+        <v>21500</v>
       </c>
       <c r="Q296" t="n">
-        <v>70</v>
+        <v>1</v>
       </c>
       <c r="R296" t="inlineStr">
         <is>
@@ -21717,7 +21717,7 @@
         </is>
       </c>
       <c r="D297" s="2" t="n">
-        <v>44358</v>
+        <v>44376</v>
       </c>
       <c r="E297" t="n">
         <v>13</v>
@@ -21737,36 +21737,36 @@
       </c>
       <c r="I297" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J297" t="n">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="K297" t="n">
-        <v>18000</v>
+        <v>19000</v>
       </c>
       <c r="L297" t="n">
-        <v>19000</v>
+        <v>20000</v>
       </c>
       <c r="M297" t="n">
-        <v>18500</v>
+        <v>19500</v>
       </c>
       <c r="N297" t="inlineStr">
         <is>
-          <t>$/caja 25 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O297" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P297" t="n">
-        <v>18500</v>
+        <v>650</v>
       </c>
       <c r="Q297" t="n">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="R297" t="inlineStr">
         <is>
@@ -21789,7 +21789,7 @@
         </is>
       </c>
       <c r="D298" s="2" t="n">
-        <v>44358</v>
+        <v>44376</v>
       </c>
       <c r="E298" t="n">
         <v>13</v>
@@ -21809,36 +21809,36 @@
       </c>
       <c r="I298" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J298" t="n">
-        <v>43</v>
+        <v>25</v>
       </c>
       <c r="K298" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="L298" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="M298" t="n">
-        <v>15488</v>
+        <v>16480</v>
       </c>
       <c r="N298" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O298" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P298" t="n">
-        <v>516</v>
+        <v>412</v>
       </c>
       <c r="Q298" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="R298" t="inlineStr">
         <is>
@@ -21861,7 +21861,7 @@
         </is>
       </c>
       <c r="D299" s="2" t="n">
-        <v>44358</v>
+        <v>44292</v>
       </c>
       <c r="E299" t="n">
         <v>13</v>
@@ -21881,24 +21881,24 @@
       </c>
       <c r="I299" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J299" t="n">
         <v>25</v>
       </c>
       <c r="K299" t="n">
-        <v>14000</v>
+        <v>18000</v>
       </c>
       <c r="L299" t="n">
-        <v>14000</v>
+        <v>18000</v>
       </c>
       <c r="M299" t="n">
-        <v>14000</v>
+        <v>18000</v>
       </c>
       <c r="N299" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O299" t="inlineStr">
@@ -21907,10 +21907,10 @@
         </is>
       </c>
       <c r="P299" t="n">
-        <v>350</v>
+        <v>600</v>
       </c>
       <c r="Q299" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="R299" t="inlineStr">
         <is>
@@ -21933,7 +21933,7 @@
         </is>
       </c>
       <c r="D300" s="2" t="n">
-        <v>44425</v>
+        <v>44358</v>
       </c>
       <c r="E300" t="n">
         <v>13</v>
@@ -21948,41 +21948,41 @@
       </c>
       <c r="H300" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I300" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J300" t="n">
-        <v>25</v>
+        <v>52</v>
       </c>
       <c r="K300" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="L300" t="n">
         <v>16000</v>
       </c>
       <c r="M300" t="n">
-        <v>16000</v>
+        <v>15500</v>
       </c>
       <c r="N300" t="inlineStr">
         <is>
-          <t>$/caja 25 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O300" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P300" t="n">
-        <v>16000</v>
+        <v>310</v>
       </c>
       <c r="Q300" t="n">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="R300" t="inlineStr">
         <is>
@@ -22005,7 +22005,7 @@
         </is>
       </c>
       <c r="D301" s="2" t="n">
-        <v>44425</v>
+        <v>44358</v>
       </c>
       <c r="E301" t="n">
         <v>13</v>
@@ -22020,41 +22020,41 @@
       </c>
       <c r="H301" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I301" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J301" t="n">
-        <v>61</v>
+        <v>34</v>
       </c>
       <c r="K301" t="n">
         <v>14000</v>
       </c>
       <c r="L301" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="M301" t="n">
-        <v>14508</v>
+        <v>14000</v>
       </c>
       <c r="N301" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 70 unidades</t>
         </is>
       </c>
       <c r="O301" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P301" t="n">
-        <v>484</v>
+        <v>200</v>
       </c>
       <c r="Q301" t="n">
-        <v>30</v>
+        <v>70</v>
       </c>
       <c r="R301" t="inlineStr">
         <is>
@@ -22077,7 +22077,7 @@
         </is>
       </c>
       <c r="D302" s="2" t="n">
-        <v>44425</v>
+        <v>44358</v>
       </c>
       <c r="E302" t="n">
         <v>13</v>
@@ -22097,24 +22097,24 @@
       </c>
       <c r="I302" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J302" t="n">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="K302" t="n">
-        <v>12000</v>
+        <v>18000</v>
       </c>
       <c r="L302" t="n">
-        <v>13000</v>
+        <v>19000</v>
       </c>
       <c r="M302" t="n">
-        <v>12500</v>
+        <v>18500</v>
       </c>
       <c r="N302" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 25 unidades</t>
         </is>
       </c>
       <c r="O302" t="inlineStr">
@@ -22123,10 +22123,10 @@
         </is>
       </c>
       <c r="P302" t="n">
-        <v>312</v>
+        <v>18500</v>
       </c>
       <c r="Q302" t="n">
-        <v>40</v>
+        <v>1</v>
       </c>
       <c r="R302" t="inlineStr">
         <is>
@@ -22149,7 +22149,7 @@
         </is>
       </c>
       <c r="D303" s="2" t="n">
-        <v>44425</v>
+        <v>44358</v>
       </c>
       <c r="E303" t="n">
         <v>13</v>
@@ -22164,7 +22164,7 @@
       </c>
       <c r="H303" t="inlineStr">
         <is>
-          <t>Madrigal</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I303" t="inlineStr">
@@ -22176,17 +22176,17 @@
         <v>43</v>
       </c>
       <c r="K303" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="L303" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="M303" t="n">
-        <v>14512</v>
+        <v>15488</v>
       </c>
       <c r="N303" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O303" t="inlineStr">
@@ -22195,10 +22195,10 @@
         </is>
       </c>
       <c r="P303" t="n">
-        <v>363</v>
+        <v>516</v>
       </c>
       <c r="Q303" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="R303" t="inlineStr">
         <is>
@@ -22221,7 +22221,7 @@
         </is>
       </c>
       <c r="D304" s="2" t="n">
-        <v>44425</v>
+        <v>44358</v>
       </c>
       <c r="E304" t="n">
         <v>13</v>
@@ -22236,7 +22236,7 @@
       </c>
       <c r="H304" t="inlineStr">
         <is>
-          <t>Madrigal</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I304" t="inlineStr">
@@ -22248,17 +22248,17 @@
         <v>25</v>
       </c>
       <c r="K304" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="L304" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="M304" t="n">
-        <v>12480</v>
+        <v>14000</v>
       </c>
       <c r="N304" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O304" t="inlineStr">
@@ -22267,10 +22267,10 @@
         </is>
       </c>
       <c r="P304" t="n">
-        <v>250</v>
+        <v>350</v>
       </c>
       <c r="Q304" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="R304" t="inlineStr">
         <is>
@@ -22293,7 +22293,7 @@
         </is>
       </c>
       <c r="D305" s="2" t="n">
-        <v>44323</v>
+        <v>44425</v>
       </c>
       <c r="E305" t="n">
         <v>13</v>
@@ -22308,29 +22308,29 @@
       </c>
       <c r="H305" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I305" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J305" t="n">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="K305" t="n">
-        <v>18000</v>
+        <v>16000</v>
       </c>
       <c r="L305" t="n">
-        <v>18000</v>
+        <v>16000</v>
       </c>
       <c r="M305" t="n">
-        <v>18000</v>
+        <v>16000</v>
       </c>
       <c r="N305" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 25 unidades</t>
         </is>
       </c>
       <c r="O305" t="inlineStr">
@@ -22339,10 +22339,10 @@
         </is>
       </c>
       <c r="P305" t="n">
-        <v>360</v>
+        <v>16000</v>
       </c>
       <c r="Q305" t="n">
-        <v>50</v>
+        <v>1</v>
       </c>
       <c r="R305" t="inlineStr">
         <is>
@@ -22365,7 +22365,7 @@
         </is>
       </c>
       <c r="D306" s="2" t="n">
-        <v>44323</v>
+        <v>44425</v>
       </c>
       <c r="E306" t="n">
         <v>13</v>
@@ -22385,24 +22385,24 @@
       </c>
       <c r="I306" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J306" t="n">
-        <v>16</v>
+        <v>61</v>
       </c>
       <c r="K306" t="n">
-        <v>18000</v>
+        <v>14000</v>
       </c>
       <c r="L306" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="M306" t="n">
-        <v>18000</v>
+        <v>14508</v>
       </c>
       <c r="N306" t="inlineStr">
         <is>
-          <t>$/caja 25 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O306" t="inlineStr">
@@ -22411,10 +22411,10 @@
         </is>
       </c>
       <c r="P306" t="n">
-        <v>18000</v>
+        <v>484</v>
       </c>
       <c r="Q306" t="n">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="R306" t="inlineStr">
         <is>
@@ -22437,58 +22437,418 @@
         </is>
       </c>
       <c r="D307" s="2" t="n">
+        <v>44425</v>
+      </c>
+      <c r="E307" t="n">
+        <v>13</v>
+      </c>
+      <c r="F307" t="n">
+        <v>100112013</v>
+      </c>
+      <c r="G307" t="inlineStr">
+        <is>
+          <t>Alcachofa</t>
+        </is>
+      </c>
+      <c r="H307" t="inlineStr">
+        <is>
+          <t>Española</t>
+        </is>
+      </c>
+      <c r="I307" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="J307" t="n">
+        <v>34</v>
+      </c>
+      <c r="K307" t="n">
+        <v>12000</v>
+      </c>
+      <c r="L307" t="n">
+        <v>13000</v>
+      </c>
+      <c r="M307" t="n">
+        <v>12500</v>
+      </c>
+      <c r="N307" t="inlineStr">
+        <is>
+          <t>$/caja 40 unidades</t>
+        </is>
+      </c>
+      <c r="O307" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P307" t="n">
+        <v>312</v>
+      </c>
+      <c r="Q307" t="n">
+        <v>40</v>
+      </c>
+      <c r="R307" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" t="n">
+        <v>9</v>
+      </c>
+      <c r="B308" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C308" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D308" s="2" t="n">
+        <v>44425</v>
+      </c>
+      <c r="E308" t="n">
+        <v>13</v>
+      </c>
+      <c r="F308" t="n">
+        <v>100112013</v>
+      </c>
+      <c r="G308" t="inlineStr">
+        <is>
+          <t>Alcachofa</t>
+        </is>
+      </c>
+      <c r="H308" t="inlineStr">
+        <is>
+          <t>Madrigal</t>
+        </is>
+      </c>
+      <c r="I308" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J308" t="n">
+        <v>43</v>
+      </c>
+      <c r="K308" t="n">
+        <v>14000</v>
+      </c>
+      <c r="L308" t="n">
+        <v>15000</v>
+      </c>
+      <c r="M308" t="n">
+        <v>14512</v>
+      </c>
+      <c r="N308" t="inlineStr">
+        <is>
+          <t>$/caja 40 unidades</t>
+        </is>
+      </c>
+      <c r="O308" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P308" t="n">
+        <v>363</v>
+      </c>
+      <c r="Q308" t="n">
+        <v>40</v>
+      </c>
+      <c r="R308" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" t="n">
+        <v>9</v>
+      </c>
+      <c r="B309" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C309" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D309" s="2" t="n">
+        <v>44425</v>
+      </c>
+      <c r="E309" t="n">
+        <v>13</v>
+      </c>
+      <c r="F309" t="n">
+        <v>100112013</v>
+      </c>
+      <c r="G309" t="inlineStr">
+        <is>
+          <t>Alcachofa</t>
+        </is>
+      </c>
+      <c r="H309" t="inlineStr">
+        <is>
+          <t>Madrigal</t>
+        </is>
+      </c>
+      <c r="I309" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="J309" t="n">
+        <v>25</v>
+      </c>
+      <c r="K309" t="n">
+        <v>12000</v>
+      </c>
+      <c r="L309" t="n">
+        <v>13000</v>
+      </c>
+      <c r="M309" t="n">
+        <v>12480</v>
+      </c>
+      <c r="N309" t="inlineStr">
+        <is>
+          <t>$/caja 50 unidades</t>
+        </is>
+      </c>
+      <c r="O309" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P309" t="n">
+        <v>250</v>
+      </c>
+      <c r="Q309" t="n">
+        <v>50</v>
+      </c>
+      <c r="R309" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" t="n">
+        <v>9</v>
+      </c>
+      <c r="B310" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C310" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D310" s="2" t="n">
         <v>44323</v>
       </c>
-      <c r="E307" t="n">
-        <v>13</v>
-      </c>
-      <c r="F307" t="n">
-        <v>100112013</v>
-      </c>
-      <c r="G307" t="inlineStr">
-        <is>
-          <t>Alcachofa</t>
-        </is>
-      </c>
-      <c r="H307" t="inlineStr">
-        <is>
-          <t>Española</t>
-        </is>
-      </c>
-      <c r="I307" t="inlineStr">
+      <c r="E310" t="n">
+        <v>13</v>
+      </c>
+      <c r="F310" t="n">
+        <v>100112013</v>
+      </c>
+      <c r="G310" t="inlineStr">
+        <is>
+          <t>Alcachofa</t>
+        </is>
+      </c>
+      <c r="H310" t="inlineStr">
+        <is>
+          <t>Argentina(o)</t>
+        </is>
+      </c>
+      <c r="I310" t="inlineStr">
         <is>
           <t>Primera</t>
         </is>
       </c>
-      <c r="J307" t="n">
+      <c r="J310" t="n">
+        <v>16</v>
+      </c>
+      <c r="K310" t="n">
+        <v>18000</v>
+      </c>
+      <c r="L310" t="n">
+        <v>18000</v>
+      </c>
+      <c r="M310" t="n">
+        <v>18000</v>
+      </c>
+      <c r="N310" t="inlineStr">
+        <is>
+          <t>$/caja 50 unidades</t>
+        </is>
+      </c>
+      <c r="O310" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P310" t="n">
+        <v>360</v>
+      </c>
+      <c r="Q310" t="n">
+        <v>50</v>
+      </c>
+      <c r="R310" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" t="n">
+        <v>9</v>
+      </c>
+      <c r="B311" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C311" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D311" s="2" t="n">
+        <v>44323</v>
+      </c>
+      <c r="E311" t="n">
+        <v>13</v>
+      </c>
+      <c r="F311" t="n">
+        <v>100112013</v>
+      </c>
+      <c r="G311" t="inlineStr">
+        <is>
+          <t>Alcachofa</t>
+        </is>
+      </c>
+      <c r="H311" t="inlineStr">
+        <is>
+          <t>Española</t>
+        </is>
+      </c>
+      <c r="I311" t="inlineStr">
+        <is>
+          <t>Extra</t>
+        </is>
+      </c>
+      <c r="J311" t="n">
+        <v>16</v>
+      </c>
+      <c r="K311" t="n">
+        <v>18000</v>
+      </c>
+      <c r="L311" t="n">
+        <v>18000</v>
+      </c>
+      <c r="M311" t="n">
+        <v>18000</v>
+      </c>
+      <c r="N311" t="inlineStr">
+        <is>
+          <t>$/caja 25 unidades</t>
+        </is>
+      </c>
+      <c r="O311" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P311" t="n">
+        <v>18000</v>
+      </c>
+      <c r="Q311" t="n">
+        <v>1</v>
+      </c>
+      <c r="R311" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" t="n">
+        <v>9</v>
+      </c>
+      <c r="B312" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C312" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D312" s="2" t="n">
+        <v>44323</v>
+      </c>
+      <c r="E312" t="n">
+        <v>13</v>
+      </c>
+      <c r="F312" t="n">
+        <v>100112013</v>
+      </c>
+      <c r="G312" t="inlineStr">
+        <is>
+          <t>Alcachofa</t>
+        </is>
+      </c>
+      <c r="H312" t="inlineStr">
+        <is>
+          <t>Española</t>
+        </is>
+      </c>
+      <c r="I312" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J312" t="n">
         <v>25</v>
       </c>
-      <c r="K307" t="n">
+      <c r="K312" t="n">
         <v>16000</v>
       </c>
-      <c r="L307" t="n">
+      <c r="L312" t="n">
         <v>16000</v>
       </c>
-      <c r="M307" t="n">
+      <c r="M312" t="n">
         <v>16000</v>
       </c>
-      <c r="N307" t="inlineStr">
+      <c r="N312" t="inlineStr">
         <is>
           <t>$/caja 30 unidades</t>
         </is>
       </c>
-      <c r="O307" t="inlineStr">
+      <c r="O312" t="inlineStr">
         <is>
           <t>Provincia de Limarí</t>
         </is>
       </c>
-      <c r="P307" t="n">
+      <c r="P312" t="n">
         <v>533</v>
       </c>
-      <c r="Q307" t="n">
+      <c r="Q312" t="n">
         <v>30</v>
       </c>
-      <c r="R307" t="inlineStr">
+      <c r="R312" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Central Mapocho de Santiago - Alcachofa.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Central Mapocho de Santiago - Alcachofa.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R314"/>
+  <dimension ref="A1:R319"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -18837,7 +18837,7 @@
         </is>
       </c>
       <c r="D257" s="2" t="n">
-        <v>44468</v>
+        <v>44476</v>
       </c>
       <c r="E257" t="n">
         <v>13</v>
@@ -18861,16 +18861,16 @@
         </is>
       </c>
       <c r="J257" t="n">
-        <v>52</v>
+        <v>34</v>
       </c>
       <c r="K257" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="L257" t="n">
         <v>13000</v>
       </c>
       <c r="M257" t="n">
-        <v>12500</v>
+        <v>13000</v>
       </c>
       <c r="N257" t="inlineStr">
         <is>
@@ -18883,7 +18883,7 @@
         </is>
       </c>
       <c r="P257" t="n">
-        <v>12500</v>
+        <v>13000</v>
       </c>
       <c r="Q257" t="n">
         <v>1</v>
@@ -18909,7 +18909,7 @@
         </is>
       </c>
       <c r="D258" s="2" t="n">
-        <v>44468</v>
+        <v>44476</v>
       </c>
       <c r="E258" t="n">
         <v>13</v>
@@ -18933,16 +18933,16 @@
         </is>
       </c>
       <c r="J258" t="n">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="K258" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="L258" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="M258" t="n">
-        <v>10512</v>
+        <v>11500</v>
       </c>
       <c r="N258" t="inlineStr">
         <is>
@@ -18955,7 +18955,7 @@
         </is>
       </c>
       <c r="P258" t="n">
-        <v>350</v>
+        <v>383</v>
       </c>
       <c r="Q258" t="n">
         <v>30</v>
@@ -18981,7 +18981,7 @@
         </is>
       </c>
       <c r="D259" s="2" t="n">
-        <v>44468</v>
+        <v>44476</v>
       </c>
       <c r="E259" t="n">
         <v>13</v>
@@ -19001,36 +19001,36 @@
       </c>
       <c r="I259" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J259" t="n">
-        <v>16</v>
+        <v>340</v>
       </c>
       <c r="K259" t="n">
-        <v>8000</v>
+        <v>400</v>
       </c>
       <c r="L259" t="n">
-        <v>9000</v>
+        <v>400</v>
       </c>
       <c r="M259" t="n">
-        <v>8500</v>
+        <v>400</v>
       </c>
       <c r="N259" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O259" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P259" t="n">
-        <v>212</v>
+        <v>400</v>
       </c>
       <c r="Q259" t="n">
-        <v>40</v>
+        <v>1</v>
       </c>
       <c r="R259" t="inlineStr">
         <is>
@@ -19053,7 +19053,7 @@
         </is>
       </c>
       <c r="D260" s="2" t="n">
-        <v>44386</v>
+        <v>44476</v>
       </c>
       <c r="E260" t="n">
         <v>13</v>
@@ -19073,36 +19073,36 @@
       </c>
       <c r="I260" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J260" t="n">
         <v>16</v>
       </c>
       <c r="K260" t="n">
-        <v>20000</v>
+        <v>9000</v>
       </c>
       <c r="L260" t="n">
-        <v>20000</v>
+        <v>10000</v>
       </c>
       <c r="M260" t="n">
-        <v>20000</v>
+        <v>9500</v>
       </c>
       <c r="N260" t="inlineStr">
         <is>
-          <t>$/caja 25 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O260" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P260" t="n">
-        <v>20000</v>
+        <v>238</v>
       </c>
       <c r="Q260" t="n">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="R260" t="inlineStr">
         <is>
@@ -19125,7 +19125,7 @@
         </is>
       </c>
       <c r="D261" s="2" t="n">
-        <v>44386</v>
+        <v>44476</v>
       </c>
       <c r="E261" t="n">
         <v>13</v>
@@ -19145,36 +19145,36 @@
       </c>
       <c r="I261" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J261" t="n">
-        <v>61</v>
+        <v>150</v>
       </c>
       <c r="K261" t="n">
-        <v>17000</v>
+        <v>300</v>
       </c>
       <c r="L261" t="n">
-        <v>18000</v>
+        <v>300</v>
       </c>
       <c r="M261" t="n">
-        <v>17492</v>
+        <v>300</v>
       </c>
       <c r="N261" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O261" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P261" t="n">
-        <v>583</v>
+        <v>300</v>
       </c>
       <c r="Q261" t="n">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="R261" t="inlineStr">
         <is>
@@ -19197,7 +19197,7 @@
         </is>
       </c>
       <c r="D262" s="2" t="n">
-        <v>44386</v>
+        <v>44468</v>
       </c>
       <c r="E262" t="n">
         <v>13</v>
@@ -19217,36 +19217,36 @@
       </c>
       <c r="I262" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J262" t="n">
-        <v>34</v>
+        <v>52</v>
       </c>
       <c r="K262" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="L262" t="n">
-        <v>16000</v>
+        <v>13000</v>
       </c>
       <c r="M262" t="n">
-        <v>15500</v>
+        <v>12500</v>
       </c>
       <c r="N262" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 25 unidades</t>
         </is>
       </c>
       <c r="O262" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P262" t="n">
-        <v>388</v>
+        <v>12500</v>
       </c>
       <c r="Q262" t="n">
-        <v>40</v>
+        <v>1</v>
       </c>
       <c r="R262" t="inlineStr">
         <is>
@@ -19269,7 +19269,7 @@
         </is>
       </c>
       <c r="D263" s="2" t="n">
-        <v>44386</v>
+        <v>44468</v>
       </c>
       <c r="E263" t="n">
         <v>13</v>
@@ -19284,41 +19284,41 @@
       </c>
       <c r="H263" t="inlineStr">
         <is>
-          <t>Madrigal</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I263" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J263" t="n">
-        <v>16</v>
+        <v>43</v>
       </c>
       <c r="K263" t="n">
-        <v>22000</v>
+        <v>10000</v>
       </c>
       <c r="L263" t="n">
-        <v>22000</v>
+        <v>11000</v>
       </c>
       <c r="M263" t="n">
-        <v>22000</v>
+        <v>10512</v>
       </c>
       <c r="N263" t="inlineStr">
         <is>
-          <t>$/caja 35 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O263" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P263" t="n">
-        <v>629</v>
+        <v>350</v>
       </c>
       <c r="Q263" t="n">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="R263" t="inlineStr">
         <is>
@@ -19341,7 +19341,7 @@
         </is>
       </c>
       <c r="D264" s="2" t="n">
-        <v>44386</v>
+        <v>44468</v>
       </c>
       <c r="E264" t="n">
         <v>13</v>
@@ -19356,25 +19356,25 @@
       </c>
       <c r="H264" t="inlineStr">
         <is>
-          <t>Madrigal</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I264" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J264" t="n">
-        <v>43</v>
+        <v>16</v>
       </c>
       <c r="K264" t="n">
-        <v>20000</v>
+        <v>8000</v>
       </c>
       <c r="L264" t="n">
-        <v>21000</v>
+        <v>9000</v>
       </c>
       <c r="M264" t="n">
-        <v>20488</v>
+        <v>8500</v>
       </c>
       <c r="N264" t="inlineStr">
         <is>
@@ -19383,11 +19383,11 @@
       </c>
       <c r="O264" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P264" t="n">
-        <v>512</v>
+        <v>212</v>
       </c>
       <c r="Q264" t="n">
         <v>40</v>
@@ -19428,29 +19428,29 @@
       </c>
       <c r="H265" t="inlineStr">
         <is>
-          <t>Madrigal</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I265" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J265" t="n">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="K265" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="L265" t="n">
-        <v>19000</v>
+        <v>20000</v>
       </c>
       <c r="M265" t="n">
-        <v>18480</v>
+        <v>20000</v>
       </c>
       <c r="N265" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 25 unidades</t>
         </is>
       </c>
       <c r="O265" t="inlineStr">
@@ -19459,10 +19459,10 @@
         </is>
       </c>
       <c r="P265" t="n">
-        <v>370</v>
+        <v>20000</v>
       </c>
       <c r="Q265" t="n">
-        <v>50</v>
+        <v>1</v>
       </c>
       <c r="R265" t="inlineStr">
         <is>
@@ -19485,7 +19485,7 @@
         </is>
       </c>
       <c r="D266" s="2" t="n">
-        <v>44384</v>
+        <v>44386</v>
       </c>
       <c r="E266" t="n">
         <v>13</v>
@@ -19509,16 +19509,16 @@
         </is>
       </c>
       <c r="J266" t="n">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="K266" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="L266" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="M266" t="n">
-        <v>16500</v>
+        <v>17492</v>
       </c>
       <c r="N266" t="inlineStr">
         <is>
@@ -19531,7 +19531,7 @@
         </is>
       </c>
       <c r="P266" t="n">
-        <v>550</v>
+        <v>583</v>
       </c>
       <c r="Q266" t="n">
         <v>30</v>
@@ -19557,7 +19557,7 @@
         </is>
       </c>
       <c r="D267" s="2" t="n">
-        <v>44384</v>
+        <v>44386</v>
       </c>
       <c r="E267" t="n">
         <v>13</v>
@@ -19587,10 +19587,10 @@
         <v>15000</v>
       </c>
       <c r="L267" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="M267" t="n">
-        <v>15000</v>
+        <v>15500</v>
       </c>
       <c r="N267" t="inlineStr">
         <is>
@@ -19603,7 +19603,7 @@
         </is>
       </c>
       <c r="P267" t="n">
-        <v>375</v>
+        <v>388</v>
       </c>
       <c r="Q267" t="n">
         <v>40</v>
@@ -19629,7 +19629,7 @@
         </is>
       </c>
       <c r="D268" s="2" t="n">
-        <v>44363</v>
+        <v>44386</v>
       </c>
       <c r="E268" t="n">
         <v>13</v>
@@ -19644,29 +19644,29 @@
       </c>
       <c r="H268" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Madrigal</t>
         </is>
       </c>
       <c r="I268" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J268" t="n">
-        <v>52</v>
+        <v>16</v>
       </c>
       <c r="K268" t="n">
-        <v>16000</v>
+        <v>22000</v>
       </c>
       <c r="L268" t="n">
-        <v>17000</v>
+        <v>22000</v>
       </c>
       <c r="M268" t="n">
-        <v>16500</v>
+        <v>22000</v>
       </c>
       <c r="N268" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 35 unidades</t>
         </is>
       </c>
       <c r="O268" t="inlineStr">
@@ -19675,10 +19675,10 @@
         </is>
       </c>
       <c r="P268" t="n">
-        <v>330</v>
+        <v>629</v>
       </c>
       <c r="Q268" t="n">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="R268" t="inlineStr">
         <is>
@@ -19701,7 +19701,7 @@
         </is>
       </c>
       <c r="D269" s="2" t="n">
-        <v>44363</v>
+        <v>44386</v>
       </c>
       <c r="E269" t="n">
         <v>13</v>
@@ -19716,7 +19716,7 @@
       </c>
       <c r="H269" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Madrigal</t>
         </is>
       </c>
       <c r="I269" t="inlineStr">
@@ -19725,32 +19725,32 @@
         </is>
       </c>
       <c r="J269" t="n">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="K269" t="n">
-        <v>17000</v>
+        <v>20000</v>
       </c>
       <c r="L269" t="n">
-        <v>18000</v>
+        <v>21000</v>
       </c>
       <c r="M269" t="n">
-        <v>17500</v>
+        <v>20488</v>
       </c>
       <c r="N269" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O269" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P269" t="n">
-        <v>583</v>
+        <v>512</v>
       </c>
       <c r="Q269" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="R269" t="inlineStr">
         <is>
@@ -19773,7 +19773,7 @@
         </is>
       </c>
       <c r="D270" s="2" t="n">
-        <v>44306</v>
+        <v>44386</v>
       </c>
       <c r="E270" t="n">
         <v>13</v>
@@ -19788,41 +19788,41 @@
       </c>
       <c r="H270" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Madrigal</t>
         </is>
       </c>
       <c r="I270" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J270" t="n">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="K270" t="n">
-        <v>20000</v>
+        <v>18000</v>
       </c>
       <c r="L270" t="n">
-        <v>20000</v>
+        <v>19000</v>
       </c>
       <c r="M270" t="n">
-        <v>20000</v>
+        <v>18480</v>
       </c>
       <c r="N270" t="inlineStr">
         <is>
-          <t>$/caja 25 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O270" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P270" t="n">
-        <v>20000</v>
+        <v>370</v>
       </c>
       <c r="Q270" t="n">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="R270" t="inlineStr">
         <is>
@@ -19845,7 +19845,7 @@
         </is>
       </c>
       <c r="D271" s="2" t="n">
-        <v>44306</v>
+        <v>44384</v>
       </c>
       <c r="E271" t="n">
         <v>13</v>
@@ -19869,16 +19869,16 @@
         </is>
       </c>
       <c r="J271" t="n">
-        <v>25</v>
+        <v>52</v>
       </c>
       <c r="K271" t="n">
-        <v>18000</v>
+        <v>16000</v>
       </c>
       <c r="L271" t="n">
-        <v>18000</v>
+        <v>17000</v>
       </c>
       <c r="M271" t="n">
-        <v>18000</v>
+        <v>16500</v>
       </c>
       <c r="N271" t="inlineStr">
         <is>
@@ -19887,11 +19887,11 @@
       </c>
       <c r="O271" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P271" t="n">
-        <v>600</v>
+        <v>550</v>
       </c>
       <c r="Q271" t="n">
         <v>30</v>
@@ -19917,7 +19917,7 @@
         </is>
       </c>
       <c r="D272" s="2" t="n">
-        <v>44369</v>
+        <v>44384</v>
       </c>
       <c r="E272" t="n">
         <v>13</v>
@@ -19937,24 +19937,24 @@
       </c>
       <c r="I272" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J272" t="n">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="K272" t="n">
-        <v>21000</v>
+        <v>15000</v>
       </c>
       <c r="L272" t="n">
-        <v>22000</v>
+        <v>15000</v>
       </c>
       <c r="M272" t="n">
-        <v>21500</v>
+        <v>15000</v>
       </c>
       <c r="N272" t="inlineStr">
         <is>
-          <t>$/caja 25 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O272" t="inlineStr">
@@ -19963,10 +19963,10 @@
         </is>
       </c>
       <c r="P272" t="n">
-        <v>21500</v>
+        <v>375</v>
       </c>
       <c r="Q272" t="n">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="R272" t="inlineStr">
         <is>
@@ -19989,7 +19989,7 @@
         </is>
       </c>
       <c r="D273" s="2" t="n">
-        <v>44369</v>
+        <v>44363</v>
       </c>
       <c r="E273" t="n">
         <v>13</v>
@@ -20004,7 +20004,7 @@
       </c>
       <c r="H273" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I273" t="inlineStr">
@@ -20013,20 +20013,20 @@
         </is>
       </c>
       <c r="J273" t="n">
-        <v>34</v>
+        <v>52</v>
       </c>
       <c r="K273" t="n">
-        <v>19000</v>
+        <v>16000</v>
       </c>
       <c r="L273" t="n">
-        <v>20000</v>
+        <v>17000</v>
       </c>
       <c r="M273" t="n">
-        <v>19500</v>
+        <v>16500</v>
       </c>
       <c r="N273" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O273" t="inlineStr">
@@ -20035,10 +20035,10 @@
         </is>
       </c>
       <c r="P273" t="n">
-        <v>650</v>
+        <v>330</v>
       </c>
       <c r="Q273" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R273" t="inlineStr">
         <is>
@@ -20061,7 +20061,7 @@
         </is>
       </c>
       <c r="D274" s="2" t="n">
-        <v>44369</v>
+        <v>44363</v>
       </c>
       <c r="E274" t="n">
         <v>13</v>
@@ -20081,36 +20081,36 @@
       </c>
       <c r="I274" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J274" t="n">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="K274" t="n">
         <v>17000</v>
       </c>
       <c r="L274" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="M274" t="n">
-        <v>17000</v>
+        <v>17500</v>
       </c>
       <c r="N274" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O274" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P274" t="n">
-        <v>425</v>
+        <v>583</v>
       </c>
       <c r="Q274" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="R274" t="inlineStr">
         <is>
@@ -20133,7 +20133,7 @@
         </is>
       </c>
       <c r="D275" s="2" t="n">
-        <v>44369</v>
+        <v>44306</v>
       </c>
       <c r="E275" t="n">
         <v>13</v>
@@ -20148,29 +20148,29 @@
       </c>
       <c r="H275" t="inlineStr">
         <is>
-          <t>Madrigal</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I275" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J275" t="n">
-        <v>43</v>
+        <v>16</v>
       </c>
       <c r="K275" t="n">
-        <v>16000</v>
+        <v>20000</v>
       </c>
       <c r="L275" t="n">
-        <v>17000</v>
+        <v>20000</v>
       </c>
       <c r="M275" t="n">
-        <v>16488</v>
+        <v>20000</v>
       </c>
       <c r="N275" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 25 unidades</t>
         </is>
       </c>
       <c r="O275" t="inlineStr">
@@ -20179,10 +20179,10 @@
         </is>
       </c>
       <c r="P275" t="n">
-        <v>412</v>
+        <v>20000</v>
       </c>
       <c r="Q275" t="n">
-        <v>40</v>
+        <v>1</v>
       </c>
       <c r="R275" t="inlineStr">
         <is>
@@ -20205,7 +20205,7 @@
         </is>
       </c>
       <c r="D276" s="2" t="n">
-        <v>44369</v>
+        <v>44306</v>
       </c>
       <c r="E276" t="n">
         <v>13</v>
@@ -20220,29 +20220,29 @@
       </c>
       <c r="H276" t="inlineStr">
         <is>
-          <t>Madrigal</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I276" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J276" t="n">
         <v>25</v>
       </c>
       <c r="K276" t="n">
-        <v>14000</v>
+        <v>18000</v>
       </c>
       <c r="L276" t="n">
-        <v>14000</v>
+        <v>18000</v>
       </c>
       <c r="M276" t="n">
-        <v>14000</v>
+        <v>18000</v>
       </c>
       <c r="N276" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O276" t="inlineStr">
@@ -20251,10 +20251,10 @@
         </is>
       </c>
       <c r="P276" t="n">
-        <v>280</v>
+        <v>600</v>
       </c>
       <c r="Q276" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R276" t="inlineStr">
         <is>
@@ -20277,7 +20277,7 @@
         </is>
       </c>
       <c r="D277" s="2" t="n">
-        <v>44301</v>
+        <v>44369</v>
       </c>
       <c r="E277" t="n">
         <v>13</v>
@@ -20297,36 +20297,36 @@
       </c>
       <c r="I277" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J277" t="n">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="K277" t="n">
-        <v>17000</v>
+        <v>21000</v>
       </c>
       <c r="L277" t="n">
-        <v>18000</v>
+        <v>22000</v>
       </c>
       <c r="M277" t="n">
-        <v>17500</v>
+        <v>21500</v>
       </c>
       <c r="N277" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 25 unidades</t>
         </is>
       </c>
       <c r="O277" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P277" t="n">
-        <v>583</v>
+        <v>21500</v>
       </c>
       <c r="Q277" t="n">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="R277" t="inlineStr">
         <is>
@@ -20349,7 +20349,7 @@
         </is>
       </c>
       <c r="D278" s="2" t="n">
-        <v>44357</v>
+        <v>44369</v>
       </c>
       <c r="E278" t="n">
         <v>13</v>
@@ -20364,7 +20364,7 @@
       </c>
       <c r="H278" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I278" t="inlineStr">
@@ -20376,29 +20376,29 @@
         <v>34</v>
       </c>
       <c r="K278" t="n">
-        <v>15000</v>
+        <v>19000</v>
       </c>
       <c r="L278" t="n">
-        <v>16000</v>
+        <v>20000</v>
       </c>
       <c r="M278" t="n">
-        <v>15500</v>
+        <v>19500</v>
       </c>
       <c r="N278" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O278" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P278" t="n">
-        <v>310</v>
+        <v>650</v>
       </c>
       <c r="Q278" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R278" t="inlineStr">
         <is>
@@ -20421,7 +20421,7 @@
         </is>
       </c>
       <c r="D279" s="2" t="n">
-        <v>44357</v>
+        <v>44369</v>
       </c>
       <c r="E279" t="n">
         <v>13</v>
@@ -20436,7 +20436,7 @@
       </c>
       <c r="H279" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I279" t="inlineStr">
@@ -20445,32 +20445,32 @@
         </is>
       </c>
       <c r="J279" t="n">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="K279" t="n">
-        <v>13000</v>
+        <v>17000</v>
       </c>
       <c r="L279" t="n">
-        <v>13000</v>
+        <v>17000</v>
       </c>
       <c r="M279" t="n">
-        <v>13000</v>
+        <v>17000</v>
       </c>
       <c r="N279" t="inlineStr">
         <is>
-          <t>$/caja 70 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O279" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P279" t="n">
-        <v>186</v>
+        <v>425</v>
       </c>
       <c r="Q279" t="n">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="R279" t="inlineStr">
         <is>
@@ -20493,7 +20493,7 @@
         </is>
       </c>
       <c r="D280" s="2" t="n">
-        <v>44357</v>
+        <v>44369</v>
       </c>
       <c r="E280" t="n">
         <v>13</v>
@@ -20508,41 +20508,41 @@
       </c>
       <c r="H280" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Madrigal</t>
         </is>
       </c>
       <c r="I280" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J280" t="n">
-        <v>16</v>
+        <v>43</v>
       </c>
       <c r="K280" t="n">
-        <v>19000</v>
+        <v>16000</v>
       </c>
       <c r="L280" t="n">
-        <v>20000</v>
+        <v>17000</v>
       </c>
       <c r="M280" t="n">
-        <v>19500</v>
+        <v>16488</v>
       </c>
       <c r="N280" t="inlineStr">
         <is>
-          <t>$/caja 25 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O280" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P280" t="n">
-        <v>19500</v>
+        <v>412</v>
       </c>
       <c r="Q280" t="n">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="R280" t="inlineStr">
         <is>
@@ -20565,7 +20565,7 @@
         </is>
       </c>
       <c r="D281" s="2" t="n">
-        <v>44357</v>
+        <v>44369</v>
       </c>
       <c r="E281" t="n">
         <v>13</v>
@@ -20580,41 +20580,41 @@
       </c>
       <c r="H281" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Madrigal</t>
         </is>
       </c>
       <c r="I281" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J281" t="n">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="K281" t="n">
-        <v>17000</v>
+        <v>14000</v>
       </c>
       <c r="L281" t="n">
-        <v>18000</v>
+        <v>14000</v>
       </c>
       <c r="M281" t="n">
-        <v>17500</v>
+        <v>14000</v>
       </c>
       <c r="N281" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O281" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P281" t="n">
-        <v>583</v>
+        <v>280</v>
       </c>
       <c r="Q281" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R281" t="inlineStr">
         <is>
@@ -20637,7 +20637,7 @@
         </is>
       </c>
       <c r="D282" s="2" t="n">
-        <v>44357</v>
+        <v>44301</v>
       </c>
       <c r="E282" t="n">
         <v>13</v>
@@ -20657,36 +20657,36 @@
       </c>
       <c r="I282" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J282" t="n">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="K282" t="n">
-        <v>15000</v>
+        <v>17000</v>
       </c>
       <c r="L282" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="M282" t="n">
-        <v>15000</v>
+        <v>17500</v>
       </c>
       <c r="N282" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O282" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P282" t="n">
-        <v>375</v>
+        <v>583</v>
       </c>
       <c r="Q282" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="R282" t="inlineStr">
         <is>
@@ -20709,7 +20709,7 @@
         </is>
       </c>
       <c r="D283" s="2" t="n">
-        <v>44328</v>
+        <v>44357</v>
       </c>
       <c r="E283" t="n">
         <v>13</v>
@@ -20736,13 +20736,13 @@
         <v>34</v>
       </c>
       <c r="K283" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="L283" t="n">
         <v>16000</v>
       </c>
       <c r="M283" t="n">
-        <v>16000</v>
+        <v>15500</v>
       </c>
       <c r="N283" t="inlineStr">
         <is>
@@ -20755,7 +20755,7 @@
         </is>
       </c>
       <c r="P283" t="n">
-        <v>320</v>
+        <v>310</v>
       </c>
       <c r="Q283" t="n">
         <v>50</v>
@@ -20781,7 +20781,7 @@
         </is>
       </c>
       <c r="D284" s="2" t="n">
-        <v>44328</v>
+        <v>44357</v>
       </c>
       <c r="E284" t="n">
         <v>13</v>
@@ -20796,29 +20796,29 @@
       </c>
       <c r="H284" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I284" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J284" t="n">
         <v>16</v>
       </c>
       <c r="K284" t="n">
-        <v>18000</v>
+        <v>13000</v>
       </c>
       <c r="L284" t="n">
-        <v>18000</v>
+        <v>13000</v>
       </c>
       <c r="M284" t="n">
-        <v>18000</v>
+        <v>13000</v>
       </c>
       <c r="N284" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 70 unidades</t>
         </is>
       </c>
       <c r="O284" t="inlineStr">
@@ -20827,10 +20827,10 @@
         </is>
       </c>
       <c r="P284" t="n">
-        <v>600</v>
+        <v>186</v>
       </c>
       <c r="Q284" t="n">
-        <v>30</v>
+        <v>70</v>
       </c>
       <c r="R284" t="inlineStr">
         <is>
@@ -20853,7 +20853,7 @@
         </is>
       </c>
       <c r="D285" s="2" t="n">
-        <v>44328</v>
+        <v>44357</v>
       </c>
       <c r="E285" t="n">
         <v>13</v>
@@ -20873,36 +20873,36 @@
       </c>
       <c r="I285" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J285" t="n">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="K285" t="n">
-        <v>16000</v>
+        <v>19000</v>
       </c>
       <c r="L285" t="n">
-        <v>16000</v>
+        <v>20000</v>
       </c>
       <c r="M285" t="n">
-        <v>16000</v>
+        <v>19500</v>
       </c>
       <c r="N285" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 25 unidades</t>
         </is>
       </c>
       <c r="O285" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P285" t="n">
-        <v>400</v>
+        <v>19500</v>
       </c>
       <c r="Q285" t="n">
-        <v>40</v>
+        <v>1</v>
       </c>
       <c r="R285" t="inlineStr">
         <is>
@@ -20925,7 +20925,7 @@
         </is>
       </c>
       <c r="D286" s="2" t="n">
-        <v>44397</v>
+        <v>44357</v>
       </c>
       <c r="E286" t="n">
         <v>13</v>
@@ -20945,36 +20945,36 @@
       </c>
       <c r="I286" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J286" t="n">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="K286" t="n">
-        <v>19000</v>
+        <v>17000</v>
       </c>
       <c r="L286" t="n">
-        <v>20000</v>
+        <v>18000</v>
       </c>
       <c r="M286" t="n">
-        <v>19500</v>
+        <v>17500</v>
       </c>
       <c r="N286" t="inlineStr">
         <is>
-          <t>$/caja 25 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O286" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P286" t="n">
-        <v>19500</v>
+        <v>583</v>
       </c>
       <c r="Q286" t="n">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="R286" t="inlineStr">
         <is>
@@ -20997,7 +20997,7 @@
         </is>
       </c>
       <c r="D287" s="2" t="n">
-        <v>44397</v>
+        <v>44357</v>
       </c>
       <c r="E287" t="n">
         <v>13</v>
@@ -21017,36 +21017,36 @@
       </c>
       <c r="I287" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J287" t="n">
-        <v>43</v>
+        <v>25</v>
       </c>
       <c r="K287" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="L287" t="n">
-        <v>17000</v>
+        <v>15000</v>
       </c>
       <c r="M287" t="n">
-        <v>16488</v>
+        <v>15000</v>
       </c>
       <c r="N287" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O287" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P287" t="n">
-        <v>550</v>
+        <v>375</v>
       </c>
       <c r="Q287" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="R287" t="inlineStr">
         <is>
@@ -21069,7 +21069,7 @@
         </is>
       </c>
       <c r="D288" s="2" t="n">
-        <v>44397</v>
+        <v>44328</v>
       </c>
       <c r="E288" t="n">
         <v>13</v>
@@ -21084,29 +21084,29 @@
       </c>
       <c r="H288" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I288" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J288" t="n">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="K288" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="L288" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="M288" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="N288" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O288" t="inlineStr">
@@ -21115,10 +21115,10 @@
         </is>
       </c>
       <c r="P288" t="n">
-        <v>375</v>
+        <v>320</v>
       </c>
       <c r="Q288" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="R288" t="inlineStr">
         <is>
@@ -21141,7 +21141,7 @@
         </is>
       </c>
       <c r="D289" s="2" t="n">
-        <v>44414</v>
+        <v>44328</v>
       </c>
       <c r="E289" t="n">
         <v>13</v>
@@ -21161,24 +21161,24 @@
       </c>
       <c r="I289" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J289" t="n">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="K289" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="L289" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="M289" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="N289" t="inlineStr">
         <is>
-          <t>$/caja 25 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O289" t="inlineStr">
@@ -21187,10 +21187,10 @@
         </is>
       </c>
       <c r="P289" t="n">
-        <v>15000</v>
+        <v>600</v>
       </c>
       <c r="Q289" t="n">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="R289" t="inlineStr">
         <is>
@@ -21213,7 +21213,7 @@
         </is>
       </c>
       <c r="D290" s="2" t="n">
-        <v>44414</v>
+        <v>44328</v>
       </c>
       <c r="E290" t="n">
         <v>13</v>
@@ -21233,24 +21233,24 @@
       </c>
       <c r="I290" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J290" t="n">
-        <v>61</v>
+        <v>25</v>
       </c>
       <c r="K290" t="n">
-        <v>13000</v>
+        <v>16000</v>
       </c>
       <c r="L290" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="M290" t="n">
-        <v>13492</v>
+        <v>16000</v>
       </c>
       <c r="N290" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O290" t="inlineStr">
@@ -21259,10 +21259,10 @@
         </is>
       </c>
       <c r="P290" t="n">
-        <v>450</v>
+        <v>400</v>
       </c>
       <c r="Q290" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="R290" t="inlineStr">
         <is>
@@ -21285,7 +21285,7 @@
         </is>
       </c>
       <c r="D291" s="2" t="n">
-        <v>44414</v>
+        <v>44397</v>
       </c>
       <c r="E291" t="n">
         <v>13</v>
@@ -21305,24 +21305,24 @@
       </c>
       <c r="I291" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J291" t="n">
-        <v>43</v>
+        <v>16</v>
       </c>
       <c r="K291" t="n">
-        <v>12000</v>
+        <v>19000</v>
       </c>
       <c r="L291" t="n">
-        <v>12000</v>
+        <v>20000</v>
       </c>
       <c r="M291" t="n">
-        <v>12000</v>
+        <v>19500</v>
       </c>
       <c r="N291" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 25 unidades</t>
         </is>
       </c>
       <c r="O291" t="inlineStr">
@@ -21331,10 +21331,10 @@
         </is>
       </c>
       <c r="P291" t="n">
-        <v>300</v>
+        <v>19500</v>
       </c>
       <c r="Q291" t="n">
-        <v>40</v>
+        <v>1</v>
       </c>
       <c r="R291" t="inlineStr">
         <is>
@@ -21357,7 +21357,7 @@
         </is>
       </c>
       <c r="D292" s="2" t="n">
-        <v>44333</v>
+        <v>44397</v>
       </c>
       <c r="E292" t="n">
         <v>13</v>
@@ -21372,7 +21372,7 @@
       </c>
       <c r="H292" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I292" t="inlineStr">
@@ -21381,32 +21381,32 @@
         </is>
       </c>
       <c r="J292" t="n">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="K292" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="L292" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="M292" t="n">
-        <v>15500</v>
+        <v>16488</v>
       </c>
       <c r="N292" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O292" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P292" t="n">
-        <v>310</v>
+        <v>550</v>
       </c>
       <c r="Q292" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R292" t="inlineStr">
         <is>
@@ -21429,7 +21429,7 @@
         </is>
       </c>
       <c r="D293" s="2" t="n">
-        <v>44392</v>
+        <v>44397</v>
       </c>
       <c r="E293" t="n">
         <v>13</v>
@@ -21449,36 +21449,36 @@
       </c>
       <c r="I293" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J293" t="n">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="K293" t="n">
-        <v>17000</v>
+        <v>15000</v>
       </c>
       <c r="L293" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="M293" t="n">
-        <v>17500</v>
+        <v>15000</v>
       </c>
       <c r="N293" t="inlineStr">
         <is>
-          <t>$/caja 25 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O293" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P293" t="n">
-        <v>17500</v>
+        <v>375</v>
       </c>
       <c r="Q293" t="n">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="R293" t="inlineStr">
         <is>
@@ -21501,7 +21501,7 @@
         </is>
       </c>
       <c r="D294" s="2" t="n">
-        <v>44392</v>
+        <v>44414</v>
       </c>
       <c r="E294" t="n">
         <v>13</v>
@@ -21521,36 +21521,36 @@
       </c>
       <c r="I294" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J294" t="n">
-        <v>52</v>
+        <v>25</v>
       </c>
       <c r="K294" t="n">
         <v>15000</v>
       </c>
       <c r="L294" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="M294" t="n">
-        <v>15500</v>
+        <v>15000</v>
       </c>
       <c r="N294" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 25 unidades</t>
         </is>
       </c>
       <c r="O294" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P294" t="n">
-        <v>517</v>
+        <v>15000</v>
       </c>
       <c r="Q294" t="n">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="R294" t="inlineStr">
         <is>
@@ -21573,7 +21573,7 @@
         </is>
       </c>
       <c r="D295" s="2" t="n">
-        <v>44392</v>
+        <v>44414</v>
       </c>
       <c r="E295" t="n">
         <v>13</v>
@@ -21593,11 +21593,11 @@
       </c>
       <c r="I295" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J295" t="n">
-        <v>25</v>
+        <v>61</v>
       </c>
       <c r="K295" t="n">
         <v>13000</v>
@@ -21606,23 +21606,23 @@
         <v>14000</v>
       </c>
       <c r="M295" t="n">
-        <v>13480</v>
+        <v>13492</v>
       </c>
       <c r="N295" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O295" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P295" t="n">
-        <v>337</v>
+        <v>450</v>
       </c>
       <c r="Q295" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="R295" t="inlineStr">
         <is>
@@ -21645,7 +21645,7 @@
         </is>
       </c>
       <c r="D296" s="2" t="n">
-        <v>44425</v>
+        <v>44414</v>
       </c>
       <c r="E296" t="n">
         <v>13</v>
@@ -21665,24 +21665,24 @@
       </c>
       <c r="I296" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J296" t="n">
-        <v>25</v>
+        <v>43</v>
       </c>
       <c r="K296" t="n">
-        <v>16000</v>
+        <v>12000</v>
       </c>
       <c r="L296" t="n">
-        <v>16000</v>
+        <v>12000</v>
       </c>
       <c r="M296" t="n">
-        <v>16000</v>
+        <v>12000</v>
       </c>
       <c r="N296" t="inlineStr">
         <is>
-          <t>$/caja 25 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O296" t="inlineStr">
@@ -21691,10 +21691,10 @@
         </is>
       </c>
       <c r="P296" t="n">
-        <v>16000</v>
+        <v>300</v>
       </c>
       <c r="Q296" t="n">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="R296" t="inlineStr">
         <is>
@@ -21717,7 +21717,7 @@
         </is>
       </c>
       <c r="D297" s="2" t="n">
-        <v>44425</v>
+        <v>44333</v>
       </c>
       <c r="E297" t="n">
         <v>13</v>
@@ -21732,7 +21732,7 @@
       </c>
       <c r="H297" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I297" t="inlineStr">
@@ -21741,32 +21741,32 @@
         </is>
       </c>
       <c r="J297" t="n">
-        <v>61</v>
+        <v>34</v>
       </c>
       <c r="K297" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="L297" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="M297" t="n">
-        <v>14508</v>
+        <v>15500</v>
       </c>
       <c r="N297" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O297" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P297" t="n">
-        <v>484</v>
+        <v>310</v>
       </c>
       <c r="Q297" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R297" t="inlineStr">
         <is>
@@ -21789,7 +21789,7 @@
         </is>
       </c>
       <c r="D298" s="2" t="n">
-        <v>44425</v>
+        <v>44392</v>
       </c>
       <c r="E298" t="n">
         <v>13</v>
@@ -21809,36 +21809,36 @@
       </c>
       <c r="I298" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J298" t="n">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="K298" t="n">
-        <v>12000</v>
+        <v>17000</v>
       </c>
       <c r="L298" t="n">
-        <v>13000</v>
+        <v>18000</v>
       </c>
       <c r="M298" t="n">
-        <v>12500</v>
+        <v>17500</v>
       </c>
       <c r="N298" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 25 unidades</t>
         </is>
       </c>
       <c r="O298" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P298" t="n">
-        <v>312</v>
+        <v>17500</v>
       </c>
       <c r="Q298" t="n">
-        <v>40</v>
+        <v>1</v>
       </c>
       <c r="R298" t="inlineStr">
         <is>
@@ -21861,7 +21861,7 @@
         </is>
       </c>
       <c r="D299" s="2" t="n">
-        <v>44425</v>
+        <v>44392</v>
       </c>
       <c r="E299" t="n">
         <v>13</v>
@@ -21876,7 +21876,7 @@
       </c>
       <c r="H299" t="inlineStr">
         <is>
-          <t>Madrigal</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I299" t="inlineStr">
@@ -21885,32 +21885,32 @@
         </is>
       </c>
       <c r="J299" t="n">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="K299" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="L299" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="M299" t="n">
-        <v>14512</v>
+        <v>15500</v>
       </c>
       <c r="N299" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O299" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P299" t="n">
-        <v>363</v>
+        <v>517</v>
       </c>
       <c r="Q299" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="R299" t="inlineStr">
         <is>
@@ -21933,7 +21933,7 @@
         </is>
       </c>
       <c r="D300" s="2" t="n">
-        <v>44425</v>
+        <v>44392</v>
       </c>
       <c r="E300" t="n">
         <v>13</v>
@@ -21948,7 +21948,7 @@
       </c>
       <c r="H300" t="inlineStr">
         <is>
-          <t>Madrigal</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I300" t="inlineStr">
@@ -21960,29 +21960,29 @@
         <v>25</v>
       </c>
       <c r="K300" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="L300" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="M300" t="n">
-        <v>12480</v>
+        <v>13480</v>
       </c>
       <c r="N300" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O300" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P300" t="n">
-        <v>250</v>
+        <v>337</v>
       </c>
       <c r="Q300" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="R300" t="inlineStr">
         <is>
@@ -22005,7 +22005,7 @@
         </is>
       </c>
       <c r="D301" s="2" t="n">
-        <v>44390</v>
+        <v>44425</v>
       </c>
       <c r="E301" t="n">
         <v>13</v>
@@ -22029,16 +22029,16 @@
         </is>
       </c>
       <c r="J301" t="n">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="K301" t="n">
-        <v>19000</v>
+        <v>16000</v>
       </c>
       <c r="L301" t="n">
-        <v>20000</v>
+        <v>16000</v>
       </c>
       <c r="M301" t="n">
-        <v>19500</v>
+        <v>16000</v>
       </c>
       <c r="N301" t="inlineStr">
         <is>
@@ -22051,7 +22051,7 @@
         </is>
       </c>
       <c r="P301" t="n">
-        <v>19500</v>
+        <v>16000</v>
       </c>
       <c r="Q301" t="n">
         <v>1</v>
@@ -22077,7 +22077,7 @@
         </is>
       </c>
       <c r="D302" s="2" t="n">
-        <v>44390</v>
+        <v>44425</v>
       </c>
       <c r="E302" t="n">
         <v>13</v>
@@ -22101,16 +22101,16 @@
         </is>
       </c>
       <c r="J302" t="n">
-        <v>43</v>
+        <v>61</v>
       </c>
       <c r="K302" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="L302" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="M302" t="n">
-        <v>17023</v>
+        <v>14508</v>
       </c>
       <c r="N302" t="inlineStr">
         <is>
@@ -22123,7 +22123,7 @@
         </is>
       </c>
       <c r="P302" t="n">
-        <v>567</v>
+        <v>484</v>
       </c>
       <c r="Q302" t="n">
         <v>30</v>
@@ -22149,7 +22149,7 @@
         </is>
       </c>
       <c r="D303" s="2" t="n">
-        <v>44390</v>
+        <v>44425</v>
       </c>
       <c r="E303" t="n">
         <v>13</v>
@@ -22173,16 +22173,16 @@
         </is>
       </c>
       <c r="J303" t="n">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="K303" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="L303" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="M303" t="n">
-        <v>14000</v>
+        <v>12500</v>
       </c>
       <c r="N303" t="inlineStr">
         <is>
@@ -22195,7 +22195,7 @@
         </is>
       </c>
       <c r="P303" t="n">
-        <v>350</v>
+        <v>312</v>
       </c>
       <c r="Q303" t="n">
         <v>40</v>
@@ -22221,7 +22221,7 @@
         </is>
       </c>
       <c r="D304" s="2" t="n">
-        <v>44466</v>
+        <v>44425</v>
       </c>
       <c r="E304" t="n">
         <v>13</v>
@@ -22236,7 +22236,7 @@
       </c>
       <c r="H304" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Madrigal</t>
         </is>
       </c>
       <c r="I304" t="inlineStr">
@@ -22245,20 +22245,20 @@
         </is>
       </c>
       <c r="J304" t="n">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="K304" t="n">
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="L304" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="M304" t="n">
-        <v>11500</v>
+        <v>14512</v>
       </c>
       <c r="N304" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O304" t="inlineStr">
@@ -22267,10 +22267,10 @@
         </is>
       </c>
       <c r="P304" t="n">
-        <v>383</v>
+        <v>363</v>
       </c>
       <c r="Q304" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="R304" t="inlineStr">
         <is>
@@ -22293,7 +22293,7 @@
         </is>
       </c>
       <c r="D305" s="2" t="n">
-        <v>44438</v>
+        <v>44425</v>
       </c>
       <c r="E305" t="n">
         <v>13</v>
@@ -22308,29 +22308,29 @@
       </c>
       <c r="H305" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Madrigal</t>
         </is>
       </c>
       <c r="I305" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J305" t="n">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="K305" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="L305" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="M305" t="n">
-        <v>15000</v>
+        <v>12480</v>
       </c>
       <c r="N305" t="inlineStr">
         <is>
-          <t>$/caja 25 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O305" t="inlineStr">
@@ -22339,10 +22339,10 @@
         </is>
       </c>
       <c r="P305" t="n">
-        <v>15000</v>
+        <v>250</v>
       </c>
       <c r="Q305" t="n">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="R305" t="inlineStr">
         <is>
@@ -22365,7 +22365,7 @@
         </is>
       </c>
       <c r="D306" s="2" t="n">
-        <v>44438</v>
+        <v>44390</v>
       </c>
       <c r="E306" t="n">
         <v>13</v>
@@ -22385,24 +22385,24 @@
       </c>
       <c r="I306" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J306" t="n">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="K306" t="n">
-        <v>13000</v>
+        <v>19000</v>
       </c>
       <c r="L306" t="n">
-        <v>14000</v>
+        <v>20000</v>
       </c>
       <c r="M306" t="n">
-        <v>13500</v>
+        <v>19500</v>
       </c>
       <c r="N306" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 25 unidades</t>
         </is>
       </c>
       <c r="O306" t="inlineStr">
@@ -22411,10 +22411,10 @@
         </is>
       </c>
       <c r="P306" t="n">
-        <v>450</v>
+        <v>19500</v>
       </c>
       <c r="Q306" t="n">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="R306" t="inlineStr">
         <is>
@@ -22437,7 +22437,7 @@
         </is>
       </c>
       <c r="D307" s="2" t="n">
-        <v>44438</v>
+        <v>44390</v>
       </c>
       <c r="E307" t="n">
         <v>13</v>
@@ -22457,24 +22457,24 @@
       </c>
       <c r="I307" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J307" t="n">
-        <v>25</v>
+        <v>43</v>
       </c>
       <c r="K307" t="n">
-        <v>11000</v>
+        <v>16000</v>
       </c>
       <c r="L307" t="n">
-        <v>12000</v>
+        <v>18000</v>
       </c>
       <c r="M307" t="n">
-        <v>11480</v>
+        <v>17023</v>
       </c>
       <c r="N307" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O307" t="inlineStr">
@@ -22483,10 +22483,10 @@
         </is>
       </c>
       <c r="P307" t="n">
-        <v>287</v>
+        <v>567</v>
       </c>
       <c r="Q307" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="R307" t="inlineStr">
         <is>
@@ -22509,7 +22509,7 @@
         </is>
       </c>
       <c r="D308" s="2" t="n">
-        <v>44461</v>
+        <v>44390</v>
       </c>
       <c r="E308" t="n">
         <v>13</v>
@@ -22529,24 +22529,24 @@
       </c>
       <c r="I308" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J308" t="n">
-        <v>52</v>
+        <v>25</v>
       </c>
       <c r="K308" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="L308" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="M308" t="n">
-        <v>12500</v>
+        <v>14000</v>
       </c>
       <c r="N308" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O308" t="inlineStr">
@@ -22555,10 +22555,10 @@
         </is>
       </c>
       <c r="P308" t="n">
-        <v>417</v>
+        <v>350</v>
       </c>
       <c r="Q308" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="R308" t="inlineStr">
         <is>
@@ -22581,7 +22581,7 @@
         </is>
       </c>
       <c r="D309" s="2" t="n">
-        <v>44461</v>
+        <v>44466</v>
       </c>
       <c r="E309" t="n">
         <v>13</v>
@@ -22601,24 +22601,24 @@
       </c>
       <c r="I309" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J309" t="n">
-        <v>25</v>
+        <v>52</v>
       </c>
       <c r="K309" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="L309" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="M309" t="n">
-        <v>10480</v>
+        <v>11500</v>
       </c>
       <c r="N309" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O309" t="inlineStr">
@@ -22627,10 +22627,10 @@
         </is>
       </c>
       <c r="P309" t="n">
-        <v>262</v>
+        <v>383</v>
       </c>
       <c r="Q309" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="R309" t="inlineStr">
         <is>
@@ -22653,7 +22653,7 @@
         </is>
       </c>
       <c r="D310" s="2" t="n">
-        <v>44432</v>
+        <v>44438</v>
       </c>
       <c r="E310" t="n">
         <v>13</v>
@@ -22677,16 +22677,16 @@
         </is>
       </c>
       <c r="J310" t="n">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="K310" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="L310" t="n">
-        <v>17000</v>
+        <v>15000</v>
       </c>
       <c r="M310" t="n">
-        <v>16500</v>
+        <v>15000</v>
       </c>
       <c r="N310" t="inlineStr">
         <is>
@@ -22695,11 +22695,11 @@
       </c>
       <c r="O310" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P310" t="n">
-        <v>16500</v>
+        <v>15000</v>
       </c>
       <c r="Q310" t="n">
         <v>1</v>
@@ -22725,7 +22725,7 @@
         </is>
       </c>
       <c r="D311" s="2" t="n">
-        <v>44432</v>
+        <v>44438</v>
       </c>
       <c r="E311" t="n">
         <v>13</v>
@@ -22749,16 +22749,16 @@
         </is>
       </c>
       <c r="J311" t="n">
-        <v>52</v>
+        <v>34</v>
       </c>
       <c r="K311" t="n">
+        <v>13000</v>
+      </c>
+      <c r="L311" t="n">
         <v>14000</v>
       </c>
-      <c r="L311" t="n">
-        <v>15000</v>
-      </c>
       <c r="M311" t="n">
-        <v>14500</v>
+        <v>13500</v>
       </c>
       <c r="N311" t="inlineStr">
         <is>
@@ -22767,11 +22767,11 @@
       </c>
       <c r="O311" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P311" t="n">
-        <v>483</v>
+        <v>450</v>
       </c>
       <c r="Q311" t="n">
         <v>30</v>
@@ -22797,7 +22797,7 @@
         </is>
       </c>
       <c r="D312" s="2" t="n">
-        <v>44432</v>
+        <v>44438</v>
       </c>
       <c r="E312" t="n">
         <v>13</v>
@@ -22821,16 +22821,16 @@
         </is>
       </c>
       <c r="J312" t="n">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="K312" t="n">
+        <v>11000</v>
+      </c>
+      <c r="L312" t="n">
         <v>12000</v>
       </c>
-      <c r="L312" t="n">
-        <v>13000</v>
-      </c>
       <c r="M312" t="n">
-        <v>12500</v>
+        <v>11480</v>
       </c>
       <c r="N312" t="inlineStr">
         <is>
@@ -22839,11 +22839,11 @@
       </c>
       <c r="O312" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P312" t="n">
-        <v>312</v>
+        <v>287</v>
       </c>
       <c r="Q312" t="n">
         <v>40</v>
@@ -22869,7 +22869,7 @@
         </is>
       </c>
       <c r="D313" s="2" t="n">
-        <v>44432</v>
+        <v>44461</v>
       </c>
       <c r="E313" t="n">
         <v>13</v>
@@ -22884,7 +22884,7 @@
       </c>
       <c r="H313" t="inlineStr">
         <is>
-          <t>Madrigal</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I313" t="inlineStr">
@@ -22893,32 +22893,32 @@
         </is>
       </c>
       <c r="J313" t="n">
-        <v>34</v>
+        <v>52</v>
       </c>
       <c r="K313" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="L313" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="M313" t="n">
-        <v>14500</v>
+        <v>12500</v>
       </c>
       <c r="N313" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O313" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P313" t="n">
-        <v>362</v>
+        <v>417</v>
       </c>
       <c r="Q313" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="R313" t="inlineStr">
         <is>
@@ -22941,58 +22941,418 @@
         </is>
       </c>
       <c r="D314" s="2" t="n">
+        <v>44461</v>
+      </c>
+      <c r="E314" t="n">
+        <v>13</v>
+      </c>
+      <c r="F314" t="n">
+        <v>100112013</v>
+      </c>
+      <c r="G314" t="inlineStr">
+        <is>
+          <t>Alcachofa</t>
+        </is>
+      </c>
+      <c r="H314" t="inlineStr">
+        <is>
+          <t>Española</t>
+        </is>
+      </c>
+      <c r="I314" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="J314" t="n">
+        <v>25</v>
+      </c>
+      <c r="K314" t="n">
+        <v>10000</v>
+      </c>
+      <c r="L314" t="n">
+        <v>11000</v>
+      </c>
+      <c r="M314" t="n">
+        <v>10480</v>
+      </c>
+      <c r="N314" t="inlineStr">
+        <is>
+          <t>$/caja 40 unidades</t>
+        </is>
+      </c>
+      <c r="O314" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P314" t="n">
+        <v>262</v>
+      </c>
+      <c r="Q314" t="n">
+        <v>40</v>
+      </c>
+      <c r="R314" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" t="n">
+        <v>9</v>
+      </c>
+      <c r="B315" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C315" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D315" s="2" t="n">
         <v>44432</v>
       </c>
-      <c r="E314" t="n">
-        <v>13</v>
-      </c>
-      <c r="F314" t="n">
-        <v>100112013</v>
-      </c>
-      <c r="G314" t="inlineStr">
-        <is>
-          <t>Alcachofa</t>
-        </is>
-      </c>
-      <c r="H314" t="inlineStr">
+      <c r="E315" t="n">
+        <v>13</v>
+      </c>
+      <c r="F315" t="n">
+        <v>100112013</v>
+      </c>
+      <c r="G315" t="inlineStr">
+        <is>
+          <t>Alcachofa</t>
+        </is>
+      </c>
+      <c r="H315" t="inlineStr">
+        <is>
+          <t>Española</t>
+        </is>
+      </c>
+      <c r="I315" t="inlineStr">
+        <is>
+          <t>Extra</t>
+        </is>
+      </c>
+      <c r="J315" t="n">
+        <v>16</v>
+      </c>
+      <c r="K315" t="n">
+        <v>16000</v>
+      </c>
+      <c r="L315" t="n">
+        <v>17000</v>
+      </c>
+      <c r="M315" t="n">
+        <v>16500</v>
+      </c>
+      <c r="N315" t="inlineStr">
+        <is>
+          <t>$/caja 25 unidades</t>
+        </is>
+      </c>
+      <c r="O315" t="inlineStr">
+        <is>
+          <t>Provincia del Elquí</t>
+        </is>
+      </c>
+      <c r="P315" t="n">
+        <v>16500</v>
+      </c>
+      <c r="Q315" t="n">
+        <v>1</v>
+      </c>
+      <c r="R315" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" t="n">
+        <v>9</v>
+      </c>
+      <c r="B316" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C316" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D316" s="2" t="n">
+        <v>44432</v>
+      </c>
+      <c r="E316" t="n">
+        <v>13</v>
+      </c>
+      <c r="F316" t="n">
+        <v>100112013</v>
+      </c>
+      <c r="G316" t="inlineStr">
+        <is>
+          <t>Alcachofa</t>
+        </is>
+      </c>
+      <c r="H316" t="inlineStr">
+        <is>
+          <t>Española</t>
+        </is>
+      </c>
+      <c r="I316" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J316" t="n">
+        <v>52</v>
+      </c>
+      <c r="K316" t="n">
+        <v>14000</v>
+      </c>
+      <c r="L316" t="n">
+        <v>15000</v>
+      </c>
+      <c r="M316" t="n">
+        <v>14500</v>
+      </c>
+      <c r="N316" t="inlineStr">
+        <is>
+          <t>$/caja 30 unidades</t>
+        </is>
+      </c>
+      <c r="O316" t="inlineStr">
+        <is>
+          <t>Provincia del Elquí</t>
+        </is>
+      </c>
+      <c r="P316" t="n">
+        <v>483</v>
+      </c>
+      <c r="Q316" t="n">
+        <v>30</v>
+      </c>
+      <c r="R316" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" t="n">
+        <v>9</v>
+      </c>
+      <c r="B317" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C317" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D317" s="2" t="n">
+        <v>44432</v>
+      </c>
+      <c r="E317" t="n">
+        <v>13</v>
+      </c>
+      <c r="F317" t="n">
+        <v>100112013</v>
+      </c>
+      <c r="G317" t="inlineStr">
+        <is>
+          <t>Alcachofa</t>
+        </is>
+      </c>
+      <c r="H317" t="inlineStr">
+        <is>
+          <t>Española</t>
+        </is>
+      </c>
+      <c r="I317" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="J317" t="n">
+        <v>34</v>
+      </c>
+      <c r="K317" t="n">
+        <v>12000</v>
+      </c>
+      <c r="L317" t="n">
+        <v>13000</v>
+      </c>
+      <c r="M317" t="n">
+        <v>12500</v>
+      </c>
+      <c r="N317" t="inlineStr">
+        <is>
+          <t>$/caja 40 unidades</t>
+        </is>
+      </c>
+      <c r="O317" t="inlineStr">
+        <is>
+          <t>Provincia del Elquí</t>
+        </is>
+      </c>
+      <c r="P317" t="n">
+        <v>312</v>
+      </c>
+      <c r="Q317" t="n">
+        <v>40</v>
+      </c>
+      <c r="R317" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" t="n">
+        <v>9</v>
+      </c>
+      <c r="B318" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C318" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D318" s="2" t="n">
+        <v>44432</v>
+      </c>
+      <c r="E318" t="n">
+        <v>13</v>
+      </c>
+      <c r="F318" t="n">
+        <v>100112013</v>
+      </c>
+      <c r="G318" t="inlineStr">
+        <is>
+          <t>Alcachofa</t>
+        </is>
+      </c>
+      <c r="H318" t="inlineStr">
         <is>
           <t>Madrigal</t>
         </is>
       </c>
-      <c r="I314" t="inlineStr">
+      <c r="I318" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J318" t="n">
+        <v>34</v>
+      </c>
+      <c r="K318" t="n">
+        <v>14000</v>
+      </c>
+      <c r="L318" t="n">
+        <v>15000</v>
+      </c>
+      <c r="M318" t="n">
+        <v>14500</v>
+      </c>
+      <c r="N318" t="inlineStr">
+        <is>
+          <t>$/caja 40 unidades</t>
+        </is>
+      </c>
+      <c r="O318" t="inlineStr">
+        <is>
+          <t>Provincia del Elquí</t>
+        </is>
+      </c>
+      <c r="P318" t="n">
+        <v>362</v>
+      </c>
+      <c r="Q318" t="n">
+        <v>40</v>
+      </c>
+      <c r="R318" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" t="n">
+        <v>9</v>
+      </c>
+      <c r="B319" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C319" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D319" s="2" t="n">
+        <v>44432</v>
+      </c>
+      <c r="E319" t="n">
+        <v>13</v>
+      </c>
+      <c r="F319" t="n">
+        <v>100112013</v>
+      </c>
+      <c r="G319" t="inlineStr">
+        <is>
+          <t>Alcachofa</t>
+        </is>
+      </c>
+      <c r="H319" t="inlineStr">
+        <is>
+          <t>Madrigal</t>
+        </is>
+      </c>
+      <c r="I319" t="inlineStr">
         <is>
           <t>Segunda</t>
         </is>
       </c>
-      <c r="J314" t="n">
+      <c r="J319" t="n">
         <v>16</v>
       </c>
-      <c r="K314" t="n">
+      <c r="K319" t="n">
         <v>12000</v>
       </c>
-      <c r="L314" t="n">
+      <c r="L319" t="n">
         <v>13000</v>
       </c>
-      <c r="M314" t="n">
+      <c r="M319" t="n">
         <v>12500</v>
       </c>
-      <c r="N314" t="inlineStr">
+      <c r="N319" t="inlineStr">
         <is>
           <t>$/caja 50 unidades</t>
         </is>
       </c>
-      <c r="O314" t="inlineStr">
+      <c r="O319" t="inlineStr">
         <is>
           <t>Provincia del Elquí</t>
         </is>
       </c>
-      <c r="P314" t="n">
+      <c r="P319" t="n">
         <v>250</v>
       </c>
-      <c r="Q314" t="n">
+      <c r="Q319" t="n">
         <v>50</v>
       </c>
-      <c r="R314" t="inlineStr">
+      <c r="R319" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Central Mapocho de Santiago - Alcachofa.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Central Mapocho de Santiago - Alcachofa.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R321"/>
+  <dimension ref="A1:R322"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9261,7 +9261,7 @@
         </is>
       </c>
       <c r="D124" s="2" t="n">
-        <v>44308</v>
+        <v>44483</v>
       </c>
       <c r="E124" t="n">
         <v>13</v>
@@ -9281,24 +9281,24 @@
       </c>
       <c r="I124" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J124" t="n">
-        <v>16</v>
+        <v>61</v>
       </c>
       <c r="K124" t="n">
-        <v>20000</v>
+        <v>10000</v>
       </c>
       <c r="L124" t="n">
-        <v>20000</v>
+        <v>11000</v>
       </c>
       <c r="M124" t="n">
-        <v>20000</v>
+        <v>10508</v>
       </c>
       <c r="N124" t="inlineStr">
         <is>
-          <t>$/caja 25 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O124" t="inlineStr">
@@ -9307,10 +9307,10 @@
         </is>
       </c>
       <c r="P124" t="n">
-        <v>20000</v>
+        <v>350</v>
       </c>
       <c r="Q124" t="n">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="R124" t="inlineStr">
         <is>
@@ -9353,24 +9353,24 @@
       </c>
       <c r="I125" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J125" t="n">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="K125" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="L125" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="M125" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="N125" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 25 unidades</t>
         </is>
       </c>
       <c r="O125" t="inlineStr">
@@ -9379,10 +9379,10 @@
         </is>
       </c>
       <c r="P125" t="n">
-        <v>600</v>
+        <v>20000</v>
       </c>
       <c r="Q125" t="n">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="R125" t="inlineStr">
         <is>
@@ -9405,7 +9405,7 @@
         </is>
       </c>
       <c r="D126" s="2" t="n">
-        <v>44330</v>
+        <v>44308</v>
       </c>
       <c r="E126" t="n">
         <v>13</v>
@@ -9420,7 +9420,7 @@
       </c>
       <c r="H126" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I126" t="inlineStr">
@@ -9429,20 +9429,20 @@
         </is>
       </c>
       <c r="J126" t="n">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="K126" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="L126" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="M126" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="N126" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O126" t="inlineStr">
@@ -9451,10 +9451,10 @@
         </is>
       </c>
       <c r="P126" t="n">
-        <v>320</v>
+        <v>600</v>
       </c>
       <c r="Q126" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R126" t="inlineStr">
         <is>
@@ -9497,24 +9497,24 @@
       </c>
       <c r="I127" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J127" t="n">
-        <v>52</v>
+        <v>25</v>
       </c>
       <c r="K127" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="L127" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="M127" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="N127" t="inlineStr">
         <is>
-          <t>$/caja 60 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O127" t="inlineStr">
@@ -9523,10 +9523,10 @@
         </is>
       </c>
       <c r="P127" t="n">
-        <v>233</v>
+        <v>320</v>
       </c>
       <c r="Q127" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="R127" t="inlineStr">
         <is>
@@ -9564,29 +9564,29 @@
       </c>
       <c r="H128" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I128" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J128" t="n">
-        <v>16</v>
+        <v>52</v>
       </c>
       <c r="K128" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="L128" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="M128" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="N128" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 60 unidades</t>
         </is>
       </c>
       <c r="O128" t="inlineStr">
@@ -9595,10 +9595,10 @@
         </is>
       </c>
       <c r="P128" t="n">
-        <v>533</v>
+        <v>233</v>
       </c>
       <c r="Q128" t="n">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="R128" t="inlineStr">
         <is>
@@ -9645,20 +9645,20 @@
         </is>
       </c>
       <c r="J129" t="n">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="K129" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="L129" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="M129" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="N129" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O129" t="inlineStr">
@@ -9667,10 +9667,10 @@
         </is>
       </c>
       <c r="P129" t="n">
-        <v>350</v>
+        <v>533</v>
       </c>
       <c r="Q129" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="R129" t="inlineStr">
         <is>
@@ -9693,7 +9693,7 @@
         </is>
       </c>
       <c r="D130" s="2" t="n">
-        <v>44463</v>
+        <v>44330</v>
       </c>
       <c r="E130" t="n">
         <v>13</v>
@@ -9713,24 +9713,24 @@
       </c>
       <c r="I130" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J130" t="n">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="K130" t="n">
         <v>14000</v>
       </c>
       <c r="L130" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="M130" t="n">
-        <v>14524</v>
+        <v>14000</v>
       </c>
       <c r="N130" t="inlineStr">
         <is>
-          <t>$/caja 25 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O130" t="inlineStr">
@@ -9739,10 +9739,10 @@
         </is>
       </c>
       <c r="P130" t="n">
-        <v>14524</v>
+        <v>350</v>
       </c>
       <c r="Q130" t="n">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="R130" t="inlineStr">
         <is>
@@ -9785,24 +9785,24 @@
       </c>
       <c r="I131" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J131" t="n">
-        <v>52</v>
+        <v>21</v>
       </c>
       <c r="K131" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="L131" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="M131" t="n">
-        <v>12500</v>
+        <v>14524</v>
       </c>
       <c r="N131" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 25 unidades</t>
         </is>
       </c>
       <c r="O131" t="inlineStr">
@@ -9811,10 +9811,10 @@
         </is>
       </c>
       <c r="P131" t="n">
-        <v>417</v>
+        <v>14524</v>
       </c>
       <c r="Q131" t="n">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="R131" t="inlineStr">
         <is>
@@ -9857,24 +9857,24 @@
       </c>
       <c r="I132" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J132" t="n">
-        <v>38</v>
+        <v>52</v>
       </c>
       <c r="K132" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="L132" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="M132" t="n">
-        <v>10500</v>
+        <v>12500</v>
       </c>
       <c r="N132" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O132" t="inlineStr">
@@ -9883,10 +9883,10 @@
         </is>
       </c>
       <c r="P132" t="n">
-        <v>262</v>
+        <v>417</v>
       </c>
       <c r="Q132" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="R132" t="inlineStr">
         <is>
@@ -9909,7 +9909,7 @@
         </is>
       </c>
       <c r="D133" s="2" t="n">
-        <v>44322</v>
+        <v>44463</v>
       </c>
       <c r="E133" t="n">
         <v>13</v>
@@ -9924,29 +9924,29 @@
       </c>
       <c r="H133" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I133" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J133" t="n">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="K133" t="n">
-        <v>20000</v>
+        <v>10000</v>
       </c>
       <c r="L133" t="n">
-        <v>20000</v>
+        <v>11000</v>
       </c>
       <c r="M133" t="n">
-        <v>20000</v>
+        <v>10500</v>
       </c>
       <c r="N133" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O133" t="inlineStr">
@@ -9955,10 +9955,10 @@
         </is>
       </c>
       <c r="P133" t="n">
-        <v>400</v>
+        <v>262</v>
       </c>
       <c r="Q133" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="R133" t="inlineStr">
         <is>
@@ -9996,41 +9996,41 @@
       </c>
       <c r="H134" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I134" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J134" t="n">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="K134" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="L134" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="M134" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="N134" t="inlineStr">
         <is>
-          <t>$/caja 25 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O134" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P134" t="n">
-        <v>18000</v>
+        <v>400</v>
       </c>
       <c r="Q134" t="n">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="R134" t="inlineStr">
         <is>
@@ -10073,24 +10073,24 @@
       </c>
       <c r="I135" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J135" t="n">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="K135" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="L135" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="M135" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="N135" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 25 unidades</t>
         </is>
       </c>
       <c r="O135" t="inlineStr">
@@ -10099,10 +10099,10 @@
         </is>
       </c>
       <c r="P135" t="n">
-        <v>533</v>
+        <v>18000</v>
       </c>
       <c r="Q135" t="n">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="R135" t="inlineStr">
         <is>
@@ -10125,7 +10125,7 @@
         </is>
       </c>
       <c r="D136" s="2" t="n">
-        <v>44428</v>
+        <v>44322</v>
       </c>
       <c r="E136" t="n">
         <v>13</v>
@@ -10145,36 +10145,36 @@
       </c>
       <c r="I136" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J136" t="n">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="K136" t="n">
         <v>16000</v>
       </c>
       <c r="L136" t="n">
-        <v>17000</v>
+        <v>16000</v>
       </c>
       <c r="M136" t="n">
-        <v>16480</v>
+        <v>16000</v>
       </c>
       <c r="N136" t="inlineStr">
         <is>
-          <t>$/caja 25 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O136" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P136" t="n">
-        <v>16480</v>
+        <v>533</v>
       </c>
       <c r="Q136" t="n">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="R136" t="inlineStr">
         <is>
@@ -10217,24 +10217,24 @@
       </c>
       <c r="I137" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J137" t="n">
-        <v>52</v>
+        <v>25</v>
       </c>
       <c r="K137" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="L137" t="n">
-        <v>15000</v>
+        <v>17000</v>
       </c>
       <c r="M137" t="n">
-        <v>14500</v>
+        <v>16480</v>
       </c>
       <c r="N137" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 25 unidades</t>
         </is>
       </c>
       <c r="O137" t="inlineStr">
@@ -10243,10 +10243,10 @@
         </is>
       </c>
       <c r="P137" t="n">
-        <v>483</v>
+        <v>16480</v>
       </c>
       <c r="Q137" t="n">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="R137" t="inlineStr">
         <is>
@@ -10289,24 +10289,24 @@
       </c>
       <c r="I138" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J138" t="n">
-        <v>34</v>
+        <v>52</v>
       </c>
       <c r="K138" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="L138" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="M138" t="n">
-        <v>12500</v>
+        <v>14500</v>
       </c>
       <c r="N138" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O138" t="inlineStr">
@@ -10315,10 +10315,10 @@
         </is>
       </c>
       <c r="P138" t="n">
-        <v>312</v>
+        <v>483</v>
       </c>
       <c r="Q138" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="R138" t="inlineStr">
         <is>
@@ -10356,25 +10356,25 @@
       </c>
       <c r="H139" t="inlineStr">
         <is>
-          <t>Madrigal</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I139" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J139" t="n">
         <v>34</v>
       </c>
       <c r="K139" t="n">
-        <v>16000</v>
+        <v>12000</v>
       </c>
       <c r="L139" t="n">
-        <v>17000</v>
+        <v>13000</v>
       </c>
       <c r="M139" t="n">
-        <v>16500</v>
+        <v>12500</v>
       </c>
       <c r="N139" t="inlineStr">
         <is>
@@ -10387,7 +10387,7 @@
         </is>
       </c>
       <c r="P139" t="n">
-        <v>412</v>
+        <v>312</v>
       </c>
       <c r="Q139" t="n">
         <v>40</v>
@@ -10433,24 +10433,24 @@
       </c>
       <c r="I140" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J140" t="n">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="K140" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="L140" t="n">
-        <v>15000</v>
+        <v>17000</v>
       </c>
       <c r="M140" t="n">
-        <v>14500</v>
+        <v>16500</v>
       </c>
       <c r="N140" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O140" t="inlineStr">
@@ -10459,10 +10459,10 @@
         </is>
       </c>
       <c r="P140" t="n">
-        <v>290</v>
+        <v>412</v>
       </c>
       <c r="Q140" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="R140" t="inlineStr">
         <is>
@@ -10485,7 +10485,7 @@
         </is>
       </c>
       <c r="D141" s="2" t="n">
-        <v>44315</v>
+        <v>44428</v>
       </c>
       <c r="E141" t="n">
         <v>13</v>
@@ -10500,29 +10500,29 @@
       </c>
       <c r="H141" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Madrigal</t>
         </is>
       </c>
       <c r="I141" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J141" t="n">
         <v>16</v>
       </c>
       <c r="K141" t="n">
-        <v>19000</v>
+        <v>14000</v>
       </c>
       <c r="L141" t="n">
-        <v>19000</v>
+        <v>15000</v>
       </c>
       <c r="M141" t="n">
-        <v>19000</v>
+        <v>14500</v>
       </c>
       <c r="N141" t="inlineStr">
         <is>
-          <t>$/caja 25 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O141" t="inlineStr">
@@ -10531,10 +10531,10 @@
         </is>
       </c>
       <c r="P141" t="n">
-        <v>19000</v>
+        <v>290</v>
       </c>
       <c r="Q141" t="n">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="R141" t="inlineStr">
         <is>
@@ -10577,24 +10577,24 @@
       </c>
       <c r="I142" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J142" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="K142" t="n">
-        <v>17000</v>
+        <v>19000</v>
       </c>
       <c r="L142" t="n">
-        <v>17000</v>
+        <v>19000</v>
       </c>
       <c r="M142" t="n">
-        <v>17000</v>
+        <v>19000</v>
       </c>
       <c r="N142" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 25 unidades</t>
         </is>
       </c>
       <c r="O142" t="inlineStr">
@@ -10603,10 +10603,10 @@
         </is>
       </c>
       <c r="P142" t="n">
-        <v>567</v>
+        <v>19000</v>
       </c>
       <c r="Q142" t="n">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="R142" t="inlineStr">
         <is>
@@ -10629,7 +10629,7 @@
         </is>
       </c>
       <c r="D143" s="2" t="n">
-        <v>44447</v>
+        <v>44315</v>
       </c>
       <c r="E143" t="n">
         <v>13</v>
@@ -10653,16 +10653,16 @@
         </is>
       </c>
       <c r="J143" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="K143" t="n">
-        <v>14000</v>
+        <v>17000</v>
       </c>
       <c r="L143" t="n">
-        <v>15000</v>
+        <v>17000</v>
       </c>
       <c r="M143" t="n">
-        <v>14520</v>
+        <v>17000</v>
       </c>
       <c r="N143" t="inlineStr">
         <is>
@@ -10675,7 +10675,7 @@
         </is>
       </c>
       <c r="P143" t="n">
-        <v>484</v>
+        <v>567</v>
       </c>
       <c r="Q143" t="n">
         <v>30</v>
@@ -10721,24 +10721,24 @@
       </c>
       <c r="I144" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J144" t="n">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="K144" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="L144" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="M144" t="n">
-        <v>13000</v>
+        <v>14520</v>
       </c>
       <c r="N144" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O144" t="inlineStr">
@@ -10747,10 +10747,10 @@
         </is>
       </c>
       <c r="P144" t="n">
-        <v>325</v>
+        <v>484</v>
       </c>
       <c r="Q144" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="R144" t="inlineStr">
         <is>
@@ -10773,7 +10773,7 @@
         </is>
       </c>
       <c r="D145" s="2" t="n">
-        <v>44421</v>
+        <v>44447</v>
       </c>
       <c r="E145" t="n">
         <v>13</v>
@@ -10793,24 +10793,24 @@
       </c>
       <c r="I145" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J145" t="n">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="K145" t="n">
-        <v>17000</v>
+        <v>13000</v>
       </c>
       <c r="L145" t="n">
-        <v>17000</v>
+        <v>13000</v>
       </c>
       <c r="M145" t="n">
-        <v>17000</v>
+        <v>13000</v>
       </c>
       <c r="N145" t="inlineStr">
         <is>
-          <t>$/caja 25 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O145" t="inlineStr">
@@ -10819,10 +10819,10 @@
         </is>
       </c>
       <c r="P145" t="n">
-        <v>17000</v>
+        <v>325</v>
       </c>
       <c r="Q145" t="n">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="R145" t="inlineStr">
         <is>
@@ -10865,24 +10865,24 @@
       </c>
       <c r="I146" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J146" t="n">
-        <v>70</v>
+        <v>25</v>
       </c>
       <c r="K146" t="n">
-        <v>15000</v>
+        <v>17000</v>
       </c>
       <c r="L146" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="M146" t="n">
-        <v>15500</v>
+        <v>17000</v>
       </c>
       <c r="N146" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 25 unidades</t>
         </is>
       </c>
       <c r="O146" t="inlineStr">
@@ -10891,10 +10891,10 @@
         </is>
       </c>
       <c r="P146" t="n">
-        <v>517</v>
+        <v>17000</v>
       </c>
       <c r="Q146" t="n">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="R146" t="inlineStr">
         <is>
@@ -10937,24 +10937,24 @@
       </c>
       <c r="I147" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J147" t="n">
-        <v>43</v>
+        <v>70</v>
       </c>
       <c r="K147" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="L147" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="M147" t="n">
-        <v>13488</v>
+        <v>15500</v>
       </c>
       <c r="N147" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O147" t="inlineStr">
@@ -10963,10 +10963,10 @@
         </is>
       </c>
       <c r="P147" t="n">
-        <v>337</v>
+        <v>517</v>
       </c>
       <c r="Q147" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="R147" t="inlineStr">
         <is>
@@ -10989,7 +10989,7 @@
         </is>
       </c>
       <c r="D148" s="2" t="n">
-        <v>44294</v>
+        <v>44421</v>
       </c>
       <c r="E148" t="n">
         <v>13</v>
@@ -11009,24 +11009,24 @@
       </c>
       <c r="I148" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J148" t="n">
-        <v>27</v>
+        <v>43</v>
       </c>
       <c r="K148" t="n">
-        <v>17000</v>
+        <v>13000</v>
       </c>
       <c r="L148" t="n">
-        <v>18000</v>
+        <v>14000</v>
       </c>
       <c r="M148" t="n">
-        <v>17481</v>
+        <v>13488</v>
       </c>
       <c r="N148" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O148" t="inlineStr">
@@ -11035,10 +11035,10 @@
         </is>
       </c>
       <c r="P148" t="n">
-        <v>583</v>
+        <v>337</v>
       </c>
       <c r="Q148" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="R148" t="inlineStr">
         <is>
@@ -11061,7 +11061,7 @@
         </is>
       </c>
       <c r="D149" s="2" t="n">
-        <v>44316</v>
+        <v>44294</v>
       </c>
       <c r="E149" t="n">
         <v>13</v>
@@ -11076,7 +11076,7 @@
       </c>
       <c r="H149" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I149" t="inlineStr">
@@ -11085,20 +11085,20 @@
         </is>
       </c>
       <c r="J149" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="K149" t="n">
-        <v>18000</v>
+        <v>17000</v>
       </c>
       <c r="L149" t="n">
         <v>18000</v>
       </c>
       <c r="M149" t="n">
-        <v>18000</v>
+        <v>17481</v>
       </c>
       <c r="N149" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O149" t="inlineStr">
@@ -11107,10 +11107,10 @@
         </is>
       </c>
       <c r="P149" t="n">
-        <v>360</v>
+        <v>583</v>
       </c>
       <c r="Q149" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R149" t="inlineStr">
         <is>
@@ -11148,16 +11148,16 @@
       </c>
       <c r="H150" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I150" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J150" t="n">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="K150" t="n">
         <v>18000</v>
@@ -11170,7 +11170,7 @@
       </c>
       <c r="N150" t="inlineStr">
         <is>
-          <t>$/caja 25 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O150" t="inlineStr">
@@ -11179,10 +11179,10 @@
         </is>
       </c>
       <c r="P150" t="n">
-        <v>18000</v>
+        <v>360</v>
       </c>
       <c r="Q150" t="n">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="R150" t="inlineStr">
         <is>
@@ -11225,24 +11225,24 @@
       </c>
       <c r="I151" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J151" t="n">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="K151" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="L151" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="M151" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="N151" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 25 unidades</t>
         </is>
       </c>
       <c r="O151" t="inlineStr">
@@ -11251,10 +11251,10 @@
         </is>
       </c>
       <c r="P151" t="n">
-        <v>533</v>
+        <v>18000</v>
       </c>
       <c r="Q151" t="n">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="R151" t="inlineStr">
         <is>
@@ -11277,7 +11277,7 @@
         </is>
       </c>
       <c r="D152" s="2" t="n">
-        <v>44356</v>
+        <v>44316</v>
       </c>
       <c r="E152" t="n">
         <v>13</v>
@@ -11292,7 +11292,7 @@
       </c>
       <c r="H152" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I152" t="inlineStr">
@@ -11301,32 +11301,32 @@
         </is>
       </c>
       <c r="J152" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="K152" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="L152" t="n">
         <v>16000</v>
       </c>
       <c r="M152" t="n">
-        <v>15476</v>
+        <v>16000</v>
       </c>
       <c r="N152" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O152" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P152" t="n">
-        <v>310</v>
+        <v>533</v>
       </c>
       <c r="Q152" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R152" t="inlineStr">
         <is>
@@ -11369,24 +11369,24 @@
       </c>
       <c r="I153" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J153" t="n">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="K153" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="L153" t="n">
-        <v>13000</v>
+        <v>16000</v>
       </c>
       <c r="M153" t="n">
-        <v>13000</v>
+        <v>15476</v>
       </c>
       <c r="N153" t="inlineStr">
         <is>
-          <t>$/caja 70 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O153" t="inlineStr">
@@ -11395,10 +11395,10 @@
         </is>
       </c>
       <c r="P153" t="n">
-        <v>186</v>
+        <v>310</v>
       </c>
       <c r="Q153" t="n">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="R153" t="inlineStr">
         <is>
@@ -11436,41 +11436,41 @@
       </c>
       <c r="H154" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I154" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J154" t="n">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="K154" t="n">
-        <v>17000</v>
+        <v>13000</v>
       </c>
       <c r="L154" t="n">
-        <v>18000</v>
+        <v>13000</v>
       </c>
       <c r="M154" t="n">
-        <v>17520</v>
+        <v>13000</v>
       </c>
       <c r="N154" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 70 unidades</t>
         </is>
       </c>
       <c r="O154" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P154" t="n">
-        <v>584</v>
+        <v>186</v>
       </c>
       <c r="Q154" t="n">
-        <v>30</v>
+        <v>70</v>
       </c>
       <c r="R154" t="inlineStr">
         <is>
@@ -11513,20 +11513,20 @@
       </c>
       <c r="I155" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J155" t="n">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="K155" t="n">
-        <v>14000</v>
+        <v>17000</v>
       </c>
       <c r="L155" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="M155" t="n">
-        <v>14500</v>
+        <v>17520</v>
       </c>
       <c r="N155" t="inlineStr">
         <is>
@@ -11539,7 +11539,7 @@
         </is>
       </c>
       <c r="P155" t="n">
-        <v>483</v>
+        <v>584</v>
       </c>
       <c r="Q155" t="n">
         <v>30</v>
@@ -11565,7 +11565,7 @@
         </is>
       </c>
       <c r="D156" s="2" t="n">
-        <v>44454</v>
+        <v>44356</v>
       </c>
       <c r="E156" t="n">
         <v>13</v>
@@ -11585,20 +11585,20 @@
       </c>
       <c r="I156" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J156" t="n">
-        <v>43</v>
+        <v>16</v>
       </c>
       <c r="K156" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="L156" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="M156" t="n">
-        <v>12488</v>
+        <v>14500</v>
       </c>
       <c r="N156" t="inlineStr">
         <is>
@@ -11611,7 +11611,7 @@
         </is>
       </c>
       <c r="P156" t="n">
-        <v>416</v>
+        <v>483</v>
       </c>
       <c r="Q156" t="n">
         <v>30</v>
@@ -11657,24 +11657,24 @@
       </c>
       <c r="I157" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J157" t="n">
-        <v>25</v>
+        <v>43</v>
       </c>
       <c r="K157" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="L157" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="M157" t="n">
-        <v>10480</v>
+        <v>12488</v>
       </c>
       <c r="N157" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O157" t="inlineStr">
@@ -11683,10 +11683,10 @@
         </is>
       </c>
       <c r="P157" t="n">
-        <v>262</v>
+        <v>416</v>
       </c>
       <c r="Q157" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="R157" t="inlineStr">
         <is>
@@ -11709,7 +11709,7 @@
         </is>
       </c>
       <c r="D158" s="2" t="n">
-        <v>44467</v>
+        <v>44454</v>
       </c>
       <c r="E158" t="n">
         <v>13</v>
@@ -11729,24 +11729,24 @@
       </c>
       <c r="I158" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J158" t="n">
         <v>25</v>
       </c>
       <c r="K158" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="L158" t="n">
-        <v>14000</v>
+        <v>11000</v>
       </c>
       <c r="M158" t="n">
-        <v>13480</v>
+        <v>10480</v>
       </c>
       <c r="N158" t="inlineStr">
         <is>
-          <t>$/caja 25 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O158" t="inlineStr">
@@ -11755,10 +11755,10 @@
         </is>
       </c>
       <c r="P158" t="n">
-        <v>13480</v>
+        <v>262</v>
       </c>
       <c r="Q158" t="n">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="R158" t="inlineStr">
         <is>
@@ -11805,29 +11805,29 @@
         </is>
       </c>
       <c r="J159" t="n">
-        <v>97</v>
+        <v>25</v>
       </c>
       <c r="K159" t="n">
-        <v>550</v>
+        <v>13000</v>
       </c>
       <c r="L159" t="n">
-        <v>600</v>
+        <v>14000</v>
       </c>
       <c r="M159" t="n">
-        <v>575</v>
+        <v>13480</v>
       </c>
       <c r="N159" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/caja 25 unidades</t>
         </is>
       </c>
       <c r="O159" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P159" t="n">
-        <v>575</v>
+        <v>13480</v>
       </c>
       <c r="Q159" t="n">
         <v>1</v>
@@ -11873,36 +11873,36 @@
       </c>
       <c r="I160" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J160" t="n">
-        <v>61</v>
+        <v>97</v>
       </c>
       <c r="K160" t="n">
-        <v>11000</v>
+        <v>550</v>
       </c>
       <c r="L160" t="n">
-        <v>12000</v>
+        <v>600</v>
       </c>
       <c r="M160" t="n">
-        <v>11492</v>
+        <v>575</v>
       </c>
       <c r="N160" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O160" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P160" t="n">
-        <v>383</v>
+        <v>575</v>
       </c>
       <c r="Q160" t="n">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="R160" t="inlineStr">
         <is>
@@ -11949,32 +11949,32 @@
         </is>
       </c>
       <c r="J161" t="n">
-        <v>250</v>
+        <v>61</v>
       </c>
       <c r="K161" t="n">
-        <v>450</v>
+        <v>11000</v>
       </c>
       <c r="L161" t="n">
-        <v>500</v>
+        <v>12000</v>
       </c>
       <c r="M161" t="n">
-        <v>475</v>
+        <v>11492</v>
       </c>
       <c r="N161" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O161" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P161" t="n">
-        <v>475</v>
+        <v>383</v>
       </c>
       <c r="Q161" t="n">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="R161" t="inlineStr">
         <is>
@@ -12017,36 +12017,36 @@
       </c>
       <c r="I162" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J162" t="n">
-        <v>43</v>
+        <v>250</v>
       </c>
       <c r="K162" t="n">
-        <v>9000</v>
+        <v>450</v>
       </c>
       <c r="L162" t="n">
-        <v>10000</v>
+        <v>500</v>
       </c>
       <c r="M162" t="n">
-        <v>9512</v>
+        <v>475</v>
       </c>
       <c r="N162" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O162" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P162" t="n">
-        <v>238</v>
+        <v>475</v>
       </c>
       <c r="Q162" t="n">
-        <v>40</v>
+        <v>1</v>
       </c>
       <c r="R162" t="inlineStr">
         <is>
@@ -12093,32 +12093,32 @@
         </is>
       </c>
       <c r="J163" t="n">
-        <v>160</v>
+        <v>43</v>
       </c>
       <c r="K163" t="n">
-        <v>350</v>
+        <v>9000</v>
       </c>
       <c r="L163" t="n">
-        <v>400</v>
+        <v>10000</v>
       </c>
       <c r="M163" t="n">
-        <v>375</v>
+        <v>9512</v>
       </c>
       <c r="N163" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O163" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P163" t="n">
-        <v>375</v>
+        <v>238</v>
       </c>
       <c r="Q163" t="n">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="R163" t="inlineStr">
         <is>
@@ -12141,7 +12141,7 @@
         </is>
       </c>
       <c r="D164" s="2" t="n">
-        <v>44427</v>
+        <v>44467</v>
       </c>
       <c r="E164" t="n">
         <v>13</v>
@@ -12161,33 +12161,33 @@
       </c>
       <c r="I164" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J164" t="n">
-        <v>16</v>
+        <v>160</v>
       </c>
       <c r="K164" t="n">
-        <v>17000</v>
+        <v>350</v>
       </c>
       <c r="L164" t="n">
-        <v>17000</v>
+        <v>400</v>
       </c>
       <c r="M164" t="n">
-        <v>17000</v>
+        <v>375</v>
       </c>
       <c r="N164" t="inlineStr">
         <is>
-          <t>$/caja 25 unidades</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O164" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P164" t="n">
-        <v>17000</v>
+        <v>375</v>
       </c>
       <c r="Q164" t="n">
         <v>1</v>
@@ -12233,24 +12233,24 @@
       </c>
       <c r="I165" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J165" t="n">
-        <v>43</v>
+        <v>16</v>
       </c>
       <c r="K165" t="n">
-        <v>15000</v>
+        <v>17000</v>
       </c>
       <c r="L165" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="M165" t="n">
-        <v>15488</v>
+        <v>17000</v>
       </c>
       <c r="N165" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 25 unidades</t>
         </is>
       </c>
       <c r="O165" t="inlineStr">
@@ -12259,10 +12259,10 @@
         </is>
       </c>
       <c r="P165" t="n">
-        <v>516</v>
+        <v>17000</v>
       </c>
       <c r="Q165" t="n">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="R165" t="inlineStr">
         <is>
@@ -12305,24 +12305,24 @@
       </c>
       <c r="I166" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J166" t="n">
-        <v>25</v>
+        <v>43</v>
       </c>
       <c r="K166" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="L166" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="M166" t="n">
-        <v>13480</v>
+        <v>15488</v>
       </c>
       <c r="N166" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O166" t="inlineStr">
@@ -12331,10 +12331,10 @@
         </is>
       </c>
       <c r="P166" t="n">
-        <v>337</v>
+        <v>516</v>
       </c>
       <c r="Q166" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="R166" t="inlineStr">
         <is>
@@ -12372,25 +12372,25 @@
       </c>
       <c r="H167" t="inlineStr">
         <is>
-          <t>Madrigal</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I167" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J167" t="n">
         <v>25</v>
       </c>
       <c r="K167" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="L167" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="M167" t="n">
-        <v>15480</v>
+        <v>13480</v>
       </c>
       <c r="N167" t="inlineStr">
         <is>
@@ -12403,7 +12403,7 @@
         </is>
       </c>
       <c r="P167" t="n">
-        <v>387</v>
+        <v>337</v>
       </c>
       <c r="Q167" t="n">
         <v>40</v>
@@ -12449,24 +12449,24 @@
       </c>
       <c r="I168" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J168" t="n">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="K168" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="L168" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="M168" t="n">
-        <v>13500</v>
+        <v>15480</v>
       </c>
       <c r="N168" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O168" t="inlineStr">
@@ -12475,10 +12475,10 @@
         </is>
       </c>
       <c r="P168" t="n">
-        <v>270</v>
+        <v>387</v>
       </c>
       <c r="Q168" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="R168" t="inlineStr">
         <is>
@@ -12501,7 +12501,7 @@
         </is>
       </c>
       <c r="D169" s="2" t="n">
-        <v>44411</v>
+        <v>44427</v>
       </c>
       <c r="E169" t="n">
         <v>13</v>
@@ -12516,29 +12516,29 @@
       </c>
       <c r="H169" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Madrigal</t>
         </is>
       </c>
       <c r="I169" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J169" t="n">
         <v>16</v>
       </c>
       <c r="K169" t="n">
-        <v>16000</v>
+        <v>13000</v>
       </c>
       <c r="L169" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="M169" t="n">
-        <v>16000</v>
+        <v>13500</v>
       </c>
       <c r="N169" t="inlineStr">
         <is>
-          <t>$/caja 25 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O169" t="inlineStr">
@@ -12547,10 +12547,10 @@
         </is>
       </c>
       <c r="P169" t="n">
-        <v>16000</v>
+        <v>270</v>
       </c>
       <c r="Q169" t="n">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="R169" t="inlineStr">
         <is>
@@ -12593,24 +12593,24 @@
       </c>
       <c r="I170" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J170" t="n">
-        <v>61</v>
+        <v>16</v>
       </c>
       <c r="K170" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="L170" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="M170" t="n">
-        <v>14492</v>
+        <v>16000</v>
       </c>
       <c r="N170" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 25 unidades</t>
         </is>
       </c>
       <c r="O170" t="inlineStr">
@@ -12619,10 +12619,10 @@
         </is>
       </c>
       <c r="P170" t="n">
-        <v>483</v>
+        <v>16000</v>
       </c>
       <c r="Q170" t="n">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="R170" t="inlineStr">
         <is>
@@ -12665,24 +12665,24 @@
       </c>
       <c r="I171" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J171" t="n">
-        <v>25</v>
+        <v>61</v>
       </c>
       <c r="K171" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="L171" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="M171" t="n">
-        <v>12000</v>
+        <v>14492</v>
       </c>
       <c r="N171" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O171" t="inlineStr">
@@ -12691,10 +12691,10 @@
         </is>
       </c>
       <c r="P171" t="n">
-        <v>300</v>
+        <v>483</v>
       </c>
       <c r="Q171" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="R171" t="inlineStr">
         <is>
@@ -12717,7 +12717,7 @@
         </is>
       </c>
       <c r="D172" s="2" t="n">
-        <v>44403</v>
+        <v>44411</v>
       </c>
       <c r="E172" t="n">
         <v>13</v>
@@ -12737,36 +12737,36 @@
       </c>
       <c r="I172" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J172" t="n">
-        <v>43</v>
+        <v>25</v>
       </c>
       <c r="K172" t="n">
-        <v>16000</v>
+        <v>12000</v>
       </c>
       <c r="L172" t="n">
-        <v>17000</v>
+        <v>12000</v>
       </c>
       <c r="M172" t="n">
-        <v>16488</v>
+        <v>12000</v>
       </c>
       <c r="N172" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O172" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P172" t="n">
-        <v>550</v>
+        <v>300</v>
       </c>
       <c r="Q172" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="R172" t="inlineStr">
         <is>
@@ -12809,24 +12809,24 @@
       </c>
       <c r="I173" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J173" t="n">
-        <v>25</v>
+        <v>43</v>
       </c>
       <c r="K173" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="L173" t="n">
-        <v>14000</v>
+        <v>17000</v>
       </c>
       <c r="M173" t="n">
-        <v>14000</v>
+        <v>16488</v>
       </c>
       <c r="N173" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O173" t="inlineStr">
@@ -12835,10 +12835,10 @@
         </is>
       </c>
       <c r="P173" t="n">
-        <v>350</v>
+        <v>550</v>
       </c>
       <c r="Q173" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="R173" t="inlineStr">
         <is>
@@ -12861,7 +12861,7 @@
         </is>
       </c>
       <c r="D174" s="2" t="n">
-        <v>44413</v>
+        <v>44403</v>
       </c>
       <c r="E174" t="n">
         <v>13</v>
@@ -12881,24 +12881,24 @@
       </c>
       <c r="I174" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J174" t="n">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="K174" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="L174" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="M174" t="n">
-        <v>15500</v>
+        <v>14000</v>
       </c>
       <c r="N174" t="inlineStr">
         <is>
-          <t>$/caja 25 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O174" t="inlineStr">
@@ -12907,10 +12907,10 @@
         </is>
       </c>
       <c r="P174" t="n">
-        <v>15500</v>
+        <v>350</v>
       </c>
       <c r="Q174" t="n">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="R174" t="inlineStr">
         <is>
@@ -12953,24 +12953,24 @@
       </c>
       <c r="I175" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J175" t="n">
-        <v>61</v>
+        <v>16</v>
       </c>
       <c r="K175" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="L175" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="M175" t="n">
-        <v>13492</v>
+        <v>15500</v>
       </c>
       <c r="N175" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 25 unidades</t>
         </is>
       </c>
       <c r="O175" t="inlineStr">
@@ -12979,10 +12979,10 @@
         </is>
       </c>
       <c r="P175" t="n">
-        <v>450</v>
+        <v>15500</v>
       </c>
       <c r="Q175" t="n">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="R175" t="inlineStr">
         <is>
@@ -13025,24 +13025,24 @@
       </c>
       <c r="I176" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J176" t="n">
-        <v>34</v>
+        <v>61</v>
       </c>
       <c r="K176" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="L176" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="M176" t="n">
-        <v>11500</v>
+        <v>13492</v>
       </c>
       <c r="N176" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O176" t="inlineStr">
@@ -13051,10 +13051,10 @@
         </is>
       </c>
       <c r="P176" t="n">
-        <v>288</v>
+        <v>450</v>
       </c>
       <c r="Q176" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="R176" t="inlineStr">
         <is>
@@ -13077,7 +13077,7 @@
         </is>
       </c>
       <c r="D177" s="2" t="n">
-        <v>44426</v>
+        <v>44413</v>
       </c>
       <c r="E177" t="n">
         <v>13</v>
@@ -13097,36 +13097,36 @@
       </c>
       <c r="I177" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J177" t="n">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="K177" t="n">
-        <v>16000</v>
+        <v>11000</v>
       </c>
       <c r="L177" t="n">
-        <v>16000</v>
+        <v>12000</v>
       </c>
       <c r="M177" t="n">
-        <v>16000</v>
+        <v>11500</v>
       </c>
       <c r="N177" t="inlineStr">
         <is>
-          <t>$/caja 25 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O177" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P177" t="n">
-        <v>16000</v>
+        <v>288</v>
       </c>
       <c r="Q177" t="n">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="R177" t="inlineStr">
         <is>
@@ -13169,24 +13169,24 @@
       </c>
       <c r="I178" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J178" t="n">
-        <v>52</v>
+        <v>16</v>
       </c>
       <c r="K178" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="L178" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="M178" t="n">
-        <v>14500</v>
+        <v>16000</v>
       </c>
       <c r="N178" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 25 unidades</t>
         </is>
       </c>
       <c r="O178" t="inlineStr">
@@ -13195,10 +13195,10 @@
         </is>
       </c>
       <c r="P178" t="n">
-        <v>483</v>
+        <v>16000</v>
       </c>
       <c r="Q178" t="n">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="R178" t="inlineStr">
         <is>
@@ -13241,24 +13241,24 @@
       </c>
       <c r="I179" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J179" t="n">
-        <v>34</v>
+        <v>52</v>
       </c>
       <c r="K179" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="L179" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="M179" t="n">
-        <v>13000</v>
+        <v>14500</v>
       </c>
       <c r="N179" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O179" t="inlineStr">
@@ -13267,10 +13267,10 @@
         </is>
       </c>
       <c r="P179" t="n">
-        <v>325</v>
+        <v>483</v>
       </c>
       <c r="Q179" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="R179" t="inlineStr">
         <is>
@@ -13293,7 +13293,7 @@
         </is>
       </c>
       <c r="D180" s="2" t="n">
-        <v>44469</v>
+        <v>44426</v>
       </c>
       <c r="E180" t="n">
         <v>13</v>
@@ -13313,24 +13313,24 @@
       </c>
       <c r="I180" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J180" t="n">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="K180" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="L180" t="n">
         <v>13000</v>
       </c>
       <c r="M180" t="n">
-        <v>12480</v>
+        <v>13000</v>
       </c>
       <c r="N180" t="inlineStr">
         <is>
-          <t>$/caja 25 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O180" t="inlineStr">
@@ -13339,10 +13339,10 @@
         </is>
       </c>
       <c r="P180" t="n">
-        <v>12480</v>
+        <v>325</v>
       </c>
       <c r="Q180" t="n">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="R180" t="inlineStr">
         <is>
@@ -13385,24 +13385,24 @@
       </c>
       <c r="I181" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J181" t="n">
-        <v>61</v>
+        <v>25</v>
       </c>
       <c r="K181" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="L181" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="M181" t="n">
-        <v>10492</v>
+        <v>12480</v>
       </c>
       <c r="N181" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 25 unidades</t>
         </is>
       </c>
       <c r="O181" t="inlineStr">
@@ -13411,10 +13411,10 @@
         </is>
       </c>
       <c r="P181" t="n">
-        <v>350</v>
+        <v>12480</v>
       </c>
       <c r="Q181" t="n">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="R181" t="inlineStr">
         <is>
@@ -13457,24 +13457,24 @@
       </c>
       <c r="I182" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J182" t="n">
-        <v>43</v>
+        <v>61</v>
       </c>
       <c r="K182" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="L182" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="M182" t="n">
-        <v>8512</v>
+        <v>10492</v>
       </c>
       <c r="N182" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O182" t="inlineStr">
@@ -13483,10 +13483,10 @@
         </is>
       </c>
       <c r="P182" t="n">
-        <v>213</v>
+        <v>350</v>
       </c>
       <c r="Q182" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="R182" t="inlineStr">
         <is>
@@ -13509,7 +13509,7 @@
         </is>
       </c>
       <c r="D183" s="2" t="n">
-        <v>44168</v>
+        <v>44469</v>
       </c>
       <c r="E183" t="n">
         <v>13</v>
@@ -13529,36 +13529,36 @@
       </c>
       <c r="I183" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J183" t="n">
-        <v>230</v>
+        <v>43</v>
       </c>
       <c r="K183" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="L183" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="M183" t="n">
-        <v>11000</v>
+        <v>8512</v>
       </c>
       <c r="N183" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O183" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P183" t="n">
-        <v>367</v>
+        <v>213</v>
       </c>
       <c r="Q183" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="R183" t="inlineStr">
         <is>
@@ -13581,7 +13581,7 @@
         </is>
       </c>
       <c r="D184" s="2" t="n">
-        <v>44434</v>
+        <v>44168</v>
       </c>
       <c r="E184" t="n">
         <v>13</v>
@@ -13601,36 +13601,36 @@
       </c>
       <c r="I184" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J184" t="n">
-        <v>18</v>
+        <v>230</v>
       </c>
       <c r="K184" t="n">
-        <v>16000</v>
+        <v>11000</v>
       </c>
       <c r="L184" t="n">
-        <v>17000</v>
+        <v>11000</v>
       </c>
       <c r="M184" t="n">
-        <v>16500</v>
+        <v>11000</v>
       </c>
       <c r="N184" t="inlineStr">
         <is>
-          <t>$/caja 25 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O184" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P184" t="n">
-        <v>16500</v>
+        <v>367</v>
       </c>
       <c r="Q184" t="n">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="R184" t="inlineStr">
         <is>
@@ -13673,24 +13673,24 @@
       </c>
       <c r="I185" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J185" t="n">
-        <v>52</v>
+        <v>18</v>
       </c>
       <c r="K185" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="L185" t="n">
-        <v>15000</v>
+        <v>17000</v>
       </c>
       <c r="M185" t="n">
-        <v>14500</v>
+        <v>16500</v>
       </c>
       <c r="N185" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 25 unidades</t>
         </is>
       </c>
       <c r="O185" t="inlineStr">
@@ -13699,10 +13699,10 @@
         </is>
       </c>
       <c r="P185" t="n">
-        <v>483</v>
+        <v>16500</v>
       </c>
       <c r="Q185" t="n">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="R185" t="inlineStr">
         <is>
@@ -13745,24 +13745,24 @@
       </c>
       <c r="I186" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J186" t="n">
-        <v>34</v>
+        <v>52</v>
       </c>
       <c r="K186" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="L186" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="M186" t="n">
-        <v>12500</v>
+        <v>14500</v>
       </c>
       <c r="N186" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O186" t="inlineStr">
@@ -13771,10 +13771,10 @@
         </is>
       </c>
       <c r="P186" t="n">
-        <v>312</v>
+        <v>483</v>
       </c>
       <c r="Q186" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="R186" t="inlineStr">
         <is>
@@ -13797,7 +13797,7 @@
         </is>
       </c>
       <c r="D187" s="2" t="n">
-        <v>44292</v>
+        <v>44434</v>
       </c>
       <c r="E187" t="n">
         <v>13</v>
@@ -13817,36 +13817,36 @@
       </c>
       <c r="I187" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J187" t="n">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="K187" t="n">
-        <v>18000</v>
+        <v>12000</v>
       </c>
       <c r="L187" t="n">
-        <v>18000</v>
+        <v>13000</v>
       </c>
       <c r="M187" t="n">
-        <v>18000</v>
+        <v>12500</v>
       </c>
       <c r="N187" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O187" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P187" t="n">
-        <v>600</v>
+        <v>312</v>
       </c>
       <c r="Q187" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="R187" t="inlineStr">
         <is>
@@ -13869,7 +13869,7 @@
         </is>
       </c>
       <c r="D188" s="2" t="n">
-        <v>44351</v>
+        <v>44292</v>
       </c>
       <c r="E188" t="n">
         <v>13</v>
@@ -13884,7 +13884,7 @@
       </c>
       <c r="H188" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I188" t="inlineStr">
@@ -13893,20 +13893,20 @@
         </is>
       </c>
       <c r="J188" t="n">
-        <v>43</v>
+        <v>25</v>
       </c>
       <c r="K188" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="L188" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="M188" t="n">
-        <v>16512</v>
+        <v>18000</v>
       </c>
       <c r="N188" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O188" t="inlineStr">
@@ -13915,10 +13915,10 @@
         </is>
       </c>
       <c r="P188" t="n">
-        <v>330</v>
+        <v>600</v>
       </c>
       <c r="Q188" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R188" t="inlineStr">
         <is>
@@ -13961,24 +13961,24 @@
       </c>
       <c r="I189" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J189" t="n">
-        <v>21</v>
+        <v>43</v>
       </c>
       <c r="K189" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="L189" t="n">
-        <v>15000</v>
+        <v>17000</v>
       </c>
       <c r="M189" t="n">
-        <v>15000</v>
+        <v>16512</v>
       </c>
       <c r="N189" t="inlineStr">
         <is>
-          <t>$/caja 70 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O189" t="inlineStr">
@@ -13987,10 +13987,10 @@
         </is>
       </c>
       <c r="P189" t="n">
-        <v>214</v>
+        <v>330</v>
       </c>
       <c r="Q189" t="n">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="R189" t="inlineStr">
         <is>
@@ -14028,41 +14028,41 @@
       </c>
       <c r="H190" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I190" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J190" t="n">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="K190" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="L190" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="M190" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="N190" t="inlineStr">
         <is>
-          <t>$/caja 25 unidades</t>
+          <t>$/caja 70 unidades</t>
         </is>
       </c>
       <c r="O190" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P190" t="n">
-        <v>20000</v>
+        <v>214</v>
       </c>
       <c r="Q190" t="n">
-        <v>1</v>
+        <v>70</v>
       </c>
       <c r="R190" t="inlineStr">
         <is>
@@ -14105,24 +14105,24 @@
       </c>
       <c r="I191" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J191" t="n">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="K191" t="n">
-        <v>17000</v>
+        <v>20000</v>
       </c>
       <c r="L191" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="M191" t="n">
-        <v>17500</v>
+        <v>20000</v>
       </c>
       <c r="N191" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 25 unidades</t>
         </is>
       </c>
       <c r="O191" t="inlineStr">
@@ -14131,10 +14131,10 @@
         </is>
       </c>
       <c r="P191" t="n">
-        <v>583</v>
+        <v>20000</v>
       </c>
       <c r="Q191" t="n">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="R191" t="inlineStr">
         <is>
@@ -14177,24 +14177,24 @@
       </c>
       <c r="I192" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J192" t="n">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="K192" t="n">
-        <v>15000</v>
+        <v>17000</v>
       </c>
       <c r="L192" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="M192" t="n">
-        <v>15000</v>
+        <v>17500</v>
       </c>
       <c r="N192" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O192" t="inlineStr">
@@ -14203,10 +14203,10 @@
         </is>
       </c>
       <c r="P192" t="n">
-        <v>375</v>
+        <v>583</v>
       </c>
       <c r="Q192" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="R192" t="inlineStr">
         <is>
@@ -14229,7 +14229,7 @@
         </is>
       </c>
       <c r="D193" s="2" t="n">
-        <v>44344</v>
+        <v>44351</v>
       </c>
       <c r="E193" t="n">
         <v>13</v>
@@ -14244,41 +14244,41 @@
       </c>
       <c r="H193" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I193" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J193" t="n">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="K193" t="n">
         <v>15000</v>
       </c>
       <c r="L193" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="M193" t="n">
-        <v>15524</v>
+        <v>15000</v>
       </c>
       <c r="N193" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O193" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P193" t="n">
-        <v>310</v>
+        <v>375</v>
       </c>
       <c r="Q193" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="R193" t="inlineStr">
         <is>
@@ -14316,7 +14316,7 @@
       </c>
       <c r="H194" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I194" t="inlineStr">
@@ -14325,20 +14325,20 @@
         </is>
       </c>
       <c r="J194" t="n">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="K194" t="n">
-        <v>17000</v>
+        <v>15000</v>
       </c>
       <c r="L194" t="n">
-        <v>18000</v>
+        <v>16000</v>
       </c>
       <c r="M194" t="n">
-        <v>17500</v>
+        <v>15524</v>
       </c>
       <c r="N194" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O194" t="inlineStr">
@@ -14347,10 +14347,10 @@
         </is>
       </c>
       <c r="P194" t="n">
-        <v>583</v>
+        <v>310</v>
       </c>
       <c r="Q194" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R194" t="inlineStr">
         <is>
@@ -14393,24 +14393,24 @@
       </c>
       <c r="I195" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J195" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="K195" t="n">
-        <v>14000</v>
+        <v>17000</v>
       </c>
       <c r="L195" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="M195" t="n">
-        <v>15000</v>
+        <v>17500</v>
       </c>
       <c r="N195" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O195" t="inlineStr">
@@ -14419,10 +14419,10 @@
         </is>
       </c>
       <c r="P195" t="n">
-        <v>375</v>
+        <v>583</v>
       </c>
       <c r="Q195" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="R195" t="inlineStr">
         <is>
@@ -14445,7 +14445,7 @@
         </is>
       </c>
       <c r="D196" s="2" t="n">
-        <v>44407</v>
+        <v>44344</v>
       </c>
       <c r="E196" t="n">
         <v>13</v>
@@ -14465,36 +14465,36 @@
       </c>
       <c r="I196" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J196" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="K196" t="n">
-        <v>17000</v>
+        <v>14000</v>
       </c>
       <c r="L196" t="n">
-        <v>18000</v>
+        <v>16000</v>
       </c>
       <c r="M196" t="n">
-        <v>17500</v>
+        <v>15000</v>
       </c>
       <c r="N196" t="inlineStr">
         <is>
-          <t>$/caja 25 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O196" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P196" t="n">
-        <v>17500</v>
+        <v>375</v>
       </c>
       <c r="Q196" t="n">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="R196" t="inlineStr">
         <is>
@@ -14537,24 +14537,24 @@
       </c>
       <c r="I197" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J197" t="n">
-        <v>61</v>
+        <v>16</v>
       </c>
       <c r="K197" t="n">
-        <v>15000</v>
+        <v>17000</v>
       </c>
       <c r="L197" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="M197" t="n">
-        <v>15508</v>
+        <v>17500</v>
       </c>
       <c r="N197" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 25 unidades</t>
         </is>
       </c>
       <c r="O197" t="inlineStr">
@@ -14563,10 +14563,10 @@
         </is>
       </c>
       <c r="P197" t="n">
-        <v>517</v>
+        <v>17500</v>
       </c>
       <c r="Q197" t="n">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="R197" t="inlineStr">
         <is>
@@ -14609,24 +14609,24 @@
       </c>
       <c r="I198" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J198" t="n">
-        <v>34</v>
+        <v>61</v>
       </c>
       <c r="K198" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="L198" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="M198" t="n">
-        <v>14000</v>
+        <v>15508</v>
       </c>
       <c r="N198" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O198" t="inlineStr">
@@ -14635,10 +14635,10 @@
         </is>
       </c>
       <c r="P198" t="n">
-        <v>350</v>
+        <v>517</v>
       </c>
       <c r="Q198" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="R198" t="inlineStr">
         <is>
@@ -14661,7 +14661,7 @@
         </is>
       </c>
       <c r="D199" s="2" t="n">
-        <v>44358</v>
+        <v>44407</v>
       </c>
       <c r="E199" t="n">
         <v>13</v>
@@ -14676,29 +14676,29 @@
       </c>
       <c r="H199" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I199" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J199" t="n">
-        <v>52</v>
+        <v>34</v>
       </c>
       <c r="K199" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="L199" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="M199" t="n">
-        <v>15500</v>
+        <v>14000</v>
       </c>
       <c r="N199" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O199" t="inlineStr">
@@ -14707,10 +14707,10 @@
         </is>
       </c>
       <c r="P199" t="n">
-        <v>310</v>
+        <v>350</v>
       </c>
       <c r="Q199" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="R199" t="inlineStr">
         <is>
@@ -14753,24 +14753,24 @@
       </c>
       <c r="I200" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J200" t="n">
-        <v>34</v>
+        <v>52</v>
       </c>
       <c r="K200" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="L200" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="M200" t="n">
-        <v>14000</v>
+        <v>15500</v>
       </c>
       <c r="N200" t="inlineStr">
         <is>
-          <t>$/caja 70 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O200" t="inlineStr">
@@ -14779,10 +14779,10 @@
         </is>
       </c>
       <c r="P200" t="n">
-        <v>200</v>
+        <v>310</v>
       </c>
       <c r="Q200" t="n">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="R200" t="inlineStr">
         <is>
@@ -14820,41 +14820,41 @@
       </c>
       <c r="H201" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I201" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J201" t="n">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="K201" t="n">
-        <v>18000</v>
+        <v>14000</v>
       </c>
       <c r="L201" t="n">
-        <v>19000</v>
+        <v>14000</v>
       </c>
       <c r="M201" t="n">
-        <v>18500</v>
+        <v>14000</v>
       </c>
       <c r="N201" t="inlineStr">
         <is>
-          <t>$/caja 25 unidades</t>
+          <t>$/caja 70 unidades</t>
         </is>
       </c>
       <c r="O201" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P201" t="n">
-        <v>18500</v>
+        <v>200</v>
       </c>
       <c r="Q201" t="n">
-        <v>1</v>
+        <v>70</v>
       </c>
       <c r="R201" t="inlineStr">
         <is>
@@ -14897,24 +14897,24 @@
       </c>
       <c r="I202" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J202" t="n">
-        <v>43</v>
+        <v>16</v>
       </c>
       <c r="K202" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="L202" t="n">
-        <v>16000</v>
+        <v>19000</v>
       </c>
       <c r="M202" t="n">
-        <v>15488</v>
+        <v>18500</v>
       </c>
       <c r="N202" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 25 unidades</t>
         </is>
       </c>
       <c r="O202" t="inlineStr">
@@ -14923,10 +14923,10 @@
         </is>
       </c>
       <c r="P202" t="n">
-        <v>516</v>
+        <v>18500</v>
       </c>
       <c r="Q202" t="n">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="R202" t="inlineStr">
         <is>
@@ -14969,24 +14969,24 @@
       </c>
       <c r="I203" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J203" t="n">
-        <v>25</v>
+        <v>43</v>
       </c>
       <c r="K203" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="L203" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="M203" t="n">
-        <v>14000</v>
+        <v>15488</v>
       </c>
       <c r="N203" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O203" t="inlineStr">
@@ -14995,10 +14995,10 @@
         </is>
       </c>
       <c r="P203" t="n">
-        <v>350</v>
+        <v>516</v>
       </c>
       <c r="Q203" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="R203" t="inlineStr">
         <is>
@@ -15021,7 +15021,7 @@
         </is>
       </c>
       <c r="D204" s="2" t="n">
-        <v>44391</v>
+        <v>44358</v>
       </c>
       <c r="E204" t="n">
         <v>13</v>
@@ -15041,36 +15041,36 @@
       </c>
       <c r="I204" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J204" t="n">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="K204" t="n">
-        <v>17000</v>
+        <v>14000</v>
       </c>
       <c r="L204" t="n">
-        <v>18000</v>
+        <v>14000</v>
       </c>
       <c r="M204" t="n">
-        <v>17500</v>
+        <v>14000</v>
       </c>
       <c r="N204" t="inlineStr">
         <is>
-          <t>$/caja 25 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O204" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P204" t="n">
-        <v>17500</v>
+        <v>350</v>
       </c>
       <c r="Q204" t="n">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="R204" t="inlineStr">
         <is>
@@ -15113,24 +15113,24 @@
       </c>
       <c r="I205" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J205" t="n">
-        <v>43</v>
+        <v>16</v>
       </c>
       <c r="K205" t="n">
-        <v>15000</v>
+        <v>17000</v>
       </c>
       <c r="L205" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="M205" t="n">
-        <v>15488</v>
+        <v>17500</v>
       </c>
       <c r="N205" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 25 unidades</t>
         </is>
       </c>
       <c r="O205" t="inlineStr">
@@ -15139,10 +15139,10 @@
         </is>
       </c>
       <c r="P205" t="n">
-        <v>516</v>
+        <v>17500</v>
       </c>
       <c r="Q205" t="n">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="R205" t="inlineStr">
         <is>
@@ -15185,24 +15185,24 @@
       </c>
       <c r="I206" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J206" t="n">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="K206" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="L206" t="n">
-        <v>13000</v>
+        <v>16000</v>
       </c>
       <c r="M206" t="n">
-        <v>13000</v>
+        <v>15488</v>
       </c>
       <c r="N206" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O206" t="inlineStr">
@@ -15211,10 +15211,10 @@
         </is>
       </c>
       <c r="P206" t="n">
-        <v>325</v>
+        <v>516</v>
       </c>
       <c r="Q206" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="R206" t="inlineStr">
         <is>
@@ -15237,7 +15237,7 @@
         </is>
       </c>
       <c r="D207" s="2" t="n">
-        <v>44335</v>
+        <v>44391</v>
       </c>
       <c r="E207" t="n">
         <v>13</v>
@@ -15252,41 +15252,41 @@
       </c>
       <c r="H207" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I207" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J207" t="n">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="K207" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="L207" t="n">
-        <v>16000</v>
+        <v>13000</v>
       </c>
       <c r="M207" t="n">
-        <v>15480</v>
+        <v>13000</v>
       </c>
       <c r="N207" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O207" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P207" t="n">
-        <v>310</v>
+        <v>325</v>
       </c>
       <c r="Q207" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="R207" t="inlineStr">
         <is>
@@ -15324,7 +15324,7 @@
       </c>
       <c r="H208" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I208" t="inlineStr">
@@ -15333,20 +15333,20 @@
         </is>
       </c>
       <c r="J208" t="n">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="K208" t="n">
-        <v>17000</v>
+        <v>15000</v>
       </c>
       <c r="L208" t="n">
-        <v>18000</v>
+        <v>16000</v>
       </c>
       <c r="M208" t="n">
-        <v>17500</v>
+        <v>15480</v>
       </c>
       <c r="N208" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O208" t="inlineStr">
@@ -15355,10 +15355,10 @@
         </is>
       </c>
       <c r="P208" t="n">
-        <v>583</v>
+        <v>310</v>
       </c>
       <c r="Q208" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R208" t="inlineStr">
         <is>
@@ -15405,20 +15405,20 @@
         </is>
       </c>
       <c r="J209" t="n">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="K209" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="L209" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="M209" t="n">
-        <v>16000</v>
+        <v>17500</v>
       </c>
       <c r="N209" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O209" t="inlineStr">
@@ -15427,10 +15427,10 @@
         </is>
       </c>
       <c r="P209" t="n">
-        <v>400</v>
+        <v>583</v>
       </c>
       <c r="Q209" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="R209" t="inlineStr">
         <is>
@@ -15453,7 +15453,7 @@
         </is>
       </c>
       <c r="D210" s="2" t="n">
-        <v>44320</v>
+        <v>44335</v>
       </c>
       <c r="E210" t="n">
         <v>13</v>
@@ -15473,24 +15473,24 @@
       </c>
       <c r="I210" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J210" t="n">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="K210" t="n">
-        <v>18000</v>
+        <v>16000</v>
       </c>
       <c r="L210" t="n">
-        <v>18000</v>
+        <v>16000</v>
       </c>
       <c r="M210" t="n">
-        <v>18000</v>
+        <v>16000</v>
       </c>
       <c r="N210" t="inlineStr">
         <is>
-          <t>$/caja 25 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O210" t="inlineStr">
@@ -15499,10 +15499,10 @@
         </is>
       </c>
       <c r="P210" t="n">
-        <v>18000</v>
+        <v>400</v>
       </c>
       <c r="Q210" t="n">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="R210" t="inlineStr">
         <is>
@@ -15545,24 +15545,24 @@
       </c>
       <c r="I211" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J211" t="n">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="K211" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="L211" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="M211" t="n">
-        <v>15520</v>
+        <v>18000</v>
       </c>
       <c r="N211" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 25 unidades</t>
         </is>
       </c>
       <c r="O211" t="inlineStr">
@@ -15571,10 +15571,10 @@
         </is>
       </c>
       <c r="P211" t="n">
-        <v>517</v>
+        <v>18000</v>
       </c>
       <c r="Q211" t="n">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="R211" t="inlineStr">
         <is>
@@ -15597,7 +15597,7 @@
         </is>
       </c>
       <c r="D212" s="2" t="n">
-        <v>44475</v>
+        <v>44320</v>
       </c>
       <c r="E212" t="n">
         <v>13</v>
@@ -15621,32 +15621,32 @@
         </is>
       </c>
       <c r="J212" t="n">
-        <v>340</v>
+        <v>25</v>
       </c>
       <c r="K212" t="n">
-        <v>400</v>
+        <v>15000</v>
       </c>
       <c r="L212" t="n">
-        <v>400</v>
+        <v>16000</v>
       </c>
       <c r="M212" t="n">
-        <v>400</v>
+        <v>15520</v>
       </c>
       <c r="N212" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O212" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P212" t="n">
-        <v>400</v>
+        <v>517</v>
       </c>
       <c r="Q212" t="n">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="R212" t="inlineStr">
         <is>
@@ -15689,20 +15689,20 @@
       </c>
       <c r="I213" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J213" t="n">
-        <v>196</v>
+        <v>340</v>
       </c>
       <c r="K213" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="L213" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="M213" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="N213" t="inlineStr">
         <is>
@@ -15715,7 +15715,7 @@
         </is>
       </c>
       <c r="P213" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="Q213" t="n">
         <v>1</v>
@@ -15741,7 +15741,7 @@
         </is>
       </c>
       <c r="D214" s="2" t="n">
-        <v>44474</v>
+        <v>44475</v>
       </c>
       <c r="E214" t="n">
         <v>13</v>
@@ -15761,33 +15761,33 @@
       </c>
       <c r="I214" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J214" t="n">
-        <v>16</v>
+        <v>196</v>
       </c>
       <c r="K214" t="n">
-        <v>13000</v>
+        <v>300</v>
       </c>
       <c r="L214" t="n">
-        <v>13000</v>
+        <v>300</v>
       </c>
       <c r="M214" t="n">
-        <v>13000</v>
+        <v>300</v>
       </c>
       <c r="N214" t="inlineStr">
         <is>
-          <t>$/caja 25 unidades</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O214" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P214" t="n">
-        <v>13000</v>
+        <v>300</v>
       </c>
       <c r="Q214" t="n">
         <v>1</v>
@@ -15833,24 +15833,24 @@
       </c>
       <c r="I215" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J215" t="n">
-        <v>61</v>
+        <v>16</v>
       </c>
       <c r="K215" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="L215" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="M215" t="n">
-        <v>10492</v>
+        <v>13000</v>
       </c>
       <c r="N215" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 25 unidades</t>
         </is>
       </c>
       <c r="O215" t="inlineStr">
@@ -15859,10 +15859,10 @@
         </is>
       </c>
       <c r="P215" t="n">
-        <v>350</v>
+        <v>13000</v>
       </c>
       <c r="Q215" t="n">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="R215" t="inlineStr">
         <is>
@@ -15909,32 +15909,32 @@
         </is>
       </c>
       <c r="J216" t="n">
-        <v>250</v>
+        <v>61</v>
       </c>
       <c r="K216" t="n">
-        <v>400</v>
+        <v>10000</v>
       </c>
       <c r="L216" t="n">
-        <v>400</v>
+        <v>11000</v>
       </c>
       <c r="M216" t="n">
-        <v>400</v>
+        <v>10492</v>
       </c>
       <c r="N216" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O216" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P216" t="n">
-        <v>400</v>
+        <v>350</v>
       </c>
       <c r="Q216" t="n">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="R216" t="inlineStr">
         <is>
@@ -15977,36 +15977,36 @@
       </c>
       <c r="I217" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J217" t="n">
-        <v>52</v>
+        <v>250</v>
       </c>
       <c r="K217" t="n">
-        <v>8000</v>
+        <v>400</v>
       </c>
       <c r="L217" t="n">
-        <v>9000</v>
+        <v>400</v>
       </c>
       <c r="M217" t="n">
-        <v>8500</v>
+        <v>400</v>
       </c>
       <c r="N217" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O217" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P217" t="n">
-        <v>212</v>
+        <v>400</v>
       </c>
       <c r="Q217" t="n">
-        <v>40</v>
+        <v>1</v>
       </c>
       <c r="R217" t="inlineStr">
         <is>
@@ -16053,32 +16053,32 @@
         </is>
       </c>
       <c r="J218" t="n">
-        <v>106</v>
+        <v>52</v>
       </c>
       <c r="K218" t="n">
-        <v>300</v>
+        <v>8000</v>
       </c>
       <c r="L218" t="n">
-        <v>300</v>
+        <v>9000</v>
       </c>
       <c r="M218" t="n">
-        <v>300</v>
+        <v>8500</v>
       </c>
       <c r="N218" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O218" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P218" t="n">
-        <v>300</v>
+        <v>212</v>
       </c>
       <c r="Q218" t="n">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="R218" t="inlineStr">
         <is>
@@ -16101,7 +16101,7 @@
         </is>
       </c>
       <c r="D219" s="2" t="n">
-        <v>44362</v>
+        <v>44474</v>
       </c>
       <c r="E219" t="n">
         <v>13</v>
@@ -16116,41 +16116,41 @@
       </c>
       <c r="H219" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I219" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J219" t="n">
-        <v>34</v>
+        <v>106</v>
       </c>
       <c r="K219" t="n">
-        <v>15000</v>
+        <v>300</v>
       </c>
       <c r="L219" t="n">
-        <v>16000</v>
+        <v>300</v>
       </c>
       <c r="M219" t="n">
-        <v>15500</v>
+        <v>300</v>
       </c>
       <c r="N219" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O219" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P219" t="n">
-        <v>388</v>
+        <v>300</v>
       </c>
       <c r="Q219" t="n">
-        <v>40</v>
+        <v>1</v>
       </c>
       <c r="R219" t="inlineStr">
         <is>
@@ -16193,24 +16193,24 @@
       </c>
       <c r="I220" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J220" t="n">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="K220" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="L220" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="M220" t="n">
-        <v>14000</v>
+        <v>15500</v>
       </c>
       <c r="N220" t="inlineStr">
         <is>
-          <t>$/caja 70 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O220" t="inlineStr">
@@ -16219,10 +16219,10 @@
         </is>
       </c>
       <c r="P220" t="n">
-        <v>200</v>
+        <v>388</v>
       </c>
       <c r="Q220" t="n">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="R220" t="inlineStr">
         <is>
@@ -16260,41 +16260,41 @@
       </c>
       <c r="H221" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I221" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J221" t="n">
         <v>16</v>
       </c>
       <c r="K221" t="n">
-        <v>20000</v>
+        <v>14000</v>
       </c>
       <c r="L221" t="n">
-        <v>21000</v>
+        <v>14000</v>
       </c>
       <c r="M221" t="n">
-        <v>20500</v>
+        <v>14000</v>
       </c>
       <c r="N221" t="inlineStr">
         <is>
-          <t>$/caja 25 unidades</t>
+          <t>$/caja 70 unidades</t>
         </is>
       </c>
       <c r="O221" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P221" t="n">
-        <v>20500</v>
+        <v>200</v>
       </c>
       <c r="Q221" t="n">
-        <v>1</v>
+        <v>70</v>
       </c>
       <c r="R221" t="inlineStr">
         <is>
@@ -16337,24 +16337,24 @@
       </c>
       <c r="I222" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J222" t="n">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="K222" t="n">
-        <v>17000</v>
+        <v>20000</v>
       </c>
       <c r="L222" t="n">
-        <v>18000</v>
+        <v>21000</v>
       </c>
       <c r="M222" t="n">
-        <v>17500</v>
+        <v>20500</v>
       </c>
       <c r="N222" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 25 unidades</t>
         </is>
       </c>
       <c r="O222" t="inlineStr">
@@ -16363,10 +16363,10 @@
         </is>
       </c>
       <c r="P222" t="n">
-        <v>583</v>
+        <v>20500</v>
       </c>
       <c r="Q222" t="n">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="R222" t="inlineStr">
         <is>
@@ -16389,7 +16389,7 @@
         </is>
       </c>
       <c r="D223" s="2" t="n">
-        <v>44300</v>
+        <v>44362</v>
       </c>
       <c r="E223" t="n">
         <v>13</v>
@@ -16413,16 +16413,16 @@
         </is>
       </c>
       <c r="J223" t="n">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="K223" t="n">
         <v>17000</v>
       </c>
       <c r="L223" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="M223" t="n">
-        <v>17000</v>
+        <v>17500</v>
       </c>
       <c r="N223" t="inlineStr">
         <is>
@@ -16431,11 +16431,11 @@
       </c>
       <c r="O223" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P223" t="n">
-        <v>567</v>
+        <v>583</v>
       </c>
       <c r="Q223" t="n">
         <v>30</v>
@@ -16461,7 +16461,7 @@
         </is>
       </c>
       <c r="D224" s="2" t="n">
-        <v>44349</v>
+        <v>44300</v>
       </c>
       <c r="E224" t="n">
         <v>13</v>
@@ -16485,16 +16485,16 @@
         </is>
       </c>
       <c r="J224" t="n">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="K224" t="n">
         <v>17000</v>
       </c>
       <c r="L224" t="n">
-        <v>18000</v>
+        <v>17000</v>
       </c>
       <c r="M224" t="n">
-        <v>17524</v>
+        <v>17000</v>
       </c>
       <c r="N224" t="inlineStr">
         <is>
@@ -16507,7 +16507,7 @@
         </is>
       </c>
       <c r="P224" t="n">
-        <v>584</v>
+        <v>567</v>
       </c>
       <c r="Q224" t="n">
         <v>30</v>
@@ -16553,24 +16553,24 @@
       </c>
       <c r="I225" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J225" t="n">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="K225" t="n">
-        <v>15000</v>
+        <v>17000</v>
       </c>
       <c r="L225" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="M225" t="n">
-        <v>15000</v>
+        <v>17524</v>
       </c>
       <c r="N225" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O225" t="inlineStr">
@@ -16579,10 +16579,10 @@
         </is>
       </c>
       <c r="P225" t="n">
-        <v>375</v>
+        <v>584</v>
       </c>
       <c r="Q225" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="R225" t="inlineStr">
         <is>
@@ -16605,7 +16605,7 @@
         </is>
       </c>
       <c r="D226" s="2" t="n">
-        <v>44372</v>
+        <v>44349</v>
       </c>
       <c r="E226" t="n">
         <v>13</v>
@@ -16620,41 +16620,41 @@
       </c>
       <c r="H226" t="inlineStr">
         <is>
-          <t>Madrigal</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I226" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J226" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="K226" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="L226" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="M226" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="N226" t="inlineStr">
         <is>
-          <t>$/caja 35 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O226" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P226" t="n">
-        <v>571</v>
+        <v>375</v>
       </c>
       <c r="Q226" t="n">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="R226" t="inlineStr">
         <is>
@@ -16697,24 +16697,24 @@
       </c>
       <c r="I227" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J227" t="n">
-        <v>52</v>
+        <v>16</v>
       </c>
       <c r="K227" t="n">
-        <v>17000</v>
+        <v>20000</v>
       </c>
       <c r="L227" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="M227" t="n">
-        <v>17500</v>
+        <v>20000</v>
       </c>
       <c r="N227" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 35 unidades</t>
         </is>
       </c>
       <c r="O227" t="inlineStr">
@@ -16723,10 +16723,10 @@
         </is>
       </c>
       <c r="P227" t="n">
-        <v>438</v>
+        <v>571</v>
       </c>
       <c r="Q227" t="n">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="R227" t="inlineStr">
         <is>
@@ -16769,24 +16769,24 @@
       </c>
       <c r="I228" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J228" t="n">
-        <v>34</v>
+        <v>52</v>
       </c>
       <c r="K228" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="L228" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="M228" t="n">
-        <v>16000</v>
+        <v>17500</v>
       </c>
       <c r="N228" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O228" t="inlineStr">
@@ -16795,10 +16795,10 @@
         </is>
       </c>
       <c r="P228" t="n">
-        <v>320</v>
+        <v>438</v>
       </c>
       <c r="Q228" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="R228" t="inlineStr">
         <is>
@@ -16821,7 +16821,7 @@
         </is>
       </c>
       <c r="D229" s="2" t="n">
-        <v>44350</v>
+        <v>44372</v>
       </c>
       <c r="E229" t="n">
         <v>13</v>
@@ -16836,25 +16836,25 @@
       </c>
       <c r="H229" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Madrigal</t>
         </is>
       </c>
       <c r="I229" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J229" t="n">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="K229" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="L229" t="n">
         <v>16000</v>
       </c>
       <c r="M229" t="n">
-        <v>15500</v>
+        <v>16000</v>
       </c>
       <c r="N229" t="inlineStr">
         <is>
@@ -16867,7 +16867,7 @@
         </is>
       </c>
       <c r="P229" t="n">
-        <v>310</v>
+        <v>320</v>
       </c>
       <c r="Q229" t="n">
         <v>50</v>
@@ -16913,24 +16913,24 @@
       </c>
       <c r="I230" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J230" t="n">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="K230" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="L230" t="n">
-        <v>13000</v>
+        <v>16000</v>
       </c>
       <c r="M230" t="n">
-        <v>13000</v>
+        <v>15500</v>
       </c>
       <c r="N230" t="inlineStr">
         <is>
-          <t>$/caja 70 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O230" t="inlineStr">
@@ -16939,10 +16939,10 @@
         </is>
       </c>
       <c r="P230" t="n">
-        <v>186</v>
+        <v>310</v>
       </c>
       <c r="Q230" t="n">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="R230" t="inlineStr">
         <is>
@@ -16980,41 +16980,41 @@
       </c>
       <c r="H231" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I231" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J231" t="n">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="K231" t="n">
-        <v>18000</v>
+        <v>13000</v>
       </c>
       <c r="L231" t="n">
-        <v>19000</v>
+        <v>13000</v>
       </c>
       <c r="M231" t="n">
-        <v>18500</v>
+        <v>13000</v>
       </c>
       <c r="N231" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 70 unidades</t>
         </is>
       </c>
       <c r="O231" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P231" t="n">
-        <v>617</v>
+        <v>186</v>
       </c>
       <c r="Q231" t="n">
-        <v>30</v>
+        <v>70</v>
       </c>
       <c r="R231" t="inlineStr">
         <is>
@@ -17057,24 +17057,24 @@
       </c>
       <c r="I232" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J232" t="n">
-        <v>15</v>
+        <v>34</v>
       </c>
       <c r="K232" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="L232" t="n">
-        <v>16000</v>
+        <v>19000</v>
       </c>
       <c r="M232" t="n">
-        <v>16000</v>
+        <v>18500</v>
       </c>
       <c r="N232" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O232" t="inlineStr">
@@ -17083,10 +17083,10 @@
         </is>
       </c>
       <c r="P232" t="n">
-        <v>400</v>
+        <v>617</v>
       </c>
       <c r="Q232" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="R232" t="inlineStr">
         <is>
@@ -17109,7 +17109,7 @@
         </is>
       </c>
       <c r="D233" s="2" t="n">
-        <v>44448</v>
+        <v>44350</v>
       </c>
       <c r="E233" t="n">
         <v>13</v>
@@ -17129,24 +17129,24 @@
       </c>
       <c r="I233" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J233" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K233" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="L233" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="M233" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="N233" t="inlineStr">
         <is>
-          <t>$/caja 25 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O233" t="inlineStr">
@@ -17155,10 +17155,10 @@
         </is>
       </c>
       <c r="P233" t="n">
-        <v>15000</v>
+        <v>400</v>
       </c>
       <c r="Q233" t="n">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="R233" t="inlineStr">
         <is>
@@ -17201,24 +17201,24 @@
       </c>
       <c r="I234" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J234" t="n">
-        <v>43</v>
+        <v>16</v>
       </c>
       <c r="K234" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="L234" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="M234" t="n">
-        <v>13512</v>
+        <v>15000</v>
       </c>
       <c r="N234" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 25 unidades</t>
         </is>
       </c>
       <c r="O234" t="inlineStr">
@@ -17227,10 +17227,10 @@
         </is>
       </c>
       <c r="P234" t="n">
-        <v>450</v>
+        <v>15000</v>
       </c>
       <c r="Q234" t="n">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="R234" t="inlineStr">
         <is>
@@ -17273,24 +17273,24 @@
       </c>
       <c r="I235" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J235" t="n">
-        <v>25</v>
+        <v>43</v>
       </c>
       <c r="K235" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="L235" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="M235" t="n">
-        <v>11480</v>
+        <v>13512</v>
       </c>
       <c r="N235" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O235" t="inlineStr">
@@ -17299,10 +17299,10 @@
         </is>
       </c>
       <c r="P235" t="n">
-        <v>287</v>
+        <v>450</v>
       </c>
       <c r="Q235" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="R235" t="inlineStr">
         <is>
@@ -17325,7 +17325,7 @@
         </is>
       </c>
       <c r="D236" s="2" t="n">
-        <v>44385</v>
+        <v>44448</v>
       </c>
       <c r="E236" t="n">
         <v>13</v>
@@ -17345,24 +17345,24 @@
       </c>
       <c r="I236" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J236" t="n">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="K236" t="n">
-        <v>19000</v>
+        <v>11000</v>
       </c>
       <c r="L236" t="n">
-        <v>19000</v>
+        <v>12000</v>
       </c>
       <c r="M236" t="n">
-        <v>19000</v>
+        <v>11480</v>
       </c>
       <c r="N236" t="inlineStr">
         <is>
-          <t>$/caja 25 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O236" t="inlineStr">
@@ -17371,10 +17371,10 @@
         </is>
       </c>
       <c r="P236" t="n">
-        <v>19000</v>
+        <v>287</v>
       </c>
       <c r="Q236" t="n">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="R236" t="inlineStr">
         <is>
@@ -17417,24 +17417,24 @@
       </c>
       <c r="I237" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J237" t="n">
-        <v>52</v>
+        <v>16</v>
       </c>
       <c r="K237" t="n">
-        <v>17000</v>
+        <v>19000</v>
       </c>
       <c r="L237" t="n">
-        <v>18000</v>
+        <v>19000</v>
       </c>
       <c r="M237" t="n">
-        <v>17500</v>
+        <v>19000</v>
       </c>
       <c r="N237" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 25 unidades</t>
         </is>
       </c>
       <c r="O237" t="inlineStr">
@@ -17443,10 +17443,10 @@
         </is>
       </c>
       <c r="P237" t="n">
-        <v>583</v>
+        <v>19000</v>
       </c>
       <c r="Q237" t="n">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="R237" t="inlineStr">
         <is>
@@ -17489,24 +17489,24 @@
       </c>
       <c r="I238" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J238" t="n">
-        <v>25</v>
+        <v>52</v>
       </c>
       <c r="K238" t="n">
-        <v>15000</v>
+        <v>17000</v>
       </c>
       <c r="L238" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="M238" t="n">
-        <v>15480</v>
+        <v>17500</v>
       </c>
       <c r="N238" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O238" t="inlineStr">
@@ -17515,10 +17515,10 @@
         </is>
       </c>
       <c r="P238" t="n">
-        <v>387</v>
+        <v>583</v>
       </c>
       <c r="Q238" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="R238" t="inlineStr">
         <is>
@@ -17556,29 +17556,29 @@
       </c>
       <c r="H239" t="inlineStr">
         <is>
-          <t>Madrigal</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I239" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J239" t="n">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="K239" t="n">
-        <v>21000</v>
+        <v>15000</v>
       </c>
       <c r="L239" t="n">
-        <v>21000</v>
+        <v>16000</v>
       </c>
       <c r="M239" t="n">
-        <v>21000</v>
+        <v>15480</v>
       </c>
       <c r="N239" t="inlineStr">
         <is>
-          <t>$/caja 35 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O239" t="inlineStr">
@@ -17587,10 +17587,10 @@
         </is>
       </c>
       <c r="P239" t="n">
-        <v>600</v>
+        <v>387</v>
       </c>
       <c r="Q239" t="n">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="R239" t="inlineStr">
         <is>
@@ -17633,24 +17633,24 @@
       </c>
       <c r="I240" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J240" t="n">
-        <v>43</v>
+        <v>16</v>
       </c>
       <c r="K240" t="n">
-        <v>18000</v>
+        <v>21000</v>
       </c>
       <c r="L240" t="n">
-        <v>19000</v>
+        <v>21000</v>
       </c>
       <c r="M240" t="n">
-        <v>18512</v>
+        <v>21000</v>
       </c>
       <c r="N240" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 35 unidades</t>
         </is>
       </c>
       <c r="O240" t="inlineStr">
@@ -17659,10 +17659,10 @@
         </is>
       </c>
       <c r="P240" t="n">
-        <v>463</v>
+        <v>600</v>
       </c>
       <c r="Q240" t="n">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="R240" t="inlineStr">
         <is>
@@ -17705,24 +17705,24 @@
       </c>
       <c r="I241" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J241" t="n">
-        <v>25</v>
+        <v>43</v>
       </c>
       <c r="K241" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="L241" t="n">
-        <v>17000</v>
+        <v>19000</v>
       </c>
       <c r="M241" t="n">
-        <v>16480</v>
+        <v>18512</v>
       </c>
       <c r="N241" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O241" t="inlineStr">
@@ -17731,10 +17731,10 @@
         </is>
       </c>
       <c r="P241" t="n">
-        <v>330</v>
+        <v>463</v>
       </c>
       <c r="Q241" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="R241" t="inlineStr">
         <is>
@@ -17757,7 +17757,7 @@
         </is>
       </c>
       <c r="D242" s="2" t="n">
-        <v>44452</v>
+        <v>44385</v>
       </c>
       <c r="E242" t="n">
         <v>13</v>
@@ -17772,7 +17772,7 @@
       </c>
       <c r="H242" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Madrigal</t>
         </is>
       </c>
       <c r="I242" t="inlineStr">
@@ -17784,17 +17784,17 @@
         <v>25</v>
       </c>
       <c r="K242" t="n">
-        <v>11000</v>
+        <v>16000</v>
       </c>
       <c r="L242" t="n">
-        <v>12000</v>
+        <v>17000</v>
       </c>
       <c r="M242" t="n">
-        <v>11480</v>
+        <v>16480</v>
       </c>
       <c r="N242" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O242" t="inlineStr">
@@ -17803,10 +17803,10 @@
         </is>
       </c>
       <c r="P242" t="n">
-        <v>287</v>
+        <v>330</v>
       </c>
       <c r="Q242" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="R242" t="inlineStr">
         <is>
@@ -17829,7 +17829,7 @@
         </is>
       </c>
       <c r="D243" s="2" t="n">
-        <v>44453</v>
+        <v>44452</v>
       </c>
       <c r="E243" t="n">
         <v>13</v>
@@ -17849,24 +17849,24 @@
       </c>
       <c r="I243" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J243" t="n">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="K243" t="n">
-        <v>14000</v>
+        <v>11000</v>
       </c>
       <c r="L243" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="M243" t="n">
-        <v>14500</v>
+        <v>11480</v>
       </c>
       <c r="N243" t="inlineStr">
         <is>
-          <t>$/caja 25 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O243" t="inlineStr">
@@ -17875,10 +17875,10 @@
         </is>
       </c>
       <c r="P243" t="n">
-        <v>14500</v>
+        <v>287</v>
       </c>
       <c r="Q243" t="n">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="R243" t="inlineStr">
         <is>
@@ -17921,24 +17921,24 @@
       </c>
       <c r="I244" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J244" t="n">
-        <v>52</v>
+        <v>16</v>
       </c>
       <c r="K244" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="L244" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="M244" t="n">
-        <v>13500</v>
+        <v>14500</v>
       </c>
       <c r="N244" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 25 unidades</t>
         </is>
       </c>
       <c r="O244" t="inlineStr">
@@ -17947,10 +17947,10 @@
         </is>
       </c>
       <c r="P244" t="n">
-        <v>450</v>
+        <v>14500</v>
       </c>
       <c r="Q244" t="n">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="R244" t="inlineStr">
         <is>
@@ -17993,24 +17993,24 @@
       </c>
       <c r="I245" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J245" t="n">
-        <v>34</v>
+        <v>52</v>
       </c>
       <c r="K245" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="L245" t="n">
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="M245" t="n">
-        <v>10500</v>
+        <v>13500</v>
       </c>
       <c r="N245" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O245" t="inlineStr">
@@ -18019,10 +18019,10 @@
         </is>
       </c>
       <c r="P245" t="n">
-        <v>262</v>
+        <v>450</v>
       </c>
       <c r="Q245" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="R245" t="inlineStr">
         <is>
@@ -18045,7 +18045,7 @@
         </is>
       </c>
       <c r="D246" s="2" t="n">
-        <v>44435</v>
+        <v>44453</v>
       </c>
       <c r="E246" t="n">
         <v>13</v>
@@ -18065,36 +18065,36 @@
       </c>
       <c r="I246" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J246" t="n">
-        <v>70</v>
+        <v>34</v>
       </c>
       <c r="K246" t="n">
-        <v>16000</v>
+        <v>10000</v>
       </c>
       <c r="L246" t="n">
-        <v>17000</v>
+        <v>11000</v>
       </c>
       <c r="M246" t="n">
-        <v>16386</v>
+        <v>10500</v>
       </c>
       <c r="N246" t="inlineStr">
         <is>
-          <t>$/caja 25 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O246" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P246" t="n">
-        <v>16386</v>
+        <v>262</v>
       </c>
       <c r="Q246" t="n">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="R246" t="inlineStr">
         <is>
@@ -18137,24 +18137,24 @@
       </c>
       <c r="I247" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J247" t="n">
-        <v>224</v>
+        <v>70</v>
       </c>
       <c r="K247" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="L247" t="n">
-        <v>15000</v>
+        <v>17000</v>
       </c>
       <c r="M247" t="n">
-        <v>14500</v>
+        <v>16386</v>
       </c>
       <c r="N247" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 25 unidades</t>
         </is>
       </c>
       <c r="O247" t="inlineStr">
@@ -18163,10 +18163,10 @@
         </is>
       </c>
       <c r="P247" t="n">
-        <v>483</v>
+        <v>16386</v>
       </c>
       <c r="Q247" t="n">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="R247" t="inlineStr">
         <is>
@@ -18209,24 +18209,24 @@
       </c>
       <c r="I248" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J248" t="n">
-        <v>143</v>
+        <v>224</v>
       </c>
       <c r="K248" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="L248" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="M248" t="n">
-        <v>12497</v>
+        <v>14500</v>
       </c>
       <c r="N248" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O248" t="inlineStr">
@@ -18235,10 +18235,10 @@
         </is>
       </c>
       <c r="P248" t="n">
-        <v>312</v>
+        <v>483</v>
       </c>
       <c r="Q248" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="R248" t="inlineStr">
         <is>
@@ -18276,25 +18276,25 @@
       </c>
       <c r="H249" t="inlineStr">
         <is>
-          <t>Madrigal</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I249" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J249" t="n">
-        <v>34</v>
+        <v>143</v>
       </c>
       <c r="K249" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="L249" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="M249" t="n">
-        <v>14500</v>
+        <v>12497</v>
       </c>
       <c r="N249" t="inlineStr">
         <is>
@@ -18307,7 +18307,7 @@
         </is>
       </c>
       <c r="P249" t="n">
-        <v>362</v>
+        <v>312</v>
       </c>
       <c r="Q249" t="n">
         <v>40</v>
@@ -18353,24 +18353,24 @@
       </c>
       <c r="I250" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J250" t="n">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="K250" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="L250" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="M250" t="n">
-        <v>12500</v>
+        <v>14500</v>
       </c>
       <c r="N250" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O250" t="inlineStr">
@@ -18379,10 +18379,10 @@
         </is>
       </c>
       <c r="P250" t="n">
-        <v>250</v>
+        <v>362</v>
       </c>
       <c r="Q250" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="R250" t="inlineStr">
         <is>
@@ -18405,7 +18405,7 @@
         </is>
       </c>
       <c r="D251" s="2" t="n">
-        <v>44433</v>
+        <v>44435</v>
       </c>
       <c r="E251" t="n">
         <v>13</v>
@@ -18420,29 +18420,29 @@
       </c>
       <c r="H251" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Madrigal</t>
         </is>
       </c>
       <c r="I251" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J251" t="n">
         <v>16</v>
       </c>
       <c r="K251" t="n">
-        <v>16000</v>
+        <v>12000</v>
       </c>
       <c r="L251" t="n">
-        <v>16000</v>
+        <v>13000</v>
       </c>
       <c r="M251" t="n">
-        <v>16000</v>
+        <v>12500</v>
       </c>
       <c r="N251" t="inlineStr">
         <is>
-          <t>$/caja 25 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O251" t="inlineStr">
@@ -18451,10 +18451,10 @@
         </is>
       </c>
       <c r="P251" t="n">
-        <v>16000</v>
+        <v>250</v>
       </c>
       <c r="Q251" t="n">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="R251" t="inlineStr">
         <is>
@@ -18497,24 +18497,24 @@
       </c>
       <c r="I252" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J252" t="n">
-        <v>52</v>
+        <v>16</v>
       </c>
       <c r="K252" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="L252" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="M252" t="n">
-        <v>14500</v>
+        <v>16000</v>
       </c>
       <c r="N252" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 25 unidades</t>
         </is>
       </c>
       <c r="O252" t="inlineStr">
@@ -18523,10 +18523,10 @@
         </is>
       </c>
       <c r="P252" t="n">
-        <v>483</v>
+        <v>16000</v>
       </c>
       <c r="Q252" t="n">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="R252" t="inlineStr">
         <is>
@@ -18569,24 +18569,24 @@
       </c>
       <c r="I253" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J253" t="n">
-        <v>34</v>
+        <v>52</v>
       </c>
       <c r="K253" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="L253" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="M253" t="n">
-        <v>12500</v>
+        <v>14500</v>
       </c>
       <c r="N253" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O253" t="inlineStr">
@@ -18595,10 +18595,10 @@
         </is>
       </c>
       <c r="P253" t="n">
-        <v>312</v>
+        <v>483</v>
       </c>
       <c r="Q253" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="R253" t="inlineStr">
         <is>
@@ -18621,7 +18621,7 @@
         </is>
       </c>
       <c r="D254" s="2" t="n">
-        <v>44307</v>
+        <v>44433</v>
       </c>
       <c r="E254" t="n">
         <v>13</v>
@@ -18641,36 +18641,36 @@
       </c>
       <c r="I254" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J254" t="n">
-        <v>10</v>
+        <v>34</v>
       </c>
       <c r="K254" t="n">
-        <v>18000</v>
+        <v>12000</v>
       </c>
       <c r="L254" t="n">
-        <v>18000</v>
+        <v>13000</v>
       </c>
       <c r="M254" t="n">
-        <v>18000</v>
+        <v>12500</v>
       </c>
       <c r="N254" t="inlineStr">
         <is>
-          <t>$/caja 25 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O254" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P254" t="n">
-        <v>18000</v>
+        <v>312</v>
       </c>
       <c r="Q254" t="n">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="R254" t="inlineStr">
         <is>
@@ -18713,24 +18713,24 @@
       </c>
       <c r="I255" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J255" t="n">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="K255" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="L255" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="M255" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="N255" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 25 unidades</t>
         </is>
       </c>
       <c r="O255" t="inlineStr">
@@ -18739,10 +18739,10 @@
         </is>
       </c>
       <c r="P255" t="n">
-        <v>533</v>
+        <v>18000</v>
       </c>
       <c r="Q255" t="n">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="R255" t="inlineStr">
         <is>
@@ -18765,7 +18765,7 @@
         </is>
       </c>
       <c r="D256" s="2" t="n">
-        <v>44166</v>
+        <v>44307</v>
       </c>
       <c r="E256" t="n">
         <v>13</v>
@@ -18789,16 +18789,16 @@
         </is>
       </c>
       <c r="J256" t="n">
-        <v>250</v>
+        <v>16</v>
       </c>
       <c r="K256" t="n">
-        <v>11000</v>
+        <v>16000</v>
       </c>
       <c r="L256" t="n">
-        <v>11000</v>
+        <v>16000</v>
       </c>
       <c r="M256" t="n">
-        <v>11000</v>
+        <v>16000</v>
       </c>
       <c r="N256" t="inlineStr">
         <is>
@@ -18807,11 +18807,11 @@
       </c>
       <c r="O256" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P256" t="n">
-        <v>367</v>
+        <v>533</v>
       </c>
       <c r="Q256" t="n">
         <v>30</v>
@@ -18837,7 +18837,7 @@
         </is>
       </c>
       <c r="D257" s="2" t="n">
-        <v>44334</v>
+        <v>44166</v>
       </c>
       <c r="E257" t="n">
         <v>13</v>
@@ -18852,7 +18852,7 @@
       </c>
       <c r="H257" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I257" t="inlineStr">
@@ -18861,32 +18861,32 @@
         </is>
       </c>
       <c r="J257" t="n">
-        <v>34</v>
+        <v>250</v>
       </c>
       <c r="K257" t="n">
-        <v>15000</v>
+        <v>11000</v>
       </c>
       <c r="L257" t="n">
-        <v>16000</v>
+        <v>11000</v>
       </c>
       <c r="M257" t="n">
-        <v>15500</v>
+        <v>11000</v>
       </c>
       <c r="N257" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O257" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P257" t="n">
-        <v>310</v>
+        <v>367</v>
       </c>
       <c r="Q257" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R257" t="inlineStr">
         <is>
@@ -18924,7 +18924,7 @@
       </c>
       <c r="H258" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I258" t="inlineStr">
@@ -18933,20 +18933,20 @@
         </is>
       </c>
       <c r="J258" t="n">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="K258" t="n">
-        <v>17000</v>
+        <v>15000</v>
       </c>
       <c r="L258" t="n">
-        <v>18000</v>
+        <v>16000</v>
       </c>
       <c r="M258" t="n">
-        <v>17480</v>
+        <v>15500</v>
       </c>
       <c r="N258" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O258" t="inlineStr">
@@ -18955,10 +18955,10 @@
         </is>
       </c>
       <c r="P258" t="n">
-        <v>583</v>
+        <v>310</v>
       </c>
       <c r="Q258" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R258" t="inlineStr">
         <is>
@@ -18981,7 +18981,7 @@
         </is>
       </c>
       <c r="D259" s="2" t="n">
-        <v>44476</v>
+        <v>44334</v>
       </c>
       <c r="E259" t="n">
         <v>13</v>
@@ -19001,36 +19001,36 @@
       </c>
       <c r="I259" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J259" t="n">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="K259" t="n">
-        <v>13000</v>
+        <v>17000</v>
       </c>
       <c r="L259" t="n">
-        <v>13000</v>
+        <v>18000</v>
       </c>
       <c r="M259" t="n">
-        <v>13000</v>
+        <v>17480</v>
       </c>
       <c r="N259" t="inlineStr">
         <is>
-          <t>$/caja 25 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O259" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P259" t="n">
-        <v>13000</v>
+        <v>583</v>
       </c>
       <c r="Q259" t="n">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="R259" t="inlineStr">
         <is>
@@ -19073,24 +19073,24 @@
       </c>
       <c r="I260" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J260" t="n">
-        <v>52</v>
+        <v>34</v>
       </c>
       <c r="K260" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="L260" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="M260" t="n">
-        <v>11500</v>
+        <v>13000</v>
       </c>
       <c r="N260" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 25 unidades</t>
         </is>
       </c>
       <c r="O260" t="inlineStr">
@@ -19099,10 +19099,10 @@
         </is>
       </c>
       <c r="P260" t="n">
-        <v>383</v>
+        <v>13000</v>
       </c>
       <c r="Q260" t="n">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="R260" t="inlineStr">
         <is>
@@ -19149,32 +19149,32 @@
         </is>
       </c>
       <c r="J261" t="n">
-        <v>340</v>
+        <v>52</v>
       </c>
       <c r="K261" t="n">
-        <v>400</v>
+        <v>11000</v>
       </c>
       <c r="L261" t="n">
-        <v>400</v>
+        <v>12000</v>
       </c>
       <c r="M261" t="n">
-        <v>400</v>
+        <v>11500</v>
       </c>
       <c r="N261" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O261" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P261" t="n">
-        <v>400</v>
+        <v>383</v>
       </c>
       <c r="Q261" t="n">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="R261" t="inlineStr">
         <is>
@@ -19217,36 +19217,36 @@
       </c>
       <c r="I262" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J262" t="n">
-        <v>16</v>
+        <v>340</v>
       </c>
       <c r="K262" t="n">
-        <v>9000</v>
+        <v>400</v>
       </c>
       <c r="L262" t="n">
-        <v>10000</v>
+        <v>400</v>
       </c>
       <c r="M262" t="n">
-        <v>9500</v>
+        <v>400</v>
       </c>
       <c r="N262" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O262" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P262" t="n">
-        <v>238</v>
+        <v>400</v>
       </c>
       <c r="Q262" t="n">
-        <v>40</v>
+        <v>1</v>
       </c>
       <c r="R262" t="inlineStr">
         <is>
@@ -19293,32 +19293,32 @@
         </is>
       </c>
       <c r="J263" t="n">
-        <v>150</v>
+        <v>16</v>
       </c>
       <c r="K263" t="n">
-        <v>300</v>
+        <v>9000</v>
       </c>
       <c r="L263" t="n">
-        <v>300</v>
+        <v>10000</v>
       </c>
       <c r="M263" t="n">
-        <v>300</v>
+        <v>9500</v>
       </c>
       <c r="N263" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O263" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P263" t="n">
-        <v>300</v>
+        <v>238</v>
       </c>
       <c r="Q263" t="n">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="R263" t="inlineStr">
         <is>
@@ -19341,7 +19341,7 @@
         </is>
       </c>
       <c r="D264" s="2" t="n">
-        <v>44468</v>
+        <v>44476</v>
       </c>
       <c r="E264" t="n">
         <v>13</v>
@@ -19361,33 +19361,33 @@
       </c>
       <c r="I264" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J264" t="n">
-        <v>52</v>
+        <v>150</v>
       </c>
       <c r="K264" t="n">
-        <v>12000</v>
+        <v>300</v>
       </c>
       <c r="L264" t="n">
-        <v>13000</v>
+        <v>300</v>
       </c>
       <c r="M264" t="n">
-        <v>12500</v>
+        <v>300</v>
       </c>
       <c r="N264" t="inlineStr">
         <is>
-          <t>$/caja 25 unidades</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O264" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P264" t="n">
-        <v>12500</v>
+        <v>300</v>
       </c>
       <c r="Q264" t="n">
         <v>1</v>
@@ -19433,24 +19433,24 @@
       </c>
       <c r="I265" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J265" t="n">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="K265" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="L265" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="M265" t="n">
-        <v>10512</v>
+        <v>12500</v>
       </c>
       <c r="N265" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 25 unidades</t>
         </is>
       </c>
       <c r="O265" t="inlineStr">
@@ -19459,10 +19459,10 @@
         </is>
       </c>
       <c r="P265" t="n">
-        <v>350</v>
+        <v>12500</v>
       </c>
       <c r="Q265" t="n">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="R265" t="inlineStr">
         <is>
@@ -19505,24 +19505,24 @@
       </c>
       <c r="I266" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J266" t="n">
-        <v>16</v>
+        <v>43</v>
       </c>
       <c r="K266" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="L266" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="M266" t="n">
-        <v>8500</v>
+        <v>10512</v>
       </c>
       <c r="N266" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O266" t="inlineStr">
@@ -19531,10 +19531,10 @@
         </is>
       </c>
       <c r="P266" t="n">
-        <v>212</v>
+        <v>350</v>
       </c>
       <c r="Q266" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="R266" t="inlineStr">
         <is>
@@ -19557,7 +19557,7 @@
         </is>
       </c>
       <c r="D267" s="2" t="n">
-        <v>44386</v>
+        <v>44468</v>
       </c>
       <c r="E267" t="n">
         <v>13</v>
@@ -19577,36 +19577,36 @@
       </c>
       <c r="I267" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J267" t="n">
         <v>16</v>
       </c>
       <c r="K267" t="n">
-        <v>20000</v>
+        <v>8000</v>
       </c>
       <c r="L267" t="n">
-        <v>20000</v>
+        <v>9000</v>
       </c>
       <c r="M267" t="n">
-        <v>20000</v>
+        <v>8500</v>
       </c>
       <c r="N267" t="inlineStr">
         <is>
-          <t>$/caja 25 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O267" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P267" t="n">
-        <v>20000</v>
+        <v>212</v>
       </c>
       <c r="Q267" t="n">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="R267" t="inlineStr">
         <is>
@@ -19649,24 +19649,24 @@
       </c>
       <c r="I268" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J268" t="n">
-        <v>61</v>
+        <v>16</v>
       </c>
       <c r="K268" t="n">
-        <v>17000</v>
+        <v>20000</v>
       </c>
       <c r="L268" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="M268" t="n">
-        <v>17492</v>
+        <v>20000</v>
       </c>
       <c r="N268" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 25 unidades</t>
         </is>
       </c>
       <c r="O268" t="inlineStr">
@@ -19675,10 +19675,10 @@
         </is>
       </c>
       <c r="P268" t="n">
-        <v>583</v>
+        <v>20000</v>
       </c>
       <c r="Q268" t="n">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="R268" t="inlineStr">
         <is>
@@ -19721,24 +19721,24 @@
       </c>
       <c r="I269" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J269" t="n">
-        <v>34</v>
+        <v>61</v>
       </c>
       <c r="K269" t="n">
-        <v>15000</v>
+        <v>17000</v>
       </c>
       <c r="L269" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="M269" t="n">
-        <v>15500</v>
+        <v>17492</v>
       </c>
       <c r="N269" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O269" t="inlineStr">
@@ -19747,10 +19747,10 @@
         </is>
       </c>
       <c r="P269" t="n">
-        <v>388</v>
+        <v>583</v>
       </c>
       <c r="Q269" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="R269" t="inlineStr">
         <is>
@@ -19788,29 +19788,29 @@
       </c>
       <c r="H270" t="inlineStr">
         <is>
-          <t>Madrigal</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I270" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J270" t="n">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="K270" t="n">
-        <v>22000</v>
+        <v>15000</v>
       </c>
       <c r="L270" t="n">
-        <v>22000</v>
+        <v>16000</v>
       </c>
       <c r="M270" t="n">
-        <v>22000</v>
+        <v>15500</v>
       </c>
       <c r="N270" t="inlineStr">
         <is>
-          <t>$/caja 35 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O270" t="inlineStr">
@@ -19819,10 +19819,10 @@
         </is>
       </c>
       <c r="P270" t="n">
-        <v>629</v>
+        <v>388</v>
       </c>
       <c r="Q270" t="n">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="R270" t="inlineStr">
         <is>
@@ -19865,24 +19865,24 @@
       </c>
       <c r="I271" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J271" t="n">
-        <v>43</v>
+        <v>16</v>
       </c>
       <c r="K271" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="L271" t="n">
-        <v>21000</v>
+        <v>22000</v>
       </c>
       <c r="M271" t="n">
-        <v>20488</v>
+        <v>22000</v>
       </c>
       <c r="N271" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 35 unidades</t>
         </is>
       </c>
       <c r="O271" t="inlineStr">
@@ -19891,10 +19891,10 @@
         </is>
       </c>
       <c r="P271" t="n">
-        <v>512</v>
+        <v>629</v>
       </c>
       <c r="Q271" t="n">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="R271" t="inlineStr">
         <is>
@@ -19937,24 +19937,24 @@
       </c>
       <c r="I272" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J272" t="n">
-        <v>25</v>
+        <v>43</v>
       </c>
       <c r="K272" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="L272" t="n">
-        <v>19000</v>
+        <v>21000</v>
       </c>
       <c r="M272" t="n">
-        <v>18480</v>
+        <v>20488</v>
       </c>
       <c r="N272" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O272" t="inlineStr">
@@ -19963,10 +19963,10 @@
         </is>
       </c>
       <c r="P272" t="n">
-        <v>370</v>
+        <v>512</v>
       </c>
       <c r="Q272" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="R272" t="inlineStr">
         <is>
@@ -19989,7 +19989,7 @@
         </is>
       </c>
       <c r="D273" s="2" t="n">
-        <v>44384</v>
+        <v>44386</v>
       </c>
       <c r="E273" t="n">
         <v>13</v>
@@ -20004,29 +20004,29 @@
       </c>
       <c r="H273" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Madrigal</t>
         </is>
       </c>
       <c r="I273" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J273" t="n">
-        <v>52</v>
+        <v>25</v>
       </c>
       <c r="K273" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="L273" t="n">
-        <v>17000</v>
+        <v>19000</v>
       </c>
       <c r="M273" t="n">
-        <v>16500</v>
+        <v>18480</v>
       </c>
       <c r="N273" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O273" t="inlineStr">
@@ -20035,10 +20035,10 @@
         </is>
       </c>
       <c r="P273" t="n">
-        <v>550</v>
+        <v>370</v>
       </c>
       <c r="Q273" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R273" t="inlineStr">
         <is>
@@ -20081,24 +20081,24 @@
       </c>
       <c r="I274" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J274" t="n">
-        <v>34</v>
+        <v>52</v>
       </c>
       <c r="K274" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="L274" t="n">
-        <v>15000</v>
+        <v>17000</v>
       </c>
       <c r="M274" t="n">
-        <v>15000</v>
+        <v>16500</v>
       </c>
       <c r="N274" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O274" t="inlineStr">
@@ -20107,10 +20107,10 @@
         </is>
       </c>
       <c r="P274" t="n">
-        <v>375</v>
+        <v>550</v>
       </c>
       <c r="Q274" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="R274" t="inlineStr">
         <is>
@@ -20133,7 +20133,7 @@
         </is>
       </c>
       <c r="D275" s="2" t="n">
-        <v>44363</v>
+        <v>44384</v>
       </c>
       <c r="E275" t="n">
         <v>13</v>
@@ -20148,29 +20148,29 @@
       </c>
       <c r="H275" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I275" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J275" t="n">
-        <v>52</v>
+        <v>34</v>
       </c>
       <c r="K275" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="L275" t="n">
-        <v>17000</v>
+        <v>15000</v>
       </c>
       <c r="M275" t="n">
-        <v>16500</v>
+        <v>15000</v>
       </c>
       <c r="N275" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O275" t="inlineStr">
@@ -20179,10 +20179,10 @@
         </is>
       </c>
       <c r="P275" t="n">
-        <v>330</v>
+        <v>375</v>
       </c>
       <c r="Q275" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="R275" t="inlineStr">
         <is>
@@ -20220,7 +20220,7 @@
       </c>
       <c r="H276" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I276" t="inlineStr">
@@ -20229,32 +20229,32 @@
         </is>
       </c>
       <c r="J276" t="n">
-        <v>34</v>
+        <v>52</v>
       </c>
       <c r="K276" t="n">
+        <v>16000</v>
+      </c>
+      <c r="L276" t="n">
         <v>17000</v>
       </c>
-      <c r="L276" t="n">
-        <v>18000</v>
-      </c>
       <c r="M276" t="n">
-        <v>17500</v>
+        <v>16500</v>
       </c>
       <c r="N276" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O276" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P276" t="n">
-        <v>583</v>
+        <v>330</v>
       </c>
       <c r="Q276" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R276" t="inlineStr">
         <is>
@@ -20277,7 +20277,7 @@
         </is>
       </c>
       <c r="D277" s="2" t="n">
-        <v>44306</v>
+        <v>44363</v>
       </c>
       <c r="E277" t="n">
         <v>13</v>
@@ -20297,24 +20297,24 @@
       </c>
       <c r="I277" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J277" t="n">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="K277" t="n">
-        <v>20000</v>
+        <v>17000</v>
       </c>
       <c r="L277" t="n">
-        <v>20000</v>
+        <v>18000</v>
       </c>
       <c r="M277" t="n">
-        <v>20000</v>
+        <v>17500</v>
       </c>
       <c r="N277" t="inlineStr">
         <is>
-          <t>$/caja 25 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O277" t="inlineStr">
@@ -20323,10 +20323,10 @@
         </is>
       </c>
       <c r="P277" t="n">
-        <v>20000</v>
+        <v>583</v>
       </c>
       <c r="Q277" t="n">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="R277" t="inlineStr">
         <is>
@@ -20369,24 +20369,24 @@
       </c>
       <c r="I278" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J278" t="n">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="K278" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="L278" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="M278" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="N278" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 25 unidades</t>
         </is>
       </c>
       <c r="O278" t="inlineStr">
@@ -20395,10 +20395,10 @@
         </is>
       </c>
       <c r="P278" t="n">
-        <v>600</v>
+        <v>20000</v>
       </c>
       <c r="Q278" t="n">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="R278" t="inlineStr">
         <is>
@@ -20421,7 +20421,7 @@
         </is>
       </c>
       <c r="D279" s="2" t="n">
-        <v>44369</v>
+        <v>44306</v>
       </c>
       <c r="E279" t="n">
         <v>13</v>
@@ -20441,36 +20441,36 @@
       </c>
       <c r="I279" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J279" t="n">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="K279" t="n">
-        <v>21000</v>
+        <v>18000</v>
       </c>
       <c r="L279" t="n">
-        <v>22000</v>
+        <v>18000</v>
       </c>
       <c r="M279" t="n">
-        <v>21500</v>
+        <v>18000</v>
       </c>
       <c r="N279" t="inlineStr">
         <is>
-          <t>$/caja 25 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O279" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P279" t="n">
-        <v>21500</v>
+        <v>600</v>
       </c>
       <c r="Q279" t="n">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="R279" t="inlineStr">
         <is>
@@ -20513,24 +20513,24 @@
       </c>
       <c r="I280" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J280" t="n">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="K280" t="n">
-        <v>19000</v>
+        <v>21000</v>
       </c>
       <c r="L280" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="M280" t="n">
-        <v>19500</v>
+        <v>21500</v>
       </c>
       <c r="N280" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 25 unidades</t>
         </is>
       </c>
       <c r="O280" t="inlineStr">
@@ -20539,10 +20539,10 @@
         </is>
       </c>
       <c r="P280" t="n">
-        <v>650</v>
+        <v>21500</v>
       </c>
       <c r="Q280" t="n">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="R280" t="inlineStr">
         <is>
@@ -20585,24 +20585,24 @@
       </c>
       <c r="I281" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J281" t="n">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="K281" t="n">
-        <v>17000</v>
+        <v>19000</v>
       </c>
       <c r="L281" t="n">
-        <v>17000</v>
+        <v>20000</v>
       </c>
       <c r="M281" t="n">
-        <v>17000</v>
+        <v>19500</v>
       </c>
       <c r="N281" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O281" t="inlineStr">
@@ -20611,10 +20611,10 @@
         </is>
       </c>
       <c r="P281" t="n">
-        <v>425</v>
+        <v>650</v>
       </c>
       <c r="Q281" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="R281" t="inlineStr">
         <is>
@@ -20652,25 +20652,25 @@
       </c>
       <c r="H282" t="inlineStr">
         <is>
-          <t>Madrigal</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I282" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J282" t="n">
-        <v>43</v>
+        <v>25</v>
       </c>
       <c r="K282" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="L282" t="n">
         <v>17000</v>
       </c>
       <c r="M282" t="n">
-        <v>16488</v>
+        <v>17000</v>
       </c>
       <c r="N282" t="inlineStr">
         <is>
@@ -20679,11 +20679,11 @@
       </c>
       <c r="O282" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P282" t="n">
-        <v>412</v>
+        <v>425</v>
       </c>
       <c r="Q282" t="n">
         <v>40</v>
@@ -20729,24 +20729,24 @@
       </c>
       <c r="I283" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J283" t="n">
-        <v>25</v>
+        <v>43</v>
       </c>
       <c r="K283" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="L283" t="n">
-        <v>14000</v>
+        <v>17000</v>
       </c>
       <c r="M283" t="n">
-        <v>14000</v>
+        <v>16488</v>
       </c>
       <c r="N283" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O283" t="inlineStr">
@@ -20755,10 +20755,10 @@
         </is>
       </c>
       <c r="P283" t="n">
-        <v>280</v>
+        <v>412</v>
       </c>
       <c r="Q283" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="R283" t="inlineStr">
         <is>
@@ -20781,7 +20781,7 @@
         </is>
       </c>
       <c r="D284" s="2" t="n">
-        <v>44301</v>
+        <v>44369</v>
       </c>
       <c r="E284" t="n">
         <v>13</v>
@@ -20796,29 +20796,29 @@
       </c>
       <c r="H284" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Madrigal</t>
         </is>
       </c>
       <c r="I284" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J284" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="K284" t="n">
-        <v>17000</v>
+        <v>14000</v>
       </c>
       <c r="L284" t="n">
-        <v>18000</v>
+        <v>14000</v>
       </c>
       <c r="M284" t="n">
-        <v>17500</v>
+        <v>14000</v>
       </c>
       <c r="N284" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O284" t="inlineStr">
@@ -20827,10 +20827,10 @@
         </is>
       </c>
       <c r="P284" t="n">
-        <v>583</v>
+        <v>280</v>
       </c>
       <c r="Q284" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R284" t="inlineStr">
         <is>
@@ -20853,7 +20853,7 @@
         </is>
       </c>
       <c r="D285" s="2" t="n">
-        <v>44357</v>
+        <v>44301</v>
       </c>
       <c r="E285" t="n">
         <v>13</v>
@@ -20868,7 +20868,7 @@
       </c>
       <c r="H285" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I285" t="inlineStr">
@@ -20877,20 +20877,20 @@
         </is>
       </c>
       <c r="J285" t="n">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="K285" t="n">
-        <v>15000</v>
+        <v>17000</v>
       </c>
       <c r="L285" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="M285" t="n">
-        <v>15500</v>
+        <v>17500</v>
       </c>
       <c r="N285" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O285" t="inlineStr">
@@ -20899,10 +20899,10 @@
         </is>
       </c>
       <c r="P285" t="n">
-        <v>310</v>
+        <v>583</v>
       </c>
       <c r="Q285" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R285" t="inlineStr">
         <is>
@@ -20945,24 +20945,24 @@
       </c>
       <c r="I286" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J286" t="n">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="K286" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="L286" t="n">
-        <v>13000</v>
+        <v>16000</v>
       </c>
       <c r="M286" t="n">
-        <v>13000</v>
+        <v>15500</v>
       </c>
       <c r="N286" t="inlineStr">
         <is>
-          <t>$/caja 70 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O286" t="inlineStr">
@@ -20971,10 +20971,10 @@
         </is>
       </c>
       <c r="P286" t="n">
-        <v>186</v>
+        <v>310</v>
       </c>
       <c r="Q286" t="n">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="R286" t="inlineStr">
         <is>
@@ -21012,41 +21012,41 @@
       </c>
       <c r="H287" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I287" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J287" t="n">
         <v>16</v>
       </c>
       <c r="K287" t="n">
-        <v>19000</v>
+        <v>13000</v>
       </c>
       <c r="L287" t="n">
-        <v>20000</v>
+        <v>13000</v>
       </c>
       <c r="M287" t="n">
-        <v>19500</v>
+        <v>13000</v>
       </c>
       <c r="N287" t="inlineStr">
         <is>
-          <t>$/caja 25 unidades</t>
+          <t>$/caja 70 unidades</t>
         </is>
       </c>
       <c r="O287" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P287" t="n">
-        <v>19500</v>
+        <v>186</v>
       </c>
       <c r="Q287" t="n">
-        <v>1</v>
+        <v>70</v>
       </c>
       <c r="R287" t="inlineStr">
         <is>
@@ -21089,24 +21089,24 @@
       </c>
       <c r="I288" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J288" t="n">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="K288" t="n">
-        <v>17000</v>
+        <v>19000</v>
       </c>
       <c r="L288" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="M288" t="n">
-        <v>17500</v>
+        <v>19500</v>
       </c>
       <c r="N288" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 25 unidades</t>
         </is>
       </c>
       <c r="O288" t="inlineStr">
@@ -21115,10 +21115,10 @@
         </is>
       </c>
       <c r="P288" t="n">
-        <v>583</v>
+        <v>19500</v>
       </c>
       <c r="Q288" t="n">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="R288" t="inlineStr">
         <is>
@@ -21161,24 +21161,24 @@
       </c>
       <c r="I289" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J289" t="n">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="K289" t="n">
-        <v>15000</v>
+        <v>17000</v>
       </c>
       <c r="L289" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="M289" t="n">
-        <v>15000</v>
+        <v>17500</v>
       </c>
       <c r="N289" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O289" t="inlineStr">
@@ -21187,10 +21187,10 @@
         </is>
       </c>
       <c r="P289" t="n">
-        <v>375</v>
+        <v>583</v>
       </c>
       <c r="Q289" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="R289" t="inlineStr">
         <is>
@@ -21213,7 +21213,7 @@
         </is>
       </c>
       <c r="D290" s="2" t="n">
-        <v>44328</v>
+        <v>44357</v>
       </c>
       <c r="E290" t="n">
         <v>13</v>
@@ -21228,41 +21228,41 @@
       </c>
       <c r="H290" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I290" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J290" t="n">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="K290" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="L290" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="M290" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="N290" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O290" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P290" t="n">
-        <v>320</v>
+        <v>375</v>
       </c>
       <c r="Q290" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="R290" t="inlineStr">
         <is>
@@ -21300,7 +21300,7 @@
       </c>
       <c r="H291" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I291" t="inlineStr">
@@ -21309,20 +21309,20 @@
         </is>
       </c>
       <c r="J291" t="n">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="K291" t="n">
-        <v>18000</v>
+        <v>16000</v>
       </c>
       <c r="L291" t="n">
-        <v>18000</v>
+        <v>16000</v>
       </c>
       <c r="M291" t="n">
-        <v>18000</v>
+        <v>16000</v>
       </c>
       <c r="N291" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O291" t="inlineStr">
@@ -21331,10 +21331,10 @@
         </is>
       </c>
       <c r="P291" t="n">
-        <v>600</v>
+        <v>320</v>
       </c>
       <c r="Q291" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R291" t="inlineStr">
         <is>
@@ -21377,24 +21377,24 @@
       </c>
       <c r="I292" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J292" t="n">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="K292" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="L292" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="M292" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="N292" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O292" t="inlineStr">
@@ -21403,10 +21403,10 @@
         </is>
       </c>
       <c r="P292" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="Q292" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="R292" t="inlineStr">
         <is>
@@ -21429,7 +21429,7 @@
         </is>
       </c>
       <c r="D293" s="2" t="n">
-        <v>44397</v>
+        <v>44328</v>
       </c>
       <c r="E293" t="n">
         <v>13</v>
@@ -21449,24 +21449,24 @@
       </c>
       <c r="I293" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J293" t="n">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="K293" t="n">
-        <v>19000</v>
+        <v>16000</v>
       </c>
       <c r="L293" t="n">
-        <v>20000</v>
+        <v>16000</v>
       </c>
       <c r="M293" t="n">
-        <v>19500</v>
+        <v>16000</v>
       </c>
       <c r="N293" t="inlineStr">
         <is>
-          <t>$/caja 25 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O293" t="inlineStr">
@@ -21475,10 +21475,10 @@
         </is>
       </c>
       <c r="P293" t="n">
-        <v>19500</v>
+        <v>400</v>
       </c>
       <c r="Q293" t="n">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="R293" t="inlineStr">
         <is>
@@ -21521,24 +21521,24 @@
       </c>
       <c r="I294" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J294" t="n">
-        <v>43</v>
+        <v>16</v>
       </c>
       <c r="K294" t="n">
-        <v>16000</v>
+        <v>19000</v>
       </c>
       <c r="L294" t="n">
-        <v>17000</v>
+        <v>20000</v>
       </c>
       <c r="M294" t="n">
-        <v>16488</v>
+        <v>19500</v>
       </c>
       <c r="N294" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 25 unidades</t>
         </is>
       </c>
       <c r="O294" t="inlineStr">
@@ -21547,10 +21547,10 @@
         </is>
       </c>
       <c r="P294" t="n">
-        <v>550</v>
+        <v>19500</v>
       </c>
       <c r="Q294" t="n">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="R294" t="inlineStr">
         <is>
@@ -21593,24 +21593,24 @@
       </c>
       <c r="I295" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J295" t="n">
-        <v>25</v>
+        <v>43</v>
       </c>
       <c r="K295" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="L295" t="n">
-        <v>15000</v>
+        <v>17000</v>
       </c>
       <c r="M295" t="n">
-        <v>15000</v>
+        <v>16488</v>
       </c>
       <c r="N295" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O295" t="inlineStr">
@@ -21619,10 +21619,10 @@
         </is>
       </c>
       <c r="P295" t="n">
-        <v>375</v>
+        <v>550</v>
       </c>
       <c r="Q295" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="R295" t="inlineStr">
         <is>
@@ -21645,7 +21645,7 @@
         </is>
       </c>
       <c r="D296" s="2" t="n">
-        <v>44414</v>
+        <v>44397</v>
       </c>
       <c r="E296" t="n">
         <v>13</v>
@@ -21665,7 +21665,7 @@
       </c>
       <c r="I296" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J296" t="n">
@@ -21682,7 +21682,7 @@
       </c>
       <c r="N296" t="inlineStr">
         <is>
-          <t>$/caja 25 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O296" t="inlineStr">
@@ -21691,10 +21691,10 @@
         </is>
       </c>
       <c r="P296" t="n">
-        <v>15000</v>
+        <v>375</v>
       </c>
       <c r="Q296" t="n">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="R296" t="inlineStr">
         <is>
@@ -21737,24 +21737,24 @@
       </c>
       <c r="I297" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J297" t="n">
-        <v>61</v>
+        <v>25</v>
       </c>
       <c r="K297" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="L297" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="M297" t="n">
-        <v>13492</v>
+        <v>15000</v>
       </c>
       <c r="N297" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 25 unidades</t>
         </is>
       </c>
       <c r="O297" t="inlineStr">
@@ -21763,10 +21763,10 @@
         </is>
       </c>
       <c r="P297" t="n">
-        <v>450</v>
+        <v>15000</v>
       </c>
       <c r="Q297" t="n">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="R297" t="inlineStr">
         <is>
@@ -21809,24 +21809,24 @@
       </c>
       <c r="I298" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J298" t="n">
-        <v>43</v>
+        <v>61</v>
       </c>
       <c r="K298" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="L298" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="M298" t="n">
-        <v>12000</v>
+        <v>13492</v>
       </c>
       <c r="N298" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O298" t="inlineStr">
@@ -21835,10 +21835,10 @@
         </is>
       </c>
       <c r="P298" t="n">
-        <v>300</v>
+        <v>450</v>
       </c>
       <c r="Q298" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="R298" t="inlineStr">
         <is>
@@ -21861,7 +21861,7 @@
         </is>
       </c>
       <c r="D299" s="2" t="n">
-        <v>44333</v>
+        <v>44414</v>
       </c>
       <c r="E299" t="n">
         <v>13</v>
@@ -21876,41 +21876,41 @@
       </c>
       <c r="H299" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I299" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J299" t="n">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="K299" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="L299" t="n">
-        <v>16000</v>
+        <v>12000</v>
       </c>
       <c r="M299" t="n">
-        <v>15500</v>
+        <v>12000</v>
       </c>
       <c r="N299" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O299" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P299" t="n">
-        <v>310</v>
+        <v>300</v>
       </c>
       <c r="Q299" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="R299" t="inlineStr">
         <is>
@@ -21933,7 +21933,7 @@
         </is>
       </c>
       <c r="D300" s="2" t="n">
-        <v>44392</v>
+        <v>44333</v>
       </c>
       <c r="E300" t="n">
         <v>13</v>
@@ -21948,29 +21948,29 @@
       </c>
       <c r="H300" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I300" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J300" t="n">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="K300" t="n">
-        <v>17000</v>
+        <v>15000</v>
       </c>
       <c r="L300" t="n">
-        <v>18000</v>
+        <v>16000</v>
       </c>
       <c r="M300" t="n">
-        <v>17500</v>
+        <v>15500</v>
       </c>
       <c r="N300" t="inlineStr">
         <is>
-          <t>$/caja 25 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O300" t="inlineStr">
@@ -21979,10 +21979,10 @@
         </is>
       </c>
       <c r="P300" t="n">
-        <v>17500</v>
+        <v>310</v>
       </c>
       <c r="Q300" t="n">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="R300" t="inlineStr">
         <is>
@@ -22025,24 +22025,24 @@
       </c>
       <c r="I301" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J301" t="n">
-        <v>52</v>
+        <v>16</v>
       </c>
       <c r="K301" t="n">
-        <v>15000</v>
+        <v>17000</v>
       </c>
       <c r="L301" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="M301" t="n">
-        <v>15500</v>
+        <v>17500</v>
       </c>
       <c r="N301" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 25 unidades</t>
         </is>
       </c>
       <c r="O301" t="inlineStr">
@@ -22051,10 +22051,10 @@
         </is>
       </c>
       <c r="P301" t="n">
-        <v>517</v>
+        <v>17500</v>
       </c>
       <c r="Q301" t="n">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="R301" t="inlineStr">
         <is>
@@ -22097,24 +22097,24 @@
       </c>
       <c r="I302" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J302" t="n">
-        <v>25</v>
+        <v>52</v>
       </c>
       <c r="K302" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="L302" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="M302" t="n">
-        <v>13480</v>
+        <v>15500</v>
       </c>
       <c r="N302" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O302" t="inlineStr">
@@ -22123,10 +22123,10 @@
         </is>
       </c>
       <c r="P302" t="n">
-        <v>337</v>
+        <v>517</v>
       </c>
       <c r="Q302" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="R302" t="inlineStr">
         <is>
@@ -22149,7 +22149,7 @@
         </is>
       </c>
       <c r="D303" s="2" t="n">
-        <v>44425</v>
+        <v>44392</v>
       </c>
       <c r="E303" t="n">
         <v>13</v>
@@ -22169,36 +22169,36 @@
       </c>
       <c r="I303" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J303" t="n">
         <v>25</v>
       </c>
       <c r="K303" t="n">
-        <v>16000</v>
+        <v>13000</v>
       </c>
       <c r="L303" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="M303" t="n">
-        <v>16000</v>
+        <v>13480</v>
       </c>
       <c r="N303" t="inlineStr">
         <is>
-          <t>$/caja 25 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O303" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P303" t="n">
-        <v>16000</v>
+        <v>337</v>
       </c>
       <c r="Q303" t="n">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="R303" t="inlineStr">
         <is>
@@ -22241,24 +22241,24 @@
       </c>
       <c r="I304" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J304" t="n">
-        <v>61</v>
+        <v>25</v>
       </c>
       <c r="K304" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="L304" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="M304" t="n">
-        <v>14508</v>
+        <v>16000</v>
       </c>
       <c r="N304" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 25 unidades</t>
         </is>
       </c>
       <c r="O304" t="inlineStr">
@@ -22267,10 +22267,10 @@
         </is>
       </c>
       <c r="P304" t="n">
-        <v>484</v>
+        <v>16000</v>
       </c>
       <c r="Q304" t="n">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="R304" t="inlineStr">
         <is>
@@ -22313,24 +22313,24 @@
       </c>
       <c r="I305" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J305" t="n">
-        <v>34</v>
+        <v>61</v>
       </c>
       <c r="K305" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="L305" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="M305" t="n">
-        <v>12500</v>
+        <v>14508</v>
       </c>
       <c r="N305" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O305" t="inlineStr">
@@ -22339,10 +22339,10 @@
         </is>
       </c>
       <c r="P305" t="n">
-        <v>312</v>
+        <v>484</v>
       </c>
       <c r="Q305" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="R305" t="inlineStr">
         <is>
@@ -22380,25 +22380,25 @@
       </c>
       <c r="H306" t="inlineStr">
         <is>
-          <t>Madrigal</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I306" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J306" t="n">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="K306" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="L306" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="M306" t="n">
-        <v>14512</v>
+        <v>12500</v>
       </c>
       <c r="N306" t="inlineStr">
         <is>
@@ -22411,7 +22411,7 @@
         </is>
       </c>
       <c r="P306" t="n">
-        <v>363</v>
+        <v>312</v>
       </c>
       <c r="Q306" t="n">
         <v>40</v>
@@ -22457,24 +22457,24 @@
       </c>
       <c r="I307" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J307" t="n">
-        <v>25</v>
+        <v>43</v>
       </c>
       <c r="K307" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="L307" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="M307" t="n">
-        <v>12480</v>
+        <v>14512</v>
       </c>
       <c r="N307" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O307" t="inlineStr">
@@ -22483,10 +22483,10 @@
         </is>
       </c>
       <c r="P307" t="n">
-        <v>250</v>
+        <v>363</v>
       </c>
       <c r="Q307" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="R307" t="inlineStr">
         <is>
@@ -22509,7 +22509,7 @@
         </is>
       </c>
       <c r="D308" s="2" t="n">
-        <v>44390</v>
+        <v>44425</v>
       </c>
       <c r="E308" t="n">
         <v>13</v>
@@ -22524,29 +22524,29 @@
       </c>
       <c r="H308" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Madrigal</t>
         </is>
       </c>
       <c r="I308" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J308" t="n">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="K308" t="n">
-        <v>19000</v>
+        <v>12000</v>
       </c>
       <c r="L308" t="n">
-        <v>20000</v>
+        <v>13000</v>
       </c>
       <c r="M308" t="n">
-        <v>19500</v>
+        <v>12480</v>
       </c>
       <c r="N308" t="inlineStr">
         <is>
-          <t>$/caja 25 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O308" t="inlineStr">
@@ -22555,10 +22555,10 @@
         </is>
       </c>
       <c r="P308" t="n">
-        <v>19500</v>
+        <v>250</v>
       </c>
       <c r="Q308" t="n">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="R308" t="inlineStr">
         <is>
@@ -22601,24 +22601,24 @@
       </c>
       <c r="I309" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J309" t="n">
-        <v>43</v>
+        <v>16</v>
       </c>
       <c r="K309" t="n">
-        <v>16000</v>
+        <v>19000</v>
       </c>
       <c r="L309" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="M309" t="n">
-        <v>17023</v>
+        <v>19500</v>
       </c>
       <c r="N309" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 25 unidades</t>
         </is>
       </c>
       <c r="O309" t="inlineStr">
@@ -22627,10 +22627,10 @@
         </is>
       </c>
       <c r="P309" t="n">
-        <v>567</v>
+        <v>19500</v>
       </c>
       <c r="Q309" t="n">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="R309" t="inlineStr">
         <is>
@@ -22673,24 +22673,24 @@
       </c>
       <c r="I310" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J310" t="n">
-        <v>25</v>
+        <v>43</v>
       </c>
       <c r="K310" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="L310" t="n">
-        <v>14000</v>
+        <v>18000</v>
       </c>
       <c r="M310" t="n">
-        <v>14000</v>
+        <v>17023</v>
       </c>
       <c r="N310" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O310" t="inlineStr">
@@ -22699,10 +22699,10 @@
         </is>
       </c>
       <c r="P310" t="n">
-        <v>350</v>
+        <v>567</v>
       </c>
       <c r="Q310" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="R310" t="inlineStr">
         <is>
@@ -22725,7 +22725,7 @@
         </is>
       </c>
       <c r="D311" s="2" t="n">
-        <v>44466</v>
+        <v>44390</v>
       </c>
       <c r="E311" t="n">
         <v>13</v>
@@ -22745,24 +22745,24 @@
       </c>
       <c r="I311" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J311" t="n">
-        <v>52</v>
+        <v>25</v>
       </c>
       <c r="K311" t="n">
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="L311" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="M311" t="n">
-        <v>11500</v>
+        <v>14000</v>
       </c>
       <c r="N311" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O311" t="inlineStr">
@@ -22771,10 +22771,10 @@
         </is>
       </c>
       <c r="P311" t="n">
-        <v>383</v>
+        <v>350</v>
       </c>
       <c r="Q311" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="R311" t="inlineStr">
         <is>
@@ -22797,7 +22797,7 @@
         </is>
       </c>
       <c r="D312" s="2" t="n">
-        <v>44438</v>
+        <v>44466</v>
       </c>
       <c r="E312" t="n">
         <v>13</v>
@@ -22817,24 +22817,24 @@
       </c>
       <c r="I312" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J312" t="n">
-        <v>12</v>
+        <v>52</v>
       </c>
       <c r="K312" t="n">
-        <v>15000</v>
+        <v>11000</v>
       </c>
       <c r="L312" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="M312" t="n">
-        <v>15000</v>
+        <v>11500</v>
       </c>
       <c r="N312" t="inlineStr">
         <is>
-          <t>$/caja 25 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O312" t="inlineStr">
@@ -22843,10 +22843,10 @@
         </is>
       </c>
       <c r="P312" t="n">
-        <v>15000</v>
+        <v>383</v>
       </c>
       <c r="Q312" t="n">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="R312" t="inlineStr">
         <is>
@@ -22889,24 +22889,24 @@
       </c>
       <c r="I313" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J313" t="n">
-        <v>34</v>
+        <v>12</v>
       </c>
       <c r="K313" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="L313" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="M313" t="n">
-        <v>13500</v>
+        <v>15000</v>
       </c>
       <c r="N313" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 25 unidades</t>
         </is>
       </c>
       <c r="O313" t="inlineStr">
@@ -22915,10 +22915,10 @@
         </is>
       </c>
       <c r="P313" t="n">
-        <v>450</v>
+        <v>15000</v>
       </c>
       <c r="Q313" t="n">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="R313" t="inlineStr">
         <is>
@@ -22961,24 +22961,24 @@
       </c>
       <c r="I314" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J314" t="n">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="K314" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="L314" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="M314" t="n">
-        <v>11480</v>
+        <v>13500</v>
       </c>
       <c r="N314" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O314" t="inlineStr">
@@ -22987,10 +22987,10 @@
         </is>
       </c>
       <c r="P314" t="n">
-        <v>287</v>
+        <v>450</v>
       </c>
       <c r="Q314" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="R314" t="inlineStr">
         <is>
@@ -23013,7 +23013,7 @@
         </is>
       </c>
       <c r="D315" s="2" t="n">
-        <v>44461</v>
+        <v>44438</v>
       </c>
       <c r="E315" t="n">
         <v>13</v>
@@ -23033,24 +23033,24 @@
       </c>
       <c r="I315" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J315" t="n">
-        <v>52</v>
+        <v>25</v>
       </c>
       <c r="K315" t="n">
+        <v>11000</v>
+      </c>
+      <c r="L315" t="n">
         <v>12000</v>
       </c>
-      <c r="L315" t="n">
-        <v>13000</v>
-      </c>
       <c r="M315" t="n">
-        <v>12500</v>
+        <v>11480</v>
       </c>
       <c r="N315" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O315" t="inlineStr">
@@ -23059,10 +23059,10 @@
         </is>
       </c>
       <c r="P315" t="n">
-        <v>417</v>
+        <v>287</v>
       </c>
       <c r="Q315" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="R315" t="inlineStr">
         <is>
@@ -23105,24 +23105,24 @@
       </c>
       <c r="I316" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J316" t="n">
-        <v>25</v>
+        <v>52</v>
       </c>
       <c r="K316" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="L316" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="M316" t="n">
-        <v>10480</v>
+        <v>12500</v>
       </c>
       <c r="N316" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O316" t="inlineStr">
@@ -23131,10 +23131,10 @@
         </is>
       </c>
       <c r="P316" t="n">
-        <v>262</v>
+        <v>417</v>
       </c>
       <c r="Q316" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="R316" t="inlineStr">
         <is>
@@ -23157,7 +23157,7 @@
         </is>
       </c>
       <c r="D317" s="2" t="n">
-        <v>44432</v>
+        <v>44461</v>
       </c>
       <c r="E317" t="n">
         <v>13</v>
@@ -23177,36 +23177,36 @@
       </c>
       <c r="I317" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J317" t="n">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="K317" t="n">
-        <v>16000</v>
+        <v>10000</v>
       </c>
       <c r="L317" t="n">
-        <v>17000</v>
+        <v>11000</v>
       </c>
       <c r="M317" t="n">
-        <v>16500</v>
+        <v>10480</v>
       </c>
       <c r="N317" t="inlineStr">
         <is>
-          <t>$/caja 25 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O317" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P317" t="n">
-        <v>16500</v>
+        <v>262</v>
       </c>
       <c r="Q317" t="n">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="R317" t="inlineStr">
         <is>
@@ -23249,24 +23249,24 @@
       </c>
       <c r="I318" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J318" t="n">
-        <v>52</v>
+        <v>16</v>
       </c>
       <c r="K318" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="L318" t="n">
-        <v>15000</v>
+        <v>17000</v>
       </c>
       <c r="M318" t="n">
-        <v>14500</v>
+        <v>16500</v>
       </c>
       <c r="N318" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 25 unidades</t>
         </is>
       </c>
       <c r="O318" t="inlineStr">
@@ -23275,10 +23275,10 @@
         </is>
       </c>
       <c r="P318" t="n">
-        <v>483</v>
+        <v>16500</v>
       </c>
       <c r="Q318" t="n">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="R318" t="inlineStr">
         <is>
@@ -23321,24 +23321,24 @@
       </c>
       <c r="I319" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J319" t="n">
-        <v>34</v>
+        <v>52</v>
       </c>
       <c r="K319" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="L319" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="M319" t="n">
-        <v>12500</v>
+        <v>14500</v>
       </c>
       <c r="N319" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O319" t="inlineStr">
@@ -23347,10 +23347,10 @@
         </is>
       </c>
       <c r="P319" t="n">
-        <v>312</v>
+        <v>483</v>
       </c>
       <c r="Q319" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="R319" t="inlineStr">
         <is>
@@ -23388,25 +23388,25 @@
       </c>
       <c r="H320" t="inlineStr">
         <is>
-          <t>Madrigal</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I320" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J320" t="n">
         <v>34</v>
       </c>
       <c r="K320" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="L320" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="M320" t="n">
-        <v>14500</v>
+        <v>12500</v>
       </c>
       <c r="N320" t="inlineStr">
         <is>
@@ -23419,7 +23419,7 @@
         </is>
       </c>
       <c r="P320" t="n">
-        <v>362</v>
+        <v>312</v>
       </c>
       <c r="Q320" t="n">
         <v>40</v>
@@ -23465,38 +23465,110 @@
       </c>
       <c r="I321" t="inlineStr">
         <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J321" t="n">
+        <v>34</v>
+      </c>
+      <c r="K321" t="n">
+        <v>14000</v>
+      </c>
+      <c r="L321" t="n">
+        <v>15000</v>
+      </c>
+      <c r="M321" t="n">
+        <v>14500</v>
+      </c>
+      <c r="N321" t="inlineStr">
+        <is>
+          <t>$/caja 40 unidades</t>
+        </is>
+      </c>
+      <c r="O321" t="inlineStr">
+        <is>
+          <t>Provincia del Elquí</t>
+        </is>
+      </c>
+      <c r="P321" t="n">
+        <v>362</v>
+      </c>
+      <c r="Q321" t="n">
+        <v>40</v>
+      </c>
+      <c r="R321" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" t="n">
+        <v>9</v>
+      </c>
+      <c r="B322" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C322" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D322" s="2" t="n">
+        <v>44432</v>
+      </c>
+      <c r="E322" t="n">
+        <v>13</v>
+      </c>
+      <c r="F322" t="n">
+        <v>100112013</v>
+      </c>
+      <c r="G322" t="inlineStr">
+        <is>
+          <t>Alcachofa</t>
+        </is>
+      </c>
+      <c r="H322" t="inlineStr">
+        <is>
+          <t>Madrigal</t>
+        </is>
+      </c>
+      <c r="I322" t="inlineStr">
+        <is>
           <t>Segunda</t>
         </is>
       </c>
-      <c r="J321" t="n">
+      <c r="J322" t="n">
         <v>16</v>
       </c>
-      <c r="K321" t="n">
+      <c r="K322" t="n">
         <v>12000</v>
       </c>
-      <c r="L321" t="n">
+      <c r="L322" t="n">
         <v>13000</v>
       </c>
-      <c r="M321" t="n">
+      <c r="M322" t="n">
         <v>12500</v>
       </c>
-      <c r="N321" t="inlineStr">
+      <c r="N322" t="inlineStr">
         <is>
           <t>$/caja 50 unidades</t>
         </is>
       </c>
-      <c r="O321" t="inlineStr">
+      <c r="O322" t="inlineStr">
         <is>
           <t>Provincia del Elquí</t>
         </is>
       </c>
-      <c r="P321" t="n">
+      <c r="P322" t="n">
         <v>250</v>
       </c>
-      <c r="Q321" t="n">
+      <c r="Q322" t="n">
         <v>50</v>
       </c>
-      <c r="R321" t="inlineStr">
+      <c r="R322" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Central Mapocho de Santiago - Alcachofa.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Central Mapocho de Santiago - Alcachofa.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R322"/>
+  <dimension ref="A1:R326"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10701,7 +10701,7 @@
         </is>
       </c>
       <c r="D144" s="2" t="n">
-        <v>44447</v>
+        <v>44484</v>
       </c>
       <c r="E144" t="n">
         <v>13</v>
@@ -10725,16 +10725,16 @@
         </is>
       </c>
       <c r="J144" t="n">
-        <v>25</v>
+        <v>52</v>
       </c>
       <c r="K144" t="n">
-        <v>14000</v>
+        <v>11000</v>
       </c>
       <c r="L144" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="M144" t="n">
-        <v>14520</v>
+        <v>11500</v>
       </c>
       <c r="N144" t="inlineStr">
         <is>
@@ -10747,7 +10747,7 @@
         </is>
       </c>
       <c r="P144" t="n">
-        <v>484</v>
+        <v>383</v>
       </c>
       <c r="Q144" t="n">
         <v>30</v>
@@ -10773,7 +10773,7 @@
         </is>
       </c>
       <c r="D145" s="2" t="n">
-        <v>44447</v>
+        <v>44484</v>
       </c>
       <c r="E145" t="n">
         <v>13</v>
@@ -10793,36 +10793,36 @@
       </c>
       <c r="I145" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J145" t="n">
-        <v>16</v>
+        <v>430</v>
       </c>
       <c r="K145" t="n">
-        <v>13000</v>
+        <v>500</v>
       </c>
       <c r="L145" t="n">
-        <v>13000</v>
+        <v>500</v>
       </c>
       <c r="M145" t="n">
-        <v>13000</v>
+        <v>500</v>
       </c>
       <c r="N145" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O145" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P145" t="n">
-        <v>325</v>
+        <v>500</v>
       </c>
       <c r="Q145" t="n">
-        <v>40</v>
+        <v>1</v>
       </c>
       <c r="R145" t="inlineStr">
         <is>
@@ -10845,7 +10845,7 @@
         </is>
       </c>
       <c r="D146" s="2" t="n">
-        <v>44421</v>
+        <v>44484</v>
       </c>
       <c r="E146" t="n">
         <v>13</v>
@@ -10865,24 +10865,24 @@
       </c>
       <c r="I146" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J146" t="n">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="K146" t="n">
-        <v>17000</v>
+        <v>9000</v>
       </c>
       <c r="L146" t="n">
-        <v>17000</v>
+        <v>10000</v>
       </c>
       <c r="M146" t="n">
-        <v>17000</v>
+        <v>9500</v>
       </c>
       <c r="N146" t="inlineStr">
         <is>
-          <t>$/caja 25 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O146" t="inlineStr">
@@ -10891,10 +10891,10 @@
         </is>
       </c>
       <c r="P146" t="n">
-        <v>17000</v>
+        <v>238</v>
       </c>
       <c r="Q146" t="n">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="R146" t="inlineStr">
         <is>
@@ -10917,7 +10917,7 @@
         </is>
       </c>
       <c r="D147" s="2" t="n">
-        <v>44421</v>
+        <v>44484</v>
       </c>
       <c r="E147" t="n">
         <v>13</v>
@@ -10937,36 +10937,36 @@
       </c>
       <c r="I147" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J147" t="n">
-        <v>70</v>
+        <v>250</v>
       </c>
       <c r="K147" t="n">
-        <v>15000</v>
+        <v>400</v>
       </c>
       <c r="L147" t="n">
-        <v>16000</v>
+        <v>400</v>
       </c>
       <c r="M147" t="n">
-        <v>15500</v>
+        <v>400</v>
       </c>
       <c r="N147" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O147" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P147" t="n">
-        <v>517</v>
+        <v>400</v>
       </c>
       <c r="Q147" t="n">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="R147" t="inlineStr">
         <is>
@@ -10989,7 +10989,7 @@
         </is>
       </c>
       <c r="D148" s="2" t="n">
-        <v>44421</v>
+        <v>44447</v>
       </c>
       <c r="E148" t="n">
         <v>13</v>
@@ -11009,24 +11009,24 @@
       </c>
       <c r="I148" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J148" t="n">
-        <v>43</v>
+        <v>25</v>
       </c>
       <c r="K148" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="L148" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="M148" t="n">
-        <v>13488</v>
+        <v>14520</v>
       </c>
       <c r="N148" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O148" t="inlineStr">
@@ -11035,10 +11035,10 @@
         </is>
       </c>
       <c r="P148" t="n">
-        <v>337</v>
+        <v>484</v>
       </c>
       <c r="Q148" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="R148" t="inlineStr">
         <is>
@@ -11061,7 +11061,7 @@
         </is>
       </c>
       <c r="D149" s="2" t="n">
-        <v>44294</v>
+        <v>44447</v>
       </c>
       <c r="E149" t="n">
         <v>13</v>
@@ -11081,24 +11081,24 @@
       </c>
       <c r="I149" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J149" t="n">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="K149" t="n">
-        <v>17000</v>
+        <v>13000</v>
       </c>
       <c r="L149" t="n">
-        <v>18000</v>
+        <v>13000</v>
       </c>
       <c r="M149" t="n">
-        <v>17481</v>
+        <v>13000</v>
       </c>
       <c r="N149" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O149" t="inlineStr">
@@ -11107,10 +11107,10 @@
         </is>
       </c>
       <c r="P149" t="n">
-        <v>583</v>
+        <v>325</v>
       </c>
       <c r="Q149" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="R149" t="inlineStr">
         <is>
@@ -11133,7 +11133,7 @@
         </is>
       </c>
       <c r="D150" s="2" t="n">
-        <v>44316</v>
+        <v>44421</v>
       </c>
       <c r="E150" t="n">
         <v>13</v>
@@ -11148,29 +11148,29 @@
       </c>
       <c r="H150" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I150" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J150" t="n">
         <v>25</v>
       </c>
       <c r="K150" t="n">
-        <v>18000</v>
+        <v>17000</v>
       </c>
       <c r="L150" t="n">
-        <v>18000</v>
+        <v>17000</v>
       </c>
       <c r="M150" t="n">
-        <v>18000</v>
+        <v>17000</v>
       </c>
       <c r="N150" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 25 unidades</t>
         </is>
       </c>
       <c r="O150" t="inlineStr">
@@ -11179,10 +11179,10 @@
         </is>
       </c>
       <c r="P150" t="n">
-        <v>360</v>
+        <v>17000</v>
       </c>
       <c r="Q150" t="n">
-        <v>50</v>
+        <v>1</v>
       </c>
       <c r="R150" t="inlineStr">
         <is>
@@ -11205,7 +11205,7 @@
         </is>
       </c>
       <c r="D151" s="2" t="n">
-        <v>44316</v>
+        <v>44421</v>
       </c>
       <c r="E151" t="n">
         <v>13</v>
@@ -11225,24 +11225,24 @@
       </c>
       <c r="I151" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J151" t="n">
-        <v>18</v>
+        <v>70</v>
       </c>
       <c r="K151" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="L151" t="n">
-        <v>18000</v>
+        <v>16000</v>
       </c>
       <c r="M151" t="n">
-        <v>18000</v>
+        <v>15500</v>
       </c>
       <c r="N151" t="inlineStr">
         <is>
-          <t>$/caja 25 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O151" t="inlineStr">
@@ -11251,10 +11251,10 @@
         </is>
       </c>
       <c r="P151" t="n">
-        <v>18000</v>
+        <v>517</v>
       </c>
       <c r="Q151" t="n">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="R151" t="inlineStr">
         <is>
@@ -11277,7 +11277,7 @@
         </is>
       </c>
       <c r="D152" s="2" t="n">
-        <v>44316</v>
+        <v>44421</v>
       </c>
       <c r="E152" t="n">
         <v>13</v>
@@ -11297,24 +11297,24 @@
       </c>
       <c r="I152" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J152" t="n">
-        <v>23</v>
+        <v>43</v>
       </c>
       <c r="K152" t="n">
-        <v>16000</v>
+        <v>13000</v>
       </c>
       <c r="L152" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="M152" t="n">
-        <v>16000</v>
+        <v>13488</v>
       </c>
       <c r="N152" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O152" t="inlineStr">
@@ -11323,10 +11323,10 @@
         </is>
       </c>
       <c r="P152" t="n">
-        <v>533</v>
+        <v>337</v>
       </c>
       <c r="Q152" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="R152" t="inlineStr">
         <is>
@@ -11349,7 +11349,7 @@
         </is>
       </c>
       <c r="D153" s="2" t="n">
-        <v>44356</v>
+        <v>44294</v>
       </c>
       <c r="E153" t="n">
         <v>13</v>
@@ -11364,7 +11364,7 @@
       </c>
       <c r="H153" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I153" t="inlineStr">
@@ -11373,32 +11373,32 @@
         </is>
       </c>
       <c r="J153" t="n">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="K153" t="n">
-        <v>15000</v>
+        <v>17000</v>
       </c>
       <c r="L153" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="M153" t="n">
-        <v>15476</v>
+        <v>17481</v>
       </c>
       <c r="N153" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O153" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P153" t="n">
-        <v>310</v>
+        <v>583</v>
       </c>
       <c r="Q153" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R153" t="inlineStr">
         <is>
@@ -11421,7 +11421,7 @@
         </is>
       </c>
       <c r="D154" s="2" t="n">
-        <v>44356</v>
+        <v>44316</v>
       </c>
       <c r="E154" t="n">
         <v>13</v>
@@ -11441,36 +11441,36 @@
       </c>
       <c r="I154" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J154" t="n">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="K154" t="n">
-        <v>13000</v>
+        <v>18000</v>
       </c>
       <c r="L154" t="n">
-        <v>13000</v>
+        <v>18000</v>
       </c>
       <c r="M154" t="n">
-        <v>13000</v>
+        <v>18000</v>
       </c>
       <c r="N154" t="inlineStr">
         <is>
-          <t>$/caja 70 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O154" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P154" t="n">
-        <v>186</v>
+        <v>360</v>
       </c>
       <c r="Q154" t="n">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="R154" t="inlineStr">
         <is>
@@ -11493,7 +11493,7 @@
         </is>
       </c>
       <c r="D155" s="2" t="n">
-        <v>44356</v>
+        <v>44316</v>
       </c>
       <c r="E155" t="n">
         <v>13</v>
@@ -11513,24 +11513,24 @@
       </c>
       <c r="I155" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J155" t="n">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="K155" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="L155" t="n">
         <v>18000</v>
       </c>
       <c r="M155" t="n">
-        <v>17520</v>
+        <v>18000</v>
       </c>
       <c r="N155" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 25 unidades</t>
         </is>
       </c>
       <c r="O155" t="inlineStr">
@@ -11539,10 +11539,10 @@
         </is>
       </c>
       <c r="P155" t="n">
-        <v>584</v>
+        <v>18000</v>
       </c>
       <c r="Q155" t="n">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="R155" t="inlineStr">
         <is>
@@ -11565,7 +11565,7 @@
         </is>
       </c>
       <c r="D156" s="2" t="n">
-        <v>44356</v>
+        <v>44316</v>
       </c>
       <c r="E156" t="n">
         <v>13</v>
@@ -11585,20 +11585,20 @@
       </c>
       <c r="I156" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J156" t="n">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="K156" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="L156" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="M156" t="n">
-        <v>14500</v>
+        <v>16000</v>
       </c>
       <c r="N156" t="inlineStr">
         <is>
@@ -11611,7 +11611,7 @@
         </is>
       </c>
       <c r="P156" t="n">
-        <v>483</v>
+        <v>533</v>
       </c>
       <c r="Q156" t="n">
         <v>30</v>
@@ -11637,7 +11637,7 @@
         </is>
       </c>
       <c r="D157" s="2" t="n">
-        <v>44454</v>
+        <v>44356</v>
       </c>
       <c r="E157" t="n">
         <v>13</v>
@@ -11652,7 +11652,7 @@
       </c>
       <c r="H157" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I157" t="inlineStr">
@@ -11661,32 +11661,32 @@
         </is>
       </c>
       <c r="J157" t="n">
-        <v>43</v>
+        <v>21</v>
       </c>
       <c r="K157" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="L157" t="n">
-        <v>13000</v>
+        <v>16000</v>
       </c>
       <c r="M157" t="n">
-        <v>12488</v>
+        <v>15476</v>
       </c>
       <c r="N157" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O157" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P157" t="n">
-        <v>416</v>
+        <v>310</v>
       </c>
       <c r="Q157" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R157" t="inlineStr">
         <is>
@@ -11709,7 +11709,7 @@
         </is>
       </c>
       <c r="D158" s="2" t="n">
-        <v>44454</v>
+        <v>44356</v>
       </c>
       <c r="E158" t="n">
         <v>13</v>
@@ -11724,7 +11724,7 @@
       </c>
       <c r="H158" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I158" t="inlineStr">
@@ -11733,32 +11733,32 @@
         </is>
       </c>
       <c r="J158" t="n">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="K158" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="L158" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="M158" t="n">
-        <v>10480</v>
+        <v>13000</v>
       </c>
       <c r="N158" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 70 unidades</t>
         </is>
       </c>
       <c r="O158" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P158" t="n">
-        <v>262</v>
+        <v>186</v>
       </c>
       <c r="Q158" t="n">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="R158" t="inlineStr">
         <is>
@@ -11781,7 +11781,7 @@
         </is>
       </c>
       <c r="D159" s="2" t="n">
-        <v>44467</v>
+        <v>44356</v>
       </c>
       <c r="E159" t="n">
         <v>13</v>
@@ -11801,24 +11801,24 @@
       </c>
       <c r="I159" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J159" t="n">
         <v>25</v>
       </c>
       <c r="K159" t="n">
-        <v>13000</v>
+        <v>17000</v>
       </c>
       <c r="L159" t="n">
-        <v>14000</v>
+        <v>18000</v>
       </c>
       <c r="M159" t="n">
-        <v>13480</v>
+        <v>17520</v>
       </c>
       <c r="N159" t="inlineStr">
         <is>
-          <t>$/caja 25 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O159" t="inlineStr">
@@ -11827,10 +11827,10 @@
         </is>
       </c>
       <c r="P159" t="n">
-        <v>13480</v>
+        <v>584</v>
       </c>
       <c r="Q159" t="n">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="R159" t="inlineStr">
         <is>
@@ -11853,7 +11853,7 @@
         </is>
       </c>
       <c r="D160" s="2" t="n">
-        <v>44467</v>
+        <v>44356</v>
       </c>
       <c r="E160" t="n">
         <v>13</v>
@@ -11873,36 +11873,36 @@
       </c>
       <c r="I160" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J160" t="n">
-        <v>97</v>
+        <v>16</v>
       </c>
       <c r="K160" t="n">
-        <v>550</v>
+        <v>14000</v>
       </c>
       <c r="L160" t="n">
-        <v>600</v>
+        <v>15000</v>
       </c>
       <c r="M160" t="n">
-        <v>575</v>
+        <v>14500</v>
       </c>
       <c r="N160" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O160" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P160" t="n">
-        <v>575</v>
+        <v>483</v>
       </c>
       <c r="Q160" t="n">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="R160" t="inlineStr">
         <is>
@@ -11925,7 +11925,7 @@
         </is>
       </c>
       <c r="D161" s="2" t="n">
-        <v>44467</v>
+        <v>44454</v>
       </c>
       <c r="E161" t="n">
         <v>13</v>
@@ -11949,16 +11949,16 @@
         </is>
       </c>
       <c r="J161" t="n">
-        <v>61</v>
+        <v>43</v>
       </c>
       <c r="K161" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="L161" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="M161" t="n">
-        <v>11492</v>
+        <v>12488</v>
       </c>
       <c r="N161" t="inlineStr">
         <is>
@@ -11971,7 +11971,7 @@
         </is>
       </c>
       <c r="P161" t="n">
-        <v>383</v>
+        <v>416</v>
       </c>
       <c r="Q161" t="n">
         <v>30</v>
@@ -11997,7 +11997,7 @@
         </is>
       </c>
       <c r="D162" s="2" t="n">
-        <v>44467</v>
+        <v>44454</v>
       </c>
       <c r="E162" t="n">
         <v>13</v>
@@ -12017,36 +12017,36 @@
       </c>
       <c r="I162" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J162" t="n">
-        <v>250</v>
+        <v>25</v>
       </c>
       <c r="K162" t="n">
-        <v>450</v>
+        <v>10000</v>
       </c>
       <c r="L162" t="n">
-        <v>500</v>
+        <v>11000</v>
       </c>
       <c r="M162" t="n">
-        <v>475</v>
+        <v>10480</v>
       </c>
       <c r="N162" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O162" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P162" t="n">
-        <v>475</v>
+        <v>262</v>
       </c>
       <c r="Q162" t="n">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="R162" t="inlineStr">
         <is>
@@ -12089,24 +12089,24 @@
       </c>
       <c r="I163" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J163" t="n">
-        <v>43</v>
+        <v>25</v>
       </c>
       <c r="K163" t="n">
-        <v>9000</v>
+        <v>13000</v>
       </c>
       <c r="L163" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="M163" t="n">
-        <v>9512</v>
+        <v>13480</v>
       </c>
       <c r="N163" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 25 unidades</t>
         </is>
       </c>
       <c r="O163" t="inlineStr">
@@ -12115,10 +12115,10 @@
         </is>
       </c>
       <c r="P163" t="n">
-        <v>238</v>
+        <v>13480</v>
       </c>
       <c r="Q163" t="n">
-        <v>40</v>
+        <v>1</v>
       </c>
       <c r="R163" t="inlineStr">
         <is>
@@ -12161,20 +12161,20 @@
       </c>
       <c r="I164" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J164" t="n">
-        <v>160</v>
+        <v>97</v>
       </c>
       <c r="K164" t="n">
-        <v>350</v>
+        <v>550</v>
       </c>
       <c r="L164" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="M164" t="n">
-        <v>375</v>
+        <v>575</v>
       </c>
       <c r="N164" t="inlineStr">
         <is>
@@ -12187,7 +12187,7 @@
         </is>
       </c>
       <c r="P164" t="n">
-        <v>375</v>
+        <v>575</v>
       </c>
       <c r="Q164" t="n">
         <v>1</v>
@@ -12213,7 +12213,7 @@
         </is>
       </c>
       <c r="D165" s="2" t="n">
-        <v>44427</v>
+        <v>44467</v>
       </c>
       <c r="E165" t="n">
         <v>13</v>
@@ -12233,24 +12233,24 @@
       </c>
       <c r="I165" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J165" t="n">
-        <v>16</v>
+        <v>61</v>
       </c>
       <c r="K165" t="n">
-        <v>17000</v>
+        <v>11000</v>
       </c>
       <c r="L165" t="n">
-        <v>17000</v>
+        <v>12000</v>
       </c>
       <c r="M165" t="n">
-        <v>17000</v>
+        <v>11492</v>
       </c>
       <c r="N165" t="inlineStr">
         <is>
-          <t>$/caja 25 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O165" t="inlineStr">
@@ -12259,10 +12259,10 @@
         </is>
       </c>
       <c r="P165" t="n">
-        <v>17000</v>
+        <v>383</v>
       </c>
       <c r="Q165" t="n">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="R165" t="inlineStr">
         <is>
@@ -12285,7 +12285,7 @@
         </is>
       </c>
       <c r="D166" s="2" t="n">
-        <v>44427</v>
+        <v>44467</v>
       </c>
       <c r="E166" t="n">
         <v>13</v>
@@ -12309,32 +12309,32 @@
         </is>
       </c>
       <c r="J166" t="n">
-        <v>43</v>
+        <v>250</v>
       </c>
       <c r="K166" t="n">
-        <v>15000</v>
+        <v>450</v>
       </c>
       <c r="L166" t="n">
-        <v>16000</v>
+        <v>500</v>
       </c>
       <c r="M166" t="n">
-        <v>15488</v>
+        <v>475</v>
       </c>
       <c r="N166" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O166" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P166" t="n">
-        <v>516</v>
+        <v>475</v>
       </c>
       <c r="Q166" t="n">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="R166" t="inlineStr">
         <is>
@@ -12357,7 +12357,7 @@
         </is>
       </c>
       <c r="D167" s="2" t="n">
-        <v>44427</v>
+        <v>44467</v>
       </c>
       <c r="E167" t="n">
         <v>13</v>
@@ -12381,16 +12381,16 @@
         </is>
       </c>
       <c r="J167" t="n">
-        <v>25</v>
+        <v>43</v>
       </c>
       <c r="K167" t="n">
-        <v>13000</v>
+        <v>9000</v>
       </c>
       <c r="L167" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="M167" t="n">
-        <v>13480</v>
+        <v>9512</v>
       </c>
       <c r="N167" t="inlineStr">
         <is>
@@ -12403,7 +12403,7 @@
         </is>
       </c>
       <c r="P167" t="n">
-        <v>337</v>
+        <v>238</v>
       </c>
       <c r="Q167" t="n">
         <v>40</v>
@@ -12429,7 +12429,7 @@
         </is>
       </c>
       <c r="D168" s="2" t="n">
-        <v>44427</v>
+        <v>44467</v>
       </c>
       <c r="E168" t="n">
         <v>13</v>
@@ -12444,41 +12444,41 @@
       </c>
       <c r="H168" t="inlineStr">
         <is>
-          <t>Madrigal</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I168" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J168" t="n">
-        <v>25</v>
+        <v>160</v>
       </c>
       <c r="K168" t="n">
-        <v>15000</v>
+        <v>350</v>
       </c>
       <c r="L168" t="n">
-        <v>16000</v>
+        <v>400</v>
       </c>
       <c r="M168" t="n">
-        <v>15480</v>
+        <v>375</v>
       </c>
       <c r="N168" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O168" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P168" t="n">
-        <v>387</v>
+        <v>375</v>
       </c>
       <c r="Q168" t="n">
-        <v>40</v>
+        <v>1</v>
       </c>
       <c r="R168" t="inlineStr">
         <is>
@@ -12516,29 +12516,29 @@
       </c>
       <c r="H169" t="inlineStr">
         <is>
-          <t>Madrigal</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I169" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J169" t="n">
         <v>16</v>
       </c>
       <c r="K169" t="n">
-        <v>13000</v>
+        <v>17000</v>
       </c>
       <c r="L169" t="n">
-        <v>14000</v>
+        <v>17000</v>
       </c>
       <c r="M169" t="n">
-        <v>13500</v>
+        <v>17000</v>
       </c>
       <c r="N169" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 25 unidades</t>
         </is>
       </c>
       <c r="O169" t="inlineStr">
@@ -12547,10 +12547,10 @@
         </is>
       </c>
       <c r="P169" t="n">
-        <v>270</v>
+        <v>17000</v>
       </c>
       <c r="Q169" t="n">
-        <v>50</v>
+        <v>1</v>
       </c>
       <c r="R169" t="inlineStr">
         <is>
@@ -12573,7 +12573,7 @@
         </is>
       </c>
       <c r="D170" s="2" t="n">
-        <v>44411</v>
+        <v>44427</v>
       </c>
       <c r="E170" t="n">
         <v>13</v>
@@ -12593,24 +12593,24 @@
       </c>
       <c r="I170" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J170" t="n">
-        <v>16</v>
+        <v>43</v>
       </c>
       <c r="K170" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="L170" t="n">
         <v>16000</v>
       </c>
       <c r="M170" t="n">
-        <v>16000</v>
+        <v>15488</v>
       </c>
       <c r="N170" t="inlineStr">
         <is>
-          <t>$/caja 25 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O170" t="inlineStr">
@@ -12619,10 +12619,10 @@
         </is>
       </c>
       <c r="P170" t="n">
-        <v>16000</v>
+        <v>516</v>
       </c>
       <c r="Q170" t="n">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="R170" t="inlineStr">
         <is>
@@ -12645,7 +12645,7 @@
         </is>
       </c>
       <c r="D171" s="2" t="n">
-        <v>44411</v>
+        <v>44427</v>
       </c>
       <c r="E171" t="n">
         <v>13</v>
@@ -12665,24 +12665,24 @@
       </c>
       <c r="I171" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J171" t="n">
-        <v>61</v>
+        <v>25</v>
       </c>
       <c r="K171" t="n">
+        <v>13000</v>
+      </c>
+      <c r="L171" t="n">
         <v>14000</v>
       </c>
-      <c r="L171" t="n">
-        <v>15000</v>
-      </c>
       <c r="M171" t="n">
-        <v>14492</v>
+        <v>13480</v>
       </c>
       <c r="N171" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O171" t="inlineStr">
@@ -12691,10 +12691,10 @@
         </is>
       </c>
       <c r="P171" t="n">
-        <v>483</v>
+        <v>337</v>
       </c>
       <c r="Q171" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="R171" t="inlineStr">
         <is>
@@ -12717,7 +12717,7 @@
         </is>
       </c>
       <c r="D172" s="2" t="n">
-        <v>44411</v>
+        <v>44427</v>
       </c>
       <c r="E172" t="n">
         <v>13</v>
@@ -12732,25 +12732,25 @@
       </c>
       <c r="H172" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Madrigal</t>
         </is>
       </c>
       <c r="I172" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J172" t="n">
         <v>25</v>
       </c>
       <c r="K172" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="L172" t="n">
-        <v>12000</v>
+        <v>16000</v>
       </c>
       <c r="M172" t="n">
-        <v>12000</v>
+        <v>15480</v>
       </c>
       <c r="N172" t="inlineStr">
         <is>
@@ -12763,7 +12763,7 @@
         </is>
       </c>
       <c r="P172" t="n">
-        <v>300</v>
+        <v>387</v>
       </c>
       <c r="Q172" t="n">
         <v>40</v>
@@ -12789,7 +12789,7 @@
         </is>
       </c>
       <c r="D173" s="2" t="n">
-        <v>44403</v>
+        <v>44427</v>
       </c>
       <c r="E173" t="n">
         <v>13</v>
@@ -12804,41 +12804,41 @@
       </c>
       <c r="H173" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Madrigal</t>
         </is>
       </c>
       <c r="I173" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J173" t="n">
-        <v>43</v>
+        <v>16</v>
       </c>
       <c r="K173" t="n">
-        <v>16000</v>
+        <v>13000</v>
       </c>
       <c r="L173" t="n">
-        <v>17000</v>
+        <v>14000</v>
       </c>
       <c r="M173" t="n">
-        <v>16488</v>
+        <v>13500</v>
       </c>
       <c r="N173" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O173" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P173" t="n">
-        <v>550</v>
+        <v>270</v>
       </c>
       <c r="Q173" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R173" t="inlineStr">
         <is>
@@ -12861,7 +12861,7 @@
         </is>
       </c>
       <c r="D174" s="2" t="n">
-        <v>44403</v>
+        <v>44411</v>
       </c>
       <c r="E174" t="n">
         <v>13</v>
@@ -12881,36 +12881,36 @@
       </c>
       <c r="I174" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J174" t="n">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="K174" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="L174" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="M174" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="N174" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 25 unidades</t>
         </is>
       </c>
       <c r="O174" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P174" t="n">
-        <v>350</v>
+        <v>16000</v>
       </c>
       <c r="Q174" t="n">
-        <v>40</v>
+        <v>1</v>
       </c>
       <c r="R174" t="inlineStr">
         <is>
@@ -12933,7 +12933,7 @@
         </is>
       </c>
       <c r="D175" s="2" t="n">
-        <v>44413</v>
+        <v>44411</v>
       </c>
       <c r="E175" t="n">
         <v>13</v>
@@ -12953,36 +12953,36 @@
       </c>
       <c r="I175" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J175" t="n">
-        <v>16</v>
+        <v>61</v>
       </c>
       <c r="K175" t="n">
+        <v>14000</v>
+      </c>
+      <c r="L175" t="n">
         <v>15000</v>
       </c>
-      <c r="L175" t="n">
-        <v>16000</v>
-      </c>
       <c r="M175" t="n">
-        <v>15500</v>
+        <v>14492</v>
       </c>
       <c r="N175" t="inlineStr">
         <is>
-          <t>$/caja 25 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O175" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P175" t="n">
-        <v>15500</v>
+        <v>483</v>
       </c>
       <c r="Q175" t="n">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="R175" t="inlineStr">
         <is>
@@ -13005,7 +13005,7 @@
         </is>
       </c>
       <c r="D176" s="2" t="n">
-        <v>44413</v>
+        <v>44411</v>
       </c>
       <c r="E176" t="n">
         <v>13</v>
@@ -13025,36 +13025,36 @@
       </c>
       <c r="I176" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J176" t="n">
-        <v>61</v>
+        <v>25</v>
       </c>
       <c r="K176" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="L176" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="M176" t="n">
-        <v>13492</v>
+        <v>12000</v>
       </c>
       <c r="N176" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O176" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P176" t="n">
-        <v>450</v>
+        <v>300</v>
       </c>
       <c r="Q176" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="R176" t="inlineStr">
         <is>
@@ -13077,7 +13077,7 @@
         </is>
       </c>
       <c r="D177" s="2" t="n">
-        <v>44413</v>
+        <v>44403</v>
       </c>
       <c r="E177" t="n">
         <v>13</v>
@@ -13097,24 +13097,24 @@
       </c>
       <c r="I177" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J177" t="n">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="K177" t="n">
-        <v>11000</v>
+        <v>16000</v>
       </c>
       <c r="L177" t="n">
-        <v>12000</v>
+        <v>17000</v>
       </c>
       <c r="M177" t="n">
-        <v>11500</v>
+        <v>16488</v>
       </c>
       <c r="N177" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O177" t="inlineStr">
@@ -13123,10 +13123,10 @@
         </is>
       </c>
       <c r="P177" t="n">
-        <v>288</v>
+        <v>550</v>
       </c>
       <c r="Q177" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="R177" t="inlineStr">
         <is>
@@ -13149,7 +13149,7 @@
         </is>
       </c>
       <c r="D178" s="2" t="n">
-        <v>44426</v>
+        <v>44403</v>
       </c>
       <c r="E178" t="n">
         <v>13</v>
@@ -13169,36 +13169,36 @@
       </c>
       <c r="I178" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J178" t="n">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="K178" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="L178" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="M178" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="N178" t="inlineStr">
         <is>
-          <t>$/caja 25 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O178" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P178" t="n">
-        <v>16000</v>
+        <v>350</v>
       </c>
       <c r="Q178" t="n">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="R178" t="inlineStr">
         <is>
@@ -13221,7 +13221,7 @@
         </is>
       </c>
       <c r="D179" s="2" t="n">
-        <v>44426</v>
+        <v>44413</v>
       </c>
       <c r="E179" t="n">
         <v>13</v>
@@ -13241,36 +13241,36 @@
       </c>
       <c r="I179" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J179" t="n">
-        <v>52</v>
+        <v>16</v>
       </c>
       <c r="K179" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="L179" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="M179" t="n">
-        <v>14500</v>
+        <v>15500</v>
       </c>
       <c r="N179" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 25 unidades</t>
         </is>
       </c>
       <c r="O179" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P179" t="n">
-        <v>483</v>
+        <v>15500</v>
       </c>
       <c r="Q179" t="n">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="R179" t="inlineStr">
         <is>
@@ -13293,7 +13293,7 @@
         </is>
       </c>
       <c r="D180" s="2" t="n">
-        <v>44426</v>
+        <v>44413</v>
       </c>
       <c r="E180" t="n">
         <v>13</v>
@@ -13313,36 +13313,36 @@
       </c>
       <c r="I180" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J180" t="n">
-        <v>34</v>
+        <v>61</v>
       </c>
       <c r="K180" t="n">
         <v>13000</v>
       </c>
       <c r="L180" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="M180" t="n">
-        <v>13000</v>
+        <v>13492</v>
       </c>
       <c r="N180" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O180" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P180" t="n">
-        <v>325</v>
+        <v>450</v>
       </c>
       <c r="Q180" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="R180" t="inlineStr">
         <is>
@@ -13365,7 +13365,7 @@
         </is>
       </c>
       <c r="D181" s="2" t="n">
-        <v>44469</v>
+        <v>44413</v>
       </c>
       <c r="E181" t="n">
         <v>13</v>
@@ -13385,36 +13385,36 @@
       </c>
       <c r="I181" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J181" t="n">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="K181" t="n">
+        <v>11000</v>
+      </c>
+      <c r="L181" t="n">
         <v>12000</v>
       </c>
-      <c r="L181" t="n">
-        <v>13000</v>
-      </c>
       <c r="M181" t="n">
-        <v>12480</v>
+        <v>11500</v>
       </c>
       <c r="N181" t="inlineStr">
         <is>
-          <t>$/caja 25 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O181" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P181" t="n">
-        <v>12480</v>
+        <v>288</v>
       </c>
       <c r="Q181" t="n">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="R181" t="inlineStr">
         <is>
@@ -13437,7 +13437,7 @@
         </is>
       </c>
       <c r="D182" s="2" t="n">
-        <v>44469</v>
+        <v>44426</v>
       </c>
       <c r="E182" t="n">
         <v>13</v>
@@ -13457,24 +13457,24 @@
       </c>
       <c r="I182" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J182" t="n">
-        <v>61</v>
+        <v>16</v>
       </c>
       <c r="K182" t="n">
-        <v>10000</v>
+        <v>16000</v>
       </c>
       <c r="L182" t="n">
-        <v>11000</v>
+        <v>16000</v>
       </c>
       <c r="M182" t="n">
-        <v>10492</v>
+        <v>16000</v>
       </c>
       <c r="N182" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 25 unidades</t>
         </is>
       </c>
       <c r="O182" t="inlineStr">
@@ -13483,10 +13483,10 @@
         </is>
       </c>
       <c r="P182" t="n">
-        <v>350</v>
+        <v>16000</v>
       </c>
       <c r="Q182" t="n">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="R182" t="inlineStr">
         <is>
@@ -13509,7 +13509,7 @@
         </is>
       </c>
       <c r="D183" s="2" t="n">
-        <v>44469</v>
+        <v>44426</v>
       </c>
       <c r="E183" t="n">
         <v>13</v>
@@ -13529,24 +13529,24 @@
       </c>
       <c r="I183" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J183" t="n">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="K183" t="n">
-        <v>8000</v>
+        <v>14000</v>
       </c>
       <c r="L183" t="n">
-        <v>9000</v>
+        <v>15000</v>
       </c>
       <c r="M183" t="n">
-        <v>8512</v>
+        <v>14500</v>
       </c>
       <c r="N183" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O183" t="inlineStr">
@@ -13555,10 +13555,10 @@
         </is>
       </c>
       <c r="P183" t="n">
-        <v>213</v>
+        <v>483</v>
       </c>
       <c r="Q183" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="R183" t="inlineStr">
         <is>
@@ -13581,7 +13581,7 @@
         </is>
       </c>
       <c r="D184" s="2" t="n">
-        <v>44168</v>
+        <v>44426</v>
       </c>
       <c r="E184" t="n">
         <v>13</v>
@@ -13601,36 +13601,36 @@
       </c>
       <c r="I184" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J184" t="n">
-        <v>230</v>
+        <v>34</v>
       </c>
       <c r="K184" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="L184" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="M184" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="N184" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O184" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P184" t="n">
-        <v>367</v>
+        <v>325</v>
       </c>
       <c r="Q184" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="R184" t="inlineStr">
         <is>
@@ -13653,7 +13653,7 @@
         </is>
       </c>
       <c r="D185" s="2" t="n">
-        <v>44434</v>
+        <v>44469</v>
       </c>
       <c r="E185" t="n">
         <v>13</v>
@@ -13677,16 +13677,16 @@
         </is>
       </c>
       <c r="J185" t="n">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="K185" t="n">
-        <v>16000</v>
+        <v>12000</v>
       </c>
       <c r="L185" t="n">
-        <v>17000</v>
+        <v>13000</v>
       </c>
       <c r="M185" t="n">
-        <v>16500</v>
+        <v>12480</v>
       </c>
       <c r="N185" t="inlineStr">
         <is>
@@ -13695,11 +13695,11 @@
       </c>
       <c r="O185" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P185" t="n">
-        <v>16500</v>
+        <v>12480</v>
       </c>
       <c r="Q185" t="n">
         <v>1</v>
@@ -13725,7 +13725,7 @@
         </is>
       </c>
       <c r="D186" s="2" t="n">
-        <v>44434</v>
+        <v>44469</v>
       </c>
       <c r="E186" t="n">
         <v>13</v>
@@ -13749,16 +13749,16 @@
         </is>
       </c>
       <c r="J186" t="n">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="K186" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="L186" t="n">
-        <v>15000</v>
+        <v>11000</v>
       </c>
       <c r="M186" t="n">
-        <v>14500</v>
+        <v>10492</v>
       </c>
       <c r="N186" t="inlineStr">
         <is>
@@ -13767,11 +13767,11 @@
       </c>
       <c r="O186" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P186" t="n">
-        <v>483</v>
+        <v>350</v>
       </c>
       <c r="Q186" t="n">
         <v>30</v>
@@ -13797,7 +13797,7 @@
         </is>
       </c>
       <c r="D187" s="2" t="n">
-        <v>44434</v>
+        <v>44469</v>
       </c>
       <c r="E187" t="n">
         <v>13</v>
@@ -13821,16 +13821,16 @@
         </is>
       </c>
       <c r="J187" t="n">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="K187" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="L187" t="n">
-        <v>13000</v>
+        <v>9000</v>
       </c>
       <c r="M187" t="n">
-        <v>12500</v>
+        <v>8512</v>
       </c>
       <c r="N187" t="inlineStr">
         <is>
@@ -13839,11 +13839,11 @@
       </c>
       <c r="O187" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P187" t="n">
-        <v>312</v>
+        <v>213</v>
       </c>
       <c r="Q187" t="n">
         <v>40</v>
@@ -13869,7 +13869,7 @@
         </is>
       </c>
       <c r="D188" s="2" t="n">
-        <v>44292</v>
+        <v>44168</v>
       </c>
       <c r="E188" t="n">
         <v>13</v>
@@ -13893,16 +13893,16 @@
         </is>
       </c>
       <c r="J188" t="n">
-        <v>25</v>
+        <v>230</v>
       </c>
       <c r="K188" t="n">
-        <v>18000</v>
+        <v>11000</v>
       </c>
       <c r="L188" t="n">
-        <v>18000</v>
+        <v>11000</v>
       </c>
       <c r="M188" t="n">
-        <v>18000</v>
+        <v>11000</v>
       </c>
       <c r="N188" t="inlineStr">
         <is>
@@ -13911,11 +13911,11 @@
       </c>
       <c r="O188" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P188" t="n">
-        <v>600</v>
+        <v>367</v>
       </c>
       <c r="Q188" t="n">
         <v>30</v>
@@ -13941,7 +13941,7 @@
         </is>
       </c>
       <c r="D189" s="2" t="n">
-        <v>44351</v>
+        <v>44434</v>
       </c>
       <c r="E189" t="n">
         <v>13</v>
@@ -13956,16 +13956,16 @@
       </c>
       <c r="H189" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I189" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J189" t="n">
-        <v>43</v>
+        <v>18</v>
       </c>
       <c r="K189" t="n">
         <v>16000</v>
@@ -13974,23 +13974,23 @@
         <v>17000</v>
       </c>
       <c r="M189" t="n">
-        <v>16512</v>
+        <v>16500</v>
       </c>
       <c r="N189" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 25 unidades</t>
         </is>
       </c>
       <c r="O189" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P189" t="n">
-        <v>330</v>
+        <v>16500</v>
       </c>
       <c r="Q189" t="n">
-        <v>50</v>
+        <v>1</v>
       </c>
       <c r="R189" t="inlineStr">
         <is>
@@ -14013,7 +14013,7 @@
         </is>
       </c>
       <c r="D190" s="2" t="n">
-        <v>44351</v>
+        <v>44434</v>
       </c>
       <c r="E190" t="n">
         <v>13</v>
@@ -14028,41 +14028,41 @@
       </c>
       <c r="H190" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I190" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J190" t="n">
-        <v>21</v>
+        <v>52</v>
       </c>
       <c r="K190" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="L190" t="n">
         <v>15000</v>
       </c>
       <c r="M190" t="n">
-        <v>15000</v>
+        <v>14500</v>
       </c>
       <c r="N190" t="inlineStr">
         <is>
-          <t>$/caja 70 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O190" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P190" t="n">
-        <v>214</v>
+        <v>483</v>
       </c>
       <c r="Q190" t="n">
-        <v>70</v>
+        <v>30</v>
       </c>
       <c r="R190" t="inlineStr">
         <is>
@@ -14085,7 +14085,7 @@
         </is>
       </c>
       <c r="D191" s="2" t="n">
-        <v>44351</v>
+        <v>44434</v>
       </c>
       <c r="E191" t="n">
         <v>13</v>
@@ -14105,24 +14105,24 @@
       </c>
       <c r="I191" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J191" t="n">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="K191" t="n">
-        <v>20000</v>
+        <v>12000</v>
       </c>
       <c r="L191" t="n">
-        <v>20000</v>
+        <v>13000</v>
       </c>
       <c r="M191" t="n">
-        <v>20000</v>
+        <v>12500</v>
       </c>
       <c r="N191" t="inlineStr">
         <is>
-          <t>$/caja 25 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O191" t="inlineStr">
@@ -14131,10 +14131,10 @@
         </is>
       </c>
       <c r="P191" t="n">
-        <v>20000</v>
+        <v>312</v>
       </c>
       <c r="Q191" t="n">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="R191" t="inlineStr">
         <is>
@@ -14157,7 +14157,7 @@
         </is>
       </c>
       <c r="D192" s="2" t="n">
-        <v>44351</v>
+        <v>44292</v>
       </c>
       <c r="E192" t="n">
         <v>13</v>
@@ -14181,16 +14181,16 @@
         </is>
       </c>
       <c r="J192" t="n">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="K192" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="L192" t="n">
         <v>18000</v>
       </c>
       <c r="M192" t="n">
-        <v>17500</v>
+        <v>18000</v>
       </c>
       <c r="N192" t="inlineStr">
         <is>
@@ -14199,11 +14199,11 @@
       </c>
       <c r="O192" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P192" t="n">
-        <v>583</v>
+        <v>600</v>
       </c>
       <c r="Q192" t="n">
         <v>30</v>
@@ -14244,41 +14244,41 @@
       </c>
       <c r="H193" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I193" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J193" t="n">
-        <v>16</v>
+        <v>43</v>
       </c>
       <c r="K193" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="L193" t="n">
-        <v>15000</v>
+        <v>17000</v>
       </c>
       <c r="M193" t="n">
-        <v>15000</v>
+        <v>16512</v>
       </c>
       <c r="N193" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O193" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P193" t="n">
-        <v>375</v>
+        <v>330</v>
       </c>
       <c r="Q193" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="R193" t="inlineStr">
         <is>
@@ -14301,7 +14301,7 @@
         </is>
       </c>
       <c r="D194" s="2" t="n">
-        <v>44344</v>
+        <v>44351</v>
       </c>
       <c r="E194" t="n">
         <v>13</v>
@@ -14321,7 +14321,7 @@
       </c>
       <c r="I194" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J194" t="n">
@@ -14331,14 +14331,14 @@
         <v>15000</v>
       </c>
       <c r="L194" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="M194" t="n">
-        <v>15524</v>
+        <v>15000</v>
       </c>
       <c r="N194" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 70 unidades</t>
         </is>
       </c>
       <c r="O194" t="inlineStr">
@@ -14347,10 +14347,10 @@
         </is>
       </c>
       <c r="P194" t="n">
-        <v>310</v>
+        <v>214</v>
       </c>
       <c r="Q194" t="n">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="R194" t="inlineStr">
         <is>
@@ -14373,7 +14373,7 @@
         </is>
       </c>
       <c r="D195" s="2" t="n">
-        <v>44344</v>
+        <v>44351</v>
       </c>
       <c r="E195" t="n">
         <v>13</v>
@@ -14393,36 +14393,36 @@
       </c>
       <c r="I195" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J195" t="n">
         <v>16</v>
       </c>
       <c r="K195" t="n">
-        <v>17000</v>
+        <v>20000</v>
       </c>
       <c r="L195" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="M195" t="n">
-        <v>17500</v>
+        <v>20000</v>
       </c>
       <c r="N195" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 25 unidades</t>
         </is>
       </c>
       <c r="O195" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P195" t="n">
-        <v>583</v>
+        <v>20000</v>
       </c>
       <c r="Q195" t="n">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="R195" t="inlineStr">
         <is>
@@ -14445,7 +14445,7 @@
         </is>
       </c>
       <c r="D196" s="2" t="n">
-        <v>44344</v>
+        <v>44351</v>
       </c>
       <c r="E196" t="n">
         <v>13</v>
@@ -14465,36 +14465,36 @@
       </c>
       <c r="I196" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J196" t="n">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="K196" t="n">
-        <v>14000</v>
+        <v>17000</v>
       </c>
       <c r="L196" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="M196" t="n">
-        <v>15000</v>
+        <v>17500</v>
       </c>
       <c r="N196" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O196" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P196" t="n">
-        <v>375</v>
+        <v>583</v>
       </c>
       <c r="Q196" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="R196" t="inlineStr">
         <is>
@@ -14517,7 +14517,7 @@
         </is>
       </c>
       <c r="D197" s="2" t="n">
-        <v>44407</v>
+        <v>44351</v>
       </c>
       <c r="E197" t="n">
         <v>13</v>
@@ -14537,24 +14537,24 @@
       </c>
       <c r="I197" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J197" t="n">
         <v>16</v>
       </c>
       <c r="K197" t="n">
-        <v>17000</v>
+        <v>15000</v>
       </c>
       <c r="L197" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="M197" t="n">
-        <v>17500</v>
+        <v>15000</v>
       </c>
       <c r="N197" t="inlineStr">
         <is>
-          <t>$/caja 25 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O197" t="inlineStr">
@@ -14563,10 +14563,10 @@
         </is>
       </c>
       <c r="P197" t="n">
-        <v>17500</v>
+        <v>375</v>
       </c>
       <c r="Q197" t="n">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="R197" t="inlineStr">
         <is>
@@ -14589,7 +14589,7 @@
         </is>
       </c>
       <c r="D198" s="2" t="n">
-        <v>44407</v>
+        <v>44344</v>
       </c>
       <c r="E198" t="n">
         <v>13</v>
@@ -14604,7 +14604,7 @@
       </c>
       <c r="H198" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I198" t="inlineStr">
@@ -14613,7 +14613,7 @@
         </is>
       </c>
       <c r="J198" t="n">
-        <v>61</v>
+        <v>21</v>
       </c>
       <c r="K198" t="n">
         <v>15000</v>
@@ -14622,23 +14622,23 @@
         <v>16000</v>
       </c>
       <c r="M198" t="n">
-        <v>15508</v>
+        <v>15524</v>
       </c>
       <c r="N198" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O198" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P198" t="n">
-        <v>517</v>
+        <v>310</v>
       </c>
       <c r="Q198" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R198" t="inlineStr">
         <is>
@@ -14661,7 +14661,7 @@
         </is>
       </c>
       <c r="D199" s="2" t="n">
-        <v>44407</v>
+        <v>44344</v>
       </c>
       <c r="E199" t="n">
         <v>13</v>
@@ -14681,36 +14681,36 @@
       </c>
       <c r="I199" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J199" t="n">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="K199" t="n">
-        <v>14000</v>
+        <v>17000</v>
       </c>
       <c r="L199" t="n">
-        <v>14000</v>
+        <v>18000</v>
       </c>
       <c r="M199" t="n">
-        <v>14000</v>
+        <v>17500</v>
       </c>
       <c r="N199" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O199" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P199" t="n">
-        <v>350</v>
+        <v>583</v>
       </c>
       <c r="Q199" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="R199" t="inlineStr">
         <is>
@@ -14733,7 +14733,7 @@
         </is>
       </c>
       <c r="D200" s="2" t="n">
-        <v>44358</v>
+        <v>44344</v>
       </c>
       <c r="E200" t="n">
         <v>13</v>
@@ -14748,41 +14748,41 @@
       </c>
       <c r="H200" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I200" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J200" t="n">
-        <v>52</v>
+        <v>14</v>
       </c>
       <c r="K200" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="L200" t="n">
         <v>16000</v>
       </c>
       <c r="M200" t="n">
-        <v>15500</v>
+        <v>15000</v>
       </c>
       <c r="N200" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O200" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P200" t="n">
-        <v>310</v>
+        <v>375</v>
       </c>
       <c r="Q200" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="R200" t="inlineStr">
         <is>
@@ -14805,7 +14805,7 @@
         </is>
       </c>
       <c r="D201" s="2" t="n">
-        <v>44358</v>
+        <v>44407</v>
       </c>
       <c r="E201" t="n">
         <v>13</v>
@@ -14820,29 +14820,29 @@
       </c>
       <c r="H201" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I201" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J201" t="n">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="K201" t="n">
-        <v>14000</v>
+        <v>17000</v>
       </c>
       <c r="L201" t="n">
-        <v>14000</v>
+        <v>18000</v>
       </c>
       <c r="M201" t="n">
-        <v>14000</v>
+        <v>17500</v>
       </c>
       <c r="N201" t="inlineStr">
         <is>
-          <t>$/caja 70 unidades</t>
+          <t>$/caja 25 unidades</t>
         </is>
       </c>
       <c r="O201" t="inlineStr">
@@ -14851,10 +14851,10 @@
         </is>
       </c>
       <c r="P201" t="n">
-        <v>200</v>
+        <v>17500</v>
       </c>
       <c r="Q201" t="n">
-        <v>70</v>
+        <v>1</v>
       </c>
       <c r="R201" t="inlineStr">
         <is>
@@ -14877,7 +14877,7 @@
         </is>
       </c>
       <c r="D202" s="2" t="n">
-        <v>44358</v>
+        <v>44407</v>
       </c>
       <c r="E202" t="n">
         <v>13</v>
@@ -14897,36 +14897,36 @@
       </c>
       <c r="I202" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J202" t="n">
-        <v>16</v>
+        <v>61</v>
       </c>
       <c r="K202" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="L202" t="n">
-        <v>19000</v>
+        <v>16000</v>
       </c>
       <c r="M202" t="n">
-        <v>18500</v>
+        <v>15508</v>
       </c>
       <c r="N202" t="inlineStr">
         <is>
-          <t>$/caja 25 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O202" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P202" t="n">
-        <v>18500</v>
+        <v>517</v>
       </c>
       <c r="Q202" t="n">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="R202" t="inlineStr">
         <is>
@@ -14949,7 +14949,7 @@
         </is>
       </c>
       <c r="D203" s="2" t="n">
-        <v>44358</v>
+        <v>44407</v>
       </c>
       <c r="E203" t="n">
         <v>13</v>
@@ -14969,36 +14969,36 @@
       </c>
       <c r="I203" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J203" t="n">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="K203" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="L203" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="M203" t="n">
-        <v>15488</v>
+        <v>14000</v>
       </c>
       <c r="N203" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O203" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P203" t="n">
-        <v>516</v>
+        <v>350</v>
       </c>
       <c r="Q203" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="R203" t="inlineStr">
         <is>
@@ -15036,41 +15036,41 @@
       </c>
       <c r="H204" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I204" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J204" t="n">
-        <v>25</v>
+        <v>52</v>
       </c>
       <c r="K204" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="L204" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="M204" t="n">
-        <v>14000</v>
+        <v>15500</v>
       </c>
       <c r="N204" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O204" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P204" t="n">
-        <v>350</v>
+        <v>310</v>
       </c>
       <c r="Q204" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="R204" t="inlineStr">
         <is>
@@ -15093,7 +15093,7 @@
         </is>
       </c>
       <c r="D205" s="2" t="n">
-        <v>44391</v>
+        <v>44358</v>
       </c>
       <c r="E205" t="n">
         <v>13</v>
@@ -15108,29 +15108,29 @@
       </c>
       <c r="H205" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I205" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J205" t="n">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="K205" t="n">
-        <v>17000</v>
+        <v>14000</v>
       </c>
       <c r="L205" t="n">
-        <v>18000</v>
+        <v>14000</v>
       </c>
       <c r="M205" t="n">
-        <v>17500</v>
+        <v>14000</v>
       </c>
       <c r="N205" t="inlineStr">
         <is>
-          <t>$/caja 25 unidades</t>
+          <t>$/caja 70 unidades</t>
         </is>
       </c>
       <c r="O205" t="inlineStr">
@@ -15139,10 +15139,10 @@
         </is>
       </c>
       <c r="P205" t="n">
-        <v>17500</v>
+        <v>200</v>
       </c>
       <c r="Q205" t="n">
-        <v>1</v>
+        <v>70</v>
       </c>
       <c r="R205" t="inlineStr">
         <is>
@@ -15165,7 +15165,7 @@
         </is>
       </c>
       <c r="D206" s="2" t="n">
-        <v>44391</v>
+        <v>44358</v>
       </c>
       <c r="E206" t="n">
         <v>13</v>
@@ -15185,36 +15185,36 @@
       </c>
       <c r="I206" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J206" t="n">
-        <v>43</v>
+        <v>16</v>
       </c>
       <c r="K206" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="L206" t="n">
-        <v>16000</v>
+        <v>19000</v>
       </c>
       <c r="M206" t="n">
-        <v>15488</v>
+        <v>18500</v>
       </c>
       <c r="N206" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 25 unidades</t>
         </is>
       </c>
       <c r="O206" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P206" t="n">
-        <v>516</v>
+        <v>18500</v>
       </c>
       <c r="Q206" t="n">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="R206" t="inlineStr">
         <is>
@@ -15237,7 +15237,7 @@
         </is>
       </c>
       <c r="D207" s="2" t="n">
-        <v>44391</v>
+        <v>44358</v>
       </c>
       <c r="E207" t="n">
         <v>13</v>
@@ -15257,36 +15257,36 @@
       </c>
       <c r="I207" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J207" t="n">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="K207" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="L207" t="n">
-        <v>13000</v>
+        <v>16000</v>
       </c>
       <c r="M207" t="n">
-        <v>13000</v>
+        <v>15488</v>
       </c>
       <c r="N207" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O207" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P207" t="n">
-        <v>325</v>
+        <v>516</v>
       </c>
       <c r="Q207" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="R207" t="inlineStr">
         <is>
@@ -15309,7 +15309,7 @@
         </is>
       </c>
       <c r="D208" s="2" t="n">
-        <v>44335</v>
+        <v>44358</v>
       </c>
       <c r="E208" t="n">
         <v>13</v>
@@ -15324,29 +15324,29 @@
       </c>
       <c r="H208" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I208" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J208" t="n">
         <v>25</v>
       </c>
       <c r="K208" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="L208" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="M208" t="n">
-        <v>15480</v>
+        <v>14000</v>
       </c>
       <c r="N208" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O208" t="inlineStr">
@@ -15355,10 +15355,10 @@
         </is>
       </c>
       <c r="P208" t="n">
-        <v>310</v>
+        <v>350</v>
       </c>
       <c r="Q208" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="R208" t="inlineStr">
         <is>
@@ -15381,7 +15381,7 @@
         </is>
       </c>
       <c r="D209" s="2" t="n">
-        <v>44335</v>
+        <v>44391</v>
       </c>
       <c r="E209" t="n">
         <v>13</v>
@@ -15401,7 +15401,7 @@
       </c>
       <c r="I209" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J209" t="n">
@@ -15418,19 +15418,19 @@
       </c>
       <c r="N209" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 25 unidades</t>
         </is>
       </c>
       <c r="O209" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P209" t="n">
-        <v>583</v>
+        <v>17500</v>
       </c>
       <c r="Q209" t="n">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="R209" t="inlineStr">
         <is>
@@ -15453,7 +15453,7 @@
         </is>
       </c>
       <c r="D210" s="2" t="n">
-        <v>44335</v>
+        <v>44391</v>
       </c>
       <c r="E210" t="n">
         <v>13</v>
@@ -15477,32 +15477,32 @@
         </is>
       </c>
       <c r="J210" t="n">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="K210" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="L210" t="n">
         <v>16000</v>
       </c>
       <c r="M210" t="n">
-        <v>16000</v>
+        <v>15488</v>
       </c>
       <c r="N210" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O210" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P210" t="n">
-        <v>400</v>
+        <v>516</v>
       </c>
       <c r="Q210" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="R210" t="inlineStr">
         <is>
@@ -15525,7 +15525,7 @@
         </is>
       </c>
       <c r="D211" s="2" t="n">
-        <v>44320</v>
+        <v>44391</v>
       </c>
       <c r="E211" t="n">
         <v>13</v>
@@ -15545,36 +15545,36 @@
       </c>
       <c r="I211" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J211" t="n">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="K211" t="n">
-        <v>18000</v>
+        <v>13000</v>
       </c>
       <c r="L211" t="n">
-        <v>18000</v>
+        <v>13000</v>
       </c>
       <c r="M211" t="n">
-        <v>18000</v>
+       